--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -44,16 +44,16 @@
     <t xml:space="preserve">BPE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54022288322449</t>
+    <t xml:space="preserve">3.54022264480591</t>
   </si>
   <si>
     <t xml:space="preserve">3.38293671607971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30558252334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23080778121948</t>
+    <t xml:space="preserve">3.30558300018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23080706596375</t>
   </si>
   <si>
     <t xml:space="preserve">3.23338603973389</t>
@@ -62,31 +62,31 @@
     <t xml:space="preserve">3.20760083198547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36230802536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18955230712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91107869148254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89818620681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68675231933594</t>
+    <t xml:space="preserve">3.36230826377869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18955254554749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91107845306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89818644523621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68675255775452</t>
   </si>
   <si>
     <t xml:space="preserve">2.98327565193176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94975543022156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87240219116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0400013923645</t>
+    <t xml:space="preserve">2.94975519180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87240195274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04000163078308</t>
   </si>
   <si>
     <t xml:space="preserve">2.91623568534851</t>
@@ -101,43 +101,43 @@
     <t xml:space="preserve">2.76668500900269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57845759391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36496114730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37424373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32473731040955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04729533195496</t>
+    <t xml:space="preserve">2.578458070755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36496090888977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37424397468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32473707199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04729557037354</t>
   </si>
   <si>
     <t xml:space="preserve">2.00294613838196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14115118980408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93590617179871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15868473052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37733769416809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49285244941711</t>
+    <t xml:space="preserve">2.1411509513855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93590593338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15868449211121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37733745574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49285268783569</t>
   </si>
   <si>
     <t xml:space="preserve">2.55267333984375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53720188140869</t>
+    <t xml:space="preserve">2.53720211982727</t>
   </si>
   <si>
     <t xml:space="preserve">2.38558912277222</t>
@@ -146,55 +146,55 @@
     <t xml:space="preserve">2.62744879722595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52791953086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36702370643616</t>
+    <t xml:space="preserve">2.52791929244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36702394485474</t>
   </si>
   <si>
     <t xml:space="preserve">2.42581248283386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47119379043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4289071559906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46500492095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5861930847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54132795333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5516414642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41962456703186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38455748558044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41137361526489</t>
+    <t xml:space="preserve">2.47119402885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42890691757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46500515937805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58619284629822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54132771492004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55164194107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41962480545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38455772399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41137337684631</t>
   </si>
   <si>
     <t xml:space="preserve">2.43303251266479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63518404960632</t>
+    <t xml:space="preserve">2.63518381118774</t>
   </si>
   <si>
     <t xml:space="preserve">2.67128229141235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58361411094666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40827918052673</t>
+    <t xml:space="preserve">2.58361387252808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40827870368958</t>
   </si>
   <si>
     <t xml:space="preserve">2.4350950717926</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">2.45675420761108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45056629180908</t>
+    <t xml:space="preserve">2.4505660533905</t>
   </si>
   <si>
     <t xml:space="preserve">2.41446733474731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34845924377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25150895118713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22881865501404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15765285491943</t>
+    <t xml:space="preserve">2.34845900535583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25150918960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22881841659546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15765309333801</t>
   </si>
   <si>
     <t xml:space="preserve">2.1968457698822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07204818725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06070280075073</t>
+    <t xml:space="preserve">2.07204842567444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06070303916931</t>
   </si>
   <si>
     <t xml:space="preserve">1.93899977207184</t>
@@ -239,25 +239,25 @@
     <t xml:space="preserve">2.32370615005493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.230881690979</t>
+    <t xml:space="preserve">2.23088145256042</t>
   </si>
   <si>
     <t xml:space="preserve">2.48666477203369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59908485412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60682034492493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51966857910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59392809867859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67643857002258</t>
+    <t xml:space="preserve">2.59908533096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60682058334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51966881752014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59392833709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.676438331604</t>
   </si>
   <si>
     <t xml:space="preserve">2.68933081626892</t>
@@ -266,10 +266,10 @@
     <t xml:space="preserve">2.59650731086731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68159604072571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64034056663513</t>
+    <t xml:space="preserve">2.68159556388855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64034104347229</t>
   </si>
   <si>
     <t xml:space="preserve">2.74347877502441</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">2.5361704826355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42478179931641</t>
+    <t xml:space="preserve">2.42478156089783</t>
   </si>
   <si>
     <t xml:space="preserve">2.39796566963196</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">2.33092570304871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27007389068604</t>
+    <t xml:space="preserve">2.27007365226746</t>
   </si>
   <si>
     <t xml:space="preserve">2.2638852596283</t>
@@ -302,13 +302,13 @@
     <t xml:space="preserve">2.22263050079346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21953582763672</t>
+    <t xml:space="preserve">2.2195360660553</t>
   </si>
   <si>
     <t xml:space="preserve">2.25357222557068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37836909294128</t>
+    <t xml:space="preserve">2.37836933135986</t>
   </si>
   <si>
     <t xml:space="preserve">2.26698017120361</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">2.29585838317871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25048995018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42774319648743</t>
+    <t xml:space="preserve">2.25049018859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42774295806885</t>
   </si>
   <si>
     <t xml:space="preserve">2.54907751083374</t>
@@ -335,10 +335,10 @@
     <t xml:space="preserve">2.53008675575256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39925646781921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36865901947021</t>
+    <t xml:space="preserve">2.39925622940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36865949630737</t>
   </si>
   <si>
     <t xml:space="preserve">2.27370190620422</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">2.26315069198608</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2926926612854</t>
+    <t xml:space="preserve">2.29269289970398</t>
   </si>
   <si>
     <t xml:space="preserve">2.33595156669617</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">2.18296456336975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05002355575562</t>
+    <t xml:space="preserve">2.05002379417419</t>
   </si>
   <si>
     <t xml:space="preserve">1.99199438095093</t>
@@ -365,103 +365,103 @@
     <t xml:space="preserve">1.98566436767578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93396472930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12599039077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22200226783752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27897691726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26948142051697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44356966018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84217298030853</t>
+    <t xml:space="preserve">1.93396496772766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12599015235901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2220025062561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27897667884827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26948118209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44356989860535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8421733379364</t>
   </si>
   <si>
     <t xml:space="preserve">1.82318162918091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77992260456085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68285548686981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72927939891815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64592730998993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53514397144318</t>
+    <t xml:space="preserve">1.77992272377014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6828556060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72927951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6459276676178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53514409065247</t>
   </si>
   <si>
     <t xml:space="preserve">1.53619933128357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42647051811218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36211025714874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58262240886688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65647876262665</t>
+    <t xml:space="preserve">1.42647039890289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36211037635803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58262252807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65647852420807</t>
   </si>
   <si>
     <t xml:space="preserve">1.79152917861938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70184707641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7746479511261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79574918746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80630016326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78941881656647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80840992927551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86643970012665</t>
+    <t xml:space="preserve">1.70184719562531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77464807033539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79574930667877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8063006401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78941857814789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80841016769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86643958091736</t>
   </si>
   <si>
     <t xml:space="preserve">1.8527238368988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8031347990036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81157553195953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89492702484131</t>
+    <t xml:space="preserve">1.80313456058502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81157541275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89492690563202</t>
   </si>
   <si>
     <t xml:space="preserve">1.83584237098694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93607532978058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82634651660919</t>
+    <t xml:space="preserve">1.93607544898987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8263463973999</t>
   </si>
   <si>
     <t xml:space="preserve">1.60055887699127</t>
@@ -476,52 +476,52 @@
     <t xml:space="preserve">1.89176189899445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8569438457489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89387154579163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88226652145386</t>
+    <t xml:space="preserve">1.85694396495819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89387178421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88226616382599</t>
   </si>
   <si>
     <t xml:space="preserve">1.88121104240417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85483431816101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8411180973053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77253711223602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8041900396347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69973683357239</t>
+    <t xml:space="preserve">1.85483407974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84111762046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77253723144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80419015884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6997367143631</t>
   </si>
   <si>
     <t xml:space="preserve">1.71134293079376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80946552753448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84850347042084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79469406604767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75776600837708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80735492706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82001662254333</t>
+    <t xml:space="preserve">1.80946564674377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84850299358368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79469394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75776612758636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80735468864441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82001638412476</t>
   </si>
   <si>
     <t xml:space="preserve">1.85377883911133</t>
@@ -530,124 +530,124 @@
     <t xml:space="preserve">1.87910044193268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84533798694611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90758752822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91075336933136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87277042865753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83689785003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78836393356323</t>
+    <t xml:space="preserve">1.84533822536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90758812427521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91075301170349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87277066707611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83689773082733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78836405277252</t>
   </si>
   <si>
     <t xml:space="preserve">1.72822403907776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7546010017395</t>
+    <t xml:space="preserve">1.75460112094879</t>
   </si>
   <si>
     <t xml:space="preserve">1.67969048023224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7588210105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76304161548615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68391096591949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65753388404846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69446182250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69762694835663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74721586704254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70712280273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78730881214142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79258406162262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7672621011734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83056688308716</t>
+    <t xml:space="preserve">1.75882112979889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76304173469543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68391072750092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65753376483917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69446170330048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69762682914734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74721598625183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70712268352509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78730857372284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79258418083191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76726186275482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83056664466858</t>
   </si>
   <si>
     <t xml:space="preserve">1.94135069847107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9846088886261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89809215068817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99726998806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03947353363037</t>
+    <t xml:space="preserve">1.98460900783539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89809226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99726986885071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03947329521179</t>
   </si>
   <si>
     <t xml:space="preserve">2.14392685890198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2462694644928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24099373817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29796838760376</t>
+    <t xml:space="preserve">2.24626970291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2409942150116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2979679107666</t>
   </si>
   <si>
     <t xml:space="preserve">2.20195651054382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23782896995544</t>
+    <t xml:space="preserve">2.23782873153687</t>
   </si>
   <si>
     <t xml:space="preserve">2.29058289527893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28425216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25470995903015</t>
+    <t xml:space="preserve">2.28425192832947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25471019744873</t>
   </si>
   <si>
     <t xml:space="preserve">2.23571872711182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11016392707825</t>
+    <t xml:space="preserve">2.11016416549683</t>
   </si>
   <si>
     <t xml:space="preserve">2.0837869644165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06057476997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13232064247131</t>
+    <t xml:space="preserve">2.06057500839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13232040405273</t>
   </si>
   <si>
     <t xml:space="preserve">2.17241334915161</t>
@@ -656,46 +656,46 @@
     <t xml:space="preserve">2.20406603813171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20512104034424</t>
+    <t xml:space="preserve">2.20512127876282</t>
   </si>
   <si>
     <t xml:space="preserve">2.18190956115723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17135787010193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10805344581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01837110519409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97722351551056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96878230571747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00887608528137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99832510948181</t>
+    <t xml:space="preserve">2.17135834693909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10805296897888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01837134361267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97722387313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96878254413605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00887656211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99832499027252</t>
   </si>
   <si>
     <t xml:space="preserve">2.00465536117554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97405791282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99938035011292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15975260734558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11649465560913</t>
+    <t xml:space="preserve">1.97405779361725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9993804693222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15975284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11649441719055</t>
   </si>
   <si>
     <t xml:space="preserve">2.25998568534851</t>
@@ -704,37 +704,37 @@
     <t xml:space="preserve">2.49526858329773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53114128112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.492103099823</t>
+    <t xml:space="preserve">2.53114151954651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49210333824158</t>
   </si>
   <si>
     <t xml:space="preserve">2.53852725028992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59233617782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.550133228302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61871361732483</t>
+    <t xml:space="preserve">2.59233641624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55013298988342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61871337890625</t>
   </si>
   <si>
     <t xml:space="preserve">2.64034247398376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62187838554382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63770508766174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69573473930359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72211122512817</t>
+    <t xml:space="preserve">2.62187814712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63770532608032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69573426246643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72211146354675</t>
   </si>
   <si>
     <t xml:space="preserve">2.73002433776855</t>
@@ -743,37 +743,37 @@
     <t xml:space="preserve">2.66935753822327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78014063835144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88564848899841</t>
+    <t xml:space="preserve">2.7801411151886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88564896583557</t>
   </si>
   <si>
     <t xml:space="preserve">2.83817052841187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7959668636322</t>
+    <t xml:space="preserve">2.79596710205078</t>
   </si>
   <si>
     <t xml:space="preserve">2.65616917610168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64297962188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80124235153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77486515045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81970620155334</t>
+    <t xml:space="preserve">2.64297986030579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80124258995056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77486538887024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8197066783905</t>
   </si>
   <si>
     <t xml:space="preserve">2.83025765419006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98324418067932</t>
+    <t xml:space="preserve">2.9832444190979</t>
   </si>
   <si>
     <t xml:space="preserve">3.03072237968445</t>
@@ -782,64 +782,64 @@
     <t xml:space="preserve">2.95950484275818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96741795539856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00434565544128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95686721801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81706929206848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7643141746521</t>
+    <t xml:space="preserve">2.96741771697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00434613227844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95686745643616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81706881523132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76431441307068</t>
   </si>
   <si>
     <t xml:space="preserve">2.82761907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84080767631531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90938830375671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74321269989014</t>
+    <t xml:space="preserve">2.84080791473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90938806533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74321293830872</t>
   </si>
   <si>
     <t xml:space="preserve">2.64825534820557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67990827560425</t>
+    <t xml:space="preserve">2.67990803718567</t>
   </si>
   <si>
     <t xml:space="preserve">2.50898456573486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51742506027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60394215583801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53747200965881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44989991188049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37393379211426</t>
+    <t xml:space="preserve">2.5174252986908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60394191741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53747224807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44989967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37393403053284</t>
   </si>
   <si>
     <t xml:space="preserve">2.3486123085022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34544730186462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25576519966125</t>
+    <t xml:space="preserve">2.34544682502747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25576543807983</t>
   </si>
   <si>
     <t xml:space="preserve">2.21567225456238</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">2.41191744804382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31062912940979</t>
+    <t xml:space="preserve">2.31062936782837</t>
   </si>
   <si>
     <t xml:space="preserve">2.31590437889099</t>
@@ -869,34 +869,34 @@
     <t xml:space="preserve">2.39292550086975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47100210189819</t>
+    <t xml:space="preserve">2.47100186347961</t>
   </si>
   <si>
     <t xml:space="preserve">2.42985415458679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36760401725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37182426452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48999357223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46045064926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53430700302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54380297660828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6155481338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58600568771362</t>
+    <t xml:space="preserve">2.36760377883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37182450294495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48999381065369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46045112609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53430676460266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5438027381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61554837226868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58600544929504</t>
   </si>
   <si>
     <t xml:space="preserve">2.53958177566528</t>
@@ -911,19 +911,19 @@
     <t xml:space="preserve">2.47416687011719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46889185905457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38237452507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40031099319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39820098876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41613793373108</t>
+    <t xml:space="preserve">2.46889162063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38237476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40031123161316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39820122718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4161376953125</t>
   </si>
   <si>
     <t xml:space="preserve">2.37709999084473</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">2.32012486457825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30113410949707</t>
+    <t xml:space="preserve">2.30113387107849</t>
   </si>
   <si>
     <t xml:space="preserve">2.41824746131897</t>
@@ -944,19 +944,19 @@
     <t xml:space="preserve">2.62293362617493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56595921516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64561820030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71419858932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75376391410828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68518376350403</t>
+    <t xml:space="preserve">2.56595969200134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64561796188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71419835090637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75376415252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68518328666687</t>
   </si>
   <si>
     <t xml:space="preserve">2.66408228874207</t>
@@ -965,445 +965,448 @@
     <t xml:space="preserve">2.51320505142212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47311186790466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56384897232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52164554595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46361637115479</t>
+    <t xml:space="preserve">2.47311162948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56384873390198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52164530754089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46361613273621</t>
   </si>
   <si>
     <t xml:space="preserve">2.43512940406799</t>
   </si>
   <si>
+    <t xml:space="preserve">2.47205710411072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46029996871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46136951446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49556946754456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49236345291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4635066986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38869333267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38976168632507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32991123199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37907409667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34914898872375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30639839172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27112913131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27540397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35983633995056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35235524177551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30319213867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36090540885925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3373920917511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23158431053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24547815322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18776512145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28609132766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27647256851196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33632326126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35021734237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37159323692322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35876750946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33311724662781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48381328582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56824541091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50625705718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51267051696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50518846511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53938961029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58534669876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63985371589661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64733481407166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64519786834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66122841835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57465863227844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59175872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52228927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49450135231018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46457552909851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50091314315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51373839378357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48595070838928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48167538642883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52977013587952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68260383605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64626550674438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62702822685242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53404545783997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61847758293152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60672163963318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57786440849304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54366421699524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51160144805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53618240356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.546870470047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48060727119446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50732636451721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5287013053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56290245056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52442646026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48488235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44213151931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42075634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49022626876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56717729568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51587653160095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4517502784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47419428825378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50412058830261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55648970603943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49984431266785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57358956336975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64947247505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69329166412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70397973060608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74940204620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7413854598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66015958786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61527180671692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47312545776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40044927597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34808015823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37373042106628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34701132774353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34059858322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26578521728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27326583862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29571032524109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27006006240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23479104042053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24654698371887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23585939407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22944688796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31067323684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25189113616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21555304527283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17387104034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07875084877014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28502321243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26044130325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28074789047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23051619529724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27754092216492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20165920257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23799705505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20700311660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19417786598206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2593719959259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36411142349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45602536201477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38334918022156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44747543334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43465042114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40472435951233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48274445533752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42503118515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27219748497009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22730898857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22089695930481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29464197158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28181624412537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28395414352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23906564712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25082230567932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31281137466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24975323677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22303414344788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26685380935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26899099349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30853509902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41220641136169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43678760528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41006827354431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36304259300232</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.4720573425293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46030044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46136975288391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49556970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49236345291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46350646018982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38869309425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38976216316223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32991099357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37907433509827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34914922714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30639815330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27112913131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27540397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35983633995056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35235500335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3031919002533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36090540885925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3373920917511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23158431053162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24547815322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18776512145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28609108924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27647304534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33632349967957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35021734237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37159323692322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35876750946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33311724662781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48381352424622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56824564933777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50625729560852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51267051696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50518822669983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53938961029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58534669876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63985371589661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64733457565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64519762992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66122841835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57465839385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59175872802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52228927612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49450135231018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46457552909851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50091361999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51373839378357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4859504699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48167538642883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52977061271667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68260383605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64626598358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62702822685242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53404569625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6184778213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60672163963318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5778648853302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54366445541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51160144805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53618216514587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.546870470047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48060727119446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50732636451721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52870154380798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5629026889801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52442622184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48488235473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44213128089905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42075610160828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49022626876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56717729568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51587653160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4517502784729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47419428825378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50412011146545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55648922920227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49984455108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57358956336975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6494722366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69329190254211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70397973060608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74940228462219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74138593673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66015982627869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61527180671692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47312545776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40044951438904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34808015823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37373042106628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34701132774353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34059834480286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26578497886658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27326631546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29571032524109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27005982398987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23479127883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24654698371887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23585915565491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22944712638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3106734752655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25189089775085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21555304527283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17387104034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07875084877014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28502297401428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26044106483459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28074812889099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23051619529724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2775411605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2016589641571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23799705505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20700287818909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19417786598206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25937223434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36411142349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45602512359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38334918022156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44747543334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.434650182724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40472435951233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48274421691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42503118515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27219724655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22730922698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22089695930481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29464221000671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28181624412537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28395414352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23906588554382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25082206726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31281113624573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24975323677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2230339050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26685404777527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26899099349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30853533744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41220617294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43678760528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41006851196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36304235458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57252049446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57038378715515</t>
+    <t xml:space="preserve">2.57252073287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57038354873657</t>
   </si>
   <si>
     <t xml:space="preserve">2.58908700942993</t>
@@ -1412,52 +1415,52 @@
     <t xml:space="preserve">2.48969173431396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50999808311462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49075984954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42289328575134</t>
+    <t xml:space="preserve">2.50999784469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49076008796692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4228937625885</t>
   </si>
   <si>
     <t xml:space="preserve">2.43197774887085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51694536209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46243810653687</t>
+    <t xml:space="preserve">2.51694560050964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46243858337402</t>
   </si>
   <si>
     <t xml:space="preserve">2.42984080314636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5559549331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56076455116272</t>
+    <t xml:space="preserve">2.55595517158508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5607647895813</t>
   </si>
   <si>
     <t xml:space="preserve">2.55007648468018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55435156822205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50358605384827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59870600700378</t>
+    <t xml:space="preserve">2.55435132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50358581542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59870624542236</t>
   </si>
   <si>
     <t xml:space="preserve">2.59924054145813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60405015945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60137748718262</t>
+    <t xml:space="preserve">2.60404992103577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6013777256012</t>
   </si>
   <si>
     <t xml:space="preserve">2.63237142562866</t>
@@ -1466,16 +1469,16 @@
     <t xml:space="preserve">2.6104621887207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41167163848877</t>
+    <t xml:space="preserve">2.41167140007019</t>
   </si>
   <si>
     <t xml:space="preserve">2.51053237915039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54473328590393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46510982513428</t>
+    <t xml:space="preserve">2.54473352432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4651095867157</t>
   </si>
   <si>
     <t xml:space="preserve">2.51106691360474</t>
@@ -1484,10 +1487,10 @@
     <t xml:space="preserve">2.45442175865173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45923137664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48808836936951</t>
+    <t xml:space="preserve">2.45923113822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48808860778809</t>
   </si>
   <si>
     <t xml:space="preserve">2.49663853645325</t>
@@ -1505,16 +1508,16 @@
     <t xml:space="preserve">2.41701555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43358135223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41327428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41541242599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50892925262451</t>
+    <t xml:space="preserve">2.43358182907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41327452659607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41541266441345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50892901420593</t>
   </si>
   <si>
     <t xml:space="preserve">2.51801371574402</t>
@@ -1523,13 +1526,13 @@
     <t xml:space="preserve">2.52763247489929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55328321456909</t>
+    <t xml:space="preserve">2.55328369140625</t>
   </si>
   <si>
     <t xml:space="preserve">2.60779070854187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57679653167725</t>
+    <t xml:space="preserve">2.57679629325867</t>
   </si>
   <si>
     <t xml:space="preserve">2.58374309539795</t>
@@ -1538,16 +1541,16 @@
     <t xml:space="preserve">2.61153101921082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5639705657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53190732002258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54793953895569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53564882278442</t>
+    <t xml:space="preserve">2.56397080421448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53190779685974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54793930053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53564858436584</t>
   </si>
   <si>
     <t xml:space="preserve">2.54847407341003</t>
@@ -1559,16 +1562,16 @@
     <t xml:space="preserve">2.52122020721436</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62061548233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63023471832275</t>
+    <t xml:space="preserve">2.6206157207489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63023447990417</t>
   </si>
   <si>
     <t xml:space="preserve">2.68153524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72001075744629</t>
+    <t xml:space="preserve">2.72001051902771</t>
   </si>
   <si>
     <t xml:space="preserve">2.75100493431091</t>
@@ -1577,58 +1580,58 @@
     <t xml:space="preserve">2.67031311988831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67084765434265</t>
+    <t xml:space="preserve">2.67084741592407</t>
   </si>
   <si>
     <t xml:space="preserve">2.49343252182007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51641869544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55691742897034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58482885360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55308628082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50164127349854</t>
+    <t xml:space="preserve">2.51641821861267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55691719055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58482909202576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55308651924133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50164151191711</t>
   </si>
   <si>
     <t xml:space="preserve">2.35551595687866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23675560951233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24496459960938</t>
+    <t xml:space="preserve">2.23675537109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2449643611908</t>
   </si>
   <si>
     <t xml:space="preserve">2.24551200866699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42228484153748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35113787651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27123427391052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27014017105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31392240524292</t>
+    <t xml:space="preserve">2.42228507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35113763809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27123403549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27013993263245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31392216682434</t>
   </si>
   <si>
     <t xml:space="preserve">2.25153207778931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34949636459351</t>
+    <t xml:space="preserve">2.34949660301208</t>
   </si>
   <si>
     <t xml:space="preserve">2.37740802764893</t>
@@ -1637,16 +1640,16 @@
     <t xml:space="preserve">2.41571736335754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44527101516724</t>
+    <t xml:space="preserve">2.44527125358582</t>
   </si>
   <si>
     <t xml:space="preserve">2.38123893737793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36974549293518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45019626617432</t>
+    <t xml:space="preserve">2.3697452545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4501965045929</t>
   </si>
   <si>
     <t xml:space="preserve">2.51204013824463</t>
@@ -1658,25 +1661,25 @@
     <t xml:space="preserve">2.61766576766968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56403231620789</t>
+    <t xml:space="preserve">2.56403207778931</t>
   </si>
   <si>
     <t xml:space="preserve">2.5782618522644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54159307479858</t>
+    <t xml:space="preserve">2.54159283638</t>
   </si>
   <si>
     <t xml:space="preserve">2.56457948684692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57607197761536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56622099876404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5689582824707</t>
+    <t xml:space="preserve">2.57607245445251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56622123718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56895780563354</t>
   </si>
   <si>
     <t xml:space="preserve">2.55910658836365</t>
@@ -1691,22 +1694,22 @@
     <t xml:space="preserve">2.56731581687927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5246274471283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5421404838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57716703414917</t>
+    <t xml:space="preserve">2.52462768554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54214024543762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57716679573059</t>
   </si>
   <si>
     <t xml:space="preserve">2.53174233436584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48467564582825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53502607345581</t>
+    <t xml:space="preserve">2.48467588424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53502583503723</t>
   </si>
   <si>
     <t xml:space="preserve">2.53228902816772</t>
@@ -1718,34 +1721,34 @@
     <t xml:space="preserve">2.60562610626221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57990312576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61657094955444</t>
+    <t xml:space="preserve">2.57990336418152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61657118797302</t>
   </si>
   <si>
     <t xml:space="preserve">2.60453128814697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51149272918701</t>
+    <t xml:space="preserve">2.51149249076843</t>
   </si>
   <si>
     <t xml:space="preserve">2.50492477416992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50656700134277</t>
+    <t xml:space="preserve">2.50656676292419</t>
   </si>
   <si>
     <t xml:space="preserve">2.5284583568573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37904930114746</t>
+    <t xml:space="preserve">2.37904953956604</t>
   </si>
   <si>
     <t xml:space="preserve">2.35223269462585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3193953037262</t>
+    <t xml:space="preserve">2.31939554214478</t>
   </si>
   <si>
     <t xml:space="preserve">2.26193022727966</t>
@@ -1760,28 +1763,28 @@
     <t xml:space="preserve">2.18914151191711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18968844413757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23839688301086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23730301856995</t>
+    <t xml:space="preserve">2.18968892097473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23839712142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23730278015137</t>
   </si>
   <si>
     <t xml:space="preserve">2.2197892665863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21431660652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2055606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16998648643494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18366885185242</t>
+    <t xml:space="preserve">2.21431684494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20556044578552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16998624801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18366837501526</t>
   </si>
   <si>
     <t xml:space="preserve">2.10157608985901</t>
@@ -1790,16 +1793,16 @@
     <t xml:space="preserve">2.07913732528687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08898878097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16560816764832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25809907913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2624773979187</t>
+    <t xml:space="preserve">2.08898854255676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16560792922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25809931755066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26247763633728</t>
   </si>
   <si>
     <t xml:space="preserve">2.32267880439758</t>
@@ -1808,13 +1811,13 @@
     <t xml:space="preserve">2.31118607521057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31337523460388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30571341514587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35879993438721</t>
+    <t xml:space="preserve">2.3133749961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30571317672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35880017280579</t>
   </si>
   <si>
     <t xml:space="preserve">2.39437341690063</t>
@@ -1823,13 +1826,13 @@
     <t xml:space="preserve">2.37193489074707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32651042938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35332703590393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38233375549316</t>
+    <t xml:space="preserve">2.3265106678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35332727432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38233351707458</t>
   </si>
   <si>
     <t xml:space="preserve">2.40641355514526</t>
@@ -1844,28 +1847,28 @@
     <t xml:space="preserve">2.05998229980469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03316473960876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04575276374817</t>
+    <t xml:space="preserve">2.03316497802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04575300216675</t>
   </si>
   <si>
     <t xml:space="preserve">2.00853753089905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97515308856964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93574821949005</t>
+    <t xml:space="preserve">1.97515261173248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93574798107147</t>
   </si>
   <si>
     <t xml:space="preserve">1.97788906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94067358970642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95545017719269</t>
+    <t xml:space="preserve">1.94067370891571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95545041561127</t>
   </si>
   <si>
     <t xml:space="preserve">1.96913230419159</t>
@@ -1877,145 +1880,145 @@
     <t xml:space="preserve">1.95490324497223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91276228427887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.919877409935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84982490539551</t>
+    <t xml:space="preserve">1.91276216506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91987729072571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84982442855835</t>
   </si>
   <si>
     <t xml:space="preserve">1.80987238883972</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7584273815155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79892706871033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78524482250214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86405384540558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8531082868576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83778357505798</t>
+    <t xml:space="preserve">1.75842761993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79892694950104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78524506092072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86405420303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85310792922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83778381347656</t>
   </si>
   <si>
     <t xml:space="preserve">1.84873008728027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92370808124542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85748648643494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84380424022675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87718880176544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89141821861267</t>
+    <t xml:space="preserve">1.92370784282684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85748624801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84380412101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87718892097473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89141857624054</t>
   </si>
   <si>
     <t xml:space="preserve">1.90838372707367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91112089157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85529756546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87062096595764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83668971061707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85365557670593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83231151103973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89853227138519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9094785451889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91057360172272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01291584968567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94231581687927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95982849597931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96967995166779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06052994728088</t>
+    <t xml:space="preserve">1.91112053394318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85529780387878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87062120437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83668994903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85365545749664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83231163024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89853262901306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90947866439819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91057324409485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01291561126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9423154592514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9598286151886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9696798324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0605297088623</t>
   </si>
   <si>
     <t xml:space="preserve">2.02550292015076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0632655620575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99759137630463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96584904193878</t>
+    <t xml:space="preserve">2.06326603889465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99759149551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96584868431091</t>
   </si>
   <si>
     <t xml:space="preserve">1.93246459960938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91385686397552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90619516372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8766416311264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83997333049774</t>
+    <t xml:space="preserve">1.91385674476624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90619540214539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87664139270782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83997344970703</t>
   </si>
   <si>
     <t xml:space="preserve">1.83121693134308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86843228340149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83285844326019</t>
+    <t xml:space="preserve">1.86843240261078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8328583240509</t>
   </si>
   <si>
     <t xml:space="preserve">1.81917631626129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79454863071442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84106826782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80385255813599</t>
+    <t xml:space="preserve">1.794548869133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84106802940369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80385291576385</t>
   </si>
   <si>
     <t xml:space="preserve">1.79181218147278</t>
@@ -2027,7 +2030,7 @@
     <t xml:space="preserve">1.86350679397583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82246053218842</t>
+    <t xml:space="preserve">1.82246041297913</t>
   </si>
   <si>
     <t xml:space="preserve">1.81479787826538</t>
@@ -2051,40 +2054,40 @@
     <t xml:space="preserve">1.68180787563324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67195689678192</t>
+    <t xml:space="preserve">1.67195701599121</t>
   </si>
   <si>
     <t xml:space="preserve">1.68071317672729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67140924930573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64678144454956</t>
+    <t xml:space="preserve">1.67140936851501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64678132534027</t>
   </si>
   <si>
     <t xml:space="preserve">1.65170681476593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72394895553589</t>
+    <t xml:space="preserve">1.72394907474518</t>
   </si>
   <si>
     <t xml:space="preserve">1.70315182209015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70753002166748</t>
+    <t xml:space="preserve">1.70752990245819</t>
   </si>
   <si>
     <t xml:space="preserve">1.72230660915375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61777579784393</t>
+    <t xml:space="preserve">1.61777591705322</t>
   </si>
   <si>
     <t xml:space="preserve">1.62270081043243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62543749809265</t>
+    <t xml:space="preserve">1.62543737888336</t>
   </si>
   <si>
     <t xml:space="preserve">1.62817358970642</t>
@@ -2096,94 +2099,94 @@
     <t xml:space="preserve">1.64951825141907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79509627819061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86952698230743</t>
+    <t xml:space="preserve">1.79509615898132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86952722072601</t>
   </si>
   <si>
     <t xml:space="preserve">1.85037195682526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.843257188797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92863357067108</t>
+    <t xml:space="preserve">1.84325706958771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92863380908966</t>
   </si>
   <si>
     <t xml:space="preserve">1.92097210884094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90455281734467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87390530109406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89579653739929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91495144367218</t>
+    <t xml:space="preserve">1.90455293655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87390542030334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89579665660858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91495132446289</t>
   </si>
   <si>
     <t xml:space="preserve">1.92753887176514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953104972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02386093139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01838898658752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01182103157043</t>
+    <t xml:space="preserve">1.97953140735626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02386045455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01838850975037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01182079315186</t>
   </si>
   <si>
     <t xml:space="preserve">2.02823996543884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96858501434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94833636283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9362952709198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94778847694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98719298839569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02714490890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04246854782104</t>
+    <t xml:space="preserve">1.96858489513397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94833624362946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93629539012909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94778883457184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98719274997711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02714514732361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04246830940247</t>
   </si>
   <si>
     <t xml:space="preserve">2.04301619529724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02495574951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99704396724701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98883509635925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97186958789825</t>
+    <t xml:space="preserve">2.02495551109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9970440864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98883497714996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97186946868896</t>
   </si>
   <si>
     <t xml:space="preserve">2.00306439399719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99485540390015</t>
+    <t xml:space="preserve">1.99485528469086</t>
   </si>
   <si>
     <t xml:space="preserve">1.99266588687897</t>
@@ -2201,13 +2204,13 @@
     <t xml:space="preserve">2.02659773826599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04411101341248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04520559310913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07749557495117</t>
+    <t xml:space="preserve">2.0441107749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04520535469055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07749533653259</t>
   </si>
   <si>
     <t xml:space="preserve">2.11635279655457</t>
@@ -2219,7 +2222,7 @@
     <t xml:space="preserve">2.20884394645691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26740312576294</t>
+    <t xml:space="preserve">2.26740288734436</t>
   </si>
   <si>
     <t xml:space="preserve">2.28929495811462</t>
@@ -2237,43 +2240,43 @@
     <t xml:space="preserve">2.30242991447449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30899691581726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34457111358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30680799484253</t>
+    <t xml:space="preserve">2.30899667739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34457087516785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30680775642395</t>
   </si>
   <si>
     <t xml:space="preserve">2.29969310760498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25207948684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23949146270752</t>
+    <t xml:space="preserve">2.25207996368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2394917011261</t>
   </si>
   <si>
     <t xml:space="preserve">2.191330909729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16725039482117</t>
+    <t xml:space="preserve">2.16725015640259</t>
   </si>
   <si>
     <t xml:space="preserve">2.13441324234009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15356826782227</t>
+    <t xml:space="preserve">2.15356802940369</t>
   </si>
   <si>
     <t xml:space="preserve">2.11580538749695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16341948509216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10557150840759</t>
+    <t xml:space="preserve">2.16341924667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10557174682617</t>
   </si>
   <si>
     <t xml:space="preserve">2.05011653900146</t>
@@ -2282,76 +2285,76 @@
     <t xml:space="preserve">2.00654530525208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97995007038116</t>
+    <t xml:space="preserve">1.97994995117188</t>
   </si>
   <si>
     <t xml:space="preserve">2.00032138824463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94713044166565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94826173782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93807673454285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92449522018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91487574577332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89959728717804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93298375606537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89790010452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87526631355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87187027931213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9307199716568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9488273859024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92675912380219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94995927810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94316864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95788097381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00201821327209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0393660068512</t>
+    <t xml:space="preserve">1.94713008403778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94826138019562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93807637691498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92449533939362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91487562656403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89959716796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93298399448395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89789986610413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87526619434357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87187016010284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93072021007538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94882714748383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92675924301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94995939731598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94316875934601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95788109302521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00201845169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03936576843262</t>
   </si>
   <si>
     <t xml:space="preserve">2.03710222244263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07161974906921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04898571968079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04785394668579</t>
+    <t xml:space="preserve">2.07161951065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04898595809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04785370826721</t>
   </si>
   <si>
     <t xml:space="preserve">2.05973625183105</t>
@@ -2366,37 +2369,34 @@
     <t xml:space="preserve">2.05803942680359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13839149475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20063591003418</t>
+    <t xml:space="preserve">2.13839173316956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20063614845276</t>
   </si>
   <si>
     <t xml:space="preserve">2.20516276359558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18535780906677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16725015640259</t>
+    <t xml:space="preserve">2.18535757064819</t>
   </si>
   <si>
     <t xml:space="preserve">2.17630410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15819668769836</t>
+    <t xml:space="preserve">2.15819621086121</t>
   </si>
   <si>
     <t xml:space="preserve">2.16781640052795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15253782272339</t>
+    <t xml:space="preserve">2.15253806114197</t>
   </si>
   <si>
     <t xml:space="preserve">2.18309450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14801144599915</t>
+    <t xml:space="preserve">2.14801096916199</t>
   </si>
   <si>
     <t xml:space="preserve">2.12085008621216</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">2.11632323265076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06256628036499</t>
+    <t xml:space="preserve">2.06256604194641</t>
   </si>
   <si>
     <t xml:space="preserve">2.04558968544006</t>
@@ -2417,25 +2417,25 @@
     <t xml:space="preserve">2.02408766746521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9963595867157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91827130317688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90638792514801</t>
+    <t xml:space="preserve">1.99635970592499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91827154159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90638780593872</t>
   </si>
   <si>
     <t xml:space="preserve">1.95731580257416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9273247718811</t>
+    <t xml:space="preserve">1.92732512950897</t>
   </si>
   <si>
     <t xml:space="preserve">1.95675015449524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92958784103394</t>
+    <t xml:space="preserve">1.92958772182465</t>
   </si>
   <si>
     <t xml:space="preserve">1.96636950969696</t>
@@ -2444,19 +2444,19 @@
     <t xml:space="preserve">1.81075739860535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77227878570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79264998435974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7043753862381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7417219877243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75926423072815</t>
+    <t xml:space="preserve">1.77227890491486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79265022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70437526702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74172222614288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75926434993744</t>
   </si>
   <si>
     <t xml:space="preserve">1.70324337482452</t>
@@ -2465,121 +2465,121 @@
     <t xml:space="preserve">1.73266839981079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73945915699005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72474658489227</t>
+    <t xml:space="preserve">1.73945903778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72474646568298</t>
   </si>
   <si>
     <t xml:space="preserve">1.73662924766541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81528437137604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80283582210541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83848476409912</t>
+    <t xml:space="preserve">1.81528413295746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80283570289612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83848452568054</t>
   </si>
   <si>
     <t xml:space="preserve">1.82377207279205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82773280143738</t>
+    <t xml:space="preserve">1.82773292064667</t>
   </si>
   <si>
     <t xml:space="preserve">1.85828971862793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87696325778961</t>
+    <t xml:space="preserve">1.87696301937103</t>
   </si>
   <si>
     <t xml:space="preserve">1.88262164592743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89167559146881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95561802387238</t>
+    <t xml:space="preserve">1.89167547225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95561838150024</t>
   </si>
   <si>
     <t xml:space="preserve">1.97768640518188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95844686031342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98843789100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03880023956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.048419713974</t>
+    <t xml:space="preserve">1.95844721794128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98843801021576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03880000114441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04841947555542</t>
   </si>
   <si>
     <t xml:space="preserve">1.9816472530365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99353075027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08067345619202</t>
+    <t xml:space="preserve">1.99353063106537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0806736946106</t>
   </si>
   <si>
     <t xml:space="preserve">2.01842856407166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98787176609039</t>
+    <t xml:space="preserve">1.98787212371826</t>
   </si>
   <si>
     <t xml:space="preserve">1.96693563461304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97881841659546</t>
+    <t xml:space="preserve">1.97881817817688</t>
   </si>
   <si>
     <t xml:space="preserve">2.00428223609924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97372555732727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98560905456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96750056743622</t>
+    <t xml:space="preserve">1.97372531890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98560893535614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96750068664551</t>
   </si>
   <si>
     <t xml:space="preserve">1.97429144382477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98617482185364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0586051940918</t>
+    <t xml:space="preserve">1.98617506027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05860495567322</t>
   </si>
   <si>
     <t xml:space="preserve">2.0812394618988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12594246864319</t>
+    <t xml:space="preserve">2.12594270706177</t>
   </si>
   <si>
     <t xml:space="preserve">2.15706467628479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21591448783875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27363204956055</t>
+    <t xml:space="preserve">2.21591424942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27363228797913</t>
   </si>
   <si>
     <t xml:space="preserve">2.2985303401947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32908654212952</t>
+    <t xml:space="preserve">2.32908630371094</t>
   </si>
   <si>
     <t xml:space="preserve">2.28608107566833</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">2.28495001792908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30192542076111</t>
+    <t xml:space="preserve">2.30192518234253</t>
   </si>
   <si>
     <t xml:space="preserve">2.30249118804932</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">2.3364429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36360383033752</t>
+    <t xml:space="preserve">2.3636040687561</t>
   </si>
   <si>
     <t xml:space="preserve">2.37944865226746</t>
@@ -2615,10 +2615,10 @@
     <t xml:space="preserve">2.41396641731262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38737034797668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42698049545288</t>
+    <t xml:space="preserve">2.38737010955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42698073387146</t>
   </si>
   <si>
     <t xml:space="preserve">2.44452214241028</t>
@@ -2630,19 +2630,19 @@
     <t xml:space="preserve">2.45244479179382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47055196762085</t>
+    <t xml:space="preserve">2.47055244445801</t>
   </si>
   <si>
     <t xml:space="preserve">2.50054287910461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57297325134277</t>
+    <t xml:space="preserve">2.57297348976135</t>
   </si>
   <si>
     <t xml:space="preserve">2.60749101638794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59277868270874</t>
+    <t xml:space="preserve">2.59277844429016</t>
   </si>
   <si>
     <t xml:space="preserve">2.53053379058838</t>
@@ -2654,67 +2654,67 @@
     <t xml:space="preserve">2.53845548629761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5158212184906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48300099372864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48696231842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43603420257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45414161682129</t>
+    <t xml:space="preserve">2.51582169532776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48300075531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48696255683899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43603444099426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45414185523987</t>
   </si>
   <si>
     <t xml:space="preserve">2.48413276672363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49714803695679</t>
+    <t xml:space="preserve">2.49714779853821</t>
   </si>
   <si>
     <t xml:space="preserve">2.52148032188416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49148917198181</t>
+    <t xml:space="preserve">2.49148964881897</t>
   </si>
   <si>
     <t xml:space="preserve">2.51808428764343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51468944549561</t>
+    <t xml:space="preserve">2.51468968391418</t>
   </si>
   <si>
     <t xml:space="preserve">2.5480751991272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52940201759338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56108975410461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58032917976379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5554313659668</t>
+    <t xml:space="preserve">2.5294017791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56108999252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58032941818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55543112754822</t>
   </si>
   <si>
     <t xml:space="preserve">2.55203628540039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52034831047058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53675723075867</t>
+    <t xml:space="preserve">2.520348072052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53675770759583</t>
   </si>
   <si>
     <t xml:space="preserve">2.60013437271118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59843730926514</t>
+    <t xml:space="preserve">2.59843707084656</t>
   </si>
   <si>
     <t xml:space="preserve">2.54524636268616</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">2.5526020526886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57693433761597</t>
+    <t xml:space="preserve">2.57693457603455</t>
   </si>
   <si>
     <t xml:space="preserve">2.61201786994934</t>
@@ -2732,31 +2732,31 @@
     <t xml:space="preserve">2.61428093910217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60296440124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61145210266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58825182914734</t>
+    <t xml:space="preserve">2.60296416282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61145186424255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58825159072876</t>
   </si>
   <si>
     <t xml:space="preserve">2.58146119117737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60183262825012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58598804473877</t>
+    <t xml:space="preserve">2.60183215141296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58598780632019</t>
   </si>
   <si>
     <t xml:space="preserve">2.61880779266357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5231773853302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52374315261841</t>
+    <t xml:space="preserve">2.52317714691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52374339103699</t>
   </si>
   <si>
     <t xml:space="preserve">2.50789856910706</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">2.39642405509949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45018100738525</t>
+    <t xml:space="preserve">2.45018076896667</t>
   </si>
   <si>
     <t xml:space="preserve">2.47677683830261</t>
@@ -2786,10 +2786,10 @@
     <t xml:space="preserve">2.45357656478882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46319651603699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47451281547546</t>
+    <t xml:space="preserve">2.46319627761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47451305389404</t>
   </si>
   <si>
     <t xml:space="preserve">2.56561660766602</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">2.54354858398438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62786149978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34323310852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3353111743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37322354316711</t>
+    <t xml:space="preserve">2.6278612613678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34323287010193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33531093597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37322378158569</t>
   </si>
   <si>
     <t xml:space="preserve">2.30418920516968</t>
@@ -2819,10 +2819,10 @@
     <t xml:space="preserve">2.17290925979614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22100758552551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13782525062561</t>
+    <t xml:space="preserve">2.22100734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13782548904419</t>
   </si>
   <si>
     <t xml:space="preserve">2.03653597831726</t>
@@ -2831,37 +2831,37 @@
     <t xml:space="preserve">1.88148987293243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83282542228699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76605427265167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72870755195618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49387514591217</t>
+    <t xml:space="preserve">1.83282554149628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76605403423309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72870767116547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49387502670288</t>
   </si>
   <si>
     <t xml:space="preserve">1.42144465446472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42483961582184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1718989610672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43445920944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32468235492706</t>
+    <t xml:space="preserve">1.42483973503113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17189908027649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43445932865143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32468223571777</t>
   </si>
   <si>
     <t xml:space="preserve">1.32015550136566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28507161140442</t>
+    <t xml:space="preserve">1.28507173061371</t>
   </si>
   <si>
     <t xml:space="preserve">1.30487704277039</t>
@@ -2873,28 +2873,28 @@
     <t xml:space="preserve">1.66136991977692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70267760753632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67608249187469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6432626247406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53744637966156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53688037395477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58441269397736</t>
+    <t xml:space="preserve">1.70267748832703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67608225345612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64326250553131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53744649887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53688049316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58441281318665</t>
   </si>
   <si>
     <t xml:space="preserve">1.53857743740082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52612888813019</t>
+    <t xml:space="preserve">1.52612900733948</t>
   </si>
   <si>
     <t xml:space="preserve">1.51877224445343</t>
@@ -2909,16 +2909,16 @@
     <t xml:space="preserve">1.46614706516266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48029375076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41408812999725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30996978282928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2533837556839</t>
+    <t xml:space="preserve">1.48029363155365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41408801078796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30996966362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25338387489319</t>
   </si>
   <si>
     <t xml:space="preserve">1.26639842987061</t>
@@ -2927,22 +2927,22 @@
     <t xml:space="preserve">1.26753032207489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21264135837555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21094357967377</t>
+    <t xml:space="preserve">1.21264147758484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21094369888306</t>
   </si>
   <si>
     <t xml:space="preserve">1.25168597698212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19962680339813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2335786819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31110167503357</t>
+    <t xml:space="preserve">1.19962692260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23357856273651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31110179424286</t>
   </si>
   <si>
     <t xml:space="preserve">1.33203816413879</t>
@@ -2951,34 +2951,34 @@
     <t xml:space="preserve">1.27432024478912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24715912342072</t>
+    <t xml:space="preserve">1.24715900421143</t>
   </si>
   <si>
     <t xml:space="preserve">1.24489533901215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23018276691437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2098126411438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19623112678528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18830943107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14869868755341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13964509963989</t>
+    <t xml:space="preserve">1.23018288612366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20981252193451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1962308883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18830931186676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1486988067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13964521884918</t>
   </si>
   <si>
     <t xml:space="preserve">1.13568425178528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18129587173462</t>
+    <t xml:space="preserve">1.18129575252533</t>
   </si>
   <si>
     <t xml:space="preserve">1.1154762506485</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">1.28464460372925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23961079120636</t>
+    <t xml:space="preserve">1.23961067199707</t>
   </si>
   <si>
     <t xml:space="preserve">1.27021062374115</t>
@@ -3017,37 +3017,37 @@
     <t xml:space="preserve">1.33487606048584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33545351028442</t>
+    <t xml:space="preserve">1.33545339107513</t>
   </si>
   <si>
     <t xml:space="preserve">1.46536183357239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53637778759003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51443815231323</t>
+    <t xml:space="preserve">1.53637766838074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51443803310394</t>
   </si>
   <si>
     <t xml:space="preserve">1.43822503089905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34642386436462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31582307815552</t>
+    <t xml:space="preserve">1.34642362594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31582295894623</t>
   </si>
   <si>
     <t xml:space="preserve">1.3279482126236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41513061523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3868396282196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34873270988464</t>
+    <t xml:space="preserve">1.41513049602509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38683974742889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34873282909393</t>
   </si>
   <si>
     <t xml:space="preserve">1.36259019374847</t>
@@ -3056,16 +3056,16 @@
     <t xml:space="preserve">1.31004917621613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34238231182098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27425193786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28406715393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25462162494659</t>
+    <t xml:space="preserve">1.34238243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2742520570755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28406727313995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2546215057373</t>
   </si>
   <si>
     <t xml:space="preserve">1.27713942527771</t>
@@ -3077,16 +3077,16 @@
     <t xml:space="preserve">1.26155030727386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25577640533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2938826084137</t>
+    <t xml:space="preserve">1.25577652454376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29388248920441</t>
   </si>
   <si>
     <t xml:space="preserve">1.27944839000702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27367544174194</t>
+    <t xml:space="preserve">1.27367556095123</t>
   </si>
   <si>
     <t xml:space="preserve">1.24018728733063</t>
@@ -3101,7 +3101,7 @@
     <t xml:space="preserve">1.43995749950409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44746291637421</t>
+    <t xml:space="preserve">1.44746279716492</t>
   </si>
   <si>
     <t xml:space="preserve">1.46651589870453</t>
@@ -3110,22 +3110,22 @@
     <t xml:space="preserve">1.43591594696045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48556983470917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47171223163605</t>
+    <t xml:space="preserve">1.48556971549988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47171235084534</t>
   </si>
   <si>
     <t xml:space="preserve">1.42090427875519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39954137802124</t>
+    <t xml:space="preserve">1.39954149723053</t>
   </si>
   <si>
     <t xml:space="preserve">1.34122741222382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34526896476746</t>
+    <t xml:space="preserve">1.34526872634888</t>
   </si>
   <si>
     <t xml:space="preserve">1.30196630954742</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">1.28579962253571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23094952106476</t>
+    <t xml:space="preserve">1.23094964027405</t>
   </si>
   <si>
     <t xml:space="preserve">1.19919466972351</t>
@@ -3146,28 +3146,28 @@
     <t xml:space="preserve">1.25519895553589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35104250907898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36836338043213</t>
+    <t xml:space="preserve">1.35104262828827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36836314201355</t>
   </si>
   <si>
     <t xml:space="preserve">1.36951816082001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33718597888947</t>
+    <t xml:space="preserve">1.33718585968018</t>
   </si>
   <si>
     <t xml:space="preserve">1.34064984321594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35277485847473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3308345079422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31640040874481</t>
+    <t xml:space="preserve">1.35277497768402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33083462715149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3164005279541</t>
   </si>
   <si>
     <t xml:space="preserve">1.35623896121979</t>
@@ -3179,19 +3179,19 @@
     <t xml:space="preserve">1.34584629535675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37413716316223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32852458953857</t>
+    <t xml:space="preserve">1.37413704395294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32852470874786</t>
   </si>
   <si>
     <t xml:space="preserve">1.29272854328156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28926372528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24827122688293</t>
+    <t xml:space="preserve">1.28926360607147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24827110767365</t>
   </si>
   <si>
     <t xml:space="preserve">1.26039528846741</t>
@@ -3200,16 +3200,16 @@
     <t xml:space="preserve">1.25404489040375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21997940540314</t>
+    <t xml:space="preserve">1.21997928619385</t>
   </si>
   <si>
     <t xml:space="preserve">1.23672342300415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26847910881042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26501429080963</t>
+    <t xml:space="preserve">1.26847898960114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26501417160034</t>
   </si>
   <si>
     <t xml:space="preserve">1.26443684101105</t>
@@ -3218,25 +3218,25 @@
     <t xml:space="preserve">1.24884855747223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25808644294739</t>
+    <t xml:space="preserve">1.25808620452881</t>
   </si>
   <si>
     <t xml:space="preserve">1.24711608886719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1963073015213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16397500038147</t>
+    <t xml:space="preserve">1.19630753993988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16397523880005</t>
   </si>
   <si>
     <t xml:space="preserve">1.16628408432007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13164186477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12875556945801</t>
+    <t xml:space="preserve">1.1316419839859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12875545024872</t>
   </si>
   <si>
     <t xml:space="preserve">1.15820121765137</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">1.09411323070526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01334261894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05556523799896</t>
+    <t xml:space="preserve">1.01334273815155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05556535720825</t>
   </si>
   <si>
     <t xml:space="preserve">1.01121032238007</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">1.02571094036102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999695122241974</t>
+    <t xml:space="preserve">0.999695003032684</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516070842743</t>
@@ -3278,28 +3278,28 @@
     <t xml:space="preserve">0.952354609966278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947236597537994</t>
+    <t xml:space="preserve">0.947236657142639</t>
   </si>
   <si>
     <t xml:space="preserve">1.02400493621826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01035737991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10887682437897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0380791425705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01206314563751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02656400203705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01632821559906</t>
+    <t xml:space="preserve">1.01035726070404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10887670516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03807926177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0120632648468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02656412124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01632809638977</t>
   </si>
   <si>
     <t xml:space="preserve">0.952781021595001</t>
@@ -3308,49 +3308,49 @@
     <t xml:space="preserve">0.884115934371948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873027086257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867482721805573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899896085262299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922926604747772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944251298904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923779606819153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893925249576569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02699053287506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01846051216125</t>
+    <t xml:space="preserve">0.873027145862579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.867482781410217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899896144866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922926664352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944251239299774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923779487609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893925189971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02699041366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01846063137054</t>
   </si>
   <si>
     <t xml:space="preserve">1.056844830513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12550985813141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13873112201691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20824909210205</t>
+    <t xml:space="preserve">1.12550973892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1387312412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20824921131134</t>
   </si>
   <si>
     <t xml:space="preserve">1.21592605113983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26625192165375</t>
+    <t xml:space="preserve">1.26625180244446</t>
   </si>
   <si>
     <t xml:space="preserve">1.29312098026276</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">1.29610633850098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30037117004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26667833328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28885591030121</t>
+    <t xml:space="preserve">1.30037128925323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26667845249176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2888560295105</t>
   </si>
   <si>
     <t xml:space="preserve">1.24961876869202</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">1.26539885997772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25601613521576</t>
+    <t xml:space="preserve">1.25601601600647</t>
   </si>
   <si>
     <t xml:space="preserve">1.249192237854</t>
@@ -3392,16 +3392,16 @@
     <t xml:space="preserve">1.2939738035202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25132477283478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24833917617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26028108596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24322128295898</t>
+    <t xml:space="preserve">1.25132465362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24833929538727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26028096675873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24322152137756</t>
   </si>
   <si>
     <t xml:space="preserve">1.25089824199677</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">1.1886305809021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21549940109253</t>
+    <t xml:space="preserve">1.21549952030182</t>
   </si>
   <si>
     <t xml:space="preserve">1.2624135017395</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">1.27051687240601</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24705970287323</t>
+    <t xml:space="preserve">1.24705994129181</t>
   </si>
   <si>
     <t xml:space="preserve">1.25729560852051</t>
@@ -3434,16 +3434,16 @@
     <t xml:space="preserve">1.32425463199615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40614104270935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39036083221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41893553733826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42106819152832</t>
+    <t xml:space="preserve">1.40614092350006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39036095142365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41893565654755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42106807231903</t>
   </si>
   <si>
     <t xml:space="preserve">1.40358197689056</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">1.30762159824371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31700444221497</t>
+    <t xml:space="preserve">1.31700432300568</t>
   </si>
   <si>
     <t xml:space="preserve">1.44836354255676</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">1.62876927852631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59465003013611</t>
+    <t xml:space="preserve">1.5946501493454</t>
   </si>
   <si>
     <t xml:space="preserve">1.62066602706909</t>
@@ -3506,16 +3506,16 @@
     <t xml:space="preserve">1.59123814105988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58825266361237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60616517066956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58270823955536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55370676517487</t>
+    <t xml:space="preserve">1.58825254440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60616528987885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58270835876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55370688438416</t>
   </si>
   <si>
     <t xml:space="preserve">1.52683794498444</t>
@@ -3539,52 +3539,52 @@
     <t xml:space="preserve">1.58867907524109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57204604148865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58142876625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64796137809753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69231653213501</t>
+    <t xml:space="preserve">1.57204616069794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58142864704132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64796149730682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69231629371643</t>
   </si>
   <si>
     <t xml:space="preserve">1.68506610393524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6709920167923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68037486076355</t>
+    <t xml:space="preserve">1.67099177837372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68037474155426</t>
   </si>
   <si>
     <t xml:space="preserve">1.66075611114502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.697434425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75031936168671</t>
+    <t xml:space="preserve">1.69743430614471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75031924247742</t>
   </si>
   <si>
     <t xml:space="preserve">1.73752439022064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66843295097351</t>
+    <t xml:space="preserve">1.66843283176422</t>
   </si>
   <si>
     <t xml:space="preserve">1.62663686275482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62493073940277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64753484725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63516664505005</t>
+    <t xml:space="preserve">1.62493085861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64753496646881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63516676425934</t>
   </si>
   <si>
     <t xml:space="preserve">1.63601958751678</t>
@@ -3614,43 +3614,43 @@
     <t xml:space="preserve">1.59507656097412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62365138530731</t>
+    <t xml:space="preserve">1.6236515045166</t>
   </si>
   <si>
     <t xml:space="preserve">1.60531234741211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61469519138336</t>
+    <t xml:space="preserve">1.61469507217407</t>
   </si>
   <si>
     <t xml:space="preserve">1.61341559886932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66416800022125</t>
+    <t xml:space="preserve">1.66416811943054</t>
   </si>
   <si>
     <t xml:space="preserve">1.57460486888885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53963267803192</t>
+    <t xml:space="preserve">1.53963255882263</t>
   </si>
   <si>
     <t xml:space="preserve">1.54219150543213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54986846446991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59763562679291</t>
+    <t xml:space="preserve">1.54986834526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59763550758362</t>
   </si>
   <si>
     <t xml:space="preserve">1.58014929294586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6155481338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60573887825012</t>
+    <t xml:space="preserve">1.61554825305939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60573875904083</t>
   </si>
   <si>
     <t xml:space="preserve">1.59891498088837</t>
@@ -3659,10 +3659,10 @@
     <t xml:space="preserve">1.61725401878357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64881443977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64071106910706</t>
+    <t xml:space="preserve">1.64881432056427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64071094989777</t>
   </si>
   <si>
     <t xml:space="preserve">1.70425820350647</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">1.71961188316345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69402229785919</t>
+    <t xml:space="preserve">1.69402241706848</t>
   </si>
   <si>
     <t xml:space="preserve">1.71022915840149</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">1.71108210086823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71875894069672</t>
+    <t xml:space="preserve">1.71875905990601</t>
   </si>
   <si>
     <t xml:space="preserve">1.68634557723999</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">1.70127284526825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81051278114319</t>
+    <t xml:space="preserve">1.81051290035248</t>
   </si>
   <si>
     <t xml:space="preserve">1.85055303573608</t>
@@ -3743,7 +3743,7 @@
     <t xml:space="preserve">1.74871182441711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72433948516846</t>
+    <t xml:space="preserve">1.72433936595917</t>
   </si>
   <si>
     <t xml:space="preserve">1.71171820163727</t>
@@ -3755,7 +3755,7 @@
     <t xml:space="preserve">1.68908667564392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66689050197601</t>
+    <t xml:space="preserve">1.66689038276672</t>
   </si>
   <si>
     <t xml:space="preserve">1.64469432830811</t>
@@ -3764,13 +3764,13 @@
     <t xml:space="preserve">1.66297352313995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65557479858398</t>
+    <t xml:space="preserve">1.65557467937469</t>
   </si>
   <si>
     <t xml:space="preserve">1.6029132604599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58985674381256</t>
+    <t xml:space="preserve">1.58985662460327</t>
   </si>
   <si>
     <t xml:space="preserve">1.59769058227539</t>
@@ -3788,7 +3788,7 @@
     <t xml:space="preserve">1.56591951847076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55199253559113</t>
+    <t xml:space="preserve">1.55199241638184</t>
   </si>
   <si>
     <t xml:space="preserve">1.5015070438385</t>
@@ -3806,7 +3806,7 @@
     <t xml:space="preserve">1.48322784900665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47104179859161</t>
+    <t xml:space="preserve">1.47104167938232</t>
   </si>
   <si>
     <t xml:space="preserve">1.42360270023346</t>
@@ -3824,7 +3824,7 @@
     <t xml:space="preserve">1.40401804447174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40532374382019</t>
+    <t xml:space="preserve">1.4053236246109</t>
   </si>
   <si>
     <t xml:space="preserve">1.4266494512558</t>
@@ -3833,10 +3833,10 @@
     <t xml:space="preserve">1.41011095046997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41141664981842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41533362865448</t>
+    <t xml:space="preserve">1.41141676902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41533374786377</t>
   </si>
   <si>
     <t xml:space="preserve">1.43317759037018</t>
@@ -3854,10 +3854,10 @@
     <t xml:space="preserve">1.57375347614288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57027184963226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56417870521545</t>
+    <t xml:space="preserve">1.57027173042297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56417882442474</t>
   </si>
   <si>
     <t xml:space="preserve">1.61031198501587</t>
@@ -3872,7 +3872,7 @@
     <t xml:space="preserve">1.57114207744598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54328811168671</t>
+    <t xml:space="preserve">1.543288230896</t>
   </si>
   <si>
     <t xml:space="preserve">1.55373346805573</t>
@@ -3887,19 +3887,19 @@
     <t xml:space="preserve">1.55590951442719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56156730651855</t>
+    <t xml:space="preserve">1.56156742572784</t>
   </si>
   <si>
     <t xml:space="preserve">1.59420883655548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57331836223602</t>
+    <t xml:space="preserve">1.57331824302673</t>
   </si>
   <si>
     <t xml:space="preserve">1.59812581539154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57941126823425</t>
+    <t xml:space="preserve">1.57941138744354</t>
   </si>
   <si>
     <t xml:space="preserve">1.60378360748291</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">1.60639500617981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62510943412781</t>
+    <t xml:space="preserve">1.62510931491852</t>
   </si>
   <si>
     <t xml:space="preserve">1.5824579000473</t>
@@ -3926,7 +3926,7 @@
     <t xml:space="preserve">1.57679998874664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57549428939819</t>
+    <t xml:space="preserve">1.57549440860748</t>
   </si>
   <si>
     <t xml:space="preserve">1.55677998065948</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">1.65775084495544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64948165416718</t>
+    <t xml:space="preserve">1.64948177337646</t>
   </si>
   <si>
     <t xml:space="preserve">1.69169807434082</t>
@@ -3974,16 +3974,16 @@
     <t xml:space="preserve">1.76960229873657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745638370514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79919707775116</t>
+    <t xml:space="preserve">1.79745626449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79919719696045</t>
   </si>
   <si>
     <t xml:space="preserve">1.79223370552063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79310405254364</t>
+    <t xml:space="preserve">1.79310393333435</t>
   </si>
   <si>
     <t xml:space="preserve">1.79571545124054</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">1.80877196788788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78265881538391</t>
+    <t xml:space="preserve">1.7826589345932</t>
   </si>
   <si>
     <t xml:space="preserve">1.78178834915161</t>
@@ -4001,7 +4001,7 @@
     <t xml:space="preserve">1.78614068031311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74261879920959</t>
+    <t xml:space="preserve">1.74261868000031</t>
   </si>
   <si>
     <t xml:space="preserve">1.76263880729675</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">1.64904654026031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6394716501236</t>
+    <t xml:space="preserve">1.63947153091431</t>
   </si>
   <si>
     <t xml:space="preserve">1.66906654834747</t>
@@ -4046,25 +4046,25 @@
     <t xml:space="preserve">1.60770070552826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5637434720993</t>
+    <t xml:space="preserve">1.56374335289001</t>
   </si>
   <si>
     <t xml:space="preserve">1.56983649730682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56243789196014</t>
+    <t xml:space="preserve">1.56243777275085</t>
   </si>
   <si>
     <t xml:space="preserve">1.54372334480286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47713482379913</t>
+    <t xml:space="preserve">1.47713494300842</t>
   </si>
   <si>
     <t xml:space="preserve">1.46538400650024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46407830715179</t>
+    <t xml:space="preserve">1.4640781879425</t>
   </si>
   <si>
     <t xml:space="preserve">1.50629448890686</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">1.49193239212036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47800529003143</t>
+    <t xml:space="preserve">1.47800517082214</t>
   </si>
   <si>
     <t xml:space="preserve">1.524573802948</t>
@@ -4091,10 +4091,10 @@
     <t xml:space="preserve">1.50760018825531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61727547645569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54851090908051</t>
+    <t xml:space="preserve">1.6172753572464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54851078987122</t>
   </si>
   <si>
     <t xml:space="preserve">1.54589951038361</t>
@@ -4106,7 +4106,7 @@
     <t xml:space="preserve">1.54720520973206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53371322154999</t>
+    <t xml:space="preserve">1.53371334075928</t>
   </si>
   <si>
     <t xml:space="preserve">1.55895602703094</t>
@@ -4127,7 +4127,7 @@
     <t xml:space="preserve">1.67211306095123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66776084899902</t>
+    <t xml:space="preserve">1.66776096820831</t>
   </si>
   <si>
     <t xml:space="preserve">1.67994701862335</t>
@@ -4139,16 +4139,16 @@
     <t xml:space="preserve">1.70780110359192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7017080783844</t>
+    <t xml:space="preserve">1.70170795917511</t>
   </si>
   <si>
     <t xml:space="preserve">1.68516969680786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66950190067291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63816595077515</t>
+    <t xml:space="preserve">1.66950178146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63816606998444</t>
   </si>
   <si>
     <t xml:space="preserve">1.56200265884399</t>
@@ -4157,10 +4157,10 @@
     <t xml:space="preserve">1.55634474754333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62728548049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66558492183685</t>
+    <t xml:space="preserve">1.62728559970856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66558480262756</t>
   </si>
   <si>
     <t xml:space="preserve">1.6020427942276</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">1.76612055301666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76350915431976</t>
+    <t xml:space="preserve">1.76350927352905</t>
   </si>
   <si>
     <t xml:space="preserve">1.79049277305603</t>
@@ -4202,7 +4202,7 @@
     <t xml:space="preserve">1.70606029033661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57636475563049</t>
+    <t xml:space="preserve">1.57636487483978</t>
   </si>
   <si>
     <t xml:space="preserve">1.60508930683136</t>
@@ -4220,10 +4220,10 @@
     <t xml:space="preserve">1.22079062461853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15768384933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21992003917694</t>
+    <t xml:space="preserve">1.15768373012543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21992015838623</t>
   </si>
   <si>
     <t xml:space="preserve">1.34178149700165</t>
@@ -4235,16 +4235,16 @@
     <t xml:space="preserve">1.23428225517273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28476762771606</t>
+    <t xml:space="preserve">1.28476774692535</t>
   </si>
   <si>
     <t xml:space="preserve">1.31088101863861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40706443786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37529349327087</t>
+    <t xml:space="preserve">1.4070645570755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37529337406158</t>
   </si>
   <si>
     <t xml:space="preserve">1.36658918857574</t>
@@ -4271,7 +4271,7 @@
     <t xml:space="preserve">1.42882537841797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38356268405914</t>
+    <t xml:space="preserve">1.38356256484985</t>
   </si>
   <si>
     <t xml:space="preserve">1.39879524707794</t>
@@ -4283,10 +4283,10 @@
     <t xml:space="preserve">1.34091114997864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39400804042816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39183175563812</t>
+    <t xml:space="preserve">1.39400792121887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39183187484741</t>
   </si>
   <si>
     <t xml:space="preserve">1.34743940830231</t>
@@ -4301,7 +4301,7 @@
     <t xml:space="preserve">1.37050604820251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41881537437439</t>
+    <t xml:space="preserve">1.41881549358368</t>
   </si>
   <si>
     <t xml:space="preserve">1.42839026451111</t>
@@ -4313,10 +4313,10 @@
     <t xml:space="preserve">1.39313745498657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37703430652618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38704442977905</t>
+    <t xml:space="preserve">1.37703442573547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38704431056976</t>
   </si>
   <si>
     <t xml:space="preserve">1.37790477275848</t>
@@ -4325,7 +4325,7 @@
     <t xml:space="preserve">1.39705455303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38791465759277</t>
+    <t xml:space="preserve">1.38791477680206</t>
   </si>
   <si>
     <t xml:space="preserve">1.35396778583527</t>
@@ -4334,13 +4334,13 @@
     <t xml:space="preserve">1.33307707309723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33481800556183</t>
+    <t xml:space="preserve">1.33481812477112</t>
   </si>
   <si>
     <t xml:space="preserve">1.3243727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47974622249603</t>
+    <t xml:space="preserve">1.47974610328674</t>
   </si>
   <si>
     <t xml:space="preserve">1.51586937904358</t>
@@ -4352,10 +4352,10 @@
     <t xml:space="preserve">1.5023775100708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53675985336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52936112880707</t>
+    <t xml:space="preserve">1.53675973415375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52936100959778</t>
   </si>
   <si>
     <t xml:space="preserve">1.53893601894379</t>
@@ -19879,7 +19879,7 @@
         <v>3.13125896453857</v>
       </c>
       <c r="G527" t="s">
-        <v>322</v>
+        <v>462</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -19931,7 +19931,7 @@
         <v>3.25851202011108</v>
       </c>
       <c r="G529" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -19957,7 +19957,7 @@
         <v>3.25580501556396</v>
       </c>
       <c r="G530" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -19983,7 +19983,7 @@
         <v>3.27949595451355</v>
       </c>
       <c r="G531" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -20009,7 +20009,7 @@
         <v>3.15359592437744</v>
       </c>
       <c r="G532" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -20035,7 +20035,7 @@
         <v>3.17931699752808</v>
       </c>
       <c r="G533" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -20061,7 +20061,7 @@
         <v>3.15494894981384</v>
       </c>
       <c r="G534" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -20087,7 +20087,7 @@
         <v>3.15494894981384</v>
       </c>
       <c r="G535" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -20113,7 +20113,7 @@
         <v>3.06898498535156</v>
       </c>
       <c r="G536" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -20139,7 +20139,7 @@
         <v>3.08049201965332</v>
       </c>
       <c r="G537" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -20165,7 +20165,7 @@
         <v>3.18811702728271</v>
       </c>
       <c r="G538" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -20243,7 +20243,7 @@
         <v>3.11907505989075</v>
       </c>
       <c r="G541" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -20269,7 +20269,7 @@
         <v>3.0777850151062</v>
       </c>
       <c r="G542" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -20295,7 +20295,7 @@
         <v>3.23752903938293</v>
       </c>
       <c r="G543" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -20321,7 +20321,7 @@
         <v>3.24362111091614</v>
       </c>
       <c r="G544" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -20373,7 +20373,7 @@
         <v>3.23008298873901</v>
       </c>
       <c r="G546" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -20425,7 +20425,7 @@
         <v>3.23549795150757</v>
       </c>
       <c r="G548" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -20451,7 +20451,7 @@
         <v>3.1711950302124</v>
       </c>
       <c r="G549" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -20477,7 +20477,7 @@
         <v>3.29168009757996</v>
       </c>
       <c r="G550" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -20503,7 +20503,7 @@
         <v>3.29235696792603</v>
       </c>
       <c r="G551" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -20529,7 +20529,7 @@
         <v>3.29844903945923</v>
       </c>
       <c r="G552" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -20555,7 +20555,7 @@
         <v>3.29506397247314</v>
       </c>
       <c r="G553" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -20581,7 +20581,7 @@
         <v>3.33432292938232</v>
       </c>
       <c r="G554" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -20607,7 +20607,7 @@
         <v>3.3065710067749</v>
       </c>
       <c r="G555" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -20633,7 +20633,7 @@
         <v>3.05477094650269</v>
       </c>
       <c r="G556" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -20685,7 +20685,7 @@
         <v>3.17999410629272</v>
       </c>
       <c r="G558" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -20711,7 +20711,7 @@
         <v>3.22331500053406</v>
       </c>
       <c r="G559" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -20737,7 +20737,7 @@
         <v>3.15359592437744</v>
       </c>
       <c r="G560" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20763,7 +20763,7 @@
         <v>3.12245893478394</v>
       </c>
       <c r="G561" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20789,7 +20789,7 @@
         <v>3.18067097663879</v>
       </c>
       <c r="G562" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -20815,7 +20815,7 @@
         <v>3.10892105102539</v>
       </c>
       <c r="G563" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -20841,7 +20841,7 @@
         <v>3.11501288414001</v>
       </c>
       <c r="G564" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -20893,7 +20893,7 @@
         <v>3.15156507492065</v>
       </c>
       <c r="G566" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20919,7 +20919,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G567" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -20945,7 +20945,7 @@
         <v>3.14073491096497</v>
       </c>
       <c r="G568" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -20971,7 +20971,7 @@
         <v>3.07981491088867</v>
       </c>
       <c r="G569" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20997,7 +20997,7 @@
         <v>3.08861494064331</v>
       </c>
       <c r="G570" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -21023,7 +21023,7 @@
         <v>3.06153988838196</v>
       </c>
       <c r="G571" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -21049,7 +21049,7 @@
         <v>3.08252310752869</v>
       </c>
       <c r="G572" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -21127,7 +21127,7 @@
         <v>3.05680108070374</v>
       </c>
       <c r="G575" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -21153,7 +21153,7 @@
         <v>3.05950903892517</v>
       </c>
       <c r="G576" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -21179,7 +21179,7 @@
         <v>3.17796301841736</v>
       </c>
       <c r="G577" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -21231,7 +21231,7 @@
         <v>3.17999410629272</v>
       </c>
       <c r="G579" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -21257,7 +21257,7 @@
         <v>3.18947005271912</v>
       </c>
       <c r="G580" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -21335,7 +21335,7 @@
         <v>3.20165395736694</v>
       </c>
       <c r="G583" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -21361,7 +21361,7 @@
         <v>3.23414492607117</v>
       </c>
       <c r="G584" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -21387,7 +21387,7 @@
         <v>3.30318689346313</v>
       </c>
       <c r="G585" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -21413,7 +21413,7 @@
         <v>3.26392793655396</v>
       </c>
       <c r="G586" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -21439,7 +21439,7 @@
         <v>3.27272701263428</v>
       </c>
       <c r="G587" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -21465,7 +21465,7 @@
         <v>3.30792498588562</v>
       </c>
       <c r="G588" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -21491,7 +21491,7 @@
         <v>3.30792498588562</v>
       </c>
       <c r="G589" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -21517,7 +21517,7 @@
         <v>3.24768209457397</v>
       </c>
       <c r="G590" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -21543,7 +21543,7 @@
         <v>3.2070689201355</v>
       </c>
       <c r="G591" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -21569,7 +21569,7 @@
         <v>3.22737598419189</v>
       </c>
       <c r="G592" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -21595,7 +21595,7 @@
         <v>3.2118079662323</v>
       </c>
       <c r="G593" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -21621,7 +21621,7 @@
         <v>3.24362111091614</v>
       </c>
       <c r="G594" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -21647,7 +21647,7 @@
         <v>3.22805309295654</v>
       </c>
       <c r="G595" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -21699,7 +21699,7 @@
         <v>3.20368504524231</v>
       </c>
       <c r="G597" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -21725,7 +21725,7 @@
         <v>3.19353199005127</v>
       </c>
       <c r="G598" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -21777,7 +21777,7 @@
         <v>3.31943202018738</v>
       </c>
       <c r="G600" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21803,7 +21803,7 @@
         <v>3.33161592483521</v>
       </c>
       <c r="G601" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21829,7 +21829,7 @@
         <v>3.39659690856934</v>
       </c>
       <c r="G602" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21855,7 +21855,7 @@
         <v>3.44533205032349</v>
       </c>
       <c r="G603" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21881,7 +21881,7 @@
         <v>3.48459100723267</v>
       </c>
       <c r="G604" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -21907,7 +21907,7 @@
         <v>3.38238191604614</v>
       </c>
       <c r="G605" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -21933,7 +21933,7 @@
         <v>3.38305902481079</v>
       </c>
       <c r="G606" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21959,7 +21959,7 @@
         <v>3.15833401679993</v>
       </c>
       <c r="G607" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21985,7 +21985,7 @@
         <v>3.11230611801147</v>
       </c>
       <c r="G608" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -22011,7 +22011,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G609" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -22037,7 +22037,7 @@
         <v>3.19691610336304</v>
       </c>
       <c r="G610" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -22063,7 +22063,7 @@
         <v>3.15765690803528</v>
       </c>
       <c r="G611" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -22089,7 +22089,7 @@
         <v>3.09402990341187</v>
       </c>
       <c r="G612" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -22115,7 +22115,7 @@
         <v>2.91330194473267</v>
       </c>
       <c r="G613" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -22141,7 +22141,7 @@
         <v>2.76641893386841</v>
       </c>
       <c r="G614" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -22167,7 +22167,7 @@
         <v>2.77657198905945</v>
       </c>
       <c r="G615" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -22193,7 +22193,7 @@
         <v>2.7772490978241</v>
       </c>
       <c r="G616" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -22219,7 +22219,7 @@
         <v>2.99588203430176</v>
       </c>
       <c r="G617" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -22245,7 +22245,7 @@
         <v>2.90788698196411</v>
       </c>
       <c r="G618" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -22271,7 +22271,7 @@
         <v>2.80906200408936</v>
       </c>
       <c r="G619" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -22297,7 +22297,7 @@
         <v>2.80770897865295</v>
       </c>
       <c r="G620" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -22323,7 +22323,7 @@
         <v>2.86185908317566</v>
       </c>
       <c r="G621" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -22349,7 +22349,7 @@
         <v>2.78469491004944</v>
       </c>
       <c r="G622" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -22375,7 +22375,7 @@
         <v>2.90585708618164</v>
       </c>
       <c r="G623" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -22401,7 +22401,7 @@
         <v>2.94037795066833</v>
       </c>
       <c r="G624" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -22427,7 +22427,7 @@
         <v>2.98775911331177</v>
       </c>
       <c r="G625" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -22453,7 +22453,7 @@
         <v>3.02431106567383</v>
       </c>
       <c r="G626" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -22479,7 +22479,7 @@
         <v>2.94511604309082</v>
       </c>
       <c r="G627" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -22505,7 +22505,7 @@
         <v>2.93090105056763</v>
       </c>
       <c r="G628" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -22531,7 +22531,7 @@
         <v>3.03040289878845</v>
       </c>
       <c r="G629" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -22557,7 +22557,7 @@
         <v>3.10689091682434</v>
       </c>
       <c r="G630" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -22583,7 +22583,7 @@
         <v>3.01551198959351</v>
       </c>
       <c r="G631" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -22609,7 +22609,7 @@
         <v>3.23752903938293</v>
       </c>
       <c r="G632" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -22635,7 +22635,7 @@
         <v>3.1711950302124</v>
       </c>
       <c r="G633" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -22661,7 +22661,7 @@
         <v>3.18879389762878</v>
       </c>
       <c r="G634" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -22687,7 +22687,7 @@
         <v>3.14344191551208</v>
       </c>
       <c r="G635" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -22713,7 +22713,7 @@
         <v>3.17187190055847</v>
       </c>
       <c r="G636" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -22739,7 +22739,7 @@
         <v>3.18608593940735</v>
       </c>
       <c r="G637" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22765,7 +22765,7 @@
         <v>3.14344191551208</v>
       </c>
       <c r="G638" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22791,7 +22791,7 @@
         <v>3.17390203475952</v>
       </c>
       <c r="G639" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22817,7 +22817,7 @@
         <v>3.17728710174561</v>
       </c>
       <c r="G640" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22843,7 +22843,7 @@
         <v>3.1651029586792</v>
       </c>
       <c r="G641" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22869,7 +22869,7 @@
         <v>3.22737598419189</v>
       </c>
       <c r="G642" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -22895,7 +22895,7 @@
         <v>3.238205909729</v>
       </c>
       <c r="G643" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22921,7 +22921,7 @@
         <v>3.17525601387024</v>
       </c>
       <c r="G644" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22947,7 +22947,7 @@
         <v>3.12245893478394</v>
       </c>
       <c r="G645" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22973,7 +22973,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G646" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22999,7 +22999,7 @@
         <v>3.14411902427673</v>
       </c>
       <c r="G647" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -23025,7 +23025,7 @@
         <v>3.1651029586792</v>
       </c>
       <c r="G648" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -23051,7 +23051,7 @@
         <v>3.18743991851807</v>
       </c>
       <c r="G649" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -23077,7 +23077,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G650" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -23103,7 +23103,7 @@
         <v>3.13125896453857</v>
       </c>
       <c r="G651" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -23129,7 +23129,7 @@
         <v>3.09402990341187</v>
       </c>
       <c r="G652" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -23155,7 +23155,7 @@
         <v>3.07304692268372</v>
       </c>
       <c r="G653" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -23181,7 +23181,7 @@
         <v>3.13531994819641</v>
       </c>
       <c r="G654" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -23207,7 +23207,7 @@
         <v>3.13193488121033</v>
       </c>
       <c r="G655" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -23233,7 +23233,7 @@
         <v>3.17796301841736</v>
       </c>
       <c r="G656" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -23259,7 +23259,7 @@
         <v>3.22263789176941</v>
       </c>
       <c r="G657" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -23285,7 +23285,7 @@
         <v>3.19082403182983</v>
       </c>
       <c r="G658" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -23311,7 +23311,7 @@
         <v>3.23617506027222</v>
       </c>
       <c r="G659" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -23337,7 +23337,7 @@
         <v>3.22128391265869</v>
       </c>
       <c r="G660" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -23363,7 +23363,7 @@
         <v>3.10621404647827</v>
       </c>
       <c r="G661" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -23389,7 +23389,7 @@
         <v>3.0980908870697</v>
       </c>
       <c r="G662" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -23415,7 +23415,7 @@
         <v>3.10012197494507</v>
       </c>
       <c r="G663" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -23441,7 +23441,7 @@
         <v>3.12719702720642</v>
       </c>
       <c r="G664" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -23467,7 +23467,7 @@
         <v>2.94240808486938</v>
       </c>
       <c r="G665" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -23493,7 +23493,7 @@
         <v>2.90924096107483</v>
       </c>
       <c r="G666" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -23519,7 +23519,7 @@
         <v>2.86862802505493</v>
       </c>
       <c r="G667" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -23545,7 +23545,7 @@
         <v>2.7975549697876</v>
       </c>
       <c r="G668" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -23571,7 +23571,7 @@
         <v>2.77115702629089</v>
       </c>
       <c r="G669" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -23597,7 +23597,7 @@
         <v>2.76777291297913</v>
       </c>
       <c r="G670" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -23623,7 +23623,7 @@
         <v>2.70753002166748</v>
       </c>
       <c r="G671" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -23649,7 +23649,7 @@
         <v>2.70820689201355</v>
       </c>
       <c r="G672" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -23675,7 +23675,7 @@
         <v>2.76844906806946</v>
       </c>
       <c r="G673" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -23701,7 +23701,7 @@
         <v>2.76709604263306</v>
       </c>
       <c r="G674" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -23727,7 +23727,7 @@
         <v>2.74543499946594</v>
       </c>
       <c r="G675" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23753,7 +23753,7 @@
         <v>2.73866701126099</v>
       </c>
       <c r="G676" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23779,7 +23779,7 @@
         <v>2.72783708572388</v>
       </c>
       <c r="G677" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23805,7 +23805,7 @@
         <v>2.6838390827179</v>
       </c>
       <c r="G678" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23831,7 +23831,7 @@
         <v>2.70076107978821</v>
       </c>
       <c r="G679" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23857,7 +23857,7 @@
         <v>2.59922909736633</v>
       </c>
       <c r="G680" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23883,7 +23883,7 @@
         <v>2.57147693634033</v>
       </c>
       <c r="G681" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -23909,7 +23909,7 @@
         <v>2.58366107940674</v>
       </c>
       <c r="G682" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23935,7 +23935,7 @@
         <v>2.67842388153076</v>
       </c>
       <c r="G683" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23961,7 +23961,7 @@
         <v>2.79281711578369</v>
       </c>
       <c r="G684" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23987,7 +23987,7 @@
         <v>2.79823207855225</v>
       </c>
       <c r="G685" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -24013,7 +24013,7 @@
         <v>2.77657198905945</v>
       </c>
       <c r="G686" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -24039,7 +24039,7 @@
         <v>2.87268900871277</v>
       </c>
       <c r="G687" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -24065,7 +24065,7 @@
         <v>2.85847496986389</v>
       </c>
       <c r="G688" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -24091,7 +24091,7 @@
         <v>2.86118197441101</v>
       </c>
       <c r="G689" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -24117,7 +24117,7 @@
         <v>2.85170602798462</v>
       </c>
       <c r="G690" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -24143,7 +24143,7 @@
         <v>2.87268900871277</v>
       </c>
       <c r="G691" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -24169,7 +24169,7 @@
         <v>2.90788698196411</v>
       </c>
       <c r="G692" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -24195,7 +24195,7 @@
         <v>2.91736388206482</v>
       </c>
       <c r="G693" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -24221,7 +24221,7 @@
         <v>2.96136093139648</v>
       </c>
       <c r="G694" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -24247,7 +24247,7 @@
         <v>2.93360900878906</v>
       </c>
       <c r="G695" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -24273,7 +24273,7 @@
         <v>2.87742805480957</v>
       </c>
       <c r="G696" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -24299,7 +24299,7 @@
         <v>2.91059494018555</v>
       </c>
       <c r="G697" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -24325,7 +24325,7 @@
         <v>2.94647002220154</v>
       </c>
       <c r="G698" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -24351,7 +24351,7 @@
         <v>2.97625207901001</v>
       </c>
       <c r="G699" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -24377,7 +24377,7 @@
         <v>2.94511604309082</v>
       </c>
       <c r="G700" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -24403,7 +24403,7 @@
         <v>2.69940710067749</v>
       </c>
       <c r="G701" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -24429,7 +24429,7 @@
         <v>2.59313702583313</v>
       </c>
       <c r="G702" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -24455,7 +24455,7 @@
         <v>2.54778599739075</v>
       </c>
       <c r="G703" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -24481,7 +24481,7 @@
         <v>2.51461791992188</v>
       </c>
       <c r="G704" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -24507,7 +24507,7 @@
         <v>2.53018689155579</v>
       </c>
       <c r="G705" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -24533,7 +24533,7 @@
         <v>2.48415899276733</v>
       </c>
       <c r="G706" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -24559,7 +24559,7 @@
         <v>2.44286894798279</v>
       </c>
       <c r="G707" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -24585,7 +24585,7 @@
         <v>2.3941330909729</v>
       </c>
       <c r="G708" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -24611,7 +24611,7 @@
         <v>2.44625306129456</v>
       </c>
       <c r="G709" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -24637,7 +24637,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G710" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -24663,7 +24663,7 @@
         <v>2.41850090026855</v>
       </c>
       <c r="G711" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -24689,7 +24689,7 @@
         <v>2.43542289733887</v>
       </c>
       <c r="G712" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -24715,7 +24715,7 @@
         <v>2.41443991661072</v>
       </c>
       <c r="G713" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -24741,7 +24741,7 @@
         <v>2.41782402992249</v>
       </c>
       <c r="G714" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24767,7 +24767,7 @@
         <v>2.36570405960083</v>
       </c>
       <c r="G715" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24793,7 +24793,7 @@
         <v>2.37450408935547</v>
       </c>
       <c r="G716" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24819,7 +24819,7 @@
         <v>2.28786301612854</v>
       </c>
       <c r="G717" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -24845,7 +24845,7 @@
         <v>2.238450050354</v>
       </c>
       <c r="G718" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24871,7 +24871,7 @@
         <v>2.17482304573059</v>
       </c>
       <c r="G719" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -24897,7 +24897,7 @@
         <v>2.2249128818512</v>
       </c>
       <c r="G720" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -24923,7 +24923,7 @@
         <v>2.20799088478088</v>
       </c>
       <c r="G721" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -24949,7 +24949,7 @@
         <v>2.30546188354492</v>
       </c>
       <c r="G722" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -24975,7 +24975,7 @@
         <v>2.29192399978638</v>
       </c>
       <c r="G723" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -25001,7 +25001,7 @@
         <v>2.2729709148407</v>
       </c>
       <c r="G724" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -25027,7 +25027,7 @@
         <v>2.28650903701782</v>
       </c>
       <c r="G725" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -25053,7 +25053,7 @@
         <v>2.37924194335938</v>
       </c>
       <c r="G726" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -25079,7 +25079,7 @@
         <v>2.29733896255493</v>
       </c>
       <c r="G727" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -25105,7 +25105,7 @@
         <v>2.28041696548462</v>
       </c>
       <c r="G728" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -25131,7 +25131,7 @@
         <v>2.32170701026917</v>
       </c>
       <c r="G729" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -25157,7 +25157,7 @@
         <v>2.33930611610413</v>
       </c>
       <c r="G730" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -25183,7 +25183,7 @@
         <v>2.36028909683228</v>
       </c>
       <c r="G731" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -25209,7 +25209,7 @@
         <v>2.36367392539978</v>
       </c>
       <c r="G732" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -25235,7 +25235,7 @@
         <v>2.36570405960083</v>
       </c>
       <c r="G733" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -25261,7 +25261,7 @@
         <v>2.29463195800781</v>
       </c>
       <c r="G734" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -25287,7 +25287,7 @@
         <v>2.31358408927917</v>
       </c>
       <c r="G735" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -25313,7 +25313,7 @@
         <v>2.2716178894043</v>
       </c>
       <c r="G736" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -25339,7 +25339,7 @@
         <v>2.29260110855103</v>
       </c>
       <c r="G737" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -25365,7 +25365,7 @@
         <v>2.26620292663574</v>
       </c>
       <c r="G738" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -25391,7 +25391,7 @@
         <v>2.34810495376587</v>
       </c>
       <c r="G739" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -25417,7 +25417,7 @@
         <v>2.36164307594299</v>
       </c>
       <c r="G740" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -25443,7 +25443,7 @@
         <v>2.36299705505371</v>
       </c>
       <c r="G741" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -25469,7 +25469,7 @@
         <v>2.48957395553589</v>
       </c>
       <c r="G742" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -25495,7 +25495,7 @@
         <v>2.40225601196289</v>
       </c>
       <c r="G743" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -25521,7 +25521,7 @@
         <v>2.42391610145569</v>
       </c>
       <c r="G744" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -25547,7 +25547,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G745" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -25573,7 +25573,7 @@
         <v>2.43610000610352</v>
       </c>
       <c r="G746" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -25599,7 +25599,7 @@
         <v>2.5484631061554</v>
       </c>
       <c r="G747" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -25625,7 +25625,7 @@
         <v>2.50514197349548</v>
       </c>
       <c r="G748" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -25651,7 +25651,7 @@
         <v>2.55184698104858</v>
       </c>
       <c r="G749" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -25677,7 +25677,7 @@
         <v>2.47062110900879</v>
       </c>
       <c r="G750" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -25703,7 +25703,7 @@
         <v>2.43136191368103</v>
       </c>
       <c r="G751" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -25729,7 +25729,7 @@
         <v>2.39007210731506</v>
       </c>
       <c r="G752" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -25755,7 +25755,7 @@
         <v>2.33930611610413</v>
       </c>
       <c r="G753" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -25781,7 +25781,7 @@
         <v>2.36705803871155</v>
       </c>
       <c r="G754" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -25807,7 +25807,7 @@
         <v>2.35758209228516</v>
       </c>
       <c r="G755" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -25833,7 +25833,7 @@
         <v>2.32102990150452</v>
       </c>
       <c r="G756" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -25859,7 +25859,7 @@
         <v>2.27567911148071</v>
       </c>
       <c r="G757" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -25885,7 +25885,7 @@
         <v>2.26484894752502</v>
       </c>
       <c r="G758" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -25911,7 +25911,7 @@
         <v>2.31087708473206</v>
       </c>
       <c r="G759" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -25937,7 +25937,7 @@
         <v>2.26687908172607</v>
       </c>
       <c r="G760" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -25963,7 +25963,7 @@
         <v>2.24995708465576</v>
       </c>
       <c r="G761" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -25989,7 +25989,7 @@
         <v>2.21949791908264</v>
       </c>
       <c r="G762" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -26015,7 +26015,7 @@
         <v>2.27703309059143</v>
       </c>
       <c r="G763" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -26041,7 +26041,7 @@
         <v>2.2310049533844</v>
       </c>
       <c r="G764" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -26067,7 +26067,7 @@
         <v>2.21611309051514</v>
       </c>
       <c r="G765" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -26093,7 +26093,7 @@
         <v>2.29057002067566</v>
       </c>
       <c r="G766" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -26119,7 +26119,7 @@
         <v>2.30478501319885</v>
       </c>
       <c r="G767" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -26145,7 +26145,7 @@
         <v>2.25401902198792</v>
       </c>
       <c r="G768" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -26171,7 +26171,7 @@
         <v>2.24454188346863</v>
       </c>
       <c r="G769" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -26197,7 +26197,7 @@
         <v>2.25131106376648</v>
       </c>
       <c r="G770" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -26223,7 +26223,7 @@
         <v>2.21340608596802</v>
       </c>
       <c r="G771" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -26249,7 +26249,7 @@
         <v>2.12811803817749</v>
       </c>
       <c r="G772" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -26275,7 +26275,7 @@
         <v>2.02726292610168</v>
       </c>
       <c r="G773" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -26301,7 +26301,7 @@
         <v>2.071937084198</v>
       </c>
       <c r="G774" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -26327,7 +26327,7 @@
         <v>2.08006000518799</v>
       </c>
       <c r="G775" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -26353,7 +26353,7 @@
         <v>2.06787610054016</v>
       </c>
       <c r="G776" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -26379,7 +26379,7 @@
         <v>2.07870602607727</v>
       </c>
       <c r="G777" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -26405,7 +26405,7 @@
         <v>2.06719899177551</v>
       </c>
       <c r="G778" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -26431,7 +26431,7 @@
         <v>2.03673911094666</v>
       </c>
       <c r="G779" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -26457,7 +26457,7 @@
         <v>2.04283094406128</v>
       </c>
       <c r="G780" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -26483,7 +26483,7 @@
         <v>2.13217997550964</v>
       </c>
       <c r="G781" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -26509,7 +26509,7 @@
         <v>2.10645794868469</v>
       </c>
       <c r="G782" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -26535,7 +26535,7 @@
         <v>2.11187291145325</v>
       </c>
       <c r="G783" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -26561,7 +26561,7 @@
         <v>2.13014888763428</v>
       </c>
       <c r="G784" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -26587,7 +26587,7 @@
         <v>2.00086498260498</v>
       </c>
       <c r="G785" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -26613,7 +26613,7 @@
         <v>2.00695610046387</v>
       </c>
       <c r="G786" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -26639,7 +26639,7 @@
         <v>2.01034092903137</v>
       </c>
       <c r="G787" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -26665,7 +26665,7 @@
         <v>2.01372504234314</v>
       </c>
       <c r="G788" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -26691,7 +26691,7 @@
         <v>2.06110692024231</v>
       </c>
       <c r="G789" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -26717,7 +26717,7 @@
         <v>2.04012393951416</v>
       </c>
       <c r="G790" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -26743,7 +26743,7 @@
         <v>2.22017502784729</v>
       </c>
       <c r="G791" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -26769,7 +26769,7 @@
         <v>2.31223106384277</v>
       </c>
       <c r="G792" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -26795,7 +26795,7 @@
         <v>2.30546188354492</v>
       </c>
       <c r="G793" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -26821,7 +26821,7 @@
         <v>2.28853988647461</v>
       </c>
       <c r="G794" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -26847,7 +26847,7 @@
         <v>2.27974009513855</v>
       </c>
       <c r="G795" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -26873,7 +26873,7 @@
         <v>2.38533401489258</v>
       </c>
       <c r="G796" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -26899,7 +26899,7 @@
         <v>2.37585806846619</v>
       </c>
       <c r="G797" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -26925,7 +26925,7 @@
         <v>2.37450408935547</v>
       </c>
       <c r="G798" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -26951,7 +26951,7 @@
         <v>2.35555100440979</v>
       </c>
       <c r="G799" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -26977,7 +26977,7 @@
         <v>2.31764602661133</v>
       </c>
       <c r="G800" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -27003,7 +27003,7 @@
         <v>2.34472107887268</v>
       </c>
       <c r="G801" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -27029,7 +27029,7 @@
         <v>2.36841201782227</v>
       </c>
       <c r="G802" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -27055,7 +27055,7 @@
         <v>2.38398003578186</v>
       </c>
       <c r="G803" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -27081,7 +27081,7 @@
         <v>2.44828391075134</v>
       </c>
       <c r="G804" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -27107,7 +27107,7 @@
         <v>2.51461791992188</v>
       </c>
       <c r="G805" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -27133,7 +27133,7 @@
         <v>2.50311088562012</v>
       </c>
       <c r="G806" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -27159,7 +27159,7 @@
         <v>2.49634289741516</v>
       </c>
       <c r="G807" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -27185,7 +27185,7 @@
         <v>2.48821997642517</v>
       </c>
       <c r="G808" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -27211,7 +27211,7 @@
         <v>2.50852704048157</v>
       </c>
       <c r="G809" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -27237,7 +27237,7 @@
         <v>2.4347460269928</v>
       </c>
       <c r="G810" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -27263,7 +27263,7 @@
         <v>2.37924194335938</v>
       </c>
       <c r="G811" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -27289,7 +27289,7 @@
         <v>2.40970206260681</v>
       </c>
       <c r="G812" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -27315,7 +27315,7 @@
         <v>2.39480996131897</v>
       </c>
       <c r="G813" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -27341,7 +27341,7 @@
         <v>2.40902495384216</v>
       </c>
       <c r="G814" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -27367,7 +27367,7 @@
         <v>2.45776009559631</v>
       </c>
       <c r="G815" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -27393,7 +27393,7 @@
         <v>2.44286894798279</v>
       </c>
       <c r="G816" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -27419,7 +27419,7 @@
         <v>2.50717306137085</v>
       </c>
       <c r="G817" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -27445,7 +27445,7 @@
         <v>2.52612495422363</v>
       </c>
       <c r="G818" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -27471,7 +27471,7 @@
         <v>2.52680206298828</v>
       </c>
       <c r="G819" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -27497,7 +27497,7 @@
         <v>2.50446510314941</v>
       </c>
       <c r="G820" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -27523,7 +27523,7 @@
         <v>2.46994400024414</v>
       </c>
       <c r="G821" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -27549,7 +27549,7 @@
         <v>2.4597909450531</v>
       </c>
       <c r="G822" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -27575,7 +27575,7 @@
         <v>2.43880796432495</v>
       </c>
       <c r="G823" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -27601,7 +27601,7 @@
         <v>2.47739005088806</v>
       </c>
       <c r="G824" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -27627,7 +27627,7 @@
         <v>2.46723699569702</v>
       </c>
       <c r="G825" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -27653,7 +27653,7 @@
         <v>2.46452903747559</v>
       </c>
       <c r="G826" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -27679,7 +27679,7 @@
         <v>2.49837303161621</v>
       </c>
       <c r="G827" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -27705,7 +27705,7 @@
         <v>2.47942090034485</v>
       </c>
       <c r="G828" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -27731,7 +27731,7 @@
         <v>2.49837303161621</v>
       </c>
       <c r="G829" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -27757,7 +27757,7 @@
         <v>2.50378799438477</v>
       </c>
       <c r="G830" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -27783,7 +27783,7 @@
         <v>2.5064959526062</v>
       </c>
       <c r="G831" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -27809,7 +27809,7 @@
         <v>2.528156042099</v>
       </c>
       <c r="G832" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -27835,7 +27835,7 @@
         <v>2.52951002120972</v>
       </c>
       <c r="G833" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -27861,7 +27861,7 @@
         <v>2.54778599739075</v>
       </c>
       <c r="G834" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -27887,7 +27887,7 @@
         <v>2.56944608688354</v>
       </c>
       <c r="G835" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -27913,7 +27913,7 @@
         <v>2.61750507354736</v>
       </c>
       <c r="G836" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -27939,7 +27939,7 @@
         <v>2.68654704093933</v>
       </c>
       <c r="G837" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -27965,7 +27965,7 @@
         <v>2.73189806938171</v>
       </c>
       <c r="G838" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -27991,7 +27991,7 @@
         <v>2.80432391166687</v>
       </c>
       <c r="G839" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -28017,7 +28017,7 @@
         <v>2.83139991760254</v>
       </c>
       <c r="G840" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -28043,7 +28043,7 @@
         <v>2.8036470413208</v>
       </c>
       <c r="G841" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -28069,7 +28069,7 @@
         <v>2.77927994728088</v>
       </c>
       <c r="G842" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -28095,7 +28095,7 @@
         <v>2.82463097572327</v>
       </c>
       <c r="G843" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -28121,7 +28121,7 @@
         <v>2.84764504432678</v>
       </c>
       <c r="G844" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -28147,7 +28147,7 @@
         <v>2.85576701164246</v>
       </c>
       <c r="G845" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -28173,7 +28173,7 @@
         <v>2.89976501464844</v>
       </c>
       <c r="G846" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -28199,7 +28199,7 @@
         <v>2.85306000709534</v>
       </c>
       <c r="G847" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -28225,7 +28225,7 @@
         <v>2.8442599773407</v>
       </c>
       <c r="G848" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -28251,7 +28251,7 @@
         <v>2.80906200408936</v>
       </c>
       <c r="G849" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -28277,7 +28277,7 @@
         <v>2.78537201881409</v>
       </c>
       <c r="G850" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -28303,7 +28303,7 @@
         <v>2.76980304718018</v>
       </c>
       <c r="G851" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -28329,7 +28329,7 @@
         <v>2.71023797988892</v>
       </c>
       <c r="G852" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -28355,7 +28355,7 @@
         <v>2.68045496940613</v>
       </c>
       <c r="G853" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -28381,7 +28381,7 @@
         <v>2.63984203338623</v>
       </c>
       <c r="G854" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -28407,7 +28407,7 @@
         <v>2.66353297233582</v>
       </c>
       <c r="G855" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -28433,7 +28433,7 @@
         <v>2.61682796478271</v>
       </c>
       <c r="G856" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -28459,7 +28459,7 @@
         <v>2.67571711540222</v>
       </c>
       <c r="G857" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -28485,7 +28485,7 @@
         <v>2.68045496940613</v>
       </c>
       <c r="G858" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -28511,7 +28511,7 @@
         <v>2.51868009567261</v>
       </c>
       <c r="G859" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -28537,7 +28537,7 @@
         <v>2.45234489440918</v>
       </c>
       <c r="G860" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -28563,7 +28563,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G861" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -28589,7 +28589,7 @@
         <v>2.36841201782227</v>
       </c>
       <c r="G862" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -28615,7 +28615,7 @@
         <v>2.3927800655365</v>
       </c>
       <c r="G863" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -28641,7 +28641,7 @@
         <v>2.32915306091309</v>
       </c>
       <c r="G864" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -28667,7 +28667,7 @@
         <v>2.33050608634949</v>
       </c>
       <c r="G865" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -28693,7 +28693,7 @@
         <v>2.3183228969574</v>
       </c>
       <c r="G866" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -28719,7 +28719,7 @@
         <v>2.30207705497742</v>
       </c>
       <c r="G867" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -28745,7 +28745,7 @@
         <v>2.29057002067566</v>
       </c>
       <c r="G868" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -28771,7 +28771,7 @@
         <v>2.27229404449463</v>
       </c>
       <c r="G869" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -28797,7 +28797,7 @@
         <v>2.31223106384277</v>
       </c>
       <c r="G870" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -28823,7 +28823,7 @@
         <v>2.27026391029358</v>
       </c>
       <c r="G871" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -28849,7 +28849,7 @@
         <v>2.24318909645081</v>
       </c>
       <c r="G872" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -28875,7 +28875,7 @@
         <v>2.23912692070007</v>
       </c>
       <c r="G873" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -28901,7 +28901,7 @@
         <v>2.30952310562134</v>
       </c>
       <c r="G874" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -28927,7 +28927,7 @@
         <v>2.33118295669556</v>
       </c>
       <c r="G875" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -28953,7 +28953,7 @@
         <v>2.30478501319885</v>
       </c>
       <c r="G876" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -28979,7 +28979,7 @@
         <v>2.33253693580627</v>
       </c>
       <c r="G877" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -29005,7 +29005,7 @@
         <v>2.32441401481628</v>
       </c>
       <c r="G878" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -29031,7 +29031,7 @@
         <v>2.34201288223267</v>
       </c>
       <c r="G879" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -29057,7 +29057,7 @@
         <v>2.39480996131897</v>
       </c>
       <c r="G880" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -29083,7 +29083,7 @@
         <v>2.4394850730896</v>
       </c>
       <c r="G881" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -29109,7 +29109,7 @@
         <v>2.43677711486816</v>
       </c>
       <c r="G882" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -29135,7 +29135,7 @@
         <v>2.47806692123413</v>
       </c>
       <c r="G883" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -29161,7 +29161,7 @@
         <v>2.45099210739136</v>
       </c>
       <c r="G884" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -29187,7 +29187,7 @@
         <v>2.39480996131897</v>
       </c>
       <c r="G885" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -29213,7 +29213,7 @@
         <v>2.44963788986206</v>
       </c>
       <c r="G886" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -29239,7 +29239,7 @@
         <v>2.46385192871094</v>
       </c>
       <c r="G887" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -29265,7 +29265,7 @@
         <v>2.42527008056641</v>
       </c>
       <c r="G888" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -29291,7 +29291,7 @@
         <v>2.41240906715393</v>
       </c>
       <c r="G889" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -29317,7 +29317,7 @@
         <v>2.46182203292847</v>
       </c>
       <c r="G890" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -29343,7 +29343,7 @@
         <v>2.55793905258179</v>
       </c>
       <c r="G891" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -29369,7 +29369,7 @@
         <v>2.63239598274231</v>
       </c>
       <c r="G892" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -29395,7 +29395,7 @@
         <v>2.63781094551086</v>
       </c>
       <c r="G893" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -29421,7 +29421,7 @@
         <v>2.61412000656128</v>
       </c>
       <c r="G894" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -29447,7 +29447,7 @@
         <v>2.59245991706848</v>
       </c>
       <c r="G895" t="s">
-        <v>788</v>
+        <v>749</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -29629,7 +29629,7 @@
         <v>2.59245991706848</v>
       </c>
       <c r="G902" t="s">
-        <v>788</v>
+        <v>749</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -30019,7 +30019,7 @@
         <v>2.32915306091309</v>
       </c>
       <c r="G917" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -30955,7 +30955,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G953" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -31085,7 +31085,7 @@
         <v>2.36841201782227</v>
       </c>
       <c r="G958" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -33685,7 +33685,7 @@
         <v>2.30478501319885</v>
       </c>
       <c r="G1058" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>

--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="1949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1950">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,22 +44,22 @@
     <t xml:space="preserve">BPE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54022240638733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38293671607971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30558204650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23080682754517</t>
+    <t xml:space="preserve">3.54022264480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38293695449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30558228492737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23080730438232</t>
   </si>
   <si>
     <t xml:space="preserve">3.23338580131531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20760059356689</t>
+    <t xml:space="preserve">3.20760083198547</t>
   </si>
   <si>
     <t xml:space="preserve">3.36230826377869</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.18955254554749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91107845306396</t>
+    <t xml:space="preserve">2.91107869148254</t>
   </si>
   <si>
     <t xml:space="preserve">2.89818644523621</t>
@@ -83,70 +83,70 @@
     <t xml:space="preserve">2.94975519180298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87240171432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0400013923645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91623544692993</t>
+    <t xml:space="preserve">2.87240195274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04000163078308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91623568534851</t>
   </si>
   <si>
     <t xml:space="preserve">2.69706678390503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83630299568176</t>
+    <t xml:space="preserve">2.83630323410034</t>
   </si>
   <si>
     <t xml:space="preserve">2.76668477058411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57845783233643</t>
+    <t xml:space="preserve">2.57845759391785</t>
   </si>
   <si>
     <t xml:space="preserve">2.36496090888977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37424349784851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32473707199097</t>
+    <t xml:space="preserve">2.37424325942993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32473683357239</t>
   </si>
   <si>
     <t xml:space="preserve">2.04729557037354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00294589996338</t>
+    <t xml:space="preserve">2.00294613838196</t>
   </si>
   <si>
     <t xml:space="preserve">2.1411509513855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93590605258942</t>
+    <t xml:space="preserve">1.93590593338013</t>
   </si>
   <si>
     <t xml:space="preserve">2.15868449211121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37733745574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49285221099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55267310142517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53720211982727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38558912277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62744879722595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52791953086853</t>
+    <t xml:space="preserve">2.37733769416809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49285244941711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55267357826233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53720235824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3855893611908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62744855880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52792000770569</t>
   </si>
   <si>
     <t xml:space="preserve">2.36702418327332</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">2.4289071559906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46500492095947</t>
+    <t xml:space="preserve">2.46500515937805</t>
   </si>
   <si>
     <t xml:space="preserve">2.58619284629822</t>
@@ -173,52 +173,52 @@
     <t xml:space="preserve">2.55164170265198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41962456703186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38455772399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41137361526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43303227424622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63518381118774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67128229141235</t>
+    <t xml:space="preserve">2.41962432861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3845579624176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41137385368347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43303275108337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63518404960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67128252983093</t>
   </si>
   <si>
     <t xml:space="preserve">2.58361411094666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40827870368958</t>
+    <t xml:space="preserve">2.40827918052673</t>
   </si>
   <si>
     <t xml:space="preserve">2.4350950717926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45675420761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45056581497192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41446757316589</t>
+    <t xml:space="preserve">2.4567539691925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4505660533905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41446733474731</t>
   </si>
   <si>
     <t xml:space="preserve">2.34845900535583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25150871276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22881841659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15765285491943</t>
+    <t xml:space="preserve">2.25150918960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22881817817688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15765333175659</t>
   </si>
   <si>
     <t xml:space="preserve">2.19684600830078</t>
@@ -227,34 +227,34 @@
     <t xml:space="preserve">2.07204842567444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06070256233215</t>
+    <t xml:space="preserve">2.06070280075073</t>
   </si>
   <si>
     <t xml:space="preserve">1.93899977207184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2164421081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32370638847351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.230881690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48666477203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59908533096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60682058334351</t>
+    <t xml:space="preserve">2.21644234657288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32370615005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23088145256042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48666453361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59908509254456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60682034492493</t>
   </si>
   <si>
     <t xml:space="preserve">2.51966881752014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59392833709717</t>
+    <t xml:space="preserve">2.59392809867859</t>
   </si>
   <si>
     <t xml:space="preserve">2.67643880844116</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">2.68933081626892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59650707244873</t>
+    <t xml:space="preserve">2.59650659561157</t>
   </si>
   <si>
     <t xml:space="preserve">2.68159556388855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64034128189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74347901344299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63260459899902</t>
+    <t xml:space="preserve">2.64034104347229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74347853660583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6326048374176</t>
   </si>
   <si>
     <t xml:space="preserve">2.5361704826355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42478203773499</t>
+    <t xml:space="preserve">2.42478156089783</t>
   </si>
   <si>
     <t xml:space="preserve">2.39796566963196</t>
@@ -293,16 +293,16 @@
     <t xml:space="preserve">2.27007412910461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2638852596283</t>
+    <t xml:space="preserve">2.26388502120972</t>
   </si>
   <si>
     <t xml:space="preserve">2.25769758224487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22263073921204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21953558921814</t>
+    <t xml:space="preserve">2.22263050079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21953582763672</t>
   </si>
   <si>
     <t xml:space="preserve">2.2535719871521</t>
@@ -323,13 +323,13 @@
     <t xml:space="preserve">2.42774295806885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54907751083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49948859214783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50581932067871</t>
+    <t xml:space="preserve">2.54907727241516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49948883056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50581955909729</t>
   </si>
   <si>
     <t xml:space="preserve">2.53008699417114</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">2.39925646781921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36865925788879</t>
+    <t xml:space="preserve">2.36865949630737</t>
   </si>
   <si>
     <t xml:space="preserve">2.27370142936707</t>
@@ -347,28 +347,28 @@
     <t xml:space="preserve">2.26315069198608</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29269242286682</t>
+    <t xml:space="preserve">2.29269289970398</t>
   </si>
   <si>
     <t xml:space="preserve">2.33595156669617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18296432495117</t>
+    <t xml:space="preserve">2.18296456336975</t>
   </si>
   <si>
     <t xml:space="preserve">2.05002355575562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99199414253235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98566424846649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93396472930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12599062919617</t>
+    <t xml:space="preserve">1.99199438095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98566460609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93396484851837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12599039077759</t>
   </si>
   <si>
     <t xml:space="preserve">2.22200202941895</t>
@@ -377,22 +377,22 @@
     <t xml:space="preserve">2.27897644042969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26948142051697</t>
+    <t xml:space="preserve">2.26948165893555</t>
   </si>
   <si>
     <t xml:space="preserve">2.44356989860535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84217298030853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82318139076233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77992296218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68285548686981</t>
+    <t xml:space="preserve">1.8421733379364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8231817483902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77992272377014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68285536766052</t>
   </si>
   <si>
     <t xml:space="preserve">1.72927927970886</t>
@@ -407,16 +407,16 @@
     <t xml:space="preserve">1.53619945049286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42647051811218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36211025714874</t>
+    <t xml:space="preserve">1.42647039890289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36211013793945</t>
   </si>
   <si>
     <t xml:space="preserve">1.58262240886688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65647864341736</t>
+    <t xml:space="preserve">1.65647852420807</t>
   </si>
   <si>
     <t xml:space="preserve">1.7915290594101</t>
@@ -425,79 +425,79 @@
     <t xml:space="preserve">1.70184695720673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7746479511261</t>
+    <t xml:space="preserve">1.77464807033539</t>
   </si>
   <si>
     <t xml:space="preserve">1.79574918746948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80630040168762</t>
+    <t xml:space="preserve">1.80630052089691</t>
   </si>
   <si>
     <t xml:space="preserve">1.78941857814789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8084100484848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86643958091736</t>
+    <t xml:space="preserve">1.80841040611267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86643946170807</t>
   </si>
   <si>
     <t xml:space="preserve">1.85272359848022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80313491821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81157529354095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89492678642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83584225177765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93607544898987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8263463973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60055863857269</t>
+    <t xml:space="preserve">1.8031347990036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81157505512238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89492702484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83584237098694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93607521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82634651660919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60055887699127</t>
   </si>
   <si>
     <t xml:space="preserve">1.66491901874542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67335951328278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89176189899445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85694360733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89387190341949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88226628303528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88121092319489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8548344373703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84111797809601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77253723144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80419015884399</t>
+    <t xml:space="preserve">1.67335939407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89176213741302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85694372653961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89387166500092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88226592540741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88121104240417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85483407974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8411180973053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7725373506546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8041900396347</t>
   </si>
   <si>
     <t xml:space="preserve">1.69973683357239</t>
@@ -506,25 +506,25 @@
     <t xml:space="preserve">1.71134281158447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80946552753448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84850311279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79469418525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75776624679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80735528469086</t>
+    <t xml:space="preserve">1.80946564674377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84850323200226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79469382762909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75776612758636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8073548078537</t>
   </si>
   <si>
     <t xml:space="preserve">1.82001650333405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85377883911133</t>
+    <t xml:space="preserve">1.85377860069275</t>
   </si>
   <si>
     <t xml:space="preserve">1.87910056114197</t>
@@ -533,163 +533,163 @@
     <t xml:space="preserve">1.8453381061554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90758776664734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91075301170349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87277042865753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83689725399017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78836393356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72822403907776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75460112094879</t>
+    <t xml:space="preserve">1.90758812427521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91075325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87277030944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83689773082733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78836405277252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72822391986847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75460124015808</t>
   </si>
   <si>
     <t xml:space="preserve">1.67969048023224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75882160663605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76304173469543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68391072750092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65753376483917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69446170330048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69762670993805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74721562862396</t>
+    <t xml:space="preserve">1.75882136821747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76304149627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68391048908234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65753364562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69446194171906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69762706756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74721574783325</t>
   </si>
   <si>
     <t xml:space="preserve">1.70712280273438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78730869293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79258418083191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76726186275482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83056664466858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94135069847107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98460912704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89809191226959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99726974964142</t>
+    <t xml:space="preserve">1.78730905056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79258441925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76726150512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83056700229645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94135081768036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98460924625397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89809215068817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99726986885071</t>
   </si>
   <si>
     <t xml:space="preserve">2.03947353363037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14392685890198</t>
+    <t xml:space="preserve">2.1439266204834</t>
   </si>
   <si>
     <t xml:space="preserve">2.2462694644928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24099397659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29796838760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20195627212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23782920837402</t>
+    <t xml:space="preserve">2.24099373817444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29796814918518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20195651054382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23782896995544</t>
   </si>
   <si>
     <t xml:space="preserve">2.29058289527893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28425192832947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25471043586731</t>
+    <t xml:space="preserve">2.28425216674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25471019744873</t>
   </si>
   <si>
     <t xml:space="preserve">2.23571848869324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11016392707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08378672599792</t>
+    <t xml:space="preserve">2.11016416549683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08378720283508</t>
   </si>
   <si>
     <t xml:space="preserve">2.06057476997375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13232064247131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17241358757019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20406603813171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20512127876282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18190932273865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17135787010193</t>
+    <t xml:space="preserve">2.13232040405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17241311073303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20406627655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20512104034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18190956115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17135810852051</t>
   </si>
   <si>
     <t xml:space="preserve">2.10805344581604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01837110519409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97722387313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96878206729889</t>
+    <t xml:space="preserve">2.01837134361267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97722351551056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96878242492676</t>
   </si>
   <si>
     <t xml:space="preserve">2.00887632369995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99832499027252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00465536117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97405755519867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9993804693222</t>
+    <t xml:space="preserve">1.99832487106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00465512275696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97405767440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99938035011292</t>
   </si>
   <si>
     <t xml:space="preserve">2.15975260734558</t>
@@ -698,25 +698,25 @@
     <t xml:space="preserve">2.11649465560913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25998544692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49526858329773</t>
+    <t xml:space="preserve">2.25998568534851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49526834487915</t>
   </si>
   <si>
     <t xml:space="preserve">2.53114128112793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49210333824158</t>
+    <t xml:space="preserve">2.49210357666016</t>
   </si>
   <si>
     <t xml:space="preserve">2.5385274887085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59233689308167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55013298988342</t>
+    <t xml:space="preserve">2.59233665466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55013275146484</t>
   </si>
   <si>
     <t xml:space="preserve">2.61871337890625</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">2.64034295082092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62187838554382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63770484924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69573450088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72211122512817</t>
+    <t xml:space="preserve">2.6218786239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63770508766174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69573473930359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72211146354675</t>
   </si>
   <si>
     <t xml:space="preserve">2.73002457618713</t>
@@ -743,37 +743,37 @@
     <t xml:space="preserve">2.66935777664185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7801411151886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88564896583557</t>
+    <t xml:space="preserve">2.78014087677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88564872741699</t>
   </si>
   <si>
     <t xml:space="preserve">2.83817028999329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79596710205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65616869926453</t>
+    <t xml:space="preserve">2.79596662521362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65616893768311</t>
   </si>
   <si>
     <t xml:space="preserve">2.64297986030579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80124258995056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77486538887024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81970643997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83025741577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98324418067932</t>
+    <t xml:space="preserve">2.80124235153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77486515045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8197066783905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83025717735291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9832444190979</t>
   </si>
   <si>
     <t xml:space="preserve">3.03072285652161</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">2.95950484275818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96741771697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00434565544128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95686745643616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81706881523132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76431465148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82761931419373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84080791473389</t>
+    <t xml:space="preserve">2.96741795539856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00434589385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95686721801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81706857681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76431441307068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82761907577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84080767631531</t>
   </si>
   <si>
     <t xml:space="preserve">2.90938830375671</t>
@@ -812,31 +812,31 @@
     <t xml:space="preserve">2.64825534820557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67990827560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50898480415344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51742506027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60394191741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53747177124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44990015029907</t>
+    <t xml:space="preserve">2.67990803718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50898456573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5174252986908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60394215583801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53747200965881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44989991188049</t>
   </si>
   <si>
     <t xml:space="preserve">2.37393426895142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34861278533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3454475402832</t>
+    <t xml:space="preserve">2.3486123085022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34544706344604</t>
   </si>
   <si>
     <t xml:space="preserve">2.25576543807983</t>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">2.21567225456238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18401980400085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36338353157043</t>
+    <t xml:space="preserve">2.18401956558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36338400840759</t>
   </si>
   <si>
     <t xml:space="preserve">2.37287950515747</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">2.47944259643555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41191744804382</t>
+    <t xml:space="preserve">2.4119176864624</t>
   </si>
   <si>
     <t xml:space="preserve">2.31062889099121</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">2.39292573928833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47100210189819</t>
+    <t xml:space="preserve">2.47100186347961</t>
   </si>
   <si>
     <t xml:space="preserve">2.42985391616821</t>
@@ -878,16 +878,16 @@
     <t xml:space="preserve">2.36760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37182426452637</t>
+    <t xml:space="preserve">2.37182402610779</t>
   </si>
   <si>
     <t xml:space="preserve">2.48999357223511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46045112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53430700302124</t>
+    <t xml:space="preserve">2.46045088768005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53430724143982</t>
   </si>
   <si>
     <t xml:space="preserve">2.5438027381897</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">2.61554861068726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5860059261322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53958177566528</t>
+    <t xml:space="preserve">2.58600568771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53958201408386</t>
   </si>
   <si>
     <t xml:space="preserve">2.55540871620178</t>
@@ -908,28 +908,28 @@
     <t xml:space="preserve">2.50793027877808</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47416710853577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46889162063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38237452507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40031099319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39820122718811</t>
+    <t xml:space="preserve">2.47416687011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46889138221741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38237428665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40031123161316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39820098876953</t>
   </si>
   <si>
     <t xml:space="preserve">2.4161376953125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37709999084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32012462615967</t>
+    <t xml:space="preserve">2.37709975242615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32012510299683</t>
   </si>
   <si>
     <t xml:space="preserve">2.30113410949707</t>
@@ -938,46 +938,46 @@
     <t xml:space="preserve">2.41824746131897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5849506855011</t>
+    <t xml:space="preserve">2.58495044708252</t>
   </si>
   <si>
     <t xml:space="preserve">2.62293386459351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56595969200134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6456184387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71419858932495</t>
+    <t xml:space="preserve">2.56595945358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64561820030212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71419882774353</t>
   </si>
   <si>
     <t xml:space="preserve">2.75376391410828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68518376350403</t>
+    <t xml:space="preserve">2.68518352508545</t>
   </si>
   <si>
     <t xml:space="preserve">2.66408205032349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51320457458496</t>
+    <t xml:space="preserve">2.51320481300354</t>
   </si>
   <si>
     <t xml:space="preserve">2.47311186790466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56384897232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52164554595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46361637115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43512940406799</t>
+    <t xml:space="preserve">2.56384873390198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52164530754089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46361613273621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43512916564941</t>
   </si>
   <si>
     <t xml:space="preserve">2.47205710411072</t>
@@ -995,28 +995,28 @@
     <t xml:space="preserve">2.49236345291138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46350646018982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38869333267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38976240158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32991099357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37907433509827</t>
+    <t xml:space="preserve">2.4635066986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38869309425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38976216316223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32991123199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37907409667969</t>
   </si>
   <si>
     <t xml:space="preserve">2.34914922714233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30639815330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27112913131714</t>
+    <t xml:space="preserve">2.30639839172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27112889289856</t>
   </si>
   <si>
     <t xml:space="preserve">2.27540397644043</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">2.35983657836914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35235500335693</t>
+    <t xml:space="preserve">2.35235524177551</t>
   </si>
   <si>
     <t xml:space="preserve">2.30319166183472</t>
@@ -1037,37 +1037,37 @@
     <t xml:space="preserve">2.3373920917511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23158407211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24547815322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18776488304138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28609132766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27647304534912</t>
+    <t xml:space="preserve">2.23158431053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24547791481018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18776512145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28609108924866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27647280693054</t>
   </si>
   <si>
     <t xml:space="preserve">2.33632326126099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35021710395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37159299850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35876750946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33311748504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48381328582764</t>
+    <t xml:space="preserve">2.35021734237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37159323692322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35876727104187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33311724662781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48381352424622</t>
   </si>
   <si>
     <t xml:space="preserve">2.56824564933777</t>
@@ -1076,22 +1076,22 @@
     <t xml:space="preserve">2.50625729560852</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51267051696777</t>
+    <t xml:space="preserve">2.51267027854919</t>
   </si>
   <si>
     <t xml:space="preserve">2.50518846511841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53938961029053</t>
+    <t xml:space="preserve">2.53938937187195</t>
   </si>
   <si>
     <t xml:space="preserve">2.58534669876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63985347747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64733457565308</t>
+    <t xml:space="preserve">2.63985323905945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64733481407166</t>
   </si>
   <si>
     <t xml:space="preserve">2.64519762992859</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">2.59175872802734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52228927612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49450135231018</t>
+    <t xml:space="preserve">2.52228951454163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49450159072876</t>
   </si>
   <si>
     <t xml:space="preserve">2.46457552909851</t>
@@ -1118,19 +1118,19 @@
     <t xml:space="preserve">2.50091338157654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51373863220215</t>
+    <t xml:space="preserve">2.51373839378357</t>
   </si>
   <si>
     <t xml:space="preserve">2.4859504699707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48167538642883</t>
+    <t xml:space="preserve">2.48167562484741</t>
   </si>
   <si>
     <t xml:space="preserve">2.5297703742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68260383605957</t>
+    <t xml:space="preserve">2.68260359764099</t>
   </si>
   <si>
     <t xml:space="preserve">2.64626574516296</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">2.627028465271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53404545783997</t>
+    <t xml:space="preserve">2.53404569625854</t>
   </si>
   <si>
     <t xml:space="preserve">2.6184778213501</t>
@@ -1148,22 +1148,22 @@
     <t xml:space="preserve">2.60672163963318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5778648853302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54366445541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5116012096405</t>
+    <t xml:space="preserve">2.57786464691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54366421699524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51160144805908</t>
   </si>
   <si>
     <t xml:space="preserve">2.53618240356445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54687070846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48060703277588</t>
+    <t xml:space="preserve">2.546870470047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48060727119446</t>
   </si>
   <si>
     <t xml:space="preserve">2.50732636451721</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">2.52870154380798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56290221214294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52442622184753</t>
+    <t xml:space="preserve">2.5629026889801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52442646026611</t>
   </si>
   <si>
     <t xml:space="preserve">2.48488211631775</t>
@@ -1187,34 +1187,34 @@
     <t xml:space="preserve">2.42075610160828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49022650718689</t>
+    <t xml:space="preserve">2.49022603034973</t>
   </si>
   <si>
     <t xml:space="preserve">2.56717753410339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51587677001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4517502784729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47419428825378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50412034988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55648922920227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.499844789505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57358980178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64947247505188</t>
+    <t xml:space="preserve">2.51587653160095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45175004005432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47419452667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50412011146545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55648946762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49984455108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57358956336975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64947295188904</t>
   </si>
   <si>
     <t xml:space="preserve">2.69329190254211</t>
@@ -1226,37 +1226,37 @@
     <t xml:space="preserve">2.74940228462219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74138569831848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66015958786011</t>
+    <t xml:space="preserve">2.74138593673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66015982627869</t>
   </si>
   <si>
     <t xml:space="preserve">2.61527156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47312545776367</t>
+    <t xml:space="preserve">2.47312521934509</t>
   </si>
   <si>
     <t xml:space="preserve">2.40044927597046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34808015823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37373042106628</t>
+    <t xml:space="preserve">2.34807991981506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37372994422913</t>
   </si>
   <si>
     <t xml:space="preserve">2.34701132774353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34059810638428</t>
+    <t xml:space="preserve">2.34059834480286</t>
   </si>
   <si>
     <t xml:space="preserve">2.26578521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27326631546021</t>
+    <t xml:space="preserve">2.27326607704163</t>
   </si>
   <si>
     <t xml:space="preserve">2.29571008682251</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">2.24654698371887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23585939407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22944688796997</t>
+    <t xml:space="preserve">2.23585915565491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22944736480713</t>
   </si>
   <si>
     <t xml:space="preserve">2.31067323684692</t>
@@ -1292,13 +1292,13 @@
     <t xml:space="preserve">2.07875084877014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28502297401428</t>
+    <t xml:space="preserve">2.28502321243286</t>
   </si>
   <si>
     <t xml:space="preserve">2.26044106483459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28074812889099</t>
+    <t xml:space="preserve">2.28074836730957</t>
   </si>
   <si>
     <t xml:space="preserve">2.23051595687866</t>
@@ -1310,16 +1310,16 @@
     <t xml:space="preserve">2.20165872573853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23799705505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20700287818909</t>
+    <t xml:space="preserve">2.23799729347229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20700263977051</t>
   </si>
   <si>
     <t xml:space="preserve">2.19417786598206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25937223434448</t>
+    <t xml:space="preserve">2.2593719959259</t>
   </si>
   <si>
     <t xml:space="preserve">2.36411142349243</t>
@@ -1328,31 +1328,31 @@
     <t xml:space="preserve">2.45602536201477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38334918022156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44747543334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43465042114258</t>
+    <t xml:space="preserve">2.38334941864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44747519493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.434650182724</t>
   </si>
   <si>
     <t xml:space="preserve">2.40472435951233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48274445533752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42503142356873</t>
+    <t xml:space="preserve">2.4827446937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42503118515015</t>
   </si>
   <si>
     <t xml:space="preserve">2.27219724655151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22730875015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22089695930481</t>
+    <t xml:space="preserve">2.22730922698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22089719772339</t>
   </si>
   <si>
     <t xml:space="preserve">2.29464197158813</t>
@@ -1361,58 +1361,58 @@
     <t xml:space="preserve">2.28181624412537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28395438194275</t>
+    <t xml:space="preserve">2.28395414352417</t>
   </si>
   <si>
     <t xml:space="preserve">2.23906588554382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25082182884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31281113624573</t>
+    <t xml:space="preserve">2.25082206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31281137466431</t>
   </si>
   <si>
     <t xml:space="preserve">2.24975299835205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2230339050293</t>
+    <t xml:space="preserve">2.22303414344788</t>
   </si>
   <si>
     <t xml:space="preserve">2.26685404777527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26899170875549</t>
+    <t xml:space="preserve">2.26899123191833</t>
   </si>
   <si>
     <t xml:space="preserve">2.30853533744812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41220617294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43678760528564</t>
+    <t xml:space="preserve">2.41220593452454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43678784370422</t>
   </si>
   <si>
     <t xml:space="preserve">2.41006851196289</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36304211616516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57252049446106</t>
+    <t xml:space="preserve">2.36304235458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57252097129822</t>
   </si>
   <si>
     <t xml:space="preserve">2.57038354873657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58908677101135</t>
+    <t xml:space="preserve">2.58908700942993</t>
   </si>
   <si>
     <t xml:space="preserve">2.48969173431396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50999760627747</t>
+    <t xml:space="preserve">2.50999808311462</t>
   </si>
   <si>
     <t xml:space="preserve">2.49075984954834</t>
@@ -1427,31 +1427,31 @@
     <t xml:space="preserve">2.51694536209106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46243858337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42984056472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5559549331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5607647895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55007648468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55435156822205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50358605384827</t>
+    <t xml:space="preserve">2.46243810653687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42984080314636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55595517158508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56076455116272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55007672309875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55435132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50358581542969</t>
   </si>
   <si>
     <t xml:space="preserve">2.59870600700378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59924054145813</t>
+    <t xml:space="preserve">2.59924030303955</t>
   </si>
   <si>
     <t xml:space="preserve">2.60404992103577</t>
@@ -1460,19 +1460,19 @@
     <t xml:space="preserve">2.60137748718262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63237166404724</t>
+    <t xml:space="preserve">2.63237190246582</t>
   </si>
   <si>
     <t xml:space="preserve">2.61046195030212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41167163848877</t>
+    <t xml:space="preserve">2.41167187690735</t>
   </si>
   <si>
     <t xml:space="preserve">2.51053261756897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54473352432251</t>
+    <t xml:space="preserve">2.54473328590393</t>
   </si>
   <si>
     <t xml:space="preserve">2.46510982513428</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">2.45442199707031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45923113822937</t>
+    <t xml:space="preserve">2.45923137664795</t>
   </si>
   <si>
     <t xml:space="preserve">2.48808860778809</t>
@@ -1496,40 +1496,40 @@
     <t xml:space="preserve">2.47953844070435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43144345283508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43839073181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41701555252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43358159065247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41327452659607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41541218757629</t>
+    <t xml:space="preserve">2.43144369125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43839049339294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41701579093933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43358135223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41327428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41541242599487</t>
   </si>
   <si>
     <t xml:space="preserve">2.50892877578735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51801371574402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52763247489929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55328369140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60779023170471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57679605484009</t>
+    <t xml:space="preserve">2.51801347732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52763271331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55328345298767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60779047012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57679653167725</t>
   </si>
   <si>
     <t xml:space="preserve">2.58374309539795</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">2.53564882278442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54847383499146</t>
+    <t xml:space="preserve">2.54847407341003</t>
   </si>
   <si>
     <t xml:space="preserve">2.52923607826233</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">2.62061548233032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63023471832275</t>
+    <t xml:space="preserve">2.63023447990417</t>
   </si>
   <si>
     <t xml:space="preserve">2.6815357208252</t>
@@ -1592,10 +1592,10 @@
     <t xml:space="preserve">2.58482885360718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55308604240417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50164151191711</t>
+    <t xml:space="preserve">2.55308628082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50164127349854</t>
   </si>
   <si>
     <t xml:space="preserve">2.35551571846008</t>
@@ -1616,22 +1616,22 @@
     <t xml:space="preserve">2.35113763809204</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27123379707336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27013993263245</t>
+    <t xml:space="preserve">2.27123403549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27014017105103</t>
   </si>
   <si>
     <t xml:space="preserve">2.31392240524292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25153231620789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34949636459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37740802764893</t>
+    <t xml:space="preserve">2.25153207778931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34949660301208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37740778923035</t>
   </si>
   <si>
     <t xml:space="preserve">2.41571736335754</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">2.44527101516724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38123869895935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36974573135376</t>
+    <t xml:space="preserve">2.38123893737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36974549293518</t>
   </si>
   <si>
     <t xml:space="preserve">2.4501965045929</t>
@@ -1661,19 +1661,19 @@
     <t xml:space="preserve">2.56403231620789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57826137542725</t>
+    <t xml:space="preserve">2.57826209068298</t>
   </si>
   <si>
     <t xml:space="preserve">2.54159283638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5645797252655</t>
+    <t xml:space="preserve">2.56457948684692</t>
   </si>
   <si>
     <t xml:space="preserve">2.57607221603394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56622099876404</t>
+    <t xml:space="preserve">2.56622123718262</t>
   </si>
   <si>
     <t xml:space="preserve">2.56895804405212</t>
@@ -1682,31 +1682,31 @@
     <t xml:space="preserve">2.55910682678223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60945701599121</t>
+    <t xml:space="preserve">2.60945677757263</t>
   </si>
   <si>
     <t xml:space="preserve">2.61821293830872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56731557846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52462720870972</t>
+    <t xml:space="preserve">2.56731581687927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5246274471283</t>
   </si>
   <si>
     <t xml:space="preserve">2.54214024543762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57716703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53174233436584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48467564582825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53502607345581</t>
+    <t xml:space="preserve">2.57716679573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53174257278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48467588424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53502583503723</t>
   </si>
   <si>
     <t xml:space="preserve">2.53228902816772</t>
@@ -1718,10 +1718,10 @@
     <t xml:space="preserve">2.60562562942505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57990336418152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61657118797302</t>
+    <t xml:space="preserve">2.57990288734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61657094955444</t>
   </si>
   <si>
     <t xml:space="preserve">2.60453104972839</t>
@@ -1742,19 +1742,19 @@
     <t xml:space="preserve">2.37904953956604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35223245620728</t>
+    <t xml:space="preserve">2.3522322177887</t>
   </si>
   <si>
     <t xml:space="preserve">2.3193953037262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2619297504425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24058628082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23785018920898</t>
+    <t xml:space="preserve">2.26193022727966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24058651924133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23784995079041</t>
   </si>
   <si>
     <t xml:space="preserve">2.18914151191711</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">2.23839664459229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23730278015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2197892665863</t>
+    <t xml:space="preserve">2.23730301856995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21978902816772</t>
   </si>
   <si>
     <t xml:space="preserve">2.21431684494019</t>
@@ -1778,58 +1778,58 @@
     <t xml:space="preserve">2.20556044578552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16998648643494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18366861343384</t>
+    <t xml:space="preserve">2.16998672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18366837501526</t>
   </si>
   <si>
     <t xml:space="preserve">2.10157608985901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07913732528687</t>
+    <t xml:space="preserve">2.07913756370544</t>
   </si>
   <si>
     <t xml:space="preserve">2.08898854255676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16560792922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25809931755066</t>
+    <t xml:space="preserve">2.16560816764832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25809907913208</t>
   </si>
   <si>
     <t xml:space="preserve">2.26247763633728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.322678565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31118607521057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31337523460388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30571341514587</t>
+    <t xml:space="preserve">2.32267904281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31118631362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3133749961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30571317672729</t>
   </si>
   <si>
     <t xml:space="preserve">2.35879993438721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39437341690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37193465232849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3265106678009</t>
+    <t xml:space="preserve">2.39437317848206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37193489074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32651042938232</t>
   </si>
   <si>
     <t xml:space="preserve">2.35332727432251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38233375549316</t>
+    <t xml:space="preserve">2.38233351707458</t>
   </si>
   <si>
     <t xml:space="preserve">2.40641379356384</t>
@@ -1838,25 +1838,25 @@
     <t xml:space="preserve">2.1825737953186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09665036201477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05998206138611</t>
+    <t xml:space="preserve">2.09665012359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05998253822327</t>
   </si>
   <si>
     <t xml:space="preserve">2.03316473960876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04575252532959</t>
+    <t xml:space="preserve">2.04575300216675</t>
   </si>
   <si>
     <t xml:space="preserve">2.00853753089905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97515296936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93574786186218</t>
+    <t xml:space="preserve">1.97515261173248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93574798107147</t>
   </si>
   <si>
     <t xml:space="preserve">1.97788894176483</t>
@@ -1865,19 +1865,19 @@
     <t xml:space="preserve">1.94067358970642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9554500579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96913230419159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95216703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95490276813507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91276228427887</t>
+    <t xml:space="preserve">1.95545029640198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96913266181946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95216691493988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95490312576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91276216506958</t>
   </si>
   <si>
     <t xml:space="preserve">1.91987705230713</t>
@@ -1886,40 +1886,40 @@
     <t xml:space="preserve">1.84982466697693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80987238883972</t>
+    <t xml:space="preserve">1.80987250804901</t>
   </si>
   <si>
     <t xml:space="preserve">1.75842750072479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79892706871033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78524506092072</t>
+    <t xml:space="preserve">1.79892718791962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78524518013</t>
   </si>
   <si>
     <t xml:space="preserve">1.86405396461487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85310804843903</t>
+    <t xml:space="preserve">1.85310781002045</t>
   </si>
   <si>
     <t xml:space="preserve">1.83778393268585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8487297296524</t>
+    <t xml:space="preserve">1.84872984886169</t>
   </si>
   <si>
     <t xml:space="preserve">1.92370784282684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85748636722565</t>
+    <t xml:space="preserve">1.85748648643494</t>
   </si>
   <si>
     <t xml:space="preserve">1.84380412101746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87718868255615</t>
+    <t xml:space="preserve">1.87718892097473</t>
   </si>
   <si>
     <t xml:space="preserve">1.89141833782196</t>
@@ -1931,85 +1931,85 @@
     <t xml:space="preserve">1.91112065315247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85529744625092</t>
+    <t xml:space="preserve">1.85529756546021</t>
   </si>
   <si>
     <t xml:space="preserve">1.87062120437622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83668994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85365557670593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83231139183044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89853239059448</t>
+    <t xml:space="preserve">1.83668982982635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85365581512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83231163024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89853274822235</t>
   </si>
   <si>
     <t xml:space="preserve">1.90947866439819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91057324409485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01291561126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94231557846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95982873439789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96967995166779</t>
+    <t xml:space="preserve">1.91057336330414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01291584968567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94231593608856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95982885360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96967959403992</t>
   </si>
   <si>
     <t xml:space="preserve">2.06052994728088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02550315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06326580047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99759161472321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9658488035202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93246459960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91385698318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90619540214539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87664151191711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83997344970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83121681213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86843240261078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8328583240509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.819176197052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.794548869133</t>
+    <t xml:space="preserve">2.02550292015076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06326603889465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99759149551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96584904193878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93246471881866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91385686397552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90619492530823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87664139270782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83997356891632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83121693134308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86843264102936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83285820484161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81917595863342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79454898834229</t>
   </si>
   <si>
     <t xml:space="preserve">1.84106814861298</t>
@@ -2024,61 +2024,61 @@
     <t xml:space="preserve">1.85201346874237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86350679397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82246041297913</t>
+    <t xml:space="preserve">1.86350655555725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82246053218842</t>
   </si>
   <si>
     <t xml:space="preserve">1.81479775905609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82027113437653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78962337970734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72066473960876</t>
+    <t xml:space="preserve">1.82027101516724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78962361812592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72066462039948</t>
   </si>
   <si>
     <t xml:space="preserve">1.63911950588226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67524015903473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68180799484253</t>
+    <t xml:space="preserve">1.67524027824402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68180811405182</t>
   </si>
   <si>
     <t xml:space="preserve">1.67195665836334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68071317672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67140936851501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64678132534027</t>
+    <t xml:space="preserve">1.68071329593658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6714094877243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64678144454956</t>
   </si>
   <si>
     <t xml:space="preserve">1.65170693397522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72394895553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70315170288086</t>
+    <t xml:space="preserve">1.72394907474518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70315158367157</t>
   </si>
   <si>
     <t xml:space="preserve">1.70752990245819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72230684757233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61777567863464</t>
+    <t xml:space="preserve">1.72230672836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61777579784393</t>
   </si>
   <si>
     <t xml:space="preserve">1.62270069122314</t>
@@ -2087,43 +2087,43 @@
     <t xml:space="preserve">1.62543737888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62817358970642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66648375988007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64951813220978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79509651660919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86952722072601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85037195682526</t>
+    <t xml:space="preserve">1.62817347049713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66648364067078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64951801300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79509603977203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86952710151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85037183761597</t>
   </si>
   <si>
     <t xml:space="preserve">1.84325695037842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92863357067108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92097210884094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90455293655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87390506267548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89579641819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91495156288147</t>
+    <t xml:space="preserve">1.92863380908966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92097222805023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90455305576324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87390542030334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89579665660858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91495180130005</t>
   </si>
   <si>
     <t xml:space="preserve">1.92753887176514</t>
@@ -2132,28 +2132,28 @@
     <t xml:space="preserve">1.97953116893768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02386069297791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01838827133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01182055473328</t>
+    <t xml:space="preserve">2.02386093139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01838874816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01182103157043</t>
   </si>
   <si>
     <t xml:space="preserve">2.02823972702026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96858525276184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94833600521088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93629515171051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94778871536255</t>
+    <t xml:space="preserve">1.96858501434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94833612442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93629503250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94778895378113</t>
   </si>
   <si>
     <t xml:space="preserve">1.98719322681427</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">2.02714514732361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04246830940247</t>
+    <t xml:space="preserve">2.04246854782104</t>
   </si>
   <si>
     <t xml:space="preserve">2.04301595687866</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">2.02495574951172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99704420566559</t>
+    <t xml:space="preserve">1.9970440864563</t>
   </si>
   <si>
     <t xml:space="preserve">1.98883497714996</t>
@@ -2183,64 +2183,64 @@
     <t xml:space="preserve">2.00306439399719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99485540390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99266588687897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02003002166748</t>
+    <t xml:space="preserve">1.99485516548157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99266600608826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02003026008606</t>
   </si>
   <si>
     <t xml:space="preserve">2.00470662117004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02440810203552</t>
+    <t xml:space="preserve">2.0244083404541</t>
   </si>
   <si>
     <t xml:space="preserve">2.02659773826599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0441107749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04520583152771</t>
+    <t xml:space="preserve">2.04411101341248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04520535469055</t>
   </si>
   <si>
     <t xml:space="preserve">2.07749533653259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11635279655457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17217612266541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20884418487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26740312576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2892951965332</t>
+    <t xml:space="preserve">2.11635303497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17217588424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20884394645691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26740336418152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28929471969604</t>
   </si>
   <si>
     <t xml:space="preserve">2.26685547828674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24715399742126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28382229804993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30242991447449</t>
+    <t xml:space="preserve">2.24715375900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28382205963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30242967605591</t>
   </si>
   <si>
     <t xml:space="preserve">2.30899667739868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34457087516785</t>
+    <t xml:space="preserve">2.34457039833069</t>
   </si>
   <si>
     <t xml:space="preserve">2.30680847167969</t>
@@ -2255,61 +2255,61 @@
     <t xml:space="preserve">2.2394917011261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.191330909729</t>
+    <t xml:space="preserve">2.19133114814758</t>
   </si>
   <si>
     <t xml:space="preserve">2.16725015640259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13441300392151</t>
+    <t xml:space="preserve">2.13441324234009</t>
   </si>
   <si>
     <t xml:space="preserve">2.15356826782227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11580538749695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16341972351074</t>
+    <t xml:space="preserve">2.11580514907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16341948509216</t>
   </si>
   <si>
     <t xml:space="preserve">2.10557150840759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05011653900146</t>
+    <t xml:space="preserve">2.05011630058289</t>
   </si>
   <si>
     <t xml:space="preserve">2.0065450668335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97995018959045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00032138824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94713008403778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94826138019562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93807661533356</t>
+    <t xml:space="preserve">1.97995030879974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00032162666321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94713020324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9482616186142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93807685375214</t>
   </si>
   <si>
     <t xml:space="preserve">1.92449545860291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91487574577332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89959704875946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93298375606537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89789998531342</t>
+    <t xml:space="preserve">1.91487562656403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89959716796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93298387527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89790010452271</t>
   </si>
   <si>
     <t xml:space="preserve">1.87526595592499</t>
@@ -2321,52 +2321,52 @@
     <t xml:space="preserve">1.9307199716568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9488273859024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92675924301147</t>
+    <t xml:space="preserve">1.94882750511169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92675912380219</t>
   </si>
   <si>
     <t xml:space="preserve">1.9499591588974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94316852092743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95788085460663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00201845169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03936576843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03710246086121</t>
+    <t xml:space="preserve">1.94316864013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95788097381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00201821327209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0393660068512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03710222244263</t>
   </si>
   <si>
     <t xml:space="preserve">2.07161974906921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04898548126221</t>
+    <t xml:space="preserve">2.04898571968079</t>
   </si>
   <si>
     <t xml:space="preserve">2.04785370826721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05973625183105</t>
+    <t xml:space="preserve">2.05973601341248</t>
   </si>
   <si>
     <t xml:space="preserve">2.02748250961304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01673102378845</t>
+    <t xml:space="preserve">2.01673078536987</t>
   </si>
   <si>
     <t xml:space="preserve">2.05803942680359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13839149475098</t>
+    <t xml:space="preserve">2.1383912563324</t>
   </si>
   <si>
     <t xml:space="preserve">2.20063591003418</t>
@@ -2390,13 +2390,13 @@
     <t xml:space="preserve">2.15253806114197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18309450149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14801096916199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12085008621216</t>
+    <t xml:space="preserve">2.18309426307678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14801120758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12084984779358</t>
   </si>
   <si>
     <t xml:space="preserve">2.12764000892639</t>
@@ -2405,64 +2405,64 @@
     <t xml:space="preserve">2.11632323265076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06256580352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04558968544006</t>
+    <t xml:space="preserve">2.06256604194641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04558992385864</t>
   </si>
   <si>
     <t xml:space="preserve">2.02408742904663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99635994434357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91827142238617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90638792514801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95731604099274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92732512950897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95675015449524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92958772182465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96636950969696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81075739860535</t>
+    <t xml:space="preserve">1.99635970592499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91827130317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90638780593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95731616020203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92732501029968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95675003528595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92958796024323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96636939048767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81075751781464</t>
   </si>
   <si>
     <t xml:space="preserve">1.77227878570557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79265010356903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70437514781952</t>
+    <t xml:space="preserve">1.79264998435974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70437526702881</t>
   </si>
   <si>
     <t xml:space="preserve">1.74172222614288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75926434993744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70324337482452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73266839981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73945903778076</t>
+    <t xml:space="preserve">1.75926446914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70324349403381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7326682806015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73945915699005</t>
   </si>
   <si>
     <t xml:space="preserve">1.72474658489227</t>
@@ -2474,22 +2474,22 @@
     <t xml:space="preserve">1.81528425216675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80283582210541</t>
+    <t xml:space="preserve">1.80283570289612</t>
   </si>
   <si>
     <t xml:space="preserve">1.83848440647125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82377183437347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82773280143738</t>
+    <t xml:space="preserve">1.82377195358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82773292064667</t>
   </si>
   <si>
     <t xml:space="preserve">1.85828971862793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87696313858032</t>
+    <t xml:space="preserve">1.87696301937103</t>
   </si>
   <si>
     <t xml:space="preserve">1.8826220035553</t>
@@ -2498,55 +2498,55 @@
     <t xml:space="preserve">1.89167547225952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95561838150024</t>
+    <t xml:space="preserve">1.95561826229095</t>
   </si>
   <si>
     <t xml:space="preserve">1.97768640518188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95844721794128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98843801021576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03880023956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04841947555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98164701461792</t>
+    <t xml:space="preserve">1.95844686031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98843812942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03880000114441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04841923713684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98164713382721</t>
   </si>
   <si>
     <t xml:space="preserve">1.99353063106537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08067345619202</t>
+    <t xml:space="preserve">2.0806736946106</t>
   </si>
   <si>
     <t xml:space="preserve">2.01842856407166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98787188529968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96693563461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97881841659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00428199768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97372531890869</t>
+    <t xml:space="preserve">1.9878716468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96693551540375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97881829738617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00428223609924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97372555732727</t>
   </si>
   <si>
     <t xml:space="preserve">1.98560893535614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96750044822693</t>
+    <t xml:space="preserve">1.96750056743622</t>
   </si>
   <si>
     <t xml:space="preserve">1.97429144382477</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">2.0586051940918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0812394618988</t>
+    <t xml:space="preserve">2.08123922348022</t>
   </si>
   <si>
     <t xml:space="preserve">2.12594246864319</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">2.21591448783875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27363228797913</t>
+    <t xml:space="preserve">2.27363204956055</t>
   </si>
   <si>
     <t xml:space="preserve">2.29853057861328</t>
@@ -2591,10 +2591,10 @@
     <t xml:space="preserve">2.3024914264679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25891971588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26740765571594</t>
+    <t xml:space="preserve">2.25891995429993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26740789413452</t>
   </si>
   <si>
     <t xml:space="preserve">2.26344680786133</t>
@@ -2603,16 +2603,16 @@
     <t xml:space="preserve">2.33644318580627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3636040687561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37944841384888</t>
+    <t xml:space="preserve">2.36360430717468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37944865226746</t>
   </si>
   <si>
     <t xml:space="preserve">2.41396641731262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38737010955811</t>
+    <t xml:space="preserve">2.38737034797668</t>
   </si>
   <si>
     <t xml:space="preserve">2.42698073387146</t>
@@ -2627,19 +2627,19 @@
     <t xml:space="preserve">2.45244479179382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47055220603943</t>
+    <t xml:space="preserve">2.47055244445801</t>
   </si>
   <si>
     <t xml:space="preserve">2.50054311752319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57297348976135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60749125480652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59277844429016</t>
+    <t xml:space="preserve">2.57297301292419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60749101638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59277868270874</t>
   </si>
   <si>
     <t xml:space="preserve">2.53053402900696</t>
@@ -2651,16 +2651,16 @@
     <t xml:space="preserve">2.53845548629761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51582145690918</t>
+    <t xml:space="preserve">2.5158212184906</t>
   </si>
   <si>
     <t xml:space="preserve">2.48300075531006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48696255683899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43603467941284</t>
+    <t xml:space="preserve">2.48696279525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43603444099426</t>
   </si>
   <si>
     <t xml:space="preserve">2.45414185523987</t>
@@ -2669,19 +2669,19 @@
     <t xml:space="preserve">2.48413276672363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49714803695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52148008346558</t>
+    <t xml:space="preserve">2.49714827537537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52148032188416</t>
   </si>
   <si>
     <t xml:space="preserve">2.49148941040039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51808452606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51468968391418</t>
+    <t xml:space="preserve">2.51808428764343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51468944549561</t>
   </si>
   <si>
     <t xml:space="preserve">2.54807543754578</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">2.5294017791748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56108999252319</t>
+    <t xml:space="preserve">2.56109023094177</t>
   </si>
   <si>
     <t xml:space="preserve">2.58032941818237</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">2.55543112754822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55203652381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52034783363342</t>
+    <t xml:space="preserve">2.55203628540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.520348072052</t>
   </si>
   <si>
     <t xml:space="preserve">2.53675770759583</t>
@@ -2711,28 +2711,28 @@
     <t xml:space="preserve">2.60013437271118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59843707084656</t>
+    <t xml:space="preserve">2.59843730926514</t>
   </si>
   <si>
     <t xml:space="preserve">2.54524612426758</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55260181427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57693433761597</t>
+    <t xml:space="preserve">2.5526020526886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57693457603455</t>
   </si>
   <si>
     <t xml:space="preserve">2.61201786994934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61428117752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60296416282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61145186424255</t>
+    <t xml:space="preserve">2.61428093910217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60296440124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61145210266113</t>
   </si>
   <si>
     <t xml:space="preserve">2.58825206756592</t>
@@ -2747,25 +2747,25 @@
     <t xml:space="preserve">2.58598804473877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.618807554245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52317714691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52374339103699</t>
+    <t xml:space="preserve">2.61880779266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5231773853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52374315261841</t>
   </si>
   <si>
     <t xml:space="preserve">2.50789880752563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55882692337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53619194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44791769981384</t>
+    <t xml:space="preserve">2.55882668495178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53619170188904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.447918176651</t>
   </si>
   <si>
     <t xml:space="preserve">2.34832549095154</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">2.39642381668091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45018124580383</t>
+    <t xml:space="preserve">2.45018100738525</t>
   </si>
   <si>
     <t xml:space="preserve">2.47677683830261</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">2.4535768032074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46319603919983</t>
+    <t xml:space="preserve">2.46319627761841</t>
   </si>
   <si>
     <t xml:space="preserve">2.47451305389404</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">2.56561660766602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5435483455658</t>
+    <t xml:space="preserve">2.54354858398438</t>
   </si>
   <si>
     <t xml:space="preserve">2.6278612613678</t>
@@ -2807,7 +2807,7 @@
     <t xml:space="preserve">2.37322378158569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30418920516968</t>
+    <t xml:space="preserve">2.30418944358826</t>
   </si>
   <si>
     <t xml:space="preserve">2.17064499855042</t>
@@ -2819,22 +2819,22 @@
     <t xml:space="preserve">2.22100734710693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13782525062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03653597831726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88148999214172</t>
+    <t xml:space="preserve">2.13782548904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03653621673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88148975372314</t>
   </si>
   <si>
     <t xml:space="preserve">1.83282554149628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76605415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72870755195618</t>
+    <t xml:space="preserve">1.76605427265167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72870743274689</t>
   </si>
   <si>
     <t xml:space="preserve">1.49387502670288</t>
@@ -2843,13 +2843,13 @@
     <t xml:space="preserve">1.42144465446472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42483973503113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1718989610672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43445932865143</t>
+    <t xml:space="preserve">1.42483961582184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17189908027649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43445920944214</t>
   </si>
   <si>
     <t xml:space="preserve">1.32468235492706</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">1.32015550136566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28507173061371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3048769235611</t>
+    <t xml:space="preserve">1.28507161140442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30487704277039</t>
   </si>
   <si>
     <t xml:space="preserve">1.45709347724915</t>
@@ -2870,52 +2870,52 @@
     <t xml:space="preserve">1.66136991977692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70267760753632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67608225345612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64326250553131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53744649887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53688049316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58441257476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53857755661011</t>
+    <t xml:space="preserve">1.70267748832703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67608237266541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6432626247406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53744637966156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53688061237335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58441269397736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5385776758194</t>
   </si>
   <si>
     <t xml:space="preserve">1.52612888813019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51877224445343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54819715023041</t>
+    <t xml:space="preserve">1.51877212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5481972694397</t>
   </si>
   <si>
     <t xml:space="preserve">1.54197323322296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46614706516266</t>
+    <t xml:space="preserve">1.46614718437195</t>
   </si>
   <si>
     <t xml:space="preserve">1.48029363155365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41408812999725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30996978282928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25338387489319</t>
+    <t xml:space="preserve">1.41408801078796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30996990203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2533837556839</t>
   </si>
   <si>
     <t xml:space="preserve">1.26639842987061</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">1.26753032207489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21264147758484</t>
+    <t xml:space="preserve">1.21264135837555</t>
   </si>
   <si>
     <t xml:space="preserve">1.21094369888306</t>
@@ -2939,25 +2939,25 @@
     <t xml:space="preserve">1.23357856273651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31110179424286</t>
+    <t xml:space="preserve">1.31110167503357</t>
   </si>
   <si>
     <t xml:space="preserve">1.33203816413879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27432024478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24715900421143</t>
+    <t xml:space="preserve">1.27432000637054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24715912342072</t>
   </si>
   <si>
     <t xml:space="preserve">1.24489533901215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23018276691437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20981240272522</t>
+    <t xml:space="preserve">1.23018288612366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20981252193451</t>
   </si>
   <si>
     <t xml:space="preserve">1.1962308883667</t>
@@ -2966,7 +2966,7 @@
     <t xml:space="preserve">1.18830931186676</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14869892597198</t>
+    <t xml:space="preserve">1.1486988067627</t>
   </si>
   <si>
     <t xml:space="preserve">1.13964509963989</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">1.13568425178528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18129587173462</t>
+    <t xml:space="preserve">1.18129575252533</t>
   </si>
   <si>
     <t xml:space="preserve">1.1154762506485</t>
@@ -2987,13 +2987,13 @@
     <t xml:space="preserve">1.07534849643707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0762152671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19168853759766</t>
+    <t xml:space="preserve">1.07621514797211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07910168170929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19168841838837</t>
   </si>
   <si>
     <t xml:space="preserve">1.23499095439911</t>
@@ -3002,34 +3002,34 @@
     <t xml:space="preserve">1.28464472293854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23961067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27021050453186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29330587387085</t>
+    <t xml:space="preserve">1.23961079120636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27021062374115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29330599308014</t>
   </si>
   <si>
     <t xml:space="preserve">1.33487606048584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33545351028442</t>
+    <t xml:space="preserve">1.33545339107513</t>
   </si>
   <si>
     <t xml:space="preserve">1.46536183357239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53637766838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51443803310394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43822491168976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34642362594604</t>
+    <t xml:space="preserve">1.53637778759003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51443815231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43822515010834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34642374515533</t>
   </si>
   <si>
     <t xml:space="preserve">1.31582295894623</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">1.32794809341431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41513049602509</t>
+    <t xml:space="preserve">1.41513073444366</t>
   </si>
   <si>
     <t xml:space="preserve">1.3868396282196</t>
@@ -3050,16 +3050,16 @@
     <t xml:space="preserve">1.36259019374847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31004917621613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34238219261169</t>
+    <t xml:space="preserve">1.31004905700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34238231182098</t>
   </si>
   <si>
     <t xml:space="preserve">1.27425193786621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28406727313995</t>
+    <t xml:space="preserve">1.28406715393066</t>
   </si>
   <si>
     <t xml:space="preserve">1.2546215057373</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">1.26155030727386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25577652454376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29388248920441</t>
+    <t xml:space="preserve">1.25577640533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29388272762299</t>
   </si>
   <si>
     <t xml:space="preserve">1.27944839000702</t>
@@ -3086,19 +3086,19 @@
     <t xml:space="preserve">1.27367544174194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24018728733063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30254375934601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43880259990692</t>
+    <t xml:space="preserve">1.24018740653992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30254364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43880248069763</t>
   </si>
   <si>
     <t xml:space="preserve">1.43995749950409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44746279716492</t>
+    <t xml:space="preserve">1.44746291637421</t>
   </si>
   <si>
     <t xml:space="preserve">1.46651589870453</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">1.30196630954742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.285799741745</t>
+    <t xml:space="preserve">1.28579962253571</t>
   </si>
   <si>
     <t xml:space="preserve">1.23094952106476</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">1.35104262828827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36836314201355</t>
+    <t xml:space="preserve">1.36836338043213</t>
   </si>
   <si>
     <t xml:space="preserve">1.36951816082001</t>
@@ -3155,10 +3155,10 @@
     <t xml:space="preserve">1.33718585968018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34064984321594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35277509689331</t>
+    <t xml:space="preserve">1.34064996242523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35277497768402</t>
   </si>
   <si>
     <t xml:space="preserve">1.33083462715149</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">1.31640040874481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35623896121979</t>
+    <t xml:space="preserve">1.35623908042908</t>
   </si>
   <si>
     <t xml:space="preserve">1.3556615114212</t>
@@ -3176,19 +3176,19 @@
     <t xml:space="preserve">1.34584629535675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37413704395294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32852470874786</t>
+    <t xml:space="preserve">1.37413716316223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32852458953857</t>
   </si>
   <si>
     <t xml:space="preserve">1.29272854328156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28926360607147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24827110767365</t>
+    <t xml:space="preserve">1.28926372528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24827122688293</t>
   </si>
   <si>
     <t xml:space="preserve">1.26039528846741</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">1.21997928619385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23672354221344</t>
+    <t xml:space="preserve">1.23672330379486</t>
   </si>
   <si>
     <t xml:space="preserve">1.26847898960114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26501429080963</t>
+    <t xml:space="preserve">1.26501417160034</t>
   </si>
   <si>
     <t xml:space="preserve">1.26443672180176</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">1.24711608886719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19630753993988</t>
+    <t xml:space="preserve">1.1963073015213</t>
   </si>
   <si>
     <t xml:space="preserve">1.16397511959076</t>
@@ -3233,19 +3233,19 @@
     <t xml:space="preserve">1.1316419839859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12875556945801</t>
+    <t xml:space="preserve">1.12875545024872</t>
   </si>
   <si>
     <t xml:space="preserve">1.15820121765137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12586903572083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14780855178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12471401691437</t>
+    <t xml:space="preserve">1.12586891651154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14780843257904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12471413612366</t>
   </si>
   <si>
     <t xml:space="preserve">1.09411323070526</t>
@@ -3257,16 +3257,16 @@
     <t xml:space="preserve">1.05556523799896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01121032238007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02059316635132</t>
+    <t xml:space="preserve">1.01121020317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02059304714203</t>
   </si>
   <si>
     <t xml:space="preserve">1.02571094036102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999695122241974</t>
+    <t xml:space="preserve">0.999695062637329</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516070842743</t>
@@ -3275,13 +3275,13 @@
     <t xml:space="preserve">0.952354550361633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947236597537994</t>
+    <t xml:space="preserve">0.947236657142639</t>
   </si>
   <si>
     <t xml:space="preserve">1.02400493621826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01035726070404</t>
+    <t xml:space="preserve">1.01035737991333</t>
   </si>
   <si>
     <t xml:space="preserve">1.10887670516968</t>
@@ -3290,7 +3290,7 @@
     <t xml:space="preserve">1.0380791425705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01206314563751</t>
+    <t xml:space="preserve">1.0120632648468</t>
   </si>
   <si>
     <t xml:space="preserve">1.02656400203705</t>
@@ -3299,28 +3299,28 @@
     <t xml:space="preserve">1.01632809638977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952780902385712</t>
+    <t xml:space="preserve">0.952781021595001</t>
   </si>
   <si>
     <t xml:space="preserve">0.884115874767303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873027145862579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867482781410217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899896025657654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922926604747772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944251120090485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923779547214508</t>
+    <t xml:space="preserve">0.873027086257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.867482721805573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899896085262299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922926664352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944251179695129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923779606819153</t>
   </si>
   <si>
     <t xml:space="preserve">0.893925189971924</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">1.056844830513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12550973892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1387312412262</t>
+    <t xml:space="preserve">1.12550985813141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13873112201691</t>
   </si>
   <si>
     <t xml:space="preserve">1.20824909210205</t>
@@ -3347,58 +3347,58 @@
     <t xml:space="preserve">1.21592605113983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26625204086304</t>
+    <t xml:space="preserve">1.26625192165375</t>
   </si>
   <si>
     <t xml:space="preserve">1.29312098026276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29610633850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30037128925323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26667833328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28885591030121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24961864948273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26753151416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25388371944427</t>
+    <t xml:space="preserve">1.29610621929169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30037117004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26667845249176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2888560295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24961888790131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26753127574921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25388383865356</t>
   </si>
   <si>
     <t xml:space="preserve">1.26539885997772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25601601600647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24919235706329</t>
+    <t xml:space="preserve">1.25601613521576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.249192237854</t>
   </si>
   <si>
     <t xml:space="preserve">1.25772202014923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2939738035202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25132477283478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24833917617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26028096675873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24322152137756</t>
+    <t xml:space="preserve">1.29397392272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25132465362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24833929538727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26028108596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24322140216827</t>
   </si>
   <si>
     <t xml:space="preserve">1.25089824199677</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">1.23853003978729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1886305809021</t>
+    <t xml:space="preserve">1.18863070011139</t>
   </si>
   <si>
     <t xml:space="preserve">1.21549940109253</t>
@@ -3425,16 +3425,16 @@
     <t xml:space="preserve">1.24705970287323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25729548931122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32425475120544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40614104270935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39036095142365</t>
+    <t xml:space="preserve">1.25729560852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32425463199615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40614092350006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39036083221436</t>
   </si>
   <si>
     <t xml:space="preserve">1.41893565654755</t>
@@ -3443,16 +3443,16 @@
     <t xml:space="preserve">1.42106807231903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40358209609985</t>
+    <t xml:space="preserve">1.40358197689056</t>
   </si>
   <si>
     <t xml:space="preserve">1.38140439987183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37244808673859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40272891521454</t>
+    <t xml:space="preserve">1.37244820594788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40272915363312</t>
   </si>
   <si>
     <t xml:space="preserve">1.38268399238586</t>
@@ -3461,16 +3461,16 @@
     <t xml:space="preserve">1.40656745433807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38183104991913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3438732624054</t>
+    <t xml:space="preserve">1.38183093070984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34387338161469</t>
   </si>
   <si>
     <t xml:space="preserve">1.30335664749146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33960831165314</t>
+    <t xml:space="preserve">1.33960843086243</t>
   </si>
   <si>
     <t xml:space="preserve">1.29994475841522</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">1.32937276363373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30762147903442</t>
+    <t xml:space="preserve">1.30762159824371</t>
   </si>
   <si>
     <t xml:space="preserve">1.31700432300568</t>
@@ -3491,19 +3491,19 @@
     <t xml:space="preserve">1.51660215854645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6287693977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5946501493454</t>
+    <t xml:space="preserve">1.62876927852631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59465003013611</t>
   </si>
   <si>
     <t xml:space="preserve">1.62066602706909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59123802185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58825266361237</t>
+    <t xml:space="preserve">1.59123814105988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58825254440308</t>
   </si>
   <si>
     <t xml:space="preserve">1.60616528987885</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">1.55370688438416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52683782577515</t>
+    <t xml:space="preserve">1.52683794498444</t>
   </si>
   <si>
     <t xml:space="preserve">1.58739972114563</t>
@@ -3530,28 +3530,28 @@
     <t xml:space="preserve">1.5891056060791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54773592948914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58867919445038</t>
+    <t xml:space="preserve">1.54773604869843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58867907524109</t>
   </si>
   <si>
     <t xml:space="preserve">1.57204604148865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58142864704132</t>
+    <t xml:space="preserve">1.58142876625061</t>
   </si>
   <si>
     <t xml:space="preserve">1.64796149730682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69231641292572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68506598472595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67099189758301</t>
+    <t xml:space="preserve">1.69231653213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68506610393524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6709920167923</t>
   </si>
   <si>
     <t xml:space="preserve">1.68037474155426</t>
@@ -3560,46 +3560,46 @@
     <t xml:space="preserve">1.66075611114502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.697434425354</t>
+    <t xml:space="preserve">1.69743430614471</t>
   </si>
   <si>
     <t xml:space="preserve">1.75031936168671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73752450942993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66843295097351</t>
+    <t xml:space="preserve">1.73752439022064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66843283176422</t>
   </si>
   <si>
     <t xml:space="preserve">1.62663686275482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62493097782135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64753496646881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63516664505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63601958751678</t>
+    <t xml:space="preserve">1.62493085861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64753484725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63516676425934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63601970672607</t>
   </si>
   <si>
     <t xml:space="preserve">1.61896002292633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62023949623108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60062098503113</t>
+    <t xml:space="preserve">1.62023961544037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60062086582184</t>
   </si>
   <si>
     <t xml:space="preserve">1.62194538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61981308460236</t>
+    <t xml:space="preserve">1.61981296539307</t>
   </si>
   <si>
     <t xml:space="preserve">1.61298930644989</t>
@@ -3608,10 +3608,10 @@
     <t xml:space="preserve">1.58569371700287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59507644176483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6236515045166</t>
+    <t xml:space="preserve">1.59507656097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62365138530731</t>
   </si>
   <si>
     <t xml:space="preserve">1.60531234741211</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">1.61469507217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61341559886932</t>
+    <t xml:space="preserve">1.61341547966003</t>
   </si>
   <si>
     <t xml:space="preserve">1.66416800022125</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">1.57460486888885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53963267803192</t>
+    <t xml:space="preserve">1.53963255882263</t>
   </si>
   <si>
     <t xml:space="preserve">1.54219162464142</t>
@@ -3647,10 +3647,10 @@
     <t xml:space="preserve">1.6155481338501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60573863983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59891498088837</t>
+    <t xml:space="preserve">1.60573887825012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59891486167908</t>
   </si>
   <si>
     <t xml:space="preserve">1.61725413799286</t>
@@ -3662,25 +3662,25 @@
     <t xml:space="preserve">1.64071094989777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70425820350647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71961188316345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69402241706848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71022915840149</t>
+    <t xml:space="preserve">1.70425808429718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71961200237274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69402229785919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71022927761078</t>
   </si>
   <si>
     <t xml:space="preserve">1.71108222007751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71875905990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6863454580307</t>
+    <t xml:space="preserve">1.71875894069672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68634557723999</t>
   </si>
   <si>
     <t xml:space="preserve">1.67056548595428</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">1.85055303573608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76176822185516</t>
+    <t xml:space="preserve">1.76176834106445</t>
   </si>
   <si>
     <t xml:space="preserve">1.78439974784851</t>
@@ -3707,10 +3707,10 @@
     <t xml:space="preserve">1.76525020599365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77047264575958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.779177069664</t>
+    <t xml:space="preserve">1.77047276496887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77917695045471</t>
   </si>
   <si>
     <t xml:space="preserve">1.77134323120117</t>
@@ -3725,25 +3725,25 @@
     <t xml:space="preserve">1.77221357822418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78701114654541</t>
+    <t xml:space="preserve">1.78701102733612</t>
   </si>
   <si>
     <t xml:space="preserve">1.77395451068878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76786136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7765656709671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74871182441711</t>
+    <t xml:space="preserve">1.76786124706268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77656555175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74871170520782</t>
   </si>
   <si>
     <t xml:space="preserve">1.72433936595917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71171820163727</t>
+    <t xml:space="preserve">1.71171808242798</t>
   </si>
   <si>
     <t xml:space="preserve">1.67298352718353</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">1.68908667564392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66689038276672</t>
+    <t xml:space="preserve">1.66689050197601</t>
   </si>
   <si>
     <t xml:space="preserve">1.64469432830811</t>
@@ -3767,13 +3767,13 @@
     <t xml:space="preserve">1.6029132604599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58985674381256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59769058227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6072655916214</t>
+    <t xml:space="preserve">1.58985662460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59769070148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60726547241211</t>
   </si>
   <si>
     <t xml:space="preserve">1.59594976902008</t>
@@ -3782,7 +3782,7 @@
     <t xml:space="preserve">1.60857105255127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56591951847076</t>
+    <t xml:space="preserve">1.56591963768005</t>
   </si>
   <si>
     <t xml:space="preserve">1.55199253559113</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">1.36223697662354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37964558601379</t>
+    <t xml:space="preserve">1.37964570522308</t>
   </si>
   <si>
     <t xml:space="preserve">1.40401792526245</t>
@@ -3824,28 +3824,28 @@
     <t xml:space="preserve">1.4053236246109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4266494512558</t>
+    <t xml:space="preserve">1.42664933204651</t>
   </si>
   <si>
     <t xml:space="preserve">1.41011106967926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41141676902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41533362865448</t>
+    <t xml:space="preserve">1.41141664981842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41533374786377</t>
   </si>
   <si>
     <t xml:space="preserve">1.43317759037018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43274235725403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41315758228302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4222971200943</t>
+    <t xml:space="preserve">1.43274247646332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41315746307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42229700088501</t>
   </si>
   <si>
     <t xml:space="preserve">1.57375347614288</t>
@@ -3857,19 +3857,19 @@
     <t xml:space="preserve">1.56417882442474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61031210422516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59899628162384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59072697162628</t>
+    <t xml:space="preserve">1.61031198501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59899616241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59072709083557</t>
   </si>
   <si>
     <t xml:space="preserve">1.57114207744598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54328811168671</t>
+    <t xml:space="preserve">1.543288230896</t>
   </si>
   <si>
     <t xml:space="preserve">1.55373334884644</t>
@@ -3878,10 +3878,10 @@
     <t xml:space="preserve">1.52849066257477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52326810359955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55590951442719</t>
+    <t xml:space="preserve">1.52326798439026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55590963363647</t>
   </si>
   <si>
     <t xml:space="preserve">1.56156742572784</t>
@@ -3893,10 +3893,10 @@
     <t xml:space="preserve">1.57331836223602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59812569618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57941138744354</t>
+    <t xml:space="preserve">1.59812581539154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57941150665283</t>
   </si>
   <si>
     <t xml:space="preserve">1.60378360748291</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">1.62510943412781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58245778083801</t>
+    <t xml:space="preserve">1.5824579000473</t>
   </si>
   <si>
     <t xml:space="preserve">1.57070696353912</t>
@@ -3923,7 +3923,7 @@
     <t xml:space="preserve">1.57679998874664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57549440860748</t>
+    <t xml:space="preserve">1.57549428939819</t>
   </si>
   <si>
     <t xml:space="preserve">1.55677998065948</t>
@@ -3935,58 +3935,58 @@
     <t xml:space="preserve">1.49280273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53632462024689</t>
+    <t xml:space="preserve">1.53632473945618</t>
   </si>
   <si>
     <t xml:space="preserve">1.5576503276825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59638500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65775084495544</t>
+    <t xml:space="preserve">1.59638488292694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65775096416473</t>
   </si>
   <si>
     <t xml:space="preserve">1.64948165416718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69169807434082</t>
+    <t xml:space="preserve">1.69169795513153</t>
   </si>
   <si>
     <t xml:space="preserve">1.68255829811096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72303378582001</t>
+    <t xml:space="preserve">1.7230339050293</t>
   </si>
   <si>
     <t xml:space="preserve">1.70867156982422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76873183250427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74958217144012</t>
+    <t xml:space="preserve">1.76873195171356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74958205223083</t>
   </si>
   <si>
     <t xml:space="preserve">1.76960229873657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745626449585</t>
+    <t xml:space="preserve">1.79745638370514</t>
   </si>
   <si>
     <t xml:space="preserve">1.79919719696045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79223358631134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79310405254364</t>
+    <t xml:space="preserve">1.79223370552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79310417175293</t>
   </si>
   <si>
     <t xml:space="preserve">1.79571545124054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80877196788788</t>
+    <t xml:space="preserve">1.80877208709717</t>
   </si>
   <si>
     <t xml:space="preserve">1.7826589345932</t>
@@ -3995,10 +3995,10 @@
     <t xml:space="preserve">1.78178834915161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78614068031311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74261868000031</t>
+    <t xml:space="preserve">1.78614056110382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74261879920959</t>
   </si>
   <si>
     <t xml:space="preserve">1.76263880729675</t>
@@ -4010,19 +4010,19 @@
     <t xml:space="preserve">1.6394716501236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66906666755676</t>
+    <t xml:space="preserve">1.66906654834747</t>
   </si>
   <si>
     <t xml:space="preserve">1.66645526885986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64687025547028</t>
+    <t xml:space="preserve">1.64687037467957</t>
   </si>
   <si>
     <t xml:space="preserve">1.67515969276428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67037224769592</t>
+    <t xml:space="preserve">1.67037236690521</t>
   </si>
   <si>
     <t xml:space="preserve">1.66210305690765</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">1.67428910732269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66340863704681</t>
+    <t xml:space="preserve">1.6634087562561</t>
   </si>
   <si>
     <t xml:space="preserve">1.67646527290344</t>
@@ -4040,7 +4040,7 @@
     <t xml:space="preserve">1.65470433235168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60770070552826</t>
+    <t xml:space="preserve">1.60770058631897</t>
   </si>
   <si>
     <t xml:space="preserve">1.5637434720993</t>
@@ -4055,13 +4055,13 @@
     <t xml:space="preserve">1.54372334480286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47713494300842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46538400650024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4640781879425</t>
+    <t xml:space="preserve">1.47713482379913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46538388729095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46407830715179</t>
   </si>
   <si>
     <t xml:space="preserve">1.50629448890686</t>
@@ -4076,10 +4076,10 @@
     <t xml:space="preserve">1.52457368373871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53763043880463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51108181476593</t>
+    <t xml:space="preserve">1.53763020038605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51108193397522</t>
   </si>
   <si>
     <t xml:space="preserve">1.51891589164734</t>
@@ -4100,13 +4100,13 @@
     <t xml:space="preserve">1.50803530216217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54720520973206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53371334075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55895602703094</t>
+    <t xml:space="preserve">1.54720509052277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53371322154999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55895614624023</t>
   </si>
   <si>
     <t xml:space="preserve">1.57810568809509</t>
@@ -4121,13 +4121,13 @@
     <t xml:space="preserve">1.64077734947205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67211318016052</t>
+    <t xml:space="preserve">1.67211306095123</t>
   </si>
   <si>
     <t xml:space="preserve">1.66776096820831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67994713783264</t>
+    <t xml:space="preserve">1.67994701862335</t>
   </si>
   <si>
     <t xml:space="preserve">1.67820608615875</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">1.70170795917511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68516957759857</t>
+    <t xml:space="preserve">1.68516969680786</t>
   </si>
   <si>
     <t xml:space="preserve">1.66950178146362</t>
@@ -4148,46 +4148,46 @@
     <t xml:space="preserve">1.63816595077515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56200265884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55634474754333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62728548049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66558480262756</t>
+    <t xml:space="preserve">1.5620025396347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55634462833405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62728559970856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66558468341827</t>
   </si>
   <si>
     <t xml:space="preserve">1.6020427942276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61422908306122</t>
+    <t xml:space="preserve">1.61422896385193</t>
   </si>
   <si>
     <t xml:space="preserve">1.68778097629547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72085762023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.703449010849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76612043380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76350915431976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79049277305603</t>
+    <t xml:space="preserve">1.72085773944855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70344889163971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76612067222595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76350927352905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79049265384674</t>
   </si>
   <si>
     <t xml:space="preserve">1.72172820568085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87927758693695</t>
+    <t xml:space="preserve">1.87927734851837</t>
   </si>
   <si>
     <t xml:space="preserve">1.8566460609436</t>
@@ -4196,10 +4196,10 @@
     <t xml:space="preserve">1.75741612911224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7060604095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57636487483978</t>
+    <t xml:space="preserve">1.70606017112732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57636475563049</t>
   </si>
   <si>
     <t xml:space="preserve">1.60508930683136</t>
@@ -4208,19 +4208,19 @@
     <t xml:space="preserve">1.44623422622681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44057631492615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36528348922729</t>
+    <t xml:space="preserve">1.44057643413544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36528337001801</t>
   </si>
   <si>
     <t xml:space="preserve">1.22079062461853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15768373012543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21992015838623</t>
+    <t xml:space="preserve">1.15768384933472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21992003917694</t>
   </si>
   <si>
     <t xml:space="preserve">1.34178149700165</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">1.24124586582184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23428225517273</t>
+    <t xml:space="preserve">1.23428237438202</t>
   </si>
   <si>
     <t xml:space="preserve">1.28476774692535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31088089942932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4070645570755</t>
+    <t xml:space="preserve">1.31088101863861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40706443786621</t>
   </si>
   <si>
     <t xml:space="preserve">1.37529349327087</t>
@@ -4247,10 +4247,10 @@
     <t xml:space="preserve">1.36658906936646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38443315029144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36354243755341</t>
+    <t xml:space="preserve">1.38443303108215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3635425567627</t>
   </si>
   <si>
     <t xml:space="preserve">1.35005080699921</t>
@@ -4265,7 +4265,7 @@
     <t xml:space="preserve">1.45754992961884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42882537841797</t>
+    <t xml:space="preserve">1.42882549762726</t>
   </si>
   <si>
     <t xml:space="preserve">1.38356244564056</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">1.37050604820251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41881549358368</t>
+    <t xml:space="preserve">1.41881537437439</t>
   </si>
   <si>
     <t xml:space="preserve">1.42839026451111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40793490409851</t>
+    <t xml:space="preserve">1.40793478488922</t>
   </si>
   <si>
     <t xml:space="preserve">1.39313745498657</t>
@@ -4316,40 +4316,40 @@
     <t xml:space="preserve">1.38704442977905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37790465354919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39705443382263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38791489601135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35396778583527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33307719230652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33481812477112</t>
+    <t xml:space="preserve">1.37790477275848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39705431461334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38791465759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35396766662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33307707309723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33481800556183</t>
   </si>
   <si>
     <t xml:space="preserve">1.3243727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47974610328674</t>
+    <t xml:space="preserve">1.47974622249603</t>
   </si>
   <si>
     <t xml:space="preserve">1.51586937904358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51630449295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50237739086151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53675973415375</t>
+    <t xml:space="preserve">1.51630461215973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5023775100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53675985336304</t>
   </si>
   <si>
     <t xml:space="preserve">1.52936112880707</t>
@@ -5859,6 +5859,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.56899976730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65000009536743</t>
   </si>
 </sst>
 </file>
@@ -62204,7 +62207,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6494444444</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>7908894</v>
@@ -62225,6 +62228,32 @@
         <v>1948</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6493287037</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>9249990</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>4.65399980545044</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>4.56199979782104</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>4.56899976730347</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>4.65000009536743</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="1961">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33120465278625</t>
+    <t xml:space="preserve">3.33120489120483</t>
   </si>
   <si>
     <t xml:space="preserve">BPE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37296867370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22311305999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14941358566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07817053794861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08062744140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05606079101562</t>
+    <t xml:space="preserve">3.37296795845032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22311234474182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14941334724426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07817077636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08062791824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0560610294342</t>
   </si>
   <si>
     <t xml:space="preserve">3.20345902442932</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03886485099792</t>
+    <t xml:space="preserve">3.0388650894165</t>
   </si>
   <si>
     <t xml:space="preserve">2.77354717254639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76126480102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55981945991516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84233355522156</t>
+    <t xml:space="preserve">2.76126456260681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55981969833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84233379364014</t>
   </si>
   <si>
     <t xml:space="preserve">2.81039667129517</t>
@@ -86,46 +86,46 @@
     <t xml:space="preserve">2.73669767379761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8963794708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77846050262451</t>
+    <t xml:space="preserve">2.89637970924377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77846097946167</t>
   </si>
   <si>
     <t xml:space="preserve">2.56964659690857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70230460166931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63597559928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45664072036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25323081016541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26207447052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21490693092346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9505729675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90831863880157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03999400138855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8444459438324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05669951438904</t>
+    <t xml:space="preserve">2.70230484008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63597536087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45664095878601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25323057174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26207494735718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21490716934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95057260990143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90831911563873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03999423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84444558620453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05669927597046</t>
   </si>
   <si>
     <t xml:space="preserve">2.26502251625061</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">2.41733431816101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27288436889648</t>
+    <t xml:space="preserve">2.27288413047791</t>
   </si>
   <si>
     <t xml:space="preserve">2.50331735610962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40849041938782</t>
+    <t xml:space="preserve">2.4084906578064</t>
   </si>
   <si>
     <t xml:space="preserve">2.25519609451294</t>
@@ -161,37 +161,37 @@
     <t xml:space="preserve">2.31415557861328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34854817390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46401047706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42126488685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43109154701233</t>
+    <t xml:space="preserve">2.34854793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4640109539032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42126441001892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43109202384949</t>
   </si>
   <si>
     <t xml:space="preserve">2.30531144142151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27190160751343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29745030403137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31808614730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51068711280823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54508018493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4615535736084</t>
+    <t xml:space="preserve">2.27190113067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29745054244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31808638572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51068663597107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54507994651794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46155405044556</t>
   </si>
   <si>
     <t xml:space="preserve">2.29450178146362</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">2.34068703651428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33479142189026</t>
+    <t xml:space="preserve">2.33479166030884</t>
   </si>
   <si>
     <t xml:space="preserve">2.30039811134338</t>
@@ -212,97 +212,97 @@
     <t xml:space="preserve">2.23750829696655</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14513850212097</t>
+    <t xml:space="preserve">2.14513826370239</t>
   </si>
   <si>
     <t xml:space="preserve">2.12352013587952</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05571675300598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09305810928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97415614128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96334707736969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84739339351654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11172842979431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21392464637756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12548542022705</t>
+    <t xml:space="preserve">2.0557165145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09305787086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97415626049042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96334660053253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8473938703537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11172819137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21392488479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12548565864563</t>
   </si>
   <si>
     <t xml:space="preserve">2.36918449401855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47629404067993</t>
+    <t xml:space="preserve">2.47629380226135</t>
   </si>
   <si>
     <t xml:space="preserve">2.48366355895996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4006290435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47138071060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54999256134033</t>
+    <t xml:space="preserve">2.40062928199768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47138047218323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54999303817749</t>
   </si>
   <si>
     <t xml:space="preserve">2.56227588653564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47383761405945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55490636825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51560068130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61386585235596</t>
+    <t xml:space="preserve">2.47383737564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55490612983704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51560044288635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6138653755188</t>
   </si>
   <si>
     <t xml:space="preserve">2.50822997093201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41635155677795</t>
+    <t xml:space="preserve">2.41635179519653</t>
   </si>
   <si>
     <t xml:space="preserve">2.31022524833679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28467607498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22080326080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16282629966736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15693044662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15103507041931</t>
+    <t xml:space="preserve">2.28467631340027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22080302238464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16282653808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15693020820618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15103483200073</t>
   </si>
   <si>
     <t xml:space="preserve">2.11762452125549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11467599868774</t>
+    <t xml:space="preserve">2.11467576026917</t>
   </si>
   <si>
     <t xml:space="preserve">2.14710426330566</t>
@@ -314,13 +314,13 @@
     <t xml:space="preserve">2.15987873077393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1873927116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14416766166687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31304669380188</t>
+    <t xml:space="preserve">2.18739199638367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14416742324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31304693222046</t>
   </si>
   <si>
     <t xml:space="preserve">2.42864894866943</t>
@@ -329,58 +329,61 @@
     <t xml:space="preserve">2.38140273094177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38743448257446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41055536270142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28590607643127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25675415992737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16628289222717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15623021125793</t>
+    <t xml:space="preserve">2.38743472099304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41055512428284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28590559959412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18739223480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25675392150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16628265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15622997283936</t>
   </si>
   <si>
     <t xml:space="preserve">2.18437623977661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2255916595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07983231544495</t>
+    <t xml:space="preserve">2.22559189796448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07983255386353</t>
   </si>
   <si>
     <t xml:space="preserve">1.95317232608795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89788424968719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89185345172882</t>
+    <t xml:space="preserve">1.89788448810577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89185357093811</t>
   </si>
   <si>
     <t xml:space="preserve">1.84259653091431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02554988861084</t>
+    <t xml:space="preserve">2.02555012702942</t>
   </si>
   <si>
     <t xml:space="preserve">2.11702609062195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17130851745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16226196289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32812595367432</t>
+    <t xml:space="preserve">2.17130875587463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1622622013092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32812523841858</t>
   </si>
   <si>
     <t xml:space="preserve">1.75514149665833</t>
@@ -389,19 +392,19 @@
     <t xml:space="preserve">1.73704707622528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69583177566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60335052013397</t>
+    <t xml:space="preserve">1.69583189487457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60335040092468</t>
   </si>
   <si>
     <t xml:space="preserve">1.64758121967316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56816709041595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46261763572693</t>
+    <t xml:space="preserve">1.56816697120667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46261775493622</t>
   </si>
   <si>
     <t xml:space="preserve">1.463623046875</t>
@@ -410,16 +413,16 @@
     <t xml:space="preserve">1.35907828807831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29775869846344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50785303115845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57821989059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70688998699188</t>
+    <t xml:space="preserve">1.29775857925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50785279273987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5782196521759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70688986778259</t>
   </si>
   <si>
     <t xml:space="preserve">1.62144505977631</t>
@@ -428,22 +431,22 @@
     <t xml:space="preserve">1.69080650806427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71091079711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72096359729767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70487904548645</t>
+    <t xml:space="preserve">1.71091055870056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096335887909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70487928390503</t>
   </si>
   <si>
     <t xml:space="preserve">1.72297346591949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77826142311096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76519346237183</t>
+    <t xml:space="preserve">1.77826154232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76519334316254</t>
   </si>
   <si>
     <t xml:space="preserve">1.71794736385345</t>
@@ -455,55 +458,55 @@
     <t xml:space="preserve">1.80540311336517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74910986423492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84460747241974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74006223678589</t>
+    <t xml:space="preserve">1.74910974502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84460723400116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74006259441376</t>
   </si>
   <si>
     <t xml:space="preserve">1.52494215965271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.586261510849</t>
+    <t xml:space="preserve">1.58626163005829</t>
   </si>
   <si>
     <t xml:space="preserve">1.59430325031281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80238747596741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76921439170837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80439746379852</t>
+    <t xml:space="preserve">1.80238771438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76921415328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80439782142639</t>
   </si>
   <si>
     <t xml:space="preserve">1.79334032535553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79233515262604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76720440387726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75413572788239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68879520893097</t>
+    <t xml:space="preserve">1.79233467578888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76720428466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75413596630096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68879556655884</t>
   </si>
   <si>
     <t xml:space="preserve">1.71895277500153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61943423748016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63049209117889</t>
+    <t xml:space="preserve">1.61943411827087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63049221038818</t>
   </si>
   <si>
     <t xml:space="preserve">1.72397899627686</t>
@@ -512,70 +515,70 @@
     <t xml:space="preserve">1.7611722946167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70990526676178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67472195625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72196829319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73403131961823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76619875431061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79032409191132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75815677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81746566295624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82048141956329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78429317474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75011515617371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70387446880341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64657557010651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67170667648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60033512115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67572724819183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67974829673767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60435593128204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57922506332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61440849304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61742401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66467034816742</t>
+    <t xml:space="preserve">1.70990538597107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67472207546234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72196817398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7340315580368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76619863510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79032421112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75815665721893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81746590137482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82048118114471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78429305553436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75011491775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70387434959412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64657592773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67170691490173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60033524036407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67572736740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67974805831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60435581207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57922530174255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6144083738327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61742413043976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66467010974884</t>
   </si>
   <si>
     <t xml:space="preserve">1.62647128105164</t>
@@ -584,46 +587,46 @@
     <t xml:space="preserve">1.70286893844604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70789539813995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68376934528351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74408316612244</t>
+    <t xml:space="preserve">1.70789515972137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68376898765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74408352375031</t>
   </si>
   <si>
     <t xml:space="preserve">1.84963357448578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89084792137146</t>
+    <t xml:space="preserve">1.89084815979004</t>
   </si>
   <si>
     <t xml:space="preserve">1.80841827392578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9029107093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94312047958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0426390171051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14014625549316</t>
+    <t xml:space="preserve">1.90291035175323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94312024116516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04263925552368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14014673233032</t>
   </si>
   <si>
     <t xml:space="preserve">2.13512015342712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18940258026123</t>
+    <t xml:space="preserve">2.18940281867981</t>
   </si>
   <si>
     <t xml:space="preserve">2.09792685508728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13210487365723</t>
+    <t xml:space="preserve">2.13210511207581</t>
   </si>
   <si>
     <t xml:space="preserve">2.18236637115479</t>
@@ -632,25 +635,25 @@
     <t xml:space="preserve">2.17633485794067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14818859100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13009405136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01047110557556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98534059524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96322524547577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03158092498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06977963447571</t>
+    <t xml:space="preserve">2.14818906784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13009428977966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01047086715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98534047603607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96322500705719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03158068656921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06977939605713</t>
   </si>
   <si>
     <t xml:space="preserve">2.09993672370911</t>
@@ -659,7 +662,7 @@
     <t xml:space="preserve">2.10094237327576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07882738113403</t>
+    <t xml:space="preserve">2.07882714271545</t>
   </si>
   <si>
     <t xml:space="preserve">2.06877422332764</t>
@@ -668,106 +671,106 @@
     <t xml:space="preserve">2.00846028327942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92301499843597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88381159305573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8757688999176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91396880149841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90391564369202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90994703769684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88079535961151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90492165088654</t>
+    <t xml:space="preserve">1.92301535606384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88381135463715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87576949596405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9139689207077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90391600131989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90994739532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88079559803009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90492153167725</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771708488464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01650285720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1532142162323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3773820400238</t>
+    <t xml:space="preserve">2.01650261878967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15321469306946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37738156318665</t>
   </si>
   <si>
     <t xml:space="preserve">2.41155982017517</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37436676025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41859722137451</t>
+    <t xml:space="preserve">2.37436628341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41859698295593</t>
   </si>
   <si>
     <t xml:space="preserve">2.46986389160156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42965412139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49499464035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51560187339783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49800992012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51308917999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56837677955627</t>
+    <t xml:space="preserve">2.42965459823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49499440193176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51560235023499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49801015853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51308941841125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56837701797485</t>
   </si>
   <si>
     <t xml:space="preserve">2.59350776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6010468006134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54324650764465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64879584312439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74931907653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70408391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53068113327026</t>
+    <t xml:space="preserve">2.60104656219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54324626922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64879631996155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74931883811951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70408368110657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66387414932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53068065643311</t>
   </si>
   <si>
     <t xml:space="preserve">2.51811480522156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66890025138855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64376926422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68649220466614</t>
+    <t xml:space="preserve">2.66890001296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64376950263977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68649172782898</t>
   </si>
   <si>
     <t xml:space="preserve">2.6965446472168</t>
@@ -776,16 +779,16 @@
     <t xml:space="preserve">2.84230375289917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88753843307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81968593597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82722473144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240839958191</t>
+    <t xml:space="preserve">2.88753914833069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81968569755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82722449302673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240816116333</t>
   </si>
   <si>
     <t xml:space="preserve">2.81717300415039</t>
@@ -794,37 +797,37 @@
     <t xml:space="preserve">2.68397927284241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63371682167053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69403076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7065966129303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77193665504456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61361217498779</t>
+    <t xml:space="preserve">2.63371658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69403100013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70659613609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77193713188171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61361241340637</t>
   </si>
   <si>
     <t xml:space="preserve">2.5231409072876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55329847335815</t>
+    <t xml:space="preserve">2.55329823493958</t>
   </si>
   <si>
     <t xml:space="preserve">2.39045023918152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39849162101746</t>
+    <t xml:space="preserve">2.39849185943604</t>
   </si>
   <si>
     <t xml:space="preserve">2.48092126846313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41759157180786</t>
+    <t xml:space="preserve">2.41759133338928</t>
   </si>
   <si>
     <t xml:space="preserve">2.33415651321411</t>
@@ -836,37 +839,37 @@
     <t xml:space="preserve">2.23765397071838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23463892936707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14919352531433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11099457740784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0808379650116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25172781944275</t>
+    <t xml:space="preserve">2.23463869094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14919376373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.110995054245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08083772659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25172805786133</t>
   </si>
   <si>
     <t xml:space="preserve">2.26077508926392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36230373382568</t>
+    <t xml:space="preserve">2.3623034954071</t>
   </si>
   <si>
     <t xml:space="preserve">2.29796862602234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20146584510803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20649194717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27987384796143</t>
+    <t xml:space="preserve">2.20146536827087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20649218559265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27987408638</t>
   </si>
   <si>
     <t xml:space="preserve">2.35426163673401</t>
@@ -875,28 +878,28 @@
     <t xml:space="preserve">2.3150577545166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25574851036072</t>
+    <t xml:space="preserve">2.2557487487793</t>
   </si>
   <si>
     <t xml:space="preserve">2.25976967811584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37235641479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34420943260193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41457605361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42362356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49197936058044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46383213996887</t>
+    <t xml:space="preserve">2.37235593795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34420919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41457581520081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42362332344055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49197912216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46383237838745</t>
   </si>
   <si>
     <t xml:space="preserve">2.41960167884827</t>
@@ -905,25 +908,25 @@
     <t xml:space="preserve">2.43468046188354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38944554328918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35727691650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35225081443787</t>
+    <t xml:space="preserve">2.38944530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35727739334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35225129127502</t>
   </si>
   <si>
     <t xml:space="preserve">2.26982164382935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28691077232361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28490042686462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30198955535889</t>
+    <t xml:space="preserve">2.28691053390503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28490018844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30198931694031</t>
   </si>
   <si>
     <t xml:space="preserve">2.26479601860046</t>
@@ -935,43 +938,43 @@
     <t xml:space="preserve">2.19241905212402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30399990081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4628267288208</t>
+    <t xml:space="preserve">2.30399966239929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46282696723938</t>
   </si>
   <si>
     <t xml:space="preserve">2.49901556968689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44473314285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52062845230103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58596873283386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62366509437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55832457542419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53822016716003</t>
+    <t xml:space="preserve">2.44473338127136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52062821388245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58596897125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62366485595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55832433700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53821992874146</t>
   </si>
   <si>
     <t xml:space="preserve">2.39447093009949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35627174377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44272208213806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.402512550354</t>
+    <t xml:space="preserve">2.35627222061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44272255897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40251278877258</t>
   </si>
   <si>
     <t xml:space="preserve">2.34722471237183</t>
@@ -980,58 +983,58 @@
     <t xml:space="preserve">2.32008385658264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35526704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34406590461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34508442878723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37766885757446</t>
+    <t xml:space="preserve">2.35526728630066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34406614303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34508419036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3776683807373</t>
   </si>
   <si>
     <t xml:space="preserve">2.37461400032043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34712052345276</t>
+    <t xml:space="preserve">2.34712028503418</t>
   </si>
   <si>
     <t xml:space="preserve">2.27584171295166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.276859998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21983671188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.266676902771</t>
+    <t xml:space="preserve">2.27686023712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21983647346497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26667666435242</t>
   </si>
   <si>
     <t xml:space="preserve">2.23816561698914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.197434425354</t>
+    <t xml:space="preserve">2.19743466377258</t>
   </si>
   <si>
     <t xml:space="preserve">2.16383171081543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16790437698364</t>
+    <t xml:space="preserve">2.16790461540222</t>
   </si>
   <si>
     <t xml:space="preserve">2.24834799766541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24122047424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19438004493713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24936652183533</t>
+    <t xml:space="preserve">2.24122023582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19437980651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24936676025391</t>
   </si>
   <si>
     <t xml:space="preserve">2.22696423530579</t>
@@ -1043,7 +1046,7 @@
     <t xml:space="preserve">2.13939261436462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08440589904785</t>
+    <t xml:space="preserve">2.08440613746643</t>
   </si>
   <si>
     <t xml:space="preserve">2.17808675765991</t>
@@ -1055,31 +1058,31 @@
     <t xml:space="preserve">2.22594571113586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23918318748474</t>
+    <t xml:space="preserve">2.23918342590332</t>
   </si>
   <si>
     <t xml:space="preserve">2.25954937934875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24732947349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22289133071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36646795272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44691133499146</t>
+    <t xml:space="preserve">2.2473292350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22289109230042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36646842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44691109657288</t>
   </si>
   <si>
     <t xml:space="preserve">2.38785147666931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39396119117737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38683319091797</t>
+    <t xml:space="preserve">2.39396142959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38683342933655</t>
   </si>
   <si>
     <t xml:space="preserve">2.41941833496094</t>
@@ -1088,58 +1091,58 @@
     <t xml:space="preserve">2.46320414543152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51513600349426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52226424217224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52022767066956</t>
+    <t xml:space="preserve">2.51513624191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52226376533508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5202271938324</t>
   </si>
   <si>
     <t xml:space="preserve">2.53550124168396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45302104949951</t>
+    <t xml:space="preserve">2.45302128791809</t>
   </si>
   <si>
     <t xml:space="preserve">2.469313621521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40312600135803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3766508102417</t>
+    <t xml:space="preserve">2.40312576293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37665104866028</t>
   </si>
   <si>
     <t xml:space="preserve">2.34813904762268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3827600479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39497923851013</t>
+    <t xml:space="preserve">2.38276028633118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39497900009155</t>
   </si>
   <si>
     <t xml:space="preserve">2.3685040473938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36443090438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41025376319885</t>
+    <t xml:space="preserve">2.36443114280701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41025400161743</t>
   </si>
   <si>
     <t xml:space="preserve">2.55586647987366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52124547958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50291705131531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41432666778564</t>
+    <t xml:space="preserve">2.52124524116516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50291728973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4143271446228</t>
   </si>
   <si>
     <t xml:space="preserve">2.49477005004883</t>
@@ -1148,7 +1151,7 @@
     <t xml:space="preserve">2.48356938362122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45607590675354</t>
+    <t xml:space="preserve">2.45607566833496</t>
   </si>
   <si>
     <t xml:space="preserve">2.42349147796631</t>
@@ -1157,25 +1160,25 @@
     <t xml:space="preserve">2.3929431438446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41636252403259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4265456199646</t>
+    <t xml:space="preserve">2.41636323928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42654609680176</t>
   </si>
   <si>
     <t xml:space="preserve">2.36341333389282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38886976242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40923500061035</t>
+    <t xml:space="preserve">2.38887000083923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40923547744751</t>
   </si>
   <si>
     <t xml:space="preserve">2.44182062149048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40516233444214</t>
+    <t xml:space="preserve">2.40516209602356</t>
   </si>
   <si>
     <t xml:space="preserve">2.36748647689819</t>
@@ -1184,52 +1187,52 @@
     <t xml:space="preserve">2.32675528526306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30639028549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37257790565491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44589328765869</t>
+    <t xml:space="preserve">2.30639004707336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37257766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44589352607727</t>
   </si>
   <si>
     <t xml:space="preserve">2.3970160484314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33591938018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35730338096619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38581562042236</t>
+    <t xml:space="preserve">2.33591985702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35730314254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38581538200378</t>
   </si>
   <si>
     <t xml:space="preserve">2.43571043014526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38174152374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45200252532959</t>
+    <t xml:space="preserve">2.38174200057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45200276374817</t>
   </si>
   <si>
     <t xml:space="preserve">2.52430081367493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56604981422424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57623243331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61950898170471</t>
+    <t xml:space="preserve">2.56604957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57623291015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61950945854187</t>
   </si>
   <si>
     <t xml:space="preserve">2.61187171936035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5344831943512</t>
+    <t xml:space="preserve">2.53448271751404</t>
   </si>
   <si>
     <t xml:space="preserve">2.49171566963196</t>
@@ -1241,7 +1244,7 @@
     <t xml:space="preserve">2.28704237937927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23714756965637</t>
+    <t xml:space="preserve">2.23714709281921</t>
   </si>
   <si>
     <t xml:space="preserve">2.26158571243286</t>
@@ -1250,13 +1253,13 @@
     <t xml:space="preserve">2.23612904548645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23001909255981</t>
+    <t xml:space="preserve">2.23001885414124</t>
   </si>
   <si>
     <t xml:space="preserve">2.15874028205872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16586756706238</t>
+    <t xml:space="preserve">2.16586780548096</t>
   </si>
   <si>
     <t xml:space="preserve">2.187251329422</t>
@@ -1265,31 +1268,31 @@
     <t xml:space="preserve">2.16281294822693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12921023368835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14041066169739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13022804260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12411880493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2015073299408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14550232887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11088156700134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0711681842804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98054194450378</t>
+    <t xml:space="preserve">2.12921047210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14041113853455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13022780418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12411904335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20150780677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14550280570984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11088109016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07116866111755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98054242134094</t>
   </si>
   <si>
     <t xml:space="preserve">2.17706918716431</t>
@@ -1304,31 +1307,31 @@
     <t xml:space="preserve">2.12513732910156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16994071006775</t>
+    <t xml:space="preserve">2.16994047164917</t>
   </si>
   <si>
     <t xml:space="preserve">2.09764361381531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1322648525238</t>
+    <t xml:space="preserve">2.13226461410522</t>
   </si>
   <si>
     <t xml:space="preserve">2.1027352809906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09051609039307</t>
+    <t xml:space="preserve">2.09051585197449</t>
   </si>
   <si>
     <t xml:space="preserve">2.1526300907135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2524209022522</t>
+    <t xml:space="preserve">2.25242114067078</t>
   </si>
   <si>
     <t xml:space="preserve">2.33999276161194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27075004577637</t>
+    <t xml:space="preserve">2.27075028419495</t>
   </si>
   <si>
     <t xml:space="preserve">2.33184671401978</t>
@@ -1337,52 +1340,52 @@
     <t xml:space="preserve">2.31962752342224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29111504554749</t>
+    <t xml:space="preserve">2.29111552238464</t>
   </si>
   <si>
     <t xml:space="preserve">2.36544942855835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31046295166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16484928131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12208199501038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1159725189209</t>
+    <t xml:space="preserve">2.31046271324158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16484951972961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12208223342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11597275733948</t>
   </si>
   <si>
     <t xml:space="preserve">2.18623375892639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17401361465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17605066299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13328313827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14448380470276</t>
+    <t xml:space="preserve">2.1740140914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17605113983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13328337669373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14448428153992</t>
   </si>
   <si>
     <t xml:space="preserve">2.20354461669922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14346551895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11800861358643</t>
+    <t xml:space="preserve">2.14346575737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.118008852005</t>
   </si>
   <si>
     <t xml:space="preserve">2.15975880622864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16179466247559</t>
+    <t xml:space="preserve">2.16179490089417</t>
   </si>
   <si>
     <t xml:space="preserve">2.19947099685669</t>
@@ -1391,16 +1394,13 @@
     <t xml:space="preserve">2.29824376106262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32166409492493</t>
+    <t xml:space="preserve">2.32166385650635</t>
   </si>
   <si>
     <t xml:space="preserve">2.29620718955994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25140261650085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35526728630066</t>
+    <t xml:space="preserve">2.25140285491943</t>
   </si>
   <si>
     <t xml:space="preserve">2.45098423957825</t>
@@ -1412,16 +1412,16 @@
     <t xml:space="preserve">2.46676802635193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37206840515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39141511917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37308645248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30842638015747</t>
+    <t xml:space="preserve">2.37206864356995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39141535758972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37308621406555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30842590332031</t>
   </si>
   <si>
     <t xml:space="preserve">2.31708145141602</t>
@@ -1430,10 +1430,10 @@
     <t xml:space="preserve">2.3980348110199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34610295295715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31504511833191</t>
+    <t xml:space="preserve">2.34610271453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31504535675049</t>
   </si>
   <si>
     <t xml:space="preserve">2.43520140647888</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">2.42960047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43367338180542</t>
+    <t xml:space="preserve">2.433673620224</t>
   </si>
   <si>
     <t xml:space="preserve">2.38530611991882</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">2.47593259811401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47644209861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48102378845215</t>
+    <t xml:space="preserve">2.47644186019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48102402687073</t>
   </si>
   <si>
     <t xml:space="preserve">2.47847771644592</t>
@@ -1478,43 +1478,43 @@
     <t xml:space="preserve">2.42450976371765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34864830970764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39243364334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33846545219421</t>
+    <t xml:space="preserve">2.34864807128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39243412017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33846497535706</t>
   </si>
   <si>
     <t xml:space="preserve">2.34304738044739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37054085731506</t>
+    <t xml:space="preserve">2.37054109573364</t>
   </si>
   <si>
     <t xml:space="preserve">2.37868714332581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36239504814148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31657218933105</t>
+    <t xml:space="preserve">2.3623948097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31657195091248</t>
   </si>
   <si>
     <t xml:space="preserve">2.32319140434265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30282616615295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3186092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29926156997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30129861831665</t>
+    <t xml:space="preserve">2.30282640457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31860899925232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29926133155823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30129837989807</t>
   </si>
   <si>
     <t xml:space="preserve">2.39039707183838</t>
@@ -1526,25 +1526,25 @@
     <t xml:space="preserve">2.40821671485901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43265604972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48458790779114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45505809783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46167635917664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48815155029297</t>
+    <t xml:space="preserve">2.43265557289124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48458743095398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45505785942078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46167659759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48815178871155</t>
   </si>
   <si>
     <t xml:space="preserve">2.44283819198608</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41228985786438</t>
+    <t xml:space="preserve">2.4122896194458</t>
   </si>
   <si>
     <t xml:space="preserve">2.4275643825531</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">2.42807388305664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40974450111389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40210723876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49680685997009</t>
+    <t xml:space="preserve">2.40974473953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40210771560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49680709838867</t>
   </si>
   <si>
     <t xml:space="preserve">2.50597143173218</t>
@@ -1571,16 +1571,16 @@
     <t xml:space="preserve">2.55484890937805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59150671958923</t>
+    <t xml:space="preserve">2.59150648117065</t>
   </si>
   <si>
     <t xml:space="preserve">2.62103629112244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54415678977966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54466605186462</t>
+    <t xml:space="preserve">2.5441563129425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54466581344604</t>
   </si>
   <si>
     <t xml:space="preserve">2.37563252449036</t>
@@ -1589,10 +1589,10 @@
     <t xml:space="preserve">2.39753270149231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43611812591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46271109580994</t>
+    <t xml:space="preserve">2.43611764907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46271085739136</t>
   </si>
   <si>
     <t xml:space="preserve">2.43246793746948</t>
@@ -1604,34 +1604,34 @@
     <t xml:space="preserve">2.24423170089722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13108205795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13890314102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13942503929138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3078465461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24006056785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16393113136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16288900375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20460295677185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14516043663025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23849654197693</t>
+    <t xml:space="preserve">2.1310818195343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13890337944031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1394248008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30784630775452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24006032943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16393160820007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1628897190094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20460343360901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14516091346741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23849678039551</t>
   </si>
   <si>
     <t xml:space="preserve">2.26508927345276</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">2.301589012146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32974672317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26873922348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25778937339783</t>
+    <t xml:space="preserve">2.32974648475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2687394618988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25778913497925</t>
   </si>
   <si>
     <t xml:space="preserve">2.33443903923035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39336133003235</t>
+    <t xml:space="preserve">2.39336109161377</t>
   </si>
   <si>
     <t xml:space="preserve">2.32296848297119</t>
@@ -1661,28 +1661,28 @@
     <t xml:space="preserve">2.49399662017822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4428973197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45645427703857</t>
+    <t xml:space="preserve">2.44289684295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45645380020142</t>
   </si>
   <si>
     <t xml:space="preserve">2.42151761054993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44341850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45436811447144</t>
+    <t xml:space="preserve">2.44341826438904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45436787605286</t>
   </si>
   <si>
     <t xml:space="preserve">2.44498229026794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44759011268616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43820428848267</t>
+    <t xml:space="preserve">2.44758987426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43820405006409</t>
   </si>
   <si>
     <t xml:space="preserve">2.4861752986908</t>
@@ -1691,40 +1691,40 @@
     <t xml:space="preserve">2.49451804161072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44602537155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40535378456116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42203950881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45541095733643</t>
+    <t xml:space="preserve">2.44602560997009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40535402297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.422039270401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.455411195755</t>
   </si>
   <si>
     <t xml:space="preserve">2.41213274002075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36729001998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41526103019714</t>
+    <t xml:space="preserve">2.36728954315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41526079177856</t>
   </si>
   <si>
     <t xml:space="preserve">2.41265320777893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44811058044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48252558708191</t>
+    <t xml:space="preserve">2.44811105728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48252534866333</t>
   </si>
   <si>
     <t xml:space="preserve">2.4580180644989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49295353889465</t>
+    <t xml:space="preserve">2.49295377731323</t>
   </si>
   <si>
     <t xml:space="preserve">2.48148250579834</t>
@@ -1733,25 +1733,25 @@
     <t xml:space="preserve">2.39283967018127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3865818977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38814663887024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40900373458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26665306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24110341072083</t>
+    <t xml:space="preserve">2.38658213615417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38814687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40900349617004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26665329933167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2411036491394</t>
   </si>
   <si>
     <t xml:space="preserve">2.20981764793396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15506744384766</t>
+    <t xml:space="preserve">2.15506720542908</t>
   </si>
   <si>
     <t xml:space="preserve">2.13473200798035</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">2.13212490081787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08571743965149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08623909950256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13264584541321</t>
+    <t xml:space="preserve">2.08571767807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08623862266541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13264608383179</t>
   </si>
   <si>
     <t xml:space="preserve">2.13160371780396</t>
@@ -1775,37 +1775,37 @@
     <t xml:space="preserve">2.11491703987122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.109703540802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10136079788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06746745109558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08050298690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00228905677795</t>
+    <t xml:space="preserve">2.10970330238342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10136103630066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06746768951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08050322532654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00228881835938</t>
   </si>
   <si>
     <t xml:space="preserve">1.98091042041779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99029648303986</t>
+    <t xml:space="preserve">1.99029660224915</t>
   </si>
   <si>
     <t xml:space="preserve">2.06329607963562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15141725540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15558886528015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21294593811035</t>
+    <t xml:space="preserve">2.15141773223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15558862686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21294617652893</t>
   </si>
   <si>
     <t xml:space="preserve">2.20199656486511</t>
@@ -1814,76 +1814,76 @@
     <t xml:space="preserve">2.20408177375793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.196781873703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24736046791077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28125357627869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25987505912781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21659660339355</t>
+    <t xml:space="preserve">2.19678163528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24736094474792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28125333786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25987529754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21659684181213</t>
   </si>
   <si>
     <t xml:space="preserve">2.24214625358582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26978230476379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.292724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07946014404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9975962638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96266007423401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93710970878601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94910311698914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91364598274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88183832168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84429550170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88444554805756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84898841381073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86306703090668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87610232830048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.859938621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8625453710556</t>
+    <t xml:space="preserve">2.26978254318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29272484779358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07945990562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99759614467621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96266031265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93710958957672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94910323619843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91364586353302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88183891773224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84429562091827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88444578647614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84898829460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86306667327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87610268592834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85993850231171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86254549026489</t>
   </si>
   <si>
     <t xml:space="preserve">1.82239556312561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82917451858521</t>
+    <t xml:space="preserve">1.82917475700378</t>
   </si>
   <si>
     <t xml:space="preserve">1.76243138313293</t>
@@ -1892,52 +1892,52 @@
     <t xml:space="preserve">1.72436654567719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67535221576691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71393835544586</t>
+    <t xml:space="preserve">1.67535209655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71393847465515</t>
   </si>
   <si>
     <t xml:space="preserve">1.70090270042419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77598869800568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76555967330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75095963478088</t>
+    <t xml:space="preserve">1.7759884595871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76555979251862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75095951557159</t>
   </si>
   <si>
     <t xml:space="preserve">1.76138842105865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8328241109848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76973116397858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75669538974762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78850281238556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80206024646759</t>
+    <t xml:space="preserve">1.83282399177551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76973104476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7566956281662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78850269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80206000804901</t>
   </si>
   <si>
     <t xml:space="preserve">1.81822407245636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82083129882812</t>
+    <t xml:space="preserve">1.82083165645599</t>
   </si>
   <si>
     <t xml:space="preserve">1.76764583587646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78224539756775</t>
+    <t xml:space="preserve">1.78224527835846</t>
   </si>
   <si>
     <t xml:space="preserve">1.74991714954376</t>
@@ -1949,82 +1949,82 @@
     <t xml:space="preserve">1.7457457780838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80883824825287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81926727294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8203102350235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91781723499298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85055291652679</t>
+    <t xml:space="preserve">1.80883812904358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81926703453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82031011581421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91781735420227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8505527973175</t>
   </si>
   <si>
     <t xml:space="preserve">1.86723852157593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87662422657013</t>
+    <t xml:space="preserve">1.87662434577942</t>
   </si>
   <si>
     <t xml:space="preserve">1.96318209171295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92981016635895</t>
+    <t xml:space="preserve">1.92981004714966</t>
   </si>
   <si>
     <t xml:space="preserve">1.96578872203827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90321707725525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87297439575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8411670923233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8234384059906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81613886356354</t>
+    <t xml:space="preserve">1.90321719646454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87297451496124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84116697311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82343864440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81613874435425</t>
   </si>
   <si>
     <t xml:space="preserve">1.78798115253448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75304555892944</t>
+    <t xml:space="preserve">1.75304567813873</t>
   </si>
   <si>
     <t xml:space="preserve">1.74470269680023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78016006946564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74626648426056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73323106765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70976710319519</t>
+    <t xml:space="preserve">1.78015995025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74626684188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73323094844818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70976722240448</t>
   </si>
   <si>
     <t xml:space="preserve">1.75408864021301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7186313867569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70715963840485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76451694965363</t>
+    <t xml:space="preserve">1.71863150596619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70715975761414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76451671123505</t>
   </si>
   <si>
     <t xml:space="preserve">1.7754670381546</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">1.7363600730896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905945777893</t>
+    <t xml:space="preserve">1.72905933856964</t>
   </si>
   <si>
     <t xml:space="preserve">1.73427414894104</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">1.70507442951202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6393735408783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5616809129715</t>
+    <t xml:space="preserve">1.63937366008759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56168079376221</t>
   </si>
   <si>
     <t xml:space="preserve">1.59609520435333</t>
@@ -2054,43 +2054,43 @@
     <t xml:space="preserve">1.60235249996185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59296679496765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60130953788757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59244501590729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56898081302643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57367348670959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64250266551971</t>
+    <t xml:space="preserve">1.59296691417694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60130941867828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59244513511658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56898069381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57367360591888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64250254631042</t>
   </si>
   <si>
     <t xml:space="preserve">1.62268793582916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62685906887054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64093780517578</t>
+    <t xml:space="preserve">1.62685930728912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64093792438507</t>
   </si>
   <si>
     <t xml:space="preserve">1.54134547710419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54603779315948</t>
+    <t xml:space="preserve">1.5460376739502</t>
   </si>
   <si>
     <t xml:space="preserve">1.54864525794983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55125200748444</t>
+    <t xml:space="preserve">1.55125212669373</t>
   </si>
   <si>
     <t xml:space="preserve">1.58775222301483</t>
@@ -2099,28 +2099,28 @@
     <t xml:space="preserve">1.57158815860748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71028852462769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78120303153992</t>
+    <t xml:space="preserve">1.71028864383698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7812032699585</t>
   </si>
   <si>
     <t xml:space="preserve">1.76295280456543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75617396831512</t>
+    <t xml:space="preserve">1.75617384910583</t>
   </si>
   <si>
     <t xml:space="preserve">1.83751714229584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83021771907806</t>
+    <t xml:space="preserve">1.8302173614502</t>
   </si>
   <si>
     <t xml:space="preserve">1.81457412242889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78537428379059</t>
+    <t xml:space="preserve">1.7853741645813</t>
   </si>
   <si>
     <t xml:space="preserve">1.80623137950897</t>
@@ -2129,49 +2129,49 @@
     <t xml:space="preserve">1.82448160648346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83647394180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88600993156433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92824554443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92303156852722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91677415370941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93241786956787</t>
+    <t xml:space="preserve">1.83647406101227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88601005077362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92824530601501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9230318069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9167742729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93241763114929</t>
   </si>
   <si>
     <t xml:space="preserve">1.87558114528656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8562890291214</t>
+    <t xml:space="preserve">1.85628890991211</t>
   </si>
   <si>
     <t xml:space="preserve">1.84481704235077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85576725006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89330971240997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93137454986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94597399234772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9464955329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92928886413574</t>
+    <t xml:space="preserve">1.85576736927032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89330983161926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93137443065643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94597411155701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649565219879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92928862571716</t>
   </si>
   <si>
     <t xml:space="preserve">1.90269553661346</t>
@@ -2180,70 +2180,70 @@
     <t xml:space="preserve">1.89487433433533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87871026992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90843164920807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90061032772064</t>
+    <t xml:space="preserve">1.87871050834656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90843141078949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90061020851135</t>
   </si>
   <si>
     <t xml:space="preserve">1.89852440357208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92459583282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90999567508698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9287668466568</t>
+    <t xml:space="preserve">1.92459547519684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90999615192413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92876696586609</t>
   </si>
   <si>
     <t xml:space="preserve">1.93085300922394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94753885269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94858193397522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97934603691101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01636791229248</t>
+    <t xml:space="preserve">1.94753849506378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94858157634735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97934627532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0163676738739</t>
   </si>
   <si>
     <t xml:space="preserve">2.06955337524414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10448884963989</t>
+    <t xml:space="preserve">2.10448956489563</t>
   </si>
   <si>
     <t xml:space="preserve">2.16028165817261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18113970756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15975999832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14098930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1759250164032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19365382194519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19991016387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23380374908447</t>
+    <t xml:space="preserve">2.18113923072815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15976023674011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14098954200745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17592477798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19365358352661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19991064071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23380351066589</t>
   </si>
   <si>
     <t xml:space="preserve">2.19782471656799</t>
@@ -2252,13 +2252,13 @@
     <t xml:space="preserve">2.19104599952698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1456823348999</t>
+    <t xml:space="preserve">2.14568257331848</t>
   </si>
   <si>
     <t xml:space="preserve">2.1336886882782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08780336380005</t>
+    <t xml:space="preserve">2.08780384063721</t>
   </si>
   <si>
     <t xml:space="preserve">2.06486034393311</t>
@@ -2276,19 +2276,19 @@
     <t xml:space="preserve">2.0612108707428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00609588623047</t>
+    <t xml:space="preserve">2.00609564781189</t>
   </si>
   <si>
     <t xml:space="preserve">1.95326066017151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91174793243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88640940189362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581810474396</t>
+    <t xml:space="preserve">1.9117476940155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88640928268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581798553467</t>
   </si>
   <si>
     <t xml:space="preserve">1.85514008998871</t>
@@ -2297,19 +2297,19 @@
     <t xml:space="preserve">1.85621762275696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84651386737823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83357429504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8244092464447</t>
+    <t xml:space="preserve">1.84651398658752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83357453346252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82440912723541</t>
   </si>
   <si>
     <t xml:space="preserve">1.80985260009766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84166181087494</t>
+    <t xml:space="preserve">1.84166193008423</t>
   </si>
   <si>
     <t xml:space="preserve">1.8082355260849</t>
@@ -2324,55 +2324,55 @@
     <t xml:space="preserve">1.8395049571991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85675668716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83573114871979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85783541202545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85136556625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8653826713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90743494033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94301807880402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94086122512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97374796867371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95218324661255</t>
+    <t xml:space="preserve">1.85675692558289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83573126792908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85783529281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85136532783508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86538255214691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90743482112885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94301795959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94086110591888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.973748087883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95218336582184</t>
   </si>
   <si>
     <t xml:space="preserve">1.9511045217514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96242594718933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93169569969177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92145216464996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96080899238586</t>
+    <t xml:space="preserve">1.96242606639862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93169617652893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92145240306854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96080923080444</t>
   </si>
   <si>
     <t xml:space="preserve">2.03736519813538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09666919708252</t>
+    <t xml:space="preserve">2.09666895866394</t>
   </si>
   <si>
     <t xml:space="preserve">2.10098195075989</t>
@@ -2384,52 +2384,52 @@
     <t xml:space="preserve">2.07348656654358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05623435974121</t>
+    <t xml:space="preserve">2.05623459815979</t>
   </si>
   <si>
     <t xml:space="preserve">2.06539988517761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05084323883057</t>
+    <t xml:space="preserve">2.05084347724915</t>
   </si>
   <si>
     <t xml:space="preserve">2.07995653152466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0465304851532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02065253257751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0271213054657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01633977890015</t>
+    <t xml:space="preserve">2.04653072357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02065229415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02712154388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01633954048157</t>
   </si>
   <si>
     <t xml:space="preserve">1.96512222290039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94894766807556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92846155166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90204334259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82764446735382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81632232666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86484432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.836270570755</t>
+    <t xml:space="preserve">1.94894778728485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92846167087555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90204358100891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82764458656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81632244586945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86484444141388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83627033233643</t>
   </si>
   <si>
     <t xml:space="preserve">1.86430513858795</t>
@@ -2438,25 +2438,25 @@
     <t xml:space="preserve">1.83842647075653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87347018718719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72520983219147</t>
+    <t xml:space="preserve">1.87346994876862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72520971298218</t>
   </si>
   <si>
     <t xml:space="preserve">1.68854916095734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70795810222626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62385380268097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65943610668182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67614936828613</t>
+    <t xml:space="preserve">1.70795798301697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62385368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65943598747253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67614948749542</t>
   </si>
   <si>
     <t xml:space="preserve">1.62277519702911</t>
@@ -2465,28 +2465,28 @@
     <t xml:space="preserve">1.65080988407135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65727996826172</t>
+    <t xml:space="preserve">1.65727984905243</t>
   </si>
   <si>
     <t xml:space="preserve">1.64326250553131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65458393096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72952258586884</t>
+    <t xml:space="preserve">1.65458381175995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7295229434967</t>
   </si>
   <si>
     <t xml:space="preserve">1.71766245365143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75162708759308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73760950565338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74138355255127</t>
+    <t xml:space="preserve">1.75162696838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73760962486267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74138331413269</t>
   </si>
   <si>
     <t xml:space="preserve">1.77049648761749</t>
@@ -2495,13 +2495,13 @@
     <t xml:space="preserve">1.78828775882721</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79367876052856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80230510234833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86322700977325</t>
+    <t xml:space="preserve">1.79367899894714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80230522155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86322677135468</t>
   </si>
   <si>
     <t xml:space="preserve">1.88425254821777</t>
@@ -2510,22 +2510,22 @@
     <t xml:space="preserve">1.86592209339142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89449608325958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94247877597809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95164406299591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88802623748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89934825897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98237419128418</t>
+    <t xml:space="preserve">1.894495844841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94247889518738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95164394378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88802599906921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89934813976288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98237371444702</t>
   </si>
   <si>
     <t xml:space="preserve">1.92306983470917</t>
@@ -2534,40 +2534,40 @@
     <t xml:space="preserve">1.89395666122437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8740097284317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88533079624176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9095915555954</t>
+    <t xml:space="preserve">1.87400960922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88533103466034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90959143638611</t>
   </si>
   <si>
     <t xml:space="preserve">1.88047862052917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89180040359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87454795837402</t>
+    <t xml:space="preserve">1.89180064201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87454783916473</t>
   </si>
   <si>
     <t xml:space="preserve">1.88101804256439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89234018325806</t>
+    <t xml:space="preserve">1.89233982563019</t>
   </si>
   <si>
     <t xml:space="preserve">1.96134829521179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98291301727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02550482749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05515646934509</t>
+    <t xml:space="preserve">1.98291313648224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02550458908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05515599250793</t>
   </si>
   <si>
     <t xml:space="preserve">2.11122536659241</t>
@@ -2576,10 +2576,10 @@
     <t xml:space="preserve">2.16621661186218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18993854522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21905112266541</t>
+    <t xml:space="preserve">2.18993878364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21905064582825</t>
   </si>
   <si>
     <t xml:space="preserve">2.17807722091675</t>
@@ -2588,25 +2588,25 @@
     <t xml:space="preserve">2.17699956893921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19317317008972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19371247291565</t>
+    <t xml:space="preserve">2.19317293167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19371223449707</t>
   </si>
   <si>
     <t xml:space="preserve">2.15219926834106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16028618812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15651202201843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22606015205383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25193810462952</t>
+    <t xml:space="preserve">2.16028594970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15651226043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22605991363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25193786621094</t>
   </si>
   <si>
     <t xml:space="preserve">2.26703357696533</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">2.27458119392395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31232023239136</t>
+    <t xml:space="preserve">2.31232047080994</t>
   </si>
   <si>
     <t xml:space="preserve">2.3290331363678</t>
@@ -2630,19 +2630,19 @@
     <t xml:space="preserve">2.33658123016357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35383319854736</t>
+    <t xml:space="preserve">2.35383296012878</t>
   </si>
   <si>
     <t xml:space="preserve">2.38240718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45141553878784</t>
+    <t xml:space="preserve">2.45141577720642</t>
   </si>
   <si>
     <t xml:space="preserve">2.48430252075195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47028493881226</t>
+    <t xml:space="preserve">2.47028517723083</t>
   </si>
   <si>
     <t xml:space="preserve">2.41098117828369</t>
@@ -2651,73 +2651,73 @@
     <t xml:space="preserve">2.42445921897888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41852855682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39696383476257</t>
+    <t xml:space="preserve">2.41852831840515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39696359634399</t>
   </si>
   <si>
     <t xml:space="preserve">2.36569380760193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36946845054626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32094645500183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33819794654846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36677217483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37917256355286</t>
+    <t xml:space="preserve">2.36946821212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32094621658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33819818496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36677241325378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37917232513428</t>
   </si>
   <si>
     <t xml:space="preserve">2.40235543251038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37378096580505</t>
+    <t xml:space="preserve">2.37378144264221</t>
   </si>
   <si>
     <t xml:space="preserve">2.39911985397339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39588522911072</t>
+    <t xml:space="preserve">2.3958854675293</t>
   </si>
   <si>
     <t xml:space="preserve">2.42769384384155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40990281105042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44009375572205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45842409133911</t>
+    <t xml:space="preserve">2.40990257263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44009351730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45842385292053</t>
   </si>
   <si>
     <t xml:space="preserve">2.43470239639282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43146800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40127682685852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41691088676453</t>
+    <t xml:space="preserve">2.43146753311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40127658843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41691112518311</t>
   </si>
   <si>
     <t xml:space="preserve">2.47729349136353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47567653656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42499828338623</t>
+    <t xml:space="preserve">2.47567629814148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42499852180481</t>
   </si>
   <si>
     <t xml:space="preserve">2.4320068359375</t>
@@ -2726,13 +2726,13 @@
     <t xml:space="preserve">2.45518946647644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48861575126648</t>
+    <t xml:space="preserve">2.4886155128479</t>
   </si>
   <si>
     <t xml:space="preserve">2.49077177047729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47998976707458</t>
+    <t xml:space="preserve">2.47998952865601</t>
   </si>
   <si>
     <t xml:space="preserve">2.48807621002197</t>
@@ -2744,19 +2744,19 @@
     <t xml:space="preserve">2.45950245857239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47891116142273</t>
+    <t xml:space="preserve">2.47891139984131</t>
   </si>
   <si>
     <t xml:space="preserve">2.46381521224976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49508476257324</t>
+    <t xml:space="preserve">2.49508428573608</t>
   </si>
   <si>
     <t xml:space="preserve">2.40397191047668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40451145172119</t>
+    <t xml:space="preserve">2.40451121330261</t>
   </si>
   <si>
     <t xml:space="preserve">2.38941550254822</t>
@@ -2765,13 +2765,13 @@
     <t xml:space="preserve">2.43793749809265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4163715839386</t>
+    <t xml:space="preserve">2.41637182235718</t>
   </si>
   <si>
     <t xml:space="preserve">2.33226823806763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23738098144531</t>
+    <t xml:space="preserve">2.23738145828247</t>
   </si>
   <si>
     <t xml:space="preserve">2.28320717811584</t>
@@ -2783,25 +2783,25 @@
     <t xml:space="preserve">2.35976386070251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33765959739685</t>
+    <t xml:space="preserve">2.33765983581543</t>
   </si>
   <si>
     <t xml:space="preserve">2.34682488441467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35760688781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44440650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42338132858276</t>
+    <t xml:space="preserve">2.3576066493988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44440674781799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42338109016418</t>
   </si>
   <si>
     <t xml:space="preserve">2.50371050834656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23252892494202</t>
+    <t xml:space="preserve">2.2325291633606</t>
   </si>
   <si>
     <t xml:space="preserve">2.22498154640198</t>
@@ -2813,40 +2813,40 @@
     <t xml:space="preserve">2.19532990455627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06809496879578</t>
+    <t xml:space="preserve">2.06809544563293</t>
   </si>
   <si>
     <t xml:space="preserve">2.07025194168091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11607766151428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03682589530945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94032192230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79260051250458</t>
+    <t xml:space="preserve">2.11607789993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03682565689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94032180309296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79260063171387</t>
   </si>
   <si>
     <t xml:space="preserve">1.74623548984528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68261861801147</t>
+    <t xml:space="preserve">1.68261849880219</t>
   </si>
   <si>
     <t xml:space="preserve">1.64703631401062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42329812049866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35428965091705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35752439498901</t>
+    <t xml:space="preserve">1.42329823970795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35428977012634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3575245141983</t>
   </si>
   <si>
     <t xml:space="preserve">1.1165337562561</t>
@@ -2855,19 +2855,19 @@
     <t xml:space="preserve">1.36668956279755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26209878921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25778603553772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22435975074768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24322938919067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3882542848587</t>
+    <t xml:space="preserve">1.26209890842438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25778591632843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22435963153839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24322926998138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38825440406799</t>
   </si>
   <si>
     <t xml:space="preserve">1.5828800201416</t>
@@ -2876,25 +2876,25 @@
     <t xml:space="preserve">1.62223613262177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59689724445343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56562793254852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46481132507324</t>
+    <t xml:space="preserve">1.59689736366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56562805175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46481120586395</t>
   </si>
   <si>
     <t xml:space="preserve">1.46427202224731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50955855846405</t>
+    <t xml:space="preserve">1.50955843925476</t>
   </si>
   <si>
     <t xml:space="preserve">1.46588885784149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45402848720551</t>
+    <t xml:space="preserve">1.45402824878693</t>
   </si>
   <si>
     <t xml:space="preserve">1.4470192193985</t>
@@ -2918,19 +2918,19 @@
     <t xml:space="preserve">1.24808144569397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19416892528534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20656859874725</t>
+    <t xml:space="preserve">1.19416880607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20656883716583</t>
   </si>
   <si>
     <t xml:space="preserve">1.20764708518982</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15535128116608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15373373031616</t>
+    <t xml:space="preserve">1.15535140037537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15373361110687</t>
   </si>
   <si>
     <t xml:space="preserve">1.19255125522614</t>
@@ -2939,25 +2939,25 @@
     <t xml:space="preserve">1.14295160770416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17529928684235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24916005134583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26910722255707</t>
+    <t xml:space="preserve">1.17529952526093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24915993213654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26910710334778</t>
   </si>
   <si>
     <t xml:space="preserve">1.21411609649658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18823826313019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18608140945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17206406593323</t>
+    <t xml:space="preserve">1.1882381439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18608129024506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17206394672394</t>
   </si>
   <si>
     <t xml:space="preserve">1.15265595912933</t>
@@ -2966,7 +2966,7 @@
     <t xml:space="preserve">1.13971626758575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13216888904572</t>
+    <t xml:space="preserve">1.13216876983643</t>
   </si>
   <si>
     <t xml:space="preserve">1.09442961215973</t>
@@ -2975,19 +2975,19 @@
     <t xml:space="preserve">1.08580362796783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0820300579071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12548649311066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06277644634247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04434823989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02454459667206</t>
+    <t xml:space="preserve">1.08202970027924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12548661231995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06277668476105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0443480014801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02454471588135</t>
   </si>
   <si>
     <t xml:space="preserve">1.02537024021149</t>
@@ -2999,7 +2999,7 @@
     <t xml:space="preserve">1.13538825511932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1766449213028</t>
+    <t xml:space="preserve">1.17664504051208</t>
   </si>
   <si>
     <t xml:space="preserve">1.22395288944244</t>
@@ -3008,10 +3008,10 @@
     <t xml:space="preserve">1.18104648590088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21020066738129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23220491409302</t>
+    <t xml:space="preserve">1.210200548172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23220479488373</t>
   </si>
   <si>
     <t xml:space="preserve">1.27181112766266</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">1.44288992881775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37027740478516</t>
+    <t xml:space="preserve">1.37027728557587</t>
   </si>
   <si>
     <t xml:space="preserve">1.28281319141388</t>
@@ -3041,16 +3041,16 @@
     <t xml:space="preserve">1.26521050930023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34827411174774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3213198184967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28501319885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29821598529816</t>
+    <t xml:space="preserve">1.34827399253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32131969928741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28501296043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29821586608887</t>
   </si>
   <si>
     <t xml:space="preserve">1.24815714359283</t>
@@ -3062,10 +3062,10 @@
     <t xml:space="preserve">1.21405112743378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22340261936188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19534814357758</t>
+    <t xml:space="preserve">1.22340285778046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19534802436829</t>
   </si>
   <si>
     <t xml:space="preserve">1.21680212020874</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">1.19314813613892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20194947719574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19644856452942</t>
+    <t xml:space="preserve">1.20194959640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19644844532013</t>
   </si>
   <si>
     <t xml:space="preserve">1.23275423049927</t>
@@ -3092,22 +3092,22 @@
     <t xml:space="preserve">1.18159580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24100637435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37082755565643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37192809581757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37907874584198</t>
+    <t xml:space="preserve">1.24100613594055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37082767486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37192797660828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37907862663269</t>
   </si>
   <si>
     <t xml:space="preserve">1.39723169803619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3680773973465</t>
+    <t xml:space="preserve">1.36807751655579</t>
   </si>
   <si>
     <t xml:space="preserve">1.41538548469543</t>
@@ -3116,22 +3116,22 @@
     <t xml:space="preserve">1.40218257904053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35377514362335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33342134952545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27786231040955</t>
+    <t xml:space="preserve">1.35377502441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33342158794403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27786219120026</t>
   </si>
   <si>
     <t xml:space="preserve">1.28171288967133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24045622348785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.225053191185</t>
+    <t xml:space="preserve">1.24045610427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22505331039429</t>
   </si>
   <si>
     <t xml:space="preserve">1.17279446125031</t>
@@ -3140,28 +3140,28 @@
     <t xml:space="preserve">1.14253985881805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12768721580505</t>
+    <t xml:space="preserve">1.12768733501434</t>
   </si>
   <si>
     <t xml:space="preserve">1.19589829444885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28721380233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30371618270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30481660366058</t>
+    <t xml:space="preserve">1.28721404075623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30371630191803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30481672286987</t>
   </si>
   <si>
     <t xml:space="preserve">1.27401173114777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27731204032898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28886437416077</t>
+    <t xml:space="preserve">1.27731215953827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28886425495148</t>
   </si>
   <si>
     <t xml:space="preserve">1.26796054840088</t>
@@ -3170,7 +3170,7 @@
     <t xml:space="preserve">1.25420844554901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29216468334198</t>
+    <t xml:space="preserve">1.29216480255127</t>
   </si>
   <si>
     <t xml:space="preserve">1.2916145324707</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">1.2822630405426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30921721458435</t>
+    <t xml:space="preserve">1.30921733379364</t>
   </si>
   <si>
     <t xml:space="preserve">1.26575982570648</t>
@@ -3194,10 +3194,10 @@
     <t xml:space="preserve">1.18929767608643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2008490562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19479870796204</t>
+    <t xml:space="preserve">1.20084917545319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19479858875275</t>
   </si>
   <si>
     <t xml:space="preserve">1.16234254837036</t>
@@ -3206,13 +3206,13 @@
     <t xml:space="preserve">1.17829561233521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20855104923248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20524990558624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20469975471497</t>
+    <t xml:space="preserve">1.2085508108139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20524978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20469963550568</t>
   </si>
   <si>
     <t xml:space="preserve">1.1898478269577</t>
@@ -3233,70 +3233,70 @@
     <t xml:space="preserve">1.11118412017822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0781786441803</t>
+    <t xml:space="preserve">1.07817852497101</t>
   </si>
   <si>
     <t xml:space="preserve">1.07542848587036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10348320007324</t>
+    <t xml:space="preserve">1.10348308086395</t>
   </si>
   <si>
     <t xml:space="preserve">1.07267844676971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09358131885529</t>
+    <t xml:space="preserve">1.09358143806458</t>
   </si>
   <si>
     <t xml:space="preserve">1.07157802581787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04242289066315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965468287467957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0056961774826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963436722755432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9723761677742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977252304553986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952465355396271</t>
+    <t xml:space="preserve">1.04242300987244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965468227863312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00569605827332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963436543941498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972376048564911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977252066135406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952465415000916</t>
   </si>
   <si>
     <t xml:space="preserve">0.903704285621643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907361507415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902485311031342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975626766681671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96262389421463</t>
+    <t xml:space="preserve">0.907361328601837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902485191822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975626885890961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962623953819275</t>
   </si>
   <si>
     <t xml:space="preserve">1.0564888715744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98903614282608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96424925327301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978064954280853</t>
+    <t xml:space="preserve">0.989036083221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964249134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978064835071564</t>
   </si>
   <si>
     <t xml:space="preserve">0.968312621116638</t>
@@ -3305,58 +3305,58 @@
     <t xml:space="preserve">0.907767653465271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842346727848053</t>
+    <t xml:space="preserve">0.842346668243408</t>
   </si>
   <si>
     <t xml:space="preserve">0.831781804561615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826499342918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857381403446198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879323780536652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899641036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880136430263519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85169243812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978471219539642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970344424247742</t>
+    <t xml:space="preserve">0.826499283313751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857381284236908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879323840141296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899640917778015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880136489868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8516925573349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978471100330353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970344483852386</t>
   </si>
   <si>
     <t xml:space="preserve">1.00691521167755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07233619689941</t>
+    <t xml:space="preserve">1.07233607769012</t>
   </si>
   <si>
     <t xml:space="preserve">1.08493280410767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1511664390564</t>
+    <t xml:space="preserve">1.15116655826569</t>
   </si>
   <si>
     <t xml:space="preserve">1.15848064422607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20642900466919</t>
+    <t xml:space="preserve">1.20642912387848</t>
   </si>
   <si>
     <t xml:space="preserve">1.23202860355377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23487305641174</t>
+    <t xml:space="preserve">1.23487293720245</t>
   </si>
   <si>
     <t xml:space="preserve">1.23893630504608</t>
@@ -3371,10 +3371,10 @@
     <t xml:space="preserve">1.19058179855347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20764803886414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19464504718781</t>
+    <t xml:space="preserve">1.20764791965485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19464516639709</t>
   </si>
   <si>
     <t xml:space="preserve">1.20561635494232</t>
@@ -3383,142 +3383,142 @@
     <t xml:space="preserve">1.19667673110962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1901752948761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19830226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23284113407135</t>
+    <t xml:space="preserve">1.19017541408539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19830214977264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23284125328064</t>
   </si>
   <si>
     <t xml:space="preserve">1.1922070980072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18936264514923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20074021816254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18448650836945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19180083274841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18001687526703</t>
+    <t xml:space="preserve">1.18936276435852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20074009895325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18448662757874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19180071353912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18001675605774</t>
   </si>
   <si>
     <t xml:space="preserve">1.1324747800827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15807437896729</t>
+    <t xml:space="preserve">1.158074259758</t>
   </si>
   <si>
     <t xml:space="preserve">1.20277190208435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21902549266815</t>
+    <t xml:space="preserve">1.21902561187744</t>
   </si>
   <si>
     <t xml:space="preserve">1.21049249172211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18814361095428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19789576530457</t>
+    <t xml:space="preserve">1.18814373016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19789588451385</t>
   </si>
   <si>
     <t xml:space="preserve">1.26169145107269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3397091627121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32467448711395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35189926624298</t>
+    <t xml:space="preserve">1.33970904350281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32467436790466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35189950466156</t>
   </si>
   <si>
     <t xml:space="preserve">1.35393118858337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3372710943222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31614148616791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3076080083847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33645844459534</t>
+    <t xml:space="preserve">1.33727097511292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31614136695862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30760812759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33645832538605</t>
   </si>
   <si>
     <t xml:space="preserve">1.31736040115356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34011542797089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31654763221741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28038322925568</t>
+    <t xml:space="preserve">1.34011554718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3165477514267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28038311004639</t>
   </si>
   <si>
     <t xml:space="preserve">1.24178075790405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27631974220276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23853003978729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26656770706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24584424495697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25478374958038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37993705272675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44495165348053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55181956291199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5193122625351</t>
+    <t xml:space="preserve">1.27631986141205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23853015899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26656758785248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24584412574768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25478363037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37993693351746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44495177268982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55181968212128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51931214332581</t>
   </si>
   <si>
     <t xml:space="preserve">1.54409909248352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51606142520905</t>
+    <t xml:space="preserve">1.51606154441833</t>
   </si>
   <si>
     <t xml:space="preserve">1.51321709156036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53028345108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50793480873108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4803032875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4547039270401</t>
+    <t xml:space="preserve">1.53028357028961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50793468952179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48030340671539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45470380783081</t>
   </si>
   <si>
     <t xml:space="preserve">1.51240432262421</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">1.51362347602844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49777626991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50671577453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57010495662689</t>
+    <t xml:space="preserve">1.49777615070343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50671553611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57010507583618</t>
   </si>
   <si>
     <t xml:space="preserve">1.61236453056335</t>
@@ -3563,37 +3563,37 @@
     <t xml:space="preserve">1.58229529857635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61724054813385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66762697696686</t>
+    <t xml:space="preserve">1.61724066734314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66762709617615</t>
   </si>
   <si>
     <t xml:space="preserve">1.65543675422668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58960926532745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54978787899017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54816246032715</t>
+    <t xml:space="preserve">1.58960938453674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54978775978088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54816257953644</t>
   </si>
   <si>
     <t xml:space="preserve">1.56969857215881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55791485309601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55872750282288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54247379302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54369282722473</t>
+    <t xml:space="preserve">1.55791461467743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55872738361359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5424736738205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54369270801544</t>
   </si>
   <si>
     <t xml:space="preserve">1.52500104904175</t>
@@ -3608,7 +3608,7 @@
     <t xml:space="preserve">1.53678500652313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51077914237976</t>
+    <t xml:space="preserve">1.51077890396118</t>
   </si>
   <si>
     <t xml:space="preserve">1.51971864700317</t>
@@ -3617,16 +3617,16 @@
     <t xml:space="preserve">1.5469434261322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52947080135345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53841030597687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53719139099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58554589748383</t>
+    <t xml:space="preserve">1.52947068214417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53841042518616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53719127178192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58554601669312</t>
   </si>
   <si>
     <t xml:space="preserve">1.50021409988403</t>
@@ -3644,16 +3644,16 @@
     <t xml:space="preserve">1.52215671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5054966211319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53922319412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52987706661224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52337574958801</t>
+    <t xml:space="preserve">1.50549650192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53922307491302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52987730503082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52337563037872</t>
   </si>
   <si>
     <t xml:space="preserve">1.54084837436676</t>
@@ -3662,43 +3662,43 @@
     <t xml:space="preserve">1.57091760635376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56319713592529</t>
+    <t xml:space="preserve">1.563197016716</t>
   </si>
   <si>
     <t xml:space="preserve">1.62374210357666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63837039470673</t>
+    <t xml:space="preserve">1.63837051391602</t>
   </si>
   <si>
     <t xml:space="preserve">1.61398994922638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62943112850189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63024365901947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63755786418915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6066757440567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59164118766785</t>
+    <t xml:space="preserve">1.62943089008331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63024353981018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63755774497986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60667562484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59164106845856</t>
   </si>
   <si>
     <t xml:space="preserve">1.62089776992798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7249767780304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7631254196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67853510379791</t>
+    <t xml:space="preserve">1.72497689723969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76312530040741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6785352230072</t>
   </si>
   <si>
     <t xml:space="preserve">1.70009744167328</t>
@@ -3722,7 +3722,7 @@
     <t xml:space="preserve">1.67687666416168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69926810264587</t>
+    <t xml:space="preserve">1.69926822185516</t>
   </si>
   <si>
     <t xml:space="preserve">1.68848693370819</t>
@@ -3740,13 +3740,13 @@
     <t xml:space="preserve">1.69263350963593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66609561443329</t>
+    <t xml:space="preserve">1.666095495224</t>
   </si>
   <si>
     <t xml:space="preserve">1.6428747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63084971904755</t>
+    <t xml:space="preserve">1.63084959983826</t>
   </si>
   <si>
     <t xml:space="preserve">1.59394502639771</t>
@@ -3758,13 +3758,13 @@
     <t xml:space="preserve">1.58813977241516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56699228286743</t>
+    <t xml:space="preserve">1.56699240207672</t>
   </si>
   <si>
     <t xml:space="preserve">1.58440792560577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57735872268677</t>
+    <t xml:space="preserve">1.57735860347748</t>
   </si>
   <si>
     <t xml:space="preserve">1.52718508243561</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">1.51474547386169</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52220916748047</t>
+    <t xml:space="preserve">1.52220928668976</t>
   </si>
   <si>
     <t xml:space="preserve">1.53133165836334</t>
@@ -3782,7 +3782,7 @@
     <t xml:space="preserve">1.52055060863495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53257572650909</t>
+    <t xml:space="preserve">1.5325756072998</t>
   </si>
   <si>
     <t xml:space="preserve">1.49193906784058</t>
@@ -3791,13 +3791,13 @@
     <t xml:space="preserve">1.47867012023926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43056976795197</t>
+    <t xml:space="preserve">1.43056988716125</t>
   </si>
   <si>
     <t xml:space="preserve">1.46291315555573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46954762935638</t>
+    <t xml:space="preserve">1.46954751014709</t>
   </si>
   <si>
     <t xml:space="preserve">1.41937410831451</t>
@@ -3827,16 +3827,16 @@
     <t xml:space="preserve">1.33893048763275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35924875736237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34349155426025</t>
+    <t xml:space="preserve">1.35924863815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34349167346954</t>
   </si>
   <si>
     <t xml:space="preserve">1.34473562240601</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34846746921539</t>
+    <t xml:space="preserve">1.34846758842468</t>
   </si>
   <si>
     <t xml:space="preserve">1.36546850204468</t>
@@ -3845,16 +3845,16 @@
     <t xml:space="preserve">1.36505389213562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34639418125153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35510206222534</t>
+    <t xml:space="preserve">1.34639430046082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35510194301605</t>
   </si>
   <si>
     <t xml:space="preserve">1.49940299987793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4960857629776</t>
+    <t xml:space="preserve">1.49608564376831</t>
   </si>
   <si>
     <t xml:space="preserve">1.49028050899506</t>
@@ -3878,10 +3878,10 @@
     <t xml:space="preserve">1.48032879829407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45627868175507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45130276679993</t>
+    <t xml:space="preserve">1.45627856254578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45130264759064</t>
   </si>
   <si>
     <t xml:space="preserve">1.48240196704865</t>
@@ -3896,16 +3896,16 @@
     <t xml:space="preserve">1.49898838996887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52262389659882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50479340553284</t>
+    <t xml:space="preserve">1.52262401580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50479352474213</t>
   </si>
   <si>
     <t xml:space="preserve">1.52801430225372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53755152225494</t>
+    <t xml:space="preserve">1.53755140304565</t>
   </si>
   <si>
     <t xml:space="preserve">1.53050231933594</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">1.48323130607605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40403175354004</t>
+    <t xml:space="preserve">1.40403163433075</t>
   </si>
   <si>
     <t xml:space="preserve">1.4222766160965</t>
@@ -3941,7 +3941,7 @@
     <t xml:space="preserve">1.46374237537384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48406064510345</t>
+    <t xml:space="preserve">1.48406052589417</t>
   </si>
   <si>
     <t xml:space="preserve">1.52096521854401</t>
@@ -3986,13 +3986,13 @@
     <t xml:space="preserve">1.70839047431946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71087849140167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72331821918488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69843876361847</t>
+    <t xml:space="preserve">1.71087837219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72331833839417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69843888282776</t>
   </si>
   <si>
     <t xml:space="preserve">1.69760942459106</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">1.57113885879517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56201636791229</t>
+    <t xml:space="preserve">1.56201648712158</t>
   </si>
   <si>
     <t xml:space="preserve">1.59021306037903</t>
@@ -4019,7 +4019,7 @@
     <t xml:space="preserve">1.5877251625061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56906545162201</t>
+    <t xml:space="preserve">1.5690655708313</t>
   </si>
   <si>
     <t xml:space="preserve">1.59601831436157</t>
@@ -4037,22 +4037,22 @@
     <t xml:space="preserve">1.58482253551483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59726226329803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57652938365936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53174638748169</t>
+    <t xml:space="preserve">1.59726238250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57652926445007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5317462682724</t>
   </si>
   <si>
     <t xml:space="preserve">1.489865899086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49567103385925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48862195014954</t>
+    <t xml:space="preserve">1.49567115306854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48862183094025</t>
   </si>
   <si>
     <t xml:space="preserve">1.47079157829285</t>
@@ -4061,31 +4061,31 @@
     <t xml:space="preserve">1.40734899044037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39615333080292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39490926265717</t>
+    <t xml:space="preserve">1.39615321159363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39490914344788</t>
   </si>
   <si>
     <t xml:space="preserve">1.43513095378876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42144739627838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40817832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45254671573639</t>
+    <t xml:space="preserve">1.42144727706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40817821025848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4525465965271</t>
   </si>
   <si>
     <t xml:space="preserve">1.46498644351959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43969213962555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4471560716629</t>
+    <t xml:space="preserve">1.43969225883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44715595245361</t>
   </si>
   <si>
     <t xml:space="preserve">1.43637502193451</t>
@@ -4118,7 +4118,7 @@
     <t xml:space="preserve">1.51515996456146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51184260845184</t>
+    <t xml:space="preserve">1.51184272766113</t>
   </si>
   <si>
     <t xml:space="preserve">1.56326031684875</t>
@@ -4127,31 +4127,31 @@
     <t xml:space="preserve">1.5931156873703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58896899223328</t>
+    <t xml:space="preserve">1.58896911144257</t>
   </si>
   <si>
     <t xml:space="preserve">1.60057950019836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59892094135284</t>
+    <t xml:space="preserve">1.59892082214355</t>
   </si>
   <si>
     <t xml:space="preserve">1.62711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62131249904633</t>
+    <t xml:space="preserve">1.62131237983704</t>
   </si>
   <si>
     <t xml:space="preserve">1.6055554151535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59062778949738</t>
+    <t xml:space="preserve">1.59062767028809</t>
   </si>
   <si>
     <t xml:space="preserve">1.56077229976654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48820734024048</t>
+    <t xml:space="preserve">1.48820722103119</t>
   </si>
   <si>
     <t xml:space="preserve">1.48281669616699</t>
@@ -4160,10 +4160,10 @@
     <t xml:space="preserve">1.5504058599472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58689594268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5263557434082</t>
+    <t xml:space="preserve">1.5868958234787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52635586261749</t>
   </si>
   <si>
     <t xml:space="preserve">1.53796625137329</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">1.63955724239349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62297117710114</t>
+    <t xml:space="preserve">1.62297105789185</t>
   </si>
   <si>
     <t xml:space="preserve">1.68268179893494</t>
@@ -4193,13 +4193,13 @@
     <t xml:space="preserve">1.79049277305603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76893055438995</t>
+    <t xml:space="preserve">1.76893067359924</t>
   </si>
   <si>
     <t xml:space="preserve">1.67438864707947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62545907497406</t>
+    <t xml:space="preserve">1.62545895576477</t>
   </si>
   <si>
     <t xml:space="preserve">1.50189089775085</t>
@@ -4250,13 +4250,13 @@
     <t xml:space="preserve">1.3020259141922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31902694702148</t>
+    <t xml:space="preserve">1.31902682781219</t>
   </si>
   <si>
     <t xml:space="preserve">1.29912328720093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28626883029938</t>
+    <t xml:space="preserve">1.28626894950867</t>
   </si>
   <si>
     <t xml:space="preserve">1.29497671127319</t>
@@ -4265,13 +4265,13 @@
     <t xml:space="preserve">1.31156301498413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38868927955627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36132180690765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31819760799408</t>
+    <t xml:space="preserve">1.38868939876556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36132192611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31819748878479</t>
   </si>
   <si>
     <t xml:space="preserve">1.33271050453186</t>
@@ -4283,7 +4283,7 @@
     <t xml:space="preserve">1.27756106853485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32814943790436</t>
+    <t xml:space="preserve">1.32814931869507</t>
   </si>
   <si>
     <t xml:space="preserve">1.32607591152191</t>
@@ -4322,7 +4322,7 @@
     <t xml:space="preserve">1.31280696392059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33105206489563</t>
+    <t xml:space="preserve">1.33105194568634</t>
   </si>
   <si>
     <t xml:space="preserve">1.32234394550323</t>
@@ -4343,7 +4343,7 @@
     <t xml:space="preserve">1.40983700752258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44425356388092</t>
+    <t xml:space="preserve">1.44425344467163</t>
   </si>
   <si>
     <t xml:space="preserve">1.44466805458069</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">1.46623039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44840013980865</t>
+    <t xml:space="preserve">1.44840002059937</t>
   </si>
   <si>
     <t xml:space="preserve">1.54587602615356</t>
@@ -5892,6 +5892,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.86899995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04400014877319</t>
   </si>
 </sst>
 </file>
@@ -9007,7 +9010,7 @@
         <v>2.94579291343689</v>
       </c>
       <c r="G107" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H107" t="s">
         <v>9</v>
@@ -9033,7 +9036,7 @@
         <v>3.03920292854309</v>
       </c>
       <c r="G108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H108" t="s">
         <v>9</v>
@@ -9059,7 +9062,7 @@
         <v>2.91736388206482</v>
       </c>
       <c r="G109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H109" t="s">
         <v>9</v>
@@ -9085,7 +9088,7 @@
         <v>2.90382599830627</v>
       </c>
       <c r="G110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H110" t="s">
         <v>9</v>
@@ -9111,7 +9114,7 @@
         <v>3.03920292854309</v>
       </c>
       <c r="G111" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H111" t="s">
         <v>9</v>
@@ -9137,7 +9140,7 @@
         <v>2.94173097610474</v>
       </c>
       <c r="G112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H112" t="s">
         <v>9</v>
@@ -9163,7 +9166,7 @@
         <v>2.99723601341248</v>
       </c>
       <c r="G113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H113" t="s">
         <v>9</v>
@@ -9189,7 +9192,7 @@
         <v>2.80094003677368</v>
       </c>
       <c r="G114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H114" t="s">
         <v>9</v>
@@ -9215,7 +9218,7 @@
         <v>2.63036489486694</v>
       </c>
       <c r="G115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H115" t="s">
         <v>9</v>
@@ -9241,7 +9244,7 @@
         <v>2.55590796470642</v>
       </c>
       <c r="G116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H116" t="s">
         <v>9</v>
@@ -9267,7 +9270,7 @@
         <v>2.54778599739075</v>
       </c>
       <c r="G117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H117" t="s">
         <v>9</v>
@@ -9293,7 +9296,7 @@
         <v>2.4814510345459</v>
       </c>
       <c r="G118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -9319,7 +9322,7 @@
         <v>2.72783708572388</v>
       </c>
       <c r="G119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -9345,7 +9348,7 @@
         <v>2.85102891921997</v>
       </c>
       <c r="G120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -9371,7 +9374,7 @@
         <v>2.92413210868835</v>
       </c>
       <c r="G121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -9397,7 +9400,7 @@
         <v>2.91194891929626</v>
       </c>
       <c r="G122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -9423,7 +9426,7 @@
         <v>3.13531994819641</v>
       </c>
       <c r="G123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -9449,7 +9452,7 @@
         <v>2.36367392539978</v>
       </c>
       <c r="G124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -9475,7 +9478,7 @@
         <v>2.33930611610413</v>
       </c>
       <c r="G125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -9501,7 +9504,7 @@
         <v>2.28380107879639</v>
       </c>
       <c r="G126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -9527,7 +9530,7 @@
         <v>2.159255027771</v>
       </c>
       <c r="G127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -9553,7 +9556,7 @@
         <v>2.21882104873657</v>
       </c>
       <c r="G128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -9579,7 +9582,7 @@
         <v>2.11187291145325</v>
       </c>
       <c r="G129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -9605,7 +9608,7 @@
         <v>1.96972799301147</v>
       </c>
       <c r="G130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -9631,7 +9634,7 @@
         <v>1.97108197212219</v>
       </c>
       <c r="G131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -9657,7 +9660,7 @@
         <v>1.83028995990753</v>
       </c>
       <c r="G132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -9683,7 +9686,7 @@
         <v>1.74770998954773</v>
       </c>
       <c r="G133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -9709,7 +9712,7 @@
         <v>2.03064703941345</v>
       </c>
       <c r="G134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -9735,7 +9738,7 @@
         <v>2.12541103363037</v>
       </c>
       <c r="G135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -9761,7 +9764,7 @@
         <v>2.29869294166565</v>
       </c>
       <c r="G136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -9787,7 +9790,7 @@
         <v>2.18362307548523</v>
       </c>
       <c r="G137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -9813,7 +9816,7 @@
         <v>2.27703309059143</v>
       </c>
       <c r="G138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -9839,7 +9842,7 @@
         <v>2.3041079044342</v>
       </c>
       <c r="G139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -9865,7 +9868,7 @@
         <v>2.31764602661133</v>
       </c>
       <c r="G140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -9891,7 +9894,7 @@
         <v>2.29598498344421</v>
       </c>
       <c r="G141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -9917,7 +9920,7 @@
         <v>2.32035303115845</v>
       </c>
       <c r="G142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -9943,7 +9946,7 @@
         <v>2.39480996131897</v>
       </c>
       <c r="G143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -9969,7 +9972,7 @@
         <v>2.37721109390259</v>
       </c>
       <c r="G144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -9995,7 +9998,7 @@
         <v>2.31358408927917</v>
       </c>
       <c r="G145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -10021,7 +10024,7 @@
         <v>2.32441401481628</v>
       </c>
       <c r="G146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -10047,7 +10050,7 @@
         <v>2.43136191368103</v>
       </c>
       <c r="G147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -10073,7 +10076,7 @@
         <v>2.35555100440979</v>
       </c>
       <c r="G148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -10099,7 +10102,7 @@
         <v>2.48415899276733</v>
       </c>
       <c r="G149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -10125,7 +10128,7 @@
         <v>2.34336709976196</v>
       </c>
       <c r="G150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -10151,7 +10154,7 @@
         <v>2.05366110801697</v>
       </c>
       <c r="G151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -10177,7 +10180,7 @@
         <v>2.13624095916748</v>
       </c>
       <c r="G152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -10203,7 +10206,7 @@
         <v>2.14707088470459</v>
       </c>
       <c r="G153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -10229,7 +10232,7 @@
         <v>2.42730093002319</v>
       </c>
       <c r="G154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -10255,7 +10258,7 @@
         <v>2.38262605667114</v>
       </c>
       <c r="G155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -10281,7 +10284,7 @@
         <v>2.43000793457031</v>
       </c>
       <c r="G156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -10307,7 +10310,7 @@
         <v>2.41511702537537</v>
       </c>
       <c r="G157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -10333,7 +10336,7 @@
         <v>2.41376304626465</v>
       </c>
       <c r="G158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -10359,7 +10362,7 @@
         <v>2.37991905212402</v>
       </c>
       <c r="G159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -10385,7 +10388,7 @@
         <v>2.36231994628906</v>
       </c>
       <c r="G160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -10411,7 +10414,7 @@
         <v>2.27432489395142</v>
       </c>
       <c r="G161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -10437,7 +10440,7 @@
         <v>2.31493806838989</v>
       </c>
       <c r="G162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -10463,7 +10466,7 @@
         <v>2.18091511726379</v>
       </c>
       <c r="G163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -10489,7 +10492,7 @@
         <v>2.19580698013306</v>
       </c>
       <c r="G164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -10515,7 +10518,7 @@
         <v>2.32170701026917</v>
       </c>
       <c r="G165" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -10541,7 +10544,7 @@
         <v>2.37179589271545</v>
       </c>
       <c r="G166" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -10567,7 +10570,7 @@
         <v>2.30275392532349</v>
       </c>
       <c r="G167" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -10593,7 +10596,7 @@
         <v>2.32441401481628</v>
       </c>
       <c r="G168" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -10619,7 +10622,7 @@
         <v>2.25537204742432</v>
       </c>
       <c r="G169" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -10645,7 +10648,7 @@
         <v>2.31899905204773</v>
       </c>
       <c r="G170" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -10671,7 +10674,7 @@
         <v>2.33524489402771</v>
       </c>
       <c r="G171" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -10697,7 +10700,7 @@
         <v>2.37856507301331</v>
       </c>
       <c r="G172" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -10723,7 +10726,7 @@
         <v>2.41105508804321</v>
       </c>
       <c r="G173" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -10749,7 +10752,7 @@
         <v>2.41105508804321</v>
       </c>
       <c r="G174" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -10775,7 +10778,7 @@
         <v>2.36773490905762</v>
       </c>
       <c r="G175" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -10801,7 +10804,7 @@
         <v>2.44760704040527</v>
       </c>
       <c r="G176" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -10827,7 +10830,7 @@
         <v>2.45166802406311</v>
       </c>
       <c r="G177" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -10853,7 +10856,7 @@
         <v>2.40293288230896</v>
       </c>
       <c r="G178" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -10879,7 +10882,7 @@
         <v>2.35690498352051</v>
       </c>
       <c r="G179" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -10905,7 +10908,7 @@
         <v>2.29463195800781</v>
       </c>
       <c r="G180" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -10931,7 +10934,7 @@
         <v>2.3041079044342</v>
       </c>
       <c r="G181" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -10957,7 +10960,7 @@
         <v>2.29598498344421</v>
       </c>
       <c r="G182" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -10983,7 +10986,7 @@
         <v>2.21746706962585</v>
       </c>
       <c r="G183" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -11009,7 +11012,7 @@
         <v>2.25131106376648</v>
       </c>
       <c r="G184" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -11035,7 +11038,7 @@
         <v>2.15519404411316</v>
       </c>
       <c r="G185" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -11061,7 +11064,7 @@
         <v>2.25672602653503</v>
       </c>
       <c r="G186" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -11087,7 +11090,7 @@
         <v>2.26214098930359</v>
       </c>
       <c r="G187" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -11113,7 +11116,7 @@
         <v>2.19580698013306</v>
       </c>
       <c r="G188" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -11139,7 +11142,7 @@
         <v>2.16060900688171</v>
       </c>
       <c r="G189" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -11165,7 +11168,7 @@
         <v>2.12676501274109</v>
       </c>
       <c r="G190" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -11191,7 +11194,7 @@
         <v>2.17414689064026</v>
       </c>
       <c r="G191" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -11217,7 +11220,7 @@
         <v>2.17820811271667</v>
       </c>
       <c r="G192" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -11243,7 +11246,7 @@
         <v>2.24183511734009</v>
       </c>
       <c r="G193" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -11269,7 +11272,7 @@
         <v>2.1903920173645</v>
       </c>
       <c r="G194" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -11295,7 +11298,7 @@
         <v>2.18362307548523</v>
       </c>
       <c r="G195" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -11321,7 +11324,7 @@
         <v>2.29327797889709</v>
       </c>
       <c r="G196" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -11347,7 +11350,7 @@
         <v>2.30004692077637</v>
       </c>
       <c r="G197" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -11373,7 +11376,7 @@
         <v>2.26755595207214</v>
       </c>
       <c r="G198" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -11399,7 +11402,7 @@
         <v>2.34878206253052</v>
       </c>
       <c r="G199" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -11425,7 +11428,7 @@
         <v>2.49092793464661</v>
       </c>
       <c r="G200" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -11451,7 +11454,7 @@
         <v>2.54643201828003</v>
       </c>
       <c r="G201" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -11477,7 +11480,7 @@
         <v>2.43542289733887</v>
       </c>
       <c r="G202" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -11503,7 +11506,7 @@
         <v>2.56267690658569</v>
       </c>
       <c r="G203" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -11529,7 +11532,7 @@
         <v>2.61682796478271</v>
       </c>
       <c r="G204" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -11555,7 +11558,7 @@
         <v>2.75085091590881</v>
       </c>
       <c r="G205" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -11581,7 +11584,7 @@
         <v>2.88216590881348</v>
       </c>
       <c r="G206" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -11607,7 +11610,7 @@
         <v>2.8753969669342</v>
       </c>
       <c r="G207" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -11633,7 +11636,7 @@
         <v>2.85102891921997</v>
       </c>
       <c r="G208" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -11659,7 +11662,7 @@
         <v>2.94849991798401</v>
       </c>
       <c r="G209" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -11685,7 +11688,7 @@
         <v>2.82530808448792</v>
       </c>
       <c r="G210" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -11711,7 +11714,7 @@
         <v>2.87133598327637</v>
       </c>
       <c r="G211" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -11737,7 +11740,7 @@
         <v>2.93902397155762</v>
       </c>
       <c r="G212" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -11763,7 +11766,7 @@
         <v>2.93090105056763</v>
       </c>
       <c r="G213" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -11789,7 +11792,7 @@
         <v>2.89299607276917</v>
       </c>
       <c r="G214" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -11815,7 +11818,7 @@
         <v>2.86862802505493</v>
       </c>
       <c r="G215" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -11841,7 +11844,7 @@
         <v>2.70753002166748</v>
       </c>
       <c r="G216" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -11867,7 +11870,7 @@
         <v>2.67368602752686</v>
       </c>
       <c r="G217" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -11893,7 +11896,7 @@
         <v>2.64390301704407</v>
       </c>
       <c r="G218" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -11919,7 +11922,7 @@
         <v>2.73595905303955</v>
       </c>
       <c r="G219" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -11945,7 +11948,7 @@
         <v>2.78740191459656</v>
       </c>
       <c r="G220" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -11971,7 +11974,7 @@
         <v>2.82801508903503</v>
       </c>
       <c r="G221" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -11997,7 +12000,7 @@
         <v>2.82801508903503</v>
       </c>
       <c r="G222" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -12023,7 +12026,7 @@
         <v>2.82936906814575</v>
       </c>
       <c r="G223" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -12049,7 +12052,7 @@
         <v>2.79958605766296</v>
       </c>
       <c r="G224" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -12075,7 +12078,7 @@
         <v>2.78604793548584</v>
       </c>
       <c r="G225" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -12101,7 +12104,7 @@
         <v>2.70482206344604</v>
       </c>
       <c r="G226" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -12127,7 +12130,7 @@
         <v>2.58975195884705</v>
       </c>
       <c r="G227" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -12153,7 +12156,7 @@
         <v>2.53695607185364</v>
       </c>
       <c r="G228" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -12179,7 +12182,7 @@
         <v>2.52612495422363</v>
       </c>
       <c r="G229" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -12205,7 +12208,7 @@
         <v>2.57756900787354</v>
       </c>
       <c r="G230" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -12231,7 +12234,7 @@
         <v>2.56403088569641</v>
       </c>
       <c r="G231" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -12257,7 +12260,7 @@
         <v>2.56267690658569</v>
       </c>
       <c r="G232" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -12283,7 +12286,7 @@
         <v>2.57215309143066</v>
       </c>
       <c r="G233" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -12309,7 +12312,7 @@
         <v>2.40293288230896</v>
       </c>
       <c r="G234" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -12335,7 +12338,7 @@
         <v>2.53289389610291</v>
       </c>
       <c r="G235" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -12361,7 +12364,7 @@
         <v>2.56538510322571</v>
       </c>
       <c r="G236" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -12387,7 +12390,7 @@
         <v>2.77115702629089</v>
       </c>
       <c r="G237" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -12413,7 +12416,7 @@
         <v>2.71565294265747</v>
       </c>
       <c r="G238" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -12439,7 +12442,7 @@
         <v>2.70753002166748</v>
       </c>
       <c r="G239" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -12465,7 +12468,7 @@
         <v>2.89976501464844</v>
       </c>
       <c r="G240" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -12491,7 +12494,7 @@
         <v>3.20165395736694</v>
       </c>
       <c r="G241" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -12517,7 +12520,7 @@
         <v>3.24768209457397</v>
       </c>
       <c r="G242" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -12543,7 +12546,7 @@
         <v>3.19759297370911</v>
       </c>
       <c r="G243" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -12569,7 +12572,7 @@
         <v>3.25715899467468</v>
       </c>
       <c r="G244" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -12595,7 +12598,7 @@
         <v>3.32620096206665</v>
       </c>
       <c r="G245" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -12621,7 +12624,7 @@
         <v>3.27204990386963</v>
       </c>
       <c r="G246" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -12647,7 +12650,7 @@
         <v>3.36004495620728</v>
       </c>
       <c r="G247" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -12673,7 +12676,7 @@
         <v>3.38779711723328</v>
       </c>
       <c r="G248" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -12699,7 +12702,7 @@
         <v>3.25715899467468</v>
       </c>
       <c r="G249" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -12725,7 +12728,7 @@
         <v>3.36410593986511</v>
       </c>
       <c r="G250" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -12751,7 +12754,7 @@
         <v>3.38441300392151</v>
       </c>
       <c r="G251" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -12777,7 +12780,7 @@
         <v>3.45886993408203</v>
       </c>
       <c r="G252" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -12803,7 +12806,7 @@
         <v>3.49271392822266</v>
       </c>
       <c r="G253" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -12829,7 +12832,7 @@
         <v>3.5028669834137</v>
       </c>
       <c r="G254" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -12855,7 +12858,7 @@
         <v>3.45886993408203</v>
       </c>
       <c r="G255" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -12881,7 +12884,7 @@
         <v>3.42502593994141</v>
       </c>
       <c r="G256" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -12907,7 +12910,7 @@
         <v>3.42502593994141</v>
       </c>
       <c r="G257" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -12933,7 +12936,7 @@
         <v>3.56717109680176</v>
       </c>
       <c r="G258" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -12959,7 +12962,7 @@
         <v>3.70254707336426</v>
       </c>
       <c r="G259" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -12985,7 +12988,7 @@
         <v>3.64162802696228</v>
       </c>
       <c r="G260" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -13011,7 +13014,7 @@
         <v>3.64162802696228</v>
       </c>
       <c r="G261" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -13037,7 +13040,7 @@
         <v>3.58747696876526</v>
       </c>
       <c r="G262" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -13063,7 +13066,7 @@
         <v>3.49271392822266</v>
       </c>
       <c r="G263" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -13089,7 +13092,7 @@
         <v>3.49271392822266</v>
       </c>
       <c r="G264" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -13115,7 +13118,7 @@
         <v>3.40810394287109</v>
       </c>
       <c r="G265" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -13141,7 +13144,7 @@
         <v>3.39118099212646</v>
       </c>
       <c r="G266" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -13167,7 +13170,7 @@
         <v>3.59424591064453</v>
       </c>
       <c r="G267" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -13193,7 +13196,7 @@
         <v>3.56040191650391</v>
       </c>
       <c r="G268" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -13219,7 +13222,7 @@
         <v>3.6179370880127</v>
       </c>
       <c r="G269" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -13245,7 +13248,7 @@
         <v>3.63147497177124</v>
       </c>
       <c r="G270" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -13271,7 +13274,7 @@
         <v>3.82777094841003</v>
       </c>
       <c r="G271" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -13297,7 +13300,7 @@
         <v>3.88868999481201</v>
       </c>
       <c r="G272" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -13323,7 +13326,7 @@
         <v>3.79731106758118</v>
       </c>
       <c r="G273" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -13349,7 +13352,7 @@
         <v>3.80746388435364</v>
       </c>
       <c r="G274" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -13375,7 +13378,7 @@
         <v>3.85484600067139</v>
       </c>
       <c r="G275" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -13401,7 +13404,7 @@
         <v>3.79392695426941</v>
       </c>
       <c r="G276" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -13427,7 +13430,7 @@
         <v>3.79731106758118</v>
       </c>
       <c r="G277" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -13453,7 +13456,7 @@
         <v>3.61455297470093</v>
       </c>
       <c r="G278" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -13479,7 +13482,7 @@
         <v>3.54686403274536</v>
       </c>
       <c r="G279" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -13505,7 +13508,7 @@
         <v>3.62808990478516</v>
       </c>
       <c r="G280" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -13531,7 +13534,7 @@
         <v>3.64501190185547</v>
       </c>
       <c r="G281" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -13557,7 +13560,7 @@
         <v>3.73300695419312</v>
       </c>
       <c r="G282" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -13583,7 +13586,7 @@
         <v>3.51978898048401</v>
       </c>
       <c r="G283" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -13609,7 +13612,7 @@
         <v>3.39794993400574</v>
       </c>
       <c r="G284" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -13635,7 +13638,7 @@
         <v>3.43856310844421</v>
       </c>
       <c r="G285" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -13661,7 +13664,7 @@
         <v>3.49271392822266</v>
       </c>
       <c r="G286" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -13687,7 +13690,7 @@
         <v>3.2192530632019</v>
       </c>
       <c r="G287" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -13713,7 +13716,7 @@
         <v>3.23008298873901</v>
       </c>
       <c r="G288" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -13739,7 +13742,7 @@
         <v>3.34109210968018</v>
       </c>
       <c r="G289" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -13765,7 +13768,7 @@
         <v>3.25580501556396</v>
       </c>
       <c r="G290" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -13791,7 +13794,7 @@
         <v>3.14344191551208</v>
       </c>
       <c r="G291" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -13817,7 +13820,7 @@
         <v>3.04597091674805</v>
       </c>
       <c r="G292" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -13843,7 +13846,7 @@
         <v>3.01348090171814</v>
       </c>
       <c r="G293" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -13869,7 +13872,7 @@
         <v>3.0094199180603</v>
       </c>
       <c r="G294" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -13895,7 +13898,7 @@
         <v>2.89435005187988</v>
       </c>
       <c r="G295" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -13921,7 +13924,7 @@
         <v>2.8429069519043</v>
       </c>
       <c r="G296" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -13947,7 +13950,7 @@
         <v>2.8022940158844</v>
       </c>
       <c r="G297" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -13973,7 +13976,7 @@
         <v>2.92413210868835</v>
       </c>
       <c r="G298" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -13999,7 +14002,7 @@
         <v>2.91736388206482</v>
       </c>
       <c r="G299" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -14025,7 +14028,7 @@
         <v>3.03243398666382</v>
       </c>
       <c r="G300" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -14051,7 +14054,7 @@
         <v>3.04461789131165</v>
       </c>
       <c r="G301" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -14077,7 +14080,7 @@
         <v>3.18134808540344</v>
       </c>
       <c r="G302" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -14103,7 +14106,7 @@
         <v>3.09470701217651</v>
       </c>
       <c r="G303" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -14129,7 +14132,7 @@
         <v>2.96474504470825</v>
       </c>
       <c r="G304" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -14155,7 +14158,7 @@
         <v>2.97151398658752</v>
       </c>
       <c r="G305" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -14181,7 +14184,7 @@
         <v>3.07033896446228</v>
       </c>
       <c r="G306" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -14207,7 +14210,7 @@
         <v>3.17051792144775</v>
       </c>
       <c r="G307" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -14233,7 +14236,7 @@
         <v>3.11772108078003</v>
       </c>
       <c r="G308" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -14259,7 +14262,7 @@
         <v>3.03784894943237</v>
       </c>
       <c r="G309" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -14285,7 +14288,7 @@
         <v>3.04326391220093</v>
       </c>
       <c r="G310" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -14311,7 +14314,7 @@
         <v>3.19488596916199</v>
       </c>
       <c r="G311" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -14337,7 +14340,7 @@
         <v>3.19488596916199</v>
       </c>
       <c r="G312" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -14363,7 +14366,7 @@
         <v>3.15698003768921</v>
       </c>
       <c r="G313" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -14389,7 +14392,7 @@
         <v>3.25174403190613</v>
       </c>
       <c r="G314" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -14415,7 +14418,7 @@
         <v>3.26392793655396</v>
       </c>
       <c r="G315" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -14441,7 +14444,7 @@
         <v>3.35598397254944</v>
       </c>
       <c r="G316" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -14467,7 +14470,7 @@
         <v>3.31807804107666</v>
       </c>
       <c r="G317" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -14493,7 +14496,7 @@
         <v>3.25851202011108</v>
       </c>
       <c r="G318" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -14519,7 +14522,7 @@
         <v>3.27881908416748</v>
       </c>
       <c r="G319" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -14545,7 +14548,7 @@
         <v>3.2179000377655</v>
       </c>
       <c r="G320" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -14571,7 +14574,7 @@
         <v>3.17457890510559</v>
       </c>
       <c r="G321" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -14597,7 +14600,7 @@
         <v>3.16780996322632</v>
       </c>
       <c r="G322" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -14623,7 +14626,7 @@
         <v>3.05680108070374</v>
       </c>
       <c r="G323" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -14649,7 +14652,7 @@
         <v>3.07981491088867</v>
       </c>
       <c r="G324" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -14675,7 +14678,7 @@
         <v>3.07710790634155</v>
       </c>
       <c r="G325" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -14727,7 +14730,7 @@
         <v>3.10012197494507</v>
       </c>
       <c r="G327" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -14753,7 +14756,7 @@
         <v>3.05003309249878</v>
       </c>
       <c r="G328" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -14779,7 +14782,7 @@
         <v>3.0094199180603</v>
       </c>
       <c r="G329" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -14805,7 +14808,7 @@
         <v>2.97692894935608</v>
       </c>
       <c r="G330" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -14831,7 +14834,7 @@
         <v>2.95256209373474</v>
       </c>
       <c r="G331" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -14857,7 +14860,7 @@
         <v>2.89435005187988</v>
       </c>
       <c r="G332" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -14883,7 +14886,7 @@
         <v>3.05003309249878</v>
       </c>
       <c r="G333" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -14909,7 +14912,7 @@
         <v>3.09470701217651</v>
       </c>
       <c r="G334" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -14935,7 +14938,7 @@
         <v>3.10282897949219</v>
       </c>
       <c r="G335" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -14961,7 +14964,7 @@
         <v>3.31672406196594</v>
       </c>
       <c r="G336" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -14987,7 +14990,7 @@
         <v>3.36545991897583</v>
       </c>
       <c r="G337" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -15013,7 +15016,7 @@
         <v>3.38441300392151</v>
       </c>
       <c r="G338" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -15039,7 +15042,7 @@
         <v>3.29235696792603</v>
       </c>
       <c r="G339" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -15065,7 +15068,7 @@
         <v>3.39794993400574</v>
       </c>
       <c r="G340" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -15091,7 +15094,7 @@
         <v>3.39456605911255</v>
       </c>
       <c r="G341" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -15117,7 +15120,7 @@
         <v>3.36004495620728</v>
       </c>
       <c r="G342" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -15143,7 +15146,7 @@
         <v>3.4825611114502</v>
       </c>
       <c r="G343" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -15169,7 +15172,7 @@
         <v>3.53332710266113</v>
       </c>
       <c r="G344" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -15195,7 +15198,7 @@
         <v>3.44533205032349</v>
       </c>
       <c r="G345" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -15221,7 +15224,7 @@
         <v>3.41825699806213</v>
       </c>
       <c r="G346" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -15247,7 +15250,7 @@
         <v>3.22466802597046</v>
       </c>
       <c r="G347" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -15273,7 +15276,7 @@
         <v>3.17322492599487</v>
       </c>
       <c r="G348" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -15299,7 +15302,7 @@
         <v>3.20165395736694</v>
       </c>
       <c r="G349" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -15325,7 +15328,7 @@
         <v>3.28964900970459</v>
       </c>
       <c r="G350" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -15351,7 +15354,7 @@
         <v>3.23549795150757</v>
       </c>
       <c r="G351" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -15377,7 +15380,7 @@
         <v>3.16104102134705</v>
       </c>
       <c r="G352" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -15403,7 +15406,7 @@
         <v>3.1244900226593</v>
       </c>
       <c r="G353" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -15429,7 +15432,7 @@
         <v>3.17187190055847</v>
       </c>
       <c r="G354" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -15455,7 +15458,7 @@
         <v>3.11636710166931</v>
       </c>
       <c r="G355" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -15481,7 +15484,7 @@
         <v>3.11772108078003</v>
       </c>
       <c r="G356" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -15507,7 +15510,7 @@
         <v>3.16104102134705</v>
       </c>
       <c r="G357" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -15533,7 +15536,7 @@
         <v>3.15698003768921</v>
       </c>
       <c r="G358" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -15559,7 +15562,7 @@
         <v>3.12042808532715</v>
       </c>
       <c r="G359" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -15585,7 +15588,7 @@
         <v>3.02566504478455</v>
       </c>
       <c r="G360" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -15611,7 +15614,7 @@
         <v>3.02701902389526</v>
       </c>
       <c r="G361" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -15637,7 +15640,7 @@
         <v>2.95120811462402</v>
       </c>
       <c r="G362" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -15663,7 +15666,7 @@
         <v>3.01348090171814</v>
       </c>
       <c r="G363" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -15689,7 +15692,7 @@
         <v>2.97557592391968</v>
       </c>
       <c r="G364" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -15715,7 +15718,7 @@
         <v>2.92142510414124</v>
       </c>
       <c r="G365" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -15741,7 +15744,7 @@
         <v>2.87675094604492</v>
       </c>
       <c r="G366" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -15767,7 +15770,7 @@
         <v>2.88216590881348</v>
       </c>
       <c r="G367" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -15793,7 +15796,7 @@
         <v>2.98911309242249</v>
       </c>
       <c r="G368" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -15819,7 +15822,7 @@
         <v>2.97963690757751</v>
       </c>
       <c r="G369" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -15845,7 +15848,7 @@
         <v>2.91736388206482</v>
       </c>
       <c r="G370" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -15871,7 +15874,7 @@
         <v>2.9904670715332</v>
       </c>
       <c r="G371" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -15897,7 +15900,7 @@
         <v>2.96068406105042</v>
       </c>
       <c r="G372" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -15923,7 +15926,7 @@
         <v>2.92142510414124</v>
       </c>
       <c r="G373" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -15949,7 +15952,7 @@
         <v>2.82666110992432</v>
       </c>
       <c r="G374" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -15975,7 +15978,7 @@
         <v>2.8442599773407</v>
       </c>
       <c r="G375" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -16001,7 +16004,7 @@
         <v>2.77115702629089</v>
       </c>
       <c r="G376" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -16027,7 +16030,7 @@
         <v>2.89570307731628</v>
       </c>
       <c r="G377" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -16053,7 +16056,7 @@
         <v>2.87675094604492</v>
       </c>
       <c r="G378" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -16079,7 +16082,7 @@
         <v>2.88351988792419</v>
       </c>
       <c r="G379" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -16105,7 +16108,7 @@
         <v>2.9593300819397</v>
       </c>
       <c r="G380" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -16131,7 +16134,7 @@
         <v>2.97692894935608</v>
       </c>
       <c r="G381" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -16157,7 +16160,7 @@
         <v>3.00400495529175</v>
       </c>
       <c r="G382" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -16183,7 +16186,7 @@
         <v>2.98775911331177</v>
       </c>
       <c r="G383" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -16209,7 +16212,7 @@
         <v>2.95526909828186</v>
       </c>
       <c r="G384" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -16235,7 +16238,7 @@
         <v>3.1461501121521</v>
       </c>
       <c r="G385" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -16261,7 +16264,7 @@
         <v>3.25309705734253</v>
       </c>
       <c r="G386" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -16287,7 +16290,7 @@
         <v>3.17457890510559</v>
       </c>
       <c r="G387" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -16313,7 +16316,7 @@
         <v>3.18270206451416</v>
       </c>
       <c r="G388" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -16339,7 +16342,7 @@
         <v>3.17322492599487</v>
       </c>
       <c r="G389" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -16365,7 +16368,7 @@
         <v>3.21654605865479</v>
       </c>
       <c r="G390" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -16391,7 +16394,7 @@
         <v>3.27475810050964</v>
       </c>
       <c r="G391" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -16417,7 +16420,7 @@
         <v>3.34380006790161</v>
       </c>
       <c r="G392" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -16443,7 +16446,7 @@
         <v>3.353276014328</v>
       </c>
       <c r="G393" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -16469,7 +16472,7 @@
         <v>3.35056900978088</v>
       </c>
       <c r="G394" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -16495,7 +16498,7 @@
         <v>3.37087488174438</v>
       </c>
       <c r="G395" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -16521,7 +16524,7 @@
         <v>3.26121997833252</v>
       </c>
       <c r="G396" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -16547,7 +16550,7 @@
         <v>3.28288006782532</v>
       </c>
       <c r="G397" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -16573,7 +16576,7 @@
         <v>3.28288006782532</v>
       </c>
       <c r="G398" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -16599,7 +16602,7 @@
         <v>3.19488596916199</v>
       </c>
       <c r="G399" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -16625,7 +16628,7 @@
         <v>3.17322492599487</v>
       </c>
       <c r="G400" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -16651,7 +16654,7 @@
         <v>3.15968799591064</v>
       </c>
       <c r="G401" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -16677,7 +16680,7 @@
         <v>3.12178206443787</v>
       </c>
       <c r="G402" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -16703,7 +16706,7 @@
         <v>3.16780996322632</v>
       </c>
       <c r="G403" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -16729,7 +16732,7 @@
         <v>3.18405508995056</v>
       </c>
       <c r="G404" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -16755,7 +16758,7 @@
         <v>3.14885711669922</v>
       </c>
       <c r="G405" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -16781,7 +16784,7 @@
         <v>3.16780996322632</v>
       </c>
       <c r="G406" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -16807,7 +16810,7 @@
         <v>3.14344191551208</v>
       </c>
       <c r="G407" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -16833,7 +16836,7 @@
         <v>3.20436191558838</v>
       </c>
       <c r="G408" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -16859,7 +16862,7 @@
         <v>3.39794993400574</v>
       </c>
       <c r="G409" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -16885,7 +16888,7 @@
         <v>3.35192203521729</v>
       </c>
       <c r="G410" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -16911,7 +16914,7 @@
         <v>3.35056900978088</v>
       </c>
       <c r="G411" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -16937,7 +16940,7 @@
         <v>3.32755494117737</v>
       </c>
       <c r="G412" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -16963,7 +16966,7 @@
         <v>3.25309705734253</v>
       </c>
       <c r="G413" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -16989,7 +16992,7 @@
         <v>3.20977711677551</v>
       </c>
       <c r="G414" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -17015,7 +17018,7 @@
         <v>3.25309705734253</v>
       </c>
       <c r="G415" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -17041,7 +17044,7 @@
         <v>3.31672406196594</v>
       </c>
       <c r="G416" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -17067,7 +17070,7 @@
         <v>3.30183291435242</v>
       </c>
       <c r="G417" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -17093,7 +17096,7 @@
         <v>3.32755494117737</v>
       </c>
       <c r="G418" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -17119,7 +17122,7 @@
         <v>3.26528096199036</v>
       </c>
       <c r="G419" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -17145,7 +17148,7 @@
         <v>3.22196102142334</v>
       </c>
       <c r="G420" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -17171,7 +17174,7 @@
         <v>3.18134808540344</v>
       </c>
       <c r="G421" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -17197,7 +17200,7 @@
         <v>3.21248388290405</v>
       </c>
       <c r="G422" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -17223,7 +17226,7 @@
         <v>3.20977711677551</v>
       </c>
       <c r="G423" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -17249,7 +17252,7 @@
         <v>3.22602200508118</v>
       </c>
       <c r="G424" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -17275,7 +17278,7 @@
         <v>3.14208889007568</v>
       </c>
       <c r="G425" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -17301,7 +17304,7 @@
         <v>3.17593288421631</v>
       </c>
       <c r="G426" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -17327,7 +17330,7 @@
         <v>3.20300793647766</v>
       </c>
       <c r="G427" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -17353,7 +17356,7 @@
         <v>3.24632906913757</v>
       </c>
       <c r="G428" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -17379,7 +17382,7 @@
         <v>3.19759297370911</v>
       </c>
       <c r="G429" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -17405,7 +17408,7 @@
         <v>3.14750409126282</v>
       </c>
       <c r="G430" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -17431,7 +17434,7 @@
         <v>3.11772108078003</v>
       </c>
       <c r="G431" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -17457,7 +17460,7 @@
         <v>3.0933530330658</v>
       </c>
       <c r="G432" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -17483,7 +17486,7 @@
         <v>3.06627798080444</v>
       </c>
       <c r="G433" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -17509,7 +17512,7 @@
         <v>3.15427303314209</v>
       </c>
       <c r="G434" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -17535,7 +17538,7 @@
         <v>3.25174403190613</v>
       </c>
       <c r="G435" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -17561,7 +17564,7 @@
         <v>3.25309705734253</v>
       </c>
       <c r="G436" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -17587,7 +17590,7 @@
         <v>3.186763048172</v>
       </c>
       <c r="G437" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -17613,7 +17616,7 @@
         <v>3.10553693771362</v>
       </c>
       <c r="G438" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -17639,7 +17642,7 @@
         <v>3.13396596908569</v>
       </c>
       <c r="G439" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -17665,7 +17668,7 @@
         <v>3.19488596916199</v>
       </c>
       <c r="G440" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -17691,7 +17694,7 @@
         <v>3.17457890510559</v>
       </c>
       <c r="G441" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -17717,7 +17720,7 @@
         <v>3.17187190055847</v>
       </c>
       <c r="G442" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -17743,7 +17746,7 @@
         <v>3.238205909729</v>
       </c>
       <c r="G443" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -17769,7 +17772,7 @@
         <v>3.1664559841156</v>
       </c>
       <c r="G444" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -17795,7 +17798,7 @@
         <v>3.2598659992218</v>
       </c>
       <c r="G445" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -17821,7 +17824,7 @@
         <v>3.35598397254944</v>
       </c>
       <c r="G446" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -17847,7 +17850,7 @@
         <v>3.41148805618286</v>
       </c>
       <c r="G447" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -17873,7 +17876,7 @@
         <v>3.42502593994141</v>
       </c>
       <c r="G448" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -17899,7 +17902,7 @@
         <v>3.4825611114502</v>
       </c>
       <c r="G449" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -17925,7 +17928,7 @@
         <v>3.47240710258484</v>
       </c>
       <c r="G450" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -17951,7 +17954,7 @@
         <v>3.36952090263367</v>
       </c>
       <c r="G451" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17977,7 +17980,7 @@
         <v>3.31266307830811</v>
       </c>
       <c r="G452" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -18003,7 +18006,7 @@
         <v>3.19488596916199</v>
       </c>
       <c r="G453" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -18029,7 +18032,7 @@
         <v>3.0933530330658</v>
       </c>
       <c r="G454" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -18055,7 +18058,7 @@
         <v>3.02701902389526</v>
       </c>
       <c r="G455" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -18081,7 +18084,7 @@
         <v>3.13261198997498</v>
       </c>
       <c r="G456" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -18107,7 +18110,7 @@
         <v>3.04055595397949</v>
       </c>
       <c r="G457" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -18133,7 +18136,7 @@
         <v>2.97422194480896</v>
       </c>
       <c r="G458" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -18159,7 +18162,7 @@
         <v>3.00671195983887</v>
       </c>
       <c r="G459" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -18185,7 +18188,7 @@
         <v>2.97286796569824</v>
       </c>
       <c r="G460" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -18211,7 +18214,7 @@
         <v>2.96474504470825</v>
       </c>
       <c r="G461" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -18237,7 +18240,7 @@
         <v>2.86998200416565</v>
       </c>
       <c r="G462" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -18263,7 +18266,7 @@
         <v>2.87945795059204</v>
       </c>
       <c r="G463" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -18289,7 +18292,7 @@
         <v>2.92142510414124</v>
       </c>
       <c r="G464" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -18315,7 +18318,7 @@
         <v>2.90788698196411</v>
       </c>
       <c r="G465" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -18341,7 +18344,7 @@
         <v>2.87675094604492</v>
       </c>
       <c r="G466" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -18367,7 +18370,7 @@
         <v>2.8753969669342</v>
       </c>
       <c r="G467" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -18393,7 +18396,7 @@
         <v>2.83072304725647</v>
       </c>
       <c r="G468" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -18419,7 +18422,7 @@
         <v>2.84561395645142</v>
       </c>
       <c r="G469" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -18445,7 +18448,7 @@
         <v>2.83207607269287</v>
       </c>
       <c r="G470" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -18471,7 +18474,7 @@
         <v>2.8239541053772</v>
       </c>
       <c r="G471" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -18497,7 +18500,7 @@
         <v>2.92684006690979</v>
       </c>
       <c r="G472" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -18523,7 +18526,7 @@
         <v>2.85238289833069</v>
       </c>
       <c r="G473" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -18549,7 +18552,7 @@
         <v>2.80635499954224</v>
       </c>
       <c r="G474" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -18575,7 +18578,7 @@
         <v>2.75355792045593</v>
       </c>
       <c r="G475" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -18601,7 +18604,7 @@
         <v>2.63307309150696</v>
       </c>
       <c r="G476" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -18627,7 +18630,7 @@
         <v>2.89435005187988</v>
       </c>
       <c r="G477" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -18653,7 +18656,7 @@
         <v>2.86321306228638</v>
       </c>
       <c r="G478" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -18679,7 +18682,7 @@
         <v>2.88893508911133</v>
       </c>
       <c r="G479" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -18705,7 +18708,7 @@
         <v>2.82530808448792</v>
       </c>
       <c r="G480" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -18731,7 +18734,7 @@
         <v>2.8848729133606</v>
       </c>
       <c r="G481" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -18757,7 +18760,7 @@
         <v>2.80635499954224</v>
       </c>
       <c r="G482" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -18783,7 +18786,7 @@
         <v>2.78875589370728</v>
       </c>
       <c r="G483" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -18809,7 +18812,7 @@
         <v>2.83478403091431</v>
       </c>
       <c r="G484" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -18835,7 +18838,7 @@
         <v>2.79552507400513</v>
       </c>
       <c r="G485" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -18861,7 +18864,7 @@
         <v>2.77927994728088</v>
       </c>
       <c r="G486" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -18887,7 +18890,7 @@
         <v>2.79552507400513</v>
       </c>
       <c r="G487" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -18913,7 +18916,7 @@
         <v>2.9593300819397</v>
       </c>
       <c r="G488" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -18939,7 +18942,7 @@
         <v>2.86185908317566</v>
       </c>
       <c r="G489" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -18965,7 +18968,7 @@
         <v>2.86998200416565</v>
       </c>
       <c r="G490" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -18991,7 +18994,7 @@
         <v>2.99452805519104</v>
       </c>
       <c r="G491" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -19017,7 +19020,7 @@
         <v>3.11095190048218</v>
       </c>
       <c r="G492" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -19043,7 +19046,7 @@
         <v>3.01889610290527</v>
       </c>
       <c r="G493" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -19069,7 +19072,7 @@
         <v>3.10012197494507</v>
       </c>
       <c r="G494" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -19095,7 +19098,7 @@
         <v>3.0838770866394</v>
       </c>
       <c r="G495" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -19121,7 +19124,7 @@
         <v>3.04597091674805</v>
       </c>
       <c r="G496" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -19147,7 +19150,7 @@
         <v>3.1447958946228</v>
       </c>
       <c r="G497" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -19173,7 +19176,7 @@
         <v>3.186763048172</v>
       </c>
       <c r="G498" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -19199,7 +19202,7 @@
         <v>3.18270206451416</v>
       </c>
       <c r="G499" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -19225,7 +19228,7 @@
         <v>3.071692943573</v>
       </c>
       <c r="G500" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -19251,7 +19254,7 @@
         <v>2.87810397148132</v>
       </c>
       <c r="G501" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -19277,7 +19280,7 @@
         <v>2.82124590873718</v>
       </c>
       <c r="G502" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -19303,7 +19306,7 @@
         <v>2.80635499954224</v>
       </c>
       <c r="G503" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -19329,7 +19332,7 @@
         <v>2.81312394142151</v>
       </c>
       <c r="G504" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -19355,7 +19358,7 @@
         <v>2.90653395652771</v>
       </c>
       <c r="G505" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -19381,7 +19384,7 @@
         <v>2.89028811454773</v>
       </c>
       <c r="G506" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -19407,7 +19410,7 @@
         <v>2.89299607276917</v>
       </c>
       <c r="G507" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -19433,7 +19436,7 @@
         <v>2.83613801002502</v>
       </c>
       <c r="G508" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -19459,7 +19462,7 @@
         <v>2.85102891921997</v>
       </c>
       <c r="G509" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -19485,7 +19488,7 @@
         <v>2.92954802513123</v>
       </c>
       <c r="G510" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -19511,7 +19514,7 @@
         <v>2.84967494010925</v>
       </c>
       <c r="G511" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -19537,7 +19540,7 @@
         <v>2.81583094596863</v>
       </c>
       <c r="G512" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -19563,7 +19566,7 @@
         <v>2.79552507400513</v>
       </c>
       <c r="G513" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -19589,7 +19592,7 @@
         <v>2.87133598327637</v>
       </c>
       <c r="G514" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -19615,7 +19618,7 @@
         <v>2.87810397148132</v>
       </c>
       <c r="G515" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -19641,7 +19644,7 @@
         <v>2.87404298782349</v>
       </c>
       <c r="G516" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -19667,7 +19670,7 @@
         <v>2.92413210868835</v>
       </c>
       <c r="G517" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -19693,7 +19696,7 @@
         <v>3.04055595397949</v>
       </c>
       <c r="G518" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -19719,7 +19722,7 @@
         <v>3.05544805526733</v>
       </c>
       <c r="G519" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -19745,7 +19748,7 @@
         <v>3.08658409118652</v>
       </c>
       <c r="G520" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -19771,7 +19774,7 @@
         <v>3.10553693771362</v>
       </c>
       <c r="G521" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -19797,7 +19800,7 @@
         <v>3.0527400970459</v>
       </c>
       <c r="G522" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -19823,7 +19826,7 @@
         <v>2.99317407608032</v>
       </c>
       <c r="G523" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -19849,7 +19852,7 @@
         <v>2.97963690757751</v>
       </c>
       <c r="G524" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -19875,7 +19878,7 @@
         <v>3.01889610290527</v>
       </c>
       <c r="G525" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -19901,7 +19904,7 @@
         <v>3.10012197494507</v>
       </c>
       <c r="G526" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -19927,7 +19930,7 @@
         <v>3.13125896453857</v>
       </c>
       <c r="G527" t="s">
-        <v>462</v>
+        <v>323</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -19953,7 +19956,7 @@
         <v>3.19488596916199</v>
       </c>
       <c r="G528" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -20239,7 +20242,7 @@
         <v>3.17322492599487</v>
       </c>
       <c r="G539" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -20265,7 +20268,7 @@
         <v>3.17593288421631</v>
       </c>
       <c r="G540" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -20395,7 +20398,7 @@
         <v>3.25174403190613</v>
       </c>
       <c r="G545" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -20447,7 +20450,7 @@
         <v>3.22602200508118</v>
       </c>
       <c r="G547" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -20707,7 +20710,7 @@
         <v>3.12042808532715</v>
       </c>
       <c r="G557" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -20915,7 +20918,7 @@
         <v>3.14750409126282</v>
       </c>
       <c r="G565" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -21123,7 +21126,7 @@
         <v>3.06627798080444</v>
       </c>
       <c r="G573" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -21149,7 +21152,7 @@
         <v>3.06627798080444</v>
       </c>
       <c r="G574" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -21253,7 +21256,7 @@
         <v>3.13261198997498</v>
       </c>
       <c r="G578" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -21331,7 +21334,7 @@
         <v>3.14750409126282</v>
       </c>
       <c r="G581" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -21357,7 +21360,7 @@
         <v>3.186763048172</v>
       </c>
       <c r="G582" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -21721,7 +21724,7 @@
         <v>3.17457890510559</v>
       </c>
       <c r="G596" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -21799,7 +21802,7 @@
         <v>3.06627798080444</v>
       </c>
       <c r="G599" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -62471,7 +62474,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6495601852</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>17979674</v>
@@ -62492,6 +62495,32 @@
         <v>1959</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6494791667</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>29993469</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>5.14400005340576</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>4.89200019836426</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>4.94099998474121</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>5.04400014877319</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1968">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33120489120483</t>
+    <t xml:space="preserve">3.33120441436768</t>
   </si>
   <si>
     <t xml:space="preserve">BPE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37296772003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22311305999756</t>
+    <t xml:space="preserve">3.3729681968689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2231125831604</t>
   </si>
   <si>
     <t xml:space="preserve">3.14941334724426</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07817053794861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08062767982483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05606079101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2034592628479</t>
+    <t xml:space="preserve">3.07817077636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08062720298767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05606031417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20345902442932</t>
   </si>
   <si>
     <t xml:space="preserve">3.03886485099792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77354717254639</t>
+    <t xml:space="preserve">2.77354741096497</t>
   </si>
   <si>
     <t xml:space="preserve">2.76126408576965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55981969833374</t>
+    <t xml:space="preserve">2.55981945991516</t>
   </si>
   <si>
     <t xml:space="preserve">2.84233403205872</t>
@@ -83,25 +83,25 @@
     <t xml:space="preserve">2.81039714813232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73669791221619</t>
+    <t xml:space="preserve">2.73669815063477</t>
   </si>
   <si>
     <t xml:space="preserve">2.89637970924377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77846074104309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56964635848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70230460166931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63597559928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45664095878601</t>
+    <t xml:space="preserve">2.77846050262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56964612007141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70230484008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63597536087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45664072036743</t>
   </si>
   <si>
     <t xml:space="preserve">2.25323081016541</t>
@@ -110,145 +110,145 @@
     <t xml:space="preserve">2.2620747089386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21490716934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95057272911072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90831851959229</t>
+    <t xml:space="preserve">2.21490693092346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95057284832001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90831863880157</t>
   </si>
   <si>
     <t xml:space="preserve">2.03999423980713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84444618225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05669975280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26502251625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37508034706116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43207478523254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41733455657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27288436889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5033175945282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40849018096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25519609451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31120729446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3544442653656</t>
+    <t xml:space="preserve">1.84444582462311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05669903755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26502227783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37508010864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43207502365112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41733407974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27288389205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50331711769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4084906578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25519633293152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31120753288269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35444450378418</t>
   </si>
   <si>
     <t xml:space="preserve">2.31415581703186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34854817390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46401071548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4212646484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43109178543091</t>
+    <t xml:space="preserve">2.34854793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4640109539032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42126512527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43109154701233</t>
   </si>
   <si>
     <t xml:space="preserve">2.30531144142151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27190113067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29745030403137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31808614730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51068711280823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54507970809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4615535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29450225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32005167007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34068751335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33479142189026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30039811134338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23750829696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14513874053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12352013587952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0557165145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09305810928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.974156498909</t>
+    <t xml:space="preserve">2.27190136909485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29745054244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31808638572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51068663597107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54507994651794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46155333518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2945020198822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3200511932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3406867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33479118347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30039834976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23750877380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14513850212097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12351965904236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05571675300598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09305787086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97415626049042</t>
   </si>
   <si>
     <t xml:space="preserve">1.96334683895111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84739363193512</t>
+    <t xml:space="preserve">1.84739375114441</t>
   </si>
   <si>
     <t xml:space="preserve">2.11172842979431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21392464637756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12548565864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36918473243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47629380226135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48366355895996</t>
+    <t xml:space="preserve">2.21392488479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12548589706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36918449401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47629404067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48366332054138</t>
   </si>
   <si>
     <t xml:space="preserve">2.40062952041626</t>
@@ -257,76 +257,76 @@
     <t xml:space="preserve">2.47138047218323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54999279975891</t>
+    <t xml:space="preserve">2.54999256134033</t>
   </si>
   <si>
     <t xml:space="preserve">2.56227564811707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47383737564087</t>
+    <t xml:space="preserve">2.47383761405945</t>
   </si>
   <si>
     <t xml:space="preserve">2.55490612983704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51560020446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61386585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50822997093201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41635131835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31022500991821</t>
+    <t xml:space="preserve">2.51559996604919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6138653755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50822973251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41635179519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31022524833679</t>
   </si>
   <si>
     <t xml:space="preserve">2.28467607498169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22080302238464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16282629966736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1569299697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15103507041931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11762428283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11467599868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14710426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26600527763367</t>
+    <t xml:space="preserve">2.2208034992218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16282606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15693044662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15103483200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11762475967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11467576026917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14710402488708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26600503921509</t>
   </si>
   <si>
     <t xml:space="preserve">2.15987873077393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18739318847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14416790008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3130464553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42864847183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38140249252319</t>
+    <t xml:space="preserve">2.18739295005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14416766166687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31304693222046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42864871025085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38140273094177</t>
   </si>
   <si>
     <t xml:space="preserve">2.38743472099304</t>
@@ -335,16 +335,16 @@
     <t xml:space="preserve">2.41055512428284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28590607643127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18739295005798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25675392150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16628265380859</t>
+    <t xml:space="preserve">2.28590559959412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1873927116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25675415992737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16628313064575</t>
   </si>
   <si>
     <t xml:space="preserve">2.15623021125793</t>
@@ -353,46 +353,46 @@
     <t xml:space="preserve">2.18437647819519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22559142112732</t>
+    <t xml:space="preserve">2.2255916595459</t>
   </si>
   <si>
     <t xml:space="preserve">2.07983231544495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95317196846008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89788448810577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8918536901474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84259653091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.025550365448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11702585220337</t>
+    <t xml:space="preserve">1.95317232608795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89788460731506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89185380935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8425966501236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02554988861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11702609062195</t>
   </si>
   <si>
     <t xml:space="preserve">2.17130851745605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1622622013092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32812523841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75514161586761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73704707622528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69583201408386</t>
+    <t xml:space="preserve">2.16226196289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32812571525574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75514137744904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73704695701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69583189487457</t>
   </si>
   <si>
     <t xml:space="preserve">1.60335063934326</t>
@@ -404,100 +404,100 @@
     <t xml:space="preserve">1.56816720962524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46261751651764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.463623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35907816886902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29775857925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50785279273987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5782196521759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70688986778259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62144505977631</t>
+    <t xml:space="preserve">1.46261775493622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46362292766571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35907804965973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29775869846344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50785291194916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57821989059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70688998699188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62144494056702</t>
   </si>
   <si>
     <t xml:space="preserve">1.69080638885498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71091079711914</t>
+    <t xml:space="preserve">1.71091067790985</t>
   </si>
   <si>
     <t xml:space="preserve">1.72096347808838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70487904548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72297370433807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77826142311096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76519322395325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71794724464417</t>
+    <t xml:space="preserve">1.70487892627716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72297346591949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77826154232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76519334316254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71794748306274</t>
   </si>
   <si>
     <t xml:space="preserve">1.72598910331726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80540299415588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74910962581635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84460723400116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74006259441376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52494215965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58626163005829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59430325031281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80238771438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76921427249908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80439746379852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79334056377411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79233491420746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76720440387726</t>
+    <t xml:space="preserve">1.8054027557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74910974502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84460759162903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74006271362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52494204044342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.586261510849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59430336952209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80238747596741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76921403408051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80439758300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79334044456482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79233479499817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76720428466797</t>
   </si>
   <si>
     <t xml:space="preserve">1.75413620471954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68879544734955</t>
+    <t xml:space="preserve">1.68879508972168</t>
   </si>
   <si>
     <t xml:space="preserve">1.71895277500153</t>
@@ -506,211 +506,211 @@
     <t xml:space="preserve">1.61943435668945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63049209117889</t>
+    <t xml:space="preserve">1.6304919719696</t>
   </si>
   <si>
     <t xml:space="preserve">1.72397899627686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76117217540741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70990526676178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67472171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72196817398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7340315580368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76619863510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79032409191132</t>
+    <t xml:space="preserve">1.7611722946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70990538597107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67472231388092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72196805477142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73403167724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76619899272919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79032444953918</t>
   </si>
   <si>
     <t xml:space="preserve">1.75815689563751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81746578216553</t>
+    <t xml:space="preserve">1.81746590137482</t>
   </si>
   <si>
     <t xml:space="preserve">1.820481300354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78429305553436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.750115275383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70387434959412</t>
+    <t xml:space="preserve">1.78429293632507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75011539459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70387411117554</t>
   </si>
   <si>
     <t xml:space="preserve">1.6465756893158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67170667648315</t>
+    <t xml:space="preserve">1.67170643806458</t>
   </si>
   <si>
     <t xml:space="preserve">1.6003350019455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67572724819183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67974853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60435616970062</t>
+    <t xml:space="preserve">1.6757276058197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67974841594696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60435593128204</t>
   </si>
   <si>
     <t xml:space="preserve">1.57922506332397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61440849304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61742389202118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66467022895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62647128105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70286881923676</t>
+    <t xml:space="preserve">1.6144083738327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61742413043976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66467010974884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62647140026093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70286905765533</t>
   </si>
   <si>
     <t xml:space="preserve">1.70789539813995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68376922607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74408340454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84963369369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89084804058075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80841851234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90291059017181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94312024116516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04263949394226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14014673233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13512063026428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18940329551697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09792685508728</t>
+    <t xml:space="preserve">1.68376934528351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74408328533173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84963381290436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89084815979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80841839313507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9029107093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94312036037445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04263877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1401469707489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1351203918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18940305709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09792709350586</t>
   </si>
   <si>
     <t xml:space="preserve">2.13210487365723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18236637115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17633461952209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14818811416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13009405136108</t>
+    <t xml:space="preserve">2.18236684799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17633485794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14818835258484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1300938129425</t>
   </si>
   <si>
     <t xml:space="preserve">2.01047110557556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98534035682678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96322476863861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03158068656921</t>
+    <t xml:space="preserve">1.98534023761749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9632248878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03158140182495</t>
   </si>
   <si>
     <t xml:space="preserve">2.06977987289429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09993720054626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10094261169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07882714271545</t>
+    <t xml:space="preserve">2.09993696212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10094237327576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07882690429688</t>
   </si>
   <si>
     <t xml:space="preserve">2.06877422332764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00846028327942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92301499843597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88381147384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87576913833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91396856307983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90391600131989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90994703769684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8807954788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90492141246796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05771708488464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01650261878967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15321493148804</t>
+    <t xml:space="preserve">2.00846004486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92301523685455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8838118314743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87576901912689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91396868228912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9039158821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90994715690613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88079535961151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90492153167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05771660804749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01650285720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15321469306946</t>
   </si>
   <si>
     <t xml:space="preserve">2.37738180160522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41155958175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37436652183533</t>
+    <t xml:space="preserve">2.41155982017517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37436604499817</t>
   </si>
   <si>
     <t xml:space="preserve">2.41859698295593</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">2.46986389160156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42965459823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49499487876892</t>
+    <t xml:space="preserve">2.4296543598175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49499464035034</t>
   </si>
   <si>
     <t xml:space="preserve">2.51560211181641</t>
@@ -734,94 +734,94 @@
     <t xml:space="preserve">2.51308941841125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56837701797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59350776672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60104656219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54324626922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64879608154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74931883811951</t>
+    <t xml:space="preserve">2.56837677955627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59350800514221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60104703903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5432460308075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64879584312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74931907653809</t>
   </si>
   <si>
     <t xml:space="preserve">2.70408368110657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66387367248535</t>
+    <t xml:space="preserve">2.66387391090393</t>
   </si>
   <si>
     <t xml:space="preserve">2.53068089485168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51811480522156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66890048980713</t>
+    <t xml:space="preserve">2.51811456680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66890001296997</t>
   </si>
   <si>
     <t xml:space="preserve">2.64376926422119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68649196624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69654488563538</t>
+    <t xml:space="preserve">2.68649220466614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69654440879822</t>
   </si>
   <si>
     <t xml:space="preserve">2.84230375289917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88753890991211</t>
+    <t xml:space="preserve">2.88753914833069</t>
   </si>
   <si>
     <t xml:space="preserve">2.81968593597412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82722496986389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240816116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81717324256897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68397903442383</t>
+    <t xml:space="preserve">2.82722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240839958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81717300415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68397927284241</t>
   </si>
   <si>
     <t xml:space="preserve">2.63371682167053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69403076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7065966129303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77193689346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61361241340637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52314114570618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.553297996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39044976234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39849185943604</t>
+    <t xml:space="preserve">2.69403100013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70659637451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77193713188171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61361265182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5231409072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55329823493958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39045000076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39849162101746</t>
   </si>
   <si>
     <t xml:space="preserve">2.48092126846313</t>
@@ -839,34 +839,34 @@
     <t xml:space="preserve">2.23765420913696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23463869094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14919376373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.110995054245</t>
+    <t xml:space="preserve">2.23463845252991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14919400215149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11099481582642</t>
   </si>
   <si>
     <t xml:space="preserve">2.0808379650116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25172805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26077508926392</t>
+    <t xml:space="preserve">2.25172781944275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26077485084534</t>
   </si>
   <si>
     <t xml:space="preserve">2.36230373382568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29796862602234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20146560668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20649147033691</t>
+    <t xml:space="preserve">2.29796886444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20146536827087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20649218559265</t>
   </si>
   <si>
     <t xml:space="preserve">2.27987432479858</t>
@@ -875,43 +875,43 @@
     <t xml:space="preserve">2.35426163673401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31505799293518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25574851036072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25976967811584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37235593795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34420967102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41457629203796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42362332344055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49197936058044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46383213996887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41960144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43468070030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38944530487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35727691650391</t>
+    <t xml:space="preserve">2.31505751609802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25574898719788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25976991653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37235617637634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34420943260193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41457605361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42362308502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49197912216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46383261680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41960167884827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43468046188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38944554328918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35727739334106</t>
   </si>
   <si>
     <t xml:space="preserve">2.35225105285645</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">2.26982164382935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28691077232361</t>
+    <t xml:space="preserve">2.28691053390503</t>
   </si>
   <si>
     <t xml:space="preserve">2.28490018844604</t>
@@ -929,28 +929,28 @@
     <t xml:space="preserve">2.30198931694031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26479578018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21051239967346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19241905212402</t>
+    <t xml:space="preserve">2.26479625701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21051263809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1924192905426</t>
   </si>
   <si>
     <t xml:space="preserve">2.30399942398071</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4628267288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49901533126831</t>
+    <t xml:space="preserve">2.46282696723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49901556968689</t>
   </si>
   <si>
     <t xml:space="preserve">2.44473314285278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52062821388245</t>
+    <t xml:space="preserve">2.52062845230103</t>
   </si>
   <si>
     <t xml:space="preserve">2.58596873283386</t>
@@ -959,19 +959,19 @@
     <t xml:space="preserve">2.62366509437561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55832457542419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53821992874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39447116851807</t>
+    <t xml:space="preserve">2.55832433700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53822016716003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39447069168091</t>
   </si>
   <si>
     <t xml:space="preserve">2.35627174377441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44272232055664</t>
+    <t xml:space="preserve">2.44272255897522</t>
   </si>
   <si>
     <t xml:space="preserve">2.402512550354</t>
@@ -983,16 +983,16 @@
     <t xml:space="preserve">2.32008385658264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3552668094635</t>
+    <t xml:space="preserve">2.35526776313782</t>
   </si>
   <si>
     <t xml:space="preserve">2.34406590461731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34508442878723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37766885757446</t>
+    <t xml:space="preserve">2.34508419036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37766861915588</t>
   </si>
   <si>
     <t xml:space="preserve">2.37461423873901</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">2.34712052345276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27584195137024</t>
+    <t xml:space="preserve">2.27584171295166</t>
   </si>
   <si>
     <t xml:space="preserve">2.27686023712158</t>
@@ -1016,28 +1016,28 @@
     <t xml:space="preserve">2.23816585540771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19743418693542</t>
+    <t xml:space="preserve">2.19743466377258</t>
   </si>
   <si>
     <t xml:space="preserve">2.16383147239685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16790461540222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24834799766541</t>
+    <t xml:space="preserve">2.16790437698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24834775924683</t>
   </si>
   <si>
     <t xml:space="preserve">2.24122023582458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19437956809998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24936652183533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22696399688721</t>
+    <t xml:space="preserve">2.19437980651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24936604499817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22696471214294</t>
   </si>
   <si>
     <t xml:space="preserve">2.12615513801575</t>
@@ -1046,16 +1046,16 @@
     <t xml:space="preserve">2.13939237594604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08440613746643</t>
+    <t xml:space="preserve">2.08440589904785</t>
   </si>
   <si>
     <t xml:space="preserve">2.17808723449707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16892290115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22594594955444</t>
+    <t xml:space="preserve">2.16892313957214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22594618797302</t>
   </si>
   <si>
     <t xml:space="preserve">2.23918318748474</t>
@@ -1064,22 +1064,22 @@
     <t xml:space="preserve">2.25954937934875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24732971191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22289156913757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36646819114685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44691109657288</t>
+    <t xml:space="preserve">2.24732947349548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22289109230042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36646795272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44691133499146</t>
   </si>
   <si>
     <t xml:space="preserve">2.38785123825073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39396142959595</t>
+    <t xml:space="preserve">2.39396166801453</t>
   </si>
   <si>
     <t xml:space="preserve">2.38683295249939</t>
@@ -1088,34 +1088,34 @@
     <t xml:space="preserve">2.41941833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4632043838501</t>
+    <t xml:space="preserve">2.46320414543152</t>
   </si>
   <si>
     <t xml:space="preserve">2.51513600349426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5222635269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52022790908813</t>
+    <t xml:space="preserve">2.52226376533508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52022767066956</t>
   </si>
   <si>
     <t xml:space="preserve">2.53550124168396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45302081108093</t>
+    <t xml:space="preserve">2.45302104949951</t>
   </si>
   <si>
     <t xml:space="preserve">2.46931338310242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40312600135803</t>
+    <t xml:space="preserve">2.40312623977661</t>
   </si>
   <si>
     <t xml:space="preserve">2.3766508102417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3481388092041</t>
+    <t xml:space="preserve">2.34813904762268</t>
   </si>
   <si>
     <t xml:space="preserve">2.3827600479126</t>
@@ -1124,46 +1124,46 @@
     <t xml:space="preserve">2.39497947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36850428581238</t>
+    <t xml:space="preserve">2.3685040473938</t>
   </si>
   <si>
     <t xml:space="preserve">2.36443138122559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41025352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55586671829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52124547958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50291705131531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41432690620422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49477005004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48356938362122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45607590675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42349123954773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3929431438446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41636276245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42654633522034</t>
+    <t xml:space="preserve">2.41025400161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55586624145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52124524116516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50291657447815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4143271446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477028846741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48356914520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42349147796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39294290542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41636300086975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42654609680176</t>
   </si>
   <si>
     <t xml:space="preserve">2.36341309547424</t>
@@ -1172,73 +1172,73 @@
     <t xml:space="preserve">2.38887000083923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40923523902893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44182062149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40516233444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36748671531677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32675504684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30638980865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37257790565491</t>
+    <t xml:space="preserve">2.40923547744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44182014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40516209602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36748647689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32675528526306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30639004707336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37257766723633</t>
   </si>
   <si>
     <t xml:space="preserve">2.44589352607727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39701652526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33591961860657</t>
+    <t xml:space="preserve">2.39701628684998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33591985702515</t>
   </si>
   <si>
     <t xml:space="preserve">2.35730314254761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38581514358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43571043014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38174176216125</t>
+    <t xml:space="preserve">2.38581538200378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43571019172668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38174152374268</t>
   </si>
   <si>
     <t xml:space="preserve">2.45200252532959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52430081367493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56604957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57623267173767</t>
+    <t xml:space="preserve">2.52430033683777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56604981422424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57623243331909</t>
   </si>
   <si>
     <t xml:space="preserve">2.61950922012329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61187171936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53448271751404</t>
+    <t xml:space="preserve">2.61187124252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5344831943512</t>
   </si>
   <si>
     <t xml:space="preserve">2.49171590805054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35628485679626</t>
+    <t xml:space="preserve">2.35628509521484</t>
   </si>
   <si>
     <t xml:space="preserve">2.28704237937927</t>
@@ -1247,52 +1247,52 @@
     <t xml:space="preserve">2.23714733123779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2615852355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23612904548645</t>
+    <t xml:space="preserve">2.26158547401428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23612880706787</t>
   </si>
   <si>
     <t xml:space="preserve">2.23001885414124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15874028205872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16586780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18725180625916</t>
+    <t xml:space="preserve">2.15873980522156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16586804389954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.187251329422</t>
   </si>
   <si>
     <t xml:space="preserve">2.16281318664551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12921047210693</t>
+    <t xml:space="preserve">2.12921071052551</t>
   </si>
   <si>
     <t xml:space="preserve">2.14041090011597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13022804260254</t>
+    <t xml:space="preserve">2.1302285194397</t>
   </si>
   <si>
     <t xml:space="preserve">2.12411904335022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20150756835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14550256729126</t>
+    <t xml:space="preserve">2.20150780677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14550280570984</t>
   </si>
   <si>
     <t xml:space="preserve">2.11088132858276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07116842269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98054254055023</t>
+    <t xml:space="preserve">2.07116866111755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98054218292236</t>
   </si>
   <si>
     <t xml:space="preserve">2.17706942558289</t>
@@ -1301,22 +1301,22 @@
     <t xml:space="preserve">2.153648853302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17299628257751</t>
+    <t xml:space="preserve">2.17299652099609</t>
   </si>
   <si>
     <t xml:space="preserve">2.12513732910156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16994047164917</t>
+    <t xml:space="preserve">2.16994118690491</t>
   </si>
   <si>
     <t xml:space="preserve">2.09764361381531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1322648525238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10273504257202</t>
+    <t xml:space="preserve">2.13226509094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1027352809906</t>
   </si>
   <si>
     <t xml:space="preserve">2.09051585197449</t>
@@ -1328,16 +1328,16 @@
     <t xml:space="preserve">2.25242114067078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33999276161194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27075004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33184671401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31962752342224</t>
+    <t xml:space="preserve">2.33999252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27075028419495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3318464756012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31962776184082</t>
   </si>
   <si>
     <t xml:space="preserve">2.29111504554749</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">2.36544942855835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31046295166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16484928131104</t>
+    <t xml:space="preserve">2.31046319007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16484951972961</t>
   </si>
   <si>
     <t xml:space="preserve">2.12208199501038</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">2.18623399734497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1740140914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17605090141296</t>
+    <t xml:space="preserve">2.17401385307312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17605066299438</t>
   </si>
   <si>
     <t xml:space="preserve">2.13328337669373</t>
@@ -1376,43 +1376,43 @@
     <t xml:space="preserve">2.20354437828064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14346575737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11800909042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15975856781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16179466247559</t>
+    <t xml:space="preserve">2.14346551895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.118008852005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15975832939148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16179490089417</t>
   </si>
   <si>
     <t xml:space="preserve">2.19947052001953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29824376106262</t>
+    <t xml:space="preserve">2.29824352264404</t>
   </si>
   <si>
     <t xml:space="preserve">2.32166361808777</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29620671272278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25140261650085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35526728630066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45098400115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44894814491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46676778793335</t>
+    <t xml:space="preserve">2.29620695114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25140285491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35526752471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45098447799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44894790649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46676802635193</t>
   </si>
   <si>
     <t xml:space="preserve">2.37206864356995</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">2.39141535758972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37308597564697</t>
+    <t xml:space="preserve">2.37308669090271</t>
   </si>
   <si>
     <t xml:space="preserve">2.30842614173889</t>
@@ -1436,16 +1436,16 @@
     <t xml:space="preserve">2.34610247612</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31504535675049</t>
+    <t xml:space="preserve">2.31504487991333</t>
   </si>
   <si>
     <t xml:space="preserve">2.4352011680603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43978381156921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42960071563721</t>
+    <t xml:space="preserve">2.43978357315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42960047721863</t>
   </si>
   <si>
     <t xml:space="preserve">2.433673620224</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">2.47593259811401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47644186019897</t>
+    <t xml:space="preserve">2.4764416217804</t>
   </si>
   <si>
     <t xml:space="preserve">2.48102426528931</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">2.4784779548645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50800752639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48713326454163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29773449897766</t>
+    <t xml:space="preserve">2.50800776481628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48713350296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29773473739624</t>
   </si>
   <si>
     <t xml:space="preserve">2.39192461967468</t>
@@ -1484,37 +1484,37 @@
     <t xml:space="preserve">2.34864807128906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39243388175964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33846497535706</t>
+    <t xml:space="preserve">2.39243412017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33846521377563</t>
   </si>
   <si>
     <t xml:space="preserve">2.34304714202881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37054109573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37868714332581</t>
+    <t xml:space="preserve">2.37054085731506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37868690490723</t>
   </si>
   <si>
     <t xml:space="preserve">2.3623948097229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31657218933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32319140434265</t>
+    <t xml:space="preserve">2.31657242774963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32319116592407</t>
   </si>
   <si>
     <t xml:space="preserve">2.30282592773438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31860876083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29926156997681</t>
+    <t xml:space="preserve">2.3186092376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29926180839539</t>
   </si>
   <si>
     <t xml:space="preserve">2.30129837989807</t>
@@ -1523,13 +1523,13 @@
     <t xml:space="preserve">2.3903968334198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39905261993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40821695327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43265604972839</t>
+    <t xml:space="preserve">2.3990523815155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40821671485901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43265557289124</t>
   </si>
   <si>
     <t xml:space="preserve">2.48458766937256</t>
@@ -1541,31 +1541,31 @@
     <t xml:space="preserve">2.46167659759521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48815178871155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4428379535675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41228985786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42756462097168</t>
+    <t xml:space="preserve">2.48815202713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44283843040466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4122896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42756414413452</t>
   </si>
   <si>
     <t xml:space="preserve">2.41585445404053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42807364463806</t>
+    <t xml:space="preserve">2.42807388305664</t>
   </si>
   <si>
     <t xml:space="preserve">2.40974450111389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40210771560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49680709838867</t>
+    <t xml:space="preserve">2.40210795402527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49680685997009</t>
   </si>
   <si>
     <t xml:space="preserve">2.50597167015076</t>
@@ -1577,25 +1577,25 @@
     <t xml:space="preserve">2.59150624275208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62103629112244</t>
+    <t xml:space="preserve">2.62103605270386</t>
   </si>
   <si>
     <t xml:space="preserve">2.54415655136108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54466581344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37563252449036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39753246307373</t>
+    <t xml:space="preserve">2.54466605186462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37563276290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39753293991089</t>
   </si>
   <si>
     <t xml:space="preserve">2.43611788749695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46271085739136</t>
+    <t xml:space="preserve">2.46271109580994</t>
   </si>
   <si>
     <t xml:space="preserve">2.43246817588806</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">2.13942456245422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3078465461731</t>
+    <t xml:space="preserve">2.30784630775452</t>
   </si>
   <si>
     <t xml:space="preserve">2.24006056785583</t>
@@ -1625,34 +1625,34 @@
     <t xml:space="preserve">2.16393160820007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16288924217224</t>
+    <t xml:space="preserve">2.16288948059082</t>
   </si>
   <si>
     <t xml:space="preserve">2.20460343360901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14516043663025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23849654197693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26508951187134</t>
+    <t xml:space="preserve">2.14516091346741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23849678039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26508975028992</t>
   </si>
   <si>
     <t xml:space="preserve">2.301589012146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32974672317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2687394618988</t>
+    <t xml:space="preserve">2.32974648475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26873922348022</t>
   </si>
   <si>
     <t xml:space="preserve">2.25778913497925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33443927764893</t>
+    <t xml:space="preserve">2.33443903923035</t>
   </si>
   <si>
     <t xml:space="preserve">2.39336109161377</t>
@@ -1661,22 +1661,22 @@
     <t xml:space="preserve">2.32296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4939968585968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44289708137512</t>
+    <t xml:space="preserve">2.49399662017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44289684295654</t>
   </si>
   <si>
     <t xml:space="preserve">2.45645427703857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42151737213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44341850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45436835289001</t>
+    <t xml:space="preserve">2.42151784896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44341826438904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45436811447144</t>
   </si>
   <si>
     <t xml:space="preserve">2.44498229026794</t>
@@ -1688,40 +1688,40 @@
     <t xml:space="preserve">2.43820405006409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4861752986908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49451780319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44602513313293</t>
+    <t xml:space="preserve">2.48617506027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4945182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44602537155151</t>
   </si>
   <si>
     <t xml:space="preserve">2.40535402297974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.422039270401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45541143417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41213297843933</t>
+    <t xml:space="preserve">2.42203950881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.455411195755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41213250160217</t>
   </si>
   <si>
     <t xml:space="preserve">2.36728954315186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41526103019714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41265344619751</t>
+    <t xml:space="preserve">2.41526126861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41265320777893</t>
   </si>
   <si>
     <t xml:space="preserve">2.44811081886292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48252534866333</t>
+    <t xml:space="preserve">2.48252558708191</t>
   </si>
   <si>
     <t xml:space="preserve">2.4580180644989</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">2.48148250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39283967018127</t>
+    <t xml:space="preserve">2.3928394317627</t>
   </si>
   <si>
     <t xml:space="preserve">2.38658213615417</t>
@@ -1742,10 +1742,10 @@
     <t xml:space="preserve">2.38814640045166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40900373458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26665353775024</t>
+    <t xml:space="preserve">2.40900349617004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26665329933167</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110341072083</t>
@@ -1754,61 +1754,61 @@
     <t xml:space="preserve">2.20981764793396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15506720542908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13473176956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13212490081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08571767807007</t>
+    <t xml:space="preserve">2.15506744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13473200798035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13212466239929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08571743965149</t>
   </si>
   <si>
     <t xml:space="preserve">2.08623886108398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13264560699463</t>
+    <t xml:space="preserve">2.13264608383179</t>
   </si>
   <si>
     <t xml:space="preserve">2.13160347938538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11491775512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10970377922058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10136103630066</t>
+    <t xml:space="preserve">2.11491751670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10970330238342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10136079788208</t>
   </si>
   <si>
     <t xml:space="preserve">2.06746745109558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08050322532654</t>
+    <t xml:space="preserve">2.08050346374512</t>
   </si>
   <si>
     <t xml:space="preserve">2.00228881835938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9809103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99029672145844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06329560279846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15141773223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15558934211731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21294593811035</t>
+    <t xml:space="preserve">1.98091065883636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99029660224915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06329584121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15141725540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15558910369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21294641494751</t>
   </si>
   <si>
     <t xml:space="preserve">2.20199632644653</t>
@@ -1817,25 +1817,25 @@
     <t xml:space="preserve">2.20408177375793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19678163528442</t>
+    <t xml:space="preserve">2.196781873703</t>
   </si>
   <si>
     <t xml:space="preserve">2.24736094474792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28125357627869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25987529754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21659660339355</t>
+    <t xml:space="preserve">2.28125333786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25987505912781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21659636497498</t>
   </si>
   <si>
     <t xml:space="preserve">2.24214649200439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26978230476379</t>
+    <t xml:space="preserve">2.26978254318237</t>
   </si>
   <si>
     <t xml:space="preserve">2.292724609375</t>
@@ -1844,175 +1844,175 @@
     <t xml:space="preserve">2.07946014404297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99759590625763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96266031265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93710958957672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94910311698914</t>
+    <t xml:space="preserve">1.99759638309479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96266055107117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93710994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94910299777985</t>
   </si>
   <si>
     <t xml:space="preserve">1.9136461019516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88183844089508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84429526329041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88444530963898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84898805618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86306691169739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87610268592834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.859938621521</t>
+    <t xml:space="preserve">1.88183867931366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84429562091827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88444554805756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84898841381073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86306703090668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87610256671906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85993838310242</t>
   </si>
   <si>
     <t xml:space="preserve">1.86254560947418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82239544391632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82917439937592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76243138313293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72436678409576</t>
+    <t xml:space="preserve">1.8223956823349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82917463779449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76243150234222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72436630725861</t>
   </si>
   <si>
     <t xml:space="preserve">1.67535221576691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71393835544586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70090270042419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77598869800568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76555979251862</t>
+    <t xml:space="preserve">1.71393847465515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7009025812149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7759884595871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76555967330933</t>
   </si>
   <si>
     <t xml:space="preserve">1.75095927715302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76138854026794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83282434940338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76973116397858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7566956281662</t>
+    <t xml:space="preserve">1.76138842105865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8328241109848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76973128318787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75669550895691</t>
   </si>
   <si>
     <t xml:space="preserve">1.78850281238556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80205988883972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81822419166565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82083141803741</t>
+    <t xml:space="preserve">1.80206000804901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81822395324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82083165645599</t>
   </si>
   <si>
     <t xml:space="preserve">1.76764583587646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78224515914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74991726875305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7660813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74574565887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80883812904358</t>
+    <t xml:space="preserve">1.78224539756775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74991714954376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76608109474182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7457457780838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80883800983429</t>
   </si>
   <si>
     <t xml:space="preserve">1.81926715373993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8203102350235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91781711578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85055327415466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86723864078522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87662410736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96318197250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92980992794037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96578872203827</t>
+    <t xml:space="preserve">1.82031047344208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91781747341156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85055267810822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86723828315735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87662422657013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96318185329437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92981040477753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9657883644104</t>
   </si>
   <si>
     <t xml:space="preserve">1.90321719646454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87297415733337</t>
+    <t xml:space="preserve">1.87297427654266</t>
   </si>
   <si>
     <t xml:space="preserve">1.8411670923233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82343828678131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81613898277283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78798115253448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304567813873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74470293521881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78016006946564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74626648426056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73323106765747</t>
+    <t xml:space="preserve">1.82343852519989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81613862514496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78798127174377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304579734802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74470269680023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78016018867493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74626684188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73323082923889</t>
   </si>
   <si>
     <t xml:space="preserve">1.70976710319519</t>
@@ -2024,25 +2024,25 @@
     <t xml:space="preserve">1.7186313867569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70715951919556</t>
+    <t xml:space="preserve">1.70715963840485</t>
   </si>
   <si>
     <t xml:space="preserve">1.76451683044434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77546715736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7363600730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72905969619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73427391052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70507431030273</t>
+    <t xml:space="preserve">1.77546691894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73636019229889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72905933856964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73427379131317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70507419109344</t>
   </si>
   <si>
     <t xml:space="preserve">1.6393735408783</t>
@@ -2051,91 +2051,91 @@
     <t xml:space="preserve">1.56168079376221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59609496593475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60235238075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59296679496765</t>
+    <t xml:space="preserve">1.59609520435333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60235249996185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59296667575836</t>
   </si>
   <si>
     <t xml:space="preserve">1.60130953788757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59244525432587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56898069381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57367360591888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64250266551971</t>
+    <t xml:space="preserve">1.59244501590729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56898081302643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57367348670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64250254631042</t>
   </si>
   <si>
     <t xml:space="preserve">1.62268793582916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62685918807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64093780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54134523868561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5460376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54864513874054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55125200748444</t>
+    <t xml:space="preserve">1.62685942649841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64093792438507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54134547710419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54603779315948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54864501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55125212669373</t>
   </si>
   <si>
     <t xml:space="preserve">1.58775222301483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57158803939819</t>
+    <t xml:space="preserve">1.57158827781677</t>
   </si>
   <si>
     <t xml:space="preserve">1.71028852462769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78120338916779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76295268535614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75617396831512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83751714229584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83021748065948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81457412242889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78537464141846</t>
+    <t xml:space="preserve">1.78120315074921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76295292377472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75617408752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83751726150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83021771907806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81457424163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78537440299988</t>
   </si>
   <si>
     <t xml:space="preserve">1.80623137950897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82448136806488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83647394180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88601016998291</t>
+    <t xml:space="preserve">1.82448124885559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83647418022156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88600981235504</t>
   </si>
   <si>
     <t xml:space="preserve">1.9282454252243</t>
@@ -2144,76 +2144,76 @@
     <t xml:space="preserve">1.92303168773651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91677415370941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93241763114929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87558090686798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85628867149353</t>
+    <t xml:space="preserve">1.9167742729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93241739273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87558102607727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85628879070282</t>
   </si>
   <si>
     <t xml:space="preserve">1.84481680393219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85576713085175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89330983161926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93137490749359</t>
+    <t xml:space="preserve">1.85576725006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89330959320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93137466907501</t>
   </si>
   <si>
     <t xml:space="preserve">1.94597399234772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94649541378021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92928862571716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90269565582275</t>
+    <t xml:space="preserve">1.94649577140808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92928874492645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9026951789856</t>
   </si>
   <si>
     <t xml:space="preserve">1.89487433433533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87871026992798</t>
+    <t xml:space="preserve">1.87871062755585</t>
   </si>
   <si>
     <t xml:space="preserve">1.90843164920807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90061044692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89852392673492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92459559440613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90999603271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92876696586609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93085300922394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94753837585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94858157634735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97934591770172</t>
+    <t xml:space="preserve">1.90060997009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89852464199066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92459535598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90999591350555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92876720428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93085312843323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94753873348236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94858193397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97934603691101</t>
   </si>
   <si>
     <t xml:space="preserve">2.0163676738739</t>
@@ -2222,25 +2222,25 @@
     <t xml:space="preserve">2.06955337524414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10448932647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16028189659119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18113946914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15976047515869</t>
+    <t xml:space="preserve">2.10448908805847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16028165817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18113923072815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15976023674011</t>
   </si>
   <si>
     <t xml:space="preserve">2.14098930358887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17592477798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19365382194519</t>
+    <t xml:space="preserve">2.1759250164032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19365358352661</t>
   </si>
   <si>
     <t xml:space="preserve">2.19991040229797</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">2.19782519340515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19104623794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14568257331848</t>
+    <t xml:space="preserve">2.19104599952698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1456823348999</t>
   </si>
   <si>
     <t xml:space="preserve">2.1336886882782</t>
@@ -2267,34 +2267,34 @@
     <t xml:space="preserve">2.06486058235168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03357458114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05182480812073</t>
+    <t xml:space="preserve">2.03357481956482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05182456970215</t>
   </si>
   <si>
     <t xml:space="preserve">2.01584625244141</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06121110916138</t>
+    <t xml:space="preserve">2.06121039390564</t>
   </si>
   <si>
     <t xml:space="preserve">2.00609588623047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95326054096222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9117476940155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88640916347504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581810474396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85513985157013</t>
+    <t xml:space="preserve">1.95326066017151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88640904426575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581798553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85513997077942</t>
   </si>
   <si>
     <t xml:space="preserve">1.85621786117554</t>
@@ -2303,16 +2303,16 @@
     <t xml:space="preserve">1.84651398658752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83357453346252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8244092464447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80985260009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84166216850281</t>
+    <t xml:space="preserve">1.83357429504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82440936565399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80985248088837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84166193008423</t>
   </si>
   <si>
     <t xml:space="preserve">1.80823564529419</t>
@@ -2321,58 +2321,58 @@
     <t xml:space="preserve">1.78667092323303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78343546390533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83950507640839</t>
+    <t xml:space="preserve">1.78343522548676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8395049571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.8567568063736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83573126792908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85783517360687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85136544704437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86538279056549</t>
+    <t xml:space="preserve">1.8357310295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85783529281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85136556625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8653826713562</t>
   </si>
   <si>
     <t xml:space="preserve">1.90743482112885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94301795959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94086122512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97374784946442</t>
+    <t xml:space="preserve">1.94301819801331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94086098670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.973748087883</t>
   </si>
   <si>
     <t xml:space="preserve">1.95218336582184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95110476016998</t>
+    <t xml:space="preserve">1.95110464096069</t>
   </si>
   <si>
     <t xml:space="preserve">1.96242594718933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93169605731964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92145240306854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96080911159515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03736519813538</t>
+    <t xml:space="preserve">1.93169569969177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92145228385925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96080946922302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0373649597168</t>
   </si>
   <si>
     <t xml:space="preserve">2.09666895866394</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">2.08211255073547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06486082077026</t>
+    <t xml:space="preserve">2.06486034393311</t>
   </si>
   <si>
     <t xml:space="preserve">2.07348656654358</t>
@@ -2393,16 +2393,16 @@
     <t xml:space="preserve">2.05623459815979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06539964675903</t>
+    <t xml:space="preserve">2.06539988517761</t>
   </si>
   <si>
     <t xml:space="preserve">2.05084323883057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07995629310608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04653024673462</t>
+    <t xml:space="preserve">2.07995653152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0465304851532</t>
   </si>
   <si>
     <t xml:space="preserve">2.02065253257751</t>
@@ -2414,43 +2414,43 @@
     <t xml:space="preserve">2.01633954048157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96512222290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94894778728485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92846131324768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90204346179962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82764446735382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81632256507874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86484432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83627045154572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86430501937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83842623233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87347030639648</t>
+    <t xml:space="preserve">1.96512198448181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94894754886627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92846155166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9020437002182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82764434814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81632232666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86484456062317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83627021312714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86430525779724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83842635154724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87347042560577</t>
   </si>
   <si>
     <t xml:space="preserve">1.72520971298218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68854928016663</t>
+    <t xml:space="preserve">1.68854916095734</t>
   </si>
   <si>
     <t xml:space="preserve">1.70795786380768</t>
@@ -2459,16 +2459,16 @@
     <t xml:space="preserve">1.62385368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65943598747253</t>
+    <t xml:space="preserve">1.65943610668182</t>
   </si>
   <si>
     <t xml:space="preserve">1.67614948749542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6227753162384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65080988407135</t>
+    <t xml:space="preserve">1.62277519702911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65081000328064</t>
   </si>
   <si>
     <t xml:space="preserve">1.65728008747101</t>
@@ -2480,37 +2480,37 @@
     <t xml:space="preserve">1.65458381175995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72952270507812</t>
+    <t xml:space="preserve">1.7295229434967</t>
   </si>
   <si>
     <t xml:space="preserve">1.71766233444214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75162696838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73760950565338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74138355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77049660682678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78828752040863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79367887973785</t>
+    <t xml:space="preserve">1.75162720680237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73760938644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74138343334198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77049648761749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78828763961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79367899894714</t>
   </si>
   <si>
     <t xml:space="preserve">1.80230510234833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86322665214539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88425242900848</t>
+    <t xml:space="preserve">1.86322677135468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88425254821777</t>
   </si>
   <si>
     <t xml:space="preserve">1.86592209339142</t>
@@ -2519,94 +2519,94 @@
     <t xml:space="preserve">1.89449608325958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94247877597809</t>
+    <t xml:space="preserve">1.94247889518738</t>
   </si>
   <si>
     <t xml:space="preserve">1.95164394378662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88802623748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89934802055359</t>
+    <t xml:space="preserve">1.88802587985992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89934825897217</t>
   </si>
   <si>
     <t xml:space="preserve">1.98237407207489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92306995391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89395654201508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87400949001312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88533067703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90959167480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8804783821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89180052280426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87454783916473</t>
+    <t xml:space="preserve">1.92306971549988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89395689964294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87400960922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88533079624176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90959179401398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88047850131989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89180088043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87454795837402</t>
   </si>
   <si>
     <t xml:space="preserve">1.8810179233551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89233994483948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96134829521179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98291301727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02550458908081</t>
+    <t xml:space="preserve">1.89234018325806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96134853363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98291313648224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02550435066223</t>
   </si>
   <si>
     <t xml:space="preserve">2.05515623092651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11122536659241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16621661186218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18993854522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21905088424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17807722091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17699956893921</t>
+    <t xml:space="preserve">2.11122560501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1662163734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18993830680847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21905112266541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17807745933533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17699980735779</t>
   </si>
   <si>
     <t xml:space="preserve">2.19317317008972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19371247291565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15219950675964</t>
+    <t xml:space="preserve">2.19371223449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15219974517822</t>
   </si>
   <si>
     <t xml:space="preserve">2.16028618812561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15651249885559</t>
+    <t xml:space="preserve">2.15651226043701</t>
   </si>
   <si>
     <t xml:space="preserve">2.22605991363525</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">2.31232023239136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3290331363678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3446683883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33658146858215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35383343696594</t>
+    <t xml:space="preserve">2.32903289794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34466814994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.336580991745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35383319854736</t>
   </si>
   <si>
     <t xml:space="preserve">2.38240718841553</t>
@@ -2645,16 +2645,16 @@
     <t xml:space="preserve">2.45141553878784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48430275917053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47028493881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41098141670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42445945739746</t>
+    <t xml:space="preserve">2.48430252075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47028517723083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41098165512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42445921897888</t>
   </si>
   <si>
     <t xml:space="preserve">2.41852855682373</t>
@@ -2666,19 +2666,19 @@
     <t xml:space="preserve">2.36569380760193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36946821212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32094645500183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33819842338562</t>
+    <t xml:space="preserve">2.36946797370911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32094621658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33819794654846</t>
   </si>
   <si>
     <t xml:space="preserve">2.36677241325378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37917256355286</t>
+    <t xml:space="preserve">2.37917232513428</t>
   </si>
   <si>
     <t xml:space="preserve">2.4023551940918</t>
@@ -2690,10 +2690,10 @@
     <t xml:space="preserve">2.39911961555481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3958854675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42769360542297</t>
+    <t xml:space="preserve">2.39588522911072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42769384384155</t>
   </si>
   <si>
     <t xml:space="preserve">2.40990281105042</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">2.44009351730347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45842409133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43470191955566</t>
+    <t xml:space="preserve">2.45842385292053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43470215797424</t>
   </si>
   <si>
     <t xml:space="preserve">2.43146753311157</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">2.47567653656006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42499852180481</t>
+    <t xml:space="preserve">2.42499828338623</t>
   </si>
   <si>
     <t xml:space="preserve">2.4320068359375</t>
@@ -2732,10 +2732,10 @@
     <t xml:space="preserve">2.45518946647644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4886155128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49077177047729</t>
+    <t xml:space="preserve">2.48861575126648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49077153205872</t>
   </si>
   <si>
     <t xml:space="preserve">2.47998976707458</t>
@@ -2747,16 +2747,16 @@
     <t xml:space="preserve">2.46597218513489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45950269699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47891116142273</t>
+    <t xml:space="preserve">2.45950222015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47891139984131</t>
   </si>
   <si>
     <t xml:space="preserve">2.46381521224976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49508476257324</t>
+    <t xml:space="preserve">2.49508452415466</t>
   </si>
   <si>
     <t xml:space="preserve">2.40397191047668</t>
@@ -2765,16 +2765,16 @@
     <t xml:space="preserve">2.40451145172119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38941526412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43793773651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41637182235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33226823806763</t>
+    <t xml:space="preserve">2.38941550254822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43793749809265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4163715839386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33226871490479</t>
   </si>
   <si>
     <t xml:space="preserve">2.23738121986389</t>
@@ -2798,25 +2798,25 @@
     <t xml:space="preserve">2.35760688781738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44440650939941</t>
+    <t xml:space="preserve">2.44440674781799</t>
   </si>
   <si>
     <t xml:space="preserve">2.42338109016418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50371026992798</t>
+    <t xml:space="preserve">2.50371074676514</t>
   </si>
   <si>
     <t xml:space="preserve">2.23252892494202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22498154640198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26110315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19532990455627</t>
+    <t xml:space="preserve">2.2249813079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26110291481018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19533014297485</t>
   </si>
   <si>
     <t xml:space="preserve">2.06809496879578</t>
@@ -2825,16 +2825,16 @@
     <t xml:space="preserve">2.07025194168091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11607766151428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03682565689087</t>
+    <t xml:space="preserve">2.11607813835144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03682589530945</t>
   </si>
   <si>
     <t xml:space="preserve">1.94032180309296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79260063171387</t>
+    <t xml:space="preserve">1.79260051250458</t>
   </si>
   <si>
     <t xml:space="preserve">1.74623537063599</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">1.64703631401062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42329835891724</t>
+    <t xml:space="preserve">1.42329823970795</t>
   </si>
   <si>
     <t xml:space="preserve">1.35428988933563</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">1.1165337562561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36668944358826</t>
+    <t xml:space="preserve">1.36668956279755</t>
   </si>
   <si>
     <t xml:space="preserve">1.26209890842438</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">1.38825440406799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58287978172302</t>
+    <t xml:space="preserve">1.5828800201416</t>
   </si>
   <si>
     <t xml:space="preserve">1.62223613262177</t>
@@ -2891,28 +2891,28 @@
     <t xml:space="preserve">1.46481120586395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46427202224731</t>
+    <t xml:space="preserve">1.4642721414566</t>
   </si>
   <si>
     <t xml:space="preserve">1.50955855846405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4658887386322</t>
+    <t xml:space="preserve">1.46588885784149</t>
   </si>
   <si>
     <t xml:space="preserve">1.45402836799622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44701910018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47505402565002</t>
+    <t xml:space="preserve">1.44701933860779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47505390644073</t>
   </si>
   <si>
     <t xml:space="preserve">1.4691241979599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39688050746918</t>
+    <t xml:space="preserve">1.39688038825989</t>
   </si>
   <si>
     <t xml:space="preserve">1.41035854816437</t>
@@ -2921,16 +2921,16 @@
     <t xml:space="preserve">1.3472808599472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24808156490326</t>
+    <t xml:space="preserve">1.24808144569397</t>
   </si>
   <si>
     <t xml:space="preserve">1.19416892528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20656859874725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20764708518982</t>
+    <t xml:space="preserve">1.20656871795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20764696598053</t>
   </si>
   <si>
     <t xml:space="preserve">1.15535128116608</t>
@@ -2939,28 +2939,28 @@
     <t xml:space="preserve">1.15373373031616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19255125522614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14295148849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17529940605164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24915981292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26910710334778</t>
+    <t xml:space="preserve">1.19255137443542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14295160770416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17529952526093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24915993213654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26910734176636</t>
   </si>
   <si>
     <t xml:space="preserve">1.21411609649658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18823826313019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18608140945435</t>
+    <t xml:space="preserve">1.18823838233948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18608129024506</t>
   </si>
   <si>
     <t xml:space="preserve">1.17206406593323</t>
@@ -2975,31 +2975,31 @@
     <t xml:space="preserve">1.13216876983643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09442961215973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08580362796783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08202981948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12548661231995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06277656555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04434812068939</t>
+    <t xml:space="preserve">1.09442949295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08580338954926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08202993869781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12548649311066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06277668476105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04434823989868</t>
   </si>
   <si>
     <t xml:space="preserve">1.02454459667206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02537047863007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02812039852142</t>
+    <t xml:space="preserve">1.02537035942078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02812051773071</t>
   </si>
   <si>
     <t xml:space="preserve">1.13538813591003</t>
@@ -3008,16 +3008,16 @@
     <t xml:space="preserve">1.1766449213028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22395300865173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18104648590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21020078659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23220491409302</t>
+    <t xml:space="preserve">1.22395288944244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18104660511017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.210200548172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23220479488373</t>
   </si>
   <si>
     <t xml:space="preserve">1.27181100845337</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">1.27236115932465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39613211154938</t>
+    <t xml:space="preserve">1.39613223075867</t>
   </si>
   <si>
     <t xml:space="preserve">1.4637930393219</t>
@@ -3050,22 +3050,22 @@
     <t xml:space="preserve">1.34827411174774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32131969928741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28501307964325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29821586608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24815702438354</t>
+    <t xml:space="preserve">1.3213198184967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28501296043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29821598529816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24815714359283</t>
   </si>
   <si>
     <t xml:space="preserve">1.27896273136139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21405124664307</t>
+    <t xml:space="preserve">1.21405100822449</t>
   </si>
   <si>
     <t xml:space="preserve">1.22340261936188</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">1.19534814357758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21680212020874</t>
+    <t xml:space="preserve">1.21680223941803</t>
   </si>
   <si>
     <t xml:space="preserve">1.19314801692963</t>
@@ -3083,28 +3083,28 @@
     <t xml:space="preserve">1.20194947719574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19644844532013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23275434970856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2190021276474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21350193023682</t>
+    <t xml:space="preserve">1.19644832611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23275423049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21900200843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21350181102753</t>
   </si>
   <si>
     <t xml:space="preserve">1.18159580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24100637435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37082767486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37192821502686</t>
+    <t xml:space="preserve">1.24100625514984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37082755565643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37192797660828</t>
   </si>
   <si>
     <t xml:space="preserve">1.37907886505127</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">1.35377502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33342134952545</t>
+    <t xml:space="preserve">1.33342146873474</t>
   </si>
   <si>
     <t xml:space="preserve">1.27786219120026</t>
@@ -3146,25 +3146,25 @@
     <t xml:space="preserve">1.14253985881805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12768721580505</t>
+    <t xml:space="preserve">1.12768745422363</t>
   </si>
   <si>
     <t xml:space="preserve">1.19589829444885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28721380233765</t>
+    <t xml:space="preserve">1.28721392154694</t>
   </si>
   <si>
     <t xml:space="preserve">1.30371618270874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.304816365242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27401196956635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27731204032898</t>
+    <t xml:space="preserve">1.30481672286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27401185035706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27731215953827</t>
   </si>
   <si>
     <t xml:space="preserve">1.28886437416077</t>
@@ -3173,55 +3173,55 @@
     <t xml:space="preserve">1.26796054840088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25420844554901</t>
+    <t xml:space="preserve">1.25420832633972</t>
   </si>
   <si>
     <t xml:space="preserve">1.29216480255127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29161441326141</t>
+    <t xml:space="preserve">1.29161465167999</t>
   </si>
   <si>
     <t xml:space="preserve">1.2822630405426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30921733379364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26575970649719</t>
+    <t xml:space="preserve">1.30921745300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26575982570648</t>
   </si>
   <si>
     <t xml:space="preserve">1.23165464401245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22835350036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18929779529572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2008490562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19479870796204</t>
+    <t xml:space="preserve">1.2283536195755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18929767608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20084893703461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19479882717133</t>
   </si>
   <si>
     <t xml:space="preserve">1.16234254837036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17829561233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20855104923248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20524990558624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20469975471497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1898478269577</t>
+    <t xml:space="preserve">1.17829549312592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2085508108139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20524966716766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20469963550568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18984806537628</t>
   </si>
   <si>
     <t xml:space="preserve">1.19864928722382</t>
@@ -3236,10 +3236,10 @@
     <t xml:space="preserve">1.10898423194885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11118400096893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0781786441803</t>
+    <t xml:space="preserve">1.11118412017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07817840576172</t>
   </si>
   <si>
     <t xml:space="preserve">1.07542848587036</t>
@@ -3248,118 +3248,118 @@
     <t xml:space="preserve">1.10348296165466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07267832756042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09358131885529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07157814502716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04242300987244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965468227863312</t>
+    <t xml:space="preserve">1.07267820835114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09358143806458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07157802581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04242289066315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965468347072601</t>
   </si>
   <si>
     <t xml:space="preserve">1.0056961774826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.963436543941498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972376048564911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977252125740051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952465355396271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903704285621643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907361447811127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902485370635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975626707077026</t>
+    <t xml:space="preserve">0.963436603546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972375988960266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977252066135406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952465415000916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903704226016998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907361567020416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902485311031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975626826286316</t>
   </si>
   <si>
     <t xml:space="preserve">0.962623834609985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05648875236511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98903614282608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964249193668365</t>
+    <t xml:space="preserve">1.0564888715744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989036202430725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964249134063721</t>
   </si>
   <si>
     <t xml:space="preserve">0.978064835071564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968312621116638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907767832279205</t>
+    <t xml:space="preserve">0.968312561511993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907767772674561</t>
   </si>
   <si>
     <t xml:space="preserve">0.842346668243408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83178174495697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826499283313751</t>
+    <t xml:space="preserve">0.831781685352325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826499342918396</t>
   </si>
   <si>
     <t xml:space="preserve">0.857381284236908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879323780536652</t>
+    <t xml:space="preserve">0.879323840141296</t>
   </si>
   <si>
     <t xml:space="preserve">0.899640917778015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880136430263519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851692497730255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978471219539642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970344483852386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00691521167755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07233607769012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08493268489838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1511664390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15848076343536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20642912387848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23202860355377</t>
+    <t xml:space="preserve">0.880136549472809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8516925573349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978471279144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970344424247742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00691509246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07233619689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08493280410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15116655826569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15848064422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20642900466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23202848434448</t>
   </si>
   <si>
     <t xml:space="preserve">1.23487293720245</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">1.19058179855347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20764791965485</t>
+    <t xml:space="preserve">1.20764803886414</t>
   </si>
   <si>
     <t xml:space="preserve">1.19464516639709</t>
@@ -3386,16 +3386,16 @@
     <t xml:space="preserve">1.20561623573303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19667685031891</t>
+    <t xml:space="preserve">1.19667673110962</t>
   </si>
   <si>
     <t xml:space="preserve">1.1901752948761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19830203056335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23284113407135</t>
+    <t xml:space="preserve">1.19830214977264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23284125328064</t>
   </si>
   <si>
     <t xml:space="preserve">1.19220697879791</t>
@@ -3404,19 +3404,19 @@
     <t xml:space="preserve">1.18936264514923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20074021816254</t>
+    <t xml:space="preserve">1.20074009895325</t>
   </si>
   <si>
     <t xml:space="preserve">1.18448650836945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19180083274841</t>
+    <t xml:space="preserve">1.19180071353912</t>
   </si>
   <si>
     <t xml:space="preserve">1.18001687526703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1324747800827</t>
+    <t xml:space="preserve">1.13247489929199</t>
   </si>
   <si>
     <t xml:space="preserve">1.158074259758</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">1.20277190208435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21902573108673</t>
+    <t xml:space="preserve">1.21902549266815</t>
   </si>
   <si>
     <t xml:space="preserve">1.21049249172211</t>
@@ -3443,13 +3443,13 @@
     <t xml:space="preserve">1.3397091627121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32467448711395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35189938545227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35393106937408</t>
+    <t xml:space="preserve">1.32467460632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35189926624298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35393118858337</t>
   </si>
   <si>
     <t xml:space="preserve">1.3372710943222</t>
@@ -3461,37 +3461,37 @@
     <t xml:space="preserve">1.30760812759399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33645844459534</t>
+    <t xml:space="preserve">1.33645856380463</t>
   </si>
   <si>
     <t xml:space="preserve">1.31736040115356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34011566638947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3165477514267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28038322925568</t>
+    <t xml:space="preserve">1.34011554718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31654763221741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28038334846497</t>
   </si>
   <si>
     <t xml:space="preserve">1.24178075790405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27631986141205</t>
+    <t xml:space="preserve">1.27631974220276</t>
   </si>
   <si>
     <t xml:space="preserve">1.23853003978729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26656758785248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24584424495697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25478363037109</t>
+    <t xml:space="preserve">1.26656770706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24584412574768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25478374958038</t>
   </si>
   <si>
     <t xml:space="preserve">1.37993693351746</t>
@@ -3500,43 +3500,43 @@
     <t xml:space="preserve">1.44495165348053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55181968212128</t>
+    <t xml:space="preserve">1.55181956291199</t>
   </si>
   <si>
     <t xml:space="preserve">1.5193122625351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54409909248352</t>
+    <t xml:space="preserve">1.54409921169281</t>
   </si>
   <si>
     <t xml:space="preserve">1.51606154441833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51321709156036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53028345108032</t>
+    <t xml:space="preserve">1.51321697235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53028357028961</t>
   </si>
   <si>
     <t xml:space="preserve">1.50793468952179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48030340671539</t>
+    <t xml:space="preserve">1.4803032875061</t>
   </si>
   <si>
     <t xml:space="preserve">1.45470380783081</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51240432262421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49046194553375</t>
+    <t xml:space="preserve">1.5124044418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49046206474304</t>
   </si>
   <si>
     <t xml:space="preserve">1.49005568027496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51402986049652</t>
+    <t xml:space="preserve">1.51402974128723</t>
   </si>
   <si>
     <t xml:space="preserve">1.47461473941803</t>
@@ -3545,19 +3545,19 @@
     <t xml:space="preserve">1.51362347602844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49777626991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50671565532684</t>
+    <t xml:space="preserve">1.49777615070343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50671553611755</t>
   </si>
   <si>
     <t xml:space="preserve">1.57010507583618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61236453056335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60545682907104</t>
+    <t xml:space="preserve">1.61236441135406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60545670986176</t>
   </si>
   <si>
     <t xml:space="preserve">1.59204745292664</t>
@@ -3569,10 +3569,10 @@
     <t xml:space="preserve">1.58229529857635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61724078655243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66762721538544</t>
+    <t xml:space="preserve">1.61724066734314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66762709617615</t>
   </si>
   <si>
     <t xml:space="preserve">1.65543675422668</t>
@@ -3584,7 +3584,7 @@
     <t xml:space="preserve">1.54978787899017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54816257953644</t>
+    <t xml:space="preserve">1.54816246032715</t>
   </si>
   <si>
     <t xml:space="preserve">1.56969857215881</t>
@@ -3593,19 +3593,19 @@
     <t xml:space="preserve">1.55791473388672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55872738361359</t>
+    <t xml:space="preserve">1.55872750282288</t>
   </si>
   <si>
     <t xml:space="preserve">1.5424736738205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54369270801544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52500116825104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54531800746918</t>
+    <t xml:space="preserve">1.54369282722473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52500104904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54531812667847</t>
   </si>
   <si>
     <t xml:space="preserve">1.54328644275665</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">1.53678500652313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51077902317047</t>
+    <t xml:space="preserve">1.51077914237976</t>
   </si>
   <si>
     <t xml:space="preserve">1.51971864700317</t>
@@ -3626,19 +3626,19 @@
     <t xml:space="preserve">1.52947080135345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53841042518616</t>
+    <t xml:space="preserve">1.53841030597687</t>
   </si>
   <si>
     <t xml:space="preserve">1.53719127178192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58554601669312</t>
+    <t xml:space="preserve">1.58554589748383</t>
   </si>
   <si>
     <t xml:space="preserve">1.50021409988403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46689403057098</t>
+    <t xml:space="preserve">1.46689414978027</t>
   </si>
   <si>
     <t xml:space="preserve">1.46933221817017</t>
@@ -3647,52 +3647,52 @@
     <t xml:space="preserve">1.47664642333984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52215671539307</t>
+    <t xml:space="preserve">1.52215659618378</t>
   </si>
   <si>
     <t xml:space="preserve">1.5054966211319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53922295570374</t>
+    <t xml:space="preserve">1.53922307491302</t>
   </si>
   <si>
     <t xml:space="preserve">1.52987718582153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52337563037872</t>
+    <t xml:space="preserve">1.52337574958801</t>
   </si>
   <si>
     <t xml:space="preserve">1.54084837436676</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57091760635376</t>
+    <t xml:space="preserve">1.57091772556305</t>
   </si>
   <si>
     <t xml:space="preserve">1.56319713592529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62374222278595</t>
+    <t xml:space="preserve">1.62374198436737</t>
   </si>
   <si>
     <t xml:space="preserve">1.63837039470673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61398994922638</t>
+    <t xml:space="preserve">1.6139897108078</t>
   </si>
   <si>
     <t xml:space="preserve">1.6294310092926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63024353981018</t>
+    <t xml:space="preserve">1.63024365901947</t>
   </si>
   <si>
     <t xml:space="preserve">1.63755786418915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60667586326599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59164118766785</t>
+    <t xml:space="preserve">1.6066757440567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59164106845856</t>
   </si>
   <si>
     <t xml:space="preserve">1.62089765071869</t>
@@ -3701,19 +3701,19 @@
     <t xml:space="preserve">1.72497689723969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76312530040741</t>
+    <t xml:space="preserve">1.76312518119812</t>
   </si>
   <si>
     <t xml:space="preserve">1.6785352230072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70009732246399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6893162727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68185257911682</t>
+    <t xml:space="preserve">1.70009744167328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68931615352631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68185245990753</t>
   </si>
   <si>
     <t xml:space="preserve">1.68682825565338</t>
@@ -3722,16 +3722,16 @@
     <t xml:space="preserve">1.69512140750885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68765783309937</t>
+    <t xml:space="preserve">1.68765771389008</t>
   </si>
   <si>
     <t xml:space="preserve">1.67687666416168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69926822185516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68848705291748</t>
+    <t xml:space="preserve">1.69926810264587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68848717212677</t>
   </si>
   <si>
     <t xml:space="preserve">1.7025853395462</t>
@@ -3746,16 +3746,16 @@
     <t xml:space="preserve">1.69263350963593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66609561443329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6428747177124</t>
+    <t xml:space="preserve">1.666095495224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64287459850311</t>
   </si>
   <si>
     <t xml:space="preserve">1.63084948062897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59394490718842</t>
+    <t xml:space="preserve">1.59394502639771</t>
   </si>
   <si>
     <t xml:space="preserve">1.60928738117218</t>
@@ -3764,16 +3764,16 @@
     <t xml:space="preserve">1.58813989162445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56699228286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58440780639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57735872268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52718508243561</t>
+    <t xml:space="preserve">1.56699216365814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58440792560577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57735860347748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5271852016449</t>
   </si>
   <si>
     <t xml:space="preserve">1.5147453546524</t>
@@ -3782,16 +3782,16 @@
     <t xml:space="preserve">1.52220916748047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53133165836334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52055060863495</t>
+    <t xml:space="preserve">1.53133177757263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52055048942566</t>
   </si>
   <si>
     <t xml:space="preserve">1.5325756072998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49193930625916</t>
+    <t xml:space="preserve">1.49193918704987</t>
   </si>
   <si>
     <t xml:space="preserve">1.47867012023926</t>
@@ -3815,13 +3815,13 @@
     <t xml:space="preserve">1.40154385566711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3563460111618</t>
+    <t xml:space="preserve">1.35634589195251</t>
   </si>
   <si>
     <t xml:space="preserve">1.28751289844513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29787933826447</t>
+    <t xml:space="preserve">1.29787921905518</t>
   </si>
   <si>
     <t xml:space="preserve">1.31446552276611</t>
@@ -3833,25 +3833,25 @@
     <t xml:space="preserve">1.33893036842346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35924875736237</t>
+    <t xml:space="preserve">1.35924863815308</t>
   </si>
   <si>
     <t xml:space="preserve">1.34349167346954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34473562240601</t>
+    <t xml:space="preserve">1.34473550319672</t>
   </si>
   <si>
     <t xml:space="preserve">1.34846758842468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36546850204468</t>
+    <t xml:space="preserve">1.36546838283539</t>
   </si>
   <si>
     <t xml:space="preserve">1.36505377292633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34639430046082</t>
+    <t xml:space="preserve">1.34639406204224</t>
   </si>
   <si>
     <t xml:space="preserve">1.35510194301605</t>
@@ -3881,7 +3881,7 @@
     <t xml:space="preserve">1.47037696838379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48032879829407</t>
+    <t xml:space="preserve">1.48032867908478</t>
   </si>
   <si>
     <t xml:space="preserve">1.45627856254578</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">1.45130264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48240208625793</t>
+    <t xml:space="preserve">1.48240196704865</t>
   </si>
   <si>
     <t xml:space="preserve">1.48779261112213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51889204978943</t>
+    <t xml:space="preserve">1.51889193058014</t>
   </si>
   <si>
     <t xml:space="preserve">1.49898827075958</t>
@@ -3911,31 +3911,31 @@
     <t xml:space="preserve">1.52801430225372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53755152225494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53050231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54833269119263</t>
+    <t xml:space="preserve">1.53755164146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53050220012665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54833257198334</t>
   </si>
   <si>
     <t xml:space="preserve">1.5076961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49650037288666</t>
+    <t xml:space="preserve">1.49650049209595</t>
   </si>
   <si>
     <t xml:space="preserve">1.51101350784302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50230550765991</t>
+    <t xml:space="preserve">1.5023056268692</t>
   </si>
   <si>
     <t xml:space="preserve">1.50106155872345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48323118686676</t>
+    <t xml:space="preserve">1.48323130607605</t>
   </si>
   <si>
     <t xml:space="preserve">1.40403163433075</t>
@@ -3959,10 +3959,10 @@
     <t xml:space="preserve">1.57155346870422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61177539825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60306751728058</t>
+    <t xml:space="preserve">1.6117752790451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60306739807129</t>
   </si>
   <si>
     <t xml:space="preserve">1.64163076877594</t>
@@ -3977,10 +3977,10 @@
     <t xml:space="preserve">1.6669248342514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68599915504456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71253728866577</t>
+    <t xml:space="preserve">1.68599903583527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71253716945648</t>
   </si>
   <si>
     <t xml:space="preserve">1.714195728302</t>
@@ -3992,13 +3992,13 @@
     <t xml:space="preserve">1.70839047431946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71087849140167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72331833839417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69843876361847</t>
+    <t xml:space="preserve">1.71087837219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72331845760345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69843888282776</t>
   </si>
   <si>
     <t xml:space="preserve">1.69760942459106</t>
@@ -4013,25 +4013,25 @@
     <t xml:space="preserve">1.67936456203461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57113885879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.562016248703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59021317958832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58772504329681</t>
+    <t xml:space="preserve">1.57113873958588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56201636791229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59021306037903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5877251625061</t>
   </si>
   <si>
     <t xml:space="preserve">1.5690655708313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59601819515228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59145712852478</t>
+    <t xml:space="preserve">1.59601831436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59145700931549</t>
   </si>
   <si>
     <t xml:space="preserve">1.58357858657837</t>
@@ -4040,28 +4040,28 @@
     <t xml:space="preserve">1.59518897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58482265472412</t>
+    <t xml:space="preserve">1.58482253551483</t>
   </si>
   <si>
     <t xml:space="preserve">1.59726226329803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57652950286865</t>
+    <t xml:space="preserve">1.57652938365936</t>
   </si>
   <si>
     <t xml:space="preserve">1.53174638748169</t>
   </si>
   <si>
-    <t xml:space="preserve">1.489865899086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49567115306854</t>
+    <t xml:space="preserve">1.48986577987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49567103385925</t>
   </si>
   <si>
     <t xml:space="preserve">1.48862183094025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47079169750214</t>
+    <t xml:space="preserve">1.47079157829285</t>
   </si>
   <si>
     <t xml:space="preserve">1.40734899044037</t>
@@ -4085,7 +4085,7 @@
     <t xml:space="preserve">1.45254671573639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4649863243103</t>
+    <t xml:space="preserve">1.46498644351959</t>
   </si>
   <si>
     <t xml:space="preserve">1.43969213962555</t>
@@ -4100,31 +4100,31 @@
     <t xml:space="preserve">1.54086875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47535300254822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47286486625671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43678951263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47410893440247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46125435829163</t>
+    <t xml:space="preserve">1.47535288333893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.472864985466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43678963184357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47410881519318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46125447750092</t>
   </si>
   <si>
     <t xml:space="preserve">1.48530459403992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50354957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51516008377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51184260845184</t>
+    <t xml:space="preserve">1.50354945659637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51515996456146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51184272766113</t>
   </si>
   <si>
     <t xml:space="preserve">1.56326031684875</t>
@@ -4133,10 +4133,10 @@
     <t xml:space="preserve">1.59311580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58896911144257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60057950019836</t>
+    <t xml:space="preserve">1.58896899223328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60057938098907</t>
   </si>
   <si>
     <t xml:space="preserve">1.59892082214355</t>
@@ -4154,7 +4154,7 @@
     <t xml:space="preserve">1.59062778949738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56077229976654</t>
+    <t xml:space="preserve">1.56077241897583</t>
   </si>
   <si>
     <t xml:space="preserve">1.48820722103119</t>
@@ -4163,7 +4163,7 @@
     <t xml:space="preserve">1.48281669616699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55040597915649</t>
+    <t xml:space="preserve">1.55040609836578</t>
   </si>
   <si>
     <t xml:space="preserve">1.5868958234787</t>
@@ -4175,10 +4175,10 @@
     <t xml:space="preserve">1.537966132164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60804343223572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63955748081207</t>
+    <t xml:space="preserve">1.60804331302643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63955736160278</t>
   </si>
   <si>
     <t xml:space="preserve">1.62297105789185</t>
@@ -4187,22 +4187,22 @@
     <t xml:space="preserve">1.68268191814423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68019390106201</t>
+    <t xml:space="preserve">1.68019378185272</t>
   </si>
   <si>
     <t xml:space="preserve">1.70590257644653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64038670063019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79049277305603</t>
+    <t xml:space="preserve">1.64038681983948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79049265384674</t>
   </si>
   <si>
     <t xml:space="preserve">1.76893043518066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67438876628876</t>
+    <t xml:space="preserve">1.67438864707947</t>
   </si>
   <si>
     <t xml:space="preserve">1.62545895576477</t>
@@ -4220,7 +4220,7 @@
     <t xml:space="preserve">1.37251770496368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30078184604645</t>
+    <t xml:space="preserve">1.30078196525574</t>
   </si>
   <si>
     <t xml:space="preserve">1.16311538219452</t>
@@ -4235,10 +4235,10 @@
     <t xml:space="preserve">1.27839028835297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18260431289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17596983909607</t>
+    <t xml:space="preserve">1.18260443210602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17596971988678</t>
   </si>
   <si>
     <t xml:space="preserve">1.22407007217407</t>
@@ -4250,7 +4250,7 @@
     <t xml:space="preserve">1.34058904647827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31031894683838</t>
+    <t xml:space="preserve">1.31031906604767</t>
   </si>
   <si>
     <t xml:space="preserve">1.30202579498291</t>
@@ -4280,10 +4280,10 @@
     <t xml:space="preserve">1.31819748878479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33271050453186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27548766136169</t>
+    <t xml:space="preserve">1.33271062374115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27548778057098</t>
   </si>
   <si>
     <t xml:space="preserve">1.27756094932556</t>
@@ -4292,19 +4292,19 @@
     <t xml:space="preserve">1.32814931869507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3260760307312</t>
+    <t xml:space="preserve">1.32607591152191</t>
   </si>
   <si>
     <t xml:space="preserve">1.28378081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28668355941772</t>
+    <t xml:space="preserve">1.28668344020844</t>
   </si>
   <si>
     <t xml:space="preserve">1.29995250701904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30575776100159</t>
+    <t xml:space="preserve">1.3057576417923</t>
   </si>
   <si>
     <t xml:space="preserve">1.35178470611572</t>
@@ -4313,22 +4313,22 @@
     <t xml:space="preserve">1.36090731620789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34141826629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32731986045837</t>
+    <t xml:space="preserve">1.34141838550568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32731997966766</t>
   </si>
   <si>
     <t xml:space="preserve">1.31197762489319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32151484489441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31280696392059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33105194568634</t>
+    <t xml:space="preserve">1.32151472568512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3128068447113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33105182647705</t>
   </si>
   <si>
     <t xml:space="preserve">1.32234406471252</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">1.26180398464203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40983700752258</t>
+    <t xml:space="preserve">1.40983688831329</t>
   </si>
   <si>
     <t xml:space="preserve">1.44425356388092</t>
@@ -4361,16 +4361,16 @@
     <t xml:space="preserve">1.4641569852829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45710802078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46623027324677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44840002059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54587602615356</t>
+    <t xml:space="preserve">1.45710790157318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46623039245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44840013980865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54587614536285</t>
   </si>
   <si>
     <t xml:space="preserve">1.56219375133514</t>
@@ -4379,13 +4379,13 @@
     <t xml:space="preserve">1.60599362850189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62574648857117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61887586116791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61844658851624</t>
+    <t xml:space="preserve">1.62574636936188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6188759803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61844646930695</t>
   </si>
   <si>
     <t xml:space="preserve">1.6459287405014</t>
@@ -4394,16 +4394,16 @@
     <t xml:space="preserve">1.64206397533417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65623450279236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59998190402985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65838158130646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61801695823669</t>
+    <t xml:space="preserve">1.65623462200165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59998202323914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65838170051575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61801707744598</t>
   </si>
   <si>
     <t xml:space="preserve">1.66525220870972</t>
@@ -4412,10 +4412,10 @@
     <t xml:space="preserve">1.67555797100067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45913541316986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41147077083588</t>
+    <t xml:space="preserve">1.45913529396057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41147089004517</t>
   </si>
   <si>
     <t xml:space="preserve">1.42134726047516</t>
@@ -4442,7 +4442,7 @@
     <t xml:space="preserve">1.40073561668396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44625306129456</t>
+    <t xml:space="preserve">1.44625318050385</t>
   </si>
   <si>
     <t xml:space="preserve">1.42435312271118</t>
@@ -4451,10 +4451,10 @@
     <t xml:space="preserve">1.42220604419708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40116500854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34620046615601</t>
+    <t xml:space="preserve">1.40116512775421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3462005853653</t>
   </si>
   <si>
     <t xml:space="preserve">1.30454778671265</t>
@@ -4475,7 +4475,7 @@
     <t xml:space="preserve">1.29681837558746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23798906803131</t>
+    <t xml:space="preserve">1.2379891872406</t>
   </si>
   <si>
     <t xml:space="preserve">1.20750105381012</t>
@@ -4487,7 +4487,7 @@
     <t xml:space="preserve">1.10358381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11045444011688</t>
+    <t xml:space="preserve">1.11045432090759</t>
   </si>
   <si>
     <t xml:space="preserve">1.12505424022675</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">1.20148932933807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16713643074036</t>
+    <t xml:space="preserve">1.16713654994965</t>
   </si>
   <si>
     <t xml:space="preserve">1.13063657283783</t>
@@ -4505,7 +4505,7 @@
     <t xml:space="preserve">1.11260151863098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14137196540833</t>
+    <t xml:space="preserve">1.14137184619904</t>
   </si>
   <si>
     <t xml:space="preserve">1.10959565639496</t>
@@ -4517,13 +4517,13 @@
     <t xml:space="preserve">1.13364255428314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15940713882446</t>
+    <t xml:space="preserve">1.15940725803375</t>
   </si>
   <si>
     <t xml:space="preserve">1.17186009883881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19118332862854</t>
+    <t xml:space="preserve">1.19118344783783</t>
   </si>
   <si>
     <t xml:space="preserve">1.23884797096252</t>
@@ -4532,7 +4532,7 @@
     <t xml:space="preserve">1.23068928718567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35006535053253</t>
+    <t xml:space="preserve">1.35006523132324</t>
   </si>
   <si>
     <t xml:space="preserve">1.38270044326782</t>
@@ -4541,7 +4541,7 @@
     <t xml:space="preserve">1.39386510848999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42564129829407</t>
+    <t xml:space="preserve">1.42564141750336</t>
   </si>
   <si>
     <t xml:space="preserve">1.40631794929504</t>
@@ -4553,7 +4553,7 @@
     <t xml:space="preserve">1.40717673301697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36122977733612</t>
+    <t xml:space="preserve">1.36122989654541</t>
   </si>
   <si>
     <t xml:space="preserve">1.31571233272552</t>
@@ -4562,7 +4562,7 @@
     <t xml:space="preserve">1.33417701721191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33374750614166</t>
+    <t xml:space="preserve">1.33374762535095</t>
   </si>
   <si>
     <t xml:space="preserve">1.31356537342072</t>
@@ -4571,7 +4571,7 @@
     <t xml:space="preserve">1.27105379104614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2714831829071</t>
+    <t xml:space="preserve">1.27148306369781</t>
   </si>
   <si>
     <t xml:space="preserve">1.29295361042023</t>
@@ -4580,16 +4580,16 @@
     <t xml:space="preserve">1.29252421855927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27448904514313</t>
+    <t xml:space="preserve">1.27448892593384</t>
   </si>
   <si>
     <t xml:space="preserve">1.30540657043457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26633012294769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26890671253204</t>
+    <t xml:space="preserve">1.26633024215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26890659332275</t>
   </si>
   <si>
     <t xml:space="preserve">1.25087153911591</t>
@@ -4604,16 +4604,16 @@
     <t xml:space="preserve">1.39558267593384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38141214847565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43337070941925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43895304203033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44797074794769</t>
+    <t xml:space="preserve">1.38141202926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43337082862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43895316123962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4479706287384</t>
   </si>
   <si>
     <t xml:space="preserve">1.45527052879333</t>
@@ -4643,7 +4643,7 @@
     <t xml:space="preserve">1.33632409572601</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35779464244843</t>
+    <t xml:space="preserve">1.35779452323914</t>
   </si>
   <si>
     <t xml:space="preserve">1.38398861885071</t>
@@ -4655,7 +4655,7 @@
     <t xml:space="preserve">1.41576492786407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37239444255829</t>
+    <t xml:space="preserve">1.37239456176758</t>
   </si>
   <si>
     <t xml:space="preserve">1.39042973518372</t>
@@ -4673,7 +4673,7 @@
     <t xml:space="preserve">1.42048847675323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45097649097443</t>
+    <t xml:space="preserve">1.45097661018372</t>
   </si>
   <si>
     <t xml:space="preserve">1.46042358875275</t>
@@ -4688,7 +4688,7 @@
     <t xml:space="preserve">1.49563527107239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53814673423767</t>
+    <t xml:space="preserve">1.53814685344696</t>
   </si>
   <si>
     <t xml:space="preserve">1.52869987487793</t>
@@ -4706,10 +4706,10 @@
     <t xml:space="preserve">1.6081405878067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62746405601501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65408754348755</t>
+    <t xml:space="preserve">1.6274641752243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65408742427826</t>
   </si>
   <si>
     <t xml:space="preserve">1.65537583827972</t>
@@ -4721,13 +4721,13 @@
     <t xml:space="preserve">1.76058113574982</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62531709671021</t>
+    <t xml:space="preserve">1.62531721591949</t>
   </si>
   <si>
     <t xml:space="preserve">1.58022904396057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61329352855682</t>
+    <t xml:space="preserve">1.61329364776611</t>
   </si>
   <si>
     <t xml:space="preserve">1.59096419811249</t>
@@ -4739,10 +4739,10 @@
     <t xml:space="preserve">1.6167289018631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63991701602936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64421105384827</t>
+    <t xml:space="preserve">1.63991689682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64421117305756</t>
   </si>
   <si>
     <t xml:space="preserve">1.6480758190155</t>
@@ -4793,7 +4793,7 @@
     <t xml:space="preserve">1.67426979541779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61586999893188</t>
+    <t xml:space="preserve">1.61587011814117</t>
   </si>
   <si>
     <t xml:space="preserve">1.61458170413971</t>
@@ -4823,7 +4823,7 @@
     <t xml:space="preserve">1.74941647052765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7434047460556</t>
+    <t xml:space="preserve">1.74340486526489</t>
   </si>
   <si>
     <t xml:space="preserve">1.7889221906662</t>
@@ -4832,7 +4832,7 @@
     <t xml:space="preserve">1.79751038551331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81211030483246</t>
+    <t xml:space="preserve">1.81211042404175</t>
   </si>
   <si>
     <t xml:space="preserve">1.81125164031982</t>
@@ -4853,13 +4853,13 @@
     <t xml:space="preserve">1.93406307697296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93234515190125</t>
+    <t xml:space="preserve">1.93234527111053</t>
   </si>
   <si>
     <t xml:space="preserve">1.96927440166473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98129796981812</t>
+    <t xml:space="preserve">1.98129785060883</t>
   </si>
   <si>
     <t xml:space="preserve">2.0096390247345</t>
@@ -4877,7 +4877,7 @@
     <t xml:space="preserve">2.08693289756775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16164994239807</t>
+    <t xml:space="preserve">2.16165018081665</t>
   </si>
   <si>
     <t xml:space="preserve">2.23293209075928</t>
@@ -4889,7 +4889,7 @@
     <t xml:space="preserve">2.18140292167664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32743072509766</t>
+    <t xml:space="preserve">2.32743096351624</t>
   </si>
   <si>
     <t xml:space="preserve">2.2949800491333</t>
@@ -4907,10 +4907,10 @@
     <t xml:space="preserve">2.33914923667908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33734631538391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41036009788513</t>
+    <t xml:space="preserve">2.33734607696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41036033630371</t>
   </si>
   <si>
     <t xml:space="preserve">2.51672601699829</t>
@@ -4928,22 +4928,22 @@
     <t xml:space="preserve">2.37971234321594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32472681999207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39143085479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42207860946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40044498443604</t>
+    <t xml:space="preserve">2.32472658157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39143061637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42207837104797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40044474601746</t>
   </si>
   <si>
     <t xml:space="preserve">2.41486716270447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4346981048584</t>
+    <t xml:space="preserve">2.43469834327698</t>
   </si>
   <si>
     <t xml:space="preserve">2.48247265815735</t>
@@ -4952,7 +4952,7 @@
     <t xml:space="preserve">2.48517680168152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54827523231506</t>
+    <t xml:space="preserve">2.54827547073364</t>
   </si>
   <si>
     <t xml:space="preserve">2.53926110267639</t>
@@ -4970,7 +4970,7 @@
     <t xml:space="preserve">2.06962871551514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07413601875305</t>
+    <t xml:space="preserve">2.07413578033447</t>
   </si>
   <si>
     <t xml:space="preserve">2.01644563674927</t>
@@ -4988,16 +4988,16 @@
     <t xml:space="preserve">2.07593846321106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99210774898529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01554417610168</t>
+    <t xml:space="preserve">1.99210786819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01554441452026</t>
   </si>
   <si>
     <t xml:space="preserve">2.02185416221619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07683968544006</t>
+    <t xml:space="preserve">2.07683992385864</t>
   </si>
   <si>
     <t xml:space="preserve">2.06422019004822</t>
@@ -5006,19 +5006,19 @@
     <t xml:space="preserve">2.04889631271362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06692457199097</t>
+    <t xml:space="preserve">2.06692433357239</t>
   </si>
   <si>
     <t xml:space="preserve">2.09937500953674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09847354888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13092422485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12731862068176</t>
+    <t xml:space="preserve">2.09847378730774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13092446327209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12731838226318</t>
   </si>
   <si>
     <t xml:space="preserve">2.16878318786621</t>
@@ -5030,10 +5030,10 @@
     <t xml:space="preserve">2.26252961158752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27334642410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36619138717651</t>
+    <t xml:space="preserve">2.27334666252136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36619114875793</t>
   </si>
   <si>
     <t xml:space="preserve">2.40675473213196</t>
@@ -5045,7 +5045,7 @@
     <t xml:space="preserve">2.47435998916626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46444439888</t>
+    <t xml:space="preserve">2.46444463729858</t>
   </si>
   <si>
     <t xml:space="preserve">2.29858589172363</t>
@@ -5054,13 +5054,13 @@
     <t xml:space="preserve">2.3905291557312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29407906532288</t>
+    <t xml:space="preserve">2.2940788269043</t>
   </si>
   <si>
     <t xml:space="preserve">2.25802254676819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29678297042847</t>
+    <t xml:space="preserve">2.29678320884705</t>
   </si>
   <si>
     <t xml:space="preserve">2.25982522964478</t>
@@ -5078,10 +5078,10 @@
     <t xml:space="preserve">2.4058530330658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45993781089783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44461369514465</t>
+    <t xml:space="preserve">2.45993757247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44461345672607</t>
   </si>
   <si>
     <t xml:space="preserve">2.44371223449707</t>
@@ -5090,7 +5090,7 @@
     <t xml:space="preserve">2.42838835716248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43379688262939</t>
+    <t xml:space="preserve">2.43379664421082</t>
   </si>
   <si>
     <t xml:space="preserve">2.46398329734802</t>
@@ -5913,6 +5913,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.2480001449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27199983596802</t>
   </si>
 </sst>
 </file>
@@ -62622,7 +62625,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6507638889</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>19990341</v>
@@ -62643,6 +62646,32 @@
         <v>1966</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6494097222</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>11056830</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>5.31400012969971</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>5.2039999961853</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>5.28599977493286</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>5.27199983596802</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1967</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1972">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33120560646057</t>
+    <t xml:space="preserve">3.33120512962341</t>
   </si>
   <si>
     <t xml:space="preserve">BPE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37296795845032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22311234474182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14941358566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07817053794861</t>
+    <t xml:space="preserve">3.37296772003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2231125831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14941334724426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07817077636719</t>
   </si>
   <si>
     <t xml:space="preserve">3.08062744140625</t>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">3.05606055259705</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2034592628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0388650894165</t>
+    <t xml:space="preserve">3.20345878601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03886485099792</t>
   </si>
   <si>
     <t xml:space="preserve">2.77354741096497</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">2.55981945991516</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84233355522156</t>
+    <t xml:space="preserve">2.84233379364014</t>
   </si>
   <si>
     <t xml:space="preserve">2.81039690971375</t>
@@ -89,19 +89,19 @@
     <t xml:space="preserve">2.8963794708252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77846074104309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56964635848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70230460166931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63597536087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45664095878601</t>
+    <t xml:space="preserve">2.77846050262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56964659690857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70230484008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63597512245178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45664072036743</t>
   </si>
   <si>
     <t xml:space="preserve">2.25323081016541</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">2.21490716934204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9505729675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90831863880157</t>
+    <t xml:space="preserve">1.95057284832001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90831875801086</t>
   </si>
   <si>
     <t xml:space="preserve">2.03999400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84444606304169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05669951438904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26502275466919</t>
+    <t xml:space="preserve">1.84444570541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05669927597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26502227783203</t>
   </si>
   <si>
     <t xml:space="preserve">2.37508010864258</t>
@@ -137,58 +137,58 @@
     <t xml:space="preserve">2.43207454681396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41733455657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27288389205933</t>
+    <t xml:space="preserve">2.41733431816101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27288413047791</t>
   </si>
   <si>
     <t xml:space="preserve">2.50331711769104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40849018096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25519633293152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31120729446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35444450378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31415581703186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34854793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46401047706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42126488685608</t>
+    <t xml:space="preserve">2.40849041938782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2551965713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31120705604553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3544442653656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31415605545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34854817390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4640109539032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42126512527466</t>
   </si>
   <si>
     <t xml:space="preserve">2.43109178543091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30531191825867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27190113067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29745078086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31808614730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51068687438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54507994651794</t>
+    <t xml:space="preserve">2.30531144142151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27190136909485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29745054244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31808662414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51068663597107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54507970809937</t>
   </si>
   <si>
     <t xml:space="preserve">2.46155333518982</t>
@@ -197,19 +197,19 @@
     <t xml:space="preserve">2.29450225830078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3200511932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34068727493286</t>
+    <t xml:space="preserve">2.32005143165588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34068703651428</t>
   </si>
   <si>
     <t xml:space="preserve">2.33479142189026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30039834976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23750805854797</t>
+    <t xml:space="preserve">2.30039858818054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23750853538513</t>
   </si>
   <si>
     <t xml:space="preserve">2.14513850212097</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">2.05571675300598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09305810928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.974156498909</t>
+    <t xml:space="preserve">2.09305787086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97415626049042</t>
   </si>
   <si>
     <t xml:space="preserve">1.96334683895111</t>
@@ -236,25 +236,25 @@
     <t xml:space="preserve">2.11172819137573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21392488479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12548565864563</t>
+    <t xml:space="preserve">2.21392512321472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12548589706421</t>
   </si>
   <si>
     <t xml:space="preserve">2.36918449401855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47629404067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48366332054138</t>
+    <t xml:space="preserve">2.47629380226135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48366355895996</t>
   </si>
   <si>
     <t xml:space="preserve">2.40062952041626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47138023376465</t>
+    <t xml:space="preserve">2.47138047218323</t>
   </si>
   <si>
     <t xml:space="preserve">2.54999279975891</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">2.56227588653564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47383689880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55490612983704</t>
+    <t xml:space="preserve">2.47383761405945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55490636825562</t>
   </si>
   <si>
     <t xml:space="preserve">2.51559996604919</t>
@@ -278,34 +278,34 @@
     <t xml:space="preserve">2.50822997093201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41635155677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31022500991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28467607498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22080302238464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16282629966736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15693044662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15103507041931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11762428283691</t>
+    <t xml:space="preserve">2.41635179519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31022524833679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28467655181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2208034992218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16282606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15693020820618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15103483200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11762452125549</t>
   </si>
   <si>
     <t xml:space="preserve">2.11467576026917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14710450172424</t>
+    <t xml:space="preserve">2.14710402488708</t>
   </si>
   <si>
     <t xml:space="preserve">2.26600503921509</t>
@@ -314,37 +314,37 @@
     <t xml:space="preserve">2.15987849235535</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1873927116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14416766166687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31304717063904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42864871025085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38140249252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38743472099304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41055512428284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2859058380127</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.18739295005798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14416766166687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3130464553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42864871025085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38140273094177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38743472099304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41055512428284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28590631484985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1873927116394</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.25675415992737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16628265380859</t>
+    <t xml:space="preserve">2.16628289222717</t>
   </si>
   <si>
     <t xml:space="preserve">2.15622997283936</t>
@@ -353,22 +353,22 @@
     <t xml:space="preserve">2.18437671661377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22559213638306</t>
+    <t xml:space="preserve">2.22559189796448</t>
   </si>
   <si>
     <t xml:space="preserve">2.07983255386353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95317256450653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89788460731506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89185345172882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84259641170502</t>
+    <t xml:space="preserve">1.95317244529724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89788472652435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8918536901474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84259653091431</t>
   </si>
   <si>
     <t xml:space="preserve">2.02555012702942</t>
@@ -377,178 +377,178 @@
     <t xml:space="preserve">2.11702609062195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17130875587463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16226172447205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32812547683716</t>
+    <t xml:space="preserve">2.1713080406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16226196289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32812595367432</t>
   </si>
   <si>
     <t xml:space="preserve">1.75514149665833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73704695701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69583189487457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60335063934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64758098125458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56816697120667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46261751651764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46362292766571</t>
+    <t xml:space="preserve">1.73704719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69583177566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60335052013397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64758121967316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56816732883453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46261763572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.463623046875</t>
   </si>
   <si>
     <t xml:space="preserve">1.35907816886902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29775846004486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50785303115845</t>
+    <t xml:space="preserve">1.29775869846344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50785291194916</t>
   </si>
   <si>
     <t xml:space="preserve">1.57821977138519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7068897485733</t>
+    <t xml:space="preserve">1.70688986778259</t>
   </si>
   <si>
     <t xml:space="preserve">1.62144494056702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69080638885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71091067790985</t>
+    <t xml:space="preserve">1.69080650806427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71091091632843</t>
   </si>
   <si>
     <t xml:space="preserve">1.72096335887909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70487916469574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72297358512878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77826142311096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76519358158112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71794736385345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72598886489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80540299415588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74910986423492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84460735321045</t>
+    <t xml:space="preserve">1.70487904548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72297370433807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77826154232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76519346237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71794724464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72598910331726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8054027557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7491101026535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84460723400116</t>
   </si>
   <si>
     <t xml:space="preserve">1.74006259441376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52494204044342</t>
+    <t xml:space="preserve">1.52494192123413</t>
   </si>
   <si>
     <t xml:space="preserve">1.58626139163971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59430313110352</t>
+    <t xml:space="preserve">1.59430325031281</t>
   </si>
   <si>
     <t xml:space="preserve">1.8023875951767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76921403408051</t>
+    <t xml:space="preserve">1.76921415328979</t>
   </si>
   <si>
     <t xml:space="preserve">1.80439758300781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79334032535553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79233491420746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76720404624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75413608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68879544734955</t>
+    <t xml:space="preserve">1.79334020614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79233467578888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76720416545868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75413596630096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68879532814026</t>
   </si>
   <si>
     <t xml:space="preserve">1.71895265579224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61943447589874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63049221038818</t>
+    <t xml:space="preserve">1.61943423748016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63049209117889</t>
   </si>
   <si>
     <t xml:space="preserve">1.72397899627686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76117205619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70990538597107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67472195625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72196793556213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73403131961823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76619875431061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79032409191132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7581570148468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81746578216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82048165798187</t>
+    <t xml:space="preserve">1.7611722946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70990550518036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67472207546234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72196817398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73403143882751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76619899272919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79032421112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75815689563751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81746566295624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82048106193542</t>
   </si>
   <si>
     <t xml:space="preserve">1.78429305553436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75011515617371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70387470722198</t>
+    <t xml:space="preserve">1.750115275383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70387446880341</t>
   </si>
   <si>
     <t xml:space="preserve">1.64657592773438</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">1.6003350019455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67572736740112</t>
+    <t xml:space="preserve">1.67572772502899</t>
   </si>
   <si>
     <t xml:space="preserve">1.67974817752838</t>
@@ -572,19 +572,19 @@
     <t xml:space="preserve">1.57922506332397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6144083738327</t>
+    <t xml:space="preserve">1.61440849304199</t>
   </si>
   <si>
     <t xml:space="preserve">1.61742413043976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66467010974884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62647151947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70286881923676</t>
+    <t xml:space="preserve">1.66467022895813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62647128105164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70286905765533</t>
   </si>
   <si>
     <t xml:space="preserve">1.70789527893066</t>
@@ -593,16 +593,16 @@
     <t xml:space="preserve">1.68376922607422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74408340454102</t>
+    <t xml:space="preserve">1.74408328533173</t>
   </si>
   <si>
     <t xml:space="preserve">1.84963381290436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89084792137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80841863155365</t>
+    <t xml:space="preserve">1.89084815979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80841839313507</t>
   </si>
   <si>
     <t xml:space="preserve">1.90291059017181</t>
@@ -611,28 +611,28 @@
     <t xml:space="preserve">1.94312047958374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0426390171051</t>
+    <t xml:space="preserve">2.04263877868652</t>
   </si>
   <si>
     <t xml:space="preserve">2.14014649391174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13512063026428</t>
+    <t xml:space="preserve">2.1351203918457</t>
   </si>
   <si>
     <t xml:space="preserve">2.18940305709839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09792709350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13210487365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18236660957336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17633485794067</t>
+    <t xml:space="preserve">2.09792685508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13210463523865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18236637115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17633461952209</t>
   </si>
   <si>
     <t xml:space="preserve">2.14818835258484</t>
@@ -641,16 +641,16 @@
     <t xml:space="preserve">2.13009405136108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01047110557556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98534023761749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96322464942932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03158116340637</t>
+    <t xml:space="preserve">2.01047134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98534059524536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9632248878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03158092498779</t>
   </si>
   <si>
     <t xml:space="preserve">2.06977987289429</t>
@@ -659,55 +659,55 @@
     <t xml:space="preserve">2.09993743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10094213485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07882714271545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06877422332764</t>
+    <t xml:space="preserve">2.10094261169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07882738113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06877446174622</t>
   </si>
   <si>
     <t xml:space="preserve">2.00846028327942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92301511764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88381159305573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87576901912689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9139689207077</t>
+    <t xml:space="preserve">1.92301547527313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88381171226501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8757688999176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91396880149841</t>
   </si>
   <si>
     <t xml:space="preserve">1.90391612052917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90994727611542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88079559803009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90492177009583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05771708488464</t>
+    <t xml:space="preserve">1.90994763374329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88079524040222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90492153167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05771684646606</t>
   </si>
   <si>
     <t xml:space="preserve">2.01650261878967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15321469306946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3773820400238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41155982017517</t>
+    <t xml:space="preserve">2.15321493148804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37738227844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41156005859375</t>
   </si>
   <si>
     <t xml:space="preserve">2.37436652183533</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">2.4296543598175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49499464035034</t>
+    <t xml:space="preserve">2.49499487876892</t>
   </si>
   <si>
     <t xml:space="preserve">2.51560211181641</t>
@@ -731,148 +731,148 @@
     <t xml:space="preserve">2.4980103969574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51308917999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56837701797485</t>
+    <t xml:space="preserve">2.5130889415741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56837677955627</t>
   </si>
   <si>
     <t xml:space="preserve">2.59350776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60104703903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54324650764465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64879608154297</t>
+    <t xml:space="preserve">2.6010468006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5432460308075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64879584312439</t>
   </si>
   <si>
     <t xml:space="preserve">2.74931907653809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70408368110657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387414932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53068041801453</t>
+    <t xml:space="preserve">2.70408391952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66387391090393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53068113327026</t>
   </si>
   <si>
     <t xml:space="preserve">2.51811456680298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66890025138855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64376926422119</t>
+    <t xml:space="preserve">2.66890001296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64376950263977</t>
   </si>
   <si>
     <t xml:space="preserve">2.68649196624756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69654440879822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84230375289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88753890991211</t>
+    <t xml:space="preserve">2.69654417037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84230351448059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88753914833069</t>
   </si>
   <si>
     <t xml:space="preserve">2.81968569755554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82722473144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240816116333</t>
+    <t xml:space="preserve">2.82722496986389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240839958191</t>
   </si>
   <si>
     <t xml:space="preserve">2.81717276573181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68397903442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63371706008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69403100013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70659637451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77193665504456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61361241340637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5231409072876</t>
+    <t xml:space="preserve">2.68397927284241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63371682167053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69403076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70659613609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77193689346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61361265182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52314114570618</t>
   </si>
   <si>
     <t xml:space="preserve">2.55329823493958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39045000076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39849209785461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48092150688171</t>
+    <t xml:space="preserve">2.39044976234436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39849185943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48092126846313</t>
   </si>
   <si>
     <t xml:space="preserve">2.41759157180786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33415675163269</t>
+    <t xml:space="preserve">2.33415651321411</t>
   </si>
   <si>
     <t xml:space="preserve">2.26177978515625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23765444755554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23463869094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14919376373291</t>
+    <t xml:space="preserve">2.23765420913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23463845252991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14919424057007</t>
   </si>
   <si>
     <t xml:space="preserve">2.110995054245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0808379650116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25172758102417</t>
+    <t xml:space="preserve">2.08083772659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25172805786133</t>
   </si>
   <si>
     <t xml:space="preserve">2.26077508926392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36230373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29796862602234</t>
+    <t xml:space="preserve">2.36230421066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29796886444092</t>
   </si>
   <si>
     <t xml:space="preserve">2.20146560668945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20649194717407</t>
+    <t xml:space="preserve">2.20649170875549</t>
   </si>
   <si>
     <t xml:space="preserve">2.27987432479858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35426187515259</t>
+    <t xml:space="preserve">2.35426211357117</t>
   </si>
   <si>
     <t xml:space="preserve">2.3150577545166</t>
@@ -887,28 +887,28 @@
     <t xml:space="preserve">2.37235641479492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34420943260193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41457629203796</t>
+    <t xml:space="preserve">2.34420919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41457605361938</t>
   </si>
   <si>
     <t xml:space="preserve">2.42362332344055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49197936058044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46383213996887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41960167884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43468046188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38944554328918</t>
+    <t xml:space="preserve">2.49197912216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46383237838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41960144042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43468070030212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38944530487061</t>
   </si>
   <si>
     <t xml:space="preserve">2.35727739334106</t>
@@ -917,28 +917,28 @@
     <t xml:space="preserve">2.35225105285645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26982140541077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28691053390503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28490042686462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30198931694031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479601860046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21051239967346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19241952896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30399942398071</t>
+    <t xml:space="preserve">2.26982164382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28691101074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28490018844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30198955535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479625701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21051263809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1924192905426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30399966239929</t>
   </si>
   <si>
     <t xml:space="preserve">2.46282696723938</t>
@@ -950,31 +950,31 @@
     <t xml:space="preserve">2.44473314285278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52062821388245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58596920967102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62366485595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55832457542419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53822016716003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39447116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35627174377441</t>
+    <t xml:space="preserve">2.5206286907196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58596897125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62366509437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55832433700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53821992874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39447093009949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35627198219299</t>
   </si>
   <si>
     <t xml:space="preserve">2.44272232055664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.402512550354</t>
+    <t xml:space="preserve">2.40251278877258</t>
   </si>
   <si>
     <t xml:space="preserve">2.34722495079041</t>
@@ -989,16 +989,16 @@
     <t xml:space="preserve">2.34406590461731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34508442878723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37766885757446</t>
+    <t xml:space="preserve">2.34508419036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37766861915588</t>
   </si>
   <si>
     <t xml:space="preserve">2.37461400032043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34712028503418</t>
+    <t xml:space="preserve">2.3471200466156</t>
   </si>
   <si>
     <t xml:space="preserve">2.27584147453308</t>
@@ -1007,52 +1007,52 @@
     <t xml:space="preserve">2.276859998703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21983695030212</t>
+    <t xml:space="preserve">2.21983671188354</t>
   </si>
   <si>
     <t xml:space="preserve">2.26667714118958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23816561698914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.197434425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16383147239685</t>
+    <t xml:space="preserve">2.23816537857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19743418693542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16383171081543</t>
   </si>
   <si>
     <t xml:space="preserve">2.16790461540222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24834823608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24122047424316</t>
+    <t xml:space="preserve">2.24834799766541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24122023582458</t>
   </si>
   <si>
     <t xml:space="preserve">2.19438004493713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24936676025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22696447372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12615513801575</t>
+    <t xml:space="preserve">2.24936628341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22696471214294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12615489959717</t>
   </si>
   <si>
     <t xml:space="preserve">2.13939261436462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08440613746643</t>
+    <t xml:space="preserve">2.08440566062927</t>
   </si>
   <si>
     <t xml:space="preserve">2.17808699607849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16892337799072</t>
+    <t xml:space="preserve">2.16892313957214</t>
   </si>
   <si>
     <t xml:space="preserve">2.22594594955444</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">2.25954937934875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24732971191406</t>
+    <t xml:space="preserve">2.2473292350769</t>
   </si>
   <si>
     <t xml:space="preserve">2.22289109230042</t>
@@ -1079,28 +1079,28 @@
     <t xml:space="preserve">2.38785147666931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39396142959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38683319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4194188117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4632043838501</t>
+    <t xml:space="preserve">2.39396166801453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38683295249939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41941833496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46320414543152</t>
   </si>
   <si>
     <t xml:space="preserve">2.51513600349426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52226376533508</t>
+    <t xml:space="preserve">2.5222635269165</t>
   </si>
   <si>
     <t xml:space="preserve">2.52022790908813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53550148010254</t>
+    <t xml:space="preserve">2.53550124168396</t>
   </si>
   <si>
     <t xml:space="preserve">2.45302104949951</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">2.46931338310242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40312600135803</t>
+    <t xml:space="preserve">2.40312576293945</t>
   </si>
   <si>
     <t xml:space="preserve">2.3766508102417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3481388092041</t>
+    <t xml:space="preserve">2.34813857078552</t>
   </si>
   <si>
     <t xml:space="preserve">2.3827600479126</t>
@@ -1127,16 +1127,16 @@
     <t xml:space="preserve">2.36850428581238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36443114280701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41025352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55586647987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52124500274658</t>
+    <t xml:space="preserve">2.36443090438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41025376319885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55586671829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52124547958374</t>
   </si>
   <si>
     <t xml:space="preserve">2.50291681289673</t>
@@ -1145,43 +1145,43 @@
     <t xml:space="preserve">2.4143271446228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49477005004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48356938362122</t>
+    <t xml:space="preserve">2.49477028846741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48356914520264</t>
   </si>
   <si>
     <t xml:space="preserve">2.45607590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42349171638489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39294338226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41636300086975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42654609680176</t>
+    <t xml:space="preserve">2.42349147796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39294362068176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41636323928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42654585838318</t>
   </si>
   <si>
     <t xml:space="preserve">2.36341333389282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38887000083923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40923547744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4418203830719</t>
+    <t xml:space="preserve">2.38886952400208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40923523902893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44182014465332</t>
   </si>
   <si>
     <t xml:space="preserve">2.40516233444214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36748647689819</t>
+    <t xml:space="preserve">2.36748671531677</t>
   </si>
   <si>
     <t xml:space="preserve">2.32675504684448</t>
@@ -1193,16 +1193,16 @@
     <t xml:space="preserve">2.37257790565491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44589352607727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39701581001282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33591961860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35730314254761</t>
+    <t xml:space="preserve">2.44589328765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3970160484314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33591985702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35730361938477</t>
   </si>
   <si>
     <t xml:space="preserve">2.38581514358521</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">2.45200276374817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52430081367493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56604981422424</t>
+    <t xml:space="preserve">2.52430057525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56604957580566</t>
   </si>
   <si>
     <t xml:space="preserve">2.57623243331909</t>
@@ -1229,85 +1229,85 @@
     <t xml:space="preserve">2.61950945854187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61187148094177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53448295593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49171543121338</t>
+    <t xml:space="preserve">2.61187171936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53448271751404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49171566963196</t>
   </si>
   <si>
     <t xml:space="preserve">2.35628485679626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28704214096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23714733123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26158547401428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23612880706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23001885414124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15874028205872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16586804389954</t>
+    <t xml:space="preserve">2.28704237937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23714709281921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26158571243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23612904548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23001909255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15873980522156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16586780548096</t>
   </si>
   <si>
     <t xml:space="preserve">2.18725156784058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16281318664551</t>
+    <t xml:space="preserve">2.16281294822693</t>
   </si>
   <si>
     <t xml:space="preserve">2.12921071052551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14041113853455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13022804260254</t>
+    <t xml:space="preserve">2.14041090011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1302285194397</t>
   </si>
   <si>
     <t xml:space="preserve">2.12411880493164</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20150780677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14550232887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11088132858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0711681842804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98054206371307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17706918716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.153648853302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17299628257751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12513756752014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16994071006775</t>
+    <t xml:space="preserve">2.20150756835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14550256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11088109016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07116842269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98054218292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17706966400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15364909172058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17299604415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12513709068298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16994094848633</t>
   </si>
   <si>
     <t xml:space="preserve">2.09764361381531</t>
@@ -1319,76 +1319,76 @@
     <t xml:space="preserve">2.1027352809906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09051585197449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1526300907135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25242161750793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33999252319336</t>
+    <t xml:space="preserve">2.09051632881165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15263056755066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25242114067078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33999276161194</t>
   </si>
   <si>
     <t xml:space="preserve">2.27075004577637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33184671401978</t>
+    <t xml:space="preserve">2.3318464756012</t>
   </si>
   <si>
     <t xml:space="preserve">2.31962752342224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29111504554749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36544966697693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31046295166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16484904289246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12208199501038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11597275733948</t>
+    <t xml:space="preserve">2.29111528396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36544942855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31046319007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16484975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1220817565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1159725189209</t>
   </si>
   <si>
     <t xml:space="preserve">2.18623399734497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1740140914917</t>
+    <t xml:space="preserve">2.17401385307312</t>
   </si>
   <si>
     <t xml:space="preserve">2.17605066299438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1332836151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14448380470276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20354437828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14346575737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11800861358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15975856781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16179490089417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19947099685669</t>
+    <t xml:space="preserve">2.13328313827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14448428153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2035448551178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14346528053284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.118008852005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15975832939148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16179466247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19947028160095</t>
   </si>
   <si>
     <t xml:space="preserve">2.2982439994812</t>
@@ -1400,25 +1400,25 @@
     <t xml:space="preserve">2.29620695114136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25140237808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45098423957825</t>
+    <t xml:space="preserve">2.25140309333801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45098400115967</t>
   </si>
   <si>
     <t xml:space="preserve">2.44894814491272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46676802635193</t>
+    <t xml:space="preserve">2.46676778793335</t>
   </si>
   <si>
     <t xml:space="preserve">2.37206840515137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39141583442688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37308645248413</t>
+    <t xml:space="preserve">2.3914155960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37308669090271</t>
   </si>
   <si>
     <t xml:space="preserve">2.30842614173889</t>
@@ -1433,61 +1433,61 @@
     <t xml:space="preserve">2.34610271453857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31504535675049</t>
+    <t xml:space="preserve">2.31504511833191</t>
   </si>
   <si>
     <t xml:space="preserve">2.4352011680603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43978381156921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42960047721863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43367338180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38530659675598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47593283653259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4764416217804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48102402687073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4784779548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50800776481628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48713302612305</t>
+    <t xml:space="preserve">2.43978357315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42960071563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.433673620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38530611991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47593259811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47644186019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48102426528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47847747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50800752639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48713374137878</t>
   </si>
   <si>
     <t xml:space="preserve">2.29773449897766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39192461967468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42451000213623</t>
+    <t xml:space="preserve">2.39192509651184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42450976371765</t>
   </si>
   <si>
     <t xml:space="preserve">2.34864807128906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39243388175964</t>
+    <t xml:space="preserve">2.39243412017822</t>
   </si>
   <si>
     <t xml:space="preserve">2.33846521377563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34304738044739</t>
+    <t xml:space="preserve">2.34304761886597</t>
   </si>
   <si>
     <t xml:space="preserve">2.37054085731506</t>
@@ -1496,97 +1496,97 @@
     <t xml:space="preserve">2.37868714332581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3623948097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31657195091248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32319116592407</t>
+    <t xml:space="preserve">2.36239457130432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31657242774963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32319140434265</t>
   </si>
   <si>
     <t xml:space="preserve">2.30282616615295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31860899925232</t>
+    <t xml:space="preserve">2.31860947608948</t>
   </si>
   <si>
     <t xml:space="preserve">2.29926156997681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30129837989807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3903968334198</t>
+    <t xml:space="preserve">2.30129885673523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39039707183838</t>
   </si>
   <si>
     <t xml:space="preserve">2.3990523815155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40821671485901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43265581130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48458766937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45505785942078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46167635917664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48815178871155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44283771514893</t>
+    <t xml:space="preserve">2.40821695327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43265604972839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48458790779114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45505833625793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46167659759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48815202713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4428379535675</t>
   </si>
   <si>
     <t xml:space="preserve">2.4122896194458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4275643825531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41585445404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42807364463806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40974426269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40210747718811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49680709838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50597143173218</t>
+    <t xml:space="preserve">2.42756414413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41585469245911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4280731678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40974450111389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40210771560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49680733680725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50597190856934</t>
   </si>
   <si>
     <t xml:space="preserve">2.55484867095947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59150648117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62103605270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54415655136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54466581344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37563228607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39753270149231</t>
+    <t xml:space="preserve">2.59150624275208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62103652954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54415678977966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5446662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37563300132751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39753246307373</t>
   </si>
   <si>
     <t xml:space="preserve">2.43611812591553</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">2.38345384597778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24423170089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1310818195343</t>
+    <t xml:space="preserve">2.24423146247864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13108205795288</t>
   </si>
   <si>
     <t xml:space="preserve">2.13890361785889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13942456245422</t>
+    <t xml:space="preserve">2.1394248008728</t>
   </si>
   <si>
     <t xml:space="preserve">2.3078465461731</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">2.16393184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16288900375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20460319519043</t>
+    <t xml:space="preserve">2.16288948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20460343360901</t>
   </si>
   <si>
     <t xml:space="preserve">2.14516067504883</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">2.23849678039551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26508975028992</t>
+    <t xml:space="preserve">2.26508951187134</t>
   </si>
   <si>
     <t xml:space="preserve">2.30158877372742</t>
@@ -1643,79 +1643,79 @@
     <t xml:space="preserve">2.32974672317505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2687394618988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25778913497925</t>
+    <t xml:space="preserve">2.26873922348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25778889656067</t>
   </si>
   <si>
     <t xml:space="preserve">2.33443927764893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39336085319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32296824455261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49399662017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44289684295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45645403862</t>
+    <t xml:space="preserve">2.39336109161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32296800613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49399638175964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44289708137512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45645427703857</t>
   </si>
   <si>
     <t xml:space="preserve">2.42151784896851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44341826438904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45436835289001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44498252868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44759011268616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43820428848267</t>
+    <t xml:space="preserve">2.44341850280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45436811447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44498229026794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44758987426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43820405006409</t>
   </si>
   <si>
     <t xml:space="preserve">2.4861752986908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4945182800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44602537155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40535378456116</t>
+    <t xml:space="preserve">2.49451804161072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44602560997009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40535402297974</t>
   </si>
   <si>
     <t xml:space="preserve">2.42203950881958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45541095733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41213274002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36728954315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41526079177856</t>
+    <t xml:space="preserve">2.455411195755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41213250160217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36728978157043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41526103019714</t>
   </si>
   <si>
     <t xml:space="preserve">2.41265320777893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44811105728149</t>
+    <t xml:space="preserve">2.44811081886292</t>
   </si>
   <si>
     <t xml:space="preserve">2.48252558708191</t>
@@ -1724,28 +1724,28 @@
     <t xml:space="preserve">2.45801782608032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49295353889465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48148202896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39283967018127</t>
+    <t xml:space="preserve">2.49295377731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48148250579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3928394317627</t>
   </si>
   <si>
     <t xml:space="preserve">2.3865818977356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38814640045166</t>
+    <t xml:space="preserve">2.38814663887024</t>
   </si>
   <si>
     <t xml:space="preserve">2.40900373458862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26665329933167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24110317230225</t>
+    <t xml:space="preserve">2.26665306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24110341072083</t>
   </si>
   <si>
     <t xml:space="preserve">2.20981740951538</t>
@@ -1757,16 +1757,16 @@
     <t xml:space="preserve">2.13473176956177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13212513923645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08571720123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08623886108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13264608383179</t>
+    <t xml:space="preserve">2.13212490081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08571767807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08623862266541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13264584541321</t>
   </si>
   <si>
     <t xml:space="preserve">2.13160347938538</t>
@@ -1775,46 +1775,46 @@
     <t xml:space="preserve">2.11491727828979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.109703540802</t>
+    <t xml:space="preserve">2.10970330238342</t>
   </si>
   <si>
     <t xml:space="preserve">2.10136079788208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06746745109558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08050298690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00228929519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98091042041779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99029648303986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06329607963562</t>
+    <t xml:space="preserve">2.06746768951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08050322532654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00228905677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98091077804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99029660224915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06329584121704</t>
   </si>
   <si>
     <t xml:space="preserve">2.15141749382019</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15558910369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21294593811035</t>
+    <t xml:space="preserve">2.15558886528015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21294617652893</t>
   </si>
   <si>
     <t xml:space="preserve">2.20199632644653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20408129692078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19678211212158</t>
+    <t xml:space="preserve">2.20408153533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19678235054016</t>
   </si>
   <si>
     <t xml:space="preserve">2.24736094474792</t>
@@ -1823,58 +1823,58 @@
     <t xml:space="preserve">2.28125357627869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25987505912781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21659660339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24214649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26978230476379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29272484779358</t>
+    <t xml:space="preserve">2.25987529754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21659636497498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24214673042297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26978254318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.292724609375</t>
   </si>
   <si>
     <t xml:space="preserve">2.07946014404297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99759590625763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96266031265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93710958957672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94910311698914</t>
+    <t xml:space="preserve">1.9975962638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96266055107117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9371098279953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94910287857056</t>
   </si>
   <si>
     <t xml:space="preserve">1.91364586353302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88183856010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84429538249969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88444578647614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84898853302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8630667924881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87610256671906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85993850231171</t>
+    <t xml:space="preserve">1.88183867931366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84429562091827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88444542884827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84898805618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86306715011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87610232830048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.859938621521</t>
   </si>
   <si>
     <t xml:space="preserve">1.86254549026489</t>
@@ -1883,34 +1883,34 @@
     <t xml:space="preserve">1.82239556312561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82917439937592</t>
+    <t xml:space="preserve">1.82917451858521</t>
   </si>
   <si>
     <t xml:space="preserve">1.76243138313293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72436678409576</t>
+    <t xml:space="preserve">1.72436654567719</t>
   </si>
   <si>
     <t xml:space="preserve">1.6753523349762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71393835544586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70090293884277</t>
+    <t xml:space="preserve">1.71393823623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70090270042419</t>
   </si>
   <si>
     <t xml:space="preserve">1.7759884595871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76555967330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75095951557159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76138806343079</t>
+    <t xml:space="preserve">1.76555991172791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7509593963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76138842105865</t>
   </si>
   <si>
     <t xml:space="preserve">1.83282423019409</t>
@@ -1922,28 +1922,28 @@
     <t xml:space="preserve">1.75669550895691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78850293159485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80206000804901</t>
+    <t xml:space="preserve">1.78850281238556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80206024646759</t>
   </si>
   <si>
     <t xml:space="preserve">1.81822407245636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82083141803741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76764583587646</t>
+    <t xml:space="preserve">1.82083165645599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76764571666718</t>
   </si>
   <si>
     <t xml:space="preserve">1.78224527835846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74991714954376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76608145236969</t>
+    <t xml:space="preserve">1.74991703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76608121395111</t>
   </si>
   <si>
     <t xml:space="preserve">1.74574589729309</t>
@@ -1952,64 +1952,64 @@
     <t xml:space="preserve">1.80883812904358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81926703453064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82031011581421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91781723499298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85055267810822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86723864078522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87662410736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96318185329437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92981004714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96578860282898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90321731567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87297439575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8411670923233</t>
+    <t xml:space="preserve">1.81926715373993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82031047344208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91781735420227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8505527973175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86723828315735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87662422657013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96318209171295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92981016635895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96578872203827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90321707725525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87297415733337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84116697311401</t>
   </si>
   <si>
     <t xml:space="preserve">1.82343852519989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81613874435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7879810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304567813873</t>
+    <t xml:space="preserve">1.81613862514496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78798115253448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304555892944</t>
   </si>
   <si>
     <t xml:space="preserve">1.74470293521881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78016006946564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74626648426056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73323094844818</t>
+    <t xml:space="preserve">1.78015983104706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74626660346985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73323106765747</t>
   </si>
   <si>
     <t xml:space="preserve">1.7097669839859</t>
@@ -2018,43 +2018,43 @@
     <t xml:space="preserve">1.7540887594223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71863150596619</t>
+    <t xml:space="preserve">1.7186313867569</t>
   </si>
   <si>
     <t xml:space="preserve">1.70715963840485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76451671123505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77546715736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73635995388031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72905933856964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73427379131317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70507419109344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63937366008759</t>
+    <t xml:space="preserve">1.76451683044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7754670381546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7363600730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72905945777893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73427391052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70507431030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6393735408783</t>
   </si>
   <si>
     <t xml:space="preserve">1.56168079376221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59609520435333</t>
+    <t xml:space="preserve">1.59609508514404</t>
   </si>
   <si>
     <t xml:space="preserve">1.60235261917114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59296691417694</t>
+    <t xml:space="preserve">1.59296667575836</t>
   </si>
   <si>
     <t xml:space="preserve">1.60130941867828</t>
@@ -2063,64 +2063,64 @@
     <t xml:space="preserve">1.59244513511658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56898057460785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57367348670959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64250242710114</t>
+    <t xml:space="preserve">1.56898069381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57367336750031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64250254631042</t>
   </si>
   <si>
     <t xml:space="preserve">1.62268793582916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62685918807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64093816280365</t>
+    <t xml:space="preserve">1.6268595457077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64093792438507</t>
   </si>
   <si>
     <t xml:space="preserve">1.5413453578949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5460376739502</t>
+    <t xml:space="preserve">1.54603779315948</t>
   </si>
   <si>
     <t xml:space="preserve">1.54864501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55125212669373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58775210380554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57158803939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71028876304626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7812032699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76295292377472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75617372989655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83751726150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83021759986877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81457412242889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78537440299988</t>
+    <t xml:space="preserve">1.55125200748444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58775222301483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57158827781677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71028852462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78120315074921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76295304298401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75617396831512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83751714229584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83021748065948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81457448005676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78537428379059</t>
   </si>
   <si>
     <t xml:space="preserve">1.80623137950897</t>
@@ -2129,16 +2129,16 @@
     <t xml:space="preserve">1.82448136806488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83647394180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88601005077362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92824554443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9230318069458</t>
+    <t xml:space="preserve">1.83647406101227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88600969314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9282454252243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92303168773651</t>
   </si>
   <si>
     <t xml:space="preserve">1.91677439212799</t>
@@ -2147,22 +2147,22 @@
     <t xml:space="preserve">1.93241763114929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87558126449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8562890291214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84481680393219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85576701164246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89330995082855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93137490749359</t>
+    <t xml:space="preserve">1.87558114528656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85628879070282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84481692314148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85576725006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89330971240997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93137466907501</t>
   </si>
   <si>
     <t xml:space="preserve">1.94597411155701</t>
@@ -2171,58 +2171,58 @@
     <t xml:space="preserve">1.94649577140808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92928874492645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90269553661346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89487445354462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87871026992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90843141078949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90061020851135</t>
+    <t xml:space="preserve">1.92928898334503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90269541740417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89487433433533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87871050834656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90843164920807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90061032772064</t>
   </si>
   <si>
     <t xml:space="preserve">1.8985241651535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92459559440613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90999615192413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92876708507538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93085312843323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94753861427307</t>
+    <t xml:space="preserve">1.92459571361542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90999591350555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92876696586609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93085324764252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94753873348236</t>
   </si>
   <si>
     <t xml:space="preserve">1.94858169555664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97934579849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01636815071106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06955337524414</t>
+    <t xml:space="preserve">1.97934591770172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0163676738739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06955361366272</t>
   </si>
   <si>
     <t xml:space="preserve">2.10448908805847</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16028141975403</t>
+    <t xml:space="preserve">2.16028165817261</t>
   </si>
   <si>
     <t xml:space="preserve">2.18113946914673</t>
@@ -2231,13 +2231,13 @@
     <t xml:space="preserve">2.15976023674011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14098954200745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1759250164032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19365382194519</t>
+    <t xml:space="preserve">2.14098930358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17592525482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19365358352661</t>
   </si>
   <si>
     <t xml:space="preserve">2.19991040229797</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">2.23380374908447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19782495498657</t>
+    <t xml:space="preserve">2.19782519340515</t>
   </si>
   <si>
     <t xml:space="preserve">2.19104599952698</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">2.1456823348999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13368892669678</t>
+    <t xml:space="preserve">2.1336886882782</t>
   </si>
   <si>
     <t xml:space="preserve">2.08780360221863</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">2.06486058235168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03357481956482</t>
+    <t xml:space="preserve">2.03357458114624</t>
   </si>
   <si>
     <t xml:space="preserve">2.05182480812073</t>
@@ -2276,52 +2276,52 @@
     <t xml:space="preserve">2.06121063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00609564781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9532607793808</t>
+    <t xml:space="preserve">2.00609588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95326054096222</t>
   </si>
   <si>
     <t xml:space="preserve">1.9117476940155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88640904426575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581822395325</t>
+    <t xml:space="preserve">1.88640916347504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581786632538</t>
   </si>
   <si>
     <t xml:space="preserve">1.85514008998871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85621774196625</t>
+    <t xml:space="preserve">1.85621786117554</t>
   </si>
   <si>
     <t xml:space="preserve">1.84651398658752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83357441425323</t>
+    <t xml:space="preserve">1.83357417583466</t>
   </si>
   <si>
     <t xml:space="preserve">1.8244092464447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80985260009766</t>
+    <t xml:space="preserve">1.80985271930695</t>
   </si>
   <si>
     <t xml:space="preserve">1.84166193008423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80823576450348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78667104244232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78343522548676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8395049571991</t>
+    <t xml:space="preserve">1.80823564529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78667092323303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78343534469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83950507640839</t>
   </si>
   <si>
     <t xml:space="preserve">1.8567568063736</t>
@@ -2330,49 +2330,49 @@
     <t xml:space="preserve">1.83573114871979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85783529281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85136544704437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86538255214691</t>
+    <t xml:space="preserve">1.85783517360687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85136556625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8653826713562</t>
   </si>
   <si>
     <t xml:space="preserve">1.90743505954742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94301795959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94086086750031</t>
+    <t xml:space="preserve">1.94301819801331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94086122512817</t>
   </si>
   <si>
     <t xml:space="preserve">1.97374784946442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95218336582184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95110476016998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96242594718933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93169629573822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92145240306854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96080911159515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0373649597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09666919708252</t>
+    <t xml:space="preserve">1.95218360424042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95110499858856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96242570877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93169558048248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92145228385925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96080935001373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03736519813538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09666895866394</t>
   </si>
   <si>
     <t xml:space="preserve">2.10098195075989</t>
@@ -2381,43 +2381,43 @@
     <t xml:space="preserve">2.08211255073547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07348656654358</t>
+    <t xml:space="preserve">2.07348680496216</t>
   </si>
   <si>
     <t xml:space="preserve">2.05623459815979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06539964675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05084347724915</t>
+    <t xml:space="preserve">2.06539988517761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05084323883057</t>
   </si>
   <si>
     <t xml:space="preserve">2.07995629310608</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0465304851532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02065229415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02712154388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01633954048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96512186527252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94894790649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92846167087555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90204358100891</t>
+    <t xml:space="preserve">2.04653024673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02065253257751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0271213054657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01633930206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96512222290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94894778728485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92846143245697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9020437002182</t>
   </si>
   <si>
     <t xml:space="preserve">1.82764434814453</t>
@@ -2432,13 +2432,13 @@
     <t xml:space="preserve">1.83627033233643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86430513858795</t>
+    <t xml:space="preserve">1.86430537700653</t>
   </si>
   <si>
     <t xml:space="preserve">1.83842647075653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87347018718719</t>
+    <t xml:space="preserve">1.87347042560577</t>
   </si>
   <si>
     <t xml:space="preserve">1.72520971298218</t>
@@ -2447,28 +2447,28 @@
     <t xml:space="preserve">1.68854916095734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70795798301697</t>
+    <t xml:space="preserve">1.70795786380768</t>
   </si>
   <si>
     <t xml:space="preserve">1.62385368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65943586826324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67614960670471</t>
+    <t xml:space="preserve">1.65943610668182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67614948749542</t>
   </si>
   <si>
     <t xml:space="preserve">1.62277519702911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65081012248993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65727996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64326250553131</t>
+    <t xml:space="preserve">1.65081000328064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65728008747101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6432626247406</t>
   </si>
   <si>
     <t xml:space="preserve">1.65458381175995</t>
@@ -2477,19 +2477,19 @@
     <t xml:space="preserve">1.72952282428741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71766257286072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75162708759308</t>
+    <t xml:space="preserve">1.71766245365143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75162720680237</t>
   </si>
   <si>
     <t xml:space="preserve">1.73760950565338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7413831949234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7704963684082</t>
+    <t xml:space="preserve">1.74138331413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77049648761749</t>
   </si>
   <si>
     <t xml:space="preserve">1.78828775882721</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">1.79367887973785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80230534076691</t>
+    <t xml:space="preserve">1.80230498313904</t>
   </si>
   <si>
     <t xml:space="preserve">1.86322689056396</t>
@@ -2507,25 +2507,25 @@
     <t xml:space="preserve">1.88425242900848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86592209339142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.894495844841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9424786567688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95164430141449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88802599906921</t>
+    <t xml:space="preserve">1.86592197418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89449620246887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94247901439667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95164394378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8880261182785</t>
   </si>
   <si>
     <t xml:space="preserve">1.89934825897217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9823739528656</t>
+    <t xml:space="preserve">1.98237407207489</t>
   </si>
   <si>
     <t xml:space="preserve">1.92306995391846</t>
@@ -2534,37 +2534,37 @@
     <t xml:space="preserve">1.89395678043365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8740097284317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88533067703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90959143638611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88047850131989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89180088043213</t>
+    <t xml:space="preserve">1.87400949001312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88533091545105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90959167480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8804783821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89180076122284</t>
   </si>
   <si>
     <t xml:space="preserve">1.87454783916473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88101804256439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89233994483948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9613481760025</t>
+    <t xml:space="preserve">1.8810179233551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89234006404877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96134829521179</t>
   </si>
   <si>
     <t xml:space="preserve">1.98291325569153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02550458908081</t>
+    <t xml:space="preserve">2.02550435066223</t>
   </si>
   <si>
     <t xml:space="preserve">2.05515623092651</t>
@@ -2573,37 +2573,37 @@
     <t xml:space="preserve">2.11122560501099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16621685028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18993854522705</t>
+    <t xml:space="preserve">2.16621661186218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18993830680847</t>
   </si>
   <si>
     <t xml:space="preserve">2.21905088424683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17807745933533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17699956893921</t>
+    <t xml:space="preserve">2.17807722091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17699980735779</t>
   </si>
   <si>
     <t xml:space="preserve">2.19317293167114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19371223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15219950675964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16028618812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15651226043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22606015205383</t>
+    <t xml:space="preserve">2.19371247291565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15219926834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16028594970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15651249885559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22605967521667</t>
   </si>
   <si>
     <t xml:space="preserve">2.25193762779236</t>
@@ -2612,34 +2612,34 @@
     <t xml:space="preserve">2.26703357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29992079734802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27458143234253</t>
+    <t xml:space="preserve">2.29992055892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27458119392395</t>
   </si>
   <si>
     <t xml:space="preserve">2.31232023239136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3290331363678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34466791152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33658123016357</t>
+    <t xml:space="preserve">2.32903265953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34466814994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33658146858215</t>
   </si>
   <si>
     <t xml:space="preserve">2.35383319854736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38240694999695</t>
+    <t xml:space="preserve">2.38240718841553</t>
   </si>
   <si>
     <t xml:space="preserve">2.45141553878784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48430252075195</t>
+    <t xml:space="preserve">2.48430275917053</t>
   </si>
   <si>
     <t xml:space="preserve">2.47028517723083</t>
@@ -2648,19 +2648,19 @@
     <t xml:space="preserve">2.41098117828369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42445921897888</t>
+    <t xml:space="preserve">2.42445945739746</t>
   </si>
   <si>
     <t xml:space="preserve">2.41852879524231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39696383476257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36569380760193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36946845054626</t>
+    <t xml:space="preserve">2.39696359634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36569404602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36946821212769</t>
   </si>
   <si>
     <t xml:space="preserve">2.32094621658325</t>
@@ -2669,37 +2669,37 @@
     <t xml:space="preserve">2.33819818496704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36677241325378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37917232513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4023551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37378168106079</t>
+    <t xml:space="preserve">2.36677217483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37917256355286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40235567092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37378096580505</t>
   </si>
   <si>
     <t xml:space="preserve">2.39911985397339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39588522911072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42769360542297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40990281105042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44009351730347</t>
+    <t xml:space="preserve">2.3958854675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42769384384155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40990257263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44009375572205</t>
   </si>
   <si>
     <t xml:space="preserve">2.45842385292053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43470191955566</t>
+    <t xml:space="preserve">2.43470215797424</t>
   </si>
   <si>
     <t xml:space="preserve">2.43146777153015</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">2.40127658843994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41691112518311</t>
+    <t xml:space="preserve">2.41691088676453</t>
   </si>
   <si>
     <t xml:space="preserve">2.47729349136353</t>
@@ -2720,28 +2720,28 @@
     <t xml:space="preserve">2.42499828338623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43200659751892</t>
+    <t xml:space="preserve">2.43200707435608</t>
   </si>
   <si>
     <t xml:space="preserve">2.45518946647644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4886155128479</t>
+    <t xml:space="preserve">2.48861527442932</t>
   </si>
   <si>
     <t xml:space="preserve">2.49077177047729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47998952865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48807621002197</t>
+    <t xml:space="preserve">2.47998976707458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48807644844055</t>
   </si>
   <si>
     <t xml:space="preserve">2.46597218513489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45950222015381</t>
+    <t xml:space="preserve">2.45950245857239</t>
   </si>
   <si>
     <t xml:space="preserve">2.47891116142273</t>
@@ -2750,31 +2750,31 @@
     <t xml:space="preserve">2.46381521224976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49508476257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40397191047668</t>
+    <t xml:space="preserve">2.49508452415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40397214889526</t>
   </si>
   <si>
     <t xml:space="preserve">2.40451121330261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38941550254822</t>
+    <t xml:space="preserve">2.38941526412964</t>
   </si>
   <si>
     <t xml:space="preserve">2.43793749809265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41637182235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33226823806763</t>
+    <t xml:space="preserve">2.4163715839386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33226847648621</t>
   </si>
   <si>
     <t xml:space="preserve">2.23738121986389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28320693969727</t>
+    <t xml:space="preserve">2.28320717811584</t>
   </si>
   <si>
     <t xml:space="preserve">2.33442449569702</t>
@@ -2783,10 +2783,10 @@
     <t xml:space="preserve">2.35976386070251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33765983581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34682512283325</t>
+    <t xml:space="preserve">2.33765959739685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34682488441467</t>
   </si>
   <si>
     <t xml:space="preserve">2.35760688781738</t>
@@ -2798,31 +2798,31 @@
     <t xml:space="preserve">2.42338109016418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50371026992798</t>
+    <t xml:space="preserve">2.50371050834656</t>
   </si>
   <si>
     <t xml:space="preserve">2.23252892494202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2249813079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2611026763916</t>
+    <t xml:space="preserve">2.22498154640198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26110315322876</t>
   </si>
   <si>
     <t xml:space="preserve">2.19532990455627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06809520721436</t>
+    <t xml:space="preserve">2.06809496879578</t>
   </si>
   <si>
     <t xml:space="preserve">2.07025194168091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11607789993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03682565689087</t>
+    <t xml:space="preserve">2.11607766151428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03682589530945</t>
   </si>
   <si>
     <t xml:space="preserve">1.94032180309296</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">1.74623537063599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68261849880219</t>
+    <t xml:space="preserve">1.68261861801147</t>
   </si>
   <si>
     <t xml:space="preserve">1.64703631401062</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">1.35428988933563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3575245141983</t>
+    <t xml:space="preserve">1.35752427577972</t>
   </si>
   <si>
     <t xml:space="preserve">1.1165337562561</t>
@@ -2855,25 +2855,25 @@
     <t xml:space="preserve">1.36668956279755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26209878921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25778591632843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22435975074768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24322926998138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38825440406799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58287990093231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62223601341248</t>
+    <t xml:space="preserve">1.26209890842438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25778603553772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22435963153839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24322915077209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38825452327728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5828800201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62223613262177</t>
   </si>
   <si>
     <t xml:space="preserve">1.59689736366272</t>
@@ -2882,19 +2882,19 @@
     <t xml:space="preserve">1.5656281709671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46481120586395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46427190303802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50955855846405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46588885784149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45402824878693</t>
+    <t xml:space="preserve">1.46481132507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46427202224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50955843925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4658887386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45402848720551</t>
   </si>
   <si>
     <t xml:space="preserve">1.4470192193985</t>
@@ -2903,10 +2903,10 @@
     <t xml:space="preserve">1.47505402565002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46912395954132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3968802690506</t>
+    <t xml:space="preserve">1.4691241979599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39688038825989</t>
   </si>
   <si>
     <t xml:space="preserve">1.41035854816437</t>
@@ -2915,28 +2915,28 @@
     <t xml:space="preserve">1.3472808599472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24808132648468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19416880607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20656871795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20764696598053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15535128116608</t>
+    <t xml:space="preserve">1.24808156490326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19416892528534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20656859874725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20764708518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15535116195679</t>
   </si>
   <si>
     <t xml:space="preserve">1.15373361110687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19255113601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14295160770416</t>
+    <t xml:space="preserve">1.19255137443542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14295148849487</t>
   </si>
   <si>
     <t xml:space="preserve">1.17529940605164</t>
@@ -2948,46 +2948,46 @@
     <t xml:space="preserve">1.26910722255707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21411609649658</t>
+    <t xml:space="preserve">1.21411621570587</t>
   </si>
   <si>
     <t xml:space="preserve">1.18823826313019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18608140945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17206394672394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15265595912933</t>
+    <t xml:space="preserve">1.18608129024506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17206406593323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15265619754791</t>
   </si>
   <si>
     <t xml:space="preserve">1.13971626758575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13216865062714</t>
+    <t xml:space="preserve">1.13216888904572</t>
   </si>
   <si>
     <t xml:space="preserve">1.09442961215973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08580362796783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08202981948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12548661231995</t>
+    <t xml:space="preserve">1.08580350875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08202993869781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12548649311066</t>
   </si>
   <si>
     <t xml:space="preserve">1.06277656555176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04434812068939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02454459667206</t>
+    <t xml:space="preserve">1.04434823989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02454447746277</t>
   </si>
   <si>
     <t xml:space="preserve">1.02537035942078</t>
@@ -2996,16 +2996,16 @@
     <t xml:space="preserve">1.02812051773071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13538837432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1766449213028</t>
+    <t xml:space="preserve">1.13538825511932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17664504051208</t>
   </si>
   <si>
     <t xml:space="preserve">1.22395288944244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18104660511017</t>
+    <t xml:space="preserve">1.18104648590088</t>
   </si>
   <si>
     <t xml:space="preserve">1.210200548172</t>
@@ -3020,40 +3020,40 @@
     <t xml:space="preserve">1.27236115932465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39613211154938</t>
+    <t xml:space="preserve">1.39613223075867</t>
   </si>
   <si>
     <t xml:space="preserve">1.4637930393219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44288969039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37027752399445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28281307220459</t>
+    <t xml:space="preserve">1.44288980960846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37027740478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28281319141388</t>
   </si>
   <si>
     <t xml:space="preserve">1.25365817546844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26521050930023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34827399253845</t>
+    <t xml:space="preserve">1.26521039009094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34827411174774</t>
   </si>
   <si>
     <t xml:space="preserve">1.32131969928741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28501307964325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29821598529816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24815714359283</t>
+    <t xml:space="preserve">1.28501296043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29821586608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24815702438354</t>
   </si>
   <si>
     <t xml:space="preserve">1.27896285057068</t>
@@ -3062,10 +3062,10 @@
     <t xml:space="preserve">1.21405112743378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22340273857117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19534802436829</t>
+    <t xml:space="preserve">1.22340261936188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19534814357758</t>
   </si>
   <si>
     <t xml:space="preserve">1.21680212020874</t>
@@ -3074,13 +3074,13 @@
     <t xml:space="preserve">1.19314801692963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20194935798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19644832611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23275434970856</t>
+    <t xml:space="preserve">1.20194947719574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19644844532013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23275423049927</t>
   </si>
   <si>
     <t xml:space="preserve">1.21900200843811</t>
@@ -3098,49 +3098,49 @@
     <t xml:space="preserve">1.37082755565643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37192797660828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37907874584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3972315788269</t>
+    <t xml:space="preserve">1.37192809581757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37907886505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39723169803619</t>
   </si>
   <si>
     <t xml:space="preserve">1.36807751655579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41538536548615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40218257904053</t>
+    <t xml:space="preserve">1.41538548469543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40218245983124</t>
   </si>
   <si>
     <t xml:space="preserve">1.35377502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33342146873474</t>
+    <t xml:space="preserve">1.33342134952545</t>
   </si>
   <si>
     <t xml:space="preserve">1.27786219120026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28171288967133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24045622348785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22505342960358</t>
+    <t xml:space="preserve">1.28171277046204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24045610427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22505331039429</t>
   </si>
   <si>
     <t xml:space="preserve">1.17279446125031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14253985881805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12768733501434</t>
+    <t xml:space="preserve">1.14253997802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12768721580505</t>
   </si>
   <si>
     <t xml:space="preserve">1.19589829444885</t>
@@ -3152,31 +3152,31 @@
     <t xml:space="preserve">1.30371618270874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30481648445129</t>
+    <t xml:space="preserve">1.30481660366058</t>
   </si>
   <si>
     <t xml:space="preserve">1.27401173114777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27731192111969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28886425495148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26796066761017</t>
+    <t xml:space="preserve">1.27731215953827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28886437416077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26796054840088</t>
   </si>
   <si>
     <t xml:space="preserve">1.25420844554901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29216468334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29161441326141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2822630405426</t>
+    <t xml:space="preserve">1.29216480255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2916145324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28226292133331</t>
   </si>
   <si>
     <t xml:space="preserve">1.30921733379364</t>
@@ -3188,25 +3188,25 @@
     <t xml:space="preserve">1.23165476322174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2283536195755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18929779529572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20084917545319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19479882717133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16234242916107</t>
+    <t xml:space="preserve">1.22835373878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18929767608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20084893703461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19479870796204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16234266757965</t>
   </si>
   <si>
     <t xml:space="preserve">1.17829561233521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20855093002319</t>
+    <t xml:space="preserve">1.20855104923248</t>
   </si>
   <si>
     <t xml:space="preserve">1.20524990558624</t>
@@ -3215,16 +3215,16 @@
     <t xml:space="preserve">1.20469963550568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18984794616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19864916801453</t>
+    <t xml:space="preserve">1.1898478269577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19864928722382</t>
   </si>
   <si>
     <t xml:space="preserve">1.18819725513458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13978886604309</t>
+    <t xml:space="preserve">1.13978898525238</t>
   </si>
   <si>
     <t xml:space="preserve">1.10898423194885</t>
@@ -3233,16 +3233,16 @@
     <t xml:space="preserve">1.11118412017822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07817852497101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07542848587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10348308086395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07267844676971</t>
+    <t xml:space="preserve">1.0781786441803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07542860507965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10348296165466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07267832756042</t>
   </si>
   <si>
     <t xml:space="preserve">1.09358131885529</t>
@@ -3251,19 +3251,19 @@
     <t xml:space="preserve">1.07157802581787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04242289066315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965468168258667</t>
+    <t xml:space="preserve">1.04242300987244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965468347072601</t>
   </si>
   <si>
     <t xml:space="preserve">1.00569605827332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.963436484336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972375988960266</t>
+    <t xml:space="preserve">0.963436543941498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9723761677742</t>
   </si>
   <si>
     <t xml:space="preserve">0.977252125740051</t>
@@ -3272,13 +3272,13 @@
     <t xml:space="preserve">0.952465355396271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903704345226288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907361388206482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902485132217407</t>
+    <t xml:space="preserve">0.903704285621643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907361507415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902485311031342</t>
   </si>
   <si>
     <t xml:space="preserve">0.975626826286316</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">0.98903614282608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964249312877655</t>
+    <t xml:space="preserve">0.964249134063721</t>
   </si>
   <si>
     <t xml:space="preserve">0.978064954280853</t>
@@ -3302,19 +3302,19 @@
     <t xml:space="preserve">0.968312621116638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907767653465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842346668243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831781804561615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826499342918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857381343841553</t>
+    <t xml:space="preserve">0.907767832279205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842346608638763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831781685352325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826499283313751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857381284236908</t>
   </si>
   <si>
     <t xml:space="preserve">0.879323780536652</t>
@@ -3329,16 +3329,16 @@
     <t xml:space="preserve">0.8516925573349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978471219539642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970344424247742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00691521167755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07233619689941</t>
+    <t xml:space="preserve">0.978471338748932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970344364643097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00691509246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07233607769012</t>
   </si>
   <si>
     <t xml:space="preserve">1.08493280410767</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">1.15848076343536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20642912387848</t>
+    <t xml:space="preserve">1.20642900466919</t>
   </si>
   <si>
     <t xml:space="preserve">1.23202860355377</t>
@@ -3359,43 +3359,43 @@
     <t xml:space="preserve">1.23487293720245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23893642425537</t>
+    <t xml:space="preserve">1.23893630504608</t>
   </si>
   <si>
     <t xml:space="preserve">1.20683538913727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22796511650085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19058179855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20764803886414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19464516639709</t>
+    <t xml:space="preserve">1.22796523571014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19058167934418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20764791965485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19464528560638</t>
   </si>
   <si>
     <t xml:space="preserve">1.20561623573303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19667661190033</t>
+    <t xml:space="preserve">1.19667673110962</t>
   </si>
   <si>
     <t xml:space="preserve">1.1901752948761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19830226898193</t>
+    <t xml:space="preserve">1.19830203056335</t>
   </si>
   <si>
     <t xml:space="preserve">1.23284125328064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1922070980072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18936276435852</t>
+    <t xml:space="preserve">1.19220697879791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18936252593994</t>
   </si>
   <si>
     <t xml:space="preserve">1.20074021816254</t>
@@ -3407,25 +3407,25 @@
     <t xml:space="preserve">1.19180071353912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18001687526703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13247466087341</t>
+    <t xml:space="preserve">1.18001675605774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13247489929199</t>
   </si>
   <si>
     <t xml:space="preserve">1.158074259758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20277202129364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21902561187744</t>
+    <t xml:space="preserve">1.20277190208435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21902573108673</t>
   </si>
   <si>
     <t xml:space="preserve">1.21049249172211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18814361095428</t>
+    <t xml:space="preserve">1.188143491745</t>
   </si>
   <si>
     <t xml:space="preserve">1.19789588451385</t>
@@ -3434,19 +3434,19 @@
     <t xml:space="preserve">1.26169145107269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33970904350281</t>
+    <t xml:space="preserve">1.3397091627121</t>
   </si>
   <si>
     <t xml:space="preserve">1.32467448711395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35189938545227</t>
+    <t xml:space="preserve">1.35189950466156</t>
   </si>
   <si>
     <t xml:space="preserve">1.35393106937408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3372710943222</t>
+    <t xml:space="preserve">1.33727097511292</t>
   </si>
   <si>
     <t xml:space="preserve">1.31614136695862</t>
@@ -3455,22 +3455,22 @@
     <t xml:space="preserve">1.30760812759399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33645832538605</t>
+    <t xml:space="preserve">1.33645844459534</t>
   </si>
   <si>
     <t xml:space="preserve">1.31736040115356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34011542797089</t>
+    <t xml:space="preserve">1.34011554718018</t>
   </si>
   <si>
     <t xml:space="preserve">1.31654763221741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28038334846497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24178075790405</t>
+    <t xml:space="preserve">1.28038322925568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24178087711334</t>
   </si>
   <si>
     <t xml:space="preserve">1.27631986141205</t>
@@ -3482,16 +3482,16 @@
     <t xml:space="preserve">1.26656770706177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24584424495697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25478374958038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37993705272675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44495153427124</t>
+    <t xml:space="preserve">1.24584412574768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25478363037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37993681430817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44495165348053</t>
   </si>
   <si>
     <t xml:space="preserve">1.55181956291199</t>
@@ -3500,43 +3500,43 @@
     <t xml:space="preserve">1.5193122625351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54409921169281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51606142520905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51321709156036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53028357028961</t>
+    <t xml:space="preserve">1.54409909248352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51606154441833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51321697235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53028345108032</t>
   </si>
   <si>
     <t xml:space="preserve">1.50793468952179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48030352592468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4547039270401</t>
+    <t xml:space="preserve">1.4803032875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45470380783081</t>
   </si>
   <si>
     <t xml:space="preserve">1.5124044418335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49046206474304</t>
+    <t xml:space="preserve">1.49046194553375</t>
   </si>
   <si>
     <t xml:space="preserve">1.49005568027496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51402974128723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47461462020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51362347602844</t>
+    <t xml:space="preserve">1.51402986049652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47461473941803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51362335681915</t>
   </si>
   <si>
     <t xml:space="preserve">1.49777615070343</t>
@@ -3551,25 +3551,25 @@
     <t xml:space="preserve">1.61236453056335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60545670986176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59204757213593</t>
+    <t xml:space="preserve">1.60545682907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59204745292664</t>
   </si>
   <si>
     <t xml:space="preserve">1.60098707675934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58229517936707</t>
+    <t xml:space="preserve">1.58229529857635</t>
   </si>
   <si>
     <t xml:space="preserve">1.61724066734314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66762697696686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6554366350174</t>
+    <t xml:space="preserve">1.66762709617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65543675422668</t>
   </si>
   <si>
     <t xml:space="preserve">1.58960926532745</t>
@@ -3578,10 +3578,10 @@
     <t xml:space="preserve">1.54978787899017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54816257953644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5696986913681</t>
+    <t xml:space="preserve">1.54816246032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56969857215881</t>
   </si>
   <si>
     <t xml:space="preserve">1.55791473388672</t>
@@ -3593,16 +3593,16 @@
     <t xml:space="preserve">1.54247379302979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54369282722473</t>
+    <t xml:space="preserve">1.54369270801544</t>
   </si>
   <si>
     <t xml:space="preserve">1.52500104904175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54531812667847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54328644275665</t>
+    <t xml:space="preserve">1.54531800746918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54328656196594</t>
   </si>
   <si>
     <t xml:space="preserve">1.53678500652313</t>
@@ -3611,19 +3611,19 @@
     <t xml:space="preserve">1.51077902317047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51971864700317</t>
+    <t xml:space="preserve">1.51971852779388</t>
   </si>
   <si>
     <t xml:space="preserve">1.5469434261322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52947068214417</t>
+    <t xml:space="preserve">1.52947080135345</t>
   </si>
   <si>
     <t xml:space="preserve">1.53841030597687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53719139099121</t>
+    <t xml:space="preserve">1.53719127178192</t>
   </si>
   <si>
     <t xml:space="preserve">1.58554601669312</t>
@@ -3635,16 +3635,16 @@
     <t xml:space="preserve">1.46689414978027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46933221817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47664642333984</t>
+    <t xml:space="preserve">1.46933209896088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47664654254913</t>
   </si>
   <si>
     <t xml:space="preserve">1.52215671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50549650192261</t>
+    <t xml:space="preserve">1.50549674034119</t>
   </si>
   <si>
     <t xml:space="preserve">1.53922307491302</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">1.52987718582153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52337563037872</t>
+    <t xml:space="preserve">1.52337574958801</t>
   </si>
   <si>
     <t xml:space="preserve">1.54084837436676</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">1.56319713592529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62374210357666</t>
+    <t xml:space="preserve">1.62374222278595</t>
   </si>
   <si>
     <t xml:space="preserve">1.63837039470673</t>
@@ -3677,22 +3677,22 @@
     <t xml:space="preserve">1.6294310092926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63024353981018</t>
+    <t xml:space="preserve">1.63024365901947</t>
   </si>
   <si>
     <t xml:space="preserve">1.63755774497986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6066757440567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59164106845856</t>
+    <t xml:space="preserve">1.60667586326599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59164118766785</t>
   </si>
   <si>
     <t xml:space="preserve">1.62089765071869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72497701644897</t>
+    <t xml:space="preserve">1.72497689723969</t>
   </si>
   <si>
     <t xml:space="preserve">1.76312530040741</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">1.6785352230072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70009744167328</t>
+    <t xml:space="preserve">1.70009732246399</t>
   </si>
   <si>
     <t xml:space="preserve">1.6893162727356</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">1.68185257911682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68682837486267</t>
+    <t xml:space="preserve">1.68682825565338</t>
   </si>
   <si>
     <t xml:space="preserve">1.69512140750885</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">1.68765783309937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67687654495239</t>
+    <t xml:space="preserve">1.67687666416168</t>
   </si>
   <si>
     <t xml:space="preserve">1.69926822185516</t>
@@ -3734,13 +3734,13 @@
     <t xml:space="preserve">1.69014573097229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68434023857117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69263339042664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66609537601471</t>
+    <t xml:space="preserve">1.68434035778046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69263350963593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66609561443329</t>
   </si>
   <si>
     <t xml:space="preserve">1.6428747177124</t>
@@ -3755,28 +3755,28 @@
     <t xml:space="preserve">1.60928738117218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58813977241516</t>
+    <t xml:space="preserve">1.58813989162445</t>
   </si>
   <si>
     <t xml:space="preserve">1.56699228286743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58440792560577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57735860347748</t>
+    <t xml:space="preserve">1.58440780639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57735872268677</t>
   </si>
   <si>
     <t xml:space="preserve">1.52718508243561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51474547386169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52220928668976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53133177757263</t>
+    <t xml:space="preserve">1.5147453546524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52220916748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53133165836334</t>
   </si>
   <si>
     <t xml:space="preserve">1.52055060863495</t>
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve">1.5325756072998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49193906784058</t>
+    <t xml:space="preserve">1.49193930625916</t>
   </si>
   <si>
     <t xml:space="preserve">1.47867012023926</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">1.46291315555573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46954762935638</t>
+    <t xml:space="preserve">1.46954751014709</t>
   </si>
   <si>
     <t xml:space="preserve">1.41937410831451</t>
@@ -3806,13 +3806,13 @@
     <t xml:space="preserve">1.41315412521362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40154373645782</t>
+    <t xml:space="preserve">1.40154385566711</t>
   </si>
   <si>
     <t xml:space="preserve">1.3563460111618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28751277923584</t>
+    <t xml:space="preserve">1.28751289844513</t>
   </si>
   <si>
     <t xml:space="preserve">1.29787933826447</t>
@@ -3821,13 +3821,13 @@
     <t xml:space="preserve">1.31446552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.337686419487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33893048763275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35924863815308</t>
+    <t xml:space="preserve">1.33768653869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33893036842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35924875736237</t>
   </si>
   <si>
     <t xml:space="preserve">1.34349167346954</t>
@@ -3836,7 +3836,7 @@
     <t xml:space="preserve">1.34473562240601</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34846770763397</t>
+    <t xml:space="preserve">1.34846758842468</t>
   </si>
   <si>
     <t xml:space="preserve">1.36546850204468</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">1.36505377292633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34639418125153</t>
+    <t xml:space="preserve">1.34639430046082</t>
   </si>
   <si>
     <t xml:space="preserve">1.35510194301605</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">1.4960857629776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49028050899506</t>
+    <t xml:space="preserve">1.49028062820435</t>
   </si>
   <si>
     <t xml:space="preserve">1.53423428535461</t>
@@ -3884,34 +3884,34 @@
     <t xml:space="preserve">1.45130264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48240196704865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48779249191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51889193058014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49898838996887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52262389659882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50479364395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52801442146301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53755140304565</t>
+    <t xml:space="preserve">1.48240208625793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48779261112213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51889204978943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49898827075958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52262377738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50479352474213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52801430225372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53755152225494</t>
   </si>
   <si>
     <t xml:space="preserve">1.53050231933594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54833257198334</t>
+    <t xml:space="preserve">1.54833269119263</t>
   </si>
   <si>
     <t xml:space="preserve">1.5076961517334</t>
@@ -3920,28 +3920,28 @@
     <t xml:space="preserve">1.49650037288666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51101338863373</t>
+    <t xml:space="preserve">1.51101350784302</t>
   </si>
   <si>
     <t xml:space="preserve">1.50230550765991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50106143951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48323130607605</t>
+    <t xml:space="preserve">1.50106155872345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48323118686676</t>
   </si>
   <si>
     <t xml:space="preserve">1.40403163433075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42227673530579</t>
+    <t xml:space="preserve">1.4222766160965</t>
   </si>
   <si>
     <t xml:space="preserve">1.46374237537384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48406052589417</t>
+    <t xml:space="preserve">1.48406064510345</t>
   </si>
   <si>
     <t xml:space="preserve">1.52096521854401</t>
@@ -3953,46 +3953,46 @@
     <t xml:space="preserve">1.57155346870422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6117752790451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60306739807129</t>
+    <t xml:space="preserve">1.61177539825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60306751728058</t>
   </si>
   <si>
     <t xml:space="preserve">1.64163076877594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62794697284698</t>
+    <t xml:space="preserve">1.62794709205627</t>
   </si>
   <si>
     <t xml:space="preserve">1.68516981601715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66692471504211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68599903583527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71253716945648</t>
+    <t xml:space="preserve">1.6669248342514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68599915504456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71253728866577</t>
   </si>
   <si>
     <t xml:space="preserve">1.714195728302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70756125450134</t>
+    <t xml:space="preserve">1.70756137371063</t>
   </si>
   <si>
     <t xml:space="preserve">1.70839047431946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71087837219238</t>
+    <t xml:space="preserve">1.71087849140167</t>
   </si>
   <si>
     <t xml:space="preserve">1.72331833839417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69843900203705</t>
+    <t xml:space="preserve">1.69843876361847</t>
   </si>
   <si>
     <t xml:space="preserve">1.69760942459106</t>
@@ -4001,7 +4001,7 @@
     <t xml:space="preserve">1.70175611972809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66029036045074</t>
+    <t xml:space="preserve">1.66029024124146</t>
   </si>
   <si>
     <t xml:space="preserve">1.67936456203461</t>
@@ -4010,43 +4010,43 @@
     <t xml:space="preserve">1.57113885879517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56201636791229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59021306037903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5877251625061</t>
+    <t xml:space="preserve">1.562016248703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59021317958832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58772504329681</t>
   </si>
   <si>
     <t xml:space="preserve">1.5690655708313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59601831436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59145700931549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58357846736908</t>
+    <t xml:space="preserve">1.59601819515228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59145712852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58357858657837</t>
   </si>
   <si>
     <t xml:space="preserve">1.59518897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58482253551483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59726238250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57652938365936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5317462682724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48986577987671</t>
+    <t xml:space="preserve">1.58482265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59726226329803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57652950286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53174638748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.489865899086</t>
   </si>
   <si>
     <t xml:space="preserve">1.49567115306854</t>
@@ -4055,19 +4055,19 @@
     <t xml:space="preserve">1.48862183094025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47079157829285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40734887123108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39615321159363</t>
+    <t xml:space="preserve">1.47079169750214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40734899044037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39615333080292</t>
   </si>
   <si>
     <t xml:space="preserve">1.39490926265717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43513107299805</t>
+    <t xml:space="preserve">1.43513095378876</t>
   </si>
   <si>
     <t xml:space="preserve">1.42144727706909</t>
@@ -4076,16 +4076,16 @@
     <t xml:space="preserve">1.40817821025848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4525465965271</t>
+    <t xml:space="preserve">1.45254671573639</t>
   </si>
   <si>
     <t xml:space="preserve">1.4649863243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43969225883484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44715595245361</t>
+    <t xml:space="preserve">1.43969213962555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44715619087219</t>
   </si>
   <si>
     <t xml:space="preserve">1.43637502193451</t>
@@ -4094,22 +4094,22 @@
     <t xml:space="preserve">1.54086875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47535288333893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.472864985466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43678963184357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47410881519318</t>
+    <t xml:space="preserve">1.47535300254822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47286486625671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43678951263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47410893440247</t>
   </si>
   <si>
     <t xml:space="preserve">1.46125435829163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48530471324921</t>
+    <t xml:space="preserve">1.48530459403992</t>
   </si>
   <si>
     <t xml:space="preserve">1.50354957580566</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">1.56326031684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5931156873703</t>
+    <t xml:space="preserve">1.59311580657959</t>
   </si>
   <si>
     <t xml:space="preserve">1.58896911144257</t>
@@ -4139,16 +4139,16 @@
     <t xml:space="preserve">1.62711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62131237983704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60555553436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59062767028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56077241897583</t>
+    <t xml:space="preserve">1.62131249904633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6055554151535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59062778949738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56077229976654</t>
   </si>
   <si>
     <t xml:space="preserve">1.48820722103119</t>
@@ -4163,7 +4163,7 @@
     <t xml:space="preserve">1.5868958234787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52635586261749</t>
+    <t xml:space="preserve">1.5263557434082</t>
   </si>
   <si>
     <t xml:space="preserve">1.537966132164</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">1.60804343223572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63955736160278</t>
+    <t xml:space="preserve">1.63955748081207</t>
   </si>
   <si>
     <t xml:space="preserve">1.62297105789185</t>
@@ -4193,70 +4193,70 @@
     <t xml:space="preserve">1.79049277305603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76893055438995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67438864707947</t>
+    <t xml:space="preserve">1.76893043518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67438876628876</t>
   </si>
   <si>
     <t xml:space="preserve">1.62545895576477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50189089775085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52925825119019</t>
+    <t xml:space="preserve">1.50189101696014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52925837039948</t>
   </si>
   <si>
     <t xml:space="preserve">1.37790822982788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37251758575439</t>
+    <t xml:space="preserve">1.37251770496368</t>
   </si>
   <si>
     <t xml:space="preserve">1.30078184604645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16311550140381</t>
+    <t xml:space="preserve">1.16311538219452</t>
   </si>
   <si>
     <t xml:space="preserve">1.10299015045166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16228604316711</t>
+    <t xml:space="preserve">1.1622861623764</t>
   </si>
   <si>
     <t xml:space="preserve">1.27839028835297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18260443210602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17596971988678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22406995296478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24894976615906</t>
+    <t xml:space="preserve">1.18260431289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17596983909607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22407007217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24894964694977</t>
   </si>
   <si>
     <t xml:space="preserve">1.34058904647827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31031906604767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30202603340149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31902670860291</t>
+    <t xml:space="preserve">1.31031894683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30202579498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31902682781219</t>
   </si>
   <si>
     <t xml:space="preserve">1.29912316799164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28626894950867</t>
+    <t xml:space="preserve">1.28626883029938</t>
   </si>
   <si>
     <t xml:space="preserve">1.29497671127319</t>
@@ -4271,28 +4271,28 @@
     <t xml:space="preserve">1.36132192611694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3181973695755</t>
+    <t xml:space="preserve">1.31819748878479</t>
   </si>
   <si>
     <t xml:space="preserve">1.33271050453186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27548778057098</t>
+    <t xml:space="preserve">1.27548766136169</t>
   </si>
   <si>
     <t xml:space="preserve">1.27756094932556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32814919948578</t>
+    <t xml:space="preserve">1.32814931869507</t>
   </si>
   <si>
     <t xml:space="preserve">1.3260760307312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28378093242645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28668344020844</t>
+    <t xml:space="preserve">1.28378081321716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28668355941772</t>
   </si>
   <si>
     <t xml:space="preserve">1.29995250701904</t>
@@ -4325,7 +4325,7 @@
     <t xml:space="preserve">1.33105194568634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32234394550323</t>
+    <t xml:space="preserve">1.32234406471252</t>
   </si>
   <si>
     <t xml:space="preserve">1.29000079631805</t>
@@ -4334,34 +4334,34 @@
     <t xml:space="preserve">1.2700971364975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27175569534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26180386543274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40983688831329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44425344467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44466805458069</t>
+    <t xml:space="preserve">1.27175581455231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26180398464203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40983700752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44425356388092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44466817378998</t>
   </si>
   <si>
     <t xml:space="preserve">1.43139910697937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46415710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45710790157318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46623039245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44840013980865</t>
+    <t xml:space="preserve">1.4641569852829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45710802078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46623027324677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44840002059937</t>
   </si>
   <si>
     <t xml:space="preserve">1.54587602615356</t>
@@ -4373,7 +4373,7 @@
     <t xml:space="preserve">1.60599362850189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62574636936188</t>
+    <t xml:space="preserve">1.62574648857117</t>
   </si>
   <si>
     <t xml:space="preserve">1.61887586116791</t>
@@ -4388,28 +4388,28 @@
     <t xml:space="preserve">1.64206397533417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65623462200165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59998178482056</t>
+    <t xml:space="preserve">1.65623450279236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59998190402985</t>
   </si>
   <si>
     <t xml:space="preserve">1.65838158130646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61801707744598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66525208950043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67555809020996</t>
+    <t xml:space="preserve">1.61801695823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66525220870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67555797100067</t>
   </si>
   <si>
     <t xml:space="preserve">1.45913541316986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147089004517</t>
+    <t xml:space="preserve">1.41147077083588</t>
   </si>
   <si>
     <t xml:space="preserve">1.42134726047516</t>
@@ -4421,16 +4421,16 @@
     <t xml:space="preserve">1.4144766330719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44110012054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46686482429504</t>
+    <t xml:space="preserve">1.44110000133514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46686470508575</t>
   </si>
   <si>
     <t xml:space="preserve">1.47373533248901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4715883731842</t>
+    <t xml:space="preserve">1.47158825397491</t>
   </si>
   <si>
     <t xml:space="preserve">1.40073561668396</t>
@@ -4439,7 +4439,7 @@
     <t xml:space="preserve">1.44625306129456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42435300350189</t>
+    <t xml:space="preserve">1.42435312271118</t>
   </si>
   <si>
     <t xml:space="preserve">1.42220604419708</t>
@@ -4448,34 +4448,34 @@
     <t xml:space="preserve">1.40116500854492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3462005853653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30454790592194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30368900299072</t>
+    <t xml:space="preserve">1.34620046615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30454778671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30368888378143</t>
   </si>
   <si>
     <t xml:space="preserve">1.23755967617035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21823632717133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2813595533371</t>
+    <t xml:space="preserve">1.21823620796204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28135967254639</t>
   </si>
   <si>
     <t xml:space="preserve">1.29681837558746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2379891872406</t>
+    <t xml:space="preserve">1.23798906803131</t>
   </si>
   <si>
     <t xml:space="preserve">1.20750105381012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17615413665771</t>
+    <t xml:space="preserve">1.176154255867</t>
   </si>
   <si>
     <t xml:space="preserve">1.10358381271362</t>
@@ -4496,16 +4496,16 @@
     <t xml:space="preserve">1.13063657283783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11260163784027</t>
+    <t xml:space="preserve">1.11260151863098</t>
   </si>
   <si>
     <t xml:space="preserve">1.14137196540833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10959553718567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13106620311737</t>
+    <t xml:space="preserve">1.10959565639496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13106608390808</t>
   </si>
   <si>
     <t xml:space="preserve">1.13364255428314</t>
@@ -4517,7 +4517,7 @@
     <t xml:space="preserve">1.17186009883881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19118344783783</t>
+    <t xml:space="preserve">1.19118332862854</t>
   </si>
   <si>
     <t xml:space="preserve">1.23884797096252</t>
@@ -4538,10 +4538,10 @@
     <t xml:space="preserve">1.42564129829407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40631806850433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41318833827972</t>
+    <t xml:space="preserve">1.40631794929504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41318845748901</t>
   </si>
   <si>
     <t xml:space="preserve">1.40717673301697</t>
@@ -4556,7 +4556,7 @@
     <t xml:space="preserve">1.33417701721191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33374762535095</t>
+    <t xml:space="preserve">1.33374750614166</t>
   </si>
   <si>
     <t xml:space="preserve">1.31356537342072</t>
@@ -4580,13 +4580,13 @@
     <t xml:space="preserve">1.30540657043457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26633024215698</t>
+    <t xml:space="preserve">1.26633012294769</t>
   </si>
   <si>
     <t xml:space="preserve">1.26890671253204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25087141990662</t>
+    <t xml:space="preserve">1.25087153911591</t>
   </si>
   <si>
     <t xml:space="preserve">1.28951835632324</t>
@@ -4601,7 +4601,7 @@
     <t xml:space="preserve">1.38141214847565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43337082862854</t>
+    <t xml:space="preserve">1.43337070941925</t>
   </si>
   <si>
     <t xml:space="preserve">1.43895304203033</t>
@@ -4610,7 +4610,7 @@
     <t xml:space="preserve">1.44797074794769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45527064800262</t>
+    <t xml:space="preserve">1.45527052879333</t>
   </si>
   <si>
     <t xml:space="preserve">1.43036496639252</t>
@@ -4631,7 +4631,7 @@
     <t xml:space="preserve">1.39772975444794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37540054321289</t>
+    <t xml:space="preserve">1.3754004240036</t>
   </si>
   <si>
     <t xml:space="preserve">1.33632409572601</t>
@@ -4655,25 +4655,25 @@
     <t xml:space="preserve">1.39042973518372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37368261814117</t>
+    <t xml:space="preserve">1.37368273735046</t>
   </si>
   <si>
     <t xml:space="preserve">1.36294758319855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39687085151672</t>
+    <t xml:space="preserve">1.39687097072601</t>
   </si>
   <si>
     <t xml:space="preserve">1.42048847675323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45097661018372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46042370796204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47115886211395</t>
+    <t xml:space="preserve">1.45097649097443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46042358875275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47115898132324</t>
   </si>
   <si>
     <t xml:space="preserve">1.47588241100311</t>
@@ -4682,10 +4682,10 @@
     <t xml:space="preserve">1.49563527107239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53814685344696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52869975566864</t>
+    <t xml:space="preserve">1.53814673423767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52869987487793</t>
   </si>
   <si>
     <t xml:space="preserve">1.53084695339203</t>
@@ -4703,22 +4703,22 @@
     <t xml:space="preserve">1.62746405601501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65408742427826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65537571907043</t>
+    <t xml:space="preserve">1.65408754348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65537583827972</t>
   </si>
   <si>
     <t xml:space="preserve">1.72880494594574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76058125495911</t>
+    <t xml:space="preserve">1.76058113574982</t>
   </si>
   <si>
     <t xml:space="preserve">1.62531709671021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58022892475128</t>
+    <t xml:space="preserve">1.58022904396057</t>
   </si>
   <si>
     <t xml:space="preserve">1.61329352855682</t>
@@ -4742,25 +4742,25 @@
     <t xml:space="preserve">1.6480758190155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6665403842926</t>
+    <t xml:space="preserve">1.66654050350189</t>
   </si>
   <si>
     <t xml:space="preserve">1.68028163909912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69144606590271</t>
+    <t xml:space="preserve">1.691446185112</t>
   </si>
   <si>
     <t xml:space="preserve">1.67598748207092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68328750133514</t>
+    <t xml:space="preserve">1.68328738212585</t>
   </si>
   <si>
     <t xml:space="preserve">1.6935932636261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67384028434753</t>
+    <t xml:space="preserve">1.67384040355682</t>
   </si>
   <si>
     <t xml:space="preserve">1.66568160057068</t>
@@ -4769,7 +4769,7 @@
     <t xml:space="preserve">1.65666401386261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66396391391754</t>
+    <t xml:space="preserve">1.66396403312683</t>
   </si>
   <si>
     <t xml:space="preserve">1.6686874628067</t>
@@ -4781,7 +4781,7 @@
     <t xml:space="preserve">1.67641687393188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68672275543213</t>
+    <t xml:space="preserve">1.68672263622284</t>
   </si>
   <si>
     <t xml:space="preserve">1.67426979541779</t>
@@ -4790,7 +4790,7 @@
     <t xml:space="preserve">1.61586999893188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.614581823349</t>
+    <t xml:space="preserve">1.61458170413971</t>
   </si>
   <si>
     <t xml:space="preserve">1.60212886333466</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">1.68285799026489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70475780963898</t>
+    <t xml:space="preserve">1.70475792884827</t>
   </si>
   <si>
     <t xml:space="preserve">1.74941647052765</t>
@@ -4826,7 +4826,7 @@
     <t xml:space="preserve">1.79751038551331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81211042404175</t>
+    <t xml:space="preserve">1.81211030483246</t>
   </si>
   <si>
     <t xml:space="preserve">1.81125164031982</t>
@@ -4841,28 +4841,28 @@
     <t xml:space="preserve">1.90142774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87222802639008</t>
+    <t xml:space="preserve">1.87222790718079</t>
   </si>
   <si>
     <t xml:space="preserve">1.93406307697296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93234539031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96927464008331</t>
+    <t xml:space="preserve">1.93234515190125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96927440166473</t>
   </si>
   <si>
     <t xml:space="preserve">1.98129796981812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00963878631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01393294334412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05601525306702</t>
+    <t xml:space="preserve">2.0096390247345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0139331817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0560154914856</t>
   </si>
   <si>
     <t xml:space="preserve">2.08779168128967</t>
@@ -5925,6 +5925,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.22399997711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2519998550415</t>
   </si>
 </sst>
 </file>
@@ -62790,7 +62793,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6510300926</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>9747666</v>
@@ -62811,6 +62814,32 @@
         <v>1970</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6508333333</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>9735690</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>5.28800010681152</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>5.22399997711182</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>5.23199987411499</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>5.2519998550415</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="1973">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,58 +38,58 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33120512962341</t>
+    <t xml:space="preserve">3.33120536804199</t>
   </si>
   <si>
     <t xml:space="preserve">BPE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37296772003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2231125831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14941334724426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07817077636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08062744140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05606055259705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20345878601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03886485099792</t>
+    <t xml:space="preserve">3.37296843528748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22311305999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14941358566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07817053794861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08062767982483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05606079101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20345950126648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03886532783508</t>
   </si>
   <si>
     <t xml:space="preserve">2.77354741096497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76126408576965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55981945991516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84233379364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81039690971375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73669791221619</t>
+    <t xml:space="preserve">2.76126432418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55981969833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84233355522156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81039667129517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73669767379761</t>
   </si>
   <si>
     <t xml:space="preserve">2.8963794708252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77846050262451</t>
+    <t xml:space="preserve">2.77846074104309</t>
   </si>
   <si>
     <t xml:space="preserve">2.56964659690857</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">2.70230484008789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63597512245178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45664072036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25323081016541</t>
+    <t xml:space="preserve">2.63597559928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45664095878601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25323033332825</t>
   </si>
   <si>
     <t xml:space="preserve">2.2620747089386</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">1.84444570541382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05669927597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26502227783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37508010864258</t>
+    <t xml:space="preserve">2.05669951438904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26502251625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.375079870224</t>
   </si>
   <si>
     <t xml:space="preserve">2.43207454681396</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">2.41733431816101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27288413047791</t>
+    <t xml:space="preserve">2.27288436889648</t>
   </si>
   <si>
     <t xml:space="preserve">2.50331711769104</t>
@@ -149,31 +149,31 @@
     <t xml:space="preserve">2.40849041938782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2551965713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31120705604553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3544442653656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31415605545044</t>
+    <t xml:space="preserve">2.25519609451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31120753288269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35444450378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31415581703186</t>
   </si>
   <si>
     <t xml:space="preserve">2.34854817390442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4640109539032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42126512527466</t>
+    <t xml:space="preserve">2.46401047706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42126488685608</t>
   </si>
   <si>
     <t xml:space="preserve">2.43109178543091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30531144142151</t>
+    <t xml:space="preserve">2.30531167984009</t>
   </si>
   <si>
     <t xml:space="preserve">2.27190136909485</t>
@@ -185,91 +185,91 @@
     <t xml:space="preserve">2.31808662414551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51068663597107</t>
+    <t xml:space="preserve">2.51068687438965</t>
   </si>
   <si>
     <t xml:space="preserve">2.54507970809937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46155333518982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29450225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32005143165588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34068703651428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33479142189026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30039858818054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23750853538513</t>
+    <t xml:space="preserve">2.4615535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2945020198822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3200511932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34068655967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33479166030884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30039811134338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23750829696655</t>
   </si>
   <si>
     <t xml:space="preserve">2.14513850212097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12352013587952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05571675300598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09305787086487</t>
+    <t xml:space="preserve">2.12351989746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05571627616882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09305834770203</t>
   </si>
   <si>
     <t xml:space="preserve">1.97415626049042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96334683895111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84739339351654</t>
+    <t xml:space="preserve">1.9633469581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84739351272583</t>
   </si>
   <si>
     <t xml:space="preserve">2.11172819137573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21392512321472</t>
+    <t xml:space="preserve">2.21392488479614</t>
   </si>
   <si>
     <t xml:space="preserve">2.12548589706421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36918449401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47629380226135</t>
+    <t xml:space="preserve">2.36918473243713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47629404067993</t>
   </si>
   <si>
     <t xml:space="preserve">2.48366355895996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40062952041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47138047218323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54999279975891</t>
+    <t xml:space="preserve">2.40062928199768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47138071060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54999232292175</t>
   </si>
   <si>
     <t xml:space="preserve">2.56227588653564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47383761405945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55490636825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51559996604919</t>
+    <t xml:space="preserve">2.47383737564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55490589141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51560068130493</t>
   </si>
   <si>
     <t xml:space="preserve">2.61386585235596</t>
@@ -281,55 +281,55 @@
     <t xml:space="preserve">2.41635179519653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31022524833679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28467655181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2208034992218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16282606124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15693020820618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15103483200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11762452125549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11467576026917</t>
+    <t xml:space="preserve">2.31022500991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28467631340027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22080326080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16282629966736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15693044662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15103459358215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11762428283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11467599868774</t>
   </si>
   <si>
     <t xml:space="preserve">2.14710402488708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26600503921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15987849235535</t>
+    <t xml:space="preserve">2.26600551605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15987873077393</t>
   </si>
   <si>
     <t xml:space="preserve">2.1873927116394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14416766166687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31304717063904</t>
+    <t xml:space="preserve">2.14416790008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3130464553833</t>
   </si>
   <si>
     <t xml:space="preserve">2.42864871025085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38140249252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38743472099304</t>
+    <t xml:space="preserve">2.38140273094177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38743448257446</t>
   </si>
   <si>
     <t xml:space="preserve">2.41055512428284</t>
@@ -338,19 +338,19 @@
     <t xml:space="preserve">2.2859058380127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18739295005798</t>
+    <t xml:space="preserve">2.18739247322083</t>
   </si>
   <si>
     <t xml:space="preserve">2.25675415992737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16628289222717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15622997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18437671661377</t>
+    <t xml:space="preserve">2.16628265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15623021125793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18437647819519</t>
   </si>
   <si>
     <t xml:space="preserve">2.22559189796448</t>
@@ -359,25 +359,25 @@
     <t xml:space="preserve">2.07983255386353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95317244529724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89788472652435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8918536901474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84259653091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02555012702942</t>
+    <t xml:space="preserve">1.95317256450653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89788413047791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89185297489166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8425966501236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02554988861084</t>
   </si>
   <si>
     <t xml:space="preserve">2.11702609062195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1713080406189</t>
+    <t xml:space="preserve">2.17130851745605</t>
   </si>
   <si>
     <t xml:space="preserve">2.16226196289062</t>
@@ -389,61 +389,61 @@
     <t xml:space="preserve">1.75514149665833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73704719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69583177566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60335052013397</t>
+    <t xml:space="preserve">1.73704695701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69583189487457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60335075855255</t>
   </si>
   <si>
     <t xml:space="preserve">1.64758121967316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56816732883453</t>
+    <t xml:space="preserve">1.56816697120667</t>
   </si>
   <si>
     <t xml:space="preserve">1.46261763572693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.463623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35907816886902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29775869846344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50785291194916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57821977138519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70688986778259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62144494056702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69080650806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71091091632843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72096335887909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70487904548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72297370433807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77826154232025</t>
+    <t xml:space="preserve">1.46362292766571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35907828807831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29775846004486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50785303115845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57821953296661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7068897485733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62144505977631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69080638885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71091079711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096347808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70487916469574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72297346591949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77826166152954</t>
   </si>
   <si>
     <t xml:space="preserve">1.76519346237183</t>
@@ -452,52 +452,52 @@
     <t xml:space="preserve">1.71794724464417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72598910331726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8054027557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7491101026535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84460723400116</t>
+    <t xml:space="preserve">1.72598874568939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80540299415588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74910986423492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84460711479187</t>
   </si>
   <si>
     <t xml:space="preserve">1.74006259441376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52494192123413</t>
+    <t xml:space="preserve">1.52494204044342</t>
   </si>
   <si>
     <t xml:space="preserve">1.58626139163971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59430325031281</t>
+    <t xml:space="preserve">1.59430301189423</t>
   </si>
   <si>
     <t xml:space="preserve">1.8023875951767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76921415328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80439758300781</t>
+    <t xml:space="preserve">1.76921439170837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80439734458923</t>
   </si>
   <si>
     <t xml:space="preserve">1.79334020614624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79233467578888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76720416545868</t>
+    <t xml:space="preserve">1.79233515262604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76720404624939</t>
   </si>
   <si>
     <t xml:space="preserve">1.75413596630096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68879532814026</t>
+    <t xml:space="preserve">1.68879556655884</t>
   </si>
   <si>
     <t xml:space="preserve">1.71895265579224</t>
@@ -509,25 +509,25 @@
     <t xml:space="preserve">1.63049209117889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72397899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7611722946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70990550518036</t>
+    <t xml:space="preserve">1.72397887706757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76117217540741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70990538597107</t>
   </si>
   <si>
     <t xml:space="preserve">1.67472207546234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72196817398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73403143882751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76619899272919</t>
+    <t xml:space="preserve">1.72196805477142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73403120040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7661988735199</t>
   </si>
   <si>
     <t xml:space="preserve">1.79032421112061</t>
@@ -536,43 +536,43 @@
     <t xml:space="preserve">1.75815689563751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81746566295624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82048106193542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78429305553436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.750115275383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70387446880341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64657592773438</t>
+    <t xml:space="preserve">1.81746578216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82048141956329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78429293632507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75011515617371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7038745880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64657604694366</t>
   </si>
   <si>
     <t xml:space="preserve">1.67170655727386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6003350019455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67572772502899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67974817752838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60435593128204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57922506332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61440849304199</t>
+    <t xml:space="preserve">1.60033512115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67572736740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67974805831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60435605049133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57922530174255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61440861225128</t>
   </si>
   <si>
     <t xml:space="preserve">1.61742413043976</t>
@@ -581,13 +581,13 @@
     <t xml:space="preserve">1.66467022895813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62647128105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70286905765533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70789527893066</t>
+    <t xml:space="preserve">1.62647140026093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70286893844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70789551734924</t>
   </si>
   <si>
     <t xml:space="preserve">1.68376922607422</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">1.74408328533173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84963381290436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89084815979004</t>
+    <t xml:space="preserve">1.84963357448578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89084792137146</t>
   </si>
   <si>
     <t xml:space="preserve">1.80841839313507</t>
@@ -608,19 +608,19 @@
     <t xml:space="preserve">1.90291059017181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94312047958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04263877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14014649391174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1351203918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18940305709839</t>
+    <t xml:space="preserve">1.94312036037445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0426390171051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14014625549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13512063026428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18940281867981</t>
   </si>
   <si>
     <t xml:space="preserve">2.09792685508728</t>
@@ -632,94 +632,94 @@
     <t xml:space="preserve">2.18236637115479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17633461952209</t>
+    <t xml:space="preserve">2.17633485794067</t>
   </si>
   <si>
     <t xml:space="preserve">2.14818835258484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13009405136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01047134399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98534059524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9632248878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03158092498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06977987289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09993743896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10094261169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07882738113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06877446174622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00846028327942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92301547527313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88381171226501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8757688999176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91396880149841</t>
+    <t xml:space="preserve">2.13009428977966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01047110557556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98534047603607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96322500705719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03158116340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06978011131287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09993720054626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10094213485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07882714271545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06877398490906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.008460521698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92301535606384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88381159305573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87576913833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91396868228912</t>
   </si>
   <si>
     <t xml:space="preserve">1.90391612052917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90994763374329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88079524040222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90492153167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05771684646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01650261878967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15321493148804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37738227844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41156005859375</t>
+    <t xml:space="preserve">1.90994679927826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88079559803009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90492177009583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05771708488464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01650285720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15321469306946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3773820400238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41155982017517</t>
   </si>
   <si>
     <t xml:space="preserve">2.37436652183533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41859722137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46986389160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4296543598175</t>
+    <t xml:space="preserve">2.41859698295593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46986413002014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42965412139893</t>
   </si>
   <si>
     <t xml:space="preserve">2.49499487876892</t>
@@ -728,37 +728,37 @@
     <t xml:space="preserve">2.51560211181641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4980103969574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5130889415741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56837677955627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59350776672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6010468006134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5432460308075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64879584312439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74931907653809</t>
+    <t xml:space="preserve">2.49801015853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51308941841125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56837701797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59350752830505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60104703903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54324626922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64879608154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74931931495667</t>
   </si>
   <si>
     <t xml:space="preserve">2.70408391952515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66387391090393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53068113327026</t>
+    <t xml:space="preserve">2.66387367248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53068065643311</t>
   </si>
   <si>
     <t xml:space="preserve">2.51811456680298</t>
@@ -770,31 +770,31 @@
     <t xml:space="preserve">2.64376950263977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68649196624756</t>
+    <t xml:space="preserve">2.68649172782898</t>
   </si>
   <si>
     <t xml:space="preserve">2.69654417037964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84230351448059</t>
+    <t xml:space="preserve">2.84230375289917</t>
   </si>
   <si>
     <t xml:space="preserve">2.88753914833069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81968569755554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82722496986389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240839958191</t>
+    <t xml:space="preserve">2.81968545913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240816116333</t>
   </si>
   <si>
     <t xml:space="preserve">2.81717276573181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68397927284241</t>
+    <t xml:space="preserve">2.68397903442383</t>
   </si>
   <si>
     <t xml:space="preserve">2.63371682167053</t>
@@ -806,61 +806,61 @@
     <t xml:space="preserve">2.70659613609314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77193689346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61361265182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52314114570618</t>
+    <t xml:space="preserve">2.77193713188171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61361241340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52314138412476</t>
   </si>
   <si>
     <t xml:space="preserve">2.55329823493958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39044976234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39849185943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48092126846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41759157180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33415651321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26177978515625</t>
+    <t xml:space="preserve">2.39045000076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39849209785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48092150688171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41759133338928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33415675163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26177954673767</t>
   </si>
   <si>
     <t xml:space="preserve">2.23765420913696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23463845252991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14919424057007</t>
+    <t xml:space="preserve">2.23463869094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14919376373291</t>
   </si>
   <si>
     <t xml:space="preserve">2.110995054245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08083772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25172805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26077508926392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36230421066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29796886444092</t>
+    <t xml:space="preserve">2.08083820343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25172758102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2607753276825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36230373382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29796862602234</t>
   </si>
   <si>
     <t xml:space="preserve">2.20146560668945</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">2.20649170875549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27987432479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35426211357117</t>
+    <t xml:space="preserve">2.27987408638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35426187515259</t>
   </si>
   <si>
     <t xml:space="preserve">2.3150577545166</t>
@@ -884,16 +884,16 @@
     <t xml:space="preserve">2.25976943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37235641479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34420919418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41457605361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42362332344055</t>
+    <t xml:space="preserve">2.37235617637634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34420943260193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41457629203796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42362308502197</t>
   </si>
   <si>
     <t xml:space="preserve">2.49197912216187</t>
@@ -905,10 +905,10 @@
     <t xml:space="preserve">2.41960144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43468070030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38944530487061</t>
+    <t xml:space="preserve">2.43468046188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38944554328918</t>
   </si>
   <si>
     <t xml:space="preserve">2.35727739334106</t>
@@ -920,19 +920,19 @@
     <t xml:space="preserve">2.26982164382935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28691101074219</t>
+    <t xml:space="preserve">2.28691077232361</t>
   </si>
   <si>
     <t xml:space="preserve">2.28490018844604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30198955535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479625701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21051263809204</t>
+    <t xml:space="preserve">2.30198931694031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479601860046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21051239967346</t>
   </si>
   <si>
     <t xml:space="preserve">2.1924192905426</t>
@@ -947,28 +947,28 @@
     <t xml:space="preserve">2.49901556968689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44473314285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5206286907196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58596897125244</t>
+    <t xml:space="preserve">2.44473338127136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52062821388245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58596873283386</t>
   </si>
   <si>
     <t xml:space="preserve">2.62366509437561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55832433700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53821992874146</t>
+    <t xml:space="preserve">2.55832457542419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53821969032288</t>
   </si>
   <si>
     <t xml:space="preserve">2.39447093009949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35627198219299</t>
+    <t xml:space="preserve">2.35627174377441</t>
   </si>
   <si>
     <t xml:space="preserve">2.44272232055664</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">2.34722495079041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32008385658264</t>
+    <t xml:space="preserve">2.32008409500122</t>
   </si>
   <si>
     <t xml:space="preserve">2.35526728630066</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">2.34406590461731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34508419036865</t>
+    <t xml:space="preserve">2.34508442878723</t>
   </si>
   <si>
     <t xml:space="preserve">2.37766861915588</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37461400032043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3471200466156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27584147453308</t>
+    <t xml:space="preserve">2.37461376190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34712052345276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27584195137024</t>
   </si>
   <si>
     <t xml:space="preserve">2.276859998703</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">2.21983671188354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26667714118958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23816537857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19743418693542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16383171081543</t>
+    <t xml:space="preserve">2.26667737960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23816561698914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19743466377258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16383147239685</t>
   </si>
   <si>
     <t xml:space="preserve">2.16790461540222</t>
@@ -1031,22 +1031,22 @@
     <t xml:space="preserve">2.24122023582458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19438004493713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24936628341675</t>
+    <t xml:space="preserve">2.19437980651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24936652183533</t>
   </si>
   <si>
     <t xml:space="preserve">2.22696471214294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12615489959717</t>
+    <t xml:space="preserve">2.12615513801575</t>
   </si>
   <si>
     <t xml:space="preserve">2.13939261436462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08440566062927</t>
+    <t xml:space="preserve">2.08440613746643</t>
   </si>
   <si>
     <t xml:space="preserve">2.17808699607849</t>
@@ -1055,22 +1055,22 @@
     <t xml:space="preserve">2.16892313957214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22594594955444</t>
+    <t xml:space="preserve">2.22594571113586</t>
   </si>
   <si>
     <t xml:space="preserve">2.23918342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25954937934875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2473292350769</t>
+    <t xml:space="preserve">2.25954985618591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24732971191406</t>
   </si>
   <si>
     <t xml:space="preserve">2.22289109230042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36646819114685</t>
+    <t xml:space="preserve">2.36646795272827</t>
   </si>
   <si>
     <t xml:space="preserve">2.44691133499146</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">2.38785147666931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39396166801453</t>
+    <t xml:space="preserve">2.39396142959595</t>
   </si>
   <si>
     <t xml:space="preserve">2.38683295249939</t>
@@ -1088,13 +1088,13 @@
     <t xml:space="preserve">2.41941833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46320414543152</t>
+    <t xml:space="preserve">2.4632043838501</t>
   </si>
   <si>
     <t xml:space="preserve">2.51513600349426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5222635269165</t>
+    <t xml:space="preserve">2.52226376533508</t>
   </si>
   <si>
     <t xml:space="preserve">2.52022790908813</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">2.53550124168396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45302104949951</t>
+    <t xml:space="preserve">2.45302128791809</t>
   </si>
   <si>
     <t xml:space="preserve">2.46931338310242</t>
@@ -1112,16 +1112,16 @@
     <t xml:space="preserve">2.40312576293945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3766508102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34813857078552</t>
+    <t xml:space="preserve">2.37665104866028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3481388092041</t>
   </si>
   <si>
     <t xml:space="preserve">2.3827600479126</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39497923851013</t>
+    <t xml:space="preserve">2.39497947692871</t>
   </si>
   <si>
     <t xml:space="preserve">2.36850428581238</t>
@@ -1130,22 +1130,22 @@
     <t xml:space="preserve">2.36443090438843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41025376319885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55586671829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52124547958374</t>
+    <t xml:space="preserve">2.41025328636169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55586624145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52124524116516</t>
   </si>
   <si>
     <t xml:space="preserve">2.50291681289673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4143271446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49477028846741</t>
+    <t xml:space="preserve">2.41432690620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477005004883</t>
   </si>
   <si>
     <t xml:space="preserve">2.48356914520264</t>
@@ -1157,10 +1157,10 @@
     <t xml:space="preserve">2.42349147796631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39294362068176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41636323928833</t>
+    <t xml:space="preserve">2.39294290542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41636276245117</t>
   </si>
   <si>
     <t xml:space="preserve">2.42654585838318</t>
@@ -1169,22 +1169,22 @@
     <t xml:space="preserve">2.36341333389282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38886952400208</t>
+    <t xml:space="preserve">2.38887000083923</t>
   </si>
   <si>
     <t xml:space="preserve">2.40923523902893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44182014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40516233444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36748671531677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32675504684448</t>
+    <t xml:space="preserve">2.4418203830719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40516209602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36748647689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32675528526306</t>
   </si>
   <si>
     <t xml:space="preserve">2.30638980865479</t>
@@ -1193,61 +1193,61 @@
     <t xml:space="preserve">2.37257790565491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44589328765869</t>
+    <t xml:space="preserve">2.44589352607727</t>
   </si>
   <si>
     <t xml:space="preserve">2.3970160484314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33591985702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35730361938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38581514358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43571019172668</t>
+    <t xml:space="preserve">2.33591938018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35730314254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38581538200378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43571043014526</t>
   </si>
   <si>
     <t xml:space="preserve">2.38174176216125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45200276374817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52430057525635</t>
+    <t xml:space="preserve">2.45200300216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52430081367493</t>
   </si>
   <si>
     <t xml:space="preserve">2.56604957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57623243331909</t>
+    <t xml:space="preserve">2.57623291015625</t>
   </si>
   <si>
     <t xml:space="preserve">2.61950945854187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61187171936035</t>
+    <t xml:space="preserve">2.61187148094177</t>
   </si>
   <si>
     <t xml:space="preserve">2.53448271751404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49171566963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35628485679626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28704237937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23714709281921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26158571243286</t>
+    <t xml:space="preserve">2.49171590805054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35628509521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28704214096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23714733123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26158547401428</t>
   </si>
   <si>
     <t xml:space="preserve">2.23612904548645</t>
@@ -1256,10 +1256,10 @@
     <t xml:space="preserve">2.23001909255981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15873980522156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16586780548096</t>
+    <t xml:space="preserve">2.15874052047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16586804389954</t>
   </si>
   <si>
     <t xml:space="preserve">2.18725156784058</t>
@@ -1268,88 +1268,88 @@
     <t xml:space="preserve">2.16281294822693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12921071052551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14041090011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1302285194397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12411880493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20150756835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14550256729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11088109016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07116842269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98054218292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17706966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15364909172058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17299604415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12513709068298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16994094848633</t>
+    <t xml:space="preserve">2.12921047210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14041113853455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13022828102112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12411904335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20150780677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14550280570984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11088156700134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0711681842804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98054206371307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17706918716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.153648853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17299628257751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12513732910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16994071006775</t>
   </si>
   <si>
     <t xml:space="preserve">2.09764361381531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1322648525238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1027352809906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09051632881165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15263056755066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25242114067078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33999276161194</t>
+    <t xml:space="preserve">2.13226461410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10273551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09051609039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1526300907135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25242137908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33999300003052</t>
   </si>
   <si>
     <t xml:space="preserve">2.27075004577637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3318464756012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31962752342224</t>
+    <t xml:space="preserve">2.33184671401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31962728500366</t>
   </si>
   <si>
     <t xml:space="preserve">2.29111528396606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36544942855835</t>
+    <t xml:space="preserve">2.36544966697693</t>
   </si>
   <si>
     <t xml:space="preserve">2.31046319007874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16484975814819</t>
+    <t xml:space="preserve">2.16484928131104</t>
   </si>
   <si>
     <t xml:space="preserve">2.1220817565918</t>
@@ -1364,19 +1364,19 @@
     <t xml:space="preserve">2.17401385307312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17605066299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13328313827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14448428153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2035448551178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14346528053284</t>
+    <t xml:space="preserve">2.17605090141296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1332836151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14448380470276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20354461669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14346551895142</t>
   </si>
   <si>
     <t xml:space="preserve">2.118008852005</t>
@@ -1385,40 +1385,40 @@
     <t xml:space="preserve">2.15975832939148</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16179466247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19947028160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2982439994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32166337966919</t>
+    <t xml:space="preserve">2.16179490089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19947052001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29824376106262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32166361808777</t>
   </si>
   <si>
     <t xml:space="preserve">2.29620695114136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25140309333801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45098400115967</t>
+    <t xml:space="preserve">2.25140261650085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45098423957825</t>
   </si>
   <si>
     <t xml:space="preserve">2.44894814491272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46676778793335</t>
+    <t xml:space="preserve">2.46676802635193</t>
   </si>
   <si>
     <t xml:space="preserve">2.37206840515137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3914155960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37308669090271</t>
+    <t xml:space="preserve">2.39141535758972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37308621406555</t>
   </si>
   <si>
     <t xml:space="preserve">2.30842614173889</t>
@@ -1427,100 +1427,100 @@
     <t xml:space="preserve">2.31708145141602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3980348110199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34610271453857</t>
+    <t xml:space="preserve">2.39803433418274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34610295295715</t>
   </si>
   <si>
     <t xml:space="preserve">2.31504511833191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4352011680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43978357315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42960071563721</t>
+    <t xml:space="preserve">2.43520140647888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43978404998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42960023880005</t>
   </si>
   <si>
     <t xml:space="preserve">2.433673620224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38530611991882</t>
+    <t xml:space="preserve">2.3853063583374</t>
   </si>
   <si>
     <t xml:space="preserve">2.47593259811401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47644186019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48102426528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47847747802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50800752639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48713374137878</t>
+    <t xml:space="preserve">2.4764416217804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48102402687073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47847771644592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50800800323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48713302612305</t>
   </si>
   <si>
     <t xml:space="preserve">2.29773449897766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39192509651184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42450976371765</t>
+    <t xml:space="preserve">2.39192461967468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42451000213623</t>
   </si>
   <si>
     <t xml:space="preserve">2.34864807128906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39243412017822</t>
+    <t xml:space="preserve">2.39243388175964</t>
   </si>
   <si>
     <t xml:space="preserve">2.33846521377563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34304761886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37054085731506</t>
+    <t xml:space="preserve">2.34304738044739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37054109573364</t>
   </si>
   <si>
     <t xml:space="preserve">2.37868714332581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36239457130432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31657242774963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32319140434265</t>
+    <t xml:space="preserve">2.36239504814148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31657195091248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32319116592407</t>
   </si>
   <si>
     <t xml:space="preserve">2.30282616615295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31860947608948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29926156997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30129885673523</t>
+    <t xml:space="preserve">2.31860899925232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29926133155823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30129837989807</t>
   </si>
   <si>
     <t xml:space="preserve">2.39039707183838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3990523815155</t>
+    <t xml:space="preserve">2.39905214309692</t>
   </si>
   <si>
     <t xml:space="preserve">2.40821695327759</t>
@@ -1529,61 +1529,61 @@
     <t xml:space="preserve">2.43265604972839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48458790779114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45505833625793</t>
+    <t xml:space="preserve">2.48458766937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45505785942078</t>
   </si>
   <si>
     <t xml:space="preserve">2.46167659759521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48815202713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4428379535675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4122896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42756414413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41585469245911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4280731678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40974450111389</t>
+    <t xml:space="preserve">2.48815178871155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44283819198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41228985786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42756462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41585445404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42807340621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40974497795105</t>
   </si>
   <si>
     <t xml:space="preserve">2.40210771560669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49680733680725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50597190856934</t>
+    <t xml:space="preserve">2.49680709838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50597143173218</t>
   </si>
   <si>
     <t xml:space="preserve">2.55484867095947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59150624275208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62103652954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54415678977966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5446662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37563300132751</t>
+    <t xml:space="preserve">2.59150648117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62103629112244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54415655136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54466581344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37563252449036</t>
   </si>
   <si>
     <t xml:space="preserve">2.39753246307373</t>
@@ -1595,37 +1595,37 @@
     <t xml:space="preserve">2.46271109580994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43246817588806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38345384597778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24423146247864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13108205795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13890361785889</t>
+    <t xml:space="preserve">2.43246841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3834536075592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2442319393158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1310818195343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13890314102173</t>
   </si>
   <si>
     <t xml:space="preserve">2.1394248008728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3078465461731</t>
+    <t xml:space="preserve">2.30784678459167</t>
   </si>
   <si>
     <t xml:space="preserve">2.24006032943726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16393184661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16288948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20460343360901</t>
+    <t xml:space="preserve">2.16393160820007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16288924217224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20460319519043</t>
   </si>
   <si>
     <t xml:space="preserve">2.14516067504883</t>
@@ -1634,19 +1634,19 @@
     <t xml:space="preserve">2.23849678039551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26508951187134</t>
+    <t xml:space="preserve">2.26508927345276</t>
   </si>
   <si>
     <t xml:space="preserve">2.30158877372742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32974672317505</t>
+    <t xml:space="preserve">2.32974648475647</t>
   </si>
   <si>
     <t xml:space="preserve">2.26873922348022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25778889656067</t>
+    <t xml:space="preserve">2.25778913497925</t>
   </si>
   <si>
     <t xml:space="preserve">2.33443927764893</t>
@@ -1655,61 +1655,61 @@
     <t xml:space="preserve">2.39336109161377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32296800613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49399638175964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44289708137512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45645427703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42151784896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44341850280762</t>
+    <t xml:space="preserve">2.32296848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49399662017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44289684295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45645403862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42151761054993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44341826438904</t>
   </si>
   <si>
     <t xml:space="preserve">2.45436811447144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44498229026794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44758987426758</t>
+    <t xml:space="preserve">2.44498252868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44759011268616</t>
   </si>
   <si>
     <t xml:space="preserve">2.43820405006409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4861752986908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49451804161072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44602560997009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40535402297974</t>
+    <t xml:space="preserve">2.48617553710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4945182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44602537155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40535378456116</t>
   </si>
   <si>
     <t xml:space="preserve">2.42203950881958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.455411195755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41213250160217</t>
+    <t xml:space="preserve">2.45541095733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41213297843933</t>
   </si>
   <si>
     <t xml:space="preserve">2.36728978157043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41526103019714</t>
+    <t xml:space="preserve">2.41526079177856</t>
   </si>
   <si>
     <t xml:space="preserve">2.41265320777893</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">2.44811081886292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48252558708191</t>
+    <t xml:space="preserve">2.48252534866333</t>
   </si>
   <si>
     <t xml:space="preserve">2.45801782608032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49295377731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48148250579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3928394317627</t>
+    <t xml:space="preserve">2.49295353889465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48148226737976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39283967018127</t>
   </si>
   <si>
     <t xml:space="preserve">2.3865818977356</t>
@@ -1739,109 +1739,109 @@
     <t xml:space="preserve">2.38814663887024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40900373458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26665306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24110341072083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20981740951538</t>
+    <t xml:space="preserve">2.40900349617004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26665353775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24110317230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20981764793396</t>
   </si>
   <si>
     <t xml:space="preserve">2.15506720542908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13473176956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13212490081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08571767807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08623862266541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13264584541321</t>
+    <t xml:space="preserve">2.13473224639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13212513923645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08571743965149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08623886108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13264560699463</t>
   </si>
   <si>
     <t xml:space="preserve">2.13160347938538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11491727828979</t>
+    <t xml:space="preserve">2.11491703987122</t>
   </si>
   <si>
     <t xml:space="preserve">2.10970330238342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10136079788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06746768951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08050322532654</t>
+    <t xml:space="preserve">2.10136103630066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.067467212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08050298690796</t>
   </si>
   <si>
     <t xml:space="preserve">2.00228905677795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98091077804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99029660224915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06329584121704</t>
+    <t xml:space="preserve">1.98091042041779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99029636383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06329607963562</t>
   </si>
   <si>
     <t xml:space="preserve">2.15141749382019</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15558886528015</t>
+    <t xml:space="preserve">2.15558910369873</t>
   </si>
   <si>
     <t xml:space="preserve">2.21294617652893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20199632644653</t>
+    <t xml:space="preserve">2.20199656486511</t>
   </si>
   <si>
     <t xml:space="preserve">2.20408153533936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19678235054016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24736094474792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28125357627869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25987529754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21659636497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24214673042297</t>
+    <t xml:space="preserve">2.19678211212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24736070632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28125333786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25987505912781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21659684181213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24214649200439</t>
   </si>
   <si>
     <t xml:space="preserve">2.26978254318237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.292724609375</t>
+    <t xml:space="preserve">2.29272484779358</t>
   </si>
   <si>
     <t xml:space="preserve">2.07946014404297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9975962638855</t>
+    <t xml:space="preserve">1.99759590625763</t>
   </si>
   <si>
     <t xml:space="preserve">1.96266055107117</t>
@@ -1850,37 +1850,37 @@
     <t xml:space="preserve">1.9371098279953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94910287857056</t>
+    <t xml:space="preserve">1.94910311698914</t>
   </si>
   <si>
     <t xml:space="preserve">1.91364586353302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88183867931366</t>
+    <t xml:space="preserve">1.88183856010437</t>
   </si>
   <si>
     <t xml:space="preserve">1.84429562091827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88444542884827</t>
+    <t xml:space="preserve">1.88444578647614</t>
   </si>
   <si>
     <t xml:space="preserve">1.84898805618286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86306715011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87610232830048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.859938621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86254549026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82239556312561</t>
+    <t xml:space="preserve">1.8630667924881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87610256671906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85993874073029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86254560947418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82239532470703</t>
   </si>
   <si>
     <t xml:space="preserve">1.82917451858521</t>
@@ -1895,130 +1895,130 @@
     <t xml:space="preserve">1.6753523349762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71393823623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70090270042419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7759884595871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76555991172791</t>
+    <t xml:space="preserve">1.71393835544586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70090281963348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77598857879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76555979251862</t>
   </si>
   <si>
     <t xml:space="preserve">1.7509593963623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76138842105865</t>
+    <t xml:space="preserve">1.76138830184937</t>
   </si>
   <si>
     <t xml:space="preserve">1.83282423019409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76973104476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75669550895691</t>
+    <t xml:space="preserve">1.76973116397858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75669538974762</t>
   </si>
   <si>
     <t xml:space="preserve">1.78850281238556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80206024646759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81822407245636</t>
+    <t xml:space="preserve">1.80206000804901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81822431087494</t>
   </si>
   <si>
     <t xml:space="preserve">1.82083165645599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76764571666718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78224527835846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76608121395111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74574589729309</t>
+    <t xml:space="preserve">1.76764583587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78224551677704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74991714954376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76608145236969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74574565887451</t>
   </si>
   <si>
     <t xml:space="preserve">1.80883812904358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81926715373993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82031047344208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91781735420227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8505527973175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86723828315735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87662422657013</t>
+    <t xml:space="preserve">1.81926703453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82031011581421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91781723499298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85055267810822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86723840236664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87662410736084</t>
   </si>
   <si>
     <t xml:space="preserve">1.96318209171295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92981016635895</t>
+    <t xml:space="preserve">1.92981004714966</t>
   </si>
   <si>
     <t xml:space="preserve">1.96578872203827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90321707725525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87297415733337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84116697311401</t>
+    <t xml:space="preserve">1.90321731567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87297439575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84116685390472</t>
   </si>
   <si>
     <t xml:space="preserve">1.82343852519989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81613862514496</t>
+    <t xml:space="preserve">1.81613874435425</t>
   </si>
   <si>
     <t xml:space="preserve">1.78798115253448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75304555892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74470293521881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78015983104706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74626660346985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73323106765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7097669839859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7540887594223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7186313867569</t>
+    <t xml:space="preserve">1.75304567813873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74470269680023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78016006946564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74626672267914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73323082923889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70976710319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75408887863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71863150596619</t>
   </si>
   <si>
     <t xml:space="preserve">1.70715963840485</t>
@@ -2027,16 +2027,16 @@
     <t xml:space="preserve">1.76451683044434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7754670381546</t>
+    <t xml:space="preserve">1.77546691894531</t>
   </si>
   <si>
     <t xml:space="preserve">1.7363600730896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905945777893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73427391052246</t>
+    <t xml:space="preserve">1.72905933856964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73427402973175</t>
   </si>
   <si>
     <t xml:space="preserve">1.70507431030273</t>
@@ -2054,49 +2054,49 @@
     <t xml:space="preserve">1.60235261917114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59296667575836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60130941867828</t>
+    <t xml:space="preserve">1.59296679496765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60130953788757</t>
   </si>
   <si>
     <t xml:space="preserve">1.59244513511658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56898069381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57367336750031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64250254631042</t>
+    <t xml:space="preserve">1.56898057460785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57367360591888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64250266551971</t>
   </si>
   <si>
     <t xml:space="preserve">1.62268793582916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6268595457077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64093792438507</t>
+    <t xml:space="preserve">1.62685918807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64093816280365</t>
   </si>
   <si>
     <t xml:space="preserve">1.5413453578949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54603779315948</t>
+    <t xml:space="preserve">1.54603755474091</t>
   </si>
   <si>
     <t xml:space="preserve">1.54864501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55125200748444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58775222301483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57158827781677</t>
+    <t xml:space="preserve">1.55125212669373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58775234222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57158803939819</t>
   </si>
   <si>
     <t xml:space="preserve">1.71028852462769</t>
@@ -2105,40 +2105,40 @@
     <t xml:space="preserve">1.78120315074921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76295304298401</t>
+    <t xml:space="preserve">1.76295292377472</t>
   </si>
   <si>
     <t xml:space="preserve">1.75617396831512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83751714229584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83021748065948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81457448005676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78537428379059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80623137950897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82448136806488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83647406101227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88600969314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9282454252243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92303168773651</t>
+    <t xml:space="preserve">1.83751702308655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8302173614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81457412242889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78537440299988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80623161792755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82448184490204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83647418022156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88600981235504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92824554443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9230318069458</t>
   </si>
   <si>
     <t xml:space="preserve">1.91677439212799</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">1.93241763114929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87558114528656</t>
+    <t xml:space="preserve">1.87558126449585</t>
   </si>
   <si>
     <t xml:space="preserve">1.85628879070282</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84481692314148</t>
+    <t xml:space="preserve">1.84481680393219</t>
   </si>
   <si>
     <t xml:space="preserve">1.85576725006104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89330971240997</t>
+    <t xml:space="preserve">1.89330995082855</t>
   </si>
   <si>
     <t xml:space="preserve">1.93137466907501</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">1.94649577140808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92928898334503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90269541740417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89487433433533</t>
+    <t xml:space="preserve">1.92928874492645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90269553661346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89487421512604</t>
   </si>
   <si>
     <t xml:space="preserve">1.87871050834656</t>
@@ -2186,31 +2186,31 @@
     <t xml:space="preserve">1.90843164920807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90061032772064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8985241651535</t>
+    <t xml:space="preserve">1.90061020851135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89852404594421</t>
   </si>
   <si>
     <t xml:space="preserve">1.92459571361542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90999591350555</t>
+    <t xml:space="preserve">1.90999615192413</t>
   </si>
   <si>
     <t xml:space="preserve">1.92876696586609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93085324764252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94753873348236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94858169555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97934591770172</t>
+    <t xml:space="preserve">1.93085312843323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94753861427307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94858157634735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97934627532959</t>
   </si>
   <si>
     <t xml:space="preserve">2.0163676738739</t>
@@ -2219,25 +2219,25 @@
     <t xml:space="preserve">2.06955361366272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10448908805847</t>
+    <t xml:space="preserve">2.10448932647705</t>
   </si>
   <si>
     <t xml:space="preserve">2.16028165817261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18113946914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15976023674011</t>
+    <t xml:space="preserve">2.18113923072815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15976047515869</t>
   </si>
   <si>
     <t xml:space="preserve">2.14098930358887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17592525482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19365358352661</t>
+    <t xml:space="preserve">2.1759250164032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19365334510803</t>
   </si>
   <si>
     <t xml:space="preserve">2.19991040229797</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">2.19104599952698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1456823348999</t>
+    <t xml:space="preserve">2.14568257331848</t>
   </si>
   <si>
     <t xml:space="preserve">2.1336886882782</t>
@@ -2267,52 +2267,52 @@
     <t xml:space="preserve">2.03357458114624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05182480812073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01584601402283</t>
+    <t xml:space="preserve">2.05182504653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01584625244141</t>
   </si>
   <si>
     <t xml:space="preserve">2.06121063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00609588623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95326054096222</t>
+    <t xml:space="preserve">2.00609564781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9532607793808</t>
   </si>
   <si>
     <t xml:space="preserve">1.9117476940155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88640916347504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581786632538</t>
+    <t xml:space="preserve">1.88640940189362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581822395325</t>
   </si>
   <si>
     <t xml:space="preserve">1.85514008998871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85621786117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84651398658752</t>
+    <t xml:space="preserve">1.85621774196625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84651410579681</t>
   </si>
   <si>
     <t xml:space="preserve">1.83357417583466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8244092464447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80985271930695</t>
+    <t xml:space="preserve">1.82440936565399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80985260009766</t>
   </si>
   <si>
     <t xml:space="preserve">1.84166193008423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80823564529419</t>
+    <t xml:space="preserve">1.80823576450348</t>
   </si>
   <si>
     <t xml:space="preserve">1.78667092323303</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.78343534469604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83950507640839</t>
+    <t xml:space="preserve">1.8395049571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.8567568063736</t>
@@ -2333,43 +2333,43 @@
     <t xml:space="preserve">1.85783517360687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85136556625366</t>
+    <t xml:space="preserve">1.85136520862579</t>
   </si>
   <si>
     <t xml:space="preserve">1.8653826713562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90743505954742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94301819801331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94086122512817</t>
+    <t xml:space="preserve">1.90743482112885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94301795959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94086110591888</t>
   </si>
   <si>
     <t xml:space="preserve">1.97374784946442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95218360424042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95110499858856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96242570877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93169558048248</t>
+    <t xml:space="preserve">1.95218324661255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95110476016998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96242594718933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93169605731964</t>
   </si>
   <si>
     <t xml:space="preserve">1.92145228385925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96080935001373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03736519813538</t>
+    <t xml:space="preserve">1.96080911159515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0373649597168</t>
   </si>
   <si>
     <t xml:space="preserve">2.09666895866394</t>
@@ -2381,13 +2381,13 @@
     <t xml:space="preserve">2.08211255073547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07348680496216</t>
+    <t xml:space="preserve">2.073486328125</t>
   </si>
   <si>
     <t xml:space="preserve">2.05623459815979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06539988517761</t>
+    <t xml:space="preserve">2.06539964675903</t>
   </si>
   <si>
     <t xml:space="preserve">2.05084323883057</t>
@@ -2396,28 +2396,28 @@
     <t xml:space="preserve">2.07995629310608</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04653024673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02065253257751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0271213054657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01633930206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96512222290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94894778728485</t>
+    <t xml:space="preserve">2.0465304851532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02065229415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02712154388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01633954048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9651221036911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94894766807556</t>
   </si>
   <si>
     <t xml:space="preserve">1.92846143245697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9020437002182</t>
+    <t xml:space="preserve">1.90204358100891</t>
   </si>
   <si>
     <t xml:space="preserve">1.82764434814453</t>
@@ -2432,13 +2432,13 @@
     <t xml:space="preserve">1.83627033233643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86430537700653</t>
+    <t xml:space="preserve">1.86430513858795</t>
   </si>
   <si>
     <t xml:space="preserve">1.83842647075653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87347042560577</t>
+    <t xml:space="preserve">1.87347018718719</t>
   </si>
   <si>
     <t xml:space="preserve">1.72520971298218</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">1.68854916095734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70795786380768</t>
+    <t xml:space="preserve">1.70795798301697</t>
   </si>
   <si>
     <t xml:space="preserve">1.62385368347168</t>
@@ -2456,76 +2456,76 @@
     <t xml:space="preserve">1.65943610668182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67614948749542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62277519702911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65081000328064</t>
+    <t xml:space="preserve">1.67614960670471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6227753162384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65081012248993</t>
   </si>
   <si>
     <t xml:space="preserve">1.65728008747101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6432626247406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65458381175995</t>
+    <t xml:space="preserve">1.64326250553131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65458393096924</t>
   </si>
   <si>
     <t xml:space="preserve">1.72952282428741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71766245365143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75162720680237</t>
+    <t xml:space="preserve">1.71766257286072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75162708759308</t>
   </si>
   <si>
     <t xml:space="preserve">1.73760950565338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74138331413269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77049648761749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78828775882721</t>
+    <t xml:space="preserve">1.74138343334198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77049660682678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78828752040863</t>
   </si>
   <si>
     <t xml:space="preserve">1.79367887973785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80230498313904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86322689056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88425242900848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86592197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89449620246887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94247901439667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95164394378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8880261182785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89934825897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98237407207489</t>
+    <t xml:space="preserve">1.80230510234833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86322665214539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8842521905899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86592185497284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.894495844841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9424786567688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95164406299591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88802599906921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89934849739075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9823739528656</t>
   </si>
   <si>
     <t xml:space="preserve">1.92306995391846</t>
@@ -2537,58 +2537,58 @@
     <t xml:space="preserve">1.87400949001312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88533091545105</t>
+    <t xml:space="preserve">1.88533067703247</t>
   </si>
   <si>
     <t xml:space="preserve">1.90959167480469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8804783821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89180076122284</t>
+    <t xml:space="preserve">1.88047850131989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89180064201355</t>
   </si>
   <si>
     <t xml:space="preserve">1.87454783916473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8810179233551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89234006404877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96134829521179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98291325569153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02550435066223</t>
+    <t xml:space="preserve">1.88101780414581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89233994483948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96134841442108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98291301727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02550458908081</t>
   </si>
   <si>
     <t xml:space="preserve">2.05515623092651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11122560501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16621661186218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18993830680847</t>
+    <t xml:space="preserve">2.11122584342957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16621685028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18993854522705</t>
   </si>
   <si>
     <t xml:space="preserve">2.21905088424683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17807722091675</t>
+    <t xml:space="preserve">2.17807745933533</t>
   </si>
   <si>
     <t xml:space="preserve">2.17699980735779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19317293167114</t>
+    <t xml:space="preserve">2.19317269325256</t>
   </si>
   <si>
     <t xml:space="preserve">2.19371247291565</t>
@@ -2597,22 +2597,22 @@
     <t xml:space="preserve">2.15219926834106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16028594970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15651249885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22605967521667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25193762779236</t>
+    <t xml:space="preserve">2.16028618812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15651226043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22606015205383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25193786621094</t>
   </si>
   <si>
     <t xml:space="preserve">2.26703357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29992055892944</t>
+    <t xml:space="preserve">2.29992079734802</t>
   </si>
   <si>
     <t xml:space="preserve">2.27458119392395</t>
@@ -2621,16 +2621,16 @@
     <t xml:space="preserve">2.31232023239136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32903265953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34466814994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33658146858215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35383319854736</t>
+    <t xml:space="preserve">2.32903289794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34466791152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.336580991745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35383343696594</t>
   </si>
   <si>
     <t xml:space="preserve">2.38240718841553</t>
@@ -2639,25 +2639,25 @@
     <t xml:space="preserve">2.45141553878784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48430275917053</t>
+    <t xml:space="preserve">2.48430252075195</t>
   </si>
   <si>
     <t xml:space="preserve">2.47028517723083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41098117828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42445945739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41852879524231</t>
+    <t xml:space="preserve">2.41098141670227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42445921897888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41852855682373</t>
   </si>
   <si>
     <t xml:space="preserve">2.39696359634399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36569404602051</t>
+    <t xml:space="preserve">2.36569356918335</t>
   </si>
   <si>
     <t xml:space="preserve">2.36946821212769</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">2.32094621658325</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33819818496704</t>
+    <t xml:space="preserve">2.33819794654846</t>
   </si>
   <si>
     <t xml:space="preserve">2.36677217483521</t>
@@ -2675,34 +2675,34 @@
     <t xml:space="preserve">2.37917256355286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40235567092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37378096580505</t>
+    <t xml:space="preserve">2.40235543251038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37378144264221</t>
   </si>
   <si>
     <t xml:space="preserve">2.39911985397339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3958854675293</t>
+    <t xml:space="preserve">2.39588499069214</t>
   </si>
   <si>
     <t xml:space="preserve">2.42769384384155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40990257263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44009375572205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45842385292053</t>
+    <t xml:space="preserve">2.40990281105042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44009351730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45842409133911</t>
   </si>
   <si>
     <t xml:space="preserve">2.43470215797424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43146777153015</t>
+    <t xml:space="preserve">2.43146753311157</t>
   </si>
   <si>
     <t xml:space="preserve">2.40127658843994</t>
@@ -2714,28 +2714,28 @@
     <t xml:space="preserve">2.47729349136353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47567629814148</t>
+    <t xml:space="preserve">2.47567653656006</t>
   </si>
   <si>
     <t xml:space="preserve">2.42499828338623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43200707435608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45518946647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48861527442932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49077177047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47998976707458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48807644844055</t>
+    <t xml:space="preserve">2.4320068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45518922805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4886155128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49077153205872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47998952865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48807621002197</t>
   </si>
   <si>
     <t xml:space="preserve">2.46597218513489</t>
@@ -2747,28 +2747,28 @@
     <t xml:space="preserve">2.47891116142273</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46381521224976</t>
+    <t xml:space="preserve">2.46381545066833</t>
   </si>
   <si>
     <t xml:space="preserve">2.49508452415466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40397214889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40451121330261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38941526412964</t>
+    <t xml:space="preserve">2.40397191047668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40451145172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38941550254822</t>
   </si>
   <si>
     <t xml:space="preserve">2.43793749809265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4163715839386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33226847648621</t>
+    <t xml:space="preserve">2.41637182235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33226823806763</t>
   </si>
   <si>
     <t xml:space="preserve">2.23738121986389</t>
@@ -2783,10 +2783,10 @@
     <t xml:space="preserve">2.35976386070251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33765959739685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34682488441467</t>
+    <t xml:space="preserve">2.33765983581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34682512283325</t>
   </si>
   <si>
     <t xml:space="preserve">2.35760688781738</t>
@@ -2795,22 +2795,22 @@
     <t xml:space="preserve">2.44440650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42338109016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50371050834656</t>
+    <t xml:space="preserve">2.42338085174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50371026992798</t>
   </si>
   <si>
     <t xml:space="preserve">2.23252892494202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22498154640198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26110315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19532990455627</t>
+    <t xml:space="preserve">2.2249813079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26110291481018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19533014297485</t>
   </si>
   <si>
     <t xml:space="preserve">2.06809496879578</t>
@@ -2819,16 +2819,16 @@
     <t xml:space="preserve">2.07025194168091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11607766151428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03682589530945</t>
+    <t xml:space="preserve">2.11607789993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03682541847229</t>
   </si>
   <si>
     <t xml:space="preserve">1.94032180309296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79260063171387</t>
+    <t xml:space="preserve">1.79260075092316</t>
   </si>
   <si>
     <t xml:space="preserve">1.74623537063599</t>
@@ -2837,19 +2837,19 @@
     <t xml:space="preserve">1.68261861801147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64703631401062</t>
+    <t xml:space="preserve">1.64703643321991</t>
   </si>
   <si>
     <t xml:space="preserve">1.42329823970795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35428988933563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35752427577972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1165337562561</t>
+    <t xml:space="preserve">1.35429000854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3575245141983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11653387546539</t>
   </si>
   <si>
     <t xml:space="preserve">1.36668956279755</t>
@@ -2858,19 +2858,19 @@
     <t xml:space="preserve">1.26209890842438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25778603553772</t>
+    <t xml:space="preserve">1.25778579711914</t>
   </si>
   <si>
     <t xml:space="preserve">1.22435963153839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24322915077209</t>
+    <t xml:space="preserve">1.24322926998138</t>
   </si>
   <si>
     <t xml:space="preserve">1.38825452327728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5828800201416</t>
+    <t xml:space="preserve">1.58287990093231</t>
   </si>
   <si>
     <t xml:space="preserve">1.62223613262177</t>
@@ -2882,19 +2882,19 @@
     <t xml:space="preserve">1.5656281709671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46481132507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46427202224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50955843925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4658887386322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45402848720551</t>
+    <t xml:space="preserve">1.46481120586395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46427190303802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50955855846405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46588897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45402836799622</t>
   </si>
   <si>
     <t xml:space="preserve">1.4470192193985</t>
@@ -2903,10 +2903,10 @@
     <t xml:space="preserve">1.47505402565002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4691241979599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39688038825989</t>
+    <t xml:space="preserve">1.46912407875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3968802690506</t>
   </si>
   <si>
     <t xml:space="preserve">1.41035854816437</t>
@@ -2915,82 +2915,82 @@
     <t xml:space="preserve">1.3472808599472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24808156490326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19416892528534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20656859874725</t>
+    <t xml:space="preserve">1.24808132648468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19416868686676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20656871795654</t>
   </si>
   <si>
     <t xml:space="preserve">1.20764708518982</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15535116195679</t>
+    <t xml:space="preserve">1.15535140037537</t>
   </si>
   <si>
     <t xml:space="preserve">1.15373361110687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19255137443542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14295148849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17529940605164</t>
+    <t xml:space="preserve">1.19255125522614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14295172691345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17529952526093</t>
   </si>
   <si>
     <t xml:space="preserve">1.24915993213654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26910722255707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21411621570587</t>
+    <t xml:space="preserve">1.26910734176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21411609649658</t>
   </si>
   <si>
     <t xml:space="preserve">1.18823826313019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18608129024506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17206406593323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15265619754791</t>
+    <t xml:space="preserve">1.18608140945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17206394672394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15265595912933</t>
   </si>
   <si>
     <t xml:space="preserve">1.13971626758575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13216888904572</t>
+    <t xml:space="preserve">1.13216853141785</t>
   </si>
   <si>
     <t xml:space="preserve">1.09442961215973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08580350875854</t>
+    <t xml:space="preserve">1.08580374717712</t>
   </si>
   <si>
     <t xml:space="preserve">1.08202993869781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12548649311066</t>
+    <t xml:space="preserve">1.12548661231995</t>
   </si>
   <si>
     <t xml:space="preserve">1.06277656555176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04434823989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02454447746277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02537035942078</t>
+    <t xml:space="preserve">1.04434812068939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02454459667206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02537024021149</t>
   </si>
   <si>
     <t xml:space="preserve">1.02812051773071</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">1.22395288944244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18104648590088</t>
+    <t xml:space="preserve">1.18104660511017</t>
   </si>
   <si>
     <t xml:space="preserve">1.210200548172</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">1.27236115932465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39613223075867</t>
+    <t xml:space="preserve">1.39613211154938</t>
   </si>
   <si>
     <t xml:space="preserve">1.4637930393219</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">1.37027740478516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28281319141388</t>
+    <t xml:space="preserve">1.28281307220459</t>
   </si>
   <si>
     <t xml:space="preserve">1.25365817546844</t>
@@ -3041,31 +3041,31 @@
     <t xml:space="preserve">1.26521039009094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34827411174774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32131969928741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28501296043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29821586608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24815702438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27896285057068</t>
+    <t xml:space="preserve">1.34827399253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3213198184967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28501307964325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29821598529816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24815714359283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27896273136139</t>
   </si>
   <si>
     <t xml:space="preserve">1.21405112743378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22340261936188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19534814357758</t>
+    <t xml:space="preserve">1.22340273857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19534802436829</t>
   </si>
   <si>
     <t xml:space="preserve">1.21680212020874</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">1.19644844532013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23275423049927</t>
+    <t xml:space="preserve">1.23275434970856</t>
   </si>
   <si>
     <t xml:space="preserve">1.21900200843811</t>
@@ -3098,13 +3098,13 @@
     <t xml:space="preserve">1.37082755565643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37192809581757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37907886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39723169803619</t>
+    <t xml:space="preserve">1.37192797660828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37907874584198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3972315788269</t>
   </si>
   <si>
     <t xml:space="preserve">1.36807751655579</t>
@@ -3113,34 +3113,34 @@
     <t xml:space="preserve">1.41538548469543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40218245983124</t>
+    <t xml:space="preserve">1.40218257904053</t>
   </si>
   <si>
     <t xml:space="preserve">1.35377502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33342134952545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27786219120026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28171277046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24045610427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22505331039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17279446125031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14253997802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12768721580505</t>
+    <t xml:space="preserve">1.33342158794403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27786231040955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28171288967133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24045622348785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22505342960358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17279434204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14253985881805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12768733501434</t>
   </si>
   <si>
     <t xml:space="preserve">1.19589829444885</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">1.27401173114777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27731215953827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28886437416077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26796054840088</t>
+    <t xml:space="preserve">1.27731204032898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28886425495148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26796066761017</t>
   </si>
   <si>
     <t xml:space="preserve">1.25420844554901</t>
@@ -3173,10 +3173,10 @@
     <t xml:space="preserve">1.29216480255127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2916145324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28226292133331</t>
+    <t xml:space="preserve">1.29161441326141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2822630405426</t>
   </si>
   <si>
     <t xml:space="preserve">1.30921733379364</t>
@@ -3188,25 +3188,25 @@
     <t xml:space="preserve">1.23165476322174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22835373878479</t>
+    <t xml:space="preserve">1.2283536195755</t>
   </si>
   <si>
     <t xml:space="preserve">1.18929767608643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20084893703461</t>
+    <t xml:space="preserve">1.20084917545319</t>
   </si>
   <si>
     <t xml:space="preserve">1.19479870796204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16234266757965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17829561233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20855104923248</t>
+    <t xml:space="preserve">1.16234254837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17829549312592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20855093002319</t>
   </si>
   <si>
     <t xml:space="preserve">1.20524990558624</t>
@@ -3215,10 +3215,10 @@
     <t xml:space="preserve">1.20469963550568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1898478269577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19864928722382</t>
+    <t xml:space="preserve">1.18984794616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19864916801453</t>
   </si>
   <si>
     <t xml:space="preserve">1.18819725513458</t>
@@ -3230,40 +3230,40 @@
     <t xml:space="preserve">1.10898423194885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11118412017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0781786441803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07542860507965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10348296165466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07267832756042</t>
+    <t xml:space="preserve">1.11118423938751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07817852497101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07542848587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10348308086395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07267844676971</t>
   </si>
   <si>
     <t xml:space="preserve">1.09358131885529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07157802581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04242300987244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965468347072601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00569605827332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963436543941498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9723761677742</t>
+    <t xml:space="preserve">1.07157790660858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04242289066315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965468287467957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0056961774826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963436603546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972375988960266</t>
   </si>
   <si>
     <t xml:space="preserve">0.977252125740051</t>
@@ -3272,13 +3272,13 @@
     <t xml:space="preserve">0.952465355396271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903704285621643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907361507415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902485311031342</t>
+    <t xml:space="preserve">0.903704345226288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907361388206482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902485132217407</t>
   </si>
   <si>
     <t xml:space="preserve">0.975626826286316</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">0.98903614282608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964249134063721</t>
+    <t xml:space="preserve">0.964249312877655</t>
   </si>
   <si>
     <t xml:space="preserve">0.978064954280853</t>
@@ -3302,19 +3302,19 @@
     <t xml:space="preserve">0.968312621116638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907767832279205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842346608638763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831781685352325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826499283313751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857381284236908</t>
+    <t xml:space="preserve">0.907767653465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842346668243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831781804561615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826499342918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857381343841553</t>
   </si>
   <si>
     <t xml:space="preserve">0.879323780536652</t>
@@ -3329,31 +3329,31 @@
     <t xml:space="preserve">0.8516925573349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978471338748932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970344364643097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00691509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07233607769012</t>
+    <t xml:space="preserve">0.978471219539642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970344424247742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00691521167755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07233619689941</t>
   </si>
   <si>
     <t xml:space="preserve">1.08493280410767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15116655826569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15848076343536</t>
+    <t xml:space="preserve">1.1511664390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15848064422607</t>
   </si>
   <si>
     <t xml:space="preserve">1.20642900466919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23202860355377</t>
+    <t xml:space="preserve">1.23202872276306</t>
   </si>
   <si>
     <t xml:space="preserve">1.23487293720245</t>
@@ -3368,109 +3368,109 @@
     <t xml:space="preserve">1.22796523571014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19058167934418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20764791965485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19464528560638</t>
+    <t xml:space="preserve">1.19058179855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20764815807343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19464504718781</t>
   </si>
   <si>
     <t xml:space="preserve">1.20561623573303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19667673110962</t>
+    <t xml:space="preserve">1.19667661190033</t>
   </si>
   <si>
     <t xml:space="preserve">1.1901752948761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19830203056335</t>
+    <t xml:space="preserve">1.19830214977264</t>
   </si>
   <si>
     <t xml:space="preserve">1.23284125328064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19220697879791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18936252593994</t>
+    <t xml:space="preserve">1.1922070980072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18936276435852</t>
   </si>
   <si>
     <t xml:space="preserve">1.20074021816254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18448650836945</t>
+    <t xml:space="preserve">1.18448662757874</t>
   </si>
   <si>
     <t xml:space="preserve">1.19180071353912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18001675605774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13247489929199</t>
+    <t xml:space="preserve">1.18001687526703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1324747800827</t>
   </si>
   <si>
     <t xml:space="preserve">1.158074259758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20277190208435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21902573108673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21049249172211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.188143491745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19789588451385</t>
+    <t xml:space="preserve">1.20277202129364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21902561187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21049237251282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18814361095428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19789576530457</t>
   </si>
   <si>
     <t xml:space="preserve">1.26169145107269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3397091627121</t>
+    <t xml:space="preserve">1.33970904350281</t>
   </si>
   <si>
     <t xml:space="preserve">1.32467448711395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35189950466156</t>
+    <t xml:space="preserve">1.35189938545227</t>
   </si>
   <si>
     <t xml:space="preserve">1.35393106937408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33727097511292</t>
+    <t xml:space="preserve">1.3372710943222</t>
   </si>
   <si>
     <t xml:space="preserve">1.31614136695862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30760812759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33645844459534</t>
+    <t xml:space="preserve">1.30760824680328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33645832538605</t>
   </si>
   <si>
     <t xml:space="preserve">1.31736040115356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34011554718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31654763221741</t>
+    <t xml:space="preserve">1.34011542797089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3165477514267</t>
   </si>
   <si>
     <t xml:space="preserve">1.28038322925568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24178087711334</t>
+    <t xml:space="preserve">1.24178075790405</t>
   </si>
   <si>
     <t xml:space="preserve">1.27631986141205</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">1.26656770706177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24584412574768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25478363037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37993681430817</t>
+    <t xml:space="preserve">1.24584424495697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25478374958038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37993705272675</t>
   </si>
   <si>
     <t xml:space="preserve">1.44495165348053</t>
@@ -3506,52 +3506,52 @@
     <t xml:space="preserve">1.51606154441833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51321697235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53028345108032</t>
+    <t xml:space="preserve">1.51321709156036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53028357028961</t>
   </si>
   <si>
     <t xml:space="preserve">1.50793468952179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4803032875061</t>
+    <t xml:space="preserve">1.48030340671539</t>
   </si>
   <si>
     <t xml:space="preserve">1.45470380783081</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5124044418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49046194553375</t>
+    <t xml:space="preserve">1.51240432262421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49046206474304</t>
   </si>
   <si>
     <t xml:space="preserve">1.49005568027496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51402986049652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47461473941803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51362335681915</t>
+    <t xml:space="preserve">1.51402974128723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47461462020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51362347602844</t>
   </si>
   <si>
     <t xml:space="preserve">1.49777615070343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50671565532684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57010507583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61236453056335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60545682907104</t>
+    <t xml:space="preserve">1.50671553611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57010519504547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61236441135406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60545670986176</t>
   </si>
   <si>
     <t xml:space="preserve">1.59204745292664</t>
@@ -3566,10 +3566,10 @@
     <t xml:space="preserve">1.61724066734314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66762709617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65543675422668</t>
+    <t xml:space="preserve">1.66762697696686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6554366350174</t>
   </si>
   <si>
     <t xml:space="preserve">1.58960926532745</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">1.54816246032715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56969857215881</t>
+    <t xml:space="preserve">1.5696986913681</t>
   </si>
   <si>
     <t xml:space="preserve">1.55791473388672</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">1.54247379302979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54369270801544</t>
+    <t xml:space="preserve">1.54369282722473</t>
   </si>
   <si>
     <t xml:space="preserve">1.52500104904175</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">1.54531800746918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54328656196594</t>
+    <t xml:space="preserve">1.54328632354736</t>
   </si>
   <si>
     <t xml:space="preserve">1.53678500652313</t>
@@ -3611,22 +3611,22 @@
     <t xml:space="preserve">1.51077902317047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51971852779388</t>
+    <t xml:space="preserve">1.51971864700317</t>
   </si>
   <si>
     <t xml:space="preserve">1.5469434261322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52947080135345</t>
+    <t xml:space="preserve">1.52947068214417</t>
   </si>
   <si>
     <t xml:space="preserve">1.53841030597687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53719127178192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58554601669312</t>
+    <t xml:space="preserve">1.53719139099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58554589748383</t>
   </si>
   <si>
     <t xml:space="preserve">1.50021409988403</t>
@@ -3635,16 +3635,16 @@
     <t xml:space="preserve">1.46689414978027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46933209896088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47664654254913</t>
+    <t xml:space="preserve">1.46933221817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47664642333984</t>
   </si>
   <si>
     <t xml:space="preserve">1.52215671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50549674034119</t>
+    <t xml:space="preserve">1.50549650192261</t>
   </si>
   <si>
     <t xml:space="preserve">1.53922307491302</t>
@@ -3656,16 +3656,16 @@
     <t xml:space="preserve">1.52337574958801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54084837436676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57091760635376</t>
+    <t xml:space="preserve">1.54084825515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57091748714447</t>
   </si>
   <si>
     <t xml:space="preserve">1.56319713592529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62374222278595</t>
+    <t xml:space="preserve">1.62374210357666</t>
   </si>
   <si>
     <t xml:space="preserve">1.63837039470673</t>
@@ -3677,22 +3677,22 @@
     <t xml:space="preserve">1.6294310092926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63024365901947</t>
+    <t xml:space="preserve">1.63024353981018</t>
   </si>
   <si>
     <t xml:space="preserve">1.63755774497986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60667586326599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59164118766785</t>
+    <t xml:space="preserve">1.6066757440567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59164106845856</t>
   </si>
   <si>
     <t xml:space="preserve">1.62089765071869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72497689723969</t>
+    <t xml:space="preserve">1.72497701644897</t>
   </si>
   <si>
     <t xml:space="preserve">1.76312530040741</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">1.6785352230072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70009732246399</t>
+    <t xml:space="preserve">1.70009744167328</t>
   </si>
   <si>
     <t xml:space="preserve">1.6893162727356</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">1.68185257911682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68682825565338</t>
+    <t xml:space="preserve">1.68682837486267</t>
   </si>
   <si>
     <t xml:space="preserve">1.69512140750885</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">1.68765783309937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67687666416168</t>
+    <t xml:space="preserve">1.67687654495239</t>
   </si>
   <si>
     <t xml:space="preserve">1.69926822185516</t>
@@ -3734,13 +3734,13 @@
     <t xml:space="preserve">1.69014573097229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68434035778046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69263350963593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66609561443329</t>
+    <t xml:space="preserve">1.68434023857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69263339042664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66609537601471</t>
   </si>
   <si>
     <t xml:space="preserve">1.6428747177124</t>
@@ -3755,28 +3755,28 @@
     <t xml:space="preserve">1.60928738117218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58813989162445</t>
+    <t xml:space="preserve">1.58813977241516</t>
   </si>
   <si>
     <t xml:space="preserve">1.56699228286743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58440780639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57735872268677</t>
+    <t xml:space="preserve">1.58440792560577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57735860347748</t>
   </si>
   <si>
     <t xml:space="preserve">1.52718508243561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5147453546524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52220916748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53133165836334</t>
+    <t xml:space="preserve">1.51474547386169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52220928668976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53133177757263</t>
   </si>
   <si>
     <t xml:space="preserve">1.52055060863495</t>
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve">1.5325756072998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49193930625916</t>
+    <t xml:space="preserve">1.49193906784058</t>
   </si>
   <si>
     <t xml:space="preserve">1.47867012023926</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">1.46291315555573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46954751014709</t>
+    <t xml:space="preserve">1.46954762935638</t>
   </si>
   <si>
     <t xml:space="preserve">1.41937410831451</t>
@@ -3806,13 +3806,13 @@
     <t xml:space="preserve">1.41315412521362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40154385566711</t>
+    <t xml:space="preserve">1.40154373645782</t>
   </si>
   <si>
     <t xml:space="preserve">1.3563460111618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28751289844513</t>
+    <t xml:space="preserve">1.28751277923584</t>
   </si>
   <si>
     <t xml:space="preserve">1.29787933826447</t>
@@ -3821,13 +3821,13 @@
     <t xml:space="preserve">1.31446552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33768653869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33893036842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35924875736237</t>
+    <t xml:space="preserve">1.337686419487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33893048763275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35924863815308</t>
   </si>
   <si>
     <t xml:space="preserve">1.34349167346954</t>
@@ -3836,7 +3836,7 @@
     <t xml:space="preserve">1.34473562240601</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34846758842468</t>
+    <t xml:space="preserve">1.34846770763397</t>
   </si>
   <si>
     <t xml:space="preserve">1.36546850204468</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">1.36505377292633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34639430046082</t>
+    <t xml:space="preserve">1.34639418125153</t>
   </si>
   <si>
     <t xml:space="preserve">1.35510194301605</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">1.4960857629776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49028062820435</t>
+    <t xml:space="preserve">1.49028050899506</t>
   </si>
   <si>
     <t xml:space="preserve">1.53423428535461</t>
@@ -3884,34 +3884,34 @@
     <t xml:space="preserve">1.45130264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48240208625793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48779261112213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51889204978943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49898827075958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52262377738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50479352474213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52801430225372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53755152225494</t>
+    <t xml:space="preserve">1.48240196704865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48779249191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51889193058014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49898838996887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52262389659882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50479364395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52801442146301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53755140304565</t>
   </si>
   <si>
     <t xml:space="preserve">1.53050231933594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54833269119263</t>
+    <t xml:space="preserve">1.54833257198334</t>
   </si>
   <si>
     <t xml:space="preserve">1.5076961517334</t>
@@ -3920,28 +3920,28 @@
     <t xml:space="preserve">1.49650037288666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51101350784302</t>
+    <t xml:space="preserve">1.51101338863373</t>
   </si>
   <si>
     <t xml:space="preserve">1.50230550765991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50106155872345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48323118686676</t>
+    <t xml:space="preserve">1.50106143951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48323130607605</t>
   </si>
   <si>
     <t xml:space="preserve">1.40403163433075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4222766160965</t>
+    <t xml:space="preserve">1.42227673530579</t>
   </si>
   <si>
     <t xml:space="preserve">1.46374237537384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48406064510345</t>
+    <t xml:space="preserve">1.48406052589417</t>
   </si>
   <si>
     <t xml:space="preserve">1.52096521854401</t>
@@ -3953,46 +3953,46 @@
     <t xml:space="preserve">1.57155346870422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61177539825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60306751728058</t>
+    <t xml:space="preserve">1.6117752790451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60306739807129</t>
   </si>
   <si>
     <t xml:space="preserve">1.64163076877594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62794709205627</t>
+    <t xml:space="preserve">1.62794697284698</t>
   </si>
   <si>
     <t xml:space="preserve">1.68516981601715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6669248342514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68599915504456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71253728866577</t>
+    <t xml:space="preserve">1.66692471504211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68599903583527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71253716945648</t>
   </si>
   <si>
     <t xml:space="preserve">1.714195728302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70756137371063</t>
+    <t xml:space="preserve">1.70756125450134</t>
   </si>
   <si>
     <t xml:space="preserve">1.70839047431946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71087849140167</t>
+    <t xml:space="preserve">1.71087837219238</t>
   </si>
   <si>
     <t xml:space="preserve">1.72331833839417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69843876361847</t>
+    <t xml:space="preserve">1.69843900203705</t>
   </si>
   <si>
     <t xml:space="preserve">1.69760942459106</t>
@@ -4001,7 +4001,7 @@
     <t xml:space="preserve">1.70175611972809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66029024124146</t>
+    <t xml:space="preserve">1.66029036045074</t>
   </si>
   <si>
     <t xml:space="preserve">1.67936456203461</t>
@@ -4010,43 +4010,43 @@
     <t xml:space="preserve">1.57113885879517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.562016248703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59021317958832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58772504329681</t>
+    <t xml:space="preserve">1.56201636791229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59021306037903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5877251625061</t>
   </si>
   <si>
     <t xml:space="preserve">1.5690655708313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59601819515228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59145712852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58357858657837</t>
+    <t xml:space="preserve">1.59601831436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59145700931549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58357846736908</t>
   </si>
   <si>
     <t xml:space="preserve">1.59518897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58482265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59726226329803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57652950286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53174638748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.489865899086</t>
+    <t xml:space="preserve">1.58482253551483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59726238250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57652938365936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5317462682724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48986577987671</t>
   </si>
   <si>
     <t xml:space="preserve">1.49567115306854</t>
@@ -4055,19 +4055,19 @@
     <t xml:space="preserve">1.48862183094025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47079169750214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40734899044037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39615333080292</t>
+    <t xml:space="preserve">1.47079157829285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40734887123108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39615321159363</t>
   </si>
   <si>
     <t xml:space="preserve">1.39490926265717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43513095378876</t>
+    <t xml:space="preserve">1.43513107299805</t>
   </si>
   <si>
     <t xml:space="preserve">1.42144727706909</t>
@@ -4076,16 +4076,16 @@
     <t xml:space="preserve">1.40817821025848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45254671573639</t>
+    <t xml:space="preserve">1.4525465965271</t>
   </si>
   <si>
     <t xml:space="preserve">1.4649863243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43969213962555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44715619087219</t>
+    <t xml:space="preserve">1.43969225883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44715595245361</t>
   </si>
   <si>
     <t xml:space="preserve">1.43637502193451</t>
@@ -4094,22 +4094,22 @@
     <t xml:space="preserve">1.54086875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47535300254822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47286486625671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43678951263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47410893440247</t>
+    <t xml:space="preserve">1.47535288333893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.472864985466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43678963184357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47410881519318</t>
   </si>
   <si>
     <t xml:space="preserve">1.46125435829163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48530459403992</t>
+    <t xml:space="preserve">1.48530471324921</t>
   </si>
   <si>
     <t xml:space="preserve">1.50354957580566</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">1.56326031684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59311580657959</t>
+    <t xml:space="preserve">1.5931156873703</t>
   </si>
   <si>
     <t xml:space="preserve">1.58896911144257</t>
@@ -4139,16 +4139,16 @@
     <t xml:space="preserve">1.62711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62131249904633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6055554151535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59062778949738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56077229976654</t>
+    <t xml:space="preserve">1.62131237983704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60555553436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59062767028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56077241897583</t>
   </si>
   <si>
     <t xml:space="preserve">1.48820722103119</t>
@@ -4163,7 +4163,7 @@
     <t xml:space="preserve">1.5868958234787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5263557434082</t>
+    <t xml:space="preserve">1.52635586261749</t>
   </si>
   <si>
     <t xml:space="preserve">1.537966132164</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">1.60804343223572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63955748081207</t>
+    <t xml:space="preserve">1.63955736160278</t>
   </si>
   <si>
     <t xml:space="preserve">1.62297105789185</t>
@@ -4193,70 +4193,70 @@
     <t xml:space="preserve">1.79049277305603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76893043518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67438876628876</t>
+    <t xml:space="preserve">1.76893055438995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67438864707947</t>
   </si>
   <si>
     <t xml:space="preserve">1.62545895576477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50189101696014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52925837039948</t>
+    <t xml:space="preserve">1.50189089775085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52925825119019</t>
   </si>
   <si>
     <t xml:space="preserve">1.37790822982788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37251770496368</t>
+    <t xml:space="preserve">1.37251758575439</t>
   </si>
   <si>
     <t xml:space="preserve">1.30078184604645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16311538219452</t>
+    <t xml:space="preserve">1.16311550140381</t>
   </si>
   <si>
     <t xml:space="preserve">1.10299015045166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1622861623764</t>
+    <t xml:space="preserve">1.16228604316711</t>
   </si>
   <si>
     <t xml:space="preserve">1.27839028835297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18260431289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17596983909607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22407007217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24894964694977</t>
+    <t xml:space="preserve">1.18260443210602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17596971988678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22406995296478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24894976615906</t>
   </si>
   <si>
     <t xml:space="preserve">1.34058904647827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31031894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30202579498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31902682781219</t>
+    <t xml:space="preserve">1.31031906604767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30202603340149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31902670860291</t>
   </si>
   <si>
     <t xml:space="preserve">1.29912316799164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28626883029938</t>
+    <t xml:space="preserve">1.28626894950867</t>
   </si>
   <si>
     <t xml:space="preserve">1.29497671127319</t>
@@ -4271,28 +4271,28 @@
     <t xml:space="preserve">1.36132192611694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31819748878479</t>
+    <t xml:space="preserve">1.3181973695755</t>
   </si>
   <si>
     <t xml:space="preserve">1.33271050453186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27548766136169</t>
+    <t xml:space="preserve">1.27548778057098</t>
   </si>
   <si>
     <t xml:space="preserve">1.27756094932556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32814931869507</t>
+    <t xml:space="preserve">1.32814919948578</t>
   </si>
   <si>
     <t xml:space="preserve">1.3260760307312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28378081321716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28668355941772</t>
+    <t xml:space="preserve">1.28378093242645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28668344020844</t>
   </si>
   <si>
     <t xml:space="preserve">1.29995250701904</t>
@@ -4325,7 +4325,7 @@
     <t xml:space="preserve">1.33105194568634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32234406471252</t>
+    <t xml:space="preserve">1.32234394550323</t>
   </si>
   <si>
     <t xml:space="preserve">1.29000079631805</t>
@@ -4334,34 +4334,34 @@
     <t xml:space="preserve">1.2700971364975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27175581455231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26180398464203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40983700752258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44425356388092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44466817378998</t>
+    <t xml:space="preserve">1.27175569534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26180386543274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40983688831329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44425344467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44466805458069</t>
   </si>
   <si>
     <t xml:space="preserve">1.43139910697937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4641569852829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45710802078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46623027324677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44840002059937</t>
+    <t xml:space="preserve">1.46415710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45710790157318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46623039245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44840013980865</t>
   </si>
   <si>
     <t xml:space="preserve">1.54587602615356</t>
@@ -4373,7 +4373,7 @@
     <t xml:space="preserve">1.60599362850189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62574648857117</t>
+    <t xml:space="preserve">1.62574636936188</t>
   </si>
   <si>
     <t xml:space="preserve">1.61887586116791</t>
@@ -4388,28 +4388,28 @@
     <t xml:space="preserve">1.64206397533417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65623450279236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59998190402985</t>
+    <t xml:space="preserve">1.65623462200165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59998178482056</t>
   </si>
   <si>
     <t xml:space="preserve">1.65838158130646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61801695823669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66525220870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67555797100067</t>
+    <t xml:space="preserve">1.61801707744598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66525208950043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67555809020996</t>
   </si>
   <si>
     <t xml:space="preserve">1.45913541316986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147077083588</t>
+    <t xml:space="preserve">1.41147089004517</t>
   </si>
   <si>
     <t xml:space="preserve">1.42134726047516</t>
@@ -4421,16 +4421,16 @@
     <t xml:space="preserve">1.4144766330719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44110000133514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46686470508575</t>
+    <t xml:space="preserve">1.44110012054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46686482429504</t>
   </si>
   <si>
     <t xml:space="preserve">1.47373533248901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47158825397491</t>
+    <t xml:space="preserve">1.4715883731842</t>
   </si>
   <si>
     <t xml:space="preserve">1.40073561668396</t>
@@ -4439,7 +4439,7 @@
     <t xml:space="preserve">1.44625306129456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42435312271118</t>
+    <t xml:space="preserve">1.42435300350189</t>
   </si>
   <si>
     <t xml:space="preserve">1.42220604419708</t>
@@ -4448,34 +4448,34 @@
     <t xml:space="preserve">1.40116500854492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34620046615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30454778671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30368888378143</t>
+    <t xml:space="preserve">1.3462005853653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30454790592194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30368900299072</t>
   </si>
   <si>
     <t xml:space="preserve">1.23755967617035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21823620796204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28135967254639</t>
+    <t xml:space="preserve">1.21823632717133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2813595533371</t>
   </si>
   <si>
     <t xml:space="preserve">1.29681837558746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23798906803131</t>
+    <t xml:space="preserve">1.2379891872406</t>
   </si>
   <si>
     <t xml:space="preserve">1.20750105381012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.176154255867</t>
+    <t xml:space="preserve">1.17615413665771</t>
   </si>
   <si>
     <t xml:space="preserve">1.10358381271362</t>
@@ -4496,16 +4496,16 @@
     <t xml:space="preserve">1.13063657283783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11260151863098</t>
+    <t xml:space="preserve">1.11260163784027</t>
   </si>
   <si>
     <t xml:space="preserve">1.14137196540833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10959565639496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13106608390808</t>
+    <t xml:space="preserve">1.10959553718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13106620311737</t>
   </si>
   <si>
     <t xml:space="preserve">1.13364255428314</t>
@@ -4517,7 +4517,7 @@
     <t xml:space="preserve">1.17186009883881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19118332862854</t>
+    <t xml:space="preserve">1.19118344783783</t>
   </si>
   <si>
     <t xml:space="preserve">1.23884797096252</t>
@@ -4538,10 +4538,10 @@
     <t xml:space="preserve">1.42564129829407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40631794929504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41318845748901</t>
+    <t xml:space="preserve">1.40631806850433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41318833827972</t>
   </si>
   <si>
     <t xml:space="preserve">1.40717673301697</t>
@@ -4556,7 +4556,7 @@
     <t xml:space="preserve">1.33417701721191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33374750614166</t>
+    <t xml:space="preserve">1.33374762535095</t>
   </si>
   <si>
     <t xml:space="preserve">1.31356537342072</t>
@@ -4580,13 +4580,13 @@
     <t xml:space="preserve">1.30540657043457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26633012294769</t>
+    <t xml:space="preserve">1.26633024215698</t>
   </si>
   <si>
     <t xml:space="preserve">1.26890671253204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25087153911591</t>
+    <t xml:space="preserve">1.25087141990662</t>
   </si>
   <si>
     <t xml:space="preserve">1.28951835632324</t>
@@ -4601,7 +4601,7 @@
     <t xml:space="preserve">1.38141214847565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43337070941925</t>
+    <t xml:space="preserve">1.43337082862854</t>
   </si>
   <si>
     <t xml:space="preserve">1.43895304203033</t>
@@ -4610,7 +4610,7 @@
     <t xml:space="preserve">1.44797074794769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45527052879333</t>
+    <t xml:space="preserve">1.45527064800262</t>
   </si>
   <si>
     <t xml:space="preserve">1.43036496639252</t>
@@ -4631,7 +4631,7 @@
     <t xml:space="preserve">1.39772975444794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3754004240036</t>
+    <t xml:space="preserve">1.37540054321289</t>
   </si>
   <si>
     <t xml:space="preserve">1.33632409572601</t>
@@ -4655,25 +4655,25 @@
     <t xml:space="preserve">1.39042973518372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37368273735046</t>
+    <t xml:space="preserve">1.37368261814117</t>
   </si>
   <si>
     <t xml:space="preserve">1.36294758319855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39687097072601</t>
+    <t xml:space="preserve">1.39687085151672</t>
   </si>
   <si>
     <t xml:space="preserve">1.42048847675323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45097649097443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46042358875275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47115898132324</t>
+    <t xml:space="preserve">1.45097661018372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46042370796204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47115886211395</t>
   </si>
   <si>
     <t xml:space="preserve">1.47588241100311</t>
@@ -4682,10 +4682,10 @@
     <t xml:space="preserve">1.49563527107239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53814673423767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52869987487793</t>
+    <t xml:space="preserve">1.53814685344696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52869975566864</t>
   </si>
   <si>
     <t xml:space="preserve">1.53084695339203</t>
@@ -4703,22 +4703,22 @@
     <t xml:space="preserve">1.62746405601501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65408754348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65537583827972</t>
+    <t xml:space="preserve">1.65408742427826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65537571907043</t>
   </si>
   <si>
     <t xml:space="preserve">1.72880494594574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76058113574982</t>
+    <t xml:space="preserve">1.76058125495911</t>
   </si>
   <si>
     <t xml:space="preserve">1.62531709671021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58022904396057</t>
+    <t xml:space="preserve">1.58022892475128</t>
   </si>
   <si>
     <t xml:space="preserve">1.61329352855682</t>
@@ -4742,25 +4742,25 @@
     <t xml:space="preserve">1.6480758190155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66654050350189</t>
+    <t xml:space="preserve">1.6665403842926</t>
   </si>
   <si>
     <t xml:space="preserve">1.68028163909912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.691446185112</t>
+    <t xml:space="preserve">1.69144606590271</t>
   </si>
   <si>
     <t xml:space="preserve">1.67598748207092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68328738212585</t>
+    <t xml:space="preserve">1.68328750133514</t>
   </si>
   <si>
     <t xml:space="preserve">1.6935932636261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67384040355682</t>
+    <t xml:space="preserve">1.67384028434753</t>
   </si>
   <si>
     <t xml:space="preserve">1.66568160057068</t>
@@ -4769,7 +4769,7 @@
     <t xml:space="preserve">1.65666401386261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66396403312683</t>
+    <t xml:space="preserve">1.66396391391754</t>
   </si>
   <si>
     <t xml:space="preserve">1.6686874628067</t>
@@ -4781,7 +4781,7 @@
     <t xml:space="preserve">1.67641687393188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68672263622284</t>
+    <t xml:space="preserve">1.68672275543213</t>
   </si>
   <si>
     <t xml:space="preserve">1.67426979541779</t>
@@ -4790,7 +4790,7 @@
     <t xml:space="preserve">1.61586999893188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61458170413971</t>
+    <t xml:space="preserve">1.614581823349</t>
   </si>
   <si>
     <t xml:space="preserve">1.60212886333466</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">1.68285799026489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70475792884827</t>
+    <t xml:space="preserve">1.70475780963898</t>
   </si>
   <si>
     <t xml:space="preserve">1.74941647052765</t>
@@ -4826,7 +4826,7 @@
     <t xml:space="preserve">1.79751038551331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81211030483246</t>
+    <t xml:space="preserve">1.81211042404175</t>
   </si>
   <si>
     <t xml:space="preserve">1.81125164031982</t>
@@ -4841,28 +4841,28 @@
     <t xml:space="preserve">1.90142774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87222790718079</t>
+    <t xml:space="preserve">1.87222802639008</t>
   </si>
   <si>
     <t xml:space="preserve">1.93406307697296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93234515190125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96927440166473</t>
+    <t xml:space="preserve">1.93234539031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96927464008331</t>
   </si>
   <si>
     <t xml:space="preserve">1.98129796981812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0096390247345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0139331817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0560154914856</t>
+    <t xml:space="preserve">2.00963878631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01393294334412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05601525306702</t>
   </si>
   <si>
     <t xml:space="preserve">2.08779168128967</t>
@@ -5928,6 +5928,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.2519998550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26800012588501</t>
   </si>
 </sst>
 </file>
@@ -62819,7 +62822,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6508333333</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>9735690</v>
@@ -62840,6 +62843,32 @@
         <v>1971</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6495601852</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>7855876</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>5.28399991989136</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>5.19999980926514</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>5.24200010299683</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>5.26800012588501</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="1975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1976">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33120536804199</t>
+    <t xml:space="preserve">3.33120512962341</t>
   </si>
   <si>
     <t xml:space="preserve">BPE.MI</t>
@@ -50,10 +50,10 @@
     <t xml:space="preserve">3.22311305999756</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14941310882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07817077636719</t>
+    <t xml:space="preserve">3.14941334724426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07817053794861</t>
   </si>
   <si>
     <t xml:space="preserve">3.08062767982483</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">3.05606055259705</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20345950126648</t>
+    <t xml:space="preserve">3.20345878601074</t>
   </si>
   <si>
     <t xml:space="preserve">3.03886485099792</t>
@@ -74,19 +74,19 @@
     <t xml:space="preserve">2.76126408576965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55981969833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84233379364014</t>
+    <t xml:space="preserve">2.55981993675232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84233355522156</t>
   </si>
   <si>
     <t xml:space="preserve">2.81039667129517</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73669767379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89637970924377</t>
+    <t xml:space="preserve">2.73669791221619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89637923240662</t>
   </si>
   <si>
     <t xml:space="preserve">2.77846074104309</t>
@@ -95,25 +95,25 @@
     <t xml:space="preserve">2.56964659690857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70230507850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63597559928894</t>
+    <t xml:space="preserve">2.70230484008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63597536087036</t>
   </si>
   <si>
     <t xml:space="preserve">2.45664095878601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25323033332825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2620747089386</t>
+    <t xml:space="preserve">2.25323057174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26207447052002</t>
   </si>
   <si>
     <t xml:space="preserve">2.21490716934204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95057260990143</t>
+    <t xml:space="preserve">1.95057272911072</t>
   </si>
   <si>
     <t xml:space="preserve">1.90831863880157</t>
@@ -122,76 +122,76 @@
     <t xml:space="preserve">2.03999423980713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84444582462311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05669951438904</t>
+    <t xml:space="preserve">1.8444459438324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0566999912262</t>
   </si>
   <si>
     <t xml:space="preserve">2.26502251625061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37508010864258</t>
+    <t xml:space="preserve">2.37507963180542</t>
   </si>
   <si>
     <t xml:space="preserve">2.43207454681396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41733455657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27288413047791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50331735610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40849041938782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2551965713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31120729446411</t>
+    <t xml:space="preserve">2.41733431816101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27288389205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50331711769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4084906578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25519609451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31120753288269</t>
   </si>
   <si>
     <t xml:space="preserve">2.35444450378418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31415557861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34854793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46401047706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4212646484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43109202384949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30531167984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27190160751343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29745078086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31808614730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51068687438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5450804233551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4615535736084</t>
+    <t xml:space="preserve">2.31415581703186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34854817390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46401071548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42126512527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43109154701233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30531191825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27190136909485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29745054244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31808638572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51068711280823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54507994651794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46155333518982</t>
   </si>
   <si>
     <t xml:space="preserve">2.2945020198822</t>
@@ -200,37 +200,37 @@
     <t xml:space="preserve">2.3200511932373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3406867980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33479142189026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30039834976196</t>
+    <t xml:space="preserve">2.34068703651428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33479166030884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30039811134338</t>
   </si>
   <si>
     <t xml:space="preserve">2.23750829696655</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14513874053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12352013587952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05571675300598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09305787086487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97415626049042</t>
+    <t xml:space="preserve">2.14513850212097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12351965904236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0557165145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09305810928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97415602207184</t>
   </si>
   <si>
     <t xml:space="preserve">1.96334707736969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84739351272583</t>
+    <t xml:space="preserve">1.84739315509796</t>
   </si>
   <si>
     <t xml:space="preserve">2.11172819137573</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">2.21392488479614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12548565864563</t>
+    <t xml:space="preserve">2.12548542022705</t>
   </si>
   <si>
     <t xml:space="preserve">2.36918449401855</t>
@@ -248,13 +248,13 @@
     <t xml:space="preserve">2.47629404067993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48366332054138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40062952041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47138071060181</t>
+    <t xml:space="preserve">2.48366379737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4006290435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47138047218323</t>
   </si>
   <si>
     <t xml:space="preserve">2.54999256134033</t>
@@ -266,43 +266,43 @@
     <t xml:space="preserve">2.47383737564087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55490636825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51560068130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61386585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50822973251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41635203361511</t>
+    <t xml:space="preserve">2.55490612983704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51560020446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6138653755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50822997093201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41635179519653</t>
   </si>
   <si>
     <t xml:space="preserve">2.31022500991821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28467583656311</t>
+    <t xml:space="preserve">2.28467607498169</t>
   </si>
   <si>
     <t xml:space="preserve">2.22080326080322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16282653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1569299697876</t>
+    <t xml:space="preserve">2.16282606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15693044662476</t>
   </si>
   <si>
     <t xml:space="preserve">2.15103483200073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11762428283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11467576026917</t>
+    <t xml:space="preserve">2.11762475967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11467599868774</t>
   </si>
   <si>
     <t xml:space="preserve">2.14710426330566</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">2.26600527763367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15987849235535</t>
+    <t xml:space="preserve">2.15987873077393</t>
   </si>
   <si>
     <t xml:space="preserve">2.1873927116394</t>
@@ -320,31 +320,31 @@
     <t xml:space="preserve">2.14416766166687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3130464553833</t>
+    <t xml:space="preserve">2.31304669380188</t>
   </si>
   <si>
     <t xml:space="preserve">2.42864894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38140273094177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38743448257446</t>
+    <t xml:space="preserve">2.38140249252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38743424415588</t>
   </si>
   <si>
     <t xml:space="preserve">2.41055536270142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2859058380127</t>
+    <t xml:space="preserve">2.28590559959412</t>
   </si>
   <si>
     <t xml:space="preserve">2.25675415992737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16628241539001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15622997283936</t>
+    <t xml:space="preserve">2.16628289222717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15623044967651</t>
   </si>
   <si>
     <t xml:space="preserve">2.18437647819519</t>
@@ -353,16 +353,16 @@
     <t xml:space="preserve">2.22559142112732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07983255386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95317232608795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89788436889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89185345172882</t>
+    <t xml:space="preserve">2.07983231544495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95317184925079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89788448810577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89185333251953</t>
   </si>
   <si>
     <t xml:space="preserve">1.84259653091431</t>
@@ -371,34 +371,34 @@
     <t xml:space="preserve">2.02554965019226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11702609062195</t>
+    <t xml:space="preserve">2.11702585220337</t>
   </si>
   <si>
     <t xml:space="preserve">2.17130851745605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1622622013092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32812571525574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75514149665833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73704695701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69583201408386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60335040092468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64758121967316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56816697120667</t>
+    <t xml:space="preserve">2.16226196289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32812547683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75514113903046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73704731464386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69583177566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60335052013397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64758133888245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56816685199738</t>
   </si>
   <si>
     <t xml:space="preserve">1.46261763572693</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">1.46362316608429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35907816886902</t>
+    <t xml:space="preserve">1.3590784072876</t>
   </si>
   <si>
     <t xml:space="preserve">1.29775857925415</t>
@@ -422,145 +422,145 @@
     <t xml:space="preserve">1.70688998699188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62144482135773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69080626964569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71091067790985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72096347808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70487904548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72297334671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77826154232025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76519346237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71794748306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72598898410797</t>
+    <t xml:space="preserve">1.62144505977631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69080638885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71091055870056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096359729767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70487916469574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72297322750092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77826130390167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76519322395325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71794724464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72598886489868</t>
   </si>
   <si>
     <t xml:space="preserve">1.80540299415588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74910986423492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84460747241974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74006283283234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52494215965271</t>
+    <t xml:space="preserve">1.74910962581635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84460735321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74006247520447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52494204044342</t>
   </si>
   <si>
     <t xml:space="preserve">1.586261510849</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59430336952209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80238747596741</t>
+    <t xml:space="preserve">1.59430313110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80238771438599</t>
   </si>
   <si>
     <t xml:space="preserve">1.76921427249908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80439758300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79334044456482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79233479499817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76720404624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75413608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68879568576813</t>
+    <t xml:space="preserve">1.80439782142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79334008693695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79233527183533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76720428466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75413620471954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68879544734955</t>
   </si>
   <si>
     <t xml:space="preserve">1.71895265579224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61943411827087</t>
+    <t xml:space="preserve">1.61943435668945</t>
   </si>
   <si>
     <t xml:space="preserve">1.63049221038818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72397875785828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76117253303528</t>
+    <t xml:space="preserve">1.72397887706757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7611722946167</t>
   </si>
   <si>
     <t xml:space="preserve">1.70990538597107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67472219467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72196817398071</t>
+    <t xml:space="preserve">1.67472195625305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72196829319</t>
   </si>
   <si>
     <t xml:space="preserve">1.7340315580368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76619875431061</t>
+    <t xml:space="preserve">1.7661988735199</t>
   </si>
   <si>
     <t xml:space="preserve">1.79032409191132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7581570148468</t>
+    <t xml:space="preserve">1.75815677642822</t>
   </si>
   <si>
     <t xml:space="preserve">1.81746554374695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82048141956329</t>
+    <t xml:space="preserve">1.82048106193542</t>
   </si>
   <si>
     <t xml:space="preserve">1.78429293632507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75011503696442</t>
+    <t xml:space="preserve">1.75011491775513</t>
   </si>
   <si>
     <t xml:space="preserve">1.70387446880341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64657592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67170667648315</t>
+    <t xml:space="preserve">1.64657580852509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67170655727386</t>
   </si>
   <si>
     <t xml:space="preserve">1.60033512115479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67572736740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67974841594696</t>
+    <t xml:space="preserve">1.67572748661041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67974829673767</t>
   </si>
   <si>
     <t xml:space="preserve">1.60435593128204</t>
@@ -569,16 +569,16 @@
     <t xml:space="preserve">1.57922506332397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61440849304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61742401123047</t>
+    <t xml:space="preserve">1.6144083738327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61742424964905</t>
   </si>
   <si>
     <t xml:space="preserve">1.66467010974884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62647128105164</t>
+    <t xml:space="preserve">1.62647116184235</t>
   </si>
   <si>
     <t xml:space="preserve">1.70286893844604</t>
@@ -590,22 +590,22 @@
     <t xml:space="preserve">1.68376910686493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74408352375031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84963357448578</t>
+    <t xml:space="preserve">1.74408340454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84963369369507</t>
   </si>
   <si>
     <t xml:space="preserve">1.89084815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80841851234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9029107093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94312012195587</t>
+    <t xml:space="preserve">1.80841839313507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90291082859039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94312024116516</t>
   </si>
   <si>
     <t xml:space="preserve">2.04263877868652</t>
@@ -614,106 +614,106 @@
     <t xml:space="preserve">2.14014649391174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13512015342712</t>
+    <t xml:space="preserve">2.1351203918457</t>
   </si>
   <si>
     <t xml:space="preserve">2.18940281867981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09792709350586</t>
+    <t xml:space="preserve">2.09792685508728</t>
   </si>
   <si>
     <t xml:space="preserve">2.13210511207581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18236660957336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17633509635925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14818835258484</t>
+    <t xml:space="preserve">2.18236637115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17633485794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14818859100342</t>
   </si>
   <si>
     <t xml:space="preserve">2.1300938129425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01047110557556</t>
+    <t xml:space="preserve">2.01047086715698</t>
   </si>
   <si>
     <t xml:space="preserve">1.98534035682678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9632248878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03158068656921</t>
+    <t xml:space="preserve">1.96322476863861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03158092498779</t>
   </si>
   <si>
     <t xml:space="preserve">2.06977963447571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09993720054626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10094237327576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07882690429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06877446174622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.008460521698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92301511764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88381159305573</t>
+    <t xml:space="preserve">2.09993672370911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10094261169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07882714271545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06877422332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00846028327942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92301499843597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88381171226501</t>
   </si>
   <si>
     <t xml:space="preserve">1.87576901912689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91396856307983</t>
+    <t xml:space="preserve">1.91396880149841</t>
   </si>
   <si>
     <t xml:space="preserve">1.90391623973846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90994727611542</t>
+    <t xml:space="preserve">1.90994703769684</t>
   </si>
   <si>
     <t xml:space="preserve">1.88079535961151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90492129325867</t>
+    <t xml:space="preserve">1.90492153167725</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771732330322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01650261878967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15321469306946</t>
+    <t xml:space="preserve">2.01650285720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15321445465088</t>
   </si>
   <si>
     <t xml:space="preserve">2.37738180160522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41155982017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37436676025391</t>
+    <t xml:space="preserve">2.41155958175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37436604499817</t>
   </si>
   <si>
     <t xml:space="preserve">2.41859674453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46986365318298</t>
+    <t xml:space="preserve">2.46986389160156</t>
   </si>
   <si>
     <t xml:space="preserve">2.42965412139893</t>
@@ -722,13 +722,13 @@
     <t xml:space="preserve">2.49499464035034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51560211181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49801015853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51308941841125</t>
+    <t xml:space="preserve">2.51560235023499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4980103969574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51308917999268</t>
   </si>
   <si>
     <t xml:space="preserve">2.56837701797485</t>
@@ -737,19 +737,19 @@
     <t xml:space="preserve">2.59350776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60104703903198</t>
+    <t xml:space="preserve">2.60104656219482</t>
   </si>
   <si>
     <t xml:space="preserve">2.5432460308075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64879584312439</t>
+    <t xml:space="preserve">2.64879560470581</t>
   </si>
   <si>
     <t xml:space="preserve">2.74931883811951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70408391952515</t>
+    <t xml:space="preserve">2.70408368110657</t>
   </si>
   <si>
     <t xml:space="preserve">2.66387391090393</t>
@@ -758,22 +758,22 @@
     <t xml:space="preserve">2.53068089485168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51811480522156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66890025138855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64376974105835</t>
+    <t xml:space="preserve">2.51811504364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66889977455139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64376950263977</t>
   </si>
   <si>
     <t xml:space="preserve">2.68649220466614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69654488563538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84230351448059</t>
+    <t xml:space="preserve">2.6965446472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84230375289917</t>
   </si>
   <si>
     <t xml:space="preserve">2.88753938674927</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">2.81968593597412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82722496986389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240863800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81717300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68397903442383</t>
+    <t xml:space="preserve">2.82722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240839958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81717276573181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68397927284241</t>
   </si>
   <si>
     <t xml:space="preserve">2.63371706008911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69403123855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70659613609314</t>
+    <t xml:space="preserve">2.69403100013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70659637451172</t>
   </si>
   <si>
     <t xml:space="preserve">2.77193689346313</t>
@@ -812,19 +812,19 @@
     <t xml:space="preserve">2.5231409072876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55329847335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39045023918152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39849162101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48092126846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41759157180786</t>
+    <t xml:space="preserve">2.55329823493958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39045000076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39849185943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48092150688171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41759181022644</t>
   </si>
   <si>
     <t xml:space="preserve">2.33415675163269</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">2.26177954673767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23765420913696</t>
+    <t xml:space="preserve">2.23765397071838</t>
   </si>
   <si>
     <t xml:space="preserve">2.23463869094849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14919376373291</t>
+    <t xml:space="preserve">2.14919400215149</t>
   </si>
   <si>
     <t xml:space="preserve">2.110995054245</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">2.0808379650116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25172805786133</t>
+    <t xml:space="preserve">2.25172734260559</t>
   </si>
   <si>
     <t xml:space="preserve">2.26077508926392</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">2.29796838760376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20146560668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20649147033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27987408638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35426163673401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31505751609802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25574851036072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25976967811584</t>
+    <t xml:space="preserve">2.20146536827087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20649218559265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27987384796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35426187515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3150577545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2557487487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25976991653442</t>
   </si>
   <si>
     <t xml:space="preserve">2.37235617637634</t>
@@ -893,73 +893,73 @@
     <t xml:space="preserve">2.42362332344055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49197912216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46383261680603</t>
+    <t xml:space="preserve">2.49197936058044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46383213996887</t>
   </si>
   <si>
     <t xml:space="preserve">2.41960167884827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43468022346497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38944482803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35727739334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35225105285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26982164382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28691029548645</t>
+    <t xml:space="preserve">2.43468046188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38944530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35727715492249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35225129127502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26982140541077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28691053390503</t>
   </si>
   <si>
     <t xml:space="preserve">2.2849006652832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30198931694031</t>
+    <t xml:space="preserve">2.30198955535889</t>
   </si>
   <si>
     <t xml:space="preserve">2.26479601860046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21051239967346</t>
+    <t xml:space="preserve">2.21051287651062</t>
   </si>
   <si>
     <t xml:space="preserve">2.19241905212402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30399942398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4628267288208</t>
+    <t xml:space="preserve">2.30399966239929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46282696723938</t>
   </si>
   <si>
     <t xml:space="preserve">2.49901580810547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44473314285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52062821388245</t>
+    <t xml:space="preserve">2.44473338127136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5206286907196</t>
   </si>
   <si>
     <t xml:space="preserve">2.58596873283386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62366509437561</t>
+    <t xml:space="preserve">2.62366533279419</t>
   </si>
   <si>
     <t xml:space="preserve">2.55832433700562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53822040557861</t>
+    <t xml:space="preserve">2.53822016716003</t>
   </si>
   <si>
     <t xml:space="preserve">2.39447093009949</t>
@@ -968,16 +968,16 @@
     <t xml:space="preserve">2.35627222061157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44272232055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40251231193542</t>
+    <t xml:space="preserve">2.44272255897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.402512550354</t>
   </si>
   <si>
     <t xml:space="preserve">2.34722471237183</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32008361816406</t>
+    <t xml:space="preserve">2.32008385658264</t>
   </si>
   <si>
     <t xml:space="preserve">2.35526704788208</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">2.27686023712158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2198371887207</t>
+    <t xml:space="preserve">2.21983695030212</t>
   </si>
   <si>
     <t xml:space="preserve">2.266676902771</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">2.16383171081543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16790461540222</t>
+    <t xml:space="preserve">2.1679048538208</t>
   </si>
   <si>
     <t xml:space="preserve">2.24834799766541</t>
@@ -1028,37 +1028,37 @@
     <t xml:space="preserve">2.24122023582458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19437956809998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24936652183533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22696423530579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12615489959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13939237594604</t>
+    <t xml:space="preserve">2.19437980651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24936628341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22696447372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12615513801575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13939213752747</t>
   </si>
   <si>
     <t xml:space="preserve">2.08440613746643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17808699607849</t>
+    <t xml:space="preserve">2.17808675765991</t>
   </si>
   <si>
     <t xml:space="preserve">2.16892290115356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22594571113586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23918318748474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25954937934875</t>
+    <t xml:space="preserve">2.22594594955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23918342590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25954961776733</t>
   </si>
   <si>
     <t xml:space="preserve">2.24732971191406</t>
@@ -1073,16 +1073,16 @@
     <t xml:space="preserve">2.44691133499146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38785171508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39396142959595</t>
+    <t xml:space="preserve">2.38785123825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39396190643311</t>
   </si>
   <si>
     <t xml:space="preserve">2.38683342933655</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41941833496094</t>
+    <t xml:space="preserve">2.41941857337952</t>
   </si>
   <si>
     <t xml:space="preserve">2.46320414543152</t>
@@ -1100,58 +1100,58 @@
     <t xml:space="preserve">2.53550148010254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45302104949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46931314468384</t>
+    <t xml:space="preserve">2.45302128791809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46931338310242</t>
   </si>
   <si>
     <t xml:space="preserve">2.40312600135803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37665104866028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3481388092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3827600479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39497971534729</t>
+    <t xml:space="preserve">2.3766508102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34813904762268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38276028633118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39497947692871</t>
   </si>
   <si>
     <t xml:space="preserve">2.3685040473938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36443114280701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41025400161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55586647987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52124524116516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50291705131531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4143271446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49477005004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48356914520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45607566833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42349171638489</t>
+    <t xml:space="preserve">2.36443090438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41025376319885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55586671829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52124547958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50291681289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41432690620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477028846741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48356938362122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45607590675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42349147796631</t>
   </si>
   <si>
     <t xml:space="preserve">2.3929431438446</t>
@@ -1163,25 +1163,25 @@
     <t xml:space="preserve">2.42654585838318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36341309547424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38886976242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40923523902893</t>
+    <t xml:space="preserve">2.3634135723114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38887000083923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40923547744751</t>
   </si>
   <si>
     <t xml:space="preserve">2.44182062149048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40516257286072</t>
+    <t xml:space="preserve">2.40516209602356</t>
   </si>
   <si>
     <t xml:space="preserve">2.36748647689819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3267548084259</t>
+    <t xml:space="preserve">2.32675504684448</t>
   </si>
   <si>
     <t xml:space="preserve">2.30639004707336</t>
@@ -1199,28 +1199,28 @@
     <t xml:space="preserve">2.33591961860657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35730314254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38581514358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43571019172668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38174152374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45200252532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52430057525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56604981422424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57623243331909</t>
+    <t xml:space="preserve">2.35730361938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38581538200378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43571043014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38174176216125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45200276374817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52430081367493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56604957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57623219490051</t>
   </si>
   <si>
     <t xml:space="preserve">2.61950922012329</t>
@@ -1229,40 +1229,40 @@
     <t xml:space="preserve">2.61187148094177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53448271751404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49171543121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35628509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28704214096069</t>
+    <t xml:space="preserve">2.53448295593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49171566963196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35628461837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28704237937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.23714733123779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26158571243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23612904548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23001885414124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15874052047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16586780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18725156784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16281294822693</t>
+    <t xml:space="preserve">2.26158547401428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23612880706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23001861572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15874028205872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16586756706238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.187251329422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16281318664551</t>
   </si>
   <si>
     <t xml:space="preserve">2.12921047210693</t>
@@ -1271,52 +1271,52 @@
     <t xml:space="preserve">2.14041113853455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13022828102112</t>
+    <t xml:space="preserve">2.13022804260254</t>
   </si>
   <si>
     <t xml:space="preserve">2.12411880493164</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20150780677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14550280570984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11088109016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07116866111755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98054230213165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17706918716431</t>
+    <t xml:space="preserve">2.20150756835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14550256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11088156700134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07116842269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98054218292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17706942558289</t>
   </si>
   <si>
     <t xml:space="preserve">2.15364861488342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17299652099609</t>
+    <t xml:space="preserve">2.17299628257751</t>
   </si>
   <si>
     <t xml:space="preserve">2.12513756752014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16994094848633</t>
+    <t xml:space="preserve">2.16994071006775</t>
   </si>
   <si>
     <t xml:space="preserve">2.09764385223389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13226461410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1027352809906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09051561355591</t>
+    <t xml:space="preserve">2.1322648525238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10273504257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09051585197449</t>
   </si>
   <si>
     <t xml:space="preserve">2.15263032913208</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">2.25242137908936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33999276161194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27075028419495</t>
+    <t xml:space="preserve">2.33999252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27075004577637</t>
   </si>
   <si>
     <t xml:space="preserve">2.3318464756012</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">2.31962752342224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29111528396606</t>
+    <t xml:space="preserve">2.29111504554749</t>
   </si>
   <si>
     <t xml:space="preserve">2.36544942855835</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">2.31046295166016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16484880447388</t>
+    <t xml:space="preserve">2.16484928131104</t>
   </si>
   <si>
     <t xml:space="preserve">2.1220817565918</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">2.18623375892639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17401361465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17605066299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13328337669373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14448428153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20354461669922</t>
+    <t xml:space="preserve">2.17401385307312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17605113983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1332836151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14448380470276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2035448551178</t>
   </si>
   <si>
     <t xml:space="preserve">2.14346575737</t>
@@ -1379,19 +1379,19 @@
     <t xml:space="preserve">2.118008852005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15975880622864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16179490089417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19947075843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29824352264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32166385650635</t>
+    <t xml:space="preserve">2.15975856781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16179466247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19947099685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2982439994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32166361808777</t>
   </si>
   <si>
     <t xml:space="preserve">2.29620695114136</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">2.44894814491272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46676826477051</t>
+    <t xml:space="preserve">2.46676802635193</t>
   </si>
   <si>
     <t xml:space="preserve">2.37206840515137</t>
@@ -1430,40 +1430,40 @@
     <t xml:space="preserve">2.3980348110199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34610295295715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31504535675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43520140647888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43978404998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42960047721863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43367338180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3853063583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47593259811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4764416217804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48102426528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4784779548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50800728797913</t>
+    <t xml:space="preserve">2.34610271453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31504511833191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4352011680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43978333473206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42960071563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.433673620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38530611991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47593283653259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47644186019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48102378845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47847771644592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50800776481628</t>
   </si>
   <si>
     <t xml:space="preserve">2.48713326454163</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">2.39192461967468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42450976371765</t>
+    <t xml:space="preserve">2.42451000213623</t>
   </si>
   <si>
     <t xml:space="preserve">2.34864807128906</t>
@@ -1484,37 +1484,37 @@
     <t xml:space="preserve">2.39243388175964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33846497535706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34304714202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37054085731506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37868714332581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36239528656006</t>
+    <t xml:space="preserve">2.33846521377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34304738044739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37054109573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37868690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3623948097229</t>
   </si>
   <si>
     <t xml:space="preserve">2.31657195091248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32319092750549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30282592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31860876083374</t>
+    <t xml:space="preserve">2.32319116592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30282616615295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31860899925232</t>
   </si>
   <si>
     <t xml:space="preserve">2.29926156997681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30129837989807</t>
+    <t xml:space="preserve">2.30129861831665</t>
   </si>
   <si>
     <t xml:space="preserve">2.39039707183838</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">2.40821671485901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43265581130981</t>
+    <t xml:space="preserve">2.43265604972839</t>
   </si>
   <si>
     <t xml:space="preserve">2.48458790779114</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">2.46167659759521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48815155029297</t>
+    <t xml:space="preserve">2.48815178871155</t>
   </si>
   <si>
     <t xml:space="preserve">2.44283819198608</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">2.41585445404053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42807364463806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40974450111389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40210747718811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49680709838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50597143173218</t>
+    <t xml:space="preserve">2.42807388305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40974473953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40210771560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49680685997009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50597095489502</t>
   </si>
   <si>
     <t xml:space="preserve">2.55484890937805</t>
@@ -1580,34 +1580,34 @@
     <t xml:space="preserve">2.54415655136108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54466581344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37563228607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39753222465515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43611788749695</t>
+    <t xml:space="preserve">2.54466605186462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3756320476532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39753270149231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43611812591553</t>
   </si>
   <si>
     <t xml:space="preserve">2.46271109580994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43246817588806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3834536075592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24423170089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1310818195343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13890314102173</t>
+    <t xml:space="preserve">2.43246841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38345384597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24423146247864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13108205795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13890337944031</t>
   </si>
   <si>
     <t xml:space="preserve">2.1394248008728</t>
@@ -1622,25 +1622,25 @@
     <t xml:space="preserve">2.16393160820007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16288948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20460343360901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14516067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23849654197693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26508975028992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30158925056458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32974624633789</t>
+    <t xml:space="preserve">2.16288924217224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20460319519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14516091346741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23849678039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26508927345276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.301589012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32974648475647</t>
   </si>
   <si>
     <t xml:space="preserve">2.2687394618988</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">2.25778913497925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33443927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39336109161377</t>
+    <t xml:space="preserve">2.3344395160675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39336085319519</t>
   </si>
   <si>
     <t xml:space="preserve">2.32296824455261</t>
@@ -1661,19 +1661,19 @@
     <t xml:space="preserve">2.49399662017822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44289684295654</t>
+    <t xml:space="preserve">2.44289708137512</t>
   </si>
   <si>
     <t xml:space="preserve">2.45645427703857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42151784896851</t>
+    <t xml:space="preserve">2.42151761054993</t>
   </si>
   <si>
     <t xml:space="preserve">2.44341826438904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45436811447144</t>
+    <t xml:space="preserve">2.45436835289001</t>
   </si>
   <si>
     <t xml:space="preserve">2.44498229026794</t>
@@ -1691,10 +1691,10 @@
     <t xml:space="preserve">2.49451804161072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44602560997009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40535402297974</t>
+    <t xml:space="preserve">2.44602537155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40535354614258</t>
   </si>
   <si>
     <t xml:space="preserve">2.422039270401</t>
@@ -1706,22 +1706,22 @@
     <t xml:space="preserve">2.41213274002075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36728930473328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41526103019714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41265320777893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44811081886292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48252511024475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45801782608032</t>
+    <t xml:space="preserve">2.36728978157043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41526079177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41265344619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44811058044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48252558708191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4580180644989</t>
   </si>
   <si>
     <t xml:space="preserve">2.49295353889465</t>
@@ -1730,22 +1730,22 @@
     <t xml:space="preserve">2.48148250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39283967018127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3865818977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38814640045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40900325775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26665377616882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2411036491394</t>
+    <t xml:space="preserve">2.3928394317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38658237457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38814687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40900373458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26665329933167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24110341072083</t>
   </si>
   <si>
     <t xml:space="preserve">2.20981740951538</t>
@@ -1754,34 +1754,34 @@
     <t xml:space="preserve">2.15506720542908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13473200798035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13212490081787</t>
+    <t xml:space="preserve">2.13473176956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13212513923645</t>
   </si>
   <si>
     <t xml:space="preserve">2.08571743965149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08623909950256</t>
+    <t xml:space="preserve">2.08623886108398</t>
   </si>
   <si>
     <t xml:space="preserve">2.13264584541321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13160371780396</t>
+    <t xml:space="preserve">2.13160347938538</t>
   </si>
   <si>
     <t xml:space="preserve">2.11491703987122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10970330238342</t>
+    <t xml:space="preserve">2.109703540802</t>
   </si>
   <si>
     <t xml:space="preserve">2.10136079788208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06746792793274</t>
+    <t xml:space="preserve">2.06746745109558</t>
   </si>
   <si>
     <t xml:space="preserve">2.08050298690796</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">2.00228905677795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98091018199921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99029636383057</t>
+    <t xml:space="preserve">1.98091065883636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99029648303986</t>
   </si>
   <si>
     <t xml:space="preserve">2.06329607963562</t>
@@ -1802,22 +1802,22 @@
     <t xml:space="preserve">2.15141773223877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15558910369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21294617652893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20199656486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20408177375793</t>
+    <t xml:space="preserve">2.15558886528015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21294593811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20199632644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20408153533936</t>
   </si>
   <si>
     <t xml:space="preserve">2.19678211212158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24736070632935</t>
+    <t xml:space="preserve">2.24736094474792</t>
   </si>
   <si>
     <t xml:space="preserve">2.28125357627869</t>
@@ -1829,46 +1829,46 @@
     <t xml:space="preserve">2.21659684181213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24214649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26978230476379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29272484779358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07945990562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99759614467621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96266055107117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93710958957672</t>
+    <t xml:space="preserve">2.24214673042297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26978254318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29272508621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07946014404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9975962638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96266031265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93710970878601</t>
   </si>
   <si>
     <t xml:space="preserve">1.94910311698914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9136461019516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88183879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84429562091827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88444566726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84898817539215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86306703090668</t>
+    <t xml:space="preserve">1.91364622116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88183867931366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84429538249969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88444554805756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84898829460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86306691169739</t>
   </si>
   <si>
     <t xml:space="preserve">1.87610268592834</t>
@@ -1877,112 +1877,112 @@
     <t xml:space="preserve">1.859938621521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86254513263702</t>
+    <t xml:space="preserve">1.86254549026489</t>
   </si>
   <si>
     <t xml:space="preserve">1.82239556312561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82917463779449</t>
+    <t xml:space="preserve">1.82917451858521</t>
   </si>
   <si>
     <t xml:space="preserve">1.76243138313293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72436690330505</t>
+    <t xml:space="preserve">1.72436666488647</t>
   </si>
   <si>
     <t xml:space="preserve">1.6753523349762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71393835544586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7009025812149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77598834037781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76555967330933</t>
+    <t xml:space="preserve">1.71393847465515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70090293884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77598869800568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76555979251862</t>
   </si>
   <si>
     <t xml:space="preserve">1.75095951557159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76138842105865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83282423019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76973128318787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75669538974762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78850257396698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80205988883972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81822383403778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8208315372467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76764583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78224539756775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74991714954376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7660813331604</t>
+    <t xml:space="preserve">1.76138818264008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83282434940338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76973116397858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75669527053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78850269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80206024646759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81822407245636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82083141803741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76764571666718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78224527835846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74991726875305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76608145236969</t>
   </si>
   <si>
     <t xml:space="preserve">1.7457457780838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80883800983429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81926727294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8203102350235</t>
+    <t xml:space="preserve">1.80883824825287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81926715373993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82031011581421</t>
   </si>
   <si>
     <t xml:space="preserve">1.91781723499298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85055267810822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86723852157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87662410736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96318185329437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92980980873108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96578872203827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90321731567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87297439575195</t>
+    <t xml:space="preserve">1.8505527973175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86723864078522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87662422657013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96318161487579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92981016635895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96578848361969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90321743488312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87297427654266</t>
   </si>
   <si>
     <t xml:space="preserve">1.8411670923233</t>
@@ -1991,58 +1991,58 @@
     <t xml:space="preserve">1.82343852519989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81613862514496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78798127174377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304579734802</t>
+    <t xml:space="preserve">1.81613886356354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78798115253448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304555892944</t>
   </si>
   <si>
     <t xml:space="preserve">1.74470281600952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78016018867493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74626672267914</t>
+    <t xml:space="preserve">1.78015995025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74626648426056</t>
   </si>
   <si>
     <t xml:space="preserve">1.73323094844818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70976734161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75408864021301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71863150596619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70715975761414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76451683044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77546715736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73636019229889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72905933856964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73427426815033</t>
+    <t xml:space="preserve">1.7097669839859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7540887594223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7186313867569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70715951919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76451659202576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77546727657318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7363600730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72905957698822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73427379131317</t>
   </si>
   <si>
     <t xml:space="preserve">1.70507431030273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6393735408783</t>
+    <t xml:space="preserve">1.63937366008759</t>
   </si>
   <si>
     <t xml:space="preserve">1.56168079376221</t>
@@ -2054,13 +2054,13 @@
     <t xml:space="preserve">1.60235249996185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59296667575836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60130953788757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59244501590729</t>
+    <t xml:space="preserve">1.59296691417694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60130941867828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59244513511658</t>
   </si>
   <si>
     <t xml:space="preserve">1.56898069381714</t>
@@ -2069,10 +2069,10 @@
     <t xml:space="preserve">1.57367348670959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64250266551971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62268769741058</t>
+    <t xml:space="preserve">1.64250242710114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62268781661987</t>
   </si>
   <si>
     <t xml:space="preserve">1.62685918807983</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">1.55125200748444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58775222301483</t>
+    <t xml:space="preserve">1.58775210380554</t>
   </si>
   <si>
     <t xml:space="preserve">1.57158815860748</t>
@@ -2105,157 +2105,157 @@
     <t xml:space="preserve">1.78120303153992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76295268535614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75617396831512</t>
+    <t xml:space="preserve">1.76295280456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75617372989655</t>
   </si>
   <si>
     <t xml:space="preserve">1.83751726150513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8302173614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81457436084747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78537452220917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80623126029968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82448136806488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83647406101227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88601005077362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92824506759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92303156852722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91677439212799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93241786956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87558126449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8562890291214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84481704235077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85576713085175</t>
+    <t xml:space="preserve">1.83021748065948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8145740032196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78537464141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80623137950897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82448148727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83647394180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88601016998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92824554443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9230318069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91677415370941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93241739273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87558090686798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85628890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84481680393219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85576736927032</t>
   </si>
   <si>
     <t xml:space="preserve">1.89330995082855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93137466907501</t>
+    <t xml:space="preserve">1.9313747882843</t>
   </si>
   <si>
     <t xml:space="preserve">1.94597399234772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94649589061737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92928850650787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90269541740417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89487421512604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87871015071869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90843141078949</t>
+    <t xml:space="preserve">1.94649577140808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92928862571716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90269565582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89487433433533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8787100315094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90843152999878</t>
   </si>
   <si>
     <t xml:space="preserve">1.90061020851135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8985241651535</t>
+    <t xml:space="preserve">1.89852404594421</t>
   </si>
   <si>
     <t xml:space="preserve">1.92459559440613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90999615192413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92876696586609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93085312843323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94753861427307</t>
+    <t xml:space="preserve">1.90999591350555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9287668466568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93085300922394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94753885269165</t>
   </si>
   <si>
     <t xml:space="preserve">1.94858169555664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97934579849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01636791229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06955361366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10448932647705</t>
+    <t xml:space="preserve">1.97934603691101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0163676738739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06955337524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10448908805847</t>
   </si>
   <si>
     <t xml:space="preserve">2.16028165817261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18113946914673</t>
+    <t xml:space="preserve">2.18113923072815</t>
   </si>
   <si>
     <t xml:space="preserve">2.15976023674011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14098930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17592525482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19365358352661</t>
+    <t xml:space="preserve">2.14098954200745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1759250164032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19365382194519</t>
   </si>
   <si>
     <t xml:space="preserve">2.19991016387939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23380374908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19782519340515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19104599952698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14568209648132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13368892669678</t>
+    <t xml:space="preserve">2.23380351066589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19782495498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1910457611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1456823348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1336886882782</t>
   </si>
   <si>
     <t xml:space="preserve">2.08780360221863</t>
@@ -2267,97 +2267,97 @@
     <t xml:space="preserve">2.03357481956482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05182504653931</t>
+    <t xml:space="preserve">2.05182480812073</t>
   </si>
   <si>
     <t xml:space="preserve">2.01584601402283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0612108707428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00609588623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9532607793808</t>
+    <t xml:space="preserve">2.06121063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00609564781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95326066017151</t>
   </si>
   <si>
     <t xml:space="preserve">1.9117476940155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88640916347504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581798553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85514008998871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85621762275696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84651398658752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83357441425323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8244092464447</t>
+    <t xml:space="preserve">1.88640928268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581786632538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85513997077942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85621774196625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84651386737823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83357429504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82440936565399</t>
   </si>
   <si>
     <t xml:space="preserve">1.80985260009766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84166193008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80823564529419</t>
+    <t xml:space="preserve">1.84166181087494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80823576450348</t>
   </si>
   <si>
     <t xml:space="preserve">1.78667092323303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78343534469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83950507640839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85675692558289</t>
+    <t xml:space="preserve">1.78343522548676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8395049571991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85675668716431</t>
   </si>
   <si>
     <t xml:space="preserve">1.83573114871979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85783529281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85136532783508</t>
+    <t xml:space="preserve">1.85783541202545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85136556625366</t>
   </si>
   <si>
     <t xml:space="preserve">1.86538255214691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90743505954742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94301795959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94086110591888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.973748087883</t>
+    <t xml:space="preserve">1.90743494033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94301784038544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94086122512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97374796867371</t>
   </si>
   <si>
     <t xml:space="preserve">1.95218300819397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95110428333282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96242594718933</t>
+    <t xml:space="preserve">1.9511045217514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96242570877075</t>
   </si>
   <si>
     <t xml:space="preserve">1.93169593811035</t>
@@ -2366,13 +2366,13 @@
     <t xml:space="preserve">1.92145240306854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96080911159515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0373649597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09666895866394</t>
+    <t xml:space="preserve">1.96080923080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03736519813538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09666919708252</t>
   </si>
   <si>
     <t xml:space="preserve">2.10098195075989</t>
@@ -2393,10 +2393,10 @@
     <t xml:space="preserve">2.05084323883057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07995653152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04653024673462</t>
+    <t xml:space="preserve">2.07995629310608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0465304851532</t>
   </si>
   <si>
     <t xml:space="preserve">2.02065229415894</t>
@@ -2408,37 +2408,37 @@
     <t xml:space="preserve">2.01633954048157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9651221036911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94894766807556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92846143245697</t>
+    <t xml:space="preserve">1.96512198448181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94894790649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92846155166626</t>
   </si>
   <si>
     <t xml:space="preserve">1.90204358100891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82764446735382</t>
+    <t xml:space="preserve">1.82764458656311</t>
   </si>
   <si>
     <t xml:space="preserve">1.81632244586945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86484456062317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83627009391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86430525779724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83842647075653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87347030639648</t>
+    <t xml:space="preserve">1.86484444141388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83627021312714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86430513858795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83842635154724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87347006797791</t>
   </si>
   <si>
     <t xml:space="preserve">1.72520983219147</t>
@@ -2447,19 +2447,19 @@
     <t xml:space="preserve">1.68854904174805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70795798301697</t>
+    <t xml:space="preserve">1.70795786380768</t>
   </si>
   <si>
     <t xml:space="preserve">1.62385368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65943598747253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67614960670471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62277519702911</t>
+    <t xml:space="preserve">1.65943610668182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67614948749542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6227753162384</t>
   </si>
   <si>
     <t xml:space="preserve">1.65081000328064</t>
@@ -2483,13 +2483,13 @@
     <t xml:space="preserve">1.75162708759308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73760962486267</t>
+    <t xml:space="preserve">1.73760938644409</t>
   </si>
   <si>
     <t xml:space="preserve">1.74138343334198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77049624919891</t>
+    <t xml:space="preserve">1.77049648761749</t>
   </si>
   <si>
     <t xml:space="preserve">1.78828763961792</t>
@@ -2498,10 +2498,10 @@
     <t xml:space="preserve">1.79367899894714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80230522155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86322665214539</t>
+    <t xml:space="preserve">1.80230510234833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86322677135468</t>
   </si>
   <si>
     <t xml:space="preserve">1.88425254821777</t>
@@ -2510,82 +2510,82 @@
     <t xml:space="preserve">1.86592209339142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.894495844841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9424786567688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95164382457733</t>
+    <t xml:space="preserve">1.89449608325958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94247877597809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95164406299591</t>
   </si>
   <si>
     <t xml:space="preserve">1.88802599906921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89934825897217</t>
+    <t xml:space="preserve">1.89934837818146</t>
   </si>
   <si>
     <t xml:space="preserve">1.9823739528656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92306971549988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89395654201508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87400984764099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88533103466034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90959191322327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88047873973846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89180088043213</t>
+    <t xml:space="preserve">1.92306983470917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89395678043365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87400960922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88533079624176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90959179401398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88047862052917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89180064201355</t>
   </si>
   <si>
     <t xml:space="preserve">1.87454783916473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8810179233551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89233994483948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9613481760025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98291325569153</t>
+    <t xml:space="preserve">1.88101780414581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8923397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96134805679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98291301727295</t>
   </si>
   <si>
     <t xml:space="preserve">2.02550458908081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05515599250793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11122584342957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16621685028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18993854522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21905088424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17807745933533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17699980735779</t>
+    <t xml:space="preserve">2.05515623092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11122560501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16621661186218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18993830680847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21905112266541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17807722091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17699956893921</t>
   </si>
   <si>
     <t xml:space="preserve">2.19317317008972</t>
@@ -2597,22 +2597,22 @@
     <t xml:space="preserve">2.15219926834106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16028618812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15651249885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22606015205383</t>
+    <t xml:space="preserve">2.16028642654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15651226043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22605991363525</t>
   </si>
   <si>
     <t xml:space="preserve">2.25193786621094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26703357696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29992055892944</t>
+    <t xml:space="preserve">2.26703333854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29992079734802</t>
   </si>
   <si>
     <t xml:space="preserve">2.27458095550537</t>
@@ -2621,49 +2621,49 @@
     <t xml:space="preserve">2.31232023239136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32903289794922</t>
+    <t xml:space="preserve">2.3290331363678</t>
   </si>
   <si>
     <t xml:space="preserve">2.34466791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33658146858215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35383343696594</t>
+    <t xml:space="preserve">2.33658123016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35383319854736</t>
   </si>
   <si>
     <t xml:space="preserve">2.38240718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45141577720642</t>
+    <t xml:space="preserve">2.45141553878784</t>
   </si>
   <si>
     <t xml:space="preserve">2.48430275917053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47028517723083</t>
+    <t xml:space="preserve">2.47028493881226</t>
   </si>
   <si>
     <t xml:space="preserve">2.41098117828369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42445921897888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41852855682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39696383476257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36569356918335</t>
+    <t xml:space="preserve">2.4244589805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41852831840515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39696359634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36569380760193</t>
   </si>
   <si>
     <t xml:space="preserve">2.36946821212769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32094597816467</t>
+    <t xml:space="preserve">2.32094621658325</t>
   </si>
   <si>
     <t xml:space="preserve">2.33819794654846</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">2.37917256355286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40235495567322</t>
+    <t xml:space="preserve">2.40235543251038</t>
   </si>
   <si>
     <t xml:space="preserve">2.37378120422363</t>
@@ -2684,31 +2684,31 @@
     <t xml:space="preserve">2.39911985397339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39588522911072</t>
+    <t xml:space="preserve">2.3958854675293</t>
   </si>
   <si>
     <t xml:space="preserve">2.42769384384155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40990281105042</t>
+    <t xml:space="preserve">2.40990304946899</t>
   </si>
   <si>
     <t xml:space="preserve">2.44009351730347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45842409133911</t>
+    <t xml:space="preserve">2.45842385292053</t>
   </si>
   <si>
     <t xml:space="preserve">2.43470215797424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43146777153015</t>
+    <t xml:space="preserve">2.43146800994873</t>
   </si>
   <si>
     <t xml:space="preserve">2.40127658843994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41691088676453</t>
+    <t xml:space="preserve">2.41691064834595</t>
   </si>
   <si>
     <t xml:space="preserve">2.47729349136353</t>
@@ -2723,25 +2723,25 @@
     <t xml:space="preserve">2.4320068359375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45518922805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4886155128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49077153205872</t>
+    <t xml:space="preserve">2.45518946647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48861575126648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49077177047729</t>
   </si>
   <si>
     <t xml:space="preserve">2.47998952865601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48807621002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46597242355347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45950222015381</t>
+    <t xml:space="preserve">2.48807644844055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46597194671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45950245857239</t>
   </si>
   <si>
     <t xml:space="preserve">2.47891092300415</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">2.46381521224976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49508452415466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40397214889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40451145172119</t>
+    <t xml:space="preserve">2.49508476257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40397191047668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40451121330261</t>
   </si>
   <si>
     <t xml:space="preserve">2.38941550254822</t>
@@ -2765,13 +2765,13 @@
     <t xml:space="preserve">2.43793749809265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41637206077576</t>
+    <t xml:space="preserve">2.41637182235718</t>
   </si>
   <si>
     <t xml:space="preserve">2.33226823806763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23738098144531</t>
+    <t xml:space="preserve">2.23738121986389</t>
   </si>
   <si>
     <t xml:space="preserve">2.28320693969727</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">2.33765959739685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34682488441467</t>
+    <t xml:space="preserve">2.34682512283325</t>
   </si>
   <si>
     <t xml:space="preserve">2.35760688781738</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">2.44440650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42338109016418</t>
+    <t xml:space="preserve">2.42338085174561</t>
   </si>
   <si>
     <t xml:space="preserve">2.50371050834656</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">2.23252892494202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2249813079834</t>
+    <t xml:space="preserve">2.22498154640198</t>
   </si>
   <si>
     <t xml:space="preserve">2.26110291481018</t>
@@ -2822,64 +2822,64 @@
     <t xml:space="preserve">2.11607789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03682565689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94032180309296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79260063171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74623537063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6826183795929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64703631401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42329835891724</t>
+    <t xml:space="preserve">2.03682541847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94032192230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79260051250458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7462352514267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68261849880219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64703619480133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42329812049866</t>
   </si>
   <si>
     <t xml:space="preserve">1.35428977012634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35752463340759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11653387546539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36668956279755</t>
+    <t xml:space="preserve">1.3575245141983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1165337562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36668968200684</t>
   </si>
   <si>
     <t xml:space="preserve">1.26209890842438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25778579711914</t>
+    <t xml:space="preserve">1.25778591632843</t>
   </si>
   <si>
     <t xml:space="preserve">1.22435963153839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24322915077209</t>
+    <t xml:space="preserve">1.24322938919067</t>
   </si>
   <si>
     <t xml:space="preserve">1.38825440406799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5828800201416</t>
+    <t xml:space="preserve">1.58287990093231</t>
   </si>
   <si>
     <t xml:space="preserve">1.62223613262177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59689736366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5656281709671</t>
+    <t xml:space="preserve">1.59689724445343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56562805175781</t>
   </si>
   <si>
     <t xml:space="preserve">1.46481120586395</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">1.4658887386322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45402824878693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4470192193985</t>
+    <t xml:space="preserve">1.45402836799622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44701933860779</t>
   </si>
   <si>
     <t xml:space="preserve">1.47505402565002</t>
@@ -2909,19 +2909,19 @@
     <t xml:space="preserve">1.39688038825989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41035854816437</t>
+    <t xml:space="preserve">1.41035866737366</t>
   </si>
   <si>
     <t xml:space="preserve">1.3472808599472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24808132648468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19416892528534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20656871795654</t>
+    <t xml:space="preserve">1.24808144569397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19416904449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20656859874725</t>
   </si>
   <si>
     <t xml:space="preserve">1.20764708518982</t>
@@ -2933,19 +2933,19 @@
     <t xml:space="preserve">1.15373373031616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19255125522614</t>
+    <t xml:space="preserve">1.19255137443542</t>
   </si>
   <si>
     <t xml:space="preserve">1.14295160770416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17529952526093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24915981292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26910722255707</t>
+    <t xml:space="preserve">1.17529940605164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24915993213654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26910710334778</t>
   </si>
   <si>
     <t xml:space="preserve">1.21411621570587</t>
@@ -2954,22 +2954,22 @@
     <t xml:space="preserve">1.18823826313019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18608140945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17206394672394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15265595912933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13971626758575</t>
+    <t xml:space="preserve">1.18608129024506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17206406593323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15265607833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13971614837646</t>
   </si>
   <si>
     <t xml:space="preserve">1.13216876983643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09442973136902</t>
+    <t xml:space="preserve">1.09442961215973</t>
   </si>
   <si>
     <t xml:space="preserve">1.08580362796783</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">1.08202981948853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12548661231995</t>
+    <t xml:space="preserve">1.12548649311066</t>
   </si>
   <si>
     <t xml:space="preserve">1.06277656555176</t>
@@ -2987,40 +2987,40 @@
     <t xml:space="preserve">1.04434812068939</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02454471588135</t>
+    <t xml:space="preserve">1.02454459667206</t>
   </si>
   <si>
     <t xml:space="preserve">1.02537035942078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02812039852142</t>
+    <t xml:space="preserve">1.02812051773071</t>
   </si>
   <si>
     <t xml:space="preserve">1.13538825511932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17664504051208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22395277023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18104648590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.210200548172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23220479488373</t>
+    <t xml:space="preserve">1.1766449213028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22395300865173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18104636669159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21020066738129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23220491409302</t>
   </si>
   <si>
     <t xml:space="preserve">1.27181112766266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27236139774323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39613211154938</t>
+    <t xml:space="preserve">1.27236127853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39613223075867</t>
   </si>
   <si>
     <t xml:space="preserve">1.4637930393219</t>
@@ -3032,25 +3032,25 @@
     <t xml:space="preserve">1.37027740478516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28281307220459</t>
+    <t xml:space="preserve">1.28281319141388</t>
   </si>
   <si>
     <t xml:space="preserve">1.25365817546844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26521050930023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34827399253845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3213198184967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28501319885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29821598529816</t>
+    <t xml:space="preserve">1.26521039009094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34827411174774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32131969928741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28501307964325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29821586608887</t>
   </si>
   <si>
     <t xml:space="preserve">1.24815702438354</t>
@@ -3065,10 +3065,10 @@
     <t xml:space="preserve">1.22340273857117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19534814357758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21680212020874</t>
+    <t xml:space="preserve">1.19534802436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21680200099945</t>
   </si>
   <si>
     <t xml:space="preserve">1.19314801692963</t>
@@ -3077,28 +3077,28 @@
     <t xml:space="preserve">1.20194947719574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19644832611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23275446891785</t>
+    <t xml:space="preserve">1.19644844532013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23275434970856</t>
   </si>
   <si>
     <t xml:space="preserve">1.21900200843811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21350181102753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18159580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24100637435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37082755565643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37192785739899</t>
+    <t xml:space="preserve">1.21350193023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18159592151642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24100625514984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37082743644714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37192809581757</t>
   </si>
   <si>
     <t xml:space="preserve">1.37907874584198</t>
@@ -3113,49 +3113,49 @@
     <t xml:space="preserve">1.41538536548615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40218257904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35377490520477</t>
+    <t xml:space="preserve">1.40218269824982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35377502441406</t>
   </si>
   <si>
     <t xml:space="preserve">1.33342146873474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27786219120026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28171288967133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24045622348785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22505331039429</t>
+    <t xml:space="preserve">1.27786231040955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28171277046204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24045610427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.225053191185</t>
   </si>
   <si>
     <t xml:space="preserve">1.17279446125031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14253985881805</t>
+    <t xml:space="preserve">1.14253997802734</t>
   </si>
   <si>
     <t xml:space="preserve">1.12768733501434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19589817523956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28721392154694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30371618270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30481648445129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27401173114777</t>
+    <t xml:space="preserve">1.19589829444885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28721404075623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30371606349945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30481660366058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27401185035706</t>
   </si>
   <si>
     <t xml:space="preserve">1.27731204032898</t>
@@ -3173,13 +3173,13 @@
     <t xml:space="preserve">1.29216480255127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29161441326141</t>
+    <t xml:space="preserve">1.2916145324707</t>
   </si>
   <si>
     <t xml:space="preserve">1.2822630405426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30921733379364</t>
+    <t xml:space="preserve">1.30921721458435</t>
   </si>
   <si>
     <t xml:space="preserve">1.26575982570648</t>
@@ -3188,10 +3188,10 @@
     <t xml:space="preserve">1.23165476322174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2283536195755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18929767608643</t>
+    <t xml:space="preserve">1.22835350036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18929755687714</t>
   </si>
   <si>
     <t xml:space="preserve">1.20084917545319</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">1.19479870796204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16234242916107</t>
+    <t xml:space="preserve">1.16234254837036</t>
   </si>
   <si>
     <t xml:space="preserve">1.17829561233521</t>
@@ -3209,16 +3209,16 @@
     <t xml:space="preserve">1.20855093002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20524978637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20469963550568</t>
+    <t xml:space="preserve">1.20524990558624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20469975471497</t>
   </si>
   <si>
     <t xml:space="preserve">1.1898478269577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19864916801453</t>
+    <t xml:space="preserve">1.19864904880524</t>
   </si>
   <si>
     <t xml:space="preserve">1.18819737434387</t>
@@ -3230,16 +3230,16 @@
     <t xml:space="preserve">1.10898423194885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11118412017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07817852497101</t>
+    <t xml:space="preserve">1.11118423938751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0781786441803</t>
   </si>
   <si>
     <t xml:space="preserve">1.07542848587036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10348308086395</t>
+    <t xml:space="preserve">1.10348320007324</t>
   </si>
   <si>
     <t xml:space="preserve">1.07267832756042</t>
@@ -3248,70 +3248,70 @@
     <t xml:space="preserve">1.09358131885529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07157778739929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04242289066315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965468168258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00569605827332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963436603546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972375988960266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977252244949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952465355396271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903704345226288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907361447811127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902485191822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975626945495605</t>
+    <t xml:space="preserve">1.07157790660858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04242300987244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965468287467957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0056961774826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963436543941498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972376048564911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977252185344696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95246547460556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903704226016998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907361328601837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902485311031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975626885890961</t>
   </si>
   <si>
     <t xml:space="preserve">0.96262389421463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05648875236511</t>
+    <t xml:space="preserve">1.0564888715744</t>
   </si>
   <si>
     <t xml:space="preserve">0.98903614282608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964249193668365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978064835071564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968312680721283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907767772674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842346608638763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83178174495697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826499342918396</t>
+    <t xml:space="preserve">0.964249134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978064954280853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968312621116638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907767713069916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842346668243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831781804561615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826499402523041</t>
   </si>
   <si>
     <t xml:space="preserve">0.857381343841553</t>
@@ -3320,10 +3320,10 @@
     <t xml:space="preserve">0.879323840141296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89964097738266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880136430263519</t>
+    <t xml:space="preserve">0.899640917778015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880136489868164</t>
   </si>
   <si>
     <t xml:space="preserve">0.851692497730255</t>
@@ -3338,31 +3338,31 @@
     <t xml:space="preserve">1.00691521167755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07233607769012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08493292331696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15116655826569</t>
+    <t xml:space="preserve">1.07233619689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08493280410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1511664390564</t>
   </si>
   <si>
     <t xml:space="preserve">1.15848076343536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20642912387848</t>
+    <t xml:space="preserve">1.20642900466919</t>
   </si>
   <si>
     <t xml:space="preserve">1.23202860355377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23487281799316</t>
+    <t xml:space="preserve">1.23487305641174</t>
   </si>
   <si>
     <t xml:space="preserve">1.23893642425537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20683538913727</t>
+    <t xml:space="preserve">1.20683526992798</t>
   </si>
   <si>
     <t xml:space="preserve">1.22796511650085</t>
@@ -3374,16 +3374,16 @@
     <t xml:space="preserve">1.20764803886414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19464504718781</t>
+    <t xml:space="preserve">1.19464528560638</t>
   </si>
   <si>
     <t xml:space="preserve">1.20561635494232</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19667673110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1901752948761</t>
+    <t xml:space="preserve">1.19667685031891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19017541408539</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830214977264</t>
@@ -3404,19 +3404,19 @@
     <t xml:space="preserve">1.18448650836945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19180071353912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18001675605774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13247489929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15807437896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20277202129364</t>
+    <t xml:space="preserve">1.19180059432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18001687526703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13247466087341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15807414054871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20277190208435</t>
   </si>
   <si>
     <t xml:space="preserve">1.21902561187744</t>
@@ -3425,13 +3425,13 @@
     <t xml:space="preserve">1.21049249172211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.188143491745</t>
+    <t xml:space="preserve">1.18814361095428</t>
   </si>
   <si>
     <t xml:space="preserve">1.19789588451385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26169145107269</t>
+    <t xml:space="preserve">1.26169157028198</t>
   </si>
   <si>
     <t xml:space="preserve">1.33970904350281</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">1.32467448711395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35189938545227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35393106937408</t>
+    <t xml:space="preserve">1.35189950466156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35393118858337</t>
   </si>
   <si>
     <t xml:space="preserve">1.3372710943222</t>
@@ -3452,31 +3452,31 @@
     <t xml:space="preserve">1.31614136695862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30760824680328</t>
+    <t xml:space="preserve">1.30760812759399</t>
   </si>
   <si>
     <t xml:space="preserve">1.33645832538605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31736028194427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34011554718018</t>
+    <t xml:space="preserve">1.31736040115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34011542797089</t>
   </si>
   <si>
     <t xml:space="preserve">1.3165477514267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28038334846497</t>
+    <t xml:space="preserve">1.28038322925568</t>
   </si>
   <si>
     <t xml:space="preserve">1.24178075790405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27631974220276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23853015899658</t>
+    <t xml:space="preserve">1.27631986141205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23853003978729</t>
   </si>
   <si>
     <t xml:space="preserve">1.26656770706177</t>
@@ -3485,10 +3485,10 @@
     <t xml:space="preserve">1.24584424495697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25478386878967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37993705272675</t>
+    <t xml:space="preserve">1.25478363037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37993693351746</t>
   </si>
   <si>
     <t xml:space="preserve">1.44495165348053</t>
@@ -3497,13 +3497,13 @@
     <t xml:space="preserve">1.55181956291199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5193122625351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54409921169281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51606154441833</t>
+    <t xml:space="preserve">1.51931238174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54409909248352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51606142520905</t>
   </si>
   <si>
     <t xml:space="preserve">1.51321709156036</t>
@@ -3515,37 +3515,37 @@
     <t xml:space="preserve">1.50793468952179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48030340671539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4547039270401</t>
+    <t xml:space="preserve">1.4803032875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45470380783081</t>
   </si>
   <si>
     <t xml:space="preserve">1.51240432262421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49046206474304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49005556106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51402974128723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47461462020874</t>
+    <t xml:space="preserve">1.49046194553375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49005568027496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51402962207794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47461485862732</t>
   </si>
   <si>
     <t xml:space="preserve">1.51362347602844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49777626991272</t>
+    <t xml:space="preserve">1.49777603149414</t>
   </si>
   <si>
     <t xml:space="preserve">1.50671565532684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57010519504547</t>
+    <t xml:space="preserve">1.57010507583618</t>
   </si>
   <si>
     <t xml:space="preserve">1.61236441135406</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">1.60545670986176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59204757213593</t>
+    <t xml:space="preserve">1.59204745292664</t>
   </si>
   <si>
     <t xml:space="preserve">1.60098707675934</t>
@@ -3566,13 +3566,13 @@
     <t xml:space="preserve">1.61724066734314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66762709617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6554366350174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58960926532745</t>
+    <t xml:space="preserve">1.66762697696686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65543675422668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58960938453674</t>
   </si>
   <si>
     <t xml:space="preserve">1.54978775978088</t>
@@ -3581,10 +3581,10 @@
     <t xml:space="preserve">1.54816246032715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5696986913681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55791473388672</t>
+    <t xml:space="preserve">1.56969857215881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55791485309601</t>
   </si>
   <si>
     <t xml:space="preserve">1.55872738361359</t>
@@ -3596,10 +3596,10 @@
     <t xml:space="preserve">1.54369282722473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52500104904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54531812667847</t>
+    <t xml:space="preserve">1.52500116825104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54531824588776</t>
   </si>
   <si>
     <t xml:space="preserve">1.54328656196594</t>
@@ -3608,28 +3608,28 @@
     <t xml:space="preserve">1.53678500652313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51077902317047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51971864700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5469434261322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52947068214417</t>
+    <t xml:space="preserve">1.51077914237976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51971852779388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54694354534149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52947080135345</t>
   </si>
   <si>
     <t xml:space="preserve">1.53841030597687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53719139099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58554601669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50021409988403</t>
+    <t xml:space="preserve">1.53719127178192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58554589748383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50021421909332</t>
   </si>
   <si>
     <t xml:space="preserve">1.46689403057098</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">1.46933221817017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47664654254913</t>
+    <t xml:space="preserve">1.47664642333984</t>
   </si>
   <si>
     <t xml:space="preserve">1.52215671539307</t>
@@ -3671,31 +3671,31 @@
     <t xml:space="preserve">1.63837039470673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61398983001709</t>
+    <t xml:space="preserve">1.61398994922638</t>
   </si>
   <si>
     <t xml:space="preserve">1.6294310092926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63024365901947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63755786418915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60667562484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59164106845856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62089776992798</t>
+    <t xml:space="preserve">1.63024377822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63755774497986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6066757440567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59164130687714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62089765071869</t>
   </si>
   <si>
     <t xml:space="preserve">1.72497689723969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76312530040741</t>
+    <t xml:space="preserve">1.7631254196167</t>
   </si>
   <si>
     <t xml:space="preserve">1.6785352230072</t>
@@ -3704,40 +3704,40 @@
     <t xml:space="preserve">1.70009744167328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6893162727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68185269832611</t>
+    <t xml:space="preserve">1.68931639194489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68185257911682</t>
   </si>
   <si>
     <t xml:space="preserve">1.68682837486267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69512152671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68765783309937</t>
+    <t xml:space="preserve">1.69512140750885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68765771389008</t>
   </si>
   <si>
     <t xml:space="preserve">1.67687666416168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69926822185516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68848705291748</t>
+    <t xml:space="preserve">1.69926810264587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68848693370819</t>
   </si>
   <si>
     <t xml:space="preserve">1.7025853395462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69014585018158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68434035778046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69263350963593</t>
+    <t xml:space="preserve">1.69014573097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68434023857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69263339042664</t>
   </si>
   <si>
     <t xml:space="preserve">1.666095495224</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">1.56699228286743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58440780639648</t>
+    <t xml:space="preserve">1.58440792560577</t>
   </si>
   <si>
     <t xml:space="preserve">1.57735860347748</t>
@@ -3776,22 +3776,22 @@
     <t xml:space="preserve">1.52220928668976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53133177757263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52055048942566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53257572650909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49193906784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47867000102997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43056988716125</t>
+    <t xml:space="preserve">1.53133165836334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52055060863495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5325756072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49193918704987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47867012023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43056976795197</t>
   </si>
   <si>
     <t xml:space="preserve">1.46291315555573</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">1.46954751014709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41937398910522</t>
+    <t xml:space="preserve">1.41937410831451</t>
   </si>
   <si>
     <t xml:space="preserve">1.41315412521362</t>
@@ -3815,28 +3815,28 @@
     <t xml:space="preserve">1.28751277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29787921905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31446552276611</t>
+    <t xml:space="preserve">1.29787933826447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3144656419754</t>
   </si>
   <si>
     <t xml:space="preserve">1.337686419487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33893048763275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35924875736237</t>
+    <t xml:space="preserve">1.33893036842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35924863815308</t>
   </si>
   <si>
     <t xml:space="preserve">1.34349167346954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34473550319672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34846770763397</t>
+    <t xml:space="preserve">1.34473562240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34846758842468</t>
   </si>
   <si>
     <t xml:space="preserve">1.36546850204468</t>
@@ -3860,25 +3860,25 @@
     <t xml:space="preserve">1.49028062820435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5342344045639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52345323562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51557457447052</t>
+    <t xml:space="preserve">1.53423428535461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52345311641693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51557469367981</t>
   </si>
   <si>
     <t xml:space="preserve">1.49691498279572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4703768491745</t>
+    <t xml:space="preserve">1.47037696838379</t>
   </si>
   <si>
     <t xml:space="preserve">1.48032867908478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45627844333649</t>
+    <t xml:space="preserve">1.45627856254578</t>
   </si>
   <si>
     <t xml:space="preserve">1.45130264759064</t>
@@ -3893,13 +3893,13 @@
     <t xml:space="preserve">1.51889193058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49898827075958</t>
+    <t xml:space="preserve">1.49898838996887</t>
   </si>
   <si>
     <t xml:space="preserve">1.52262389659882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50479352474213</t>
+    <t xml:space="preserve">1.50479364395142</t>
   </si>
   <si>
     <t xml:space="preserve">1.52801430225372</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">1.53050231933594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54833257198334</t>
+    <t xml:space="preserve">1.54833269119263</t>
   </si>
   <si>
     <t xml:space="preserve">1.5076961517334</t>
@@ -3935,13 +3935,13 @@
     <t xml:space="preserve">1.40403163433075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42227673530579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46374237537384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48406064510345</t>
+    <t xml:space="preserve">1.4222766160965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46374249458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48406052589417</t>
   </si>
   <si>
     <t xml:space="preserve">1.52096521854401</t>
@@ -3977,37 +3977,37 @@
     <t xml:space="preserve">1.71253716945648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.714195728302</t>
+    <t xml:space="preserve">1.71419584751129</t>
   </si>
   <si>
     <t xml:space="preserve">1.70756125450134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70839047431946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71087837219238</t>
+    <t xml:space="preserve">1.70839059352875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71087849140167</t>
   </si>
   <si>
     <t xml:space="preserve">1.72331833839417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69843900203705</t>
+    <t xml:space="preserve">1.69843888282776</t>
   </si>
   <si>
     <t xml:space="preserve">1.69760942459106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70175611972809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66029047966003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6793646812439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57113897800446</t>
+    <t xml:space="preserve">1.7017560005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66029036045074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67936456203461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57113885879517</t>
   </si>
   <si>
     <t xml:space="preserve">1.56201636791229</t>
@@ -4019,7 +4019,7 @@
     <t xml:space="preserve">1.5877251625061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56906545162201</t>
+    <t xml:space="preserve">1.5690655708313</t>
   </si>
   <si>
     <t xml:space="preserve">1.59601831436157</t>
@@ -4028,22 +4028,22 @@
     <t xml:space="preserve">1.59145712852478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58357846736908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59518897533417</t>
+    <t xml:space="preserve">1.58357858657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59518885612488</t>
   </si>
   <si>
     <t xml:space="preserve">1.58482253551483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59726238250732</t>
+    <t xml:space="preserve">1.59726226329803</t>
   </si>
   <si>
     <t xml:space="preserve">1.57652938365936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53174638748169</t>
+    <t xml:space="preserve">1.5317462682724</t>
   </si>
   <si>
     <t xml:space="preserve">1.489865899086</t>
@@ -4058,10 +4058,10 @@
     <t xml:space="preserve">1.47079157829285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40734887123108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39615333080292</t>
+    <t xml:space="preserve">1.40734899044037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39615321159363</t>
   </si>
   <si>
     <t xml:space="preserve">1.39490926265717</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">1.54086875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47535276412964</t>
+    <t xml:space="preserve">1.47535288333893</t>
   </si>
   <si>
     <t xml:space="preserve">1.47286486625671</t>
@@ -4115,19 +4115,19 @@
     <t xml:space="preserve">1.50354957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51516008377075</t>
+    <t xml:space="preserve">1.51515996456146</t>
   </si>
   <si>
     <t xml:space="preserve">1.51184272766113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56326019763947</t>
+    <t xml:space="preserve">1.56326031684875</t>
   </si>
   <si>
     <t xml:space="preserve">1.5931156873703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58896923065186</t>
+    <t xml:space="preserve">1.58896911144257</t>
   </si>
   <si>
     <t xml:space="preserve">1.60057950019836</t>
@@ -4142,7 +4142,7 @@
     <t xml:space="preserve">1.62131237983704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60555553436279</t>
+    <t xml:space="preserve">1.6055554151535</t>
   </si>
   <si>
     <t xml:space="preserve">1.59062767028809</t>
@@ -4169,10 +4169,10 @@
     <t xml:space="preserve">1.53796625137329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60804343223572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63955724239349</t>
+    <t xml:space="preserve">1.60804331302643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63955736160278</t>
   </si>
   <si>
     <t xml:space="preserve">1.62297105789185</t>
@@ -4184,13 +4184,13 @@
     <t xml:space="preserve">1.68019390106201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70590257644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6403865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79049277305603</t>
+    <t xml:space="preserve">1.70590245723724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64038670063019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79049265384674</t>
   </si>
   <si>
     <t xml:space="preserve">1.76893055438995</t>
@@ -4211,7 +4211,7 @@
     <t xml:space="preserve">1.37790822982788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37251758575439</t>
+    <t xml:space="preserve">1.37251770496368</t>
   </si>
   <si>
     <t xml:space="preserve">1.30078184604645</t>
@@ -4229,13 +4229,13 @@
     <t xml:space="preserve">1.27839028835297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18260443210602</t>
+    <t xml:space="preserve">1.18260431289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.17596983909607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22406995296478</t>
+    <t xml:space="preserve">1.22407007217407</t>
   </si>
   <si>
     <t xml:space="preserve">1.24894964694977</t>
@@ -4247,25 +4247,25 @@
     <t xml:space="preserve">1.31031906604767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3020259141922</t>
+    <t xml:space="preserve">1.30202579498291</t>
   </si>
   <si>
     <t xml:space="preserve">1.31902682781219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29912316799164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28626883029938</t>
+    <t xml:space="preserve">1.29912328720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28626894950867</t>
   </si>
   <si>
     <t xml:space="preserve">1.29497671127319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31156313419342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38868939876556</t>
+    <t xml:space="preserve">1.31156301498413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38868927955627</t>
   </si>
   <si>
     <t xml:space="preserve">1.36132192611694</t>
@@ -4280,13 +4280,13 @@
     <t xml:space="preserve">1.27548778057098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27756094932556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32814919948578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3260760307312</t>
+    <t xml:space="preserve">1.27756106853485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32814931869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32607591152191</t>
   </si>
   <si>
     <t xml:space="preserve">1.28378093242645</t>
@@ -4301,7 +4301,7 @@
     <t xml:space="preserve">1.30575776100159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35178482532501</t>
+    <t xml:space="preserve">1.35178470611572</t>
   </si>
   <si>
     <t xml:space="preserve">1.36090731620789</t>
@@ -4313,7 +4313,7 @@
     <t xml:space="preserve">1.32731997966766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31197762489319</t>
+    <t xml:space="preserve">1.31197774410248</t>
   </si>
   <si>
     <t xml:space="preserve">1.32151484489441</t>
@@ -4325,25 +4325,25 @@
     <t xml:space="preserve">1.33105182647705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32234406471252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29000079631805</t>
+    <t xml:space="preserve">1.32234394550323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29000067710876</t>
   </si>
   <si>
     <t xml:space="preserve">1.2700971364975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27175569534302</t>
+    <t xml:space="preserve">1.27175581455231</t>
   </si>
   <si>
     <t xml:space="preserve">1.26180398464203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40983688831329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44425344467163</t>
+    <t xml:space="preserve">1.40983700752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44425356388092</t>
   </si>
   <si>
     <t xml:space="preserve">1.44466817378998</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.44840013980865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54587602615356</t>
+    <t xml:space="preserve">1.54587614536285</t>
   </si>
   <si>
     <t xml:space="preserve">1.56219375133514</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">1.64206397533417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65623450279236</t>
+    <t xml:space="preserve">1.65623462200165</t>
   </si>
   <si>
     <t xml:space="preserve">1.59998190402985</t>
@@ -4400,16 +4400,16 @@
     <t xml:space="preserve">1.61801695823669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66525220870972</t>
+    <t xml:space="preserve">1.66525208950043</t>
   </si>
   <si>
     <t xml:space="preserve">1.67555797100067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45913541316986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41147077083588</t>
+    <t xml:space="preserve">1.45913529396057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41147089004517</t>
   </si>
   <si>
     <t xml:space="preserve">1.42134726047516</t>
@@ -4418,22 +4418,22 @@
     <t xml:space="preserve">1.477170586586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4144766330719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44110000133514</t>
+    <t xml:space="preserve">1.41447675228119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44110012054443</t>
   </si>
   <si>
     <t xml:space="preserve">1.46686470508575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47373533248901</t>
+    <t xml:space="preserve">1.47373521327972</t>
   </si>
   <si>
     <t xml:space="preserve">1.47158825397491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40073561668396</t>
+    <t xml:space="preserve">1.40073573589325</t>
   </si>
   <si>
     <t xml:space="preserve">1.44625306129456</t>
@@ -4442,7 +4442,7 @@
     <t xml:space="preserve">1.42435312271118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42220604419708</t>
+    <t xml:space="preserve">1.42220616340637</t>
   </si>
   <si>
     <t xml:space="preserve">1.40116500854492</t>
@@ -4454,19 +4454,19 @@
     <t xml:space="preserve">1.30454778671265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30368888378143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23755967617035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21823620796204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28135967254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29681837558746</t>
+    <t xml:space="preserve">1.30368900299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23755979537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21823632717133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2813595533371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29681825637817</t>
   </si>
   <si>
     <t xml:space="preserve">1.23798906803131</t>
@@ -4475,13 +4475,13 @@
     <t xml:space="preserve">1.20750105381012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.176154255867</t>
+    <t xml:space="preserve">1.17615413665771</t>
   </si>
   <si>
     <t xml:space="preserve">1.10358381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11045444011688</t>
+    <t xml:space="preserve">1.11045432090759</t>
   </si>
   <si>
     <t xml:space="preserve">1.12505424022675</t>
@@ -4502,7 +4502,7 @@
     <t xml:space="preserve">1.14137196540833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10959565639496</t>
+    <t xml:space="preserve">1.10959553718567</t>
   </si>
   <si>
     <t xml:space="preserve">1.13106608390808</t>
@@ -4517,16 +4517,16 @@
     <t xml:space="preserve">1.17186009883881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19118332862854</t>
+    <t xml:space="preserve">1.19118356704712</t>
   </si>
   <si>
     <t xml:space="preserve">1.23884797096252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23068928718567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35006535053253</t>
+    <t xml:space="preserve">1.23068916797638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35006523132324</t>
   </si>
   <si>
     <t xml:space="preserve">1.38270044326782</t>
@@ -4535,31 +4535,31 @@
     <t xml:space="preserve">1.39386510848999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42564129829407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40631794929504</t>
+    <t xml:space="preserve">1.42564141750336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40631806850433</t>
   </si>
   <si>
     <t xml:space="preserve">1.41318845748901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40717673301697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36122977733612</t>
+    <t xml:space="preserve">1.40717661380768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36122989654541</t>
   </si>
   <si>
     <t xml:space="preserve">1.31571233272552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33417701721191</t>
+    <t xml:space="preserve">1.3341771364212</t>
   </si>
   <si>
     <t xml:space="preserve">1.33374750614166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31356537342072</t>
+    <t xml:space="preserve">1.31356525421143</t>
   </si>
   <si>
     <t xml:space="preserve">1.27105379104614</t>
@@ -4571,7 +4571,7 @@
     <t xml:space="preserve">1.29295361042023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29252421855927</t>
+    <t xml:space="preserve">1.29252433776855</t>
   </si>
   <si>
     <t xml:space="preserve">1.27448904514313</t>
@@ -4601,16 +4601,16 @@
     <t xml:space="preserve">1.38141214847565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43337070941925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43895304203033</t>
+    <t xml:space="preserve">1.43337082862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43895316123962</t>
   </si>
   <si>
     <t xml:space="preserve">1.44797074794769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45527052879333</t>
+    <t xml:space="preserve">1.45527064800262</t>
   </si>
   <si>
     <t xml:space="preserve">1.43036496639252</t>
@@ -4625,7 +4625,7 @@
     <t xml:space="preserve">1.43079423904419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42907667160034</t>
+    <t xml:space="preserve">1.42907679080963</t>
   </si>
   <si>
     <t xml:space="preserve">1.39772975444794</t>
@@ -4649,7 +4649,7 @@
     <t xml:space="preserve">1.41576492786407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37239444255829</t>
+    <t xml:space="preserve">1.37239456176758</t>
   </si>
   <si>
     <t xml:space="preserve">1.39042973518372</t>
@@ -4661,7 +4661,7 @@
     <t xml:space="preserve">1.36294758319855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39687097072601</t>
+    <t xml:space="preserve">1.39687085151672</t>
   </si>
   <si>
     <t xml:space="preserve">1.42048847675323</t>
@@ -4670,31 +4670,31 @@
     <t xml:space="preserve">1.45097649097443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46042358875275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47115898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47588241100311</t>
+    <t xml:space="preserve">1.46042370796204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47115886211395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47588229179382</t>
   </si>
   <si>
     <t xml:space="preserve">1.49563527107239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53814673423767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52869987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53084695339203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57421720027924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58452308177948</t>
+    <t xml:space="preserve">1.53814685344696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52869975566864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53084683418274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57421731948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58452320098877</t>
   </si>
   <si>
     <t xml:space="preserve">1.6081405878067</t>
@@ -4703,7 +4703,7 @@
     <t xml:space="preserve">1.62746405601501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65408754348755</t>
+    <t xml:space="preserve">1.65408742427826</t>
   </si>
   <si>
     <t xml:space="preserve">1.65537583827972</t>
@@ -4712,7 +4712,7 @@
     <t xml:space="preserve">1.72880494594574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76058113574982</t>
+    <t xml:space="preserve">1.76058125495911</t>
   </si>
   <si>
     <t xml:space="preserve">1.62531709671021</t>
@@ -4724,40 +4724,40 @@
     <t xml:space="preserve">1.61329352855682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59096419811249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61114656925201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6167289018631</t>
+    <t xml:space="preserve">1.5909640789032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61114645004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61672878265381</t>
   </si>
   <si>
     <t xml:space="preserve">1.63991701602936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64421105384827</t>
+    <t xml:space="preserve">1.64421117305756</t>
   </si>
   <si>
     <t xml:space="preserve">1.6480758190155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66654050350189</t>
+    <t xml:space="preserve">1.6665403842926</t>
   </si>
   <si>
     <t xml:space="preserve">1.68028163909912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.691446185112</t>
+    <t xml:space="preserve">1.69144630432129</t>
   </si>
   <si>
     <t xml:space="preserve">1.67598748207092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68328738212585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6935932636261</t>
+    <t xml:space="preserve">1.68328750133514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69359314441681</t>
   </si>
   <si>
     <t xml:space="preserve">1.67384040355682</t>
@@ -4769,7 +4769,7 @@
     <t xml:space="preserve">1.65666401386261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66396403312683</t>
+    <t xml:space="preserve">1.66396391391754</t>
   </si>
   <si>
     <t xml:space="preserve">1.6686874628067</t>
@@ -4787,10 +4787,10 @@
     <t xml:space="preserve">1.67426979541779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61586999893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61458170413971</t>
+    <t xml:space="preserve">1.61587011814117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.614581823349</t>
   </si>
   <si>
     <t xml:space="preserve">1.60212886333466</t>
@@ -4799,7 +4799,7 @@
     <t xml:space="preserve">1.67126393318176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66997563838959</t>
+    <t xml:space="preserve">1.66997575759888</t>
   </si>
   <si>
     <t xml:space="preserve">1.66181683540344</t>
@@ -4811,31 +4811,31 @@
     <t xml:space="preserve">1.68285799026489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70475792884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74941647052765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7434047460556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7889221906662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79751038551331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81211030483246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81125164031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82155752182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8808159828186</t>
+    <t xml:space="preserve">1.70475780963898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74941658973694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74340486526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78892230987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7975105047226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81211042404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81125152111053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82155740261078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88081610202789</t>
   </si>
   <si>
     <t xml:space="preserve">1.90142774581909</t>
@@ -4844,7 +4844,7 @@
     <t xml:space="preserve">1.87222790718079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93406307697296</t>
+    <t xml:space="preserve">1.93406295776367</t>
   </si>
   <si>
     <t xml:space="preserve">1.93234515190125</t>
@@ -4853,25 +4853,25 @@
     <t xml:space="preserve">1.96927440166473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98129796981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0096390247345</t>
+    <t xml:space="preserve">1.98129773139954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00963878631592</t>
   </si>
   <si>
     <t xml:space="preserve">2.0139331817627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0560154914856</t>
+    <t xml:space="preserve">2.05601525306702</t>
   </si>
   <si>
     <t xml:space="preserve">2.08779168128967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08693289756775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16164994239807</t>
+    <t xml:space="preserve">2.08693313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16165018081665</t>
   </si>
   <si>
     <t xml:space="preserve">2.23293209075928</t>
@@ -4883,7 +4883,7 @@
     <t xml:space="preserve">2.18140292167664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32743072509766</t>
+    <t xml:space="preserve">2.32743096351624</t>
   </si>
   <si>
     <t xml:space="preserve">2.2949800491333</t>
@@ -4901,10 +4901,10 @@
     <t xml:space="preserve">2.33914923667908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33734631538391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41036009788513</t>
+    <t xml:space="preserve">2.33734607696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41036033630371</t>
   </si>
   <si>
     <t xml:space="preserve">2.51672601699829</t>
@@ -4922,22 +4922,22 @@
     <t xml:space="preserve">2.37971234321594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32472681999207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39143085479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42207860946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40044498443604</t>
+    <t xml:space="preserve">2.32472658157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39143061637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42207837104797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40044474601746</t>
   </si>
   <si>
     <t xml:space="preserve">2.41486716270447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4346981048584</t>
+    <t xml:space="preserve">2.43469834327698</t>
   </si>
   <si>
     <t xml:space="preserve">2.48247265815735</t>
@@ -4946,7 +4946,7 @@
     <t xml:space="preserve">2.48517680168152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54827523231506</t>
+    <t xml:space="preserve">2.54827547073364</t>
   </si>
   <si>
     <t xml:space="preserve">2.53926110267639</t>
@@ -4964,7 +4964,7 @@
     <t xml:space="preserve">2.06962871551514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07413601875305</t>
+    <t xml:space="preserve">2.07413578033447</t>
   </si>
   <si>
     <t xml:space="preserve">2.01644563674927</t>
@@ -4982,16 +4982,16 @@
     <t xml:space="preserve">2.07593846321106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99210774898529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01554417610168</t>
+    <t xml:space="preserve">1.99210786819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01554441452026</t>
   </si>
   <si>
     <t xml:space="preserve">2.02185416221619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07683968544006</t>
+    <t xml:space="preserve">2.07683992385864</t>
   </si>
   <si>
     <t xml:space="preserve">2.06422019004822</t>
@@ -5000,19 +5000,19 @@
     <t xml:space="preserve">2.04889631271362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06692457199097</t>
+    <t xml:space="preserve">2.06692433357239</t>
   </si>
   <si>
     <t xml:space="preserve">2.09937500953674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09847354888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13092422485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12731862068176</t>
+    <t xml:space="preserve">2.09847378730774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13092446327209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12731838226318</t>
   </si>
   <si>
     <t xml:space="preserve">2.16878318786621</t>
@@ -5024,10 +5024,10 @@
     <t xml:space="preserve">2.26252961158752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27334642410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36619138717651</t>
+    <t xml:space="preserve">2.27334666252136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36619114875793</t>
   </si>
   <si>
     <t xml:space="preserve">2.40675473213196</t>
@@ -5039,7 +5039,7 @@
     <t xml:space="preserve">2.47435998916626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46444439888</t>
+    <t xml:space="preserve">2.46444463729858</t>
   </si>
   <si>
     <t xml:space="preserve">2.29858589172363</t>
@@ -5048,13 +5048,13 @@
     <t xml:space="preserve">2.3905291557312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29407906532288</t>
+    <t xml:space="preserve">2.2940788269043</t>
   </si>
   <si>
     <t xml:space="preserve">2.25802254676819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29678297042847</t>
+    <t xml:space="preserve">2.29678320884705</t>
   </si>
   <si>
     <t xml:space="preserve">2.25982522964478</t>
@@ -5072,10 +5072,10 @@
     <t xml:space="preserve">2.4058530330658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45993781089783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44461369514465</t>
+    <t xml:space="preserve">2.45993757247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44461345672607</t>
   </si>
   <si>
     <t xml:space="preserve">2.44371223449707</t>
@@ -5084,7 +5084,7 @@
     <t xml:space="preserve">2.42838835716248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43379688262939</t>
+    <t xml:space="preserve">2.43379664421082</t>
   </si>
   <si>
     <t xml:space="preserve">2.46398329734802</t>
@@ -5937,6 +5937,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.42600011825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50600004196167</t>
   </si>
 </sst>
 </file>
@@ -62906,7 +62909,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6494675926</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>12466852</v>
@@ -62927,6 +62930,32 @@
         <v>1974</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6494675926</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>12113034</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>5.50799989700317</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>5.32999992370605</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>5.44600009918213</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>5.50600004196167</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="1980">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">BPE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37296724319458</t>
+    <t xml:space="preserve">3.37296795845032</t>
   </si>
   <si>
     <t xml:space="preserve">3.22311282157898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14941358566284</t>
+    <t xml:space="preserve">3.14941334724426</t>
   </si>
   <si>
     <t xml:space="preserve">3.07817053794861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08062767982483</t>
+    <t xml:space="preserve">3.08062791824341</t>
   </si>
   <si>
     <t xml:space="preserve">3.05606079101562</t>
@@ -65,28 +65,28 @@
     <t xml:space="preserve">3.2034592628479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03886461257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77354741096497</t>
+    <t xml:space="preserve">3.0388650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77354764938354</t>
   </si>
   <si>
     <t xml:space="preserve">2.76126432418823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55981945991516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84233355522156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81039714813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73669791221619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89637923240662</t>
+    <t xml:space="preserve">2.55981922149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84233331680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81039690971375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73669767379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8963794708252</t>
   </si>
   <si>
     <t xml:space="preserve">2.77846050262451</t>
@@ -95,25 +95,25 @@
     <t xml:space="preserve">2.56964635848999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70230484008789</t>
+    <t xml:space="preserve">2.70230436325073</t>
   </si>
   <si>
     <t xml:space="preserve">2.63597559928894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45664095878601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25323081016541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26207494735718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21490716934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95057260990143</t>
+    <t xml:space="preserve">2.45664119720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25323057174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2620747089386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21490693092346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95057237148285</t>
   </si>
   <si>
     <t xml:space="preserve">1.90831863880157</t>
@@ -122,64 +122,64 @@
     <t xml:space="preserve">2.03999423980713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84444582462311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05669927597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26502227783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.375079870224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43207478523254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41733455657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27288413047791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50331735610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40849041938782</t>
+    <t xml:space="preserve">1.84444570541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05669903755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26502251625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37508010864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43207454681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41733431816101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27288436889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50331711769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40849018096924</t>
   </si>
   <si>
     <t xml:space="preserve">2.25519609451294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31120705604553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35444450378418</t>
+    <t xml:space="preserve">2.31120753288269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35444474220276</t>
   </si>
   <si>
     <t xml:space="preserve">2.31415557861328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34854793548584</t>
+    <t xml:space="preserve">2.34854817390442</t>
   </si>
   <si>
     <t xml:space="preserve">2.46401047706604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42126512527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43109178543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30531191825867</t>
+    <t xml:space="preserve">2.42126488685608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43109154701233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30531144142151</t>
   </si>
   <si>
     <t xml:space="preserve">2.27190136909485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29745078086853</t>
+    <t xml:space="preserve">2.29745030403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.31808614730835</t>
@@ -188,46 +188,46 @@
     <t xml:space="preserve">2.51068663597107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54508018493652</t>
+    <t xml:space="preserve">2.5450804233551</t>
   </si>
   <si>
     <t xml:space="preserve">2.4615535736084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2945020198822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3200511932373</t>
+    <t xml:space="preserve">2.29450249671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32005143165588</t>
   </si>
   <si>
     <t xml:space="preserve">2.34068703651428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33479166030884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30039811134338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23750829696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14513874053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12351989746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05571675300598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09305810928345</t>
+    <t xml:space="preserve">2.33479142189026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3003978729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23750805854797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14513850212097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12351965904236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0557165145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09305787086487</t>
   </si>
   <si>
     <t xml:space="preserve">1.97415637969971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96334683895111</t>
+    <t xml:space="preserve">1.96334636211395</t>
   </si>
   <si>
     <t xml:space="preserve">1.84739363193512</t>
@@ -239,58 +239,58 @@
     <t xml:space="preserve">2.21392512321472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12548565864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36918449401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47629404067993</t>
+    <t xml:space="preserve">2.12548589706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36918425559998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47629356384277</t>
   </si>
   <si>
     <t xml:space="preserve">2.48366355895996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4006290435791</t>
+    <t xml:space="preserve">2.40062975883484</t>
   </si>
   <si>
     <t xml:space="preserve">2.47138023376465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54999303817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56227588653564</t>
+    <t xml:space="preserve">2.54999279975891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56227564811707</t>
   </si>
   <si>
     <t xml:space="preserve">2.47383737564087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55490612983704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51560020446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61386585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50822997093201</t>
+    <t xml:space="preserve">2.55490636825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51560044288635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6138653755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50822973251343</t>
   </si>
   <si>
     <t xml:space="preserve">2.41635155677795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31022524833679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28467607498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22080302238464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16282629966736</t>
+    <t xml:space="preserve">2.31022477149963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28467583656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22080326080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16282606124878</t>
   </si>
   <si>
     <t xml:space="preserve">2.15693020820618</t>
@@ -299,85 +299,85 @@
     <t xml:space="preserve">2.15103483200073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11762428283691</t>
+    <t xml:space="preserve">2.11762452125549</t>
   </si>
   <si>
     <t xml:space="preserve">2.11467623710632</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14710402488708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26600503921509</t>
+    <t xml:space="preserve">2.14710450172424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26600527763367</t>
   </si>
   <si>
     <t xml:space="preserve">2.1598789691925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1873927116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14416718482971</t>
+    <t xml:space="preserve">2.18739295005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14416766166687</t>
   </si>
   <si>
     <t xml:space="preserve">2.31304693222046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42864918708801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38140296936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38743472099304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41055512428284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2859058380127</t>
+    <t xml:space="preserve">2.42864871025085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38140249252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38743424415588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41055488586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28590559959412</t>
   </si>
   <si>
     <t xml:space="preserve">2.18739247322083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25675439834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16628265380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15622997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18437623977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22559189796448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07983255386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95317232608795</t>
+    <t xml:space="preserve">2.25675463676453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16628289222717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15623021125793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18437647819519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2255916595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0798327922821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95317256450653</t>
   </si>
   <si>
     <t xml:space="preserve">1.89788472652435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8918536901474</t>
+    <t xml:space="preserve">1.89185345172882</t>
   </si>
   <si>
     <t xml:space="preserve">1.8425966501236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.025550365448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11702609062195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17130875587463</t>
+    <t xml:space="preserve">2.02555012702942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11702561378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17130851745605</t>
   </si>
   <si>
     <t xml:space="preserve">2.16226196289062</t>
@@ -386,88 +386,88 @@
     <t xml:space="preserve">2.32812547683716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75514137744904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73704707622528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69583189487457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60335063934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64758121967316</t>
+    <t xml:space="preserve">1.75514149665833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73704695701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69583177566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60335040092468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64758110046387</t>
   </si>
   <si>
     <t xml:space="preserve">1.56816709041595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46261775493622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46362316608429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35907804965973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29775857925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50785291194916</t>
+    <t xml:space="preserve">1.46261763572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.463623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35907816886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29775869846344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50785267353058</t>
   </si>
   <si>
     <t xml:space="preserve">1.57821977138519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70688986778259</t>
+    <t xml:space="preserve">1.70688998699188</t>
   </si>
   <si>
     <t xml:space="preserve">1.62144494056702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6908061504364</t>
+    <t xml:space="preserve">1.69080638885498</t>
   </si>
   <si>
     <t xml:space="preserve">1.71091067790985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72096335887909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70487904548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72297346591949</t>
+    <t xml:space="preserve">1.72096359729767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70487916469574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72297370433807</t>
   </si>
   <si>
     <t xml:space="preserve">1.77826130390167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76519334316254</t>
+    <t xml:space="preserve">1.76519310474396</t>
   </si>
   <si>
     <t xml:space="preserve">1.71794712543488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72598898410797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80540287494659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74910950660706</t>
+    <t xml:space="preserve">1.72598910331726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80540311336517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74910998344421</t>
   </si>
   <si>
     <t xml:space="preserve">1.84460771083832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74006283283234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52494204044342</t>
+    <t xml:space="preserve">1.74006271362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52494192123413</t>
   </si>
   <si>
     <t xml:space="preserve">1.586261510849</t>
@@ -476,28 +476,28 @@
     <t xml:space="preserve">1.59430325031281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80238747596741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76921427249908</t>
+    <t xml:space="preserve">1.80238771438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76921403408051</t>
   </si>
   <si>
     <t xml:space="preserve">1.80439722537994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79334044456482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79233503341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76720440387726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75413608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68879532814026</t>
+    <t xml:space="preserve">1.79334056377411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79233491420746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76720428466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75413596630096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68879544734955</t>
   </si>
   <si>
     <t xml:space="preserve">1.71895265579224</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">1.61943423748016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63049209117889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72397899627686</t>
+    <t xml:space="preserve">1.63049221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72397887706757</t>
   </si>
   <si>
     <t xml:space="preserve">1.76117217540741</t>
@@ -518,10 +518,10 @@
     <t xml:space="preserve">1.70990538597107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67472195625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72196817398071</t>
+    <t xml:space="preserve">1.67472183704376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72196781635284</t>
   </si>
   <si>
     <t xml:space="preserve">1.7340315580368</t>
@@ -533,58 +533,58 @@
     <t xml:space="preserve">1.79032421112061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75815665721893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81746590137482</t>
+    <t xml:space="preserve">1.7581570148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81746554374695</t>
   </si>
   <si>
     <t xml:space="preserve">1.820481300354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78429317474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.750115275383</t>
+    <t xml:space="preserve">1.78429305553436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75011503696442</t>
   </si>
   <si>
     <t xml:space="preserve">1.70387446880341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64657592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67170655727386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6003350019455</t>
+    <t xml:space="preserve">1.64657580852509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67170667648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60033488273621</t>
   </si>
   <si>
     <t xml:space="preserve">1.67572748661041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67974817752838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60435569286346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57922506332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61440861225128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61742401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66467034816742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62647128105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70286893844604</t>
+    <t xml:space="preserve">1.67974829673767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60435593128204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57922518253326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61440849304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61742424964905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66467022895813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62647140026093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70286870002747</t>
   </si>
   <si>
     <t xml:space="preserve">1.70789539813995</t>
@@ -593,13 +593,13 @@
     <t xml:space="preserve">1.68376922607422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74408364295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84963345527649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89084780216217</t>
+    <t xml:space="preserve">1.74408340454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84963369369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89084792137146</t>
   </si>
   <si>
     <t xml:space="preserve">1.80841839313507</t>
@@ -611,22 +611,22 @@
     <t xml:space="preserve">1.94312059879303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04263877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1401469707489</t>
+    <t xml:space="preserve">2.04263854026794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14014720916748</t>
   </si>
   <si>
     <t xml:space="preserve">2.1351203918457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18940258026123</t>
+    <t xml:space="preserve">2.18940281867981</t>
   </si>
   <si>
     <t xml:space="preserve">2.09792685508728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13210487365723</t>
+    <t xml:space="preserve">2.13210511207581</t>
   </si>
   <si>
     <t xml:space="preserve">2.18236637115479</t>
@@ -635,40 +635,40 @@
     <t xml:space="preserve">2.17633461952209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14818835258484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13009405136108</t>
+    <t xml:space="preserve">2.14818859100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1300938129425</t>
   </si>
   <si>
     <t xml:space="preserve">2.01047110557556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98534059524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96322500705719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03158068656921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06977963447571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09993672370911</t>
+    <t xml:space="preserve">1.98534035682678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96322524547577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03158116340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06978011131287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09993696212769</t>
   </si>
   <si>
     <t xml:space="preserve">2.10094261169434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07882690429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06877422332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00846028327942</t>
+    <t xml:space="preserve">2.07882714271545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06877398490906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00845980644226</t>
   </si>
   <si>
     <t xml:space="preserve">1.92301523685455</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">1.88381171226501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87576866149902</t>
+    <t xml:space="preserve">1.87576913833618</t>
   </si>
   <si>
     <t xml:space="preserve">1.91396868228912</t>
@@ -686,13 +686,13 @@
     <t xml:space="preserve">1.90391600131989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90994715690613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88079535961151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90492188930511</t>
+    <t xml:space="preserve">1.90994703769684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88079524040222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90492177009583</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771732330322</t>
@@ -704,13 +704,13 @@
     <t xml:space="preserve">2.15321469306946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3773820400238</t>
+    <t xml:space="preserve">2.37738180160522</t>
   </si>
   <si>
     <t xml:space="preserve">2.41155982017517</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37436604499817</t>
+    <t xml:space="preserve">2.37436628341675</t>
   </si>
   <si>
     <t xml:space="preserve">2.41859674453735</t>
@@ -722,13 +722,13 @@
     <t xml:space="preserve">2.4296543598175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49499464035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51560211181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49801015853882</t>
+    <t xml:space="preserve">2.4949951171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51560235023499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49800992012024</t>
   </si>
   <si>
     <t xml:space="preserve">2.51308941841125</t>
@@ -740,16 +740,16 @@
     <t xml:space="preserve">2.59350776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6010468006134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54324626922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64879608154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74931931495667</t>
+    <t xml:space="preserve">2.60104703903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54324674606323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64879584312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74931907653809</t>
   </si>
   <si>
     <t xml:space="preserve">2.70408391952515</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">2.66387414932251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53068065643311</t>
+    <t xml:space="preserve">2.53068089485168</t>
   </si>
   <si>
     <t xml:space="preserve">2.51811456680298</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">2.64376950263977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68649244308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69654440879822</t>
+    <t xml:space="preserve">2.68649220466614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6965446472168</t>
   </si>
   <si>
     <t xml:space="preserve">2.84230351448059</t>
@@ -782,37 +782,37 @@
     <t xml:space="preserve">2.88753938674927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81968593597412</t>
+    <t xml:space="preserve">2.81968569755554</t>
   </si>
   <si>
     <t xml:space="preserve">2.82722496986389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86240816116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81717300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68397927284241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63371706008911</t>
+    <t xml:space="preserve">2.86240839958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81717276573181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68397903442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63371682167053</t>
   </si>
   <si>
     <t xml:space="preserve">2.69403100013733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70659637451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77193713188171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61361217498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52314114570618</t>
+    <t xml:space="preserve">2.7065966129303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77193665504456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61361241340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5231409072876</t>
   </si>
   <si>
     <t xml:space="preserve">2.55329823493958</t>
@@ -827,13 +827,13 @@
     <t xml:space="preserve">2.48092150688171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41759157180786</t>
+    <t xml:space="preserve">2.41759181022644</t>
   </si>
   <si>
     <t xml:space="preserve">2.33415675163269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26177954673767</t>
+    <t xml:space="preserve">2.26177978515625</t>
   </si>
   <si>
     <t xml:space="preserve">2.23765444755554</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">2.25172781944275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2607753276825</t>
+    <t xml:space="preserve">2.26077485084534</t>
   </si>
   <si>
     <t xml:space="preserve">2.36230397224426</t>
@@ -866,82 +866,82 @@
     <t xml:space="preserve">2.20146560668945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20649194717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27987384796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35426163673401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3150577545166</t>
+    <t xml:space="preserve">2.20649170875549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27987408638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35426187515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31505751609802</t>
   </si>
   <si>
     <t xml:space="preserve">2.2557487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25976943969727</t>
+    <t xml:space="preserve">2.25976920127869</t>
   </si>
   <si>
     <t xml:space="preserve">2.37235617637634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34420919418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41457581520081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42362332344055</t>
+    <t xml:space="preserve">2.34420943260193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41457605361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42362308502197</t>
   </si>
   <si>
     <t xml:space="preserve">2.49197936058044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46383237838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41960167884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43468046188354</t>
+    <t xml:space="preserve">2.46383213996887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41960144042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43468070030212</t>
   </si>
   <si>
     <t xml:space="preserve">2.38944530487061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35727739334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35225081443787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26982116699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28691053390503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28490042686462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30198955535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479649543762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21051287651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19241881370544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30399966239929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46282696723938</t>
+    <t xml:space="preserve">2.35727715492249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35225105285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26982164382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28691077232361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2849006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30198907852173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479625701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2105131149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1924192905426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30399990081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4628267288208</t>
   </si>
   <si>
     <t xml:space="preserve">2.49901556968689</t>
@@ -950,64 +950,64 @@
     <t xml:space="preserve">2.44473314285278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52062797546387</t>
+    <t xml:space="preserve">2.52062821388245</t>
   </si>
   <si>
     <t xml:space="preserve">2.58596897125244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62366485595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55832481384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53821992874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39447093009949</t>
+    <t xml:space="preserve">2.62366509437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55832433700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53822016716003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39447069168091</t>
   </si>
   <si>
     <t xml:space="preserve">2.35627174377441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44272232055664</t>
+    <t xml:space="preserve">2.44272255897522</t>
   </si>
   <si>
     <t xml:space="preserve">2.402512550354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34722471237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32008409500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35526728630066</t>
+    <t xml:space="preserve">2.34722495079041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32008385658264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35526704788208</t>
   </si>
   <si>
     <t xml:space="preserve">2.34406590461731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34508442878723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37766861915588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37461400032043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3471200466156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27584171295166</t>
+    <t xml:space="preserve">2.34508419036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37766885757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37461423873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34712052345276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27584147453308</t>
   </si>
   <si>
     <t xml:space="preserve">2.276859998703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21983671188354</t>
+    <t xml:space="preserve">2.21983695030212</t>
   </si>
   <si>
     <t xml:space="preserve">2.26667714118958</t>
@@ -1016,34 +1016,34 @@
     <t xml:space="preserve">2.23816585540771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.197434425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16383171081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1679048538208</t>
+    <t xml:space="preserve">2.19743466377258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16383147239685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16790509223938</t>
   </si>
   <si>
     <t xml:space="preserve">2.24834799766541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24122047424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19437956809998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24936652183533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22696447372437</t>
+    <t xml:space="preserve">2.24121999740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19438004493713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24936628341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22696423530579</t>
   </si>
   <si>
     <t xml:space="preserve">2.12615489959717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1393928527832</t>
+    <t xml:space="preserve">2.13939237594604</t>
   </si>
   <si>
     <t xml:space="preserve">2.08440613746643</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">2.17808699607849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16892313957214</t>
+    <t xml:space="preserve">2.16892290115356</t>
   </si>
   <si>
     <t xml:space="preserve">2.22594618797302</t>
@@ -1064,13 +1064,13 @@
     <t xml:space="preserve">2.25954937934875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24732995033264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22289133071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36646819114685</t>
+    <t xml:space="preserve">2.24732971191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22289156913757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36646795272827</t>
   </si>
   <si>
     <t xml:space="preserve">2.44691109657288</t>
@@ -1079,10 +1079,10 @@
     <t xml:space="preserve">2.38785171508789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39396142959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38683319091797</t>
+    <t xml:space="preserve">2.39396166801453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38683295249939</t>
   </si>
   <si>
     <t xml:space="preserve">2.41941833496094</t>
@@ -1094,28 +1094,28 @@
     <t xml:space="preserve">2.51513600349426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52226376533508</t>
+    <t xml:space="preserve">2.5222635269165</t>
   </si>
   <si>
     <t xml:space="preserve">2.52022767066956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53550148010254</t>
+    <t xml:space="preserve">2.53550124168396</t>
   </si>
   <si>
     <t xml:space="preserve">2.45302128791809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.469313621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40312576293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37665128707886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3481388092041</t>
+    <t xml:space="preserve">2.46931338310242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40312623977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37665104866028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34813904762268</t>
   </si>
   <si>
     <t xml:space="preserve">2.3827600479126</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">2.36443114280701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41025328636169</t>
+    <t xml:space="preserve">2.41025352478027</t>
   </si>
   <si>
     <t xml:space="preserve">2.55586671829224</t>
@@ -1142,16 +1142,16 @@
     <t xml:space="preserve">2.50291705131531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41432666778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49477005004883</t>
+    <t xml:space="preserve">2.41432690620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477028846741</t>
   </si>
   <si>
     <t xml:space="preserve">2.48356938362122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45607590675354</t>
+    <t xml:space="preserve">2.45607542991638</t>
   </si>
   <si>
     <t xml:space="preserve">2.42349147796631</t>
@@ -1160,37 +1160,37 @@
     <t xml:space="preserve">2.3929431438446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41636276245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42654585838318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36341333389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38887023925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40923523902893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44182062149048</t>
+    <t xml:space="preserve">2.41636300086975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42654609680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36341309547424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38887000083923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40923547744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44182014465332</t>
   </si>
   <si>
     <t xml:space="preserve">2.40516233444214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36748647689819</t>
+    <t xml:space="preserve">2.36748623847961</t>
   </si>
   <si>
     <t xml:space="preserve">2.32675528526306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30638980865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37257790565491</t>
+    <t xml:space="preserve">2.30639004707336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37257766723633</t>
   </si>
   <si>
     <t xml:space="preserve">2.44589352607727</t>
@@ -1199,19 +1199,19 @@
     <t xml:space="preserve">2.39701628684998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33591961860657</t>
+    <t xml:space="preserve">2.33591985702515</t>
   </si>
   <si>
     <t xml:space="preserve">2.35730338096619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38581585884094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43571019172668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38174176216125</t>
+    <t xml:space="preserve">2.38581538200378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43571043014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38174200057983</t>
   </si>
   <si>
     <t xml:space="preserve">2.45200276374817</t>
@@ -1229,67 +1229,67 @@
     <t xml:space="preserve">2.61950945854187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61187195777893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5344831943512</t>
+    <t xml:space="preserve">2.61187171936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53448295593262</t>
   </si>
   <si>
     <t xml:space="preserve">2.49171543121338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35628485679626</t>
+    <t xml:space="preserve">2.35628509521484</t>
   </si>
   <si>
     <t xml:space="preserve">2.28704237937927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23714756965637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26158547401428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23612880706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23001885414124</t>
+    <t xml:space="preserve">2.23714733123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26158571243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23612856864929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23001909255981</t>
   </si>
   <si>
     <t xml:space="preserve">2.15874052047729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16586804389954</t>
+    <t xml:space="preserve">2.16586756706238</t>
   </si>
   <si>
     <t xml:space="preserve">2.187251329422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16281318664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12921023368835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14041113853455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13022804260254</t>
+    <t xml:space="preserve">2.16281342506409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12921047210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14041090011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13022828102112</t>
   </si>
   <si>
     <t xml:space="preserve">2.1241192817688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2015073299408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14550232887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11088109016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07116842269897</t>
+    <t xml:space="preserve">2.20150756835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14550256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11088132858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07116866111755</t>
   </si>
   <si>
     <t xml:space="preserve">1.98054218292236</t>
@@ -1298,10 +1298,10 @@
     <t xml:space="preserve">2.17706918716431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.153648853302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17299604415894</t>
+    <t xml:space="preserve">2.15364861488342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17299628257751</t>
   </si>
   <si>
     <t xml:space="preserve">2.12513732910156</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">2.13226509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10273504257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09051609039307</t>
+    <t xml:space="preserve">2.1027352809906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09051585197449</t>
   </si>
   <si>
     <t xml:space="preserve">2.1526300907135</t>
@@ -1328,61 +1328,61 @@
     <t xml:space="preserve">2.2524209022522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33999228477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27075028419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3318464756012</t>
+    <t xml:space="preserve">2.33999276161194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27074980735779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33184623718262</t>
   </si>
   <si>
     <t xml:space="preserve">2.31962752342224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29111504554749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36544919013977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31046342849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16484951972961</t>
+    <t xml:space="preserve">2.29111528396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36544942855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31046295166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16484928131104</t>
   </si>
   <si>
     <t xml:space="preserve">2.1220817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1159725189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18623352050781</t>
+    <t xml:space="preserve">2.11597275733948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18623375892639</t>
   </si>
   <si>
     <t xml:space="preserve">2.17401385307312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17605066299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1332836151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14448428153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20354461669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14346575737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.118008852005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15975856781006</t>
+    <t xml:space="preserve">2.17605090141296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13328337669373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14448404312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20354437828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14346551895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11800861358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15975880622864</t>
   </si>
   <si>
     <t xml:space="preserve">2.16179490089417</t>
@@ -1397,13 +1397,10 @@
     <t xml:space="preserve">2.32166385650635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29620718955994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25140261650085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35526704788208</t>
+    <t xml:space="preserve">2.29620695114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25140285491943</t>
   </si>
   <si>
     <t xml:space="preserve">2.45098400115967</t>
@@ -1418,133 +1415,133 @@
     <t xml:space="preserve">2.37206864356995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39141535758972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37308645248413</t>
+    <t xml:space="preserve">2.39141511917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37308621406555</t>
   </si>
   <si>
     <t xml:space="preserve">2.30842590332031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31708168983459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39803457260132</t>
+    <t xml:space="preserve">2.31708145141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3980348110199</t>
   </si>
   <si>
     <t xml:space="preserve">2.34610271453857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31504511833191</t>
+    <t xml:space="preserve">2.31504535675049</t>
   </si>
   <si>
     <t xml:space="preserve">2.4352011680603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43978357315063</t>
+    <t xml:space="preserve">2.43978381156921</t>
   </si>
   <si>
     <t xml:space="preserve">2.42960071563721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.433673620224</t>
+    <t xml:space="preserve">2.43367338180542</t>
   </si>
   <si>
     <t xml:space="preserve">2.3853063583374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47593259811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47644186019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48102426528931</t>
+    <t xml:space="preserve">2.47593235969543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4764416217804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48102402687073</t>
   </si>
   <si>
     <t xml:space="preserve">2.4784779548645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50800728797913</t>
+    <t xml:space="preserve">2.50800776481628</t>
   </si>
   <si>
     <t xml:space="preserve">2.48713326454163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29773473739624</t>
+    <t xml:space="preserve">2.29773426055908</t>
   </si>
   <si>
     <t xml:space="preserve">2.39192461967468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42450976371765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34864830970764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39243388175964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33846545219421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34304714202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37054109573364</t>
+    <t xml:space="preserve">2.42451000213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34864807128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39243412017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33846521377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34304738044739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37054085731506</t>
   </si>
   <si>
     <t xml:space="preserve">2.37868690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3623948097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31657195091248</t>
+    <t xml:space="preserve">2.36239504814148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31657218933105</t>
   </si>
   <si>
     <t xml:space="preserve">2.32319116592407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30282592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3186092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29926156997681</t>
+    <t xml:space="preserve">2.30282616615295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31860899925232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29926180839539</t>
   </si>
   <si>
     <t xml:space="preserve">2.30129861831665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3903968334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3990523815155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40821719169617</t>
+    <t xml:space="preserve">2.39039731025696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39905214309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40821695327759</t>
   </si>
   <si>
     <t xml:space="preserve">2.43265604972839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48458743095398</t>
+    <t xml:space="preserve">2.48458790779114</t>
   </si>
   <si>
     <t xml:space="preserve">2.45505809783936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46167683601379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48815178871155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44283843040466</t>
+    <t xml:space="preserve">2.46167659759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48815155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44283819198608</t>
   </si>
   <si>
     <t xml:space="preserve">2.4122896194458</t>
@@ -1559,7 +1556,7 @@
     <t xml:space="preserve">2.42807364463806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40974497795105</t>
+    <t xml:space="preserve">2.40974473953247</t>
   </si>
   <si>
     <t xml:space="preserve">2.40210747718811</t>
@@ -1574,13 +1571,13 @@
     <t xml:space="preserve">2.55484867095947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59150671958923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62103629112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54415702819824</t>
+    <t xml:space="preserve">2.59150648117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62103605270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54415655136108</t>
   </si>
   <si>
     <t xml:space="preserve">2.54466605186462</t>
@@ -1589,10 +1586,10 @@
     <t xml:space="preserve">2.37563228607178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39753270149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43611788749695</t>
+    <t xml:space="preserve">2.39753246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43611812591553</t>
   </si>
   <si>
     <t xml:space="preserve">2.46271109580994</t>
@@ -1601,7 +1598,7 @@
     <t xml:space="preserve">2.43246817588806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38345336914062</t>
+    <t xml:space="preserve">2.38345384597778</t>
   </si>
   <si>
     <t xml:space="preserve">2.2442319393158</t>
@@ -1613,25 +1610,25 @@
     <t xml:space="preserve">2.13890314102173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1394248008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30784630775452</t>
+    <t xml:space="preserve">2.13942456245422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3078465461731</t>
   </si>
   <si>
     <t xml:space="preserve">2.24006032943726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16393160820007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16288948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20460295677185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14516067504883</t>
+    <t xml:space="preserve">2.16393184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16288924217224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20460319519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14516091346741</t>
   </si>
   <si>
     <t xml:space="preserve">2.23849654197693</t>
@@ -1643,13 +1640,13 @@
     <t xml:space="preserve">2.30158925056458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32974648475647</t>
+    <t xml:space="preserve">2.32974672317505</t>
   </si>
   <si>
     <t xml:space="preserve">2.26873922348022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25778889656067</t>
+    <t xml:space="preserve">2.25778913497925</t>
   </si>
   <si>
     <t xml:space="preserve">2.33443927764893</t>
@@ -1658,7 +1655,7 @@
     <t xml:space="preserve">2.39336109161377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32296800613403</t>
+    <t xml:space="preserve">2.32296824455261</t>
   </si>
   <si>
     <t xml:space="preserve">2.49399662017822</t>
@@ -1673,55 +1670,55 @@
     <t xml:space="preserve">2.42151761054993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44341826438904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45436763763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44498229026794</t>
+    <t xml:space="preserve">2.44341850280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45436787605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44498205184937</t>
   </si>
   <si>
     <t xml:space="preserve">2.44759011268616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43820428848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4861752986908</t>
+    <t xml:space="preserve">2.43820405006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48617553710938</t>
   </si>
   <si>
     <t xml:space="preserve">2.49451804161072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44602537155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40535378456116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.422039270401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.455411195755</t>
+    <t xml:space="preserve">2.44602560997009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40535354614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42203903198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45541095733643</t>
   </si>
   <si>
     <t xml:space="preserve">2.41213250160217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36728978157043</t>
+    <t xml:space="preserve">2.36728954315186</t>
   </si>
   <si>
     <t xml:space="preserve">2.41526079177856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41265344619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44811105728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48252534866333</t>
+    <t xml:space="preserve">2.41265320777893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44811081886292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48252582550049</t>
   </si>
   <si>
     <t xml:space="preserve">2.45801782608032</t>
@@ -1730,7 +1727,7 @@
     <t xml:space="preserve">2.49295353889465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48148226737976</t>
+    <t xml:space="preserve">2.48148250579834</t>
   </si>
   <si>
     <t xml:space="preserve">2.39283967018127</t>
@@ -1739,10 +1736,10 @@
     <t xml:space="preserve">2.3865818977356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38814687728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40900373458862</t>
+    <t xml:space="preserve">2.38814640045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40900349617004</t>
   </si>
   <si>
     <t xml:space="preserve">2.26665329933167</t>
@@ -1751,19 +1748,19 @@
     <t xml:space="preserve">2.24110341072083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20981740951538</t>
+    <t xml:space="preserve">2.20981764793396</t>
   </si>
   <si>
     <t xml:space="preserve">2.15506744384766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13473200798035</t>
+    <t xml:space="preserve">2.13473176956177</t>
   </si>
   <si>
     <t xml:space="preserve">2.13212490081787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08571767807007</t>
+    <t xml:space="preserve">2.08571743965149</t>
   </si>
   <si>
     <t xml:space="preserve">2.08623886108398</t>
@@ -1775,49 +1772,49 @@
     <t xml:space="preserve">2.13160347938538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11491727828979</t>
+    <t xml:space="preserve">2.11491751670837</t>
   </si>
   <si>
     <t xml:space="preserve">2.109703540802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10136103630066</t>
+    <t xml:space="preserve">2.10136079788208</t>
   </si>
   <si>
     <t xml:space="preserve">2.067467212677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08050298690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00228905677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98091018199921</t>
+    <t xml:space="preserve">2.08050322532654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00228929519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98091042041779</t>
   </si>
   <si>
     <t xml:space="preserve">1.99029636383057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06329584121704</t>
+    <t xml:space="preserve">2.06329560279846</t>
   </si>
   <si>
     <t xml:space="preserve">2.15141773223877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15558910369873</t>
+    <t xml:space="preserve">2.15558886528015</t>
   </si>
   <si>
     <t xml:space="preserve">2.21294593811035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20199656486511</t>
+    <t xml:space="preserve">2.20199632644653</t>
   </si>
   <si>
     <t xml:space="preserve">2.20408177375793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19678163528442</t>
+    <t xml:space="preserve">2.196781873703</t>
   </si>
   <si>
     <t xml:space="preserve">2.24736094474792</t>
@@ -1829,7 +1826,7 @@
     <t xml:space="preserve">2.25987529754639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21659708023071</t>
+    <t xml:space="preserve">2.21659660339355</t>
   </si>
   <si>
     <t xml:space="preserve">2.24214649200439</t>
@@ -1838,7 +1835,7 @@
     <t xml:space="preserve">2.26978254318237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29272484779358</t>
+    <t xml:space="preserve">2.292724609375</t>
   </si>
   <si>
     <t xml:space="preserve">2.07945990562439</t>
@@ -1850,22 +1847,22 @@
     <t xml:space="preserve">1.96266043186188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93710970878601</t>
+    <t xml:space="preserve">1.93710947036743</t>
   </si>
   <si>
     <t xml:space="preserve">1.94910299777985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91364586353302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88183856010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84429538249969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88444554805756</t>
+    <t xml:space="preserve">1.9136461019516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88183879852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84429550170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88444542884827</t>
   </si>
   <si>
     <t xml:space="preserve">1.84898817539215</t>
@@ -1880,13 +1877,13 @@
     <t xml:space="preserve">1.85993874073029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86254549026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82239556312561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82917416095734</t>
+    <t xml:space="preserve">1.86254560947418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82239544391632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82917451858521</t>
   </si>
   <si>
     <t xml:space="preserve">1.76243150234222</t>
@@ -1898,10 +1895,10 @@
     <t xml:space="preserve">1.6753523349762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71393835544586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70090281963348</t>
+    <t xml:space="preserve">1.71393847465515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70090270042419</t>
   </si>
   <si>
     <t xml:space="preserve">1.77598857879639</t>
@@ -1910,25 +1907,25 @@
     <t xml:space="preserve">1.76555991172791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7509593963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76138830184937</t>
+    <t xml:space="preserve">1.75095927715302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76138865947723</t>
   </si>
   <si>
     <t xml:space="preserve">1.83282423019409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76973128318787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75669550895691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78850293159485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80205988883972</t>
+    <t xml:space="preserve">1.76973140239716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75669538974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78850281238556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80206000804901</t>
   </si>
   <si>
     <t xml:space="preserve">1.81822419166565</t>
@@ -1940,16 +1937,16 @@
     <t xml:space="preserve">1.76764595508575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78224527835846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74991691112518</t>
+    <t xml:space="preserve">1.78224515914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74991703033447</t>
   </si>
   <si>
     <t xml:space="preserve">1.7660813331604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74574565887451</t>
+    <t xml:space="preserve">1.74574553966522</t>
   </si>
   <si>
     <t xml:space="preserve">1.80883824825287</t>
@@ -1961,19 +1958,19 @@
     <t xml:space="preserve">1.82031011581421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91781711578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85055303573608</t>
+    <t xml:space="preserve">1.91781723499298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85055291652679</t>
   </si>
   <si>
     <t xml:space="preserve">1.86723840236664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87662434577942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96318221092224</t>
+    <t xml:space="preserve">1.87662446498871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96318197250366</t>
   </si>
   <si>
     <t xml:space="preserve">1.92981004714966</t>
@@ -1982,40 +1979,40 @@
     <t xml:space="preserve">1.96578884124756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90321731567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87297427654266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8411670923233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82343852519989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81613874435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78798115253448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304579734802</t>
+    <t xml:space="preserve">1.90321743488312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87297439575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84116721153259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82343828678131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81613850593567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7879810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304567813873</t>
   </si>
   <si>
     <t xml:space="preserve">1.74470281600952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78016018867493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74626684188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73323118686676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7097669839859</t>
+    <t xml:space="preserve">1.78016006946564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74626648426056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73323106765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70976710319519</t>
   </si>
   <si>
     <t xml:space="preserve">1.75408852100372</t>
@@ -2024,55 +2021,55 @@
     <t xml:space="preserve">1.71863126754761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70715963840485</t>
+    <t xml:space="preserve">1.70715951919556</t>
   </si>
   <si>
     <t xml:space="preserve">1.76451671123505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77546715736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73636019229889</t>
+    <t xml:space="preserve">1.7754670381546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7363600730896</t>
   </si>
   <si>
     <t xml:space="preserve">1.72905957698822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73427391052246</t>
+    <t xml:space="preserve">1.73427402973175</t>
   </si>
   <si>
     <t xml:space="preserve">1.70507419109344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63937377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56168079376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59609520435333</t>
+    <t xml:space="preserve">1.6393735408783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5616809129715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59609496593475</t>
   </si>
   <si>
     <t xml:space="preserve">1.60235261917114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59296691417694</t>
+    <t xml:space="preserve">1.59296679496765</t>
   </si>
   <si>
     <t xml:space="preserve">1.60130965709686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59244513511658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56898069381714</t>
+    <t xml:space="preserve">1.59244501590729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56898081302643</t>
   </si>
   <si>
     <t xml:space="preserve">1.57367348670959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64250242710114</t>
+    <t xml:space="preserve">1.64250254631042</t>
   </si>
   <si>
     <t xml:space="preserve">1.62268793582916</t>
@@ -2081,10 +2078,10 @@
     <t xml:space="preserve">1.62685930728912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64093804359436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54134559631348</t>
+    <t xml:space="preserve">1.64093792438507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54134547710419</t>
   </si>
   <si>
     <t xml:space="preserve">1.5460376739502</t>
@@ -2093,10 +2090,10 @@
     <t xml:space="preserve">1.54864525794983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55125212669373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58775234222412</t>
+    <t xml:space="preserve">1.55125200748444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58775210380554</t>
   </si>
   <si>
     <t xml:space="preserve">1.57158815860748</t>
@@ -2108,58 +2105,58 @@
     <t xml:space="preserve">1.78120303153992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76295280456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75617396831512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83751726150513</t>
+    <t xml:space="preserve">1.76295304298401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7561742067337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83751738071442</t>
   </si>
   <si>
     <t xml:space="preserve">1.8302173614502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81457388401031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78537440299988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80623137950897</t>
+    <t xml:space="preserve">1.81457412242889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78537452220917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80623149871826</t>
   </si>
   <si>
     <t xml:space="preserve">1.82448136806488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83647406101227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88600993156433</t>
+    <t xml:space="preserve">1.83647394180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88601016998291</t>
   </si>
   <si>
     <t xml:space="preserve">1.9282454252243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92303192615509</t>
+    <t xml:space="preserve">1.92303168773651</t>
   </si>
   <si>
     <t xml:space="preserve">1.91677403450012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93241751194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87558102607727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85628879070282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84481704235077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85576736927032</t>
+    <t xml:space="preserve">1.93241775035858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87558126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85628890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84481680393219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85576713085175</t>
   </si>
   <si>
     <t xml:space="preserve">1.89330983161926</t>
@@ -2168,31 +2165,31 @@
     <t xml:space="preserve">1.93137454986572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94597387313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649577140808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92928838729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90269565582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89487445354462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87871026992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90843152999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90061008930206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89852440357208</t>
+    <t xml:space="preserve">1.94597411155701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9464955329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92928862571716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90269577503204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89487409591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87871038913727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90843141078949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90060997009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89852428436279</t>
   </si>
   <si>
     <t xml:space="preserve">1.92459571361542</t>
@@ -2204,25 +2201,25 @@
     <t xml:space="preserve">1.9287668466568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93085300922394</t>
+    <t xml:space="preserve">1.93085324764252</t>
   </si>
   <si>
     <t xml:space="preserve">1.94753873348236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94858145713806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9793461561203</t>
+    <t xml:space="preserve">1.94858169555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97934591770172</t>
   </si>
   <si>
     <t xml:space="preserve">2.0163676738739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06955361366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10448884963989</t>
+    <t xml:space="preserve">2.06955337524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10448908805847</t>
   </si>
   <si>
     <t xml:space="preserve">2.16028165817261</t>
@@ -2234,156 +2231,159 @@
     <t xml:space="preserve">2.15976047515869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14098954200745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17592477798462</t>
+    <t xml:space="preserve">2.14098906517029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17592453956604</t>
   </si>
   <si>
     <t xml:space="preserve">2.19365358352661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19991040229797</t>
+    <t xml:space="preserve">2.19991064071655</t>
   </si>
   <si>
     <t xml:space="preserve">2.23380374908447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19782519340515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19104623794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14568257331848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13368916511536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08780336380005</t>
+    <t xml:space="preserve">2.19782495498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1910457611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1456823348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1336886882782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08780360221863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06486034393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03357458114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05182504653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01584625244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0612108707428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00609564781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95326089859009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88640916347504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581798553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85513985157013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85621762275696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84651398658752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83357441425323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82440912723541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80985248088837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84166181087494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80823576450348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78667092323303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78343546390533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8395049571991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85675656795502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83573114871979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85783541202545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85136532783508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86538279056549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90743470191956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94301807880402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94086110591888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97374784946442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95218312740326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95110464096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96242582798004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93169593811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92145216464996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96080899238586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03736519813538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09666895866394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10098195075989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08211207389832</t>
   </si>
   <si>
     <t xml:space="preserve">2.06486058235168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03357481956482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05182480812073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01584625244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0612108707428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00609564781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95326054096222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174793243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88640916347504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581810474396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85513997077942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85621774196625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84651398658752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83357453346252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82440912723541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80985236167908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84166193008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80823576450348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78667092323303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78343546390533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8395049571991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8567568063736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83573114871979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85783517360687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85136544704437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8653826713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90743482112885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94301784038544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94086146354675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97374784946442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95218312740326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95110487937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96242606639862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93169581890106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92145240306854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96080899238586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03736519813538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09666919708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10098195075989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08211231231689</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.07348656654358</t>
   </si>
   <si>
@@ -2402,25 +2402,25 @@
     <t xml:space="preserve">2.04653024673462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02065229415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0271213054657</t>
+    <t xml:space="preserve">2.02065253257751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02712154388428</t>
   </si>
   <si>
     <t xml:space="preserve">2.01633954048157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9651221036911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94894754886627</t>
+    <t xml:space="preserve">1.96512186527252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94894778728485</t>
   </si>
   <si>
     <t xml:space="preserve">1.92846131324768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90204346179962</t>
+    <t xml:space="preserve">1.90204358100891</t>
   </si>
   <si>
     <t xml:space="preserve">1.82764446735382</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">1.81632244586945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8648442029953</t>
+    <t xml:space="preserve">1.86484444141388</t>
   </si>
   <si>
     <t xml:space="preserve">1.83627033233643</t>
@@ -2438,10 +2438,10 @@
     <t xml:space="preserve">1.86430513858795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83842623233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87347042560577</t>
+    <t xml:space="preserve">1.83842611312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87347030639648</t>
   </si>
   <si>
     <t xml:space="preserve">1.72520971298218</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">1.70795798301697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62385368347168</t>
+    <t xml:space="preserve">1.62385380268097</t>
   </si>
   <si>
     <t xml:space="preserve">1.65943610668182</t>
@@ -2462,25 +2462,25 @@
     <t xml:space="preserve">1.67614948749542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6227753162384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65081000328064</t>
+    <t xml:space="preserve">1.62277519702911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65080988407135</t>
   </si>
   <si>
     <t xml:space="preserve">1.65727996826172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6432626247406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65458381175995</t>
+    <t xml:space="preserve">1.64326250553131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65458393096924</t>
   </si>
   <si>
     <t xml:space="preserve">1.72952270507812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71766233444214</t>
+    <t xml:space="preserve">1.71766245365143</t>
   </si>
   <si>
     <t xml:space="preserve">1.75162696838379</t>
@@ -2492,22 +2492,22 @@
     <t xml:space="preserve">1.74138343334198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77049660682678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78828763961792</t>
+    <t xml:space="preserve">1.77049672603607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78828752040863</t>
   </si>
   <si>
     <t xml:space="preserve">1.79367899894714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80230510234833</t>
+    <t xml:space="preserve">1.80230522155762</t>
   </si>
   <si>
     <t xml:space="preserve">1.86322677135468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88425254821777</t>
+    <t xml:space="preserve">1.88425242900848</t>
   </si>
   <si>
     <t xml:space="preserve">1.86592209339142</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">1.94247877597809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95164406299591</t>
+    <t xml:space="preserve">1.95164382457733</t>
   </si>
   <si>
     <t xml:space="preserve">1.8880261182785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89934825897217</t>
+    <t xml:space="preserve">1.89934813976288</t>
   </si>
   <si>
     <t xml:space="preserve">1.98237407207489</t>
@@ -2534,28 +2534,28 @@
     <t xml:space="preserve">1.92306995391846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89395654201508</t>
+    <t xml:space="preserve">1.89395678043365</t>
   </si>
   <si>
     <t xml:space="preserve">1.87400960922241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88533103466034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90959167480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88047862052917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89180088043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87454795837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8810179233551</t>
+    <t xml:space="preserve">1.88533067703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90959191322327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8804783821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89180052280426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8745481967926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88101780414581</t>
   </si>
   <si>
     <t xml:space="preserve">1.89233982563019</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">1.98291313648224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02550482749939</t>
+    <t xml:space="preserve">2.02550458908081</t>
   </si>
   <si>
     <t xml:space="preserve">2.05515623092651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11122536659241</t>
+    <t xml:space="preserve">2.11122560501099</t>
   </si>
   <si>
     <t xml:space="preserve">2.16621661186218</t>
@@ -2582,22 +2582,22 @@
     <t xml:space="preserve">2.18993854522705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21905088424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17807722091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17699956893921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19317293167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19371223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15219950675964</t>
+    <t xml:space="preserve">2.21905064582825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17807698249817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17699933052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19317317008972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19371247291565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15219974517822</t>
   </si>
   <si>
     <t xml:space="preserve">2.16028618812561</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">2.25193786621094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26703381538391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29992055892944</t>
+    <t xml:space="preserve">2.26703357696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29992079734802</t>
   </si>
   <si>
     <t xml:space="preserve">2.27458143234253</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">2.31232047080994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3290331363678</t>
+    <t xml:space="preserve">2.32903289794922</t>
   </si>
   <si>
     <t xml:space="preserve">2.34466814994812</t>
@@ -2639,25 +2639,25 @@
     <t xml:space="preserve">2.38240718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45141530036926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48430299758911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47028517723083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41098117828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42445945739746</t>
+    <t xml:space="preserve">2.45141553878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48430275917053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47028493881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41098093986511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42445921897888</t>
   </si>
   <si>
     <t xml:space="preserve">2.41852831840515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39696383476257</t>
+    <t xml:space="preserve">2.39696359634399</t>
   </si>
   <si>
     <t xml:space="preserve">2.36569380760193</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">2.36946821212769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32094645500183</t>
+    <t xml:space="preserve">2.32094669342041</t>
   </si>
   <si>
     <t xml:space="preserve">2.33819794654846</t>
@@ -2690,49 +2690,49 @@
     <t xml:space="preserve">2.39588522911072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42769408226013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40990281105042</t>
+    <t xml:space="preserve">2.42769384384155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40990257263184</t>
   </si>
   <si>
     <t xml:space="preserve">2.44009351730347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45842385292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43470215797424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43146800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40127635002136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41691112518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47729349136353</t>
+    <t xml:space="preserve">2.45842409133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43470239639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43146753311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40127658843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41691088676453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47729325294495</t>
   </si>
   <si>
     <t xml:space="preserve">2.47567629814148</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42499876022339</t>
+    <t xml:space="preserve">2.42499852180481</t>
   </si>
   <si>
     <t xml:space="preserve">2.4320068359375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45518946647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4886155128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49077200889587</t>
+    <t xml:space="preserve">2.45518922805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48861575126648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49077177047729</t>
   </si>
   <si>
     <t xml:space="preserve">2.47998976707458</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">2.46597218513489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45950269699097</t>
+    <t xml:space="preserve">2.45950245857239</t>
   </si>
   <si>
     <t xml:space="preserve">2.47891116142273</t>
@@ -2771,13 +2771,13 @@
     <t xml:space="preserve">2.41637182235718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33226823806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23738121986389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28320693969727</t>
+    <t xml:space="preserve">2.33226847648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23738145828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28320741653442</t>
   </si>
   <si>
     <t xml:space="preserve">2.33442425727844</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">2.35976362228394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33765983581543</t>
+    <t xml:space="preserve">2.33765959739685</t>
   </si>
   <si>
     <t xml:space="preserve">2.34682488441467</t>
@@ -2795,10 +2795,10 @@
     <t xml:space="preserve">2.35760712623596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44440650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42338061332703</t>
+    <t xml:space="preserve">2.44440674781799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42338085174561</t>
   </si>
   <si>
     <t xml:space="preserve">2.50371026992798</t>
@@ -2834,10 +2834,10 @@
     <t xml:space="preserve">1.79260051250458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74623537063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68261861801147</t>
+    <t xml:space="preserve">1.7462352514267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68261849880219</t>
   </si>
   <si>
     <t xml:space="preserve">1.64703631401062</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">1.42329823970795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35428977012634</t>
+    <t xml:space="preserve">1.35428988933563</t>
   </si>
   <si>
     <t xml:space="preserve">1.3575245141983</t>
@@ -2861,13 +2861,13 @@
     <t xml:space="preserve">1.26209890842438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25778579711914</t>
+    <t xml:space="preserve">1.25778591632843</t>
   </si>
   <si>
     <t xml:space="preserve">1.22435975074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24322926998138</t>
+    <t xml:space="preserve">1.24322938919067</t>
   </si>
   <si>
     <t xml:space="preserve">1.38825452327728</t>
@@ -2876,25 +2876,25 @@
     <t xml:space="preserve">1.58287990093231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62223613262177</t>
+    <t xml:space="preserve">1.62223625183105</t>
   </si>
   <si>
     <t xml:space="preserve">1.59689736366272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5656281709671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46481132507324</t>
+    <t xml:space="preserve">1.56562805175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46481120586395</t>
   </si>
   <si>
     <t xml:space="preserve">1.46427190303802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50955843925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4658887386322</t>
+    <t xml:space="preserve">1.50955855846405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46588885784149</t>
   </si>
   <si>
     <t xml:space="preserve">1.45402836799622</t>
@@ -2903,16 +2903,16 @@
     <t xml:space="preserve">1.44701933860779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47505402565002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4691241979599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39688038825989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41035854816437</t>
+    <t xml:space="preserve">1.47505390644073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46912431716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3968802690506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41035866737366</t>
   </si>
   <si>
     <t xml:space="preserve">1.3472808599472</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">1.20764696598053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15535128116608</t>
+    <t xml:space="preserve">1.15535140037537</t>
   </si>
   <si>
     <t xml:space="preserve">1.15373361110687</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">1.17529940605164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24916005134583</t>
+    <t xml:space="preserve">1.24915981292725</t>
   </si>
   <si>
     <t xml:space="preserve">1.26910710334778</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">1.21411609649658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18823826313019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18608152866364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17206394672394</t>
+    <t xml:space="preserve">1.1882381439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18608129024506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17206382751465</t>
   </si>
   <si>
     <t xml:space="preserve">1.15265607833862</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">1.13971626758575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13216876983643</t>
+    <t xml:space="preserve">1.13216865062714</t>
   </si>
   <si>
     <t xml:space="preserve">1.09442961215973</t>
@@ -2978,10 +2978,10 @@
     <t xml:space="preserve">1.08580350875854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08202993869781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12548661231995</t>
+    <t xml:space="preserve">1.08202981948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12548649311066</t>
   </si>
   <si>
     <t xml:space="preserve">1.06277656555176</t>
@@ -3005,13 +3005,13 @@
     <t xml:space="preserve">1.17664480209351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22395300865173</t>
+    <t xml:space="preserve">1.22395288944244</t>
   </si>
   <si>
     <t xml:space="preserve">1.18104648590088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21020078659058</t>
+    <t xml:space="preserve">1.21020066738129</t>
   </si>
   <si>
     <t xml:space="preserve">1.23220479488373</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">1.27181112766266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27236127853394</t>
+    <t xml:space="preserve">1.27236115932465</t>
   </si>
   <si>
     <t xml:space="preserve">1.39613223075867</t>
@@ -3035,19 +3035,19 @@
     <t xml:space="preserve">1.37027740478516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28281307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25365817546844</t>
+    <t xml:space="preserve">1.28281319141388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25365829467773</t>
   </si>
   <si>
     <t xml:space="preserve">1.26521050930023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34827411174774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32131969928741</t>
+    <t xml:space="preserve">1.34827399253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3213198184967</t>
   </si>
   <si>
     <t xml:space="preserve">1.28501307964325</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">1.24815702438354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27896273136139</t>
+    <t xml:space="preserve">1.2789626121521</t>
   </si>
   <si>
     <t xml:space="preserve">1.21405112743378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22340261936188</t>
+    <t xml:space="preserve">1.22340273857117</t>
   </si>
   <si>
     <t xml:space="preserve">1.19534814357758</t>
@@ -3077,13 +3077,13 @@
     <t xml:space="preserve">1.19314813613892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20194947719574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19644844532013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23275434970856</t>
+    <t xml:space="preserve">1.20194959640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19644832611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23275423049927</t>
   </si>
   <si>
     <t xml:space="preserve">1.2190021276474</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">1.24100625514984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37082767486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37192809581757</t>
+    <t xml:space="preserve">1.37082755565643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37192797660828</t>
   </si>
   <si>
     <t xml:space="preserve">1.37907886505127</t>
@@ -3122,10 +3122,10 @@
     <t xml:space="preserve">1.35377514362335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33342134952545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27786231040955</t>
+    <t xml:space="preserve">1.33342146873474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27786219120026</t>
   </si>
   <si>
     <t xml:space="preserve">1.28171277046204</t>
@@ -3137,16 +3137,16 @@
     <t xml:space="preserve">1.22505342960358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17279434204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14253985881805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12768721580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19589829444885</t>
+    <t xml:space="preserve">1.17279446125031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14253997802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12768733501434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19589817523956</t>
   </si>
   <si>
     <t xml:space="preserve">1.28721392154694</t>
@@ -3161,19 +3161,19 @@
     <t xml:space="preserve">1.27401185035706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27731204032898</t>
+    <t xml:space="preserve">1.27731215953827</t>
   </si>
   <si>
     <t xml:space="preserve">1.28886437416077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26796054840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25420820713043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29216468334198</t>
+    <t xml:space="preserve">1.26796066761017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25420832633972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29216480255127</t>
   </si>
   <si>
     <t xml:space="preserve">1.2916145324707</t>
@@ -3185,10 +3185,10 @@
     <t xml:space="preserve">1.30921733379364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26575970649719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23165476322174</t>
+    <t xml:space="preserve">1.26575982570648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23165464401245</t>
   </si>
   <si>
     <t xml:space="preserve">1.22835350036621</t>
@@ -3197,16 +3197,16 @@
     <t xml:space="preserve">1.18929755687714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20084893703461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19479858875275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16234254837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17829549312592</t>
+    <t xml:space="preserve">1.2008490562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19479870796204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16234242916107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17829561233521</t>
   </si>
   <si>
     <t xml:space="preserve">1.2085508108139</t>
@@ -3215,10 +3215,10 @@
     <t xml:space="preserve">1.20524978637695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20469975471497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1898478269577</t>
+    <t xml:space="preserve">1.20469963550568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18984806537628</t>
   </si>
   <si>
     <t xml:space="preserve">1.19864916801453</t>
@@ -3233,19 +3233,19 @@
     <t xml:space="preserve">1.10898435115814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11118412017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0781786441803</t>
+    <t xml:space="preserve">1.11118423938751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07817852497101</t>
   </si>
   <si>
     <t xml:space="preserve">1.07542836666107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10348308086395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07267832756042</t>
+    <t xml:space="preserve">1.10348296165466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07267820835114</t>
   </si>
   <si>
     <t xml:space="preserve">1.09358143806458</t>
@@ -3266,7 +3266,7 @@
     <t xml:space="preserve">0.963436603546143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972376108169556</t>
+    <t xml:space="preserve">0.972375988960266</t>
   </si>
   <si>
     <t xml:space="preserve">0.977252185344696</t>
@@ -3275,10 +3275,10 @@
     <t xml:space="preserve">0.952465295791626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903704285621643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907361507415771</t>
+    <t xml:space="preserve">0.903704226016998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907361567020416</t>
   </si>
   <si>
     <t xml:space="preserve">0.902485311031342</t>
@@ -3290,7 +3290,7 @@
     <t xml:space="preserve">0.962623834609985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05648875236511</t>
+    <t xml:space="preserve">1.0564888715744</t>
   </si>
   <si>
     <t xml:space="preserve">0.989036083221436</t>
@@ -3302,16 +3302,16 @@
     <t xml:space="preserve">0.978064835071564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968312680721283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907767772674561</t>
+    <t xml:space="preserve">0.968312561511993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907767713069916</t>
   </si>
   <si>
     <t xml:space="preserve">0.842346668243408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831781804561615</t>
+    <t xml:space="preserve">0.83178174495697</t>
   </si>
   <si>
     <t xml:space="preserve">0.826499342918396</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">0.880136430263519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8516925573349</t>
+    <t xml:space="preserve">0.851692497730255</t>
   </si>
   <si>
     <t xml:space="preserve">0.978471159934998</t>
@@ -3341,10 +3341,10 @@
     <t xml:space="preserve">1.00691509246826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07233607769012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08493268489838</t>
+    <t xml:space="preserve">1.07233619689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08493280410767</t>
   </si>
   <si>
     <t xml:space="preserve">1.15116655826569</t>
@@ -3353,16 +3353,16 @@
     <t xml:space="preserve">1.15848064422607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20642912387848</t>
+    <t xml:space="preserve">1.20642900466919</t>
   </si>
   <si>
     <t xml:space="preserve">1.23202848434448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23487293720245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23893642425537</t>
+    <t xml:space="preserve">1.23487281799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23893630504608</t>
   </si>
   <si>
     <t xml:space="preserve">1.20683538913727</t>
@@ -3371,13 +3371,13 @@
     <t xml:space="preserve">1.22796523571014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19058156013489</t>
+    <t xml:space="preserve">1.19058179855347</t>
   </si>
   <si>
     <t xml:space="preserve">1.20764803886414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19464504718781</t>
+    <t xml:space="preserve">1.19464516639709</t>
   </si>
   <si>
     <t xml:space="preserve">1.20561623573303</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">1.1901752948761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19830214977264</t>
+    <t xml:space="preserve">1.19830203056335</t>
   </si>
   <si>
     <t xml:space="preserve">1.23284125328064</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">1.18448650836945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19180071353912</t>
+    <t xml:space="preserve">1.19180083274841</t>
   </si>
   <si>
     <t xml:space="preserve">1.18001675605774</t>
@@ -3416,13 +3416,13 @@
     <t xml:space="preserve">1.1324747800827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15807437896729</t>
+    <t xml:space="preserve">1.158074259758</t>
   </si>
   <si>
     <t xml:space="preserve">1.20277190208435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21902549266815</t>
+    <t xml:space="preserve">1.21902561187744</t>
   </si>
   <si>
     <t xml:space="preserve">1.21049249172211</t>
@@ -3431,10 +3431,10 @@
     <t xml:space="preserve">1.18814361095428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19789588451385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26169157028198</t>
+    <t xml:space="preserve">1.19789576530457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26169168949127</t>
   </si>
   <si>
     <t xml:space="preserve">1.33970928192139</t>
@@ -3443,16 +3443,16 @@
     <t xml:space="preserve">1.32467448711395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35189938545227</t>
+    <t xml:space="preserve">1.35189926624298</t>
   </si>
   <si>
     <t xml:space="preserve">1.35393118858337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3372710943222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31614124774933</t>
+    <t xml:space="preserve">1.33727121353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31614136695862</t>
   </si>
   <si>
     <t xml:space="preserve">1.3076080083847</t>
@@ -3470,16 +3470,16 @@
     <t xml:space="preserve">1.31654763221741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28038311004639</t>
+    <t xml:space="preserve">1.28038334846497</t>
   </si>
   <si>
     <t xml:space="preserve">1.24178075790405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27631974220276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.238529920578</t>
+    <t xml:space="preserve">1.27631986141205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23853003978729</t>
   </si>
   <si>
     <t xml:space="preserve">1.26656770706177</t>
@@ -3497,31 +3497,31 @@
     <t xml:space="preserve">1.44495165348053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5518194437027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51931238174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54409909248352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51606142520905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51321721076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53028345108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5079345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4803032875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4547039270401</t>
+    <t xml:space="preserve">1.55181956291199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5193122625351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54409897327423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51606154441833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51321709156036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53028357028961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50793468952179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48030340671539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45470380783081</t>
   </si>
   <si>
     <t xml:space="preserve">1.5124044418335</t>
@@ -3533,16 +3533,16 @@
     <t xml:space="preserve">1.49005556106567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51402986049652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47461473941803</t>
+    <t xml:space="preserve">1.51402974128723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47461462020874</t>
   </si>
   <si>
     <t xml:space="preserve">1.51362347602844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49777615070343</t>
+    <t xml:space="preserve">1.49777626991272</t>
   </si>
   <si>
     <t xml:space="preserve">1.50671565532684</t>
@@ -3551,7 +3551,7 @@
     <t xml:space="preserve">1.57010495662689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61236453056335</t>
+    <t xml:space="preserve">1.61236441135406</t>
   </si>
   <si>
     <t xml:space="preserve">1.60545670986176</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">1.60098695755005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58229517936707</t>
+    <t xml:space="preserve">1.58229529857635</t>
   </si>
   <si>
     <t xml:space="preserve">1.61724066734314</t>
@@ -3572,16 +3572,16 @@
     <t xml:space="preserve">1.66762709617615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65543675422668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58960938453674</t>
+    <t xml:space="preserve">1.6554366350174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58960950374603</t>
   </si>
   <si>
     <t xml:space="preserve">1.54978787899017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54816257953644</t>
+    <t xml:space="preserve">1.54816246032715</t>
   </si>
   <si>
     <t xml:space="preserve">1.56969857215881</t>
@@ -3599,19 +3599,19 @@
     <t xml:space="preserve">1.54369282722473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52500104904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54531824588776</t>
+    <t xml:space="preserve">1.52500116825104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54531812667847</t>
   </si>
   <si>
     <t xml:space="preserve">1.54328632354736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53678500652313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51077902317047</t>
+    <t xml:space="preserve">1.53678488731384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51077914237976</t>
   </si>
   <si>
     <t xml:space="preserve">1.51971864700317</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">1.52947080135345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53841018676758</t>
+    <t xml:space="preserve">1.53841030597687</t>
   </si>
   <si>
     <t xml:space="preserve">1.53719127178192</t>
@@ -3635,19 +3635,19 @@
     <t xml:space="preserve">1.50021421909332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46689403057098</t>
+    <t xml:space="preserve">1.46689414978027</t>
   </si>
   <si>
     <t xml:space="preserve">1.46933221817017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47664630413055</t>
+    <t xml:space="preserve">1.47664642333984</t>
   </si>
   <si>
     <t xml:space="preserve">1.52215671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5054966211319</t>
+    <t xml:space="preserve">1.50549650192261</t>
   </si>
   <si>
     <t xml:space="preserve">1.53922307491302</t>
@@ -3659,16 +3659,16 @@
     <t xml:space="preserve">1.52337574958801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54084849357605</t>
+    <t xml:space="preserve">1.54084837436676</t>
   </si>
   <si>
     <t xml:space="preserve">1.57091772556305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56319725513458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62374222278595</t>
+    <t xml:space="preserve">1.56319713592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62374210357666</t>
   </si>
   <si>
     <t xml:space="preserve">1.63837051391602</t>
@@ -3677,19 +3677,19 @@
     <t xml:space="preserve">1.6139897108078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6294310092926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63024353981018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63755786418915</t>
+    <t xml:space="preserve">1.62943089008331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63024365901947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63755798339844</t>
   </si>
   <si>
     <t xml:space="preserve">1.6066757440567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59164106845856</t>
+    <t xml:space="preserve">1.59164118766785</t>
   </si>
   <si>
     <t xml:space="preserve">1.62089776992798</t>
@@ -3701,19 +3701,19 @@
     <t xml:space="preserve">1.76312518119812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67853534221649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70009732246399</t>
+    <t xml:space="preserve">1.6785352230072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70009744167328</t>
   </si>
   <si>
     <t xml:space="preserve">1.68931615352631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68185257911682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68682837486267</t>
+    <t xml:space="preserve">1.68185245990753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68682825565338</t>
   </si>
   <si>
     <t xml:space="preserve">1.69512140750885</t>
@@ -3728,10 +3728,10 @@
     <t xml:space="preserve">1.69926810264587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68848705291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70258522033691</t>
+    <t xml:space="preserve">1.68848717212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7025853395462</t>
   </si>
   <si>
     <t xml:space="preserve">1.69014573097229</t>
@@ -3740,7 +3740,7 @@
     <t xml:space="preserve">1.68434035778046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69263339042664</t>
+    <t xml:space="preserve">1.69263350963593</t>
   </si>
   <si>
     <t xml:space="preserve">1.666095495224</t>
@@ -3749,7 +3749,7 @@
     <t xml:space="preserve">1.64287459850311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63084959983826</t>
+    <t xml:space="preserve">1.63084948062897</t>
   </si>
   <si>
     <t xml:space="preserve">1.59394502639771</t>
@@ -3758,19 +3758,19 @@
     <t xml:space="preserve">1.60928738117218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58813977241516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56699228286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58440780639648</t>
+    <t xml:space="preserve">1.58813989162445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56699216365814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58440792560577</t>
   </si>
   <si>
     <t xml:space="preserve">1.57735860347748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52718508243561</t>
+    <t xml:space="preserve">1.5271852016449</t>
   </si>
   <si>
     <t xml:space="preserve">1.5147453546524</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">1.46291315555573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46954762935638</t>
+    <t xml:space="preserve">1.46954751014709</t>
   </si>
   <si>
     <t xml:space="preserve">1.41937410831451</t>
@@ -3809,37 +3809,37 @@
     <t xml:space="preserve">1.41315412521362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40154373645782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3563460111618</t>
+    <t xml:space="preserve">1.40154385566711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35634589195251</t>
   </si>
   <si>
     <t xml:space="preserve">1.28751289844513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29787933826447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3144656419754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.337686419487</t>
+    <t xml:space="preserve">1.29787921905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31446552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33768653869629</t>
   </si>
   <si>
     <t xml:space="preserve">1.33893036842346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35924875736237</t>
+    <t xml:space="preserve">1.35924863815308</t>
   </si>
   <si>
     <t xml:space="preserve">1.34349167346954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34473562240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34846746921539</t>
+    <t xml:space="preserve">1.34473550319672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34846758842468</t>
   </si>
   <si>
     <t xml:space="preserve">1.36546838283539</t>
@@ -3848,19 +3848,19 @@
     <t xml:space="preserve">1.36505377292633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34639418125153</t>
+    <t xml:space="preserve">1.34639406204224</t>
   </si>
   <si>
     <t xml:space="preserve">1.35510194301605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49940288066864</t>
+    <t xml:space="preserve">1.49940299987793</t>
   </si>
   <si>
     <t xml:space="preserve">1.4960857629776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49028050899506</t>
+    <t xml:space="preserve">1.49028062820435</t>
   </si>
   <si>
     <t xml:space="preserve">1.53423428535461</t>
@@ -3878,10 +3878,10 @@
     <t xml:space="preserve">1.47037696838379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48032855987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45627868175507</t>
+    <t xml:space="preserve">1.48032867908478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45627856254578</t>
   </si>
   <si>
     <t xml:space="preserve">1.45130264759064</t>
@@ -3890,19 +3890,19 @@
     <t xml:space="preserve">1.48240196704865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48779249191284</t>
+    <t xml:space="preserve">1.48779261112213</t>
   </si>
   <si>
     <t xml:space="preserve">1.51889193058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49898838996887</t>
+    <t xml:space="preserve">1.49898827075958</t>
   </si>
   <si>
     <t xml:space="preserve">1.52262377738953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50479364395142</t>
+    <t xml:space="preserve">1.50479352474213</t>
   </si>
   <si>
     <t xml:space="preserve">1.52801430225372</t>
@@ -3956,10 +3956,10 @@
     <t xml:space="preserve">1.57155346870422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61177539825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60306751728058</t>
+    <t xml:space="preserve">1.6117752790451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60306739807129</t>
   </si>
   <si>
     <t xml:space="preserve">1.64163076877594</t>
@@ -4004,13 +4004,13 @@
     <t xml:space="preserve">1.70175611972809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66029036045074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6793646812439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57113885879517</t>
+    <t xml:space="preserve">1.66029024124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67936456203461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57113873958588</t>
   </si>
   <si>
     <t xml:space="preserve">1.56201636791229</t>
@@ -4022,16 +4022,16 @@
     <t xml:space="preserve">1.5877251625061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56906545162201</t>
+    <t xml:space="preserve">1.5690655708313</t>
   </si>
   <si>
     <t xml:space="preserve">1.59601831436157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59145712852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58357846736908</t>
+    <t xml:space="preserve">1.59145700931549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58357858657837</t>
   </si>
   <si>
     <t xml:space="preserve">1.59518897533417</t>
@@ -4049,10 +4049,10 @@
     <t xml:space="preserve">1.53174638748169</t>
   </si>
   <si>
-    <t xml:space="preserve">1.489865899086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49567115306854</t>
+    <t xml:space="preserve">1.48986577987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49567103385925</t>
   </si>
   <si>
     <t xml:space="preserve">1.48862183094025</t>
@@ -4064,19 +4064,19 @@
     <t xml:space="preserve">1.40734899044037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39615321159363</t>
+    <t xml:space="preserve">1.39615333080292</t>
   </si>
   <si>
     <t xml:space="preserve">1.39490926265717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43513107299805</t>
+    <t xml:space="preserve">1.43513095378876</t>
   </si>
   <si>
     <t xml:space="preserve">1.42144727706909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40817809104919</t>
+    <t xml:space="preserve">1.40817821025848</t>
   </si>
   <si>
     <t xml:space="preserve">1.45254671573639</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">1.43637502193451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54086887836456</t>
+    <t xml:space="preserve">1.54086875915527</t>
   </si>
   <si>
     <t xml:space="preserve">1.47535288333893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47286486625671</t>
+    <t xml:space="preserve">1.472864985466</t>
   </si>
   <si>
     <t xml:space="preserve">1.43678963184357</t>
@@ -4130,19 +4130,19 @@
     <t xml:space="preserve">1.59311580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58896911144257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60057950019836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59892094135284</t>
+    <t xml:space="preserve">1.58896899223328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60057938098907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59892082214355</t>
   </si>
   <si>
     <t xml:space="preserve">1.62711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62131237983704</t>
+    <t xml:space="preserve">1.62131249904633</t>
   </si>
   <si>
     <t xml:space="preserve">1.6055554151535</t>
@@ -4151,7 +4151,7 @@
     <t xml:space="preserve">1.59062778949738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56077229976654</t>
+    <t xml:space="preserve">1.56077241897583</t>
   </si>
   <si>
     <t xml:space="preserve">1.48820722103119</t>
@@ -4163,7 +4163,7 @@
     <t xml:space="preserve">1.55040609836578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58689570426941</t>
+    <t xml:space="preserve">1.5868958234787</t>
   </si>
   <si>
     <t xml:space="preserve">1.5263557434082</t>
@@ -4172,25 +4172,25 @@
     <t xml:space="preserve">1.537966132164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60804343223572</t>
+    <t xml:space="preserve">1.60804331302643</t>
   </si>
   <si>
     <t xml:space="preserve">1.63955736160278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62297093868256</t>
+    <t xml:space="preserve">1.62297105789185</t>
   </si>
   <si>
     <t xml:space="preserve">1.68268191814423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68019390106201</t>
+    <t xml:space="preserve">1.68019378185272</t>
   </si>
   <si>
     <t xml:space="preserve">1.70590257644653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64038670063019</t>
+    <t xml:space="preserve">1.64038681983948</t>
   </si>
   <si>
     <t xml:space="preserve">1.79049265384674</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">1.50189101696014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52925848960876</t>
+    <t xml:space="preserve">1.52925837039948</t>
   </si>
   <si>
     <t xml:space="preserve">1.37790822982788</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">1.10299015045166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16228604316711</t>
+    <t xml:space="preserve">1.1622861623764</t>
   </si>
   <si>
     <t xml:space="preserve">1.27839028835297</t>
@@ -4235,10 +4235,10 @@
     <t xml:space="preserve">1.18260443210602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17596983909607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22407019138336</t>
+    <t xml:space="preserve">1.17596971988678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22407007217407</t>
   </si>
   <si>
     <t xml:space="preserve">1.24894964694977</t>
@@ -4262,7 +4262,7 @@
     <t xml:space="preserve">1.28626883029938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2949765920639</t>
+    <t xml:space="preserve">1.29497671127319</t>
   </si>
   <si>
     <t xml:space="preserve">1.31156301498413</t>
@@ -4277,25 +4277,25 @@
     <t xml:space="preserve">1.31819748878479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33271050453186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27548766136169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27756106853485</t>
+    <t xml:space="preserve">1.33271062374115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27548778057098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27756094932556</t>
   </si>
   <si>
     <t xml:space="preserve">1.32814931869507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3260760307312</t>
+    <t xml:space="preserve">1.32607591152191</t>
   </si>
   <si>
     <t xml:space="preserve">1.28378081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28668355941772</t>
+    <t xml:space="preserve">1.28668344020844</t>
   </si>
   <si>
     <t xml:space="preserve">1.29995250701904</t>
@@ -4310,7 +4310,7 @@
     <t xml:space="preserve">1.36090731620789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34141826629639</t>
+    <t xml:space="preserve">1.34141838550568</t>
   </si>
   <si>
     <t xml:space="preserve">1.32731997966766</t>
@@ -4322,7 +4322,7 @@
     <t xml:space="preserve">1.32151472568512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31280696392059</t>
+    <t xml:space="preserve">1.3128068447113</t>
   </si>
   <si>
     <t xml:space="preserve">1.33105182647705</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.46623039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44840002059937</t>
+    <t xml:space="preserve">1.44840013980865</t>
   </si>
   <si>
     <t xml:space="preserve">1.54587614536285</t>
@@ -5949,6 +5949,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.42199993133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38000011444092</t>
   </si>
 </sst>
 </file>
@@ -19984,7 +19987,7 @@
         <v>3.13125896453857</v>
       </c>
       <c r="G527" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -20036,7 +20039,7 @@
         <v>3.25851202011108</v>
       </c>
       <c r="G529" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -20062,7 +20065,7 @@
         <v>3.25580501556396</v>
       </c>
       <c r="G530" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -20088,7 +20091,7 @@
         <v>3.27949595451355</v>
       </c>
       <c r="G531" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -20114,7 +20117,7 @@
         <v>3.15359592437744</v>
       </c>
       <c r="G532" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -20140,7 +20143,7 @@
         <v>3.17931699752808</v>
       </c>
       <c r="G533" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -20166,7 +20169,7 @@
         <v>3.15494894981384</v>
       </c>
       <c r="G534" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -20192,7 +20195,7 @@
         <v>3.15494894981384</v>
       </c>
       <c r="G535" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -20218,7 +20221,7 @@
         <v>3.06898498535156</v>
       </c>
       <c r="G536" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -20244,7 +20247,7 @@
         <v>3.08049201965332</v>
       </c>
       <c r="G537" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -20270,7 +20273,7 @@
         <v>3.18811702728271</v>
       </c>
       <c r="G538" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -20348,7 +20351,7 @@
         <v>3.11907505989075</v>
       </c>
       <c r="G541" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -20374,7 +20377,7 @@
         <v>3.0777850151062</v>
       </c>
       <c r="G542" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -20400,7 +20403,7 @@
         <v>3.23752903938293</v>
       </c>
       <c r="G543" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -20426,7 +20429,7 @@
         <v>3.24362111091614</v>
       </c>
       <c r="G544" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -20478,7 +20481,7 @@
         <v>3.23008298873901</v>
       </c>
       <c r="G546" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -20530,7 +20533,7 @@
         <v>3.23549795150757</v>
       </c>
       <c r="G548" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -20556,7 +20559,7 @@
         <v>3.1711950302124</v>
       </c>
       <c r="G549" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -20582,7 +20585,7 @@
         <v>3.29168009757996</v>
       </c>
       <c r="G550" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -20608,7 +20611,7 @@
         <v>3.29235696792603</v>
       </c>
       <c r="G551" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -20634,7 +20637,7 @@
         <v>3.29844903945923</v>
       </c>
       <c r="G552" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -20660,7 +20663,7 @@
         <v>3.29506397247314</v>
       </c>
       <c r="G553" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -20686,7 +20689,7 @@
         <v>3.33432292938232</v>
       </c>
       <c r="G554" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -20712,7 +20715,7 @@
         <v>3.3065710067749</v>
       </c>
       <c r="G555" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -20738,7 +20741,7 @@
         <v>3.05477094650269</v>
       </c>
       <c r="G556" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -20790,7 +20793,7 @@
         <v>3.17999410629272</v>
       </c>
       <c r="G558" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -20816,7 +20819,7 @@
         <v>3.22331500053406</v>
       </c>
       <c r="G559" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -20842,7 +20845,7 @@
         <v>3.15359592437744</v>
       </c>
       <c r="G560" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20868,7 +20871,7 @@
         <v>3.12245893478394</v>
       </c>
       <c r="G561" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20894,7 +20897,7 @@
         <v>3.18067097663879</v>
       </c>
       <c r="G562" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -20920,7 +20923,7 @@
         <v>3.10892105102539</v>
       </c>
       <c r="G563" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -20946,7 +20949,7 @@
         <v>3.11501288414001</v>
       </c>
       <c r="G564" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -20998,7 +21001,7 @@
         <v>3.15156507492065</v>
       </c>
       <c r="G566" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -21024,7 +21027,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G567" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -21050,7 +21053,7 @@
         <v>3.14073491096497</v>
       </c>
       <c r="G568" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -21076,7 +21079,7 @@
         <v>3.07981491088867</v>
       </c>
       <c r="G569" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -21102,7 +21105,7 @@
         <v>3.08861494064331</v>
       </c>
       <c r="G570" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -21128,7 +21131,7 @@
         <v>3.06153988838196</v>
       </c>
       <c r="G571" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -21154,7 +21157,7 @@
         <v>3.08252310752869</v>
       </c>
       <c r="G572" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -21232,7 +21235,7 @@
         <v>3.05680108070374</v>
       </c>
       <c r="G575" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -21258,7 +21261,7 @@
         <v>3.05950903892517</v>
       </c>
       <c r="G576" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -21284,7 +21287,7 @@
         <v>3.17796301841736</v>
       </c>
       <c r="G577" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -21336,7 +21339,7 @@
         <v>3.17999410629272</v>
       </c>
       <c r="G579" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -21362,7 +21365,7 @@
         <v>3.18947005271912</v>
       </c>
       <c r="G580" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -21440,7 +21443,7 @@
         <v>3.20165395736694</v>
       </c>
       <c r="G583" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -21466,7 +21469,7 @@
         <v>3.23414492607117</v>
       </c>
       <c r="G584" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -21492,7 +21495,7 @@
         <v>3.30318689346313</v>
       </c>
       <c r="G585" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -21518,7 +21521,7 @@
         <v>3.26392793655396</v>
       </c>
       <c r="G586" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -21544,7 +21547,7 @@
         <v>3.27272701263428</v>
       </c>
       <c r="G587" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -21570,7 +21573,7 @@
         <v>3.30792498588562</v>
       </c>
       <c r="G588" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -21596,7 +21599,7 @@
         <v>3.30792498588562</v>
       </c>
       <c r="G589" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -21622,7 +21625,7 @@
         <v>3.24768209457397</v>
       </c>
       <c r="G590" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -21648,7 +21651,7 @@
         <v>3.2070689201355</v>
       </c>
       <c r="G591" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -21674,7 +21677,7 @@
         <v>3.22737598419189</v>
       </c>
       <c r="G592" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -21700,7 +21703,7 @@
         <v>3.2118079662323</v>
       </c>
       <c r="G593" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -21726,7 +21729,7 @@
         <v>3.24362111091614</v>
       </c>
       <c r="G594" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -21752,7 +21755,7 @@
         <v>3.22805309295654</v>
       </c>
       <c r="G595" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -21804,7 +21807,7 @@
         <v>3.20368504524231</v>
       </c>
       <c r="G597" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -21830,7 +21833,7 @@
         <v>3.19353199005127</v>
       </c>
       <c r="G598" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -21882,7 +21885,7 @@
         <v>3.31943202018738</v>
       </c>
       <c r="G600" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21908,7 +21911,7 @@
         <v>3.33161592483521</v>
       </c>
       <c r="G601" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21934,7 +21937,7 @@
         <v>3.39659690856934</v>
       </c>
       <c r="G602" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21960,7 +21963,7 @@
         <v>3.44533205032349</v>
       </c>
       <c r="G603" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21986,7 +21989,7 @@
         <v>3.48459100723267</v>
       </c>
       <c r="G604" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -22012,7 +22015,7 @@
         <v>3.38238191604614</v>
       </c>
       <c r="G605" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -22038,7 +22041,7 @@
         <v>3.38305902481079</v>
       </c>
       <c r="G606" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -22064,7 +22067,7 @@
         <v>3.15833401679993</v>
       </c>
       <c r="G607" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -22090,7 +22093,7 @@
         <v>3.11230611801147</v>
       </c>
       <c r="G608" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -22116,7 +22119,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G609" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -22142,7 +22145,7 @@
         <v>3.19691610336304</v>
       </c>
       <c r="G610" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -22168,7 +22171,7 @@
         <v>3.15765690803528</v>
       </c>
       <c r="G611" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -22194,7 +22197,7 @@
         <v>3.09402990341187</v>
       </c>
       <c r="G612" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -22220,7 +22223,7 @@
         <v>2.91330194473267</v>
       </c>
       <c r="G613" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -22246,7 +22249,7 @@
         <v>2.76641893386841</v>
       </c>
       <c r="G614" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -22272,7 +22275,7 @@
         <v>2.77657198905945</v>
       </c>
       <c r="G615" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -22298,7 +22301,7 @@
         <v>2.7772490978241</v>
       </c>
       <c r="G616" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -22324,7 +22327,7 @@
         <v>2.99588203430176</v>
       </c>
       <c r="G617" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -22350,7 +22353,7 @@
         <v>2.90788698196411</v>
       </c>
       <c r="G618" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -22376,7 +22379,7 @@
         <v>2.80906200408936</v>
       </c>
       <c r="G619" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -22402,7 +22405,7 @@
         <v>2.80770897865295</v>
       </c>
       <c r="G620" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -22428,7 +22431,7 @@
         <v>2.86185908317566</v>
       </c>
       <c r="G621" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -22454,7 +22457,7 @@
         <v>2.78469491004944</v>
       </c>
       <c r="G622" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -22480,7 +22483,7 @@
         <v>2.90585708618164</v>
       </c>
       <c r="G623" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -22506,7 +22509,7 @@
         <v>2.94037795066833</v>
       </c>
       <c r="G624" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -22532,7 +22535,7 @@
         <v>2.98775911331177</v>
       </c>
       <c r="G625" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -22558,7 +22561,7 @@
         <v>3.02431106567383</v>
       </c>
       <c r="G626" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -22584,7 +22587,7 @@
         <v>2.94511604309082</v>
       </c>
       <c r="G627" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -22610,7 +22613,7 @@
         <v>2.93090105056763</v>
       </c>
       <c r="G628" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -22636,7 +22639,7 @@
         <v>3.03040289878845</v>
       </c>
       <c r="G629" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -22662,7 +22665,7 @@
         <v>3.10689091682434</v>
       </c>
       <c r="G630" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -22688,7 +22691,7 @@
         <v>3.01551198959351</v>
       </c>
       <c r="G631" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -22714,7 +22717,7 @@
         <v>3.23752903938293</v>
       </c>
       <c r="G632" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -22740,7 +22743,7 @@
         <v>3.1711950302124</v>
       </c>
       <c r="G633" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -22766,7 +22769,7 @@
         <v>3.18879389762878</v>
       </c>
       <c r="G634" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -22792,7 +22795,7 @@
         <v>3.14344191551208</v>
       </c>
       <c r="G635" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -22818,7 +22821,7 @@
         <v>3.17187190055847</v>
       </c>
       <c r="G636" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -22844,7 +22847,7 @@
         <v>3.18608593940735</v>
       </c>
       <c r="G637" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22870,7 +22873,7 @@
         <v>3.14344191551208</v>
       </c>
       <c r="G638" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22896,7 +22899,7 @@
         <v>3.17390203475952</v>
       </c>
       <c r="G639" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22922,7 +22925,7 @@
         <v>3.17728710174561</v>
       </c>
       <c r="G640" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22948,7 +22951,7 @@
         <v>3.1651029586792</v>
       </c>
       <c r="G641" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22974,7 +22977,7 @@
         <v>3.22737598419189</v>
       </c>
       <c r="G642" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -23000,7 +23003,7 @@
         <v>3.238205909729</v>
       </c>
       <c r="G643" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -23026,7 +23029,7 @@
         <v>3.17525601387024</v>
       </c>
       <c r="G644" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -23052,7 +23055,7 @@
         <v>3.12245893478394</v>
       </c>
       <c r="G645" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -23078,7 +23081,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G646" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -23104,7 +23107,7 @@
         <v>3.14411902427673</v>
       </c>
       <c r="G647" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -23130,7 +23133,7 @@
         <v>3.1651029586792</v>
       </c>
       <c r="G648" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -23156,7 +23159,7 @@
         <v>3.18743991851807</v>
       </c>
       <c r="G649" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -23182,7 +23185,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G650" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -23208,7 +23211,7 @@
         <v>3.13125896453857</v>
       </c>
       <c r="G651" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -23234,7 +23237,7 @@
         <v>3.09402990341187</v>
       </c>
       <c r="G652" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -23260,7 +23263,7 @@
         <v>3.07304692268372</v>
       </c>
       <c r="G653" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -23286,7 +23289,7 @@
         <v>3.13531994819641</v>
       </c>
       <c r="G654" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -23312,7 +23315,7 @@
         <v>3.13193488121033</v>
       </c>
       <c r="G655" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -23338,7 +23341,7 @@
         <v>3.17796301841736</v>
       </c>
       <c r="G656" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -23364,7 +23367,7 @@
         <v>3.22263789176941</v>
       </c>
       <c r="G657" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -23390,7 +23393,7 @@
         <v>3.19082403182983</v>
       </c>
       <c r="G658" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -23416,7 +23419,7 @@
         <v>3.23617506027222</v>
       </c>
       <c r="G659" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -23442,7 +23445,7 @@
         <v>3.22128391265869</v>
       </c>
       <c r="G660" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -23468,7 +23471,7 @@
         <v>3.10621404647827</v>
       </c>
       <c r="G661" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -23494,7 +23497,7 @@
         <v>3.0980908870697</v>
       </c>
       <c r="G662" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -23520,7 +23523,7 @@
         <v>3.10012197494507</v>
       </c>
       <c r="G663" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -23546,7 +23549,7 @@
         <v>3.12719702720642</v>
       </c>
       <c r="G664" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -23572,7 +23575,7 @@
         <v>2.94240808486938</v>
       </c>
       <c r="G665" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -23598,7 +23601,7 @@
         <v>2.90924096107483</v>
       </c>
       <c r="G666" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -23624,7 +23627,7 @@
         <v>2.86862802505493</v>
       </c>
       <c r="G667" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -23650,7 +23653,7 @@
         <v>2.7975549697876</v>
       </c>
       <c r="G668" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -23676,7 +23679,7 @@
         <v>2.77115702629089</v>
       </c>
       <c r="G669" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -23702,7 +23705,7 @@
         <v>2.76777291297913</v>
       </c>
       <c r="G670" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -23728,7 +23731,7 @@
         <v>2.70753002166748</v>
       </c>
       <c r="G671" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -23754,7 +23757,7 @@
         <v>2.70820689201355</v>
       </c>
       <c r="G672" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -23780,7 +23783,7 @@
         <v>2.76844906806946</v>
       </c>
       <c r="G673" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -23806,7 +23809,7 @@
         <v>2.76709604263306</v>
       </c>
       <c r="G674" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -23832,7 +23835,7 @@
         <v>2.74543499946594</v>
       </c>
       <c r="G675" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23858,7 +23861,7 @@
         <v>2.73866701126099</v>
       </c>
       <c r="G676" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23884,7 +23887,7 @@
         <v>2.72783708572388</v>
       </c>
       <c r="G677" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23910,7 +23913,7 @@
         <v>2.6838390827179</v>
       </c>
       <c r="G678" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23936,7 +23939,7 @@
         <v>2.70076107978821</v>
       </c>
       <c r="G679" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23962,7 +23965,7 @@
         <v>2.59922909736633</v>
       </c>
       <c r="G680" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23988,7 +23991,7 @@
         <v>2.57147693634033</v>
       </c>
       <c r="G681" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -24014,7 +24017,7 @@
         <v>2.58366107940674</v>
       </c>
       <c r="G682" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -24040,7 +24043,7 @@
         <v>2.67842388153076</v>
       </c>
       <c r="G683" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -24066,7 +24069,7 @@
         <v>2.79281711578369</v>
       </c>
       <c r="G684" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -24092,7 +24095,7 @@
         <v>2.79823207855225</v>
       </c>
       <c r="G685" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -24118,7 +24121,7 @@
         <v>2.77657198905945</v>
       </c>
       <c r="G686" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -24144,7 +24147,7 @@
         <v>2.87268900871277</v>
       </c>
       <c r="G687" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -24170,7 +24173,7 @@
         <v>2.85847496986389</v>
       </c>
       <c r="G688" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -24196,7 +24199,7 @@
         <v>2.86118197441101</v>
       </c>
       <c r="G689" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -24222,7 +24225,7 @@
         <v>2.85170602798462</v>
       </c>
       <c r="G690" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -24248,7 +24251,7 @@
         <v>2.87268900871277</v>
       </c>
       <c r="G691" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -24274,7 +24277,7 @@
         <v>2.90788698196411</v>
       </c>
       <c r="G692" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -24300,7 +24303,7 @@
         <v>2.91736388206482</v>
       </c>
       <c r="G693" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -24326,7 +24329,7 @@
         <v>2.96136093139648</v>
       </c>
       <c r="G694" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -24352,7 +24355,7 @@
         <v>2.93360900878906</v>
       </c>
       <c r="G695" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -24378,7 +24381,7 @@
         <v>2.87742805480957</v>
       </c>
       <c r="G696" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -24404,7 +24407,7 @@
         <v>2.91059494018555</v>
       </c>
       <c r="G697" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -24430,7 +24433,7 @@
         <v>2.94647002220154</v>
       </c>
       <c r="G698" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -24456,7 +24459,7 @@
         <v>2.97625207901001</v>
       </c>
       <c r="G699" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -24482,7 +24485,7 @@
         <v>2.94511604309082</v>
       </c>
       <c r="G700" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -24508,7 +24511,7 @@
         <v>2.69940710067749</v>
       </c>
       <c r="G701" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -24534,7 +24537,7 @@
         <v>2.59313702583313</v>
       </c>
       <c r="G702" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -24560,7 +24563,7 @@
         <v>2.54778599739075</v>
       </c>
       <c r="G703" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -24586,7 +24589,7 @@
         <v>2.51461791992188</v>
       </c>
       <c r="G704" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -24612,7 +24615,7 @@
         <v>2.53018689155579</v>
       </c>
       <c r="G705" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -24638,7 +24641,7 @@
         <v>2.48415899276733</v>
       </c>
       <c r="G706" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -24664,7 +24667,7 @@
         <v>2.44286894798279</v>
       </c>
       <c r="G707" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -24690,7 +24693,7 @@
         <v>2.3941330909729</v>
       </c>
       <c r="G708" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -24716,7 +24719,7 @@
         <v>2.44625306129456</v>
       </c>
       <c r="G709" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -24742,7 +24745,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G710" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -24768,7 +24771,7 @@
         <v>2.41850090026855</v>
       </c>
       <c r="G711" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -24794,7 +24797,7 @@
         <v>2.43542289733887</v>
       </c>
       <c r="G712" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -24820,7 +24823,7 @@
         <v>2.41443991661072</v>
       </c>
       <c r="G713" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -24846,7 +24849,7 @@
         <v>2.41782402992249</v>
       </c>
       <c r="G714" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24872,7 +24875,7 @@
         <v>2.36570405960083</v>
       </c>
       <c r="G715" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24898,7 +24901,7 @@
         <v>2.37450408935547</v>
       </c>
       <c r="G716" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24924,7 +24927,7 @@
         <v>2.28786301612854</v>
       </c>
       <c r="G717" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -24950,7 +24953,7 @@
         <v>2.238450050354</v>
       </c>
       <c r="G718" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24976,7 +24979,7 @@
         <v>2.17482304573059</v>
       </c>
       <c r="G719" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -25002,7 +25005,7 @@
         <v>2.2249128818512</v>
       </c>
       <c r="G720" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -25028,7 +25031,7 @@
         <v>2.20799088478088</v>
       </c>
       <c r="G721" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -25054,7 +25057,7 @@
         <v>2.30546188354492</v>
       </c>
       <c r="G722" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -25080,7 +25083,7 @@
         <v>2.29192399978638</v>
       </c>
       <c r="G723" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -25106,7 +25109,7 @@
         <v>2.2729709148407</v>
       </c>
       <c r="G724" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -25132,7 +25135,7 @@
         <v>2.28650903701782</v>
       </c>
       <c r="G725" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -25158,7 +25161,7 @@
         <v>2.37924194335938</v>
       </c>
       <c r="G726" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -25184,7 +25187,7 @@
         <v>2.29733896255493</v>
       </c>
       <c r="G727" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -25210,7 +25213,7 @@
         <v>2.28041696548462</v>
       </c>
       <c r="G728" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -25236,7 +25239,7 @@
         <v>2.32170701026917</v>
       </c>
       <c r="G729" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -25262,7 +25265,7 @@
         <v>2.33930611610413</v>
       </c>
       <c r="G730" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -25288,7 +25291,7 @@
         <v>2.36028909683228</v>
       </c>
       <c r="G731" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -25314,7 +25317,7 @@
         <v>2.36367392539978</v>
       </c>
       <c r="G732" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -25340,7 +25343,7 @@
         <v>2.36570405960083</v>
       </c>
       <c r="G733" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -25366,7 +25369,7 @@
         <v>2.29463195800781</v>
       </c>
       <c r="G734" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -25392,7 +25395,7 @@
         <v>2.31358408927917</v>
       </c>
       <c r="G735" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -25418,7 +25421,7 @@
         <v>2.2716178894043</v>
       </c>
       <c r="G736" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -25444,7 +25447,7 @@
         <v>2.29260110855103</v>
       </c>
       <c r="G737" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -25470,7 +25473,7 @@
         <v>2.26620292663574</v>
       </c>
       <c r="G738" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -25496,7 +25499,7 @@
         <v>2.34810495376587</v>
       </c>
       <c r="G739" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -25522,7 +25525,7 @@
         <v>2.36164307594299</v>
       </c>
       <c r="G740" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -25548,7 +25551,7 @@
         <v>2.36299705505371</v>
       </c>
       <c r="G741" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -25574,7 +25577,7 @@
         <v>2.48957395553589</v>
       </c>
       <c r="G742" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -25600,7 +25603,7 @@
         <v>2.40225601196289</v>
       </c>
       <c r="G743" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -25626,7 +25629,7 @@
         <v>2.42391610145569</v>
       </c>
       <c r="G744" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -25652,7 +25655,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G745" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -25678,7 +25681,7 @@
         <v>2.43610000610352</v>
       </c>
       <c r="G746" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -25704,7 +25707,7 @@
         <v>2.5484631061554</v>
       </c>
       <c r="G747" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -25730,7 +25733,7 @@
         <v>2.50514197349548</v>
       </c>
       <c r="G748" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -25756,7 +25759,7 @@
         <v>2.55184698104858</v>
       </c>
       <c r="G749" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -25782,7 +25785,7 @@
         <v>2.47062110900879</v>
       </c>
       <c r="G750" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -25808,7 +25811,7 @@
         <v>2.43136191368103</v>
       </c>
       <c r="G751" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -25834,7 +25837,7 @@
         <v>2.39007210731506</v>
       </c>
       <c r="G752" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -25860,7 +25863,7 @@
         <v>2.33930611610413</v>
       </c>
       <c r="G753" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -25886,7 +25889,7 @@
         <v>2.36705803871155</v>
       </c>
       <c r="G754" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -25912,7 +25915,7 @@
         <v>2.35758209228516</v>
       </c>
       <c r="G755" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -25938,7 +25941,7 @@
         <v>2.32102990150452</v>
       </c>
       <c r="G756" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -25964,7 +25967,7 @@
         <v>2.27567911148071</v>
       </c>
       <c r="G757" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -25990,7 +25993,7 @@
         <v>2.26484894752502</v>
       </c>
       <c r="G758" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -26016,7 +26019,7 @@
         <v>2.31087708473206</v>
       </c>
       <c r="G759" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -26042,7 +26045,7 @@
         <v>2.26687908172607</v>
       </c>
       <c r="G760" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -26068,7 +26071,7 @@
         <v>2.24995708465576</v>
       </c>
       <c r="G761" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -26094,7 +26097,7 @@
         <v>2.21949791908264</v>
       </c>
       <c r="G762" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -26120,7 +26123,7 @@
         <v>2.27703309059143</v>
       </c>
       <c r="G763" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -26146,7 +26149,7 @@
         <v>2.2310049533844</v>
       </c>
       <c r="G764" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -26172,7 +26175,7 @@
         <v>2.21611309051514</v>
       </c>
       <c r="G765" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -26198,7 +26201,7 @@
         <v>2.29057002067566</v>
       </c>
       <c r="G766" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -26224,7 +26227,7 @@
         <v>2.30478501319885</v>
       </c>
       <c r="G767" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -26250,7 +26253,7 @@
         <v>2.25401902198792</v>
       </c>
       <c r="G768" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -26276,7 +26279,7 @@
         <v>2.24454188346863</v>
       </c>
       <c r="G769" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -26302,7 +26305,7 @@
         <v>2.25131106376648</v>
       </c>
       <c r="G770" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -26328,7 +26331,7 @@
         <v>2.21340608596802</v>
       </c>
       <c r="G771" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -26354,7 +26357,7 @@
         <v>2.12811803817749</v>
       </c>
       <c r="G772" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -26380,7 +26383,7 @@
         <v>2.02726292610168</v>
       </c>
       <c r="G773" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -26406,7 +26409,7 @@
         <v>2.071937084198</v>
       </c>
       <c r="G774" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -26432,7 +26435,7 @@
         <v>2.08006000518799</v>
       </c>
       <c r="G775" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -26458,7 +26461,7 @@
         <v>2.06787610054016</v>
       </c>
       <c r="G776" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -26484,7 +26487,7 @@
         <v>2.07870602607727</v>
       </c>
       <c r="G777" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -26510,7 +26513,7 @@
         <v>2.06719899177551</v>
       </c>
       <c r="G778" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -26536,7 +26539,7 @@
         <v>2.03673911094666</v>
       </c>
       <c r="G779" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -26562,7 +26565,7 @@
         <v>2.04283094406128</v>
       </c>
       <c r="G780" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -26588,7 +26591,7 @@
         <v>2.13217997550964</v>
       </c>
       <c r="G781" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -26614,7 +26617,7 @@
         <v>2.10645794868469</v>
       </c>
       <c r="G782" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -26640,7 +26643,7 @@
         <v>2.11187291145325</v>
       </c>
       <c r="G783" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -26666,7 +26669,7 @@
         <v>2.13014888763428</v>
       </c>
       <c r="G784" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -26692,7 +26695,7 @@
         <v>2.00086498260498</v>
       </c>
       <c r="G785" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -26718,7 +26721,7 @@
         <v>2.00695610046387</v>
       </c>
       <c r="G786" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -26744,7 +26747,7 @@
         <v>2.01034092903137</v>
       </c>
       <c r="G787" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -26770,7 +26773,7 @@
         <v>2.01372504234314</v>
       </c>
       <c r="G788" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -26796,7 +26799,7 @@
         <v>2.06110692024231</v>
       </c>
       <c r="G789" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -26822,7 +26825,7 @@
         <v>2.04012393951416</v>
       </c>
       <c r="G790" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -26848,7 +26851,7 @@
         <v>2.22017502784729</v>
       </c>
       <c r="G791" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -26874,7 +26877,7 @@
         <v>2.31223106384277</v>
       </c>
       <c r="G792" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -26900,7 +26903,7 @@
         <v>2.30546188354492</v>
       </c>
       <c r="G793" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -26926,7 +26929,7 @@
         <v>2.28853988647461</v>
       </c>
       <c r="G794" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -26952,7 +26955,7 @@
         <v>2.27974009513855</v>
       </c>
       <c r="G795" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -26978,7 +26981,7 @@
         <v>2.38533401489258</v>
       </c>
       <c r="G796" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -27004,7 +27007,7 @@
         <v>2.37585806846619</v>
       </c>
       <c r="G797" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -27030,7 +27033,7 @@
         <v>2.37450408935547</v>
       </c>
       <c r="G798" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -27056,7 +27059,7 @@
         <v>2.35555100440979</v>
       </c>
       <c r="G799" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -27082,7 +27085,7 @@
         <v>2.31764602661133</v>
       </c>
       <c r="G800" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -27108,7 +27111,7 @@
         <v>2.34472107887268</v>
       </c>
       <c r="G801" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -27134,7 +27137,7 @@
         <v>2.36841201782227</v>
       </c>
       <c r="G802" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -27160,7 +27163,7 @@
         <v>2.38398003578186</v>
       </c>
       <c r="G803" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -27186,7 +27189,7 @@
         <v>2.44828391075134</v>
       </c>
       <c r="G804" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -27212,7 +27215,7 @@
         <v>2.51461791992188</v>
       </c>
       <c r="G805" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -27238,7 +27241,7 @@
         <v>2.50311088562012</v>
       </c>
       <c r="G806" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -27264,7 +27267,7 @@
         <v>2.49634289741516</v>
       </c>
       <c r="G807" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -27290,7 +27293,7 @@
         <v>2.48821997642517</v>
       </c>
       <c r="G808" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -27316,7 +27319,7 @@
         <v>2.50852704048157</v>
       </c>
       <c r="G809" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -27342,7 +27345,7 @@
         <v>2.4347460269928</v>
       </c>
       <c r="G810" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -27368,7 +27371,7 @@
         <v>2.37924194335938</v>
       </c>
       <c r="G811" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -27394,7 +27397,7 @@
         <v>2.40970206260681</v>
       </c>
       <c r="G812" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -27420,7 +27423,7 @@
         <v>2.39480996131897</v>
       </c>
       <c r="G813" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -27446,7 +27449,7 @@
         <v>2.40902495384216</v>
       </c>
       <c r="G814" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -27472,7 +27475,7 @@
         <v>2.45776009559631</v>
       </c>
       <c r="G815" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -27498,7 +27501,7 @@
         <v>2.44286894798279</v>
       </c>
       <c r="G816" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -27524,7 +27527,7 @@
         <v>2.50717306137085</v>
       </c>
       <c r="G817" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -27550,7 +27553,7 @@
         <v>2.52612495422363</v>
       </c>
       <c r="G818" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -27576,7 +27579,7 @@
         <v>2.52680206298828</v>
       </c>
       <c r="G819" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -27602,7 +27605,7 @@
         <v>2.50446510314941</v>
       </c>
       <c r="G820" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -27628,7 +27631,7 @@
         <v>2.46994400024414</v>
       </c>
       <c r="G821" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -27654,7 +27657,7 @@
         <v>2.4597909450531</v>
       </c>
       <c r="G822" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -27680,7 +27683,7 @@
         <v>2.43880796432495</v>
       </c>
       <c r="G823" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -27706,7 +27709,7 @@
         <v>2.47739005088806</v>
       </c>
       <c r="G824" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -27732,7 +27735,7 @@
         <v>2.46723699569702</v>
       </c>
       <c r="G825" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -27758,7 +27761,7 @@
         <v>2.46452903747559</v>
       </c>
       <c r="G826" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -27784,7 +27787,7 @@
         <v>2.49837303161621</v>
       </c>
       <c r="G827" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -27810,7 +27813,7 @@
         <v>2.47942090034485</v>
       </c>
       <c r="G828" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -27836,7 +27839,7 @@
         <v>2.49837303161621</v>
       </c>
       <c r="G829" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -27862,7 +27865,7 @@
         <v>2.50378799438477</v>
       </c>
       <c r="G830" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -27888,7 +27891,7 @@
         <v>2.5064959526062</v>
       </c>
       <c r="G831" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -27914,7 +27917,7 @@
         <v>2.528156042099</v>
       </c>
       <c r="G832" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -27940,7 +27943,7 @@
         <v>2.52951002120972</v>
       </c>
       <c r="G833" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -27966,7 +27969,7 @@
         <v>2.54778599739075</v>
       </c>
       <c r="G834" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -27992,7 +27995,7 @@
         <v>2.56944608688354</v>
       </c>
       <c r="G835" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -28018,7 +28021,7 @@
         <v>2.61750507354736</v>
       </c>
       <c r="G836" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -28044,7 +28047,7 @@
         <v>2.68654704093933</v>
       </c>
       <c r="G837" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -28070,7 +28073,7 @@
         <v>2.73189806938171</v>
       </c>
       <c r="G838" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -28096,7 +28099,7 @@
         <v>2.80432391166687</v>
       </c>
       <c r="G839" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -28122,7 +28125,7 @@
         <v>2.83139991760254</v>
       </c>
       <c r="G840" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -28148,7 +28151,7 @@
         <v>2.8036470413208</v>
       </c>
       <c r="G841" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -28174,7 +28177,7 @@
         <v>2.77927994728088</v>
       </c>
       <c r="G842" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -28200,7 +28203,7 @@
         <v>2.82463097572327</v>
       </c>
       <c r="G843" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -28226,7 +28229,7 @@
         <v>2.84764504432678</v>
       </c>
       <c r="G844" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -28252,7 +28255,7 @@
         <v>2.85576701164246</v>
       </c>
       <c r="G845" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -28278,7 +28281,7 @@
         <v>2.89976501464844</v>
       </c>
       <c r="G846" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -28304,7 +28307,7 @@
         <v>2.85306000709534</v>
       </c>
       <c r="G847" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -28330,7 +28333,7 @@
         <v>2.8442599773407</v>
       </c>
       <c r="G848" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -28356,7 +28359,7 @@
         <v>2.80906200408936</v>
       </c>
       <c r="G849" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -28382,7 +28385,7 @@
         <v>2.78537201881409</v>
       </c>
       <c r="G850" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -28408,7 +28411,7 @@
         <v>2.76980304718018</v>
       </c>
       <c r="G851" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -28434,7 +28437,7 @@
         <v>2.71023797988892</v>
       </c>
       <c r="G852" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -28460,7 +28463,7 @@
         <v>2.68045496940613</v>
       </c>
       <c r="G853" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -28486,7 +28489,7 @@
         <v>2.63984203338623</v>
       </c>
       <c r="G854" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -28512,7 +28515,7 @@
         <v>2.66353297233582</v>
       </c>
       <c r="G855" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -28538,7 +28541,7 @@
         <v>2.61682796478271</v>
       </c>
       <c r="G856" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -28564,7 +28567,7 @@
         <v>2.67571711540222</v>
       </c>
       <c r="G857" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -28590,7 +28593,7 @@
         <v>2.68045496940613</v>
       </c>
       <c r="G858" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -28616,7 +28619,7 @@
         <v>2.51868009567261</v>
       </c>
       <c r="G859" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -28642,7 +28645,7 @@
         <v>2.45234489440918</v>
       </c>
       <c r="G860" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -28668,7 +28671,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G861" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -28694,7 +28697,7 @@
         <v>2.36841201782227</v>
       </c>
       <c r="G862" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -28720,7 +28723,7 @@
         <v>2.3927800655365</v>
       </c>
       <c r="G863" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -28746,7 +28749,7 @@
         <v>2.32915306091309</v>
       </c>
       <c r="G864" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -28772,7 +28775,7 @@
         <v>2.33050608634949</v>
       </c>
       <c r="G865" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -28798,7 +28801,7 @@
         <v>2.3183228969574</v>
       </c>
       <c r="G866" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -28824,7 +28827,7 @@
         <v>2.30207705497742</v>
       </c>
       <c r="G867" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -28850,7 +28853,7 @@
         <v>2.29057002067566</v>
       </c>
       <c r="G868" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -28876,7 +28879,7 @@
         <v>2.27229404449463</v>
       </c>
       <c r="G869" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -28902,7 +28905,7 @@
         <v>2.31223106384277</v>
       </c>
       <c r="G870" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -28928,7 +28931,7 @@
         <v>2.27026391029358</v>
       </c>
       <c r="G871" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -28954,7 +28957,7 @@
         <v>2.24318909645081</v>
       </c>
       <c r="G872" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -28980,7 +28983,7 @@
         <v>2.23912692070007</v>
       </c>
       <c r="G873" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -29006,7 +29009,7 @@
         <v>2.30952310562134</v>
       </c>
       <c r="G874" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -29032,7 +29035,7 @@
         <v>2.33118295669556</v>
       </c>
       <c r="G875" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -29058,7 +29061,7 @@
         <v>2.30478501319885</v>
       </c>
       <c r="G876" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -29084,7 +29087,7 @@
         <v>2.33253693580627</v>
       </c>
       <c r="G877" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -29110,7 +29113,7 @@
         <v>2.32441401481628</v>
       </c>
       <c r="G878" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -29136,7 +29139,7 @@
         <v>2.34201288223267</v>
       </c>
       <c r="G879" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -29162,7 +29165,7 @@
         <v>2.39480996131897</v>
       </c>
       <c r="G880" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -29188,7 +29191,7 @@
         <v>2.4394850730896</v>
       </c>
       <c r="G881" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -29214,7 +29217,7 @@
         <v>2.43677711486816</v>
       </c>
       <c r="G882" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -29240,7 +29243,7 @@
         <v>2.47806692123413</v>
       </c>
       <c r="G883" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -29266,7 +29269,7 @@
         <v>2.45099210739136</v>
       </c>
       <c r="G884" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -29292,7 +29295,7 @@
         <v>2.39480996131897</v>
       </c>
       <c r="G885" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -29318,7 +29321,7 @@
         <v>2.44963788986206</v>
       </c>
       <c r="G886" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -29344,7 +29347,7 @@
         <v>2.46385192871094</v>
       </c>
       <c r="G887" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -29370,7 +29373,7 @@
         <v>2.42527008056641</v>
       </c>
       <c r="G888" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -29396,7 +29399,7 @@
         <v>2.41240906715393</v>
       </c>
       <c r="G889" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -29422,7 +29425,7 @@
         <v>2.46182203292847</v>
       </c>
       <c r="G890" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -29448,7 +29451,7 @@
         <v>2.55793905258179</v>
       </c>
       <c r="G891" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -29474,7 +29477,7 @@
         <v>2.63239598274231</v>
       </c>
       <c r="G892" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -29500,7 +29503,7 @@
         <v>2.63781094551086</v>
       </c>
       <c r="G893" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -29526,7 +29529,7 @@
         <v>2.61412000656128</v>
       </c>
       <c r="G894" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -29552,7 +29555,7 @@
         <v>2.59245991706848</v>
       </c>
       <c r="G895" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -29734,7 +29737,7 @@
         <v>2.59245991706848</v>
       </c>
       <c r="G902" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -30124,7 +30127,7 @@
         <v>2.32915306091309</v>
       </c>
       <c r="G917" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -31060,7 +31063,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G953" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -31190,7 +31193,7 @@
         <v>2.36841201782227</v>
       </c>
       <c r="G958" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -33790,7 +33793,7 @@
         <v>2.30478501319885</v>
       </c>
       <c r="G1058" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -62996,7 +62999,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6494328704</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>6487826</v>
@@ -63017,6 +63020,32 @@
         <v>1978</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.6493402778</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>8112187</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>5.49399995803833</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>5.35400009155273</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>5.44600009918213</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>5.38000011444092</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="1983">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33120536804199</t>
+    <t xml:space="preserve">3.33120489120483</t>
   </si>
   <si>
     <t xml:space="preserve">BPE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37296795845032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2231125831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1494128704071</t>
+    <t xml:space="preserve">3.37296748161316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22311282157898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14941358566284</t>
   </si>
   <si>
     <t xml:space="preserve">3.07817053794861</t>
@@ -59,10 +59,10 @@
     <t xml:space="preserve">3.08062791824341</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05606031417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20345902442932</t>
+    <t xml:space="preserve">3.05606079101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20345950126648</t>
   </si>
   <si>
     <t xml:space="preserve">3.03886485099792</t>
@@ -74,55 +74,55 @@
     <t xml:space="preserve">2.76126432418823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55981969833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84233379364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81039667129517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73669791221619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89637970924377</t>
+    <t xml:space="preserve">2.55981945991516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84233355522156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81039690971375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73669767379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8963794708252</t>
   </si>
   <si>
     <t xml:space="preserve">2.77846074104309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56964635848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70230484008789</t>
+    <t xml:space="preserve">2.56964659690857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70230436325073</t>
   </si>
   <si>
     <t xml:space="preserve">2.63597559928894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45664119720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25323057174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26207494735718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21490669250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9505729675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90831863880157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03999447822571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8444459438324</t>
+    <t xml:space="preserve">2.45664095878601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25323081016541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2620747089386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21490693092346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95057284832001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90831875801086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03999423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84444582462311</t>
   </si>
   <si>
     <t xml:space="preserve">2.05669951438904</t>
@@ -131,22 +131,22 @@
     <t xml:space="preserve">2.26502227783203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37508010864258</t>
+    <t xml:space="preserve">2.37508034706116</t>
   </si>
   <si>
     <t xml:space="preserve">2.43207454681396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41733407974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27288389205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50331735610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4084906578064</t>
+    <t xml:space="preserve">2.41733431816101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27288436889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50331711769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40849018096924</t>
   </si>
   <si>
     <t xml:space="preserve">2.25519609451294</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">2.31120729446411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3544442653656</t>
+    <t xml:space="preserve">2.35444450378418</t>
   </si>
   <si>
     <t xml:space="preserve">2.31415557861328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.348548412323</t>
+    <t xml:space="preserve">2.34854817390442</t>
   </si>
   <si>
     <t xml:space="preserve">2.46401071548462</t>
@@ -173,49 +173,49 @@
     <t xml:space="preserve">2.43109178543091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30531167984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27190113067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29745054244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31808614730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51068711280823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54508018493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46155381202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2945020198822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3200511932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34068727493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33479118347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30039811134338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23750853538513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14513850212097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12352013587952</t>
+    <t xml:space="preserve">2.30531120300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27190160751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29745030403137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31808638572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51068687438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5450804233551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4615535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29450249671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32005095481873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34068703651428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33479142189026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30039834976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23750829696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14513826370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12351965904236</t>
   </si>
   <si>
     <t xml:space="preserve">2.0557165145874</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">2.09305787086487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.974156498909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96334683895111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84739375114441</t>
+    <t xml:space="preserve">1.97415661811829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96334660053253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84739363193512</t>
   </si>
   <si>
     <t xml:space="preserve">2.11172819137573</t>
@@ -242,43 +242,43 @@
     <t xml:space="preserve">2.12548565864563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36918449401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47629380226135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48366355895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40062952041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47138094902039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54999256134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56227588653564</t>
+    <t xml:space="preserve">2.36918473243713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47629404067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48366332054138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40062928199768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47138023376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54999279975891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56227612495422</t>
   </si>
   <si>
     <t xml:space="preserve">2.47383713722229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55490660667419</t>
+    <t xml:space="preserve">2.55490636825562</t>
   </si>
   <si>
     <t xml:space="preserve">2.51560044288635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61386609077454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50822997093201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41635155677795</t>
+    <t xml:space="preserve">2.61386585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50823020935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41635179519653</t>
   </si>
   <si>
     <t xml:space="preserve">2.31022524833679</t>
@@ -290,34 +290,34 @@
     <t xml:space="preserve">2.22080326080322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16282653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15693020820618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15103459358215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11762428283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11467623710632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14710426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26600527763367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1598789691925</t>
+    <t xml:space="preserve">2.16282629966736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15693044662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15103507041931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11762404441833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11467599868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14710402488708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26600503921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15987849235535</t>
   </si>
   <si>
     <t xml:space="preserve">2.18739295005798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14416790008545</t>
+    <t xml:space="preserve">2.14416742324829</t>
   </si>
   <si>
     <t xml:space="preserve">2.31304669380188</t>
@@ -326,76 +326,76 @@
     <t xml:space="preserve">2.42864894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38140225410461</t>
+    <t xml:space="preserve">2.38140273094177</t>
   </si>
   <si>
     <t xml:space="preserve">2.38743448257446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41055536270142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2859058380127</t>
+    <t xml:space="preserve">2.41055488586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28590559959412</t>
   </si>
   <si>
     <t xml:space="preserve">2.1873927116394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25675415992737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16628241539001</t>
+    <t xml:space="preserve">2.25675463676453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16628289222717</t>
   </si>
   <si>
     <t xml:space="preserve">2.15623021125793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18437623977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2255916595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07983207702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95317232608795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89788448810577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89185321331024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84259641170502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02554965019226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11702609062195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17130851745605</t>
+    <t xml:space="preserve">2.18437647819519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22559189796448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07983231544495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95317208766937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89788472652435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8918536901474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84259688854218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02555012702942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11702585220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17130875587463</t>
   </si>
   <si>
     <t xml:space="preserve">2.16226196289062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32812571525574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75514137744904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73704719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69583177566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60335040092468</t>
+    <t xml:space="preserve">2.32812547683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75514149665833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73704695701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69583189487457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60335052013397</t>
   </si>
   <si>
     <t xml:space="preserve">1.64758110046387</t>
@@ -404,13 +404,13 @@
     <t xml:space="preserve">1.56816709041595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46261775493622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46362292766571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3590784072876</t>
+    <t xml:space="preserve">1.46261763572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.463623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35907816886902</t>
   </si>
   <si>
     <t xml:space="preserve">1.29775857925415</t>
@@ -419,52 +419,52 @@
     <t xml:space="preserve">1.50785279273987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5782196521759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70688986778259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62144505977631</t>
+    <t xml:space="preserve">1.57821977138519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70688998699188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62144494056702</t>
   </si>
   <si>
     <t xml:space="preserve">1.69080638885498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71091055870056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72096335887909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70487916469574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72297334671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77826142311096</t>
+    <t xml:space="preserve">1.71091079711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096359729767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70487928390503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72297358512878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77826130390167</t>
   </si>
   <si>
     <t xml:space="preserve">1.76519334316254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71794748306274</t>
+    <t xml:space="preserve">1.71794700622559</t>
   </si>
   <si>
     <t xml:space="preserve">1.72598886489868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80540299415588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74910962581635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84460735321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74006259441376</t>
+    <t xml:space="preserve">1.8054027557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74910974502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84460747241974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74006271362305</t>
   </si>
   <si>
     <t xml:space="preserve">1.52494192123413</t>
@@ -482,85 +482,85 @@
     <t xml:space="preserve">1.76921415328979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8043977022171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79334044456482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79233515262604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76720404624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75413608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68879556655884</t>
+    <t xml:space="preserve">1.80439734458923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79334020614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79233491420746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76720428466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75413596630096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68879544734955</t>
   </si>
   <si>
     <t xml:space="preserve">1.71895265579224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61943411827087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63049221038818</t>
+    <t xml:space="preserve">1.61943435668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63049209117889</t>
   </si>
   <si>
     <t xml:space="preserve">1.72397899627686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76117241382599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70990538597107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67472231388092</t>
+    <t xml:space="preserve">1.76117217540741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70990526676178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67472195625305</t>
   </si>
   <si>
     <t xml:space="preserve">1.72196817398071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73403167724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76619863510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79032421112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75815677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81746578216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82048141956329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78429317474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75011491775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7038745880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64657604694366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67170679569244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60033524036407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67572736740112</t>
+    <t xml:space="preserve">1.7340315580368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76619899272919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7903243303299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7581570148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81746554374695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82048118114471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78429305553436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.750115275383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70387434959412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64657592773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67170655727386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6003350019455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67572748661041</t>
   </si>
   <si>
     <t xml:space="preserve">1.67974817752838</t>
@@ -572,70 +572,70 @@
     <t xml:space="preserve">1.57922518253326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61440861225128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61742413043976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66467010974884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62647116184235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70286893844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70789515972137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68376910686493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74408376216888</t>
+    <t xml:space="preserve">1.6144083738327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61742424964905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66467022895813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62647128105164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70286881923676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70789527893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68376922607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74408352375031</t>
   </si>
   <si>
     <t xml:space="preserve">1.84963369369507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89084815979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80841863155365</t>
+    <t xml:space="preserve">1.89084792137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80841839313507</t>
   </si>
   <si>
     <t xml:space="preserve">1.90291047096252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94312036037445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04263925552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14014625549316</t>
+    <t xml:space="preserve">1.94312012195587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04263877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1401469707489</t>
   </si>
   <si>
     <t xml:space="preserve">2.1351203918457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18940305709839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09792709350586</t>
+    <t xml:space="preserve">2.18940258026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09792685508728</t>
   </si>
   <si>
     <t xml:space="preserve">2.13210511207581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18236660957336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17633485794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14818906784058</t>
+    <t xml:space="preserve">2.18236637115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17633438110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14818835258484</t>
   </si>
   <si>
     <t xml:space="preserve">2.1300938129425</t>
@@ -644,61 +644,61 @@
     <t xml:space="preserve">2.01047110557556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98534035682678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96322500705719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03158068656921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06977963447571</t>
+    <t xml:space="preserve">1.9853401184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96322524547577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03158092498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06977987289429</t>
   </si>
   <si>
     <t xml:space="preserve">2.09993696212769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10094237327576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07882690429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06877422332764</t>
+    <t xml:space="preserve">2.10094261169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07882714271545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06877446174622</t>
   </si>
   <si>
     <t xml:space="preserve">2.00846028327942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92301511764526</t>
+    <t xml:space="preserve">1.92301499843597</t>
   </si>
   <si>
     <t xml:space="preserve">1.88381171226501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87576901912689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91396915912628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9039158821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90994727611542</t>
+    <t xml:space="preserve">1.87576913833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91396868228912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90391600131989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90994703769684</t>
   </si>
   <si>
     <t xml:space="preserve">1.8807954788208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90492177009583</t>
+    <t xml:space="preserve">1.9049220085144</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771732330322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01650261878967</t>
+    <t xml:space="preserve">2.01650285720825</t>
   </si>
   <si>
     <t xml:space="preserve">2.15321469306946</t>
@@ -707,34 +707,34 @@
     <t xml:space="preserve">2.37738180160522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41155958175659</t>
+    <t xml:space="preserve">2.41155982017517</t>
   </si>
   <si>
     <t xml:space="preserve">2.37436652183533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41859674453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46986365318298</t>
+    <t xml:space="preserve">2.41859698295593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46986389160156</t>
   </si>
   <si>
     <t xml:space="preserve">2.4296543598175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49499487876892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51560211181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4980103969574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51308941841125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56837701797485</t>
+    <t xml:space="preserve">2.49499464035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51560235023499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49801015853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51308917999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56837677955627</t>
   </si>
   <si>
     <t xml:space="preserve">2.59350776672363</t>
@@ -743,10 +743,10 @@
     <t xml:space="preserve">2.6010468006134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54324626922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64879584312439</t>
+    <t xml:space="preserve">2.54324674606323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64879608154297</t>
   </si>
   <si>
     <t xml:space="preserve">2.74931907653809</t>
@@ -755,79 +755,79 @@
     <t xml:space="preserve">2.70408368110657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66387414932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53068065643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51811504364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66890001296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64376974105835</t>
+    <t xml:space="preserve">2.66387391090393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53068089485168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51811456680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66890048980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64376950263977</t>
   </si>
   <si>
     <t xml:space="preserve">2.68649220466614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6965446472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84230375289917</t>
+    <t xml:space="preserve">2.69654440879822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84230351448059</t>
   </si>
   <si>
     <t xml:space="preserve">2.88753914833069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81968569755554</t>
+    <t xml:space="preserve">2.81968593597412</t>
   </si>
   <si>
     <t xml:space="preserve">2.82722496986389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86240863800049</t>
+    <t xml:space="preserve">2.86240816116333</t>
   </si>
   <si>
     <t xml:space="preserve">2.81717300415039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68397879600525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63371729850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69403147697449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70659613609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77193665504456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61361265182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5231409072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55329847335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39045000076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39849185943604</t>
+    <t xml:space="preserve">2.68397903442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63371706008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69403100013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7065966129303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77193713188171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61361217498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52314114570618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55329823493958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39045023918152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39849162101746</t>
   </si>
   <si>
     <t xml:space="preserve">2.48092126846313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41759157180786</t>
+    <t xml:space="preserve">2.41759181022644</t>
   </si>
   <si>
     <t xml:space="preserve">2.33415675163269</t>
@@ -839,28 +839,28 @@
     <t xml:space="preserve">2.23765444755554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23463892936707</t>
+    <t xml:space="preserve">2.23463869094849</t>
   </si>
   <si>
     <t xml:space="preserve">2.14919376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11099481582642</t>
+    <t xml:space="preserve">2.110995054245</t>
   </si>
   <si>
     <t xml:space="preserve">2.0808379650116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25172758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26077485084534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36230373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29796886444092</t>
+    <t xml:space="preserve">2.25172781944275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26077508926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36230397224426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29796862602234</t>
   </si>
   <si>
     <t xml:space="preserve">2.20146560668945</t>
@@ -869,28 +869,28 @@
     <t xml:space="preserve">2.20649194717407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27987408638</t>
+    <t xml:space="preserve">2.27987384796143</t>
   </si>
   <si>
     <t xml:space="preserve">2.35426163673401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31505751609802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25574851036072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25976967811584</t>
+    <t xml:space="preserve">2.3150577545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2557487487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25976943969727</t>
   </si>
   <si>
     <t xml:space="preserve">2.37235617637634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34420919418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41457581520081</t>
+    <t xml:space="preserve">2.34420943260193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41457605361938</t>
   </si>
   <si>
     <t xml:space="preserve">2.42362332344055</t>
@@ -899,28 +899,28 @@
     <t xml:space="preserve">2.49197912216187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46383261680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41960167884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43468070030212</t>
+    <t xml:space="preserve">2.46383237838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41960191726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43468046188354</t>
   </si>
   <si>
     <t xml:space="preserve">2.38944530487061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35727691650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35225129127502</t>
+    <t xml:space="preserve">2.35727715492249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35225081443787</t>
   </si>
   <si>
     <t xml:space="preserve">2.26982164382935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28691029548645</t>
+    <t xml:space="preserve">2.28691053390503</t>
   </si>
   <si>
     <t xml:space="preserve">2.28490042686462</t>
@@ -929,19 +929,19 @@
     <t xml:space="preserve">2.30198955535889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26479601860046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21051263809204</t>
+    <t xml:space="preserve">2.26479625701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2105131149292</t>
   </si>
   <si>
     <t xml:space="preserve">2.1924192905426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30399966239929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46282696723938</t>
+    <t xml:space="preserve">2.30399990081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46282649040222</t>
   </si>
   <si>
     <t xml:space="preserve">2.49901556968689</t>
@@ -953,19 +953,19 @@
     <t xml:space="preserve">2.52062845230103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58596849441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62366509437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55832457542419</t>
+    <t xml:space="preserve">2.58596897125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62366533279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55832433700562</t>
   </si>
   <si>
     <t xml:space="preserve">2.53822016716003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39447116851807</t>
+    <t xml:space="preserve">2.39447093009949</t>
   </si>
   <si>
     <t xml:space="preserve">2.35627198219299</t>
@@ -974,25 +974,25 @@
     <t xml:space="preserve">2.44272232055664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40251278877258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34722471237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32008385658264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35526728630066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34406614303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34508419036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37766861915588</t>
+    <t xml:space="preserve">2.402512550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34722495079041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32008409500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35526704788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34406566619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34508466720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37766885757446</t>
   </si>
   <si>
     <t xml:space="preserve">2.37461400032043</t>
@@ -1001,46 +1001,46 @@
     <t xml:space="preserve">2.34712028503418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27584171295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27686023712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21983647346497</t>
+    <t xml:space="preserve">2.27584147453308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.276859998703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21983695030212</t>
   </si>
   <si>
     <t xml:space="preserve">2.26667714118958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23816585540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.197434425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16383147239685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16790437698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24834823608398</t>
+    <t xml:space="preserve">2.23816561698914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19743466377258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16383171081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1679048538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24834799766541</t>
   </si>
   <si>
     <t xml:space="preserve">2.24122047424316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19437956809998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24936676025391</t>
+    <t xml:space="preserve">2.19438004493713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24936652183533</t>
   </si>
   <si>
     <t xml:space="preserve">2.22696447372437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12615537643433</t>
+    <t xml:space="preserve">2.12615489959717</t>
   </si>
   <si>
     <t xml:space="preserve">2.13939237594604</t>
@@ -1052,31 +1052,31 @@
     <t xml:space="preserve">2.17808675765991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16892290115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22594571113586</t>
+    <t xml:space="preserve">2.16892313957214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22594618797302</t>
   </si>
   <si>
     <t xml:space="preserve">2.23918342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25954914093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24732947349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22289109230042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36646795272827</t>
+    <t xml:space="preserve">2.25954937934875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24732995033264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22289156913757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36646819114685</t>
   </si>
   <si>
     <t xml:space="preserve">2.44691133499146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38785123825073</t>
+    <t xml:space="preserve">2.38785147666931</t>
   </si>
   <si>
     <t xml:space="preserve">2.39396166801453</t>
@@ -1085,73 +1085,73 @@
     <t xml:space="preserve">2.38683319091797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41941809654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4632043838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51513624191284</t>
+    <t xml:space="preserve">2.41941833496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46320414543152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51513576507568</t>
   </si>
   <si>
     <t xml:space="preserve">2.5222635269165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52022767066956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53550100326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45302081108093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46931338310242</t>
+    <t xml:space="preserve">2.52022743225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53550124168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45302128791809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.469313621521</t>
   </si>
   <si>
     <t xml:space="preserve">2.40312600135803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3766508102417</t>
+    <t xml:space="preserve">2.37665128707886</t>
   </si>
   <si>
     <t xml:space="preserve">2.34813904762268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38276028633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39497947692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36850452423096</t>
+    <t xml:space="preserve">2.38275980949402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39497900009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3685040473938</t>
   </si>
   <si>
     <t xml:space="preserve">2.36443114280701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41025376319885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55586647987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52124524116516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50291705131531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4143271446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49477028846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48356914520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45607590675354</t>
+    <t xml:space="preserve">2.41025328636169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55586695671082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52124547958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50291681289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41432666778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477005004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48356938362122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45607542991638</t>
   </si>
   <si>
     <t xml:space="preserve">2.42349147796631</t>
@@ -1160,13 +1160,13 @@
     <t xml:space="preserve">2.3929431438446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41636300086975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42654609680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36341333389282</t>
+    <t xml:space="preserve">2.41636276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42654585838318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36341309547424</t>
   </si>
   <si>
     <t xml:space="preserve">2.38887000083923</t>
@@ -1175,16 +1175,16 @@
     <t xml:space="preserve">2.40923547744751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44182062149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40516233444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36748623847961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32675504684448</t>
+    <t xml:space="preserve">2.44182014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40516257286072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36748647689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32675528526306</t>
   </si>
   <si>
     <t xml:space="preserve">2.30639004707336</t>
@@ -1193,31 +1193,31 @@
     <t xml:space="preserve">2.37257790565491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44589328765869</t>
+    <t xml:space="preserve">2.44589352607727</t>
   </si>
   <si>
     <t xml:space="preserve">2.39701628684998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33591961860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35730290412903</t>
+    <t xml:space="preserve">2.33591985702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35730314254761</t>
   </si>
   <si>
     <t xml:space="preserve">2.38581538200378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43571043014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38174152374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45200252532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52430057525635</t>
+    <t xml:space="preserve">2.43571019172668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38174176216125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45200276374817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52430081367493</t>
   </si>
   <si>
     <t xml:space="preserve">2.56604957580566</t>
@@ -1226,97 +1226,97 @@
     <t xml:space="preserve">2.57623267173767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61950898170471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61187148094177</t>
+    <t xml:space="preserve">2.61950945854187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61187195777893</t>
   </si>
   <si>
     <t xml:space="preserve">2.53448271751404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49171543121338</t>
+    <t xml:space="preserve">2.49171566963196</t>
   </si>
   <si>
     <t xml:space="preserve">2.35628485679626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28704214096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23714733123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26158595085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23612904548645</t>
+    <t xml:space="preserve">2.28704261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23714756965637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26158571243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23612880706787</t>
   </si>
   <si>
     <t xml:space="preserve">2.23001885414124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15874028205872</t>
+    <t xml:space="preserve">2.15874052047729</t>
   </si>
   <si>
     <t xml:space="preserve">2.16586756706238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18725180625916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16281318664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12921047210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14041090011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13022804260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12411904335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20150756835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14550280570984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11088132858276</t>
+    <t xml:space="preserve">2.187251329422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16281342506409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12921023368835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14041113853455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13022828102112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1241192817688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20150780677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1455020904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11088156700134</t>
   </si>
   <si>
     <t xml:space="preserve">2.07116842269897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98054230213165</t>
+    <t xml:space="preserve">1.98054218292236</t>
   </si>
   <si>
     <t xml:space="preserve">2.17706918716431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15364861488342</t>
+    <t xml:space="preserve">2.153648853302</t>
   </si>
   <si>
     <t xml:space="preserve">2.17299628257751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12513756752014</t>
+    <t xml:space="preserve">2.12513732910156</t>
   </si>
   <si>
     <t xml:space="preserve">2.16994071006775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09764361381531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1322648525238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10273480415344</t>
+    <t xml:space="preserve">2.09764337539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13226509094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1027352809906</t>
   </si>
   <si>
     <t xml:space="preserve">2.09051609039307</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">2.15263032913208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2524209022522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33999300003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27075004577637</t>
+    <t xml:space="preserve">2.25242114067078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33999276161194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27074980735779</t>
   </si>
   <si>
     <t xml:space="preserve">2.33184671401978</t>
@@ -1340,31 +1340,31 @@
     <t xml:space="preserve">2.31962752342224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29111528396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36544942855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31046319007874</t>
+    <t xml:space="preserve">2.29111504554749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36544966697693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31046295166016</t>
   </si>
   <si>
     <t xml:space="preserve">2.16484928131104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12208223342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11597275733948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18623399734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17401385307312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17605137825012</t>
+    <t xml:space="preserve">2.12208199501038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11597299575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18623352050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1740140914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17605090141296</t>
   </si>
   <si>
     <t xml:space="preserve">2.13328313827515</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">2.14448428153992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20354461669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14346575737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.118008852005</t>
+    <t xml:space="preserve">2.20354437828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14346528053284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11800909042358</t>
   </si>
   <si>
     <t xml:space="preserve">2.15975880622864</t>
@@ -1388,13 +1388,13 @@
     <t xml:space="preserve">2.16179466247559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19947075843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29824376106262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32166337966919</t>
+    <t xml:space="preserve">2.19947099685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2982439994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32166385650635</t>
   </si>
   <si>
     <t xml:space="preserve">2.29620695114136</t>
@@ -1403,67 +1403,64 @@
     <t xml:space="preserve">2.25140285491943</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35526704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45098423957825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44894814491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46676802635193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37206840515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39141535758972</t>
+    <t xml:space="preserve">2.45098447799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4489483833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46676778793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37206888198853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3914155960083</t>
   </si>
   <si>
     <t xml:space="preserve">2.37308645248413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30842614173889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31708168983459</t>
+    <t xml:space="preserve">2.30842590332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31708121299744</t>
   </si>
   <si>
     <t xml:space="preserve">2.39803457260132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34610271453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31504535675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43520140647888</t>
+    <t xml:space="preserve">2.34610295295715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31504511833191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43520092964172</t>
   </si>
   <si>
     <t xml:space="preserve">2.43978357315063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42960071563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43367385864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3853063583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47593259811401</t>
+    <t xml:space="preserve">2.42960047721863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.433673620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38530611991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47593235969543</t>
   </si>
   <si>
     <t xml:space="preserve">2.4764416217804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48102426528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4784779548645</t>
+    <t xml:space="preserve">2.48102402687073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47847771644592</t>
   </si>
   <si>
     <t xml:space="preserve">2.50800752639771</t>
@@ -1475,58 +1472,58 @@
     <t xml:space="preserve">2.29773449897766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39192461967468</t>
+    <t xml:space="preserve">2.39192485809326</t>
   </si>
   <si>
     <t xml:space="preserve">2.42450976371765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34864830970764</t>
+    <t xml:space="preserve">2.34864783287048</t>
   </si>
   <si>
     <t xml:space="preserve">2.39243388175964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33846497535706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34304738044739</t>
+    <t xml:space="preserve">2.33846521377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34304714202881</t>
   </si>
   <si>
     <t xml:space="preserve">2.37054109573364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37868714332581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3623948097229</t>
+    <t xml:space="preserve">2.37868690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36239528656006</t>
   </si>
   <si>
     <t xml:space="preserve">2.31657195091248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32319140434265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30282640457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3186092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29926156997681</t>
+    <t xml:space="preserve">2.32319116592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30282616615295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31860947608948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29926180839539</t>
   </si>
   <si>
     <t xml:space="preserve">2.30129837989807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39039707183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39905261993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40821671485901</t>
+    <t xml:space="preserve">2.3903968334198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3990523815155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40821695327759</t>
   </si>
   <si>
     <t xml:space="preserve">2.43265581130981</t>
@@ -1535,19 +1532,19 @@
     <t xml:space="preserve">2.48458766937256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45505809783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46167635917664</t>
+    <t xml:space="preserve">2.45505833625793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46167659759521</t>
   </si>
   <si>
     <t xml:space="preserve">2.48815155029297</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4428379535675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41228938102722</t>
+    <t xml:space="preserve">2.44283819198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41228985786438</t>
   </si>
   <si>
     <t xml:space="preserve">2.4275643825531</t>
@@ -1556,16 +1553,16 @@
     <t xml:space="preserve">2.41585469245911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42807340621948</t>
+    <t xml:space="preserve">2.42807388305664</t>
   </si>
   <si>
     <t xml:space="preserve">2.40974473953247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40210771560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49680709838867</t>
+    <t xml:space="preserve">2.40210747718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49680733680725</t>
   </si>
   <si>
     <t xml:space="preserve">2.50597143173218</t>
@@ -1577,13 +1574,13 @@
     <t xml:space="preserve">2.59150648117065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62103629112244</t>
+    <t xml:space="preserve">2.62103605270386</t>
   </si>
   <si>
     <t xml:space="preserve">2.54415655136108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54466581344604</t>
+    <t xml:space="preserve">2.54466605186462</t>
   </si>
   <si>
     <t xml:space="preserve">2.37563228607178</t>
@@ -1592,10 +1589,10 @@
     <t xml:space="preserve">2.39753246307373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43611788749695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46271109580994</t>
+    <t xml:space="preserve">2.43611812591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46271085739136</t>
   </si>
   <si>
     <t xml:space="preserve">2.43246817588806</t>
@@ -1613,34 +1610,34 @@
     <t xml:space="preserve">2.13890314102173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13942527770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30784630775452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24006056785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16393136978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16288924217224</t>
+    <t xml:space="preserve">2.1394248008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3078465461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24006032943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16393184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16288948059082</t>
   </si>
   <si>
     <t xml:space="preserve">2.20460343360901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14516067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23849654197693</t>
+    <t xml:space="preserve">2.14516091346741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23849678039551</t>
   </si>
   <si>
     <t xml:space="preserve">2.26508951187134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.301589012146</t>
+    <t xml:space="preserve">2.30158925056458</t>
   </si>
   <si>
     <t xml:space="preserve">2.32974672317505</t>
@@ -1655,19 +1652,19 @@
     <t xml:space="preserve">2.33443927764893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39336133003235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32296824455261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49399709701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44289708137512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45645427703857</t>
+    <t xml:space="preserve">2.39336109161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32296800613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49399662017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44289684295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45645403862</t>
   </si>
   <si>
     <t xml:space="preserve">2.42151761054993</t>
@@ -1676,10 +1673,10 @@
     <t xml:space="preserve">2.44341826438904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45436787605286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44498229026794</t>
+    <t xml:space="preserve">2.45436811447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44498252868652</t>
   </si>
   <si>
     <t xml:space="preserve">2.44758987426758</t>
@@ -1688,7 +1685,7 @@
     <t xml:space="preserve">2.43820405006409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48617577552795</t>
+    <t xml:space="preserve">2.48617553710938</t>
   </si>
   <si>
     <t xml:space="preserve">2.4945182800293</t>
@@ -1697,13 +1694,13 @@
     <t xml:space="preserve">2.44602537155151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40535378456116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42203950881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45541095733643</t>
+    <t xml:space="preserve">2.405353307724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.422039270401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.455411195755</t>
   </si>
   <si>
     <t xml:space="preserve">2.41213274002075</t>
@@ -1712,22 +1709,22 @@
     <t xml:space="preserve">2.36728954315186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41526079177856</t>
+    <t xml:space="preserve">2.41526103019714</t>
   </si>
   <si>
     <t xml:space="preserve">2.41265344619751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44811081886292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48252534866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45801830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49295377731323</t>
+    <t xml:space="preserve">2.44811058044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48252558708191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45801782608032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49295353889465</t>
   </si>
   <si>
     <t xml:space="preserve">2.48148250579834</t>
@@ -1739,16 +1736,16 @@
     <t xml:space="preserve">2.3865818977356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38814640045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40900373458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26665353775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24110341072083</t>
+    <t xml:space="preserve">2.38814663887024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40900349617004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26665306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24110317230225</t>
   </si>
   <si>
     <t xml:space="preserve">2.20981764793396</t>
@@ -1763,19 +1760,19 @@
     <t xml:space="preserve">2.13212490081787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08571767807007</t>
+    <t xml:space="preserve">2.08571743965149</t>
   </si>
   <si>
     <t xml:space="preserve">2.08623886108398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13264584541321</t>
+    <t xml:space="preserve">2.13264560699463</t>
   </si>
   <si>
     <t xml:space="preserve">2.13160347938538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11491703987122</t>
+    <t xml:space="preserve">2.11491727828979</t>
   </si>
   <si>
     <t xml:space="preserve">2.109703540802</t>
@@ -1784,19 +1781,19 @@
     <t xml:space="preserve">2.10136079788208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06746745109558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08050322532654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00228881835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98091053962708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99029648303986</t>
+    <t xml:space="preserve">2.067467212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08050298690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00228905677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98091042041779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99029624462128</t>
   </si>
   <si>
     <t xml:space="preserve">2.06329584121704</t>
@@ -1811,7 +1808,7 @@
     <t xml:space="preserve">2.21294593811035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20199632644653</t>
+    <t xml:space="preserve">2.20199656486511</t>
   </si>
   <si>
     <t xml:space="preserve">2.20408177375793</t>
@@ -1826,13 +1823,13 @@
     <t xml:space="preserve">2.28125357627869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25987482070923</t>
+    <t xml:space="preserve">2.25987505912781</t>
   </si>
   <si>
     <t xml:space="preserve">2.21659684181213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24214649200439</t>
+    <t xml:space="preserve">2.24214625358582</t>
   </si>
   <si>
     <t xml:space="preserve">2.26978254318237</t>
@@ -1841,217 +1838,217 @@
     <t xml:space="preserve">2.292724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07946014404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99759590625763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96266031265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93710958957672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94910311698914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91364586353302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88183867931366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84429526329041</t>
+    <t xml:space="preserve">2.07945990562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99759602546692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96266043186188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93710994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94910323619843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9136461019516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88183856010437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84429550170898</t>
   </si>
   <si>
     <t xml:space="preserve">1.88444542884827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84898805618286</t>
+    <t xml:space="preserve">1.84898817539215</t>
   </si>
   <si>
     <t xml:space="preserve">1.86306703090668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87610292434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.859938621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86254525184631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82239556312561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82917463779449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76243138313293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72436666488647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67535221576691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71393847465515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70090281963348</t>
+    <t xml:space="preserve">1.87610256671906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85993850231171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86254560947418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82239544391632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82917439937592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76243126392365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72436678409576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6753523349762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71393835544586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7009025812149</t>
   </si>
   <si>
     <t xml:space="preserve">1.7759884595871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76556003093719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75095951557159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76138830184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83282434940338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76973128318787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75669550895691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78850269317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80205976963043</t>
+    <t xml:space="preserve">1.76555979251862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7509593963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76138854026794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8328241109848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76973104476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75669538974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78850281238556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80205988883972</t>
   </si>
   <si>
     <t xml:space="preserve">1.81822407245636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8208315372467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76764595508575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78224539756775</t>
+    <t xml:space="preserve">1.82083165645599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76764583587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78224503993988</t>
   </si>
   <si>
     <t xml:space="preserve">1.74991714954376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7660813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74574589729309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80883812904358</t>
+    <t xml:space="preserve">1.76608145236969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74574565887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80883836746216</t>
   </si>
   <si>
     <t xml:space="preserve">1.81926703453064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82031011581421</t>
+    <t xml:space="preserve">1.8203102350235</t>
   </si>
   <si>
     <t xml:space="preserve">1.91781723499298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85055303573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86723840236664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87662422657013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96318221092224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92981004714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96578860282898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90321707725525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87297427654266</t>
+    <t xml:space="preserve">1.85055291652679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86723816394806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87662446498871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96318197250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9298095703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96578872203827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90321743488312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87297415733337</t>
   </si>
   <si>
     <t xml:space="preserve">1.84116697311401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82343864440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81613874435425</t>
+    <t xml:space="preserve">1.82343852519989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81613886356354</t>
   </si>
   <si>
     <t xml:space="preserve">1.78798115253448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75304567813873</t>
+    <t xml:space="preserve">1.75304579734802</t>
   </si>
   <si>
     <t xml:space="preserve">1.74470281600952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78016018867493</t>
+    <t xml:space="preserve">1.78016006946564</t>
   </si>
   <si>
     <t xml:space="preserve">1.74626660346985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73323094844818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7097669839859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75408840179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71863162517548</t>
+    <t xml:space="preserve">1.73323118686676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70976710319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75408852100372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71863150596619</t>
   </si>
   <si>
     <t xml:space="preserve">1.70715951919556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76451683044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77546727657318</t>
+    <t xml:space="preserve">1.76451659202576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77546715736389</t>
   </si>
   <si>
     <t xml:space="preserve">1.73636019229889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905933856964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73427402973175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70507442951202</t>
+    <t xml:space="preserve">1.72905957698822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73427391052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70507419109344</t>
   </si>
   <si>
     <t xml:space="preserve">1.6393735408783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5616809129715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59609508514404</t>
+    <t xml:space="preserve">1.56168079376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59609496593475</t>
   </si>
   <si>
     <t xml:space="preserve">1.60235249996185</t>
@@ -2060,16 +2057,16 @@
     <t xml:space="preserve">1.59296691417694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60130953788757</t>
+    <t xml:space="preserve">1.60130965709686</t>
   </si>
   <si>
     <t xml:space="preserve">1.59244513511658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56898057460785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57367360591888</t>
+    <t xml:space="preserve">1.56898069381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57367348670959</t>
   </si>
   <si>
     <t xml:space="preserve">1.64250254631042</t>
@@ -2078,85 +2075,85 @@
     <t xml:space="preserve">1.62268781661987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62685918807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64093792438507</t>
+    <t xml:space="preserve">1.62685930728912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64093780517578</t>
   </si>
   <si>
     <t xml:space="preserve">1.54134547710419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5460376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54864513874054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55125212669373</t>
+    <t xml:space="preserve">1.54603755474091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54864525794983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55125188827515</t>
   </si>
   <si>
     <t xml:space="preserve">1.58775222301483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57158815860748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71028852462769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78120315074921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76295256614685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75617372989655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83751702308655</t>
+    <t xml:space="preserve">1.57158827781677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71028876304626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78120303153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76295304298401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75617408752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83751726150513</t>
   </si>
   <si>
     <t xml:space="preserve">1.83021748065948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81457436084747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78537428379059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80623137950897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82448160648346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83647406101227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88600993156433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92824518680573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9230318069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9167742729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93241751194</t>
+    <t xml:space="preserve">1.81457412242889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78537464141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80623149871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82448124885559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83647441864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88601016998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9282454252243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92303168773651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91677403450012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93241775035858</t>
   </si>
   <si>
     <t xml:space="preserve">1.87558114528656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85628879070282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84481692314148</t>
+    <t xml:space="preserve">1.85628890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84481680393219</t>
   </si>
   <si>
     <t xml:space="preserve">1.85576713085175</t>
@@ -2165,28 +2162,28 @@
     <t xml:space="preserve">1.89330983161926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93137454986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9459742307663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649565219879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92928838729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90269541740417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89487433433533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87871026992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90843152999878</t>
+    <t xml:space="preserve">1.9313747882843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94597411155701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9464955329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92928886413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90269553661346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89487457275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87871038913727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90843141078949</t>
   </si>
   <si>
     <t xml:space="preserve">1.90061020851135</t>
@@ -2195,7 +2192,7 @@
     <t xml:space="preserve">1.89852428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92459559440613</t>
+    <t xml:space="preserve">1.92459547519684</t>
   </si>
   <si>
     <t xml:space="preserve">1.90999603271484</t>
@@ -2204,13 +2201,13 @@
     <t xml:space="preserve">1.92876708507538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93085277080536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94753861427307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94858157634735</t>
+    <t xml:space="preserve">1.93085300922394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94753849506378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94858169555664</t>
   </si>
   <si>
     <t xml:space="preserve">1.97934591770172</t>
@@ -2219,25 +2216,25 @@
     <t xml:space="preserve">2.0163676738739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06955313682556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10448932647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16028189659119</t>
+    <t xml:space="preserve">2.06955337524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10448884963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16028141975403</t>
   </si>
   <si>
     <t xml:space="preserve">2.18113923072815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15976023674011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14098954200745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1759250164032</t>
+    <t xml:space="preserve">2.15976047515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14098930358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17592477798462</t>
   </si>
   <si>
     <t xml:space="preserve">2.19365382194519</t>
@@ -2246,7 +2243,7 @@
     <t xml:space="preserve">2.19991040229797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23380398750305</t>
+    <t xml:space="preserve">2.23380374908447</t>
   </si>
   <si>
     <t xml:space="preserve">2.19782495498657</t>
@@ -2255,163 +2252,166 @@
     <t xml:space="preserve">2.1910457611084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14568209648132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1336886882782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08780360221863</t>
+    <t xml:space="preserve">2.14568257331848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13368892669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08780336380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06486034393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03357481956482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05182480812073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01584601402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06121110916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00609564781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95326089859009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88640904426575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581798553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85513985157013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85621762275696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84651398658752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83357453346252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82440900802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80985260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84166181087494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80823564529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78667080402374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78343546390533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8395049571991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8567568063736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83573126792908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85783505439758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85136520862579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86538279056549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90743482112885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94301784038544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94086110591888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97374784946442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95218312740326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95110464096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96242582798004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93169617652893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92145240306854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96080911159515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03736519813538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09666919708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10098171234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08211231231689</t>
   </si>
   <si>
     <t xml:space="preserve">2.06486058235168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03357458114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05182504653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01584601402283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0612108707428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00609564781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95326089859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9117476940155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88640940189362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581786632538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85513997077942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85621774196625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84651386737823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83357429504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8244092464447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80985248088837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84166193008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8082355260849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78667080402374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78343534469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8395049571991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85675692558289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83573138713837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85783529281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85136520862579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86538255214691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90743494033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94301795959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94086110591888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97374784946442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95218324661255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95110464096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96242594718933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93169605731964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92145252227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96080923080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0373649597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09666895866394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10098195075989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08211255073547</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.073486328125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05623459815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06539964675903</t>
+    <t xml:space="preserve">2.05623483657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06539988517761</t>
   </si>
   <si>
     <t xml:space="preserve">2.05084323883057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07995653152466</t>
+    <t xml:space="preserve">2.07995629310608</t>
   </si>
   <si>
     <t xml:space="preserve">2.04653024673462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02065229415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0271213054657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01633954048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96512198448181</t>
+    <t xml:space="preserve">2.02065253257751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02712154388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01633977890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9651221036911</t>
   </si>
   <si>
     <t xml:space="preserve">1.94894778728485</t>
@@ -2420,16 +2420,16 @@
     <t xml:space="preserve">1.92846155166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90204346179962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82764458656311</t>
+    <t xml:space="preserve">1.90204322338104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82764434814453</t>
   </si>
   <si>
     <t xml:space="preserve">1.81632244586945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86484456062317</t>
+    <t xml:space="preserve">1.86484444141388</t>
   </si>
   <si>
     <t xml:space="preserve">1.83627021312714</t>
@@ -2438,19 +2438,19 @@
     <t xml:space="preserve">1.86430513858795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83842635154724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87347030639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72520971298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68854904174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70795798301697</t>
+    <t xml:space="preserve">1.83842611312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87347006797791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72520959377289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68854916095734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70795786380768</t>
   </si>
   <si>
     <t xml:space="preserve">1.62385368347168</t>
@@ -2459,28 +2459,28 @@
     <t xml:space="preserve">1.65943598747253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67614960670471</t>
+    <t xml:space="preserve">1.67614948749542</t>
   </si>
   <si>
     <t xml:space="preserve">1.62277519702911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65081000328064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65727984905243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64326238632202</t>
+    <t xml:space="preserve">1.65080988407135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65727996826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64326250553131</t>
   </si>
   <si>
     <t xml:space="preserve">1.65458381175995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7295229434967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71766245365143</t>
+    <t xml:space="preserve">1.72952258586884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71766233444214</t>
   </si>
   <si>
     <t xml:space="preserve">1.75162696838379</t>
@@ -2489,79 +2489,79 @@
     <t xml:space="preserve">1.73760962486267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74138331413269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7704963684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78828763961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79367911815643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80230498313904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8632265329361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88425254821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86592221260071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89449596405029</t>
+    <t xml:space="preserve">1.74138343334198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77049672603607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78828752040863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79367887973785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80230510234833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86322665214539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88425230979919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86592197418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89449620246887</t>
   </si>
   <si>
     <t xml:space="preserve">1.94247877597809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95164406299591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88802599906921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89934813976288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98237407207489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92306995391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89395678043365</t>
+    <t xml:space="preserve">1.95164370536804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88802635669708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89934802055359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9823739528656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92306971549988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89395666122437</t>
   </si>
   <si>
     <t xml:space="preserve">1.87400960922241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88533103466034</t>
+    <t xml:space="preserve">1.88533091545105</t>
   </si>
   <si>
     <t xml:space="preserve">1.90959179401398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88047862052917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89180088043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87454807758331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88101780414581</t>
+    <t xml:space="preserve">1.88047850131989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89180064201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87454795837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88101768493652</t>
   </si>
   <si>
     <t xml:space="preserve">1.89233994483948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96134829521179</t>
+    <t xml:space="preserve">1.9613481760025</t>
   </si>
   <si>
     <t xml:space="preserve">1.98291313648224</t>
@@ -2573,37 +2573,37 @@
     <t xml:space="preserve">2.05515623092651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11122584342957</t>
+    <t xml:space="preserve">2.11122560501099</t>
   </si>
   <si>
     <t xml:space="preserve">2.16621661186218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18993854522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21905088424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17807769775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17699980735779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19317317008972</t>
+    <t xml:space="preserve">2.18993830680847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21905112266541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17807722091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17699956893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19317293167114</t>
   </si>
   <si>
     <t xml:space="preserve">2.19371223449707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15219926834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16028594970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15651249885559</t>
+    <t xml:space="preserve">2.15219974517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16028618812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15651226043701</t>
   </si>
   <si>
     <t xml:space="preserve">2.22605991363525</t>
@@ -2612,16 +2612,16 @@
     <t xml:space="preserve">2.25193762779236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26703357696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29992079734802</t>
+    <t xml:space="preserve">2.26703333854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29992055892944</t>
   </si>
   <si>
     <t xml:space="preserve">2.27458119392395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31232023239136</t>
+    <t xml:space="preserve">2.31232047080994</t>
   </si>
   <si>
     <t xml:space="preserve">2.3290331363678</t>
@@ -2630,16 +2630,16 @@
     <t xml:space="preserve">2.34466814994812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.336580991745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35383319854736</t>
+    <t xml:space="preserve">2.33658123016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35383343696594</t>
   </si>
   <si>
     <t xml:space="preserve">2.38240718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45141577720642</t>
+    <t xml:space="preserve">2.45141553878784</t>
   </si>
   <si>
     <t xml:space="preserve">2.48430275917053</t>
@@ -2648,34 +2648,34 @@
     <t xml:space="preserve">2.47028517723083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41098141670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42445945739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41852831840515</t>
+    <t xml:space="preserve">2.41098117828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42445921897888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41852855682373</t>
   </si>
   <si>
     <t xml:space="preserve">2.39696359634399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36569356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36946821212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32094621658325</t>
+    <t xml:space="preserve">2.36569333076477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36946845054626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32094645500183</t>
   </si>
   <si>
     <t xml:space="preserve">2.33819818496704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36677217483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37917232513428</t>
+    <t xml:space="preserve">2.36677241325378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37917280197144</t>
   </si>
   <si>
     <t xml:space="preserve">2.4023551940918</t>
@@ -2690,19 +2690,19 @@
     <t xml:space="preserve">2.3958854675293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42769360542297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40990281105042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44009351730347</t>
+    <t xml:space="preserve">2.42769384384155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40990257263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44009375572205</t>
   </si>
   <si>
     <t xml:space="preserve">2.45842385292053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43470191955566</t>
+    <t xml:space="preserve">2.43470239639282</t>
   </si>
   <si>
     <t xml:space="preserve">2.43146777153015</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">2.40127658843994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41691088676453</t>
+    <t xml:space="preserve">2.41691112518311</t>
   </si>
   <si>
     <t xml:space="preserve">2.47729349136353</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">2.42499852180481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43200659751892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45518946647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4886155128479</t>
+    <t xml:space="preserve">2.4320068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45518970489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48861575126648</t>
   </si>
   <si>
     <t xml:space="preserve">2.49077177047729</t>
@@ -2738,10 +2738,10 @@
     <t xml:space="preserve">2.47998976707458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48807621002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46597194671631</t>
+    <t xml:space="preserve">2.48807644844055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46597242355347</t>
   </si>
   <si>
     <t xml:space="preserve">2.45950245857239</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">2.47891116142273</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46381545066833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49508428573608</t>
+    <t xml:space="preserve">2.46381521224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49508452415466</t>
   </si>
   <si>
     <t xml:space="preserve">2.40397214889526</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">2.38941550254822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43793773651123</t>
+    <t xml:space="preserve">2.43793749809265</t>
   </si>
   <si>
     <t xml:space="preserve">2.41637206077576</t>
@@ -2774,22 +2774,22 @@
     <t xml:space="preserve">2.33226823806763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23738098144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28320670127869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33442449569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35976386070251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33765935897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34682512283325</t>
+    <t xml:space="preserve">2.23738145828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28320693969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33442425727844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35976362228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33765959739685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34682488441467</t>
   </si>
   <si>
     <t xml:space="preserve">2.35760688781738</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">2.44440674781799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42338109016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50371050834656</t>
+    <t xml:space="preserve">2.42338085174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50371026992798</t>
   </si>
   <si>
     <t xml:space="preserve">2.2325291633606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2249813079834</t>
+    <t xml:space="preserve">2.22498154640198</t>
   </si>
   <si>
     <t xml:space="preserve">2.26110291481018</t>
@@ -2816,28 +2816,28 @@
     <t xml:space="preserve">2.19532990455627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06809520721436</t>
+    <t xml:space="preserve">2.06809496879578</t>
   </si>
   <si>
     <t xml:space="preserve">2.07025194168091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11607813835144</t>
+    <t xml:space="preserve">2.11607789993286</t>
   </si>
   <si>
     <t xml:space="preserve">2.03682565689087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94032192230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79260063171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7462352514267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68261849880219</t>
+    <t xml:space="preserve">1.94032204151154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79260039329529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74623537063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68261861801147</t>
   </si>
   <si>
     <t xml:space="preserve">1.64703643321991</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">1.42329823970795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35428977012634</t>
+    <t xml:space="preserve">1.35429000854492</t>
   </si>
   <si>
     <t xml:space="preserve">1.3575245141983</t>
@@ -2855,13 +2855,13 @@
     <t xml:space="preserve">1.1165337562561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36668956279755</t>
+    <t xml:space="preserve">1.36668944358826</t>
   </si>
   <si>
     <t xml:space="preserve">1.26209878921509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25778591632843</t>
+    <t xml:space="preserve">1.25778579711914</t>
   </si>
   <si>
     <t xml:space="preserve">1.22435963153839</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">1.5828800201416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62223601341248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59689736366272</t>
+    <t xml:space="preserve">1.62223613262177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59689748287201</t>
   </si>
   <si>
     <t xml:space="preserve">1.56562805175781</t>
@@ -2888,37 +2888,37 @@
     <t xml:space="preserve">1.46481120586395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46427202224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50955843925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46588885784149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45402824878693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44701933860779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47505402565002</t>
+    <t xml:space="preserve">1.46427190303802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50955855846405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4658887386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45402836799622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44701910018921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47505414485931</t>
   </si>
   <si>
     <t xml:space="preserve">1.4691241979599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39688038825989</t>
+    <t xml:space="preserve">1.3968802690506</t>
   </si>
   <si>
     <t xml:space="preserve">1.41035854816437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3472808599472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24808132648468</t>
+    <t xml:space="preserve">1.34728074073792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24808156490326</t>
   </si>
   <si>
     <t xml:space="preserve">1.19416880607605</t>
@@ -2930,10 +2930,10 @@
     <t xml:space="preserve">1.20764696598053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15535151958466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15373361110687</t>
+    <t xml:space="preserve">1.15535128116608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15373373031616</t>
   </si>
   <si>
     <t xml:space="preserve">1.19255125522614</t>
@@ -2951,19 +2951,19 @@
     <t xml:space="preserve">1.26910722255707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21411609649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18823826313019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18608129024506</t>
+    <t xml:space="preserve">1.21411597728729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1882381439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18608140945435</t>
   </si>
   <si>
     <t xml:space="preserve">1.17206394672394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15265607833862</t>
+    <t xml:space="preserve">1.15265595912933</t>
   </si>
   <si>
     <t xml:space="preserve">1.13971626758575</t>
@@ -2975,10 +2975,10 @@
     <t xml:space="preserve">1.09442961215973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08580362796783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08202981948853</t>
+    <t xml:space="preserve">1.08580350875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08202993869781</t>
   </si>
   <si>
     <t xml:space="preserve">1.12548661231995</t>
@@ -2987,31 +2987,31 @@
     <t xml:space="preserve">1.06277656555176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04434812068939</t>
+    <t xml:space="preserve">1.04434823989868</t>
   </si>
   <si>
     <t xml:space="preserve">1.02454471588135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02537035942078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02812039852142</t>
+    <t xml:space="preserve">1.02537047863007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02812051773071</t>
   </si>
   <si>
     <t xml:space="preserve">1.13538825511932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17664504051208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22395277023315</t>
+    <t xml:space="preserve">1.17664480209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22395300865173</t>
   </si>
   <si>
     <t xml:space="preserve">1.18104648590088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.210200548172</t>
+    <t xml:space="preserve">1.21020078659058</t>
   </si>
   <si>
     <t xml:space="preserve">1.23220479488373</t>
@@ -3020,37 +3020,37 @@
     <t xml:space="preserve">1.27181112766266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27236139774323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39613211154938</t>
+    <t xml:space="preserve">1.27236127853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39613223075867</t>
   </si>
   <si>
     <t xml:space="preserve">1.4637930393219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44288980960846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37027740478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28281307220459</t>
+    <t xml:space="preserve">1.44288992881775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37027752399445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28281319141388</t>
   </si>
   <si>
     <t xml:space="preserve">1.25365817546844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26521050930023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34827399253845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3213198184967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28501319885254</t>
+    <t xml:space="preserve">1.26521062850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34827411174774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32131969928741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28501307964325</t>
   </si>
   <si>
     <t xml:space="preserve">1.29821598529816</t>
@@ -3062,10 +3062,10 @@
     <t xml:space="preserve">1.27896273136139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21405124664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22340273857117</t>
+    <t xml:space="preserve">1.21405112743378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22340261936188</t>
   </si>
   <si>
     <t xml:space="preserve">1.19534814357758</t>
@@ -3074,37 +3074,37 @@
     <t xml:space="preserve">1.21680212020874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19314801692963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20194947719574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19644832611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23275446891785</t>
+    <t xml:space="preserve">1.19314813613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20194959640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19644844532013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23275434970856</t>
   </si>
   <si>
     <t xml:space="preserve">1.21900200843811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21350181102753</t>
+    <t xml:space="preserve">1.21350193023682</t>
   </si>
   <si>
     <t xml:space="preserve">1.18159580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24100637435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37082755565643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37192785739899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37907874584198</t>
+    <t xml:space="preserve">1.24100613594055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37082767486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37192797660828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37907886505127</t>
   </si>
   <si>
     <t xml:space="preserve">1.3972315788269</t>
@@ -3113,43 +3113,43 @@
     <t xml:space="preserve">1.36807751655579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41538536548615</t>
+    <t xml:space="preserve">1.41538524627686</t>
   </si>
   <si>
     <t xml:space="preserve">1.40218257904053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35377490520477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33342146873474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27786219120026</t>
+    <t xml:space="preserve">1.35377514362335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33342134952545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27786231040955</t>
   </si>
   <si>
     <t xml:space="preserve">1.28171288967133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24045622348785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22505331039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17279446125031</t>
+    <t xml:space="preserve">1.24045610427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22505342960358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17279434204102</t>
   </si>
   <si>
     <t xml:space="preserve">1.14253985881805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12768733501434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19589817523956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28721392154694</t>
+    <t xml:space="preserve">1.12768721580505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19589829444885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28721380233765</t>
   </si>
   <si>
     <t xml:space="preserve">1.30371618270874</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">1.30481648445129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27401173114777</t>
+    <t xml:space="preserve">1.27401185035706</t>
   </si>
   <si>
     <t xml:space="preserve">1.27731204032898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28886425495148</t>
+    <t xml:space="preserve">1.28886437416077</t>
   </si>
   <si>
     <t xml:space="preserve">1.26796054840088</t>
@@ -3176,43 +3176,43 @@
     <t xml:space="preserve">1.29216480255127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29161441326141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2822630405426</t>
+    <t xml:space="preserve">1.2916145324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28226292133331</t>
   </si>
   <si>
     <t xml:space="preserve">1.30921733379364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26575982570648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23165476322174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2283536195755</t>
+    <t xml:space="preserve">1.26575970649719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23165464401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22835350036621</t>
   </si>
   <si>
     <t xml:space="preserve">1.18929767608643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20084917545319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19479870796204</t>
+    <t xml:space="preserve">1.2008490562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19479858875275</t>
   </si>
   <si>
     <t xml:space="preserve">1.16234242916107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17829561233521</t>
+    <t xml:space="preserve">1.17829549312592</t>
   </si>
   <si>
     <t xml:space="preserve">1.20855093002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20524978637695</t>
+    <t xml:space="preserve">1.20524990558624</t>
   </si>
   <si>
     <t xml:space="preserve">1.20469963550568</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">1.10898423194885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11118412017822</t>
+    <t xml:space="preserve">1.11118400096893</t>
   </si>
   <si>
     <t xml:space="preserve">1.07817852497101</t>
@@ -3251,13 +3251,13 @@
     <t xml:space="preserve">1.09358131885529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07157778739929</t>
+    <t xml:space="preserve">1.07157802581787</t>
   </si>
   <si>
     <t xml:space="preserve">1.04242289066315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.965468168258667</t>
+    <t xml:space="preserve">0.965468108654022</t>
   </si>
   <si>
     <t xml:space="preserve">1.00569605827332</t>
@@ -3266,55 +3266,55 @@
     <t xml:space="preserve">0.963436603546143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972375988960266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977252244949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952465355396271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903704345226288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907361447811127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902485191822052</t>
+    <t xml:space="preserve">0.972376108169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977252185344696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952465415000916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903704285621643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907361507415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902485311031342</t>
   </si>
   <si>
     <t xml:space="preserve">0.975626945495605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96262389421463</t>
+    <t xml:space="preserve">0.962623834609985</t>
   </si>
   <si>
     <t xml:space="preserve">1.05648875236511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98903614282608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964249193668365</t>
+    <t xml:space="preserve">0.989036202430725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96424925327301</t>
   </si>
   <si>
     <t xml:space="preserve">0.978064835071564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968312680721283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907767772674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842346608638763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83178174495697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826499342918396</t>
+    <t xml:space="preserve">0.968312561511993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907767832279205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842346668243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831781804561615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826499283313751</t>
   </si>
   <si>
     <t xml:space="preserve">0.857381343841553</t>
@@ -3323,55 +3323,55 @@
     <t xml:space="preserve">0.879323840141296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89964097738266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880136430263519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851692497730255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978471219539642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970344424247742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00691521167755</t>
+    <t xml:space="preserve">0.89964085817337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880136370658875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8516925573349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978471159934998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970344305038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00691509246826</t>
   </si>
   <si>
     <t xml:space="preserve">1.07233607769012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08493292331696</t>
+    <t xml:space="preserve">1.08493268489838</t>
   </si>
   <si>
     <t xml:space="preserve">1.15116655826569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15848076343536</t>
+    <t xml:space="preserve">1.15848064422607</t>
   </si>
   <si>
     <t xml:space="preserve">1.20642912387848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23202860355377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23487281799316</t>
+    <t xml:space="preserve">1.23202848434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23487293720245</t>
   </si>
   <si>
     <t xml:space="preserve">1.23893642425537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20683538913727</t>
+    <t xml:space="preserve">1.20683550834656</t>
   </si>
   <si>
     <t xml:space="preserve">1.22796511650085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19058179855347</t>
+    <t xml:space="preserve">1.19058167934418</t>
   </si>
   <si>
     <t xml:space="preserve">1.20764803886414</t>
@@ -3380,10 +3380,10 @@
     <t xml:space="preserve">1.19464504718781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20561635494232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19667673110962</t>
+    <t xml:space="preserve">1.20561623573303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19667685031891</t>
   </si>
   <si>
     <t xml:space="preserve">1.1901752948761</t>
@@ -3395,10 +3395,10 @@
     <t xml:space="preserve">1.23284125328064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1922070980072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18936276435852</t>
+    <t xml:space="preserve">1.19220697879791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18936264514923</t>
   </si>
   <si>
     <t xml:space="preserve">1.20074021816254</t>
@@ -3413,40 +3413,40 @@
     <t xml:space="preserve">1.18001675605774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13247489929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15807437896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20277202129364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21902561187744</t>
+    <t xml:space="preserve">1.1324747800827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.158074259758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20277190208435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21902549266815</t>
   </si>
   <si>
     <t xml:space="preserve">1.21049249172211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.188143491745</t>
+    <t xml:space="preserve">1.18814373016357</t>
   </si>
   <si>
     <t xml:space="preserve">1.19789588451385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26169145107269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33970904350281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32467448711395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35189938545227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35393106937408</t>
+    <t xml:space="preserve">1.26169168949127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33970928192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32467436790466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35189926624298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35393118858337</t>
   </si>
   <si>
     <t xml:space="preserve">1.3372710943222</t>
@@ -3455,22 +3455,22 @@
     <t xml:space="preserve">1.31614136695862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30760824680328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33645832538605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31736028194427</t>
+    <t xml:space="preserve">1.3076080083847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33645844459534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31736040115356</t>
   </si>
   <si>
     <t xml:space="preserve">1.34011554718018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3165477514267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28038334846497</t>
+    <t xml:space="preserve">1.31654763221741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28038322925568</t>
   </si>
   <si>
     <t xml:space="preserve">1.24178075790405</t>
@@ -3479,31 +3479,31 @@
     <t xml:space="preserve">1.27631974220276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23853015899658</t>
+    <t xml:space="preserve">1.23853003978729</t>
   </si>
   <si>
     <t xml:space="preserve">1.26656770706177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24584424495697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25478386878967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37993705272675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44495165348053</t>
+    <t xml:space="preserve">1.24584412574768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25478374958038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37993693351746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44495153427124</t>
   </si>
   <si>
     <t xml:space="preserve">1.55181956291199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5193122625351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54409921169281</t>
+    <t xml:space="preserve">1.51931238174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54409909248352</t>
   </si>
   <si>
     <t xml:space="preserve">1.51606154441833</t>
@@ -3515,16 +3515,16 @@
     <t xml:space="preserve">1.53028357028961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50793468952179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48030340671539</t>
+    <t xml:space="preserve">1.5079345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4803032875061</t>
   </si>
   <si>
     <t xml:space="preserve">1.4547039270401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51240432262421</t>
+    <t xml:space="preserve">1.5124044418335</t>
   </si>
   <si>
     <t xml:space="preserve">1.49046206474304</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">1.49005556106567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51402974128723</t>
+    <t xml:space="preserve">1.51402986049652</t>
   </si>
   <si>
     <t xml:space="preserve">1.47461462020874</t>
@@ -3542,28 +3542,28 @@
     <t xml:space="preserve">1.51362347602844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49777626991272</t>
+    <t xml:space="preserve">1.49777615070343</t>
   </si>
   <si>
     <t xml:space="preserve">1.50671565532684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57010519504547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61236441135406</t>
+    <t xml:space="preserve">1.57010507583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61236453056335</t>
   </si>
   <si>
     <t xml:space="preserve">1.60545670986176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59204757213593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60098707675934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58229529857635</t>
+    <t xml:space="preserve">1.59204733371735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60098683834076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58229517936707</t>
   </si>
   <si>
     <t xml:space="preserve">1.61724066734314</t>
@@ -3572,46 +3572,46 @@
     <t xml:space="preserve">1.66762709617615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6554366350174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58960926532745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54978775978088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54816246032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5696986913681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55791473388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55872738361359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54247379302979</t>
+    <t xml:space="preserve">1.65543675422668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58960950374603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54978787899017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54816257953644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56969857215881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55791485309601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55872750282288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5424736738205</t>
   </si>
   <si>
     <t xml:space="preserve">1.54369282722473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52500104904175</t>
+    <t xml:space="preserve">1.52500116825104</t>
   </si>
   <si>
     <t xml:space="preserve">1.54531812667847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54328656196594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53678500652313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51077902317047</t>
+    <t xml:space="preserve">1.54328632354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53678488731384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51077914237976</t>
   </si>
   <si>
     <t xml:space="preserve">1.51971864700317</t>
@@ -3620,19 +3620,19 @@
     <t xml:space="preserve">1.5469434261322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52947068214417</t>
+    <t xml:space="preserve">1.52947080135345</t>
   </si>
   <si>
     <t xml:space="preserve">1.53841030597687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53719139099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58554601669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50021409988403</t>
+    <t xml:space="preserve">1.53719127178192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58554589748383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50021421909332</t>
   </si>
   <si>
     <t xml:space="preserve">1.46689403057098</t>
@@ -3641,106 +3641,106 @@
     <t xml:space="preserve">1.46933221817017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47664654254913</t>
+    <t xml:space="preserve">1.47664630413055</t>
   </si>
   <si>
     <t xml:space="preserve">1.52215671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50549650192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53922307491302</t>
+    <t xml:space="preserve">1.50549674034119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53922319412231</t>
   </si>
   <si>
     <t xml:space="preserve">1.52987718582153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52337574958801</t>
+    <t xml:space="preserve">1.52337563037872</t>
   </si>
   <si>
     <t xml:space="preserve">1.54084837436676</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57091760635376</t>
+    <t xml:space="preserve">1.57091772556305</t>
   </si>
   <si>
     <t xml:space="preserve">1.56319713592529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62374210357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63837039470673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61398983001709</t>
+    <t xml:space="preserve">1.62374222278595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63837051391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6139897108078</t>
   </si>
   <si>
     <t xml:space="preserve">1.6294310092926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63024365901947</t>
+    <t xml:space="preserve">1.63024353981018</t>
   </si>
   <si>
     <t xml:space="preserve">1.63755786418915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60667562484741</t>
+    <t xml:space="preserve">1.60667586326599</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164106845856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62089776992798</t>
+    <t xml:space="preserve">1.62089788913727</t>
   </si>
   <si>
     <t xml:space="preserve">1.72497689723969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76312530040741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6785352230072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70009744167328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6893162727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68185269832611</t>
+    <t xml:space="preserve">1.76312518119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67853534221649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70009732246399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68931615352631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68185257911682</t>
   </si>
   <si>
     <t xml:space="preserve">1.68682837486267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69512152671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68765783309937</t>
+    <t xml:space="preserve">1.69512140750885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68765771389008</t>
   </si>
   <si>
     <t xml:space="preserve">1.67687666416168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69926822185516</t>
+    <t xml:space="preserve">1.69926810264587</t>
   </si>
   <si>
     <t xml:space="preserve">1.68848705291748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7025853395462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69014585018158</t>
+    <t xml:space="preserve">1.70258522033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69014573097229</t>
   </si>
   <si>
     <t xml:space="preserve">1.68434035778046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69263350963593</t>
+    <t xml:space="preserve">1.69263339042664</t>
   </si>
   <si>
     <t xml:space="preserve">1.666095495224</t>
@@ -3776,7 +3776,7 @@
     <t xml:space="preserve">1.5147453546524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52220928668976</t>
+    <t xml:space="preserve">1.52220916748047</t>
   </si>
   <si>
     <t xml:space="preserve">1.53133177757263</t>
@@ -3785,13 +3785,13 @@
     <t xml:space="preserve">1.52055048942566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53257572650909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49193906784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47867000102997</t>
+    <t xml:space="preserve">1.5325756072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49193918704987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47867012023926</t>
   </si>
   <si>
     <t xml:space="preserve">1.43056988716125</t>
@@ -3800,10 +3800,10 @@
     <t xml:space="preserve">1.46291315555573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46954751014709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41937398910522</t>
+    <t xml:space="preserve">1.46954762935638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41937410831451</t>
   </si>
   <si>
     <t xml:space="preserve">1.41315412521362</t>
@@ -3815,19 +3815,19 @@
     <t xml:space="preserve">1.3563460111618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28751277923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29787921905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31446552276611</t>
+    <t xml:space="preserve">1.28751289844513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29787933826447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3144656419754</t>
   </si>
   <si>
     <t xml:space="preserve">1.337686419487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33893048763275</t>
+    <t xml:space="preserve">1.33893036842346</t>
   </si>
   <si>
     <t xml:space="preserve">1.35924875736237</t>
@@ -3836,16 +3836,16 @@
     <t xml:space="preserve">1.34349167346954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34473550319672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34846770763397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36546850204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36505389213562</t>
+    <t xml:space="preserve">1.34473562240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34846746921539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36546838283539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36505377292633</t>
   </si>
   <si>
     <t xml:space="preserve">1.34639418125153</t>
@@ -3854,64 +3854,64 @@
     <t xml:space="preserve">1.35510194301605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49940299987793</t>
+    <t xml:space="preserve">1.49940288066864</t>
   </si>
   <si>
     <t xml:space="preserve">1.4960857629776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49028062820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5342344045639</t>
+    <t xml:space="preserve">1.49028050899506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53423428535461</t>
   </si>
   <si>
     <t xml:space="preserve">1.52345323562622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51557457447052</t>
+    <t xml:space="preserve">1.51557469367981</t>
   </si>
   <si>
     <t xml:space="preserve">1.49691498279572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4703768491745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48032867908478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45627844333649</t>
+    <t xml:space="preserve">1.47037696838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48032855987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45627868175507</t>
   </si>
   <si>
     <t xml:space="preserve">1.45130264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48240208625793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48779261112213</t>
+    <t xml:space="preserve">1.48240196704865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48779249191284</t>
   </si>
   <si>
     <t xml:space="preserve">1.51889193058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49898827075958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52262389659882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50479352474213</t>
+    <t xml:space="preserve">1.49898838996887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52262377738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50479364395142</t>
   </si>
   <si>
     <t xml:space="preserve">1.52801430225372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53755152225494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53050231933594</t>
+    <t xml:space="preserve">1.53755164146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53050220012665</t>
   </si>
   <si>
     <t xml:space="preserve">1.54833257198334</t>
@@ -3920,13 +3920,13 @@
     <t xml:space="preserve">1.5076961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49650037288666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51101338863373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50230550765991</t>
+    <t xml:space="preserve">1.49650049209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51101350784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5023056268692</t>
   </si>
   <si>
     <t xml:space="preserve">1.50106155872345</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">1.40403163433075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42227673530579</t>
+    <t xml:space="preserve">1.4222766160965</t>
   </si>
   <si>
     <t xml:space="preserve">1.46374237537384</t>
@@ -3956,22 +3956,22 @@
     <t xml:space="preserve">1.57155346870422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6117752790451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60306739807129</t>
+    <t xml:space="preserve">1.61177539825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60306751728058</t>
   </si>
   <si>
     <t xml:space="preserve">1.64163076877594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62794697284698</t>
+    <t xml:space="preserve">1.62794709205627</t>
   </si>
   <si>
     <t xml:space="preserve">1.68516981601715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66692471504211</t>
+    <t xml:space="preserve">1.6669248342514</t>
   </si>
   <si>
     <t xml:space="preserve">1.68599903583527</t>
@@ -3983,7 +3983,7 @@
     <t xml:space="preserve">1.714195728302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70756125450134</t>
+    <t xml:space="preserve">1.70756137371063</t>
   </si>
   <si>
     <t xml:space="preserve">1.70839047431946</t>
@@ -3992,10 +3992,10 @@
     <t xml:space="preserve">1.71087837219238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72331833839417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69843900203705</t>
+    <t xml:space="preserve">1.72331845760345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69843888282776</t>
   </si>
   <si>
     <t xml:space="preserve">1.69760942459106</t>
@@ -4004,13 +4004,13 @@
     <t xml:space="preserve">1.70175611972809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66029047966003</t>
+    <t xml:space="preserve">1.66029036045074</t>
   </si>
   <si>
     <t xml:space="preserve">1.6793646812439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57113897800446</t>
+    <t xml:space="preserve">1.57113885879517</t>
   </si>
   <si>
     <t xml:space="preserve">1.56201636791229</t>
@@ -4040,7 +4040,7 @@
     <t xml:space="preserve">1.58482253551483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59726238250732</t>
+    <t xml:space="preserve">1.59726226329803</t>
   </si>
   <si>
     <t xml:space="preserve">1.57652938365936</t>
@@ -4061,43 +4061,43 @@
     <t xml:space="preserve">1.47079157829285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40734887123108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39615333080292</t>
+    <t xml:space="preserve">1.40734899044037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39615321159363</t>
   </si>
   <si>
     <t xml:space="preserve">1.39490926265717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43513095378876</t>
+    <t xml:space="preserve">1.43513107299805</t>
   </si>
   <si>
     <t xml:space="preserve">1.42144727706909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40817821025848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4525465965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4649863243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43969225883484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4471560716629</t>
+    <t xml:space="preserve">1.40817809104919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45254671573639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46498644351959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43969213962555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44715619087219</t>
   </si>
   <si>
     <t xml:space="preserve">1.43637502193451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54086875915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47535276412964</t>
+    <t xml:space="preserve">1.54086887836456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47535288333893</t>
   </si>
   <si>
     <t xml:space="preserve">1.47286486625671</t>
@@ -4109,34 +4109,34 @@
     <t xml:space="preserve">1.47410881519318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46125435829163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48530471324921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50354957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51516008377075</t>
+    <t xml:space="preserve">1.46125447750092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48530459403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50354945659637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51515996456146</t>
   </si>
   <si>
     <t xml:space="preserve">1.51184272766113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56326019763947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5931156873703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58896923065186</t>
+    <t xml:space="preserve">1.56326031684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59311580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58896911144257</t>
   </si>
   <si>
     <t xml:space="preserve">1.60057950019836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59892082214355</t>
+    <t xml:space="preserve">1.59892094135284</t>
   </si>
   <si>
     <t xml:space="preserve">1.62711763381958</t>
@@ -4145,10 +4145,10 @@
     <t xml:space="preserve">1.62131237983704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60555553436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59062767028809</t>
+    <t xml:space="preserve">1.6055554151535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59062778949738</t>
   </si>
   <si>
     <t xml:space="preserve">1.56077229976654</t>
@@ -4157,10 +4157,10 @@
     <t xml:space="preserve">1.48820722103119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4828165769577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55040597915649</t>
+    <t xml:space="preserve">1.48281669616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55040609836578</t>
   </si>
   <si>
     <t xml:space="preserve">1.58689570426941</t>
@@ -4169,16 +4169,16 @@
     <t xml:space="preserve">1.5263557434082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53796625137329</t>
+    <t xml:space="preserve">1.537966132164</t>
   </si>
   <si>
     <t xml:space="preserve">1.60804343223572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63955724239349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62297105789185</t>
+    <t xml:space="preserve">1.63955736160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62297093868256</t>
   </si>
   <si>
     <t xml:space="preserve">1.68268191814423</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">1.70590257644653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6403865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79049277305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76893055438995</t>
+    <t xml:space="preserve">1.64038670063019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79049265384674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76893043518066</t>
   </si>
   <si>
     <t xml:space="preserve">1.67438864707947</t>
@@ -4205,22 +4205,22 @@
     <t xml:space="preserve">1.62545895576477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50189089775085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52925837039948</t>
+    <t xml:space="preserve">1.50189101696014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52925848960876</t>
   </si>
   <si>
     <t xml:space="preserve">1.37790822982788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37251758575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30078184604645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16311550140381</t>
+    <t xml:space="preserve">1.37251770496368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30078196525574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16311538219452</t>
   </si>
   <si>
     <t xml:space="preserve">1.10299015045166</t>
@@ -4238,19 +4238,19 @@
     <t xml:space="preserve">1.17596983909607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22406995296478</t>
+    <t xml:space="preserve">1.22407019138336</t>
   </si>
   <si>
     <t xml:space="preserve">1.24894964694977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34058892726898</t>
+    <t xml:space="preserve">1.34058904647827</t>
   </si>
   <si>
     <t xml:space="preserve">1.31031906604767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3020259141922</t>
+    <t xml:space="preserve">1.30202579498291</t>
   </si>
   <si>
     <t xml:space="preserve">1.31902682781219</t>
@@ -4262,10 +4262,10 @@
     <t xml:space="preserve">1.28626883029938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29497671127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31156313419342</t>
+    <t xml:space="preserve">1.2949765920639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31156301498413</t>
   </si>
   <si>
     <t xml:space="preserve">1.38868939876556</t>
@@ -4274,37 +4274,37 @@
     <t xml:space="preserve">1.36132192611694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3181973695755</t>
+    <t xml:space="preserve">1.31819748878479</t>
   </si>
   <si>
     <t xml:space="preserve">1.33271050453186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27548778057098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27756094932556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32814919948578</t>
+    <t xml:space="preserve">1.27548766136169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27756106853485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32814931869507</t>
   </si>
   <si>
     <t xml:space="preserve">1.3260760307312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28378093242645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28668344020844</t>
+    <t xml:space="preserve">1.28378081321716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28668355941772</t>
   </si>
   <si>
     <t xml:space="preserve">1.29995250701904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30575776100159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35178482532501</t>
+    <t xml:space="preserve">1.3057576417923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35178470611572</t>
   </si>
   <si>
     <t xml:space="preserve">1.36090731620789</t>
@@ -4319,7 +4319,7 @@
     <t xml:space="preserve">1.31197762489319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32151484489441</t>
+    <t xml:space="preserve">1.32151472568512</t>
   </si>
   <si>
     <t xml:space="preserve">1.31280696392059</t>
@@ -4337,7 +4337,7 @@
     <t xml:space="preserve">1.2700971364975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27175569534302</t>
+    <t xml:space="preserve">1.27175581455231</t>
   </si>
   <si>
     <t xml:space="preserve">1.26180398464203</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">1.40983688831329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44425344467163</t>
+    <t xml:space="preserve">1.44425356388092</t>
   </si>
   <si>
     <t xml:space="preserve">1.44466817378998</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">1.43139910697937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46415710449219</t>
+    <t xml:space="preserve">1.4641569852829</t>
   </si>
   <si>
     <t xml:space="preserve">1.45710790157318</t>
@@ -4364,10 +4364,10 @@
     <t xml:space="preserve">1.46623039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44840013980865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54587602615356</t>
+    <t xml:space="preserve">1.44840002059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54587614536285</t>
   </si>
   <si>
     <t xml:space="preserve">1.56219375133514</t>
@@ -4376,13 +4376,13 @@
     <t xml:space="preserve">1.60599362850189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62574648857117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61887586116791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61844658851624</t>
+    <t xml:space="preserve">1.62574636936188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6188759803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61844646930695</t>
   </si>
   <si>
     <t xml:space="preserve">1.6459287405014</t>
@@ -4391,16 +4391,16 @@
     <t xml:space="preserve">1.64206397533417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65623450279236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59998190402985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65838158130646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61801695823669</t>
+    <t xml:space="preserve">1.65623462200165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59998202323914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65838170051575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61801707744598</t>
   </si>
   <si>
     <t xml:space="preserve">1.66525220870972</t>
@@ -4409,10 +4409,10 @@
     <t xml:space="preserve">1.67555797100067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45913541316986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41147077083588</t>
+    <t xml:space="preserve">1.45913529396057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41147089004517</t>
   </si>
   <si>
     <t xml:space="preserve">1.42134726047516</t>
@@ -4439,7 +4439,7 @@
     <t xml:space="preserve">1.40073561668396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44625306129456</t>
+    <t xml:space="preserve">1.44625318050385</t>
   </si>
   <si>
     <t xml:space="preserve">1.42435312271118</t>
@@ -4448,10 +4448,10 @@
     <t xml:space="preserve">1.42220604419708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40116500854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34620046615601</t>
+    <t xml:space="preserve">1.40116512775421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3462005853653</t>
   </si>
   <si>
     <t xml:space="preserve">1.30454778671265</t>
@@ -4472,7 +4472,7 @@
     <t xml:space="preserve">1.29681837558746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23798906803131</t>
+    <t xml:space="preserve">1.2379891872406</t>
   </si>
   <si>
     <t xml:space="preserve">1.20750105381012</t>
@@ -4484,7 +4484,7 @@
     <t xml:space="preserve">1.10358381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11045444011688</t>
+    <t xml:space="preserve">1.11045432090759</t>
   </si>
   <si>
     <t xml:space="preserve">1.12505424022675</t>
@@ -4493,7 +4493,7 @@
     <t xml:space="preserve">1.20148932933807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16713643074036</t>
+    <t xml:space="preserve">1.16713654994965</t>
   </si>
   <si>
     <t xml:space="preserve">1.13063657283783</t>
@@ -4502,7 +4502,7 @@
     <t xml:space="preserve">1.11260151863098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14137196540833</t>
+    <t xml:space="preserve">1.14137184619904</t>
   </si>
   <si>
     <t xml:space="preserve">1.10959565639496</t>
@@ -4514,13 +4514,13 @@
     <t xml:space="preserve">1.13364255428314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15940713882446</t>
+    <t xml:space="preserve">1.15940725803375</t>
   </si>
   <si>
     <t xml:space="preserve">1.17186009883881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19118332862854</t>
+    <t xml:space="preserve">1.19118344783783</t>
   </si>
   <si>
     <t xml:space="preserve">1.23884797096252</t>
@@ -4529,7 +4529,7 @@
     <t xml:space="preserve">1.23068928718567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35006535053253</t>
+    <t xml:space="preserve">1.35006523132324</t>
   </si>
   <si>
     <t xml:space="preserve">1.38270044326782</t>
@@ -4538,7 +4538,7 @@
     <t xml:space="preserve">1.39386510848999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42564129829407</t>
+    <t xml:space="preserve">1.42564141750336</t>
   </si>
   <si>
     <t xml:space="preserve">1.40631794929504</t>
@@ -4550,7 +4550,7 @@
     <t xml:space="preserve">1.40717673301697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36122977733612</t>
+    <t xml:space="preserve">1.36122989654541</t>
   </si>
   <si>
     <t xml:space="preserve">1.31571233272552</t>
@@ -4559,7 +4559,7 @@
     <t xml:space="preserve">1.33417701721191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33374750614166</t>
+    <t xml:space="preserve">1.33374762535095</t>
   </si>
   <si>
     <t xml:space="preserve">1.31356537342072</t>
@@ -4568,7 +4568,7 @@
     <t xml:space="preserve">1.27105379104614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2714831829071</t>
+    <t xml:space="preserve">1.27148306369781</t>
   </si>
   <si>
     <t xml:space="preserve">1.29295361042023</t>
@@ -4577,16 +4577,16 @@
     <t xml:space="preserve">1.29252421855927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27448904514313</t>
+    <t xml:space="preserve">1.27448892593384</t>
   </si>
   <si>
     <t xml:space="preserve">1.30540657043457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26633012294769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26890671253204</t>
+    <t xml:space="preserve">1.26633024215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26890659332275</t>
   </si>
   <si>
     <t xml:space="preserve">1.25087153911591</t>
@@ -4601,16 +4601,16 @@
     <t xml:space="preserve">1.39558267593384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38141214847565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43337070941925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43895304203033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44797074794769</t>
+    <t xml:space="preserve">1.38141202926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43337082862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43895316123962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4479706287384</t>
   </si>
   <si>
     <t xml:space="preserve">1.45527052879333</t>
@@ -4640,7 +4640,7 @@
     <t xml:space="preserve">1.33632409572601</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35779464244843</t>
+    <t xml:space="preserve">1.35779452323914</t>
   </si>
   <si>
     <t xml:space="preserve">1.38398861885071</t>
@@ -4652,7 +4652,7 @@
     <t xml:space="preserve">1.41576492786407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37239444255829</t>
+    <t xml:space="preserve">1.37239456176758</t>
   </si>
   <si>
     <t xml:space="preserve">1.39042973518372</t>
@@ -4670,7 +4670,7 @@
     <t xml:space="preserve">1.42048847675323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45097649097443</t>
+    <t xml:space="preserve">1.45097661018372</t>
   </si>
   <si>
     <t xml:space="preserve">1.46042358875275</t>
@@ -4685,7 +4685,7 @@
     <t xml:space="preserve">1.49563527107239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53814673423767</t>
+    <t xml:space="preserve">1.53814685344696</t>
   </si>
   <si>
     <t xml:space="preserve">1.52869987487793</t>
@@ -4703,10 +4703,10 @@
     <t xml:space="preserve">1.6081405878067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62746405601501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65408754348755</t>
+    <t xml:space="preserve">1.6274641752243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65408742427826</t>
   </si>
   <si>
     <t xml:space="preserve">1.65537583827972</t>
@@ -4718,13 +4718,13 @@
     <t xml:space="preserve">1.76058113574982</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62531709671021</t>
+    <t xml:space="preserve">1.62531721591949</t>
   </si>
   <si>
     <t xml:space="preserve">1.58022904396057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61329352855682</t>
+    <t xml:space="preserve">1.61329364776611</t>
   </si>
   <si>
     <t xml:space="preserve">1.59096419811249</t>
@@ -4736,10 +4736,10 @@
     <t xml:space="preserve">1.6167289018631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63991701602936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64421105384827</t>
+    <t xml:space="preserve">1.63991689682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64421117305756</t>
   </si>
   <si>
     <t xml:space="preserve">1.6480758190155</t>
@@ -4790,7 +4790,7 @@
     <t xml:space="preserve">1.67426979541779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61586999893188</t>
+    <t xml:space="preserve">1.61587011814117</t>
   </si>
   <si>
     <t xml:space="preserve">1.61458170413971</t>
@@ -4820,7 +4820,7 @@
     <t xml:space="preserve">1.74941647052765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7434047460556</t>
+    <t xml:space="preserve">1.74340486526489</t>
   </si>
   <si>
     <t xml:space="preserve">1.7889221906662</t>
@@ -4829,7 +4829,7 @@
     <t xml:space="preserve">1.79751038551331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81211030483246</t>
+    <t xml:space="preserve">1.81211042404175</t>
   </si>
   <si>
     <t xml:space="preserve">1.81125164031982</t>
@@ -4850,13 +4850,13 @@
     <t xml:space="preserve">1.93406307697296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93234515190125</t>
+    <t xml:space="preserve">1.93234527111053</t>
   </si>
   <si>
     <t xml:space="preserve">1.96927440166473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98129796981812</t>
+    <t xml:space="preserve">1.98129785060883</t>
   </si>
   <si>
     <t xml:space="preserve">2.0096390247345</t>
@@ -4874,7 +4874,7 @@
     <t xml:space="preserve">2.08693289756775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16164994239807</t>
+    <t xml:space="preserve">2.16165018081665</t>
   </si>
   <si>
     <t xml:space="preserve">2.23293209075928</t>
@@ -4886,7 +4886,7 @@
     <t xml:space="preserve">2.18140292167664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32743072509766</t>
+    <t xml:space="preserve">2.32743096351624</t>
   </si>
   <si>
     <t xml:space="preserve">2.2949800491333</t>
@@ -4904,10 +4904,10 @@
     <t xml:space="preserve">2.33914923667908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33734631538391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41036009788513</t>
+    <t xml:space="preserve">2.33734607696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41036033630371</t>
   </si>
   <si>
     <t xml:space="preserve">2.51672601699829</t>
@@ -4925,22 +4925,22 @@
     <t xml:space="preserve">2.37971234321594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32472681999207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39143085479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42207860946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40044498443604</t>
+    <t xml:space="preserve">2.32472658157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39143061637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42207837104797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40044474601746</t>
   </si>
   <si>
     <t xml:space="preserve">2.41486716270447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4346981048584</t>
+    <t xml:space="preserve">2.43469834327698</t>
   </si>
   <si>
     <t xml:space="preserve">2.48247265815735</t>
@@ -4949,7 +4949,7 @@
     <t xml:space="preserve">2.48517680168152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54827523231506</t>
+    <t xml:space="preserve">2.54827547073364</t>
   </si>
   <si>
     <t xml:space="preserve">2.53926110267639</t>
@@ -4967,7 +4967,7 @@
     <t xml:space="preserve">2.06962871551514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07413601875305</t>
+    <t xml:space="preserve">2.07413578033447</t>
   </si>
   <si>
     <t xml:space="preserve">2.01644563674927</t>
@@ -4985,16 +4985,16 @@
     <t xml:space="preserve">2.07593846321106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99210774898529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01554417610168</t>
+    <t xml:space="preserve">1.99210786819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01554441452026</t>
   </si>
   <si>
     <t xml:space="preserve">2.02185416221619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07683968544006</t>
+    <t xml:space="preserve">2.07683992385864</t>
   </si>
   <si>
     <t xml:space="preserve">2.06422019004822</t>
@@ -5003,19 +5003,19 @@
     <t xml:space="preserve">2.04889631271362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06692457199097</t>
+    <t xml:space="preserve">2.06692433357239</t>
   </si>
   <si>
     <t xml:space="preserve">2.09937500953674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09847354888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13092422485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12731862068176</t>
+    <t xml:space="preserve">2.09847378730774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13092446327209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12731838226318</t>
   </si>
   <si>
     <t xml:space="preserve">2.16878318786621</t>
@@ -5027,10 +5027,10 @@
     <t xml:space="preserve">2.26252961158752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27334642410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36619138717651</t>
+    <t xml:space="preserve">2.27334666252136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36619114875793</t>
   </si>
   <si>
     <t xml:space="preserve">2.40675473213196</t>
@@ -5042,7 +5042,7 @@
     <t xml:space="preserve">2.47435998916626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46444439888</t>
+    <t xml:space="preserve">2.46444463729858</t>
   </si>
   <si>
     <t xml:space="preserve">2.29858589172363</t>
@@ -5051,13 +5051,13 @@
     <t xml:space="preserve">2.3905291557312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29407906532288</t>
+    <t xml:space="preserve">2.2940788269043</t>
   </si>
   <si>
     <t xml:space="preserve">2.25802254676819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29678297042847</t>
+    <t xml:space="preserve">2.29678320884705</t>
   </si>
   <si>
     <t xml:space="preserve">2.25982522964478</t>
@@ -5075,10 +5075,10 @@
     <t xml:space="preserve">2.4058530330658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45993781089783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44461369514465</t>
+    <t xml:space="preserve">2.45993757247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44461345672607</t>
   </si>
   <si>
     <t xml:space="preserve">2.44371223449707</t>
@@ -5087,7 +5087,7 @@
     <t xml:space="preserve">2.42838835716248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43379688262939</t>
+    <t xml:space="preserve">2.43379664421082</t>
   </si>
   <si>
     <t xml:space="preserve">2.46398329734802</t>
@@ -5958,6 +5958,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.40199995040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12400007247925</t>
   </si>
 </sst>
 </file>
@@ -19993,7 +19996,7 @@
         <v>3.13125896453857</v>
       </c>
       <c r="G527" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -20045,7 +20048,7 @@
         <v>3.25851202011108</v>
       </c>
       <c r="G529" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -20071,7 +20074,7 @@
         <v>3.25580501556396</v>
       </c>
       <c r="G530" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -20097,7 +20100,7 @@
         <v>3.27949595451355</v>
       </c>
       <c r="G531" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -20123,7 +20126,7 @@
         <v>3.15359592437744</v>
       </c>
       <c r="G532" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -20149,7 +20152,7 @@
         <v>3.17931699752808</v>
       </c>
       <c r="G533" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -20175,7 +20178,7 @@
         <v>3.15494894981384</v>
       </c>
       <c r="G534" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -20201,7 +20204,7 @@
         <v>3.15494894981384</v>
       </c>
       <c r="G535" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -20227,7 +20230,7 @@
         <v>3.06898498535156</v>
       </c>
       <c r="G536" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -20253,7 +20256,7 @@
         <v>3.08049201965332</v>
       </c>
       <c r="G537" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -20279,7 +20282,7 @@
         <v>3.18811702728271</v>
       </c>
       <c r="G538" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -20357,7 +20360,7 @@
         <v>3.11907505989075</v>
       </c>
       <c r="G541" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -20383,7 +20386,7 @@
         <v>3.0777850151062</v>
       </c>
       <c r="G542" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -20409,7 +20412,7 @@
         <v>3.23752903938293</v>
       </c>
       <c r="G543" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -20435,7 +20438,7 @@
         <v>3.24362111091614</v>
       </c>
       <c r="G544" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -20487,7 +20490,7 @@
         <v>3.23008298873901</v>
       </c>
       <c r="G546" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -20539,7 +20542,7 @@
         <v>3.23549795150757</v>
       </c>
       <c r="G548" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -20565,7 +20568,7 @@
         <v>3.1711950302124</v>
       </c>
       <c r="G549" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -20591,7 +20594,7 @@
         <v>3.29168009757996</v>
       </c>
       <c r="G550" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -20617,7 +20620,7 @@
         <v>3.29235696792603</v>
       </c>
       <c r="G551" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -20643,7 +20646,7 @@
         <v>3.29844903945923</v>
       </c>
       <c r="G552" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -20669,7 +20672,7 @@
         <v>3.29506397247314</v>
       </c>
       <c r="G553" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -20695,7 +20698,7 @@
         <v>3.33432292938232</v>
       </c>
       <c r="G554" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -20721,7 +20724,7 @@
         <v>3.3065710067749</v>
       </c>
       <c r="G555" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -20747,7 +20750,7 @@
         <v>3.05477094650269</v>
       </c>
       <c r="G556" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -20799,7 +20802,7 @@
         <v>3.17999410629272</v>
       </c>
       <c r="G558" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -20825,7 +20828,7 @@
         <v>3.22331500053406</v>
       </c>
       <c r="G559" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -20851,7 +20854,7 @@
         <v>3.15359592437744</v>
       </c>
       <c r="G560" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20877,7 +20880,7 @@
         <v>3.12245893478394</v>
       </c>
       <c r="G561" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20903,7 +20906,7 @@
         <v>3.18067097663879</v>
       </c>
       <c r="G562" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -20929,7 +20932,7 @@
         <v>3.10892105102539</v>
       </c>
       <c r="G563" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -20955,7 +20958,7 @@
         <v>3.11501288414001</v>
       </c>
       <c r="G564" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -21007,7 +21010,7 @@
         <v>3.15156507492065</v>
       </c>
       <c r="G566" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -21033,7 +21036,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G567" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -21059,7 +21062,7 @@
         <v>3.14073491096497</v>
       </c>
       <c r="G568" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -21085,7 +21088,7 @@
         <v>3.07981491088867</v>
       </c>
       <c r="G569" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -21111,7 +21114,7 @@
         <v>3.08861494064331</v>
       </c>
       <c r="G570" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -21137,7 +21140,7 @@
         <v>3.06153988838196</v>
       </c>
       <c r="G571" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -21163,7 +21166,7 @@
         <v>3.08252310752869</v>
       </c>
       <c r="G572" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -21241,7 +21244,7 @@
         <v>3.05680108070374</v>
       </c>
       <c r="G575" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -21267,7 +21270,7 @@
         <v>3.05950903892517</v>
       </c>
       <c r="G576" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -21293,7 +21296,7 @@
         <v>3.17796301841736</v>
       </c>
       <c r="G577" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -21345,7 +21348,7 @@
         <v>3.17999410629272</v>
       </c>
       <c r="G579" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -21371,7 +21374,7 @@
         <v>3.18947005271912</v>
       </c>
       <c r="G580" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -21449,7 +21452,7 @@
         <v>3.20165395736694</v>
       </c>
       <c r="G583" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -21475,7 +21478,7 @@
         <v>3.23414492607117</v>
       </c>
       <c r="G584" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -21501,7 +21504,7 @@
         <v>3.30318689346313</v>
       </c>
       <c r="G585" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -21527,7 +21530,7 @@
         <v>3.26392793655396</v>
       </c>
       <c r="G586" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -21553,7 +21556,7 @@
         <v>3.27272701263428</v>
       </c>
       <c r="G587" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -21579,7 +21582,7 @@
         <v>3.30792498588562</v>
       </c>
       <c r="G588" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -21605,7 +21608,7 @@
         <v>3.30792498588562</v>
       </c>
       <c r="G589" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -21631,7 +21634,7 @@
         <v>3.24768209457397</v>
       </c>
       <c r="G590" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -21657,7 +21660,7 @@
         <v>3.2070689201355</v>
       </c>
       <c r="G591" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -21683,7 +21686,7 @@
         <v>3.22737598419189</v>
       </c>
       <c r="G592" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -21709,7 +21712,7 @@
         <v>3.2118079662323</v>
       </c>
       <c r="G593" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -21735,7 +21738,7 @@
         <v>3.24362111091614</v>
       </c>
       <c r="G594" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -21761,7 +21764,7 @@
         <v>3.22805309295654</v>
       </c>
       <c r="G595" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -21813,7 +21816,7 @@
         <v>3.20368504524231</v>
       </c>
       <c r="G597" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -21839,7 +21842,7 @@
         <v>3.19353199005127</v>
       </c>
       <c r="G598" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -21891,7 +21894,7 @@
         <v>3.31943202018738</v>
       </c>
       <c r="G600" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21917,7 +21920,7 @@
         <v>3.33161592483521</v>
       </c>
       <c r="G601" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21943,7 +21946,7 @@
         <v>3.39659690856934</v>
       </c>
       <c r="G602" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21969,7 +21972,7 @@
         <v>3.44533205032349</v>
       </c>
       <c r="G603" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21995,7 +21998,7 @@
         <v>3.48459100723267</v>
       </c>
       <c r="G604" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -22021,7 +22024,7 @@
         <v>3.38238191604614</v>
       </c>
       <c r="G605" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -22047,7 +22050,7 @@
         <v>3.38305902481079</v>
       </c>
       <c r="G606" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -22073,7 +22076,7 @@
         <v>3.15833401679993</v>
       </c>
       <c r="G607" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -22099,7 +22102,7 @@
         <v>3.11230611801147</v>
       </c>
       <c r="G608" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -22125,7 +22128,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G609" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -22151,7 +22154,7 @@
         <v>3.19691610336304</v>
       </c>
       <c r="G610" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -22177,7 +22180,7 @@
         <v>3.15765690803528</v>
       </c>
       <c r="G611" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -22203,7 +22206,7 @@
         <v>3.09402990341187</v>
       </c>
       <c r="G612" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -22229,7 +22232,7 @@
         <v>2.91330194473267</v>
       </c>
       <c r="G613" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -22255,7 +22258,7 @@
         <v>2.76641893386841</v>
       </c>
       <c r="G614" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -22281,7 +22284,7 @@
         <v>2.77657198905945</v>
       </c>
       <c r="G615" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -22307,7 +22310,7 @@
         <v>2.7772490978241</v>
       </c>
       <c r="G616" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -22333,7 +22336,7 @@
         <v>2.99588203430176</v>
       </c>
       <c r="G617" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -22359,7 +22362,7 @@
         <v>2.90788698196411</v>
       </c>
       <c r="G618" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -22385,7 +22388,7 @@
         <v>2.80906200408936</v>
       </c>
       <c r="G619" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -22411,7 +22414,7 @@
         <v>2.80770897865295</v>
       </c>
       <c r="G620" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -22437,7 +22440,7 @@
         <v>2.86185908317566</v>
       </c>
       <c r="G621" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -22463,7 +22466,7 @@
         <v>2.78469491004944</v>
       </c>
       <c r="G622" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -22489,7 +22492,7 @@
         <v>2.90585708618164</v>
       </c>
       <c r="G623" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -22515,7 +22518,7 @@
         <v>2.94037795066833</v>
       </c>
       <c r="G624" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -22541,7 +22544,7 @@
         <v>2.98775911331177</v>
       </c>
       <c r="G625" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -22567,7 +22570,7 @@
         <v>3.02431106567383</v>
       </c>
       <c r="G626" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -22593,7 +22596,7 @@
         <v>2.94511604309082</v>
       </c>
       <c r="G627" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -22619,7 +22622,7 @@
         <v>2.93090105056763</v>
       </c>
       <c r="G628" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -22645,7 +22648,7 @@
         <v>3.03040289878845</v>
       </c>
       <c r="G629" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -22671,7 +22674,7 @@
         <v>3.10689091682434</v>
       </c>
       <c r="G630" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -22697,7 +22700,7 @@
         <v>3.01551198959351</v>
       </c>
       <c r="G631" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -22723,7 +22726,7 @@
         <v>3.23752903938293</v>
       </c>
       <c r="G632" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -22749,7 +22752,7 @@
         <v>3.1711950302124</v>
       </c>
       <c r="G633" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -22775,7 +22778,7 @@
         <v>3.18879389762878</v>
       </c>
       <c r="G634" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -22801,7 +22804,7 @@
         <v>3.14344191551208</v>
       </c>
       <c r="G635" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -22827,7 +22830,7 @@
         <v>3.17187190055847</v>
       </c>
       <c r="G636" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -22853,7 +22856,7 @@
         <v>3.18608593940735</v>
       </c>
       <c r="G637" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22879,7 +22882,7 @@
         <v>3.14344191551208</v>
       </c>
       <c r="G638" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22905,7 +22908,7 @@
         <v>3.17390203475952</v>
       </c>
       <c r="G639" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22931,7 +22934,7 @@
         <v>3.17728710174561</v>
       </c>
       <c r="G640" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22957,7 +22960,7 @@
         <v>3.1651029586792</v>
       </c>
       <c r="G641" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22983,7 +22986,7 @@
         <v>3.22737598419189</v>
       </c>
       <c r="G642" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -23009,7 +23012,7 @@
         <v>3.238205909729</v>
       </c>
       <c r="G643" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -23035,7 +23038,7 @@
         <v>3.17525601387024</v>
       </c>
       <c r="G644" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -23061,7 +23064,7 @@
         <v>3.12245893478394</v>
       </c>
       <c r="G645" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -23087,7 +23090,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G646" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -23113,7 +23116,7 @@
         <v>3.14411902427673</v>
       </c>
       <c r="G647" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -23139,7 +23142,7 @@
         <v>3.1651029586792</v>
       </c>
       <c r="G648" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -23165,7 +23168,7 @@
         <v>3.18743991851807</v>
       </c>
       <c r="G649" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -23191,7 +23194,7 @@
         <v>3.16239500045776</v>
       </c>
       <c r="G650" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -23217,7 +23220,7 @@
         <v>3.13125896453857</v>
       </c>
       <c r="G651" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -23243,7 +23246,7 @@
         <v>3.09402990341187</v>
       </c>
       <c r="G652" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -23269,7 +23272,7 @@
         <v>3.07304692268372</v>
       </c>
       <c r="G653" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -23295,7 +23298,7 @@
         <v>3.13531994819641</v>
       </c>
       <c r="G654" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -23321,7 +23324,7 @@
         <v>3.13193488121033</v>
       </c>
       <c r="G655" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -23347,7 +23350,7 @@
         <v>3.17796301841736</v>
       </c>
       <c r="G656" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -23373,7 +23376,7 @@
         <v>3.22263789176941</v>
       </c>
       <c r="G657" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -23399,7 +23402,7 @@
         <v>3.19082403182983</v>
       </c>
       <c r="G658" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -23425,7 +23428,7 @@
         <v>3.23617506027222</v>
       </c>
       <c r="G659" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -23451,7 +23454,7 @@
         <v>3.22128391265869</v>
       </c>
       <c r="G660" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -23477,7 +23480,7 @@
         <v>3.10621404647827</v>
       </c>
       <c r="G661" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -23503,7 +23506,7 @@
         <v>3.0980908870697</v>
       </c>
       <c r="G662" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -23529,7 +23532,7 @@
         <v>3.10012197494507</v>
       </c>
       <c r="G663" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -23555,7 +23558,7 @@
         <v>3.12719702720642</v>
       </c>
       <c r="G664" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -23581,7 +23584,7 @@
         <v>2.94240808486938</v>
       </c>
       <c r="G665" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -23607,7 +23610,7 @@
         <v>2.90924096107483</v>
       </c>
       <c r="G666" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -23633,7 +23636,7 @@
         <v>2.86862802505493</v>
       </c>
       <c r="G667" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -23659,7 +23662,7 @@
         <v>2.7975549697876</v>
       </c>
       <c r="G668" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -23685,7 +23688,7 @@
         <v>2.77115702629089</v>
       </c>
       <c r="G669" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -23711,7 +23714,7 @@
         <v>2.76777291297913</v>
       </c>
       <c r="G670" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -23737,7 +23740,7 @@
         <v>2.70753002166748</v>
       </c>
       <c r="G671" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -23763,7 +23766,7 @@
         <v>2.70820689201355</v>
       </c>
       <c r="G672" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -23789,7 +23792,7 @@
         <v>2.76844906806946</v>
       </c>
       <c r="G673" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -23815,7 +23818,7 @@
         <v>2.76709604263306</v>
       </c>
       <c r="G674" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -23841,7 +23844,7 @@
         <v>2.74543499946594</v>
       </c>
       <c r="G675" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23867,7 +23870,7 @@
         <v>2.73866701126099</v>
       </c>
       <c r="G676" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23893,7 +23896,7 @@
         <v>2.72783708572388</v>
       </c>
       <c r="G677" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23919,7 +23922,7 @@
         <v>2.6838390827179</v>
       </c>
       <c r="G678" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23945,7 +23948,7 @@
         <v>2.70076107978821</v>
       </c>
       <c r="G679" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23971,7 +23974,7 @@
         <v>2.59922909736633</v>
       </c>
       <c r="G680" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23997,7 +24000,7 @@
         <v>2.57147693634033</v>
       </c>
       <c r="G681" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -24023,7 +24026,7 @@
         <v>2.58366107940674</v>
       </c>
       <c r="G682" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -24049,7 +24052,7 @@
         <v>2.67842388153076</v>
       </c>
       <c r="G683" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -24075,7 +24078,7 @@
         <v>2.79281711578369</v>
       </c>
       <c r="G684" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -24101,7 +24104,7 @@
         <v>2.79823207855225</v>
       </c>
       <c r="G685" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -24127,7 +24130,7 @@
         <v>2.77657198905945</v>
       </c>
       <c r="G686" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -24153,7 +24156,7 @@
         <v>2.87268900871277</v>
       </c>
       <c r="G687" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -24179,7 +24182,7 @@
         <v>2.85847496986389</v>
       </c>
       <c r="G688" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -24205,7 +24208,7 @@
         <v>2.86118197441101</v>
       </c>
       <c r="G689" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -24231,7 +24234,7 @@
         <v>2.85170602798462</v>
       </c>
       <c r="G690" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -24257,7 +24260,7 @@
         <v>2.87268900871277</v>
       </c>
       <c r="G691" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -24283,7 +24286,7 @@
         <v>2.90788698196411</v>
       </c>
       <c r="G692" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -24309,7 +24312,7 @@
         <v>2.91736388206482</v>
       </c>
       <c r="G693" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -24335,7 +24338,7 @@
         <v>2.96136093139648</v>
       </c>
       <c r="G694" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -24361,7 +24364,7 @@
         <v>2.93360900878906</v>
       </c>
       <c r="G695" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -24387,7 +24390,7 @@
         <v>2.87742805480957</v>
       </c>
       <c r="G696" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -24413,7 +24416,7 @@
         <v>2.91059494018555</v>
       </c>
       <c r="G697" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -24439,7 +24442,7 @@
         <v>2.94647002220154</v>
       </c>
       <c r="G698" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -24465,7 +24468,7 @@
         <v>2.97625207901001</v>
       </c>
       <c r="G699" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -24491,7 +24494,7 @@
         <v>2.94511604309082</v>
       </c>
       <c r="G700" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -24517,7 +24520,7 @@
         <v>2.69940710067749</v>
       </c>
       <c r="G701" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -24543,7 +24546,7 @@
         <v>2.59313702583313</v>
       </c>
       <c r="G702" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -24569,7 +24572,7 @@
         <v>2.54778599739075</v>
       </c>
       <c r="G703" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -24595,7 +24598,7 @@
         <v>2.51461791992188</v>
       </c>
       <c r="G704" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -24621,7 +24624,7 @@
         <v>2.53018689155579</v>
       </c>
       <c r="G705" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -24647,7 +24650,7 @@
         <v>2.48415899276733</v>
       </c>
       <c r="G706" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -24673,7 +24676,7 @@
         <v>2.44286894798279</v>
       </c>
       <c r="G707" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -24699,7 +24702,7 @@
         <v>2.3941330909729</v>
       </c>
       <c r="G708" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -24725,7 +24728,7 @@
         <v>2.44625306129456</v>
       </c>
       <c r="G709" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -24751,7 +24754,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G710" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -24777,7 +24780,7 @@
         <v>2.41850090026855</v>
       </c>
       <c r="G711" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -24803,7 +24806,7 @@
         <v>2.43542289733887</v>
       </c>
       <c r="G712" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -24829,7 +24832,7 @@
         <v>2.41443991661072</v>
       </c>
       <c r="G713" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -24855,7 +24858,7 @@
         <v>2.41782402992249</v>
       </c>
       <c r="G714" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24881,7 +24884,7 @@
         <v>2.36570405960083</v>
       </c>
       <c r="G715" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24907,7 +24910,7 @@
         <v>2.37450408935547</v>
       </c>
       <c r="G716" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24933,7 +24936,7 @@
         <v>2.28786301612854</v>
       </c>
       <c r="G717" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -24959,7 +24962,7 @@
         <v>2.238450050354</v>
       </c>
       <c r="G718" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24985,7 +24988,7 @@
         <v>2.17482304573059</v>
       </c>
       <c r="G719" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -25011,7 +25014,7 @@
         <v>2.2249128818512</v>
       </c>
       <c r="G720" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -25037,7 +25040,7 @@
         <v>2.20799088478088</v>
       </c>
       <c r="G721" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -25063,7 +25066,7 @@
         <v>2.30546188354492</v>
       </c>
       <c r="G722" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -25089,7 +25092,7 @@
         <v>2.29192399978638</v>
       </c>
       <c r="G723" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -25115,7 +25118,7 @@
         <v>2.2729709148407</v>
       </c>
       <c r="G724" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -25141,7 +25144,7 @@
         <v>2.28650903701782</v>
       </c>
       <c r="G725" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -25167,7 +25170,7 @@
         <v>2.37924194335938</v>
       </c>
       <c r="G726" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -25193,7 +25196,7 @@
         <v>2.29733896255493</v>
       </c>
       <c r="G727" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -25219,7 +25222,7 @@
         <v>2.28041696548462</v>
       </c>
       <c r="G728" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -25245,7 +25248,7 @@
         <v>2.32170701026917</v>
       </c>
       <c r="G729" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -25271,7 +25274,7 @@
         <v>2.33930611610413</v>
       </c>
       <c r="G730" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -25297,7 +25300,7 @@
         <v>2.36028909683228</v>
       </c>
       <c r="G731" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -25323,7 +25326,7 @@
         <v>2.36367392539978</v>
       </c>
       <c r="G732" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -25349,7 +25352,7 @@
         <v>2.36570405960083</v>
       </c>
       <c r="G733" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -25375,7 +25378,7 @@
         <v>2.29463195800781</v>
       </c>
       <c r="G734" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -25401,7 +25404,7 @@
         <v>2.31358408927917</v>
       </c>
       <c r="G735" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -25427,7 +25430,7 @@
         <v>2.2716178894043</v>
       </c>
       <c r="G736" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -25453,7 +25456,7 @@
         <v>2.29260110855103</v>
       </c>
       <c r="G737" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -25479,7 +25482,7 @@
         <v>2.26620292663574</v>
       </c>
       <c r="G738" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -25505,7 +25508,7 @@
         <v>2.34810495376587</v>
       </c>
       <c r="G739" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -25531,7 +25534,7 @@
         <v>2.36164307594299</v>
       </c>
       <c r="G740" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -25557,7 +25560,7 @@
         <v>2.36299705505371</v>
       </c>
       <c r="G741" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -25583,7 +25586,7 @@
         <v>2.48957395553589</v>
       </c>
       <c r="G742" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -25609,7 +25612,7 @@
         <v>2.40225601196289</v>
       </c>
       <c r="G743" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -25635,7 +25638,7 @@
         <v>2.42391610145569</v>
       </c>
       <c r="G744" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -25661,7 +25664,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G745" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -25687,7 +25690,7 @@
         <v>2.43610000610352</v>
       </c>
       <c r="G746" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -25713,7 +25716,7 @@
         <v>2.5484631061554</v>
       </c>
       <c r="G747" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -25739,7 +25742,7 @@
         <v>2.50514197349548</v>
       </c>
       <c r="G748" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -25765,7 +25768,7 @@
         <v>2.55184698104858</v>
       </c>
       <c r="G749" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -25791,7 +25794,7 @@
         <v>2.47062110900879</v>
       </c>
       <c r="G750" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -25817,7 +25820,7 @@
         <v>2.43136191368103</v>
       </c>
       <c r="G751" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -25843,7 +25846,7 @@
         <v>2.39007210731506</v>
       </c>
       <c r="G752" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -25869,7 +25872,7 @@
         <v>2.33930611610413</v>
       </c>
       <c r="G753" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -25895,7 +25898,7 @@
         <v>2.36705803871155</v>
       </c>
       <c r="G754" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -25921,7 +25924,7 @@
         <v>2.35758209228516</v>
       </c>
       <c r="G755" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -25947,7 +25950,7 @@
         <v>2.32102990150452</v>
       </c>
       <c r="G756" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -25973,7 +25976,7 @@
         <v>2.27567911148071</v>
       </c>
       <c r="G757" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -25999,7 +26002,7 @@
         <v>2.26484894752502</v>
       </c>
       <c r="G758" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -26025,7 +26028,7 @@
         <v>2.31087708473206</v>
       </c>
       <c r="G759" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -26051,7 +26054,7 @@
         <v>2.26687908172607</v>
       </c>
       <c r="G760" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -26077,7 +26080,7 @@
         <v>2.24995708465576</v>
       </c>
       <c r="G761" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -26103,7 +26106,7 @@
         <v>2.21949791908264</v>
       </c>
       <c r="G762" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -26129,7 +26132,7 @@
         <v>2.27703309059143</v>
       </c>
       <c r="G763" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -26155,7 +26158,7 @@
         <v>2.2310049533844</v>
       </c>
       <c r="G764" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -26181,7 +26184,7 @@
         <v>2.21611309051514</v>
       </c>
       <c r="G765" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -26207,7 +26210,7 @@
         <v>2.29057002067566</v>
       </c>
       <c r="G766" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -26233,7 +26236,7 @@
         <v>2.30478501319885</v>
       </c>
       <c r="G767" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -26259,7 +26262,7 @@
         <v>2.25401902198792</v>
       </c>
       <c r="G768" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -26285,7 +26288,7 @@
         <v>2.24454188346863</v>
       </c>
       <c r="G769" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -26311,7 +26314,7 @@
         <v>2.25131106376648</v>
       </c>
       <c r="G770" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -26337,7 +26340,7 @@
         <v>2.21340608596802</v>
       </c>
       <c r="G771" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -26363,7 +26366,7 @@
         <v>2.12811803817749</v>
       </c>
       <c r="G772" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -26389,7 +26392,7 @@
         <v>2.02726292610168</v>
       </c>
       <c r="G773" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -26415,7 +26418,7 @@
         <v>2.071937084198</v>
       </c>
       <c r="G774" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -26441,7 +26444,7 @@
         <v>2.08006000518799</v>
       </c>
       <c r="G775" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -26467,7 +26470,7 @@
         <v>2.06787610054016</v>
       </c>
       <c r="G776" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -26493,7 +26496,7 @@
         <v>2.07870602607727</v>
       </c>
       <c r="G777" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -26519,7 +26522,7 @@
         <v>2.06719899177551</v>
       </c>
       <c r="G778" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -26545,7 +26548,7 @@
         <v>2.03673911094666</v>
       </c>
       <c r="G779" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -26571,7 +26574,7 @@
         <v>2.04283094406128</v>
       </c>
       <c r="G780" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -26597,7 +26600,7 @@
         <v>2.13217997550964</v>
       </c>
       <c r="G781" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -26623,7 +26626,7 @@
         <v>2.10645794868469</v>
       </c>
       <c r="G782" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -26649,7 +26652,7 @@
         <v>2.11187291145325</v>
       </c>
       <c r="G783" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -26675,7 +26678,7 @@
         <v>2.13014888763428</v>
       </c>
       <c r="G784" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -26701,7 +26704,7 @@
         <v>2.00086498260498</v>
       </c>
       <c r="G785" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -26727,7 +26730,7 @@
         <v>2.00695610046387</v>
       </c>
       <c r="G786" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -26753,7 +26756,7 @@
         <v>2.01034092903137</v>
       </c>
       <c r="G787" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -26779,7 +26782,7 @@
         <v>2.01372504234314</v>
       </c>
       <c r="G788" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -26805,7 +26808,7 @@
         <v>2.06110692024231</v>
       </c>
       <c r="G789" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -26831,7 +26834,7 @@
         <v>2.04012393951416</v>
       </c>
       <c r="G790" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -26857,7 +26860,7 @@
         <v>2.22017502784729</v>
       </c>
       <c r="G791" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -26883,7 +26886,7 @@
         <v>2.31223106384277</v>
       </c>
       <c r="G792" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -26909,7 +26912,7 @@
         <v>2.30546188354492</v>
       </c>
       <c r="G793" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -26935,7 +26938,7 @@
         <v>2.28853988647461</v>
       </c>
       <c r="G794" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -26961,7 +26964,7 @@
         <v>2.27974009513855</v>
       </c>
       <c r="G795" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -26987,7 +26990,7 @@
         <v>2.38533401489258</v>
       </c>
       <c r="G796" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -27013,7 +27016,7 @@
         <v>2.37585806846619</v>
       </c>
       <c r="G797" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -27039,7 +27042,7 @@
         <v>2.37450408935547</v>
       </c>
       <c r="G798" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -27065,7 +27068,7 @@
         <v>2.35555100440979</v>
       </c>
       <c r="G799" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -27091,7 +27094,7 @@
         <v>2.31764602661133</v>
       </c>
       <c r="G800" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -27117,7 +27120,7 @@
         <v>2.34472107887268</v>
       </c>
       <c r="G801" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -27143,7 +27146,7 @@
         <v>2.36841201782227</v>
       </c>
       <c r="G802" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -27169,7 +27172,7 @@
         <v>2.38398003578186</v>
       </c>
       <c r="G803" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -27195,7 +27198,7 @@
         <v>2.44828391075134</v>
       </c>
       <c r="G804" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -27221,7 +27224,7 @@
         <v>2.51461791992188</v>
       </c>
       <c r="G805" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -27247,7 +27250,7 @@
         <v>2.50311088562012</v>
       </c>
       <c r="G806" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -27273,7 +27276,7 @@
         <v>2.49634289741516</v>
       </c>
       <c r="G807" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -27299,7 +27302,7 @@
         <v>2.48821997642517</v>
       </c>
       <c r="G808" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -27325,7 +27328,7 @@
         <v>2.50852704048157</v>
       </c>
       <c r="G809" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -27351,7 +27354,7 @@
         <v>2.4347460269928</v>
       </c>
       <c r="G810" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -27377,7 +27380,7 @@
         <v>2.37924194335938</v>
       </c>
       <c r="G811" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -27403,7 +27406,7 @@
         <v>2.40970206260681</v>
       </c>
       <c r="G812" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -27429,7 +27432,7 @@
         <v>2.39480996131897</v>
       </c>
       <c r="G813" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -27455,7 +27458,7 @@
         <v>2.40902495384216</v>
       </c>
       <c r="G814" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -27481,7 +27484,7 @@
         <v>2.45776009559631</v>
       </c>
       <c r="G815" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -27507,7 +27510,7 @@
         <v>2.44286894798279</v>
       </c>
       <c r="G816" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -27533,7 +27536,7 @@
         <v>2.50717306137085</v>
       </c>
       <c r="G817" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -27559,7 +27562,7 @@
         <v>2.52612495422363</v>
       </c>
       <c r="G818" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -27585,7 +27588,7 @@
         <v>2.52680206298828</v>
       </c>
       <c r="G819" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -27611,7 +27614,7 @@
         <v>2.50446510314941</v>
       </c>
       <c r="G820" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -27637,7 +27640,7 @@
         <v>2.46994400024414</v>
       </c>
       <c r="G821" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -27663,7 +27666,7 @@
         <v>2.4597909450531</v>
       </c>
       <c r="G822" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -27689,7 +27692,7 @@
         <v>2.43880796432495</v>
       </c>
       <c r="G823" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -27715,7 +27718,7 @@
         <v>2.47739005088806</v>
       </c>
       <c r="G824" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -27741,7 +27744,7 @@
         <v>2.46723699569702</v>
       </c>
       <c r="G825" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -27767,7 +27770,7 @@
         <v>2.46452903747559</v>
       </c>
       <c r="G826" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -27793,7 +27796,7 @@
         <v>2.49837303161621</v>
       </c>
       <c r="G827" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -27819,7 +27822,7 @@
         <v>2.47942090034485</v>
       </c>
       <c r="G828" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -27845,7 +27848,7 @@
         <v>2.49837303161621</v>
       </c>
       <c r="G829" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -27871,7 +27874,7 @@
         <v>2.50378799438477</v>
       </c>
       <c r="G830" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -27897,7 +27900,7 @@
         <v>2.5064959526062</v>
       </c>
       <c r="G831" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -27923,7 +27926,7 @@
         <v>2.528156042099</v>
       </c>
       <c r="G832" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -27949,7 +27952,7 @@
         <v>2.52951002120972</v>
       </c>
       <c r="G833" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -27975,7 +27978,7 @@
         <v>2.54778599739075</v>
       </c>
       <c r="G834" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -28001,7 +28004,7 @@
         <v>2.56944608688354</v>
       </c>
       <c r="G835" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -28027,7 +28030,7 @@
         <v>2.61750507354736</v>
       </c>
       <c r="G836" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -28053,7 +28056,7 @@
         <v>2.68654704093933</v>
       </c>
       <c r="G837" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -28079,7 +28082,7 @@
         <v>2.73189806938171</v>
       </c>
       <c r="G838" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -28105,7 +28108,7 @@
         <v>2.80432391166687</v>
       </c>
       <c r="G839" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -28131,7 +28134,7 @@
         <v>2.83139991760254</v>
       </c>
       <c r="G840" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -28157,7 +28160,7 @@
         <v>2.8036470413208</v>
       </c>
       <c r="G841" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -28183,7 +28186,7 @@
         <v>2.77927994728088</v>
       </c>
       <c r="G842" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -28209,7 +28212,7 @@
         <v>2.82463097572327</v>
       </c>
       <c r="G843" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -28235,7 +28238,7 @@
         <v>2.84764504432678</v>
       </c>
       <c r="G844" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -28261,7 +28264,7 @@
         <v>2.85576701164246</v>
       </c>
       <c r="G845" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -28287,7 +28290,7 @@
         <v>2.89976501464844</v>
       </c>
       <c r="G846" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -28313,7 +28316,7 @@
         <v>2.85306000709534</v>
       </c>
       <c r="G847" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -28339,7 +28342,7 @@
         <v>2.8442599773407</v>
       </c>
       <c r="G848" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -28365,7 +28368,7 @@
         <v>2.80906200408936</v>
       </c>
       <c r="G849" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -28391,7 +28394,7 @@
         <v>2.78537201881409</v>
       </c>
       <c r="G850" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -28417,7 +28420,7 @@
         <v>2.76980304718018</v>
       </c>
       <c r="G851" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -28443,7 +28446,7 @@
         <v>2.71023797988892</v>
       </c>
       <c r="G852" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -28469,7 +28472,7 @@
         <v>2.68045496940613</v>
       </c>
       <c r="G853" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -28495,7 +28498,7 @@
         <v>2.63984203338623</v>
       </c>
       <c r="G854" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -28521,7 +28524,7 @@
         <v>2.66353297233582</v>
       </c>
       <c r="G855" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -28547,7 +28550,7 @@
         <v>2.61682796478271</v>
       </c>
       <c r="G856" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -28573,7 +28576,7 @@
         <v>2.67571711540222</v>
       </c>
       <c r="G857" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -28599,7 +28602,7 @@
         <v>2.68045496940613</v>
       </c>
       <c r="G858" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -28625,7 +28628,7 @@
         <v>2.51868009567261</v>
       </c>
       <c r="G859" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -28651,7 +28654,7 @@
         <v>2.45234489440918</v>
       </c>
       <c r="G860" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -28677,7 +28680,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G861" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -28703,7 +28706,7 @@
         <v>2.36841201782227</v>
       </c>
       <c r="G862" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -28729,7 +28732,7 @@
         <v>2.3927800655365</v>
       </c>
       <c r="G863" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -28755,7 +28758,7 @@
         <v>2.32915306091309</v>
       </c>
       <c r="G864" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -28781,7 +28784,7 @@
         <v>2.33050608634949</v>
       </c>
       <c r="G865" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -28807,7 +28810,7 @@
         <v>2.3183228969574</v>
       </c>
       <c r="G866" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -28833,7 +28836,7 @@
         <v>2.30207705497742</v>
       </c>
       <c r="G867" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -28859,7 +28862,7 @@
         <v>2.29057002067566</v>
       </c>
       <c r="G868" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -28885,7 +28888,7 @@
         <v>2.27229404449463</v>
       </c>
       <c r="G869" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -28911,7 +28914,7 @@
         <v>2.31223106384277</v>
       </c>
       <c r="G870" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -28937,7 +28940,7 @@
         <v>2.27026391029358</v>
       </c>
       <c r="G871" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -28963,7 +28966,7 @@
         <v>2.24318909645081</v>
       </c>
       <c r="G872" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -28989,7 +28992,7 @@
         <v>2.23912692070007</v>
       </c>
       <c r="G873" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -29015,7 +29018,7 @@
         <v>2.30952310562134</v>
       </c>
       <c r="G874" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -29041,7 +29044,7 @@
         <v>2.33118295669556</v>
       </c>
       <c r="G875" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -29067,7 +29070,7 @@
         <v>2.30478501319885</v>
       </c>
       <c r="G876" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -29093,7 +29096,7 @@
         <v>2.33253693580627</v>
       </c>
       <c r="G877" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -29119,7 +29122,7 @@
         <v>2.32441401481628</v>
       </c>
       <c r="G878" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -29145,7 +29148,7 @@
         <v>2.34201288223267</v>
       </c>
       <c r="G879" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -29171,7 +29174,7 @@
         <v>2.39480996131897</v>
       </c>
       <c r="G880" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -29197,7 +29200,7 @@
         <v>2.4394850730896</v>
       </c>
       <c r="G881" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -29223,7 +29226,7 @@
         <v>2.43677711486816</v>
       </c>
       <c r="G882" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -29249,7 +29252,7 @@
         <v>2.47806692123413</v>
       </c>
       <c r="G883" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -29275,7 +29278,7 @@
         <v>2.45099210739136</v>
       </c>
       <c r="G884" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -29301,7 +29304,7 @@
         <v>2.39480996131897</v>
       </c>
       <c r="G885" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -29327,7 +29330,7 @@
         <v>2.44963788986206</v>
       </c>
       <c r="G886" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -29353,7 +29356,7 @@
         <v>2.46385192871094</v>
       </c>
       <c r="G887" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -29379,7 +29382,7 @@
         <v>2.42527008056641</v>
       </c>
       <c r="G888" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -29405,7 +29408,7 @@
         <v>2.41240906715393</v>
       </c>
       <c r="G889" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -29431,7 +29434,7 @@
         <v>2.46182203292847</v>
       </c>
       <c r="G890" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -29457,7 +29460,7 @@
         <v>2.55793905258179</v>
       </c>
       <c r="G891" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -29483,7 +29486,7 @@
         <v>2.63239598274231</v>
       </c>
       <c r="G892" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -29509,7 +29512,7 @@
         <v>2.63781094551086</v>
       </c>
       <c r="G893" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -29535,7 +29538,7 @@
         <v>2.61412000656128</v>
       </c>
       <c r="G894" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -29561,7 +29564,7 @@
         <v>2.59245991706848</v>
       </c>
       <c r="G895" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -29743,7 +29746,7 @@
         <v>2.59245991706848</v>
       </c>
       <c r="G902" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -30133,7 +30136,7 @@
         <v>2.32915306091309</v>
       </c>
       <c r="G917" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -31069,7 +31072,7 @@
         <v>2.40022492408752</v>
       </c>
       <c r="G953" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -31199,7 +31202,7 @@
         <v>2.36841201782227</v>
       </c>
       <c r="G958" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -33799,7 +33802,7 @@
         <v>2.30478501319885</v>
       </c>
       <c r="G1058" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -63083,7 +63086,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6494560185</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>11154057</v>
@@ -63104,6 +63107,32 @@
         <v>1981</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6511805556</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>14646920</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>5.39599990844727</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>5.11999988555908</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>5.38000011444092</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>5.12400007247925</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33120489120483</t>
+    <t xml:space="preserve">3.33120536804199</t>
   </si>
   <si>
     <t xml:space="preserve">BPE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37296748161316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22311282157898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14941358566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07817053794861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08062791824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05606079101562</t>
+    <t xml:space="preserve">3.3729681968689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22311305999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14941334724426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07817029953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08062744140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05606031417847</t>
   </si>
   <si>
     <t xml:space="preserve">3.20345950126648</t>
@@ -68,58 +68,58 @@
     <t xml:space="preserve">3.03886485099792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77354741096497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76126432418823</t>
+    <t xml:space="preserve">2.77354693412781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76126408576965</t>
   </si>
   <si>
     <t xml:space="preserve">2.55981945991516</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84233355522156</t>
+    <t xml:space="preserve">2.84233403205872</t>
   </si>
   <si>
     <t xml:space="preserve">2.81039690971375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73669767379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8963794708252</t>
+    <t xml:space="preserve">2.73669815063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89637970924377</t>
   </si>
   <si>
     <t xml:space="preserve">2.77846074104309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56964659690857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70230436325073</t>
+    <t xml:space="preserve">2.56964635848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70230507850647</t>
   </si>
   <si>
     <t xml:space="preserve">2.63597559928894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45664095878601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25323081016541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2620747089386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21490693092346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95057284832001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90831875801086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03999423980713</t>
+    <t xml:space="preserve">2.45664072036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25323057174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26207447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21490740776062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95057320594788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90831899642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03999400138855</t>
   </si>
   <si>
     <t xml:space="preserve">1.84444582462311</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">2.05669951438904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26502227783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37508034706116</t>
+    <t xml:space="preserve">2.26502251625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37508010864258</t>
   </si>
   <si>
     <t xml:space="preserve">2.43207454681396</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">2.41733431816101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27288436889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50331711769104</t>
+    <t xml:space="preserve">2.27288413047791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50331735610962</t>
   </si>
   <si>
     <t xml:space="preserve">2.40849018096924</t>
@@ -158,46 +158,46 @@
     <t xml:space="preserve">2.35444450378418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31415557861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34854817390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46401071548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42126488685608</t>
+    <t xml:space="preserve">2.31415581703186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.348548412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46401047706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4212646484375</t>
   </si>
   <si>
     <t xml:space="preserve">2.43109178543091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30531120300293</t>
+    <t xml:space="preserve">2.30531144142151</t>
   </si>
   <si>
     <t xml:space="preserve">2.27190160751343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29745030403137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31808638572693</t>
+    <t xml:space="preserve">2.29745054244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31808662414551</t>
   </si>
   <si>
     <t xml:space="preserve">2.51068687438965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5450804233551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4615535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29450249671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32005095481873</t>
+    <t xml:space="preserve">2.54507970809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46155381202698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29450225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3200511932373</t>
   </si>
   <si>
     <t xml:space="preserve">2.34068703651428</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">2.33479142189026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30039834976196</t>
+    <t xml:space="preserve">2.30039811134338</t>
   </si>
   <si>
     <t xml:space="preserve">2.23750829696655</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">2.14513826370239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12351965904236</t>
+    <t xml:space="preserve">2.12351989746094</t>
   </si>
   <si>
     <t xml:space="preserve">2.0557165145874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09305787086487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97415661811829</t>
+    <t xml:space="preserve">2.09305810928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97415626049042</t>
   </si>
   <si>
     <t xml:space="preserve">1.96334660053253</t>
@@ -236,88 +236,88 @@
     <t xml:space="preserve">2.11172819137573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21392488479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12548565864563</t>
+    <t xml:space="preserve">2.21392464637756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12548542022705</t>
   </si>
   <si>
     <t xml:space="preserve">2.36918473243713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47629404067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48366332054138</t>
+    <t xml:space="preserve">2.47629380226135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48366355895996</t>
   </si>
   <si>
     <t xml:space="preserve">2.40062928199768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47138023376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54999279975891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56227612495422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47383713722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55490636825562</t>
+    <t xml:space="preserve">2.47138071060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54999256134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56227564811707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47383737564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55490589141846</t>
   </si>
   <si>
     <t xml:space="preserve">2.51560044288635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61386585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50823020935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41635179519653</t>
+    <t xml:space="preserve">2.61386561393738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50822997093201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41635131835938</t>
   </si>
   <si>
     <t xml:space="preserve">2.31022524833679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28467583656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22080326080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16282629966736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15693044662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15103507041931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11762404441833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11467599868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14710402488708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26600503921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15987849235535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18739295005798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14416742324829</t>
+    <t xml:space="preserve">2.28467607498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22080302238464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16282653808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15693020820618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15103483200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11762428283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11467576026917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14710426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26600527763367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15987873077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18739247322083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14416766166687</t>
   </si>
   <si>
     <t xml:space="preserve">2.31304669380188</t>
@@ -335,40 +335,40 @@
     <t xml:space="preserve">2.41055488586426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28590559959412</t>
+    <t xml:space="preserve">2.28590607643127</t>
   </si>
   <si>
     <t xml:space="preserve">2.1873927116394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25675463676453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16628289222717</t>
+    <t xml:space="preserve">2.25675415992737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16628265380859</t>
   </si>
   <si>
     <t xml:space="preserve">2.15623021125793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18437647819519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22559189796448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07983231544495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95317208766937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89788472652435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8918536901474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84259688854218</t>
+    <t xml:space="preserve">2.18437623977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2255916595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0798327922821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95317220687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89788448810577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89185333251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84259653091431</t>
   </si>
   <si>
     <t xml:space="preserve">2.02555012702942</t>
@@ -380,28 +380,28 @@
     <t xml:space="preserve">2.17130875587463</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16226196289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32812547683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75514149665833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73704695701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69583189487457</t>
+    <t xml:space="preserve">2.1622622013092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32812595367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75514125823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73704707622528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69583201408386</t>
   </si>
   <si>
     <t xml:space="preserve">1.60335052013397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64758110046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56816709041595</t>
+    <t xml:space="preserve">1.64758098125458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56816697120667</t>
   </si>
   <si>
     <t xml:space="preserve">1.46261763572693</t>
@@ -413,52 +413,52 @@
     <t xml:space="preserve">1.35907816886902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29775857925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50785279273987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57821977138519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70688998699188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62144494056702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69080638885498</t>
+    <t xml:space="preserve">1.29775869846344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50785303115845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57822000980377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70688986778259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62144505977631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69080626964569</t>
   </si>
   <si>
     <t xml:space="preserve">1.71091079711914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72096359729767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70487928390503</t>
+    <t xml:space="preserve">1.72096347808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70487916469574</t>
   </si>
   <si>
     <t xml:space="preserve">1.72297358512878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77826130390167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76519334316254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71794700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72598886489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8054027557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74910974502563</t>
+    <t xml:space="preserve">1.77826154232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76519322395325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71794736385345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72598898410797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80540323257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74910962581635</t>
   </si>
   <si>
     <t xml:space="preserve">1.84460747241974</t>
@@ -467,31 +467,31 @@
     <t xml:space="preserve">1.74006271362305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52494192123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58626163005829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59430313110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80238747596741</t>
+    <t xml:space="preserve">1.52494215965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58626174926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59430325031281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8023875951767</t>
   </si>
   <si>
     <t xml:space="preserve">1.76921415328979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80439734458923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79334020614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79233491420746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76720428466797</t>
+    <t xml:space="preserve">1.8043977022171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79334044456482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79233503341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76720416545868</t>
   </si>
   <si>
     <t xml:space="preserve">1.75413596630096</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">1.61943435668945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63049209117889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72397899627686</t>
+    <t xml:space="preserve">1.63049221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72397875785828</t>
   </si>
   <si>
     <t xml:space="preserve">1.76117217540741</t>
@@ -518,13 +518,13 @@
     <t xml:space="preserve">1.70990526676178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67472195625305</t>
+    <t xml:space="preserve">1.67472207546234</t>
   </si>
   <si>
     <t xml:space="preserve">1.72196817398071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7340315580368</t>
+    <t xml:space="preserve">1.73403120040894</t>
   </si>
   <si>
     <t xml:space="preserve">1.76619899272919</t>
@@ -533,10 +533,10 @@
     <t xml:space="preserve">1.7903243303299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7581570148468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81746554374695</t>
+    <t xml:space="preserve">1.75815677642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81746590137482</t>
   </si>
   <si>
     <t xml:space="preserve">1.82048118114471</t>
@@ -545,10 +545,10 @@
     <t xml:space="preserve">1.78429305553436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.750115275383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70387434959412</t>
+    <t xml:space="preserve">1.75011515617371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7038745880127</t>
   </si>
   <si>
     <t xml:space="preserve">1.64657592773438</t>
@@ -557,34 +557,34 @@
     <t xml:space="preserve">1.67170655727386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6003350019455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67572748661041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67974817752838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60435593128204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57922518253326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6144083738327</t>
+    <t xml:space="preserve">1.60033524036407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67572724819183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67974829673767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60435605049133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57922506332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61440861225128</t>
   </si>
   <si>
     <t xml:space="preserve">1.61742424964905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66467022895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62647128105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70286881923676</t>
+    <t xml:space="preserve">1.66467010974884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62647140026093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70286893844604</t>
   </si>
   <si>
     <t xml:space="preserve">1.70789527893066</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">1.68376922607422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74408352375031</t>
+    <t xml:space="preserve">1.74408340454102</t>
   </si>
   <si>
     <t xml:space="preserve">1.84963369369507</t>
@@ -602,37 +602,37 @@
     <t xml:space="preserve">1.89084792137146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80841839313507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90291047096252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94312012195587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04263877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1401469707489</t>
+    <t xml:space="preserve">1.80841827392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90291059017181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94312024116516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0426390171051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14014625549316</t>
   </si>
   <si>
     <t xml:space="preserve">2.1351203918457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18940258026123</t>
+    <t xml:space="preserve">2.18940281867981</t>
   </si>
   <si>
     <t xml:space="preserve">2.09792685508728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13210511207581</t>
+    <t xml:space="preserve">2.13210463523865</t>
   </si>
   <si>
     <t xml:space="preserve">2.18236637115479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17633438110352</t>
+    <t xml:space="preserve">2.17633485794067</t>
   </si>
   <si>
     <t xml:space="preserve">2.14818835258484</t>
@@ -641,13 +641,13 @@
     <t xml:space="preserve">2.1300938129425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01047110557556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9853401184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96322524547577</t>
+    <t xml:space="preserve">2.01047086715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98534023761749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96322476863861</t>
   </si>
   <si>
     <t xml:space="preserve">2.03158092498779</t>
@@ -656,19 +656,19 @@
     <t xml:space="preserve">2.06977987289429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09993696212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10094261169434</t>
+    <t xml:space="preserve">2.09993720054626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10094213485718</t>
   </si>
   <si>
     <t xml:space="preserve">2.07882714271545</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06877446174622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00846028327942</t>
+    <t xml:space="preserve">2.06877422332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00846004486084</t>
   </si>
   <si>
     <t xml:space="preserve">1.92301499843597</t>
@@ -680,52 +680,52 @@
     <t xml:space="preserve">1.87576913833618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91396868228912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90391600131989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90994703769684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8807954788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9049220085144</t>
+    <t xml:space="preserve">1.91396856307983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90391612052917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90994715690613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88079524040222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90492153167725</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771732330322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01650285720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15321469306946</t>
+    <t xml:space="preserve">2.01650261878967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15321493148804</t>
   </si>
   <si>
     <t xml:space="preserve">2.37738180160522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41155982017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37436652183533</t>
+    <t xml:space="preserve">2.41156005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37436628341675</t>
   </si>
   <si>
     <t xml:space="preserve">2.41859698295593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46986389160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4296543598175</t>
+    <t xml:space="preserve">2.46986413002014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42965412139893</t>
   </si>
   <si>
     <t xml:space="preserve">2.49499464035034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51560235023499</t>
+    <t xml:space="preserve">2.51560211181641</t>
   </si>
   <si>
     <t xml:space="preserve">2.49801015853882</t>
@@ -734,34 +734,34 @@
     <t xml:space="preserve">2.51308917999268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56837677955627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59350776672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6010468006134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54324674606323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64879608154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74931907653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70408368110657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387391090393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53068089485168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51811456680298</t>
+    <t xml:space="preserve">2.56837701797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59350752830505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60104703903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54324626922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64879584312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74931883811951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70408391952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66387367248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53068065643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51811480522156</t>
   </si>
   <si>
     <t xml:space="preserve">2.66890048980713</t>
@@ -770,31 +770,31 @@
     <t xml:space="preserve">2.64376950263977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68649220466614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69654440879822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84230351448059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88753914833069</t>
+    <t xml:space="preserve">2.68649196624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6965446472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84230375289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88753867149353</t>
   </si>
   <si>
     <t xml:space="preserve">2.81968593597412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82722496986389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240816116333</t>
+    <t xml:space="preserve">2.82722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240839958191</t>
   </si>
   <si>
     <t xml:space="preserve">2.81717300415039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68397903442383</t>
+    <t xml:space="preserve">2.68397927284241</t>
   </si>
   <si>
     <t xml:space="preserve">2.63371706008911</t>
@@ -803,10 +803,10 @@
     <t xml:space="preserve">2.69403100013733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7065966129303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77193713188171</t>
+    <t xml:space="preserve">2.70659637451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77193689346313</t>
   </si>
   <si>
     <t xml:space="preserve">2.61361217498779</t>
@@ -815,19 +815,19 @@
     <t xml:space="preserve">2.52314114570618</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55329823493958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39045023918152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39849162101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48092126846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41759181022644</t>
+    <t xml:space="preserve">2.55329847335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39045000076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39849185943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48092103004456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41759157180786</t>
   </si>
   <si>
     <t xml:space="preserve">2.33415675163269</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">2.26177954673767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23765444755554</t>
+    <t xml:space="preserve">2.23765397071838</t>
   </si>
   <si>
     <t xml:space="preserve">2.23463869094849</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">2.0808379650116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25172781944275</t>
+    <t xml:space="preserve">2.25172758102417</t>
   </si>
   <si>
     <t xml:space="preserve">2.26077508926392</t>
@@ -863,121 +863,121 @@
     <t xml:space="preserve">2.29796862602234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20146560668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20649194717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27987384796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35426163673401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3150577545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2557487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25976943969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37235617637634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34420943260193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41457605361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42362332344055</t>
+    <t xml:space="preserve">2.20146536827087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20649170875549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27987432479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35426187515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31505751609802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25574851036072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25976967811584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37235593795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34420967102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41457629203796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42362356185913</t>
   </si>
   <si>
     <t xml:space="preserve">2.49197912216187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46383237838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41960191726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43468046188354</t>
+    <t xml:space="preserve">2.46383213996887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41960167884827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43468070030212</t>
   </si>
   <si>
     <t xml:space="preserve">2.38944530487061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35727715492249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35225081443787</t>
+    <t xml:space="preserve">2.35727739334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35225129127502</t>
   </si>
   <si>
     <t xml:space="preserve">2.26982164382935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28691053390503</t>
+    <t xml:space="preserve">2.28691029548645</t>
   </si>
   <si>
     <t xml:space="preserve">2.28490042686462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30198955535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479625701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2105131149292</t>
+    <t xml:space="preserve">2.30198931694031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479554176331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21051239967346</t>
   </si>
   <si>
     <t xml:space="preserve">2.1924192905426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30399990081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46282649040222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49901556968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44473314285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52062845230103</t>
+    <t xml:space="preserve">2.30399942398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46282696723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49901533126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4447329044342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52062821388245</t>
   </si>
   <si>
     <t xml:space="preserve">2.58596897125244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62366533279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55832433700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53822016716003</t>
+    <t xml:space="preserve">2.62366509437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55832457542419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53821992874146</t>
   </si>
   <si>
     <t xml:space="preserve">2.39447093009949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35627198219299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44272232055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.402512550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34722495079041</t>
+    <t xml:space="preserve">2.35627174377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44272255897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40251278877258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34722471237183</t>
   </si>
   <si>
     <t xml:space="preserve">2.32008409500122</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">2.35526704788208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34406566619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34508466720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37766885757446</t>
+    <t xml:space="preserve">2.34406590461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34508442878723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37766861915588</t>
   </si>
   <si>
     <t xml:space="preserve">2.37461400032043</t>
@@ -1004,16 +1004,16 @@
     <t xml:space="preserve">2.27584147453308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.276859998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21983695030212</t>
+    <t xml:space="preserve">2.27686047554016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21983671188354</t>
   </si>
   <si>
     <t xml:space="preserve">2.26667714118958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23816561698914</t>
+    <t xml:space="preserve">2.23816585540771</t>
   </si>
   <si>
     <t xml:space="preserve">2.19743466377258</t>
@@ -1022,25 +1022,25 @@
     <t xml:space="preserve">2.16383171081543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1679048538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24834799766541</t>
+    <t xml:space="preserve">2.16790461540222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24834823608398</t>
   </si>
   <si>
     <t xml:space="preserve">2.24122047424316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19438004493713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24936652183533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22696447372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12615489959717</t>
+    <t xml:space="preserve">2.19437980651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24936628341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22696423530579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12615513801575</t>
   </si>
   <si>
     <t xml:space="preserve">2.13939237594604</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">2.08440613746643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17808675765991</t>
+    <t xml:space="preserve">2.17808723449707</t>
   </si>
   <si>
     <t xml:space="preserve">2.16892313957214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22594618797302</t>
+    <t xml:space="preserve">2.22594594955444</t>
   </si>
   <si>
     <t xml:space="preserve">2.23918342590332</t>
@@ -1064,10 +1064,10 @@
     <t xml:space="preserve">2.25954937934875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24732995033264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22289156913757</t>
+    <t xml:space="preserve">2.24732971191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22289133071899</t>
   </si>
   <si>
     <t xml:space="preserve">2.36646819114685</t>
@@ -1082,76 +1082,76 @@
     <t xml:space="preserve">2.39396166801453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38683319091797</t>
+    <t xml:space="preserve">2.38683295249939</t>
   </si>
   <si>
     <t xml:space="preserve">2.41941833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46320414543152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51513576507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5222635269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52022743225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53550124168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45302128791809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.469313621521</t>
+    <t xml:space="preserve">2.46320462226868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51513624191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52226400375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52022790908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53550100326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45302081108093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46931338310242</t>
   </si>
   <si>
     <t xml:space="preserve">2.40312600135803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37665128707886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34813904762268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38275980949402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39497900009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3685040473938</t>
+    <t xml:space="preserve">2.3766508102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3481388092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38276028633118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39497947692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36850428581238</t>
   </si>
   <si>
     <t xml:space="preserve">2.36443114280701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41025328636169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55586695671082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52124547958374</t>
+    <t xml:space="preserve">2.41025352478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55586671829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52124571800232</t>
   </si>
   <si>
     <t xml:space="preserve">2.50291681289673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41432666778564</t>
+    <t xml:space="preserve">2.41432690620422</t>
   </si>
   <si>
     <t xml:space="preserve">2.49477005004883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48356938362122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45607542991638</t>
+    <t xml:space="preserve">2.48356914520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45607590675354</t>
   </si>
   <si>
     <t xml:space="preserve">2.42349147796631</t>
@@ -1160,34 +1160,34 @@
     <t xml:space="preserve">2.3929431438446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41636276245117</t>
+    <t xml:space="preserve">2.41636300086975</t>
   </si>
   <si>
     <t xml:space="preserve">2.42654585838318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36341309547424</t>
+    <t xml:space="preserve">2.36341333389282</t>
   </si>
   <si>
     <t xml:space="preserve">2.38887000083923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40923547744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44182014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40516257286072</t>
+    <t xml:space="preserve">2.40923523902893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4418203830719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40516233444214</t>
   </si>
   <si>
     <t xml:space="preserve">2.36748647689819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32675528526306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30639004707336</t>
+    <t xml:space="preserve">2.3267548084259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30638980865479</t>
   </si>
   <si>
     <t xml:space="preserve">2.37257790565491</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">2.44589352607727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39701628684998</t>
+    <t xml:space="preserve">2.3970160484314</t>
   </si>
   <si>
     <t xml:space="preserve">2.33591985702515</t>
@@ -1208,25 +1208,25 @@
     <t xml:space="preserve">2.38581538200378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43571019172668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38174176216125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45200276374817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52430081367493</t>
+    <t xml:space="preserve">2.43571043014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38174152374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45200252532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52430057525635</t>
   </si>
   <si>
     <t xml:space="preserve">2.56604957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57623267173767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61950945854187</t>
+    <t xml:space="preserve">2.57623243331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61950922012329</t>
   </si>
   <si>
     <t xml:space="preserve">2.61187195777893</t>
@@ -1241,67 +1241,67 @@
     <t xml:space="preserve">2.35628485679626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28704261779785</t>
+    <t xml:space="preserve">2.28704214096069</t>
   </si>
   <si>
     <t xml:space="preserve">2.23714756965637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26158571243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23612880706787</t>
+    <t xml:space="preserve">2.26158595085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23612904548645</t>
   </si>
   <si>
     <t xml:space="preserve">2.23001885414124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15874052047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16586756706238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.187251329422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16281342506409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12921023368835</t>
+    <t xml:space="preserve">2.15874004364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16586780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18725156784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16281318664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12921047210693</t>
   </si>
   <si>
     <t xml:space="preserve">2.14041113853455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13022828102112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1241192817688</t>
+    <t xml:space="preserve">2.13022804260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12411904335022</t>
   </si>
   <si>
     <t xml:space="preserve">2.20150780677795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1455020904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11088156700134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07116842269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98054218292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17706918716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.153648853302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17299628257751</t>
+    <t xml:space="preserve">2.14550280570984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11088132858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0711681842804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98054230213165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17706942558289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15364861488342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17299604415894</t>
   </si>
   <si>
     <t xml:space="preserve">2.12513732910156</t>
@@ -1310,43 +1310,43 @@
     <t xml:space="preserve">2.16994071006775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09764337539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13226509094238</t>
+    <t xml:space="preserve">2.09764361381531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1322648525238</t>
   </si>
   <si>
     <t xml:space="preserve">2.1027352809906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09051609039307</t>
+    <t xml:space="preserve">2.09051632881165</t>
   </si>
   <si>
     <t xml:space="preserve">2.15263032913208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25242114067078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33999276161194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27074980735779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33184671401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31962752342224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29111504554749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36544966697693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31046295166016</t>
+    <t xml:space="preserve">2.2524209022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33999252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27075028419495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3318464756012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31962728500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29111528396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36544942855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31046271324158</t>
   </si>
   <si>
     <t xml:space="preserve">2.16484928131104</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">2.12208199501038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11597299575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18623352050781</t>
+    <t xml:space="preserve">2.11597275733948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18623399734497</t>
   </si>
   <si>
     <t xml:space="preserve">2.1740140914917</t>
@@ -1367,100 +1367,100 @@
     <t xml:space="preserve">2.17605090141296</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13328313827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14448428153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20354437828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14346528053284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11800909042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15975880622864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16179466247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19947099685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2982439994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32166385650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29620695114136</t>
+    <t xml:space="preserve">2.13328337669373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14448404312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20354413986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14346551895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11800861358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15975832939148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16179490089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19947028160095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29824376106262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32166337966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29620671272278</t>
   </si>
   <si>
     <t xml:space="preserve">2.25140285491943</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45098447799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4489483833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46676778793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37206888198853</t>
+    <t xml:space="preserve">2.45098423957825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44894814491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46676802635193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37206840515137</t>
   </si>
   <si>
     <t xml:space="preserve">2.3914155960083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37308645248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30842590332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31708121299744</t>
+    <t xml:space="preserve">2.37308621406555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30842614173889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31708168983459</t>
   </si>
   <si>
     <t xml:space="preserve">2.39803457260132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34610295295715</t>
+    <t xml:space="preserve">2.34610271453857</t>
   </si>
   <si>
     <t xml:space="preserve">2.31504511833191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43520092964172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43978357315063</t>
+    <t xml:space="preserve">2.43520140647888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43978404998779</t>
   </si>
   <si>
     <t xml:space="preserve">2.42960047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.433673620224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38530611991882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47593235969543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4764416217804</t>
+    <t xml:space="preserve">2.43367385864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38530659675598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47593259811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47644138336182</t>
   </si>
   <si>
     <t xml:space="preserve">2.48102402687073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47847771644592</t>
+    <t xml:space="preserve">2.47847747802734</t>
   </si>
   <si>
     <t xml:space="preserve">2.50800752639771</t>
@@ -1469,34 +1469,34 @@
     <t xml:space="preserve">2.48713326454163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29773449897766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39192485809326</t>
+    <t xml:space="preserve">2.29773426055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39192461967468</t>
   </si>
   <si>
     <t xml:space="preserve">2.42450976371765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34864783287048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39243388175964</t>
+    <t xml:space="preserve">2.34864807128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39243364334106</t>
   </si>
   <si>
     <t xml:space="preserve">2.33846521377563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34304714202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37054109573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37868690490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36239528656006</t>
+    <t xml:space="preserve">2.34304761886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37054085731506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37868714332581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3623948097229</t>
   </si>
   <si>
     <t xml:space="preserve">2.31657195091248</t>
@@ -1508,22 +1508,22 @@
     <t xml:space="preserve">2.30282616615295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31860947608948</t>
+    <t xml:space="preserve">2.3186092376709</t>
   </si>
   <si>
     <t xml:space="preserve">2.29926180839539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30129837989807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3903968334198</t>
+    <t xml:space="preserve">2.30129861831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39039707183838</t>
   </si>
   <si>
     <t xml:space="preserve">2.3990523815155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40821695327759</t>
+    <t xml:space="preserve">2.40821671485901</t>
   </si>
   <si>
     <t xml:space="preserve">2.43265581130981</t>
@@ -1532,40 +1532,40 @@
     <t xml:space="preserve">2.48458766937256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45505833625793</t>
+    <t xml:space="preserve">2.45505809783936</t>
   </si>
   <si>
     <t xml:space="preserve">2.46167659759521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48815155029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44283819198608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41228985786438</t>
+    <t xml:space="preserve">2.48815178871155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4428379535675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4122896194458</t>
   </si>
   <si>
     <t xml:space="preserve">2.4275643825531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41585469245911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42807388305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40974473953247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40210747718811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49680733680725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50597143173218</t>
+    <t xml:space="preserve">2.41585445404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42807364463806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40974450111389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40210771560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49680709838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50597167015076</t>
   </si>
   <si>
     <t xml:space="preserve">2.55484867095947</t>
@@ -1574,16 +1574,16 @@
     <t xml:space="preserve">2.59150648117065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62103605270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54415655136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54466605186462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37563228607178</t>
+    <t xml:space="preserve">2.62103652954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5441563129425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54466581344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37563252449036</t>
   </si>
   <si>
     <t xml:space="preserve">2.39753246307373</t>
@@ -1601,34 +1601,34 @@
     <t xml:space="preserve">2.3834536075592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2442319393158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1310818195343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13890314102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1394248008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3078465461731</t>
+    <t xml:space="preserve">2.24423170089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13108229637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13890337944031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13942527770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30784630775452</t>
   </si>
   <si>
     <t xml:space="preserve">2.24006032943726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16393184661865</t>
+    <t xml:space="preserve">2.16393160820007</t>
   </si>
   <si>
     <t xml:space="preserve">2.16288948059082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20460343360901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14516091346741</t>
+    <t xml:space="preserve">2.20460367202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14516043663025</t>
   </si>
   <si>
     <t xml:space="preserve">2.23849678039551</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">2.26508951187134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30158925056458</t>
+    <t xml:space="preserve">2.301589012146</t>
   </si>
   <si>
     <t xml:space="preserve">2.32974672317505</t>
@@ -1646,37 +1646,37 @@
     <t xml:space="preserve">2.2687394618988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25778913497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33443927764893</t>
+    <t xml:space="preserve">2.25778889656067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33443903923035</t>
   </si>
   <si>
     <t xml:space="preserve">2.39336109161377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32296800613403</t>
+    <t xml:space="preserve">2.32296824455261</t>
   </si>
   <si>
     <t xml:space="preserve">2.49399662017822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44289684295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45645403862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42151761054993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44341826438904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45436811447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44498252868652</t>
+    <t xml:space="preserve">2.44289708137512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45645427703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42151784896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44341850280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45436835289001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44498229026794</t>
   </si>
   <si>
     <t xml:space="preserve">2.44758987426758</t>
@@ -1685,46 +1685,46 @@
     <t xml:space="preserve">2.43820405006409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48617553710938</t>
+    <t xml:space="preserve">2.4861752986908</t>
   </si>
   <si>
     <t xml:space="preserve">2.4945182800293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44602537155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.405353307724</t>
+    <t xml:space="preserve">2.44602513313293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40535402297974</t>
   </si>
   <si>
     <t xml:space="preserve">2.422039270401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.455411195755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41213274002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36728954315186</t>
+    <t xml:space="preserve">2.45541095733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41213250160217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36728978157043</t>
   </si>
   <si>
     <t xml:space="preserve">2.41526103019714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41265344619751</t>
+    <t xml:space="preserve">2.41265296936035</t>
   </si>
   <si>
     <t xml:space="preserve">2.44811058044434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48252558708191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45801782608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49295353889465</t>
+    <t xml:space="preserve">2.48252511024475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4580180644989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49295377731323</t>
   </si>
   <si>
     <t xml:space="preserve">2.48148250579834</t>
@@ -1736,16 +1736,16 @@
     <t xml:space="preserve">2.3865818977356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38814663887024</t>
+    <t xml:space="preserve">2.38814640045166</t>
   </si>
   <si>
     <t xml:space="preserve">2.40900349617004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26665306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24110317230225</t>
+    <t xml:space="preserve">2.26665353775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2411036491394</t>
   </si>
   <si>
     <t xml:space="preserve">2.20981764793396</t>
@@ -1754,25 +1754,25 @@
     <t xml:space="preserve">2.15506720542908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13473176956177</t>
+    <t xml:space="preserve">2.13473200798035</t>
   </si>
   <si>
     <t xml:space="preserve">2.13212490081787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08571743965149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08623886108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13264560699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13160347938538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11491727828979</t>
+    <t xml:space="preserve">2.08571720123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08623909950256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13264584541321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1316032409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11491751670837</t>
   </si>
   <si>
     <t xml:space="preserve">2.109703540802</t>
@@ -1784,73 +1784,73 @@
     <t xml:space="preserve">2.067467212677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08050298690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00228905677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98091042041779</t>
+    <t xml:space="preserve">2.08050322532654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00228881835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98091053962708</t>
   </si>
   <si>
     <t xml:space="preserve">1.99029624462128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06329584121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15141773223877</t>
+    <t xml:space="preserve">2.06329607963562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15141749382019</t>
   </si>
   <si>
     <t xml:space="preserve">2.15558886528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21294593811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20199656486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20408177375793</t>
+    <t xml:space="preserve">2.21294617652893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20199632644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20408201217651</t>
   </si>
   <si>
     <t xml:space="preserve">2.196781873703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24736070632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28125357627869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25987505912781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21659684181213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24214625358582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26978254318237</t>
+    <t xml:space="preserve">2.24736094474792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28125309944153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25987482070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21659660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24214649200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26978230476379</t>
   </si>
   <si>
     <t xml:space="preserve">2.292724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07945990562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99759602546692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96266043186188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93710994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94910323619843</t>
+    <t xml:space="preserve">2.07946014404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99759614467621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96266031265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9371098279953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94910311698914</t>
   </si>
   <si>
     <t xml:space="preserve">1.9136461019516</t>
@@ -1859,37 +1859,37 @@
     <t xml:space="preserve">1.88183856010437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84429550170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88444542884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84898817539215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86306703090668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87610256671906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85993850231171</t>
+    <t xml:space="preserve">1.84429574012756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88444530963898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84898829460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86306691169739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87610268592834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.859938621521</t>
   </si>
   <si>
     <t xml:space="preserve">1.86254560947418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82239544391632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82917439937592</t>
+    <t xml:space="preserve">1.82239532470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82917463779449</t>
   </si>
   <si>
     <t xml:space="preserve">1.76243126392365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72436678409576</t>
+    <t xml:space="preserve">1.72436666488647</t>
   </si>
   <si>
     <t xml:space="preserve">1.6753523349762</t>
@@ -1898,10 +1898,10 @@
     <t xml:space="preserve">1.71393835544586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7009025812149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7759884595871</t>
+    <t xml:space="preserve">1.70090281963348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77598822116852</t>
   </si>
   <si>
     <t xml:space="preserve">1.76555979251862</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">1.76138854026794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8328241109848</t>
+    <t xml:space="preserve">1.83282423019409</t>
   </si>
   <si>
     <t xml:space="preserve">1.76973104476929</t>
@@ -1922,10 +1922,10 @@
     <t xml:space="preserve">1.75669538974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78850281238556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80205988883972</t>
+    <t xml:space="preserve">1.78850269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80206000804901</t>
   </si>
   <si>
     <t xml:space="preserve">1.81822407245636</t>
@@ -1937,22 +1937,22 @@
     <t xml:space="preserve">1.76764583587646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78224503993988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74991714954376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76608145236969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74574565887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80883836746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81926703453064</t>
+    <t xml:space="preserve">1.78224539756775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74991703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7660813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74574589729309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80883800983429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81926691532135</t>
   </si>
   <si>
     <t xml:space="preserve">1.8203102350235</t>
@@ -1967,79 +1967,79 @@
     <t xml:space="preserve">1.86723816394806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87662446498871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96318197250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9298095703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96578872203827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90321743488312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87297415733337</t>
+    <t xml:space="preserve">1.87662410736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96318221092224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92981004714966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96578860282898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90321731567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87297427654266</t>
   </si>
   <si>
     <t xml:space="preserve">1.84116697311401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82343852519989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81613886356354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78798115253448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304579734802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74470281600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78016006946564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74626660346985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73323118686676</t>
+    <t xml:space="preserve">1.8234384059906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81613898277283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78798127174377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304591655731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74470293521881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78016018867493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74626648426056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73323094844818</t>
   </si>
   <si>
     <t xml:space="preserve">1.70976710319519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75408852100372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71863150596619</t>
+    <t xml:space="preserve">1.7540887594223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71863126754761</t>
   </si>
   <si>
     <t xml:space="preserve">1.70715951919556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76451659202576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77546715736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73636019229889</t>
+    <t xml:space="preserve">1.76451683044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77546691894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73635995388031</t>
   </si>
   <si>
     <t xml:space="preserve">1.72905957698822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73427391052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70507419109344</t>
+    <t xml:space="preserve">1.73427402973175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70507431030273</t>
   </si>
   <si>
     <t xml:space="preserve">1.6393735408783</t>
@@ -2048,16 +2048,16 @@
     <t xml:space="preserve">1.56168079376221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59609496593475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60235249996185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59296691417694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60130965709686</t>
+    <t xml:space="preserve">1.59609508514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60235261917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59296679496765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60130941867828</t>
   </si>
   <si>
     <t xml:space="preserve">1.59244513511658</t>
@@ -2069,49 +2069,49 @@
     <t xml:space="preserve">1.57367348670959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64250254631042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62268781661987</t>
+    <t xml:space="preserve">1.64250242710114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62268793582916</t>
   </si>
   <si>
     <t xml:space="preserve">1.62685930728912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64093780517578</t>
+    <t xml:space="preserve">1.64093792438507</t>
   </si>
   <si>
     <t xml:space="preserve">1.54134547710419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54603755474091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54864525794983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55125188827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58775222301483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57158827781677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71028876304626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78120303153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76295304298401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75617408752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83751726150513</t>
+    <t xml:space="preserve">1.54603779315948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54864513874054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55125200748444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58775210380554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57158815860748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71028852462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78120338916779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76295280456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75617372989655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83751714229584</t>
   </si>
   <si>
     <t xml:space="preserve">1.83021748065948</t>
@@ -2120,82 +2120,82 @@
     <t xml:space="preserve">1.81457412242889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78537464141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80623149871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82448124885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83647441864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88601016998291</t>
+    <t xml:space="preserve">1.78537440299988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80623137950897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82448148727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83647406101227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88601005077362</t>
   </si>
   <si>
     <t xml:space="preserve">1.9282454252243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92303168773651</t>
+    <t xml:space="preserve">1.92303156852722</t>
   </si>
   <si>
     <t xml:space="preserve">1.91677403450012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93241775035858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87558114528656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85628890991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84481680393219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85576713085175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89330983161926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9313747882843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94597411155701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9464955329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92928886413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90269553661346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89487457275391</t>
+    <t xml:space="preserve">1.93241751194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87558102607727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85628879070282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84481704235077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85576701164246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89330971240997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93137454986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94597399234772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649565219879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92928862571716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90269541740417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89487445354462</t>
   </si>
   <si>
     <t xml:space="preserve">1.87871038913727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90843141078949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90061020851135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89852428436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92459547519684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90999603271484</t>
+    <t xml:space="preserve">1.90843176841736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90061044692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89852452278137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92459559440613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90999579429626</t>
   </si>
   <si>
     <t xml:space="preserve">1.92876708507538</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">1.93085300922394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94753849506378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94858169555664</t>
+    <t xml:space="preserve">1.94753861427307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94858181476593</t>
   </si>
   <si>
     <t xml:space="preserve">1.97934591770172</t>
@@ -2219,184 +2219,184 @@
     <t xml:space="preserve">2.06955337524414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10448884963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16028141975403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18113923072815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15976047515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14098930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17592477798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19365382194519</t>
+    <t xml:space="preserve">2.10448932647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16028165817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18113946914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15976023674011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14098954200745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1759250164032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19365358352661</t>
   </si>
   <si>
     <t xml:space="preserve">2.19991040229797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23380374908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19782495498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1910457611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14568257331848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13368892669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08780336380005</t>
+    <t xml:space="preserve">2.23380398750305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19782519340515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19104599952698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1456823348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1336886882782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08780360221863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06486058235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03357434272766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05182480812073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01584625244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0612108707428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00609564781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95326066017151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88640928268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581798553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85513985157013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85621774196625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84651386737823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83357429504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8244092464447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80985248088837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84166216850281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8082355260849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78667104244232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78343534469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83950507640839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85675692558289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8357310295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85783529281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85136544704437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8653826713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90743505954742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94301819801331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94086122512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.973748087883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95218312740326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95110464096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96242570877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93169593811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92145228385925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96080923080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03736519813538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09666872024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10098195075989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08211255073547</t>
   </si>
   <si>
     <t xml:space="preserve">2.06486034393311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03357481956482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05182480812073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01584601402283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06121110916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00609564781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95326089859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174793243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88640904426575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581798553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85513985157013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85621762275696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84651398658752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83357453346252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82440900802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80985260009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84166181087494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80823564529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78667080402374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78343546390533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8395049571991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8567568063736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83573126792908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85783505439758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85136520862579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86538279056549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90743482112885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94301784038544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94086110591888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97374784946442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95218312740326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95110464096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96242582798004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93169617652893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92145240306854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96080911159515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03736519813538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09666919708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10098171234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08211231231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06486058235168</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.073486328125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05623483657837</t>
+    <t xml:space="preserve">2.05623459815979</t>
   </si>
   <si>
     <t xml:space="preserve">2.06539988517761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05084323883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07995629310608</t>
+    <t xml:space="preserve">2.05084347724915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07995653152466</t>
   </si>
   <si>
     <t xml:space="preserve">2.04653024673462</t>
@@ -2405,13 +2405,13 @@
     <t xml:space="preserve">2.02065253257751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02712154388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01633977890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9651221036911</t>
+    <t xml:space="preserve">2.0271213054657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01633954048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96512222290039</t>
   </si>
   <si>
     <t xml:space="preserve">1.94894778728485</t>
@@ -2420,43 +2420,43 @@
     <t xml:space="preserve">1.92846155166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90204322338104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82764434814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81632244586945</t>
+    <t xml:space="preserve">1.90204346179962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82764446735382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81632232666016</t>
   </si>
   <si>
     <t xml:space="preserve">1.86484444141388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83627021312714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86430513858795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83842611312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87347006797791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72520959377289</t>
+    <t xml:space="preserve">1.83626997470856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86430525779724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83842635154724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87347054481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72520983219147</t>
   </si>
   <si>
     <t xml:space="preserve">1.68854916095734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70795786380768</t>
+    <t xml:space="preserve">1.70795798301697</t>
   </si>
   <si>
     <t xml:space="preserve">1.62385368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65943598747253</t>
+    <t xml:space="preserve">1.65943610668182</t>
   </si>
   <si>
     <t xml:space="preserve">1.67614948749542</t>
@@ -2465,10 +2465,10 @@
     <t xml:space="preserve">1.62277519702911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65080988407135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65727996826172</t>
+    <t xml:space="preserve">1.65081000328064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65728008747101</t>
   </si>
   <si>
     <t xml:space="preserve">1.64326250553131</t>
@@ -2477,73 +2477,73 @@
     <t xml:space="preserve">1.65458381175995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72952258586884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71766233444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75162696838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73760962486267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74138343334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77049672603607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78828752040863</t>
+    <t xml:space="preserve">1.7295229434967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71766257286072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75162708759308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73760950565338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74138331413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77049660682678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78828763961792</t>
   </si>
   <si>
     <t xml:space="preserve">1.79367887973785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80230510234833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86322665214539</t>
+    <t xml:space="preserve">1.80230498313904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86322677135468</t>
   </si>
   <si>
     <t xml:space="preserve">1.88425230979919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86592197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89449620246887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94247877597809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95164370536804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88802635669708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89934802055359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9823739528656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92306971549988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89395666122437</t>
+    <t xml:space="preserve">1.86592209339142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.894495844841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94247889518738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9516441822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88802587985992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89934825897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98237407207489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92306995391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89395689964294</t>
   </si>
   <si>
     <t xml:space="preserve">1.87400960922241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88533091545105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90959179401398</t>
+    <t xml:space="preserve">1.88533079624176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90959203243256</t>
   </si>
   <si>
     <t xml:space="preserve">1.88047850131989</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">1.89180064201355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87454795837402</t>
+    <t xml:space="preserve">1.87454771995544</t>
   </si>
   <si>
     <t xml:space="preserve">1.88101768493652</t>
@@ -2561,58 +2561,58 @@
     <t xml:space="preserve">1.89233994483948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9613481760025</t>
+    <t xml:space="preserve">1.96134829521179</t>
   </si>
   <si>
     <t xml:space="preserve">1.98291313648224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02550482749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05515623092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11122560501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16621661186218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18993830680847</t>
+    <t xml:space="preserve">2.02550458908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05515646934509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11122584342957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1662163734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18993854522705</t>
   </si>
   <si>
     <t xml:space="preserve">2.21905112266541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17807722091675</t>
+    <t xml:space="preserve">2.17807745933533</t>
   </si>
   <si>
     <t xml:space="preserve">2.17699956893921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19317293167114</t>
+    <t xml:space="preserve">2.19317317008972</t>
   </si>
   <si>
     <t xml:space="preserve">2.19371223449707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15219974517822</t>
+    <t xml:space="preserve">2.15219950675964</t>
   </si>
   <si>
     <t xml:space="preserve">2.16028618812561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15651226043701</t>
+    <t xml:space="preserve">2.15651202201843</t>
   </si>
   <si>
     <t xml:space="preserve">2.22605991363525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25193762779236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26703333854675</t>
+    <t xml:space="preserve">2.25193786621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26703381538391</t>
   </si>
   <si>
     <t xml:space="preserve">2.29992055892944</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">2.27458119392395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31232047080994</t>
+    <t xml:space="preserve">2.31231999397278</t>
   </si>
   <si>
     <t xml:space="preserve">2.3290331363678</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">2.34466814994812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33658123016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35383343696594</t>
+    <t xml:space="preserve">2.336580991745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35383319854736</t>
   </si>
   <si>
     <t xml:space="preserve">2.38240718841553</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">2.45141553878784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48430275917053</t>
+    <t xml:space="preserve">2.48430252075195</t>
   </si>
   <si>
     <t xml:space="preserve">2.47028517723083</t>
@@ -2660,58 +2660,58 @@
     <t xml:space="preserve">2.39696359634399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36569333076477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36946845054626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32094645500183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33819818496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36677241325378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37917280197144</t>
+    <t xml:space="preserve">2.36569356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36946821212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32094621658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33819794654846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36677217483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37917256355286</t>
   </si>
   <si>
     <t xml:space="preserve">2.4023551940918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37378120422363</t>
+    <t xml:space="preserve">2.37378144264221</t>
   </si>
   <si>
     <t xml:space="preserve">2.39911961555481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3958854675293</t>
+    <t xml:space="preserve">2.39588522911072</t>
   </si>
   <si>
     <t xml:space="preserve">2.42769384384155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40990257263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44009375572205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45842385292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43470239639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43146777153015</t>
+    <t xml:space="preserve">2.40990281105042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44009351730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45842361450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43470215797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43146753311157</t>
   </si>
   <si>
     <t xml:space="preserve">2.40127658843994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41691112518311</t>
+    <t xml:space="preserve">2.41691088676453</t>
   </si>
   <si>
     <t xml:space="preserve">2.47729349136353</t>
@@ -2726,13 +2726,13 @@
     <t xml:space="preserve">2.4320068359375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45518970489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48861575126648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49077177047729</t>
+    <t xml:space="preserve">2.45518946647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4886155128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49077153205872</t>
   </si>
   <si>
     <t xml:space="preserve">2.47998976707458</t>
@@ -2741,10 +2741,10 @@
     <t xml:space="preserve">2.48807644844055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46597242355347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45950245857239</t>
+    <t xml:space="preserve">2.46597194671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45950222015381</t>
   </si>
   <si>
     <t xml:space="preserve">2.47891116142273</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">2.46381521224976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49508452415466</t>
+    <t xml:space="preserve">2.49508476257324</t>
   </si>
   <si>
     <t xml:space="preserve">2.40397214889526</t>
@@ -2768,13 +2768,13 @@
     <t xml:space="preserve">2.43793749809265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41637206077576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33226823806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23738145828247</t>
+    <t xml:space="preserve">2.41637182235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33226847648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23738121986389</t>
   </si>
   <si>
     <t xml:space="preserve">2.28320693969727</t>
@@ -2783,28 +2783,28 @@
     <t xml:space="preserve">2.33442425727844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35976362228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33765959739685</t>
+    <t xml:space="preserve">2.35976386070251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33765983581543</t>
   </si>
   <si>
     <t xml:space="preserve">2.34682488441467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35760688781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44440674781799</t>
+    <t xml:space="preserve">2.35760712623596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44440650939941</t>
   </si>
   <si>
     <t xml:space="preserve">2.42338085174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50371026992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2325291633606</t>
+    <t xml:space="preserve">2.50371074676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23252892494202</t>
   </si>
   <si>
     <t xml:space="preserve">2.22498154640198</t>
@@ -2825,28 +2825,28 @@
     <t xml:space="preserve">2.11607789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03682565689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94032204151154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79260039329529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74623537063599</t>
+    <t xml:space="preserve">2.03682589530945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94032180309296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79260051250458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74623548984528</t>
   </si>
   <si>
     <t xml:space="preserve">1.68261861801147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64703643321991</t>
+    <t xml:space="preserve">1.64703631401062</t>
   </si>
   <si>
     <t xml:space="preserve">1.42329823970795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35429000854492</t>
+    <t xml:space="preserve">1.35428977012634</t>
   </si>
   <si>
     <t xml:space="preserve">1.3575245141983</t>
@@ -2855,22 +2855,22 @@
     <t xml:space="preserve">1.1165337562561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36668944358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26209878921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25778579711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22435963153839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24322938919067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38825440406799</t>
+    <t xml:space="preserve">1.36668956279755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26209890842438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25778591632843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22435975074768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24322915077209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38825452327728</t>
   </si>
   <si>
     <t xml:space="preserve">1.5828800201416</t>
@@ -2879,13 +2879,13 @@
     <t xml:space="preserve">1.62223613262177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59689748287201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56562805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46481120586395</t>
+    <t xml:space="preserve">1.59689736366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5656281709671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46481132507324</t>
   </si>
   <si>
     <t xml:space="preserve">1.46427190303802</t>
@@ -2894,22 +2894,22 @@
     <t xml:space="preserve">1.50955855846405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4658887386322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45402836799622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44701910018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47505414485931</t>
+    <t xml:space="preserve">1.46588885784149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45402824878693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44701933860779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47505390644073</t>
   </si>
   <si>
     <t xml:space="preserve">1.4691241979599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3968802690506</t>
+    <t xml:space="preserve">1.39688038825989</t>
   </si>
   <si>
     <t xml:space="preserve">1.41035854816437</t>
@@ -2918,25 +2918,25 @@
     <t xml:space="preserve">1.34728074073792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24808156490326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19416880607605</t>
+    <t xml:space="preserve">1.24808144569397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19416892528534</t>
   </si>
   <si>
     <t xml:space="preserve">1.20656871795654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20764696598053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15535128116608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15373373031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19255125522614</t>
+    <t xml:space="preserve">1.20764708518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15535140037537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15373361110687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19255137443542</t>
   </si>
   <si>
     <t xml:space="preserve">1.14295160770416</t>
@@ -2945,13 +2945,13 @@
     <t xml:space="preserve">1.17529940605164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24915981292725</t>
+    <t xml:space="preserve">1.24915993213654</t>
   </si>
   <si>
     <t xml:space="preserve">1.26910722255707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21411597728729</t>
+    <t xml:space="preserve">1.21411609649658</t>
   </si>
   <si>
     <t xml:space="preserve">1.1882381439209</t>
@@ -2963,10 +2963,10 @@
     <t xml:space="preserve">1.17206394672394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15265595912933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13971626758575</t>
+    <t xml:space="preserve">1.15265607833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13971638679504</t>
   </si>
   <si>
     <t xml:space="preserve">1.13216865062714</t>
@@ -2978,52 +2978,52 @@
     <t xml:space="preserve">1.08580350875854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08202993869781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12548661231995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06277656555176</t>
+    <t xml:space="preserve">1.08202981948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12548649311066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06277668476105</t>
   </si>
   <si>
     <t xml:space="preserve">1.04434823989868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02454471588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02537047863007</t>
+    <t xml:space="preserve">1.02454459667206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02537035942078</t>
   </si>
   <si>
     <t xml:space="preserve">1.02812051773071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13538825511932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17664480209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22395300865173</t>
+    <t xml:space="preserve">1.13538813591003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17664504051208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22395288944244</t>
   </si>
   <si>
     <t xml:space="preserve">1.18104648590088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21020078659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23220479488373</t>
+    <t xml:space="preserve">1.21020066738129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23220491409302</t>
   </si>
   <si>
     <t xml:space="preserve">1.27181112766266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27236127853394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39613223075867</t>
+    <t xml:space="preserve">1.27236115932465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39613211154938</t>
   </si>
   <si>
     <t xml:space="preserve">1.4637930393219</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">1.25365817546844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26521062850952</t>
+    <t xml:space="preserve">1.26521050930023</t>
   </si>
   <si>
     <t xml:space="preserve">1.34827411174774</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">1.28501307964325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29821598529816</t>
+    <t xml:space="preserve">1.29821586608887</t>
   </si>
   <si>
     <t xml:space="preserve">1.24815702438354</t>
@@ -3062,7 +3062,7 @@
     <t xml:space="preserve">1.27896273136139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21405112743378</t>
+    <t xml:space="preserve">1.21405100822449</t>
   </si>
   <si>
     <t xml:space="preserve">1.22340261936188</t>
@@ -3071,13 +3071,13 @@
     <t xml:space="preserve">1.19534814357758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21680212020874</t>
+    <t xml:space="preserve">1.21680223941803</t>
   </si>
   <si>
     <t xml:space="preserve">1.19314813613892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20194959640503</t>
+    <t xml:space="preserve">1.20194947719574</t>
   </si>
   <si>
     <t xml:space="preserve">1.19644844532013</t>
@@ -3086,10 +3086,10 @@
     <t xml:space="preserve">1.23275434970856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21900200843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21350193023682</t>
+    <t xml:space="preserve">1.2190021276474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21350181102753</t>
   </si>
   <si>
     <t xml:space="preserve">1.18159580230713</t>
@@ -3098,22 +3098,22 @@
     <t xml:space="preserve">1.24100613594055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37082767486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37192797660828</t>
+    <t xml:space="preserve">1.37082755565643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37192809581757</t>
   </si>
   <si>
     <t xml:space="preserve">1.37907886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3972315788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36807751655579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41538524627686</t>
+    <t xml:space="preserve">1.39723169803619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3680773973465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41538548469543</t>
   </si>
   <si>
     <t xml:space="preserve">1.40218257904053</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">1.35377514362335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33342134952545</t>
+    <t xml:space="preserve">1.33342146873474</t>
   </si>
   <si>
     <t xml:space="preserve">1.27786231040955</t>
@@ -3134,10 +3134,10 @@
     <t xml:space="preserve">1.24045610427856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22505342960358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17279434204102</t>
+    <t xml:space="preserve">1.22505331039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17279446125031</t>
   </si>
   <si>
     <t xml:space="preserve">1.14253985881805</t>
@@ -3146,31 +3146,31 @@
     <t xml:space="preserve">1.12768721580505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19589829444885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28721380233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30371618270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30481648445129</t>
+    <t xml:space="preserve">1.19589817523956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28721392154694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30371630191803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30481660366058</t>
   </si>
   <si>
     <t xml:space="preserve">1.27401185035706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27731204032898</t>
+    <t xml:space="preserve">1.27731215953827</t>
   </si>
   <si>
     <t xml:space="preserve">1.28886437416077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26796054840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25420832633972</t>
+    <t xml:space="preserve">1.26796066761017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25420820713043</t>
   </si>
   <si>
     <t xml:space="preserve">1.29216480255127</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">1.2916145324707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28226292133331</t>
+    <t xml:space="preserve">1.2822630405426</t>
   </si>
   <si>
     <t xml:space="preserve">1.30921733379364</t>
@@ -3188,22 +3188,22 @@
     <t xml:space="preserve">1.26575970649719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23165464401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22835350036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18929767608643</t>
+    <t xml:space="preserve">1.23165476322174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2283536195755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18929779529572</t>
   </si>
   <si>
     <t xml:space="preserve">1.2008490562439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19479858875275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16234242916107</t>
+    <t xml:space="preserve">1.19479870796204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16234254837036</t>
   </si>
   <si>
     <t xml:space="preserve">1.17829549312592</t>
@@ -3212,13 +3212,13 @@
     <t xml:space="preserve">1.20855093002319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20524990558624</t>
+    <t xml:space="preserve">1.20524978637695</t>
   </si>
   <si>
     <t xml:space="preserve">1.20469963550568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1898478269577</t>
+    <t xml:space="preserve">1.18984794616699</t>
   </si>
   <si>
     <t xml:space="preserve">1.19864916801453</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">1.18819737434387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13978898525238</t>
+    <t xml:space="preserve">1.13978886604309</t>
   </si>
   <si>
     <t xml:space="preserve">1.10898423194885</t>
@@ -3239,13 +3239,13 @@
     <t xml:space="preserve">1.07817852497101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07542848587036</t>
+    <t xml:space="preserve">1.07542836666107</t>
   </si>
   <si>
     <t xml:space="preserve">1.10348308086395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07267832756042</t>
+    <t xml:space="preserve">1.07267820835114</t>
   </si>
   <si>
     <t xml:space="preserve">1.09358131885529</t>
@@ -3257,19 +3257,19 @@
     <t xml:space="preserve">1.04242289066315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.965468108654022</t>
+    <t xml:space="preserve">0.965468227863312</t>
   </si>
   <si>
     <t xml:space="preserve">1.00569605827332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.963436603546143</t>
+    <t xml:space="preserve">0.963436484336853</t>
   </si>
   <si>
     <t xml:space="preserve">0.972376108169556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977252185344696</t>
+    <t xml:space="preserve">0.977252066135406</t>
   </si>
   <si>
     <t xml:space="preserve">0.952465415000916</t>
@@ -3278,121 +3278,121 @@
     <t xml:space="preserve">0.903704285621643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907361507415771</t>
+    <t xml:space="preserve">0.907361447811127</t>
   </si>
   <si>
     <t xml:space="preserve">0.902485311031342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975626945495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962623834609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05648875236511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989036202430725</t>
+    <t xml:space="preserve">0.975626826286316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962623953819275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0564888715744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989036083221436</t>
   </si>
   <si>
     <t xml:space="preserve">0.96424925327301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978064835071564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968312561511993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907767832279205</t>
+    <t xml:space="preserve">0.978064954280853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968312680721283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907767772674561</t>
   </si>
   <si>
     <t xml:space="preserve">0.842346668243408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831781804561615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826499283313751</t>
+    <t xml:space="preserve">0.83178174495697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826499342918396</t>
   </si>
   <si>
     <t xml:space="preserve">0.857381343841553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879323840141296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89964085817337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880136370658875</t>
+    <t xml:space="preserve">0.879323780536652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899640917778015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880136489868164</t>
   </si>
   <si>
     <t xml:space="preserve">0.8516925573349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978471159934998</t>
+    <t xml:space="preserve">0.978471279144287</t>
   </si>
   <si>
     <t xml:space="preserve">0.970344305038452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00691509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07233607769012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08493268489838</t>
+    <t xml:space="preserve">1.00691521167755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07233619689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08493280410767</t>
   </si>
   <si>
     <t xml:space="preserve">1.15116655826569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15848064422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20642912387848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23202848434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23487293720245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23893642425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20683550834656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22796511650085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19058167934418</t>
+    <t xml:space="preserve">1.15848076343536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20642900466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23202860355377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23487281799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23893630504608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20683538913727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22796523571014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19058179855347</t>
   </si>
   <si>
     <t xml:space="preserve">1.20764803886414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19464504718781</t>
+    <t xml:space="preserve">1.19464528560638</t>
   </si>
   <si>
     <t xml:space="preserve">1.20561623573303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19667685031891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1901752948761</t>
+    <t xml:space="preserve">1.19667673110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19017541408539</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830214977264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23284125328064</t>
+    <t xml:space="preserve">1.23284137248993</t>
   </si>
   <si>
     <t xml:space="preserve">1.19220697879791</t>
@@ -3401,7 +3401,7 @@
     <t xml:space="preserve">1.18936264514923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20074021816254</t>
+    <t xml:space="preserve">1.20074033737183</t>
   </si>
   <si>
     <t xml:space="preserve">1.18448650836945</t>
@@ -3410,73 +3410,73 @@
     <t xml:space="preserve">1.19180071353912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18001675605774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1324747800827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.158074259758</t>
+    <t xml:space="preserve">1.18001687526703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13247489929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15807437896729</t>
   </si>
   <si>
     <t xml:space="preserve">1.20277190208435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21902549266815</t>
+    <t xml:space="preserve">1.21902561187744</t>
   </si>
   <si>
     <t xml:space="preserve">1.21049249172211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18814373016357</t>
+    <t xml:space="preserve">1.18814361095428</t>
   </si>
   <si>
     <t xml:space="preserve">1.19789588451385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26169168949127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33970928192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32467436790466</t>
+    <t xml:space="preserve">1.26169157028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3397091627121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32467460632324</t>
   </si>
   <si>
     <t xml:space="preserve">1.35189926624298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35393118858337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3372710943222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31614136695862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3076080083847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33645844459534</t>
+    <t xml:space="preserve">1.35393106937408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33727097511292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31614124774933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30760812759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33645856380463</t>
   </si>
   <si>
     <t xml:space="preserve">1.31736040115356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34011554718018</t>
+    <t xml:space="preserve">1.34011542797089</t>
   </si>
   <si>
     <t xml:space="preserve">1.31654763221741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28038322925568</t>
+    <t xml:space="preserve">1.28038334846497</t>
   </si>
   <si>
     <t xml:space="preserve">1.24178075790405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27631974220276</t>
+    <t xml:space="preserve">1.27631986141205</t>
   </si>
   <si>
     <t xml:space="preserve">1.23853003978729</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">1.26656770706177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24584412574768</t>
+    <t xml:space="preserve">1.24584424495697</t>
   </si>
   <si>
     <t xml:space="preserve">1.25478374958038</t>
@@ -3494,22 +3494,22 @@
     <t xml:space="preserve">1.37993693351746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44495153427124</t>
+    <t xml:space="preserve">1.44495165348053</t>
   </si>
   <si>
     <t xml:space="preserve">1.55181956291199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51931238174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54409909248352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51606154441833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51321709156036</t>
+    <t xml:space="preserve">1.5193122625351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54409921169281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51606166362762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51321697235107</t>
   </si>
   <si>
     <t xml:space="preserve">1.53028357028961</t>
@@ -3518,10 +3518,10 @@
     <t xml:space="preserve">1.5079345703125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4803032875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4547039270401</t>
+    <t xml:space="preserve">1.48030340671539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45470380783081</t>
   </si>
   <si>
     <t xml:space="preserve">1.5124044418335</t>
@@ -3533,16 +3533,16 @@
     <t xml:space="preserve">1.49005556106567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51402986049652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47461462020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51362347602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49777615070343</t>
+    <t xml:space="preserve">1.51402974128723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47461473941803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51362335681915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49777626991272</t>
   </si>
   <si>
     <t xml:space="preserve">1.50671565532684</t>
@@ -3557,25 +3557,25 @@
     <t xml:space="preserve">1.60545670986176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59204733371735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60098683834076</t>
+    <t xml:space="preserve">1.59204745292664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60098695755005</t>
   </si>
   <si>
     <t xml:space="preserve">1.58229517936707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61724066734314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66762709617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65543675422668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58960950374603</t>
+    <t xml:space="preserve">1.61724054813385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66762721538544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6554366350174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58960938453674</t>
   </si>
   <si>
     <t xml:space="preserve">1.54978787899017</t>
@@ -3596,10 +3596,10 @@
     <t xml:space="preserve">1.5424736738205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54369282722473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52500116825104</t>
+    <t xml:space="preserve">1.54369294643402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52500104904175</t>
   </si>
   <si>
     <t xml:space="preserve">1.54531812667847</t>
@@ -3608,7 +3608,7 @@
     <t xml:space="preserve">1.54328632354736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53678488731384</t>
+    <t xml:space="preserve">1.53678512573242</t>
   </si>
   <si>
     <t xml:space="preserve">1.51077914237976</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">1.5469434261322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52947080135345</t>
+    <t xml:space="preserve">1.52947092056274</t>
   </si>
   <si>
     <t xml:space="preserve">1.53841030597687</t>
@@ -3632,7 +3632,7 @@
     <t xml:space="preserve">1.58554589748383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50021421909332</t>
+    <t xml:space="preserve">1.50021409988403</t>
   </si>
   <si>
     <t xml:space="preserve">1.46689403057098</t>
@@ -3641,73 +3641,73 @@
     <t xml:space="preserve">1.46933221817017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47664630413055</t>
+    <t xml:space="preserve">1.47664642333984</t>
   </si>
   <si>
     <t xml:space="preserve">1.52215671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50549674034119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53922319412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52987718582153</t>
+    <t xml:space="preserve">1.5054966211319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53922307491302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52987730503082</t>
   </si>
   <si>
     <t xml:space="preserve">1.52337563037872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54084837436676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57091772556305</t>
+    <t xml:space="preserve">1.54084849357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57091760635376</t>
   </si>
   <si>
     <t xml:space="preserve">1.56319713592529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62374222278595</t>
+    <t xml:space="preserve">1.62374198436737</t>
   </si>
   <si>
     <t xml:space="preserve">1.63837051391602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6139897108078</t>
+    <t xml:space="preserve">1.61398983001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.6294310092926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63024353981018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63755786418915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60667586326599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59164106845856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62089788913727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72497689723969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76312518119812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67853534221649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70009732246399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68931615352631</t>
+    <t xml:space="preserve">1.63024365901947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63755774497986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6066757440567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59164118766785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62089765071869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72497701644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76312530040741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6785352230072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70009744167328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6893162727356</t>
   </si>
   <si>
     <t xml:space="preserve">1.68185257911682</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">1.68848705291748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70258522033691</t>
+    <t xml:space="preserve">1.7025853395462</t>
   </si>
   <si>
     <t xml:space="preserve">1.69014573097229</t>
@@ -3743,16 +3743,16 @@
     <t xml:space="preserve">1.69263339042664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.666095495224</t>
+    <t xml:space="preserve">1.66609537601471</t>
   </si>
   <si>
     <t xml:space="preserve">1.64287459850311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63084959983826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59394502639771</t>
+    <t xml:space="preserve">1.63084948062897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59394490718842</t>
   </si>
   <si>
     <t xml:space="preserve">1.60928738117218</t>
@@ -3764,37 +3764,37 @@
     <t xml:space="preserve">1.56699228286743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58440780639648</t>
+    <t xml:space="preserve">1.58440792560577</t>
   </si>
   <si>
     <t xml:space="preserve">1.57735860347748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52718508243561</t>
+    <t xml:space="preserve">1.5271852016449</t>
   </si>
   <si>
     <t xml:space="preserve">1.5147453546524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52220916748047</t>
+    <t xml:space="preserve">1.52220928668976</t>
   </si>
   <si>
     <t xml:space="preserve">1.53133177757263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52055048942566</t>
+    <t xml:space="preserve">1.52055060863495</t>
   </si>
   <si>
     <t xml:space="preserve">1.5325756072998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49193918704987</t>
+    <t xml:space="preserve">1.49193906784058</t>
   </si>
   <si>
     <t xml:space="preserve">1.47867012023926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43056988716125</t>
+    <t xml:space="preserve">1.43056976795197</t>
   </si>
   <si>
     <t xml:space="preserve">1.46291315555573</t>
@@ -3809,7 +3809,7 @@
     <t xml:space="preserve">1.41315412521362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40154373645782</t>
+    <t xml:space="preserve">1.40154385566711</t>
   </si>
   <si>
     <t xml:space="preserve">1.3563460111618</t>
@@ -3830,22 +3830,22 @@
     <t xml:space="preserve">1.33893036842346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35924875736237</t>
+    <t xml:space="preserve">1.35924863815308</t>
   </si>
   <si>
     <t xml:space="preserve">1.34349167346954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34473562240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34846746921539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36546838283539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36505377292633</t>
+    <t xml:space="preserve">1.34473550319672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34846758842468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36546850204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36505389213562</t>
   </si>
   <si>
     <t xml:space="preserve">1.34639418125153</t>
@@ -3860,37 +3860,37 @@
     <t xml:space="preserve">1.4960857629776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49028050899506</t>
+    <t xml:space="preserve">1.49028062820435</t>
   </si>
   <si>
     <t xml:space="preserve">1.53423428535461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52345323562622</t>
+    <t xml:space="preserve">1.52345311641693</t>
   </si>
   <si>
     <t xml:space="preserve">1.51557469367981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49691498279572</t>
+    <t xml:space="preserve">1.49691486358643</t>
   </si>
   <si>
     <t xml:space="preserve">1.47037696838379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48032855987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45627868175507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45130264759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48240196704865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48779249191284</t>
+    <t xml:space="preserve">1.48032867908478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45627856254578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45130252838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48240208625793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48779261112213</t>
   </si>
   <si>
     <t xml:space="preserve">1.51889193058014</t>
@@ -3905,13 +3905,13 @@
     <t xml:space="preserve">1.50479364395142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52801430225372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53755164146423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53050220012665</t>
+    <t xml:space="preserve">1.52801442146301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53755152225494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53050231933594</t>
   </si>
   <si>
     <t xml:space="preserve">1.54833257198334</t>
@@ -3920,16 +3920,16 @@
     <t xml:space="preserve">1.5076961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49650049209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51101350784302</t>
+    <t xml:space="preserve">1.49650037288666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51101338863373</t>
   </si>
   <si>
     <t xml:space="preserve">1.5023056268692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50106155872345</t>
+    <t xml:space="preserve">1.50106143951416</t>
   </si>
   <si>
     <t xml:space="preserve">1.48323130607605</t>
@@ -3941,13 +3941,13 @@
     <t xml:space="preserve">1.4222766160965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46374237537384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48406064510345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52096521854401</t>
+    <t xml:space="preserve">1.46374249458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48406052589417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52096509933472</t>
   </si>
   <si>
     <t xml:space="preserve">1.57943201065063</t>
@@ -3956,10 +3956,10 @@
     <t xml:space="preserve">1.57155346870422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61177539825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60306751728058</t>
+    <t xml:space="preserve">1.6117752790451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60306739807129</t>
   </si>
   <si>
     <t xml:space="preserve">1.64163076877594</t>
@@ -3971,25 +3971,25 @@
     <t xml:space="preserve">1.68516981601715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6669248342514</t>
+    <t xml:space="preserve">1.66692471504211</t>
   </si>
   <si>
     <t xml:space="preserve">1.68599903583527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71253716945648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.714195728302</t>
+    <t xml:space="preserve">1.71253728866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71419584751129</t>
   </si>
   <si>
     <t xml:space="preserve">1.70756137371063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70839047431946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71087837219238</t>
+    <t xml:space="preserve">1.70839059352875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71087849140167</t>
   </si>
   <si>
     <t xml:space="preserve">1.72331845760345</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">1.66029036045074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6793646812439</t>
+    <t xml:space="preserve">1.67936456203461</t>
   </si>
   <si>
     <t xml:space="preserve">1.57113885879517</t>
@@ -4022,7 +4022,7 @@
     <t xml:space="preserve">1.5877251625061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56906545162201</t>
+    <t xml:space="preserve">1.5690655708313</t>
   </si>
   <si>
     <t xml:space="preserve">1.59601831436157</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">1.59145712852478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58357846736908</t>
+    <t xml:space="preserve">1.58357858657837</t>
   </si>
   <si>
     <t xml:space="preserve">1.59518897533417</t>
@@ -4043,19 +4043,19 @@
     <t xml:space="preserve">1.59726226329803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57652938365936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53174638748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.489865899086</t>
+    <t xml:space="preserve">1.57652926445007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5317462682724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48986577987671</t>
   </si>
   <si>
     <t xml:space="preserve">1.49567115306854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48862183094025</t>
+    <t xml:space="preserve">1.48862195014954</t>
   </si>
   <si>
     <t xml:space="preserve">1.47079157829285</t>
@@ -4076,19 +4076,19 @@
     <t xml:space="preserve">1.42144727706909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40817809104919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45254671573639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46498644351959</t>
+    <t xml:space="preserve">1.40817821025848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4525465965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4649863243103</t>
   </si>
   <si>
     <t xml:space="preserve">1.43969213962555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44715619087219</t>
+    <t xml:space="preserve">1.4471560716629</t>
   </si>
   <si>
     <t xml:space="preserve">1.43637502193451</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">1.47535288333893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47286486625671</t>
+    <t xml:space="preserve">1.472864985466</t>
   </si>
   <si>
     <t xml:space="preserve">1.43678963184357</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.46125447750092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48530459403992</t>
+    <t xml:space="preserve">1.48530471324921</t>
   </si>
   <si>
     <t xml:space="preserve">1.50354945659637</t>
@@ -4127,16 +4127,16 @@
     <t xml:space="preserve">1.56326031684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59311580657959</t>
+    <t xml:space="preserve">1.5931156873703</t>
   </si>
   <si>
     <t xml:space="preserve">1.58896911144257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60057950019836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59892094135284</t>
+    <t xml:space="preserve">1.60057938098907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59892082214355</t>
   </si>
   <si>
     <t xml:space="preserve">1.62711763381958</t>
@@ -4148,10 +4148,10 @@
     <t xml:space="preserve">1.6055554151535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59062778949738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56077229976654</t>
+    <t xml:space="preserve">1.59062767028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56077241897583</t>
   </si>
   <si>
     <t xml:space="preserve">1.48820722103119</t>
@@ -4160,43 +4160,43 @@
     <t xml:space="preserve">1.48281669616699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55040609836578</t>
+    <t xml:space="preserve">1.55040597915649</t>
   </si>
   <si>
     <t xml:space="preserve">1.58689570426941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5263557434082</t>
+    <t xml:space="preserve">1.52635586261749</t>
   </si>
   <si>
     <t xml:space="preserve">1.537966132164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60804343223572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63955736160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62297093868256</t>
+    <t xml:space="preserve">1.60804331302643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63955748081207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62297105789185</t>
   </si>
   <si>
     <t xml:space="preserve">1.68268191814423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68019390106201</t>
+    <t xml:space="preserve">1.68019378185272</t>
   </si>
   <si>
     <t xml:space="preserve">1.70590257644653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64038670063019</t>
+    <t xml:space="preserve">1.64038681983948</t>
   </si>
   <si>
     <t xml:space="preserve">1.79049265384674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76893043518066</t>
+    <t xml:space="preserve">1.76893055438995</t>
   </si>
   <si>
     <t xml:space="preserve">1.67438864707947</t>
@@ -4205,10 +4205,10 @@
     <t xml:space="preserve">1.62545895576477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50189101696014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52925848960876</t>
+    <t xml:space="preserve">1.50189089775085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52925837039948</t>
   </si>
   <si>
     <t xml:space="preserve">1.37790822982788</t>
@@ -4217,10 +4217,10 @@
     <t xml:space="preserve">1.37251770496368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30078196525574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16311538219452</t>
+    <t xml:space="preserve">1.30078184604645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16311550140381</t>
   </si>
   <si>
     <t xml:space="preserve">1.10299015045166</t>
@@ -4232,19 +4232,19 @@
     <t xml:space="preserve">1.27839028835297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18260443210602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17596983909607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22407019138336</t>
+    <t xml:space="preserve">1.18260431289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17596971988678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22407007217407</t>
   </si>
   <si>
     <t xml:space="preserve">1.24894964694977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34058904647827</t>
+    <t xml:space="preserve">1.34058892726898</t>
   </si>
   <si>
     <t xml:space="preserve">1.31031906604767</t>
@@ -4253,7 +4253,7 @@
     <t xml:space="preserve">1.30202579498291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31902682781219</t>
+    <t xml:space="preserve">1.31902670860291</t>
   </si>
   <si>
     <t xml:space="preserve">1.29912316799164</t>
@@ -4268,19 +4268,19 @@
     <t xml:space="preserve">1.31156301498413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38868939876556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36132192611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31819748878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33271050453186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27548766136169</t>
+    <t xml:space="preserve">1.38868927955627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36132204532623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3181973695755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33271038532257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27548778057098</t>
   </si>
   <si>
     <t xml:space="preserve">1.27756106853485</t>
@@ -4298,7 +4298,7 @@
     <t xml:space="preserve">1.28668355941772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29995250701904</t>
+    <t xml:space="preserve">1.29995238780975</t>
   </si>
   <si>
     <t xml:space="preserve">1.3057576417923</t>
@@ -4316,7 +4316,7 @@
     <t xml:space="preserve">1.32731997966766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31197762489319</t>
+    <t xml:space="preserve">1.31197774410248</t>
   </si>
   <si>
     <t xml:space="preserve">1.32151472568512</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">1.33105182647705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32234406471252</t>
+    <t xml:space="preserve">1.32234394550323</t>
   </si>
   <si>
     <t xml:space="preserve">1.29000079631805</t>
@@ -4340,7 +4340,7 @@
     <t xml:space="preserve">1.27175581455231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26180398464203</t>
+    <t xml:space="preserve">1.26180410385132</t>
   </si>
   <si>
     <t xml:space="preserve">1.40983688831329</t>
@@ -4352,19 +4352,19 @@
     <t xml:space="preserve">1.44466817378998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43139910697937</t>
+    <t xml:space="preserve">1.43139898777008</t>
   </si>
   <si>
     <t xml:space="preserve">1.4641569852829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45710790157318</t>
+    <t xml:space="preserve">1.45710778236389</t>
   </si>
   <si>
     <t xml:space="preserve">1.46623039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44840002059937</t>
+    <t xml:space="preserve">1.44840013980865</t>
   </si>
   <si>
     <t xml:space="preserve">1.54587614536285</t>
@@ -4373,10 +4373,10 @@
     <t xml:space="preserve">1.56219375133514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60599362850189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62574636936188</t>
+    <t xml:space="preserve">1.6059935092926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62574648857117</t>
   </si>
   <si>
     <t xml:space="preserve">1.6188759803772</t>
@@ -4388,22 +4388,22 @@
     <t xml:space="preserve">1.6459287405014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64206397533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65623462200165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59998202323914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65838170051575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61801707744598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66525220870972</t>
+    <t xml:space="preserve">1.64206409454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65623474121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59998190402985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65838158130646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61801695823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66525208950043</t>
   </si>
   <si>
     <t xml:space="preserve">1.67555797100067</t>
@@ -4421,13 +4421,13 @@
     <t xml:space="preserve">1.477170586586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4144766330719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44110000133514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46686470508575</t>
+    <t xml:space="preserve">1.41447675228119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44110012054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46686482429504</t>
   </si>
   <si>
     <t xml:space="preserve">1.47373533248901</t>
@@ -4439,34 +4439,34 @@
     <t xml:space="preserve">1.40073561668396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44625318050385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42435312271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42220604419708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40116512775421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3462005853653</t>
+    <t xml:space="preserve">1.44625306129456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42435300350189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42220616340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40116500854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34620046615601</t>
   </si>
   <si>
     <t xml:space="preserve">1.30454778671265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30368888378143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23755967617035</t>
+    <t xml:space="preserve">1.30368900299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23755979537964</t>
   </si>
   <si>
     <t xml:space="preserve">1.21823620796204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28135967254639</t>
+    <t xml:space="preserve">1.2813595533371</t>
   </si>
   <si>
     <t xml:space="preserve">1.29681837558746</t>
@@ -4475,7 +4475,7 @@
     <t xml:space="preserve">1.2379891872406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20750105381012</t>
+    <t xml:space="preserve">1.20750117301941</t>
   </si>
   <si>
     <t xml:space="preserve">1.176154255867</t>
@@ -4487,10 +4487,10 @@
     <t xml:space="preserve">1.11045432090759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12505424022675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20148932933807</t>
+    <t xml:space="preserve">1.12505435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20148944854736</t>
   </si>
   <si>
     <t xml:space="preserve">1.16713654994965</t>
@@ -4514,25 +4514,25 @@
     <t xml:space="preserve">1.13364255428314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15940725803375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17186009883881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19118344783783</t>
+    <t xml:space="preserve">1.15940713882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17185997962952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19118356704712</t>
   </si>
   <si>
     <t xml:space="preserve">1.23884797096252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23068928718567</t>
+    <t xml:space="preserve">1.23068916797638</t>
   </si>
   <si>
     <t xml:space="preserve">1.35006523132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38270044326782</t>
+    <t xml:space="preserve">1.38270032405853</t>
   </si>
   <si>
     <t xml:space="preserve">1.39386510848999</t>
@@ -4574,13 +4574,13 @@
     <t xml:space="preserve">1.29295361042023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29252421855927</t>
+    <t xml:space="preserve">1.29252433776855</t>
   </si>
   <si>
     <t xml:space="preserve">1.27448892593384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30540657043457</t>
+    <t xml:space="preserve">1.30540645122528</t>
   </si>
   <si>
     <t xml:space="preserve">1.26633024215698</t>
@@ -4598,7 +4598,7 @@
     <t xml:space="preserve">1.32945346832275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39558267593384</t>
+    <t xml:space="preserve">1.39558279514313</t>
   </si>
   <si>
     <t xml:space="preserve">1.38141202926636</t>
@@ -4613,7 +4613,7 @@
     <t xml:space="preserve">1.4479706287384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45527052879333</t>
+    <t xml:space="preserve">1.45527064800262</t>
   </si>
   <si>
     <t xml:space="preserve">1.43036496639252</t>
@@ -4625,7 +4625,7 @@
     <t xml:space="preserve">1.4900529384613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43079423904419</t>
+    <t xml:space="preserve">1.43079435825348</t>
   </si>
   <si>
     <t xml:space="preserve">1.42907667160034</t>
@@ -4637,7 +4637,7 @@
     <t xml:space="preserve">1.3754004240036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33632409572601</t>
+    <t xml:space="preserve">1.33632397651672</t>
   </si>
   <si>
     <t xml:space="preserve">1.35779452323914</t>
@@ -4652,7 +4652,7 @@
     <t xml:space="preserve">1.41576492786407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37239456176758</t>
+    <t xml:space="preserve">1.37239468097687</t>
   </si>
   <si>
     <t xml:space="preserve">1.39042973518372</t>
@@ -4673,13 +4673,13 @@
     <t xml:space="preserve">1.45097661018372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46042358875275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47115898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47588241100311</t>
+    <t xml:space="preserve">1.46042370796204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47115886211395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47588229179382</t>
   </si>
   <si>
     <t xml:space="preserve">1.49563527107239</t>
@@ -4688,7 +4688,7 @@
     <t xml:space="preserve">1.53814685344696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52869987487793</t>
+    <t xml:space="preserve">1.52869975566864</t>
   </si>
   <si>
     <t xml:space="preserve">1.53084695339203</t>
@@ -4697,25 +4697,25 @@
     <t xml:space="preserve">1.57421720027924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58452308177948</t>
+    <t xml:space="preserve">1.58452320098877</t>
   </si>
   <si>
     <t xml:space="preserve">1.6081405878067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6274641752243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65408742427826</t>
+    <t xml:space="preserve">1.62746405601501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65408754348755</t>
   </si>
   <si>
     <t xml:space="preserve">1.65537583827972</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72880494594574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76058113574982</t>
+    <t xml:space="preserve">1.72880482673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76058125495911</t>
   </si>
   <si>
     <t xml:space="preserve">1.62531721591949</t>
@@ -4733,10 +4733,10 @@
     <t xml:space="preserve">1.61114656925201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6167289018631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63991689682007</t>
+    <t xml:space="preserve">1.61672878265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63991701602936</t>
   </si>
   <si>
     <t xml:space="preserve">1.64421117305756</t>
@@ -4748,7 +4748,7 @@
     <t xml:space="preserve">1.66654050350189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68028163909912</t>
+    <t xml:space="preserve">1.68028151988983</t>
   </si>
   <si>
     <t xml:space="preserve">1.691446185112</t>
@@ -4760,19 +4760,19 @@
     <t xml:space="preserve">1.68328738212585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6935932636261</t>
+    <t xml:space="preserve">1.69359314441681</t>
   </si>
   <si>
     <t xml:space="preserve">1.67384040355682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66568160057068</t>
+    <t xml:space="preserve">1.66568171977997</t>
   </si>
   <si>
     <t xml:space="preserve">1.65666401386261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66396403312683</t>
+    <t xml:space="preserve">1.66396391391754</t>
   </si>
   <si>
     <t xml:space="preserve">1.6686874628067</t>
@@ -4793,10 +4793,10 @@
     <t xml:space="preserve">1.61587011814117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61458170413971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60212886333466</t>
+    <t xml:space="preserve">1.614581823349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60212898254395</t>
   </si>
   <si>
     <t xml:space="preserve">1.67126393318176</t>
@@ -4805,19 +4805,19 @@
     <t xml:space="preserve">1.66997563838959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66181683540344</t>
+    <t xml:space="preserve">1.66181695461273</t>
   </si>
   <si>
     <t xml:space="preserve">1.64764630794525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68285799026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70475792884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74941647052765</t>
+    <t xml:space="preserve">1.6828578710556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70475780963898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74941658973694</t>
   </si>
   <si>
     <t xml:space="preserve">1.74340486526489</t>
@@ -4829,13 +4829,13 @@
     <t xml:space="preserve">1.79751038551331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81211042404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81125164031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82155752182007</t>
+    <t xml:space="preserve">1.81211030483246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81125152111053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82155740261078</t>
   </si>
   <si>
     <t xml:space="preserve">1.8808159828186</t>
@@ -4850,10 +4850,10 @@
     <t xml:space="preserve">1.93406307697296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93234527111053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96927440166473</t>
+    <t xml:space="preserve">1.93234503269196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96927452087402</t>
   </si>
   <si>
     <t xml:space="preserve">1.98129785060883</t>
@@ -4871,13 +4871,13 @@
     <t xml:space="preserve">2.08779168128967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08693289756775</t>
+    <t xml:space="preserve">2.08693313598633</t>
   </si>
   <si>
     <t xml:space="preserve">2.16165018081665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23293209075928</t>
+    <t xml:space="preserve">2.23293232917786</t>
   </si>
   <si>
     <t xml:space="preserve">2.17109751701355</t>
@@ -63112,7 +63112,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n">
-        <v>45505.6511805556</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B2186" t="n">
         <v>14646920</v>
@@ -63133,6 +63133,32 @@
         <v>1982</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.6495486111</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>17266265</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>5.05399990081787</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>4.86800003051758</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>4.9850001335144</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>4.88899993896484</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H2187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -44,43 +44,43 @@
     <t xml:space="preserve">BPE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3729681968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22311329841614</t>
+    <t xml:space="preserve">3.37296772003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22311305999756</t>
   </si>
   <si>
     <t xml:space="preserve">3.14941358566284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07817053794861</t>
+    <t xml:space="preserve">3.07817029953003</t>
   </si>
   <si>
     <t xml:space="preserve">3.08062744140625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05606055259705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20345878601074</t>
+    <t xml:space="preserve">3.05606079101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20345902442932</t>
   </si>
   <si>
     <t xml:space="preserve">3.03886485099792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77354764938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76126408576965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55981945991516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84233379364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81039714813232</t>
+    <t xml:space="preserve">2.77354741096497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76126456260681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55981993675232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84233403205872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81039667129517</t>
   </si>
   <si>
     <t xml:space="preserve">2.73669767379761</t>
@@ -92,31 +92,31 @@
     <t xml:space="preserve">2.77846050262451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56964683532715</t>
+    <t xml:space="preserve">2.56964635848999</t>
   </si>
   <si>
     <t xml:space="preserve">2.70230484008789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63597536087036</t>
+    <t xml:space="preserve">2.63597559928894</t>
   </si>
   <si>
     <t xml:space="preserve">2.45664095878601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25323057174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2620747089386</t>
+    <t xml:space="preserve">2.25323033332825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26207447052002</t>
   </si>
   <si>
     <t xml:space="preserve">2.21490716934204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9505729675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90831875801086</t>
+    <t xml:space="preserve">1.95057272911072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90831863880157</t>
   </si>
   <si>
     <t xml:space="preserve">2.03999423980713</t>
@@ -128,16 +128,16 @@
     <t xml:space="preserve">2.05669975280762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26502227783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37508034706116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43207454681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41733407974243</t>
+    <t xml:space="preserve">2.26502251625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.375079870224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43207478523254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41733431816101</t>
   </si>
   <si>
     <t xml:space="preserve">2.27288389205933</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">2.50331711769104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40849018096924</t>
+    <t xml:space="preserve">2.4084906578064</t>
   </si>
   <si>
     <t xml:space="preserve">2.25519633293152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31120729446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35444474220276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31415581703186</t>
+    <t xml:space="preserve">2.31120753288269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35444450378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31415557861328</t>
   </si>
   <si>
     <t xml:space="preserve">2.34854793548584</t>
@@ -167,46 +167,46 @@
     <t xml:space="preserve">2.46401071548462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42126536369324</t>
+    <t xml:space="preserve">2.42126488685608</t>
   </si>
   <si>
     <t xml:space="preserve">2.43109178543091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30531167984009</t>
+    <t xml:space="preserve">2.30531144142151</t>
   </si>
   <si>
     <t xml:space="preserve">2.27190136909485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29745054244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31808614730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51068711280823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54507970809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4615535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29450178146362</t>
+    <t xml:space="preserve">2.29745078086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31808662414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51068663597107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54507994651794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46155333518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29450225830078</t>
   </si>
   <si>
     <t xml:space="preserve">2.32005095481873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3406867980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33479142189026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30039858818054</t>
+    <t xml:space="preserve">2.34068703651428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33479166030884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30039811134338</t>
   </si>
   <si>
     <t xml:space="preserve">2.23750853538513</t>
@@ -218,49 +218,49 @@
     <t xml:space="preserve">2.12352013587952</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0557165145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09305787086487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97415626049042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96334707736969</t>
+    <t xml:space="preserve">2.05571627616882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09305834770203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97415637969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96334683895111</t>
   </si>
   <si>
     <t xml:space="preserve">1.84739339351654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11172819137573</t>
+    <t xml:space="preserve">2.11172842979431</t>
   </si>
   <si>
     <t xml:space="preserve">2.21392464637756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12548565864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36918473243713</t>
+    <t xml:space="preserve">2.12548542022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36918449401855</t>
   </si>
   <si>
     <t xml:space="preserve">2.47629404067993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48366355895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40062928199768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47138047218323</t>
+    <t xml:space="preserve">2.48366379737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4006290435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47138071060181</t>
   </si>
   <si>
     <t xml:space="preserve">2.54999279975891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56227588653564</t>
+    <t xml:space="preserve">2.56227564811707</t>
   </si>
   <si>
     <t xml:space="preserve">2.47383737564087</t>
@@ -272,49 +272,49 @@
     <t xml:space="preserve">2.51560044288635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61386561393738</t>
+    <t xml:space="preserve">2.6138653755188</t>
   </si>
   <si>
     <t xml:space="preserve">2.50823020935059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41635131835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31022524833679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28467631340027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22080326080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16282653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15693020820618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15103483200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11762452125549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11467576026917</t>
+    <t xml:space="preserve">2.41635155677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31022500991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28467607498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22080302238464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16282606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15693044662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15103459358215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11762428283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11467599868774</t>
   </si>
   <si>
     <t xml:space="preserve">2.14710426330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26600480079651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15987825393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1873927116394</t>
+    <t xml:space="preserve">2.26600503921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1598789691925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18739295005798</t>
   </si>
   <si>
     <t xml:space="preserve">2.14416766166687</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">2.38140273094177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38743472099304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41055536270142</t>
+    <t xml:space="preserve">2.38743495941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41055512428284</t>
   </si>
   <si>
     <t xml:space="preserve">2.2859058380127</t>
@@ -344,40 +344,40 @@
     <t xml:space="preserve">2.25675415992737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16628289222717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15623021125793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18437647819519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2255916595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0798327922821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95317208766937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89788436889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89185357093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8425966501236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.025550365448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11702585220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17130875587463</t>
+    <t xml:space="preserve">2.16628265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15622997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18437671661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22559189796448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07983231544495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95317232608795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89788424968719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89185333251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84259653091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02554988861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11702609062195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17130851745605</t>
   </si>
   <si>
     <t xml:space="preserve">2.16226196289062</t>
@@ -386,10 +386,10 @@
     <t xml:space="preserve">2.32812547683716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75514125823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73704707622528</t>
+    <t xml:space="preserve">1.75514137744904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73704719543457</t>
   </si>
   <si>
     <t xml:space="preserve">1.69583201408386</t>
@@ -398,70 +398,70 @@
     <t xml:space="preserve">1.60335052013397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64758121967316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56816697120667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46261763572693</t>
+    <t xml:space="preserve">1.64758145809174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56816685199738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46261751651764</t>
   </si>
   <si>
     <t xml:space="preserve">1.463623046875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35907816886902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29775857925415</t>
+    <t xml:space="preserve">1.35907804965973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29775846004486</t>
   </si>
   <si>
     <t xml:space="preserve">1.50785303115845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5782196521759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7068897485733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62144482135773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69080650806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71091079711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72096347808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70487928390503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72297334671021</t>
+    <t xml:space="preserve">1.57821977138519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70688986778259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62144505977631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69080626964569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71091091632843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096335887909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70487892627716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72297370433807</t>
   </si>
   <si>
     <t xml:space="preserve">1.77826142311096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76519346237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71794712543488</t>
+    <t xml:space="preserve">1.76519358158112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71794724464417</t>
   </si>
   <si>
     <t xml:space="preserve">1.72598898410797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80540323257446</t>
+    <t xml:space="preserve">1.80540311336517</t>
   </si>
   <si>
     <t xml:space="preserve">1.74910974502563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84460759162903</t>
+    <t xml:space="preserve">1.84460735321045</t>
   </si>
   <si>
     <t xml:space="preserve">1.74006247520447</t>
@@ -470,61 +470,61 @@
     <t xml:space="preserve">1.52494204044342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.586261510849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59430325031281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80238735675812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76921439170837</t>
+    <t xml:space="preserve">1.58626174926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59430336952209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8023875951767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76921427249908</t>
   </si>
   <si>
     <t xml:space="preserve">1.80439758300781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79334020614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79233503341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76720404624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75413584709167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68879532814026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71895277500153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61943423748016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63049221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72397875785828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7611722946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70990514755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67472219467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72196805477142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73403143882751</t>
+    <t xml:space="preserve">1.79334056377411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79233491420746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76720428466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75413596630096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68879544734955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71895241737366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61943435668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63049209117889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72397899627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76117217540741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70990538597107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67472207546234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72196817398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73403131961823</t>
   </si>
   <si>
     <t xml:space="preserve">1.76619875431061</t>
@@ -533,22 +533,22 @@
     <t xml:space="preserve">1.79032397270203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75815689563751</t>
+    <t xml:space="preserve">1.7581570148468</t>
   </si>
   <si>
     <t xml:space="preserve">1.81746578216553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.820481300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78429305553436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75011515617371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70387446880341</t>
+    <t xml:space="preserve">1.82048141956329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78429293632507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75011491775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70387470722198</t>
   </si>
   <si>
     <t xml:space="preserve">1.64657592773438</t>
@@ -560,58 +560,58 @@
     <t xml:space="preserve">1.60033512115479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67572724819183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67974841594696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60435569286346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57922530174255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6144083738327</t>
+    <t xml:space="preserve">1.67572748661041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67974829673767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60435605049133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57922518253326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61440849304199</t>
   </si>
   <si>
     <t xml:space="preserve">1.61742413043976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66467022895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62647128105164</t>
+    <t xml:space="preserve">1.66466999053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62647151947021</t>
   </si>
   <si>
     <t xml:space="preserve">1.70286905765533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70789539813995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68376922607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74408340454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84963381290436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89084804058075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80841851234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9029107093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94312024116516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0426390171051</t>
+    <t xml:space="preserve">1.70789527893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68376910686493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74408364295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84963357448578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89084792137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80841827392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90291059017181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94312047958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04263877868652</t>
   </si>
   <si>
     <t xml:space="preserve">2.14014649391174</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">2.1351203918457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18940281867981</t>
+    <t xml:space="preserve">2.18940305709839</t>
   </si>
   <si>
     <t xml:space="preserve">2.09792685508728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13210487365723</t>
+    <t xml:space="preserve">2.13210463523865</t>
   </si>
   <si>
     <t xml:space="preserve">2.18236660957336</t>
@@ -635,28 +635,28 @@
     <t xml:space="preserve">2.17633485794067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.148188829422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1300938129425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01047086715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98534023761749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9632248878479</t>
+    <t xml:space="preserve">2.14818859100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13009405136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01047110557556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98534059524536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96322500705719</t>
   </si>
   <si>
     <t xml:space="preserve">2.03158092498779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06978011131287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09993672370911</t>
+    <t xml:space="preserve">2.06977963447571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09993696212769</t>
   </si>
   <si>
     <t xml:space="preserve">2.10094261169434</t>
@@ -665,37 +665,37 @@
     <t xml:space="preserve">2.07882714271545</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06877422332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.008460521698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92301511764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88381206989288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87576913833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91396856307983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90391623973846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90994727611542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88079559803009</t>
+    <t xml:space="preserve">2.06877446174622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00846028327942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92301523685455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88381171226501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87576878070831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91396880149841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90391600131989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90994703769684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88079535961151</t>
   </si>
   <si>
     <t xml:space="preserve">1.90492153167725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05771732330322</t>
+    <t xml:space="preserve">2.05771708488464</t>
   </si>
   <si>
     <t xml:space="preserve">2.01650261878967</t>
@@ -704,28 +704,28 @@
     <t xml:space="preserve">2.15321469306946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37738180160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41155982017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37436676025391</t>
+    <t xml:space="preserve">2.3773820400238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41155958175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37436628341675</t>
   </si>
   <si>
     <t xml:space="preserve">2.41859698295593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46986389160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4296543598175</t>
+    <t xml:space="preserve">2.46986365318298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42965412139893</t>
   </si>
   <si>
     <t xml:space="preserve">2.49499464035034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51560187339783</t>
+    <t xml:space="preserve">2.51560235023499</t>
   </si>
   <si>
     <t xml:space="preserve">2.49801015853882</t>
@@ -734,43 +734,43 @@
     <t xml:space="preserve">2.51308917999268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56837725639343</t>
+    <t xml:space="preserve">2.56837701797485</t>
   </si>
   <si>
     <t xml:space="preserve">2.59350776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60104703903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54324626922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64879584312439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74931883811951</t>
+    <t xml:space="preserve">2.6010468006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54324650764465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64879560470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74931859970093</t>
   </si>
   <si>
     <t xml:space="preserve">2.70408368110657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66387414932251</t>
+    <t xml:space="preserve">2.66387367248535</t>
   </si>
   <si>
     <t xml:space="preserve">2.53068065643311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51811456680298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66890025138855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64376926422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68649220466614</t>
+    <t xml:space="preserve">2.51811480522156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66890001296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64376950263977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68649196624756</t>
   </si>
   <si>
     <t xml:space="preserve">2.69654440879822</t>
@@ -779,22 +779,22 @@
     <t xml:space="preserve">2.84230375289917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88753890991211</t>
+    <t xml:space="preserve">2.88753914833069</t>
   </si>
   <si>
     <t xml:space="preserve">2.81968569755554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82722496986389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240792274475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81717324256897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68397951126099</t>
+    <t xml:space="preserve">2.82722449302673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240839958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81717276573181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68397927284241</t>
   </si>
   <si>
     <t xml:space="preserve">2.63371682167053</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">2.69403100013733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70659613609314</t>
+    <t xml:space="preserve">2.7065966129303</t>
   </si>
   <si>
     <t xml:space="preserve">2.77193689346313</t>
@@ -812,82 +812,82 @@
     <t xml:space="preserve">2.61361217498779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5231409072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.553297996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39044976234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39849138259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48092150688171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4175910949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33415651321411</t>
+    <t xml:space="preserve">2.52314114570618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55329823493958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39045000076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39849185943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48092103004456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41759157180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33415675163269</t>
   </si>
   <si>
     <t xml:space="preserve">2.26177954673767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23765444755554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23463892936707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14919400215149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11099457740784</t>
+    <t xml:space="preserve">2.23765420913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23463869094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14919376373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11099481582642</t>
   </si>
   <si>
     <t xml:space="preserve">2.08083772659302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25172781944275</t>
+    <t xml:space="preserve">2.25172758102417</t>
   </si>
   <si>
     <t xml:space="preserve">2.26077508926392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36230373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29796838760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20146584510803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20649170875549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27987432479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35426163673401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31505727767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25574898719788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25976967811584</t>
+    <t xml:space="preserve">2.36230397224426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29796862602234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20146560668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20649218559265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27987408638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35426187515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31505751609802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2557487487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25976991653442</t>
   </si>
   <si>
     <t xml:space="preserve">2.37235617637634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34420919418335</t>
+    <t xml:space="preserve">2.34420943260193</t>
   </si>
   <si>
     <t xml:space="preserve">2.41457605361938</t>
@@ -896,13 +896,13 @@
     <t xml:space="preserve">2.42362308502197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49197888374329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46383237838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41960144042969</t>
+    <t xml:space="preserve">2.49197912216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46383213996887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41960191726685</t>
   </si>
   <si>
     <t xml:space="preserve">2.43468046188354</t>
@@ -911,22 +911,22 @@
     <t xml:space="preserve">2.38944530487061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35727763175964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35225129127502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26982188224792</t>
+    <t xml:space="preserve">2.35727715492249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35225081443787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26982164382935</t>
   </si>
   <si>
     <t xml:space="preserve">2.28691053390503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28490042686462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30198931694031</t>
+    <t xml:space="preserve">2.28490018844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30198955535889</t>
   </si>
   <si>
     <t xml:space="preserve">2.26479578018188</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">2.19241905212402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30399918556213</t>
+    <t xml:space="preserve">2.30399966239929</t>
   </si>
   <si>
     <t xml:space="preserve">2.46282696723938</t>
@@ -947,31 +947,31 @@
     <t xml:space="preserve">2.49901533126831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44473314285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52062845230103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58596920967102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62366461753845</t>
+    <t xml:space="preserve">2.44473338127136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52062821388245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58596873283386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62366509437561</t>
   </si>
   <si>
     <t xml:space="preserve">2.55832433700562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53821969032288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39447069168091</t>
+    <t xml:space="preserve">2.53821992874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39447093009949</t>
   </si>
   <si>
     <t xml:space="preserve">2.35627198219299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44272232055664</t>
+    <t xml:space="preserve">2.44272255897522</t>
   </si>
   <si>
     <t xml:space="preserve">2.402512550354</t>
@@ -983,10 +983,10 @@
     <t xml:space="preserve">2.32008385658264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35526752471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34406590461731</t>
+    <t xml:space="preserve">2.35526728630066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34406566619873</t>
   </si>
   <si>
     <t xml:space="preserve">2.34508419036865</t>
@@ -998,10 +998,10 @@
     <t xml:space="preserve">2.37461400032043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3471200466156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27584147453308</t>
+    <t xml:space="preserve">2.34712028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27584171295166</t>
   </si>
   <si>
     <t xml:space="preserve">2.276859998703</t>
@@ -1013,25 +1013,25 @@
     <t xml:space="preserve">2.26667714118958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23816585540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19743490219116</t>
+    <t xml:space="preserve">2.23816561698914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19743466377258</t>
   </si>
   <si>
     <t xml:space="preserve">2.16383171081543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16790461540222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24834775924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24122023582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19437980651855</t>
+    <t xml:space="preserve">2.1679048538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24834799766541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24121999740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19438004493713</t>
   </si>
   <si>
     <t xml:space="preserve">2.24936652183533</t>
@@ -1040,10 +1040,10 @@
     <t xml:space="preserve">2.22696423530579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12615537643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13939261436462</t>
+    <t xml:space="preserve">2.12615513801575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13939237594604</t>
   </si>
   <si>
     <t xml:space="preserve">2.08440613746643</t>
@@ -1052,34 +1052,34 @@
     <t xml:space="preserve">2.17808699607849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16892290115356</t>
+    <t xml:space="preserve">2.16892313957214</t>
   </si>
   <si>
     <t xml:space="preserve">2.22594594955444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23918318748474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25954914093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24732995033264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22289109230042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36646795272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44691109657288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38785147666931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39396142959595</t>
+    <t xml:space="preserve">2.23918342590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25954937934875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24732971191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22289133071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36646771430969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44691133499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38785123825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39396166801453</t>
   </si>
   <si>
     <t xml:space="preserve">2.38683295249939</t>
@@ -1094,46 +1094,46 @@
     <t xml:space="preserve">2.51513624191284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52226376533508</t>
+    <t xml:space="preserve">2.52226400375366</t>
   </si>
   <si>
     <t xml:space="preserve">2.52022767066956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53550124168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45302128791809</t>
+    <t xml:space="preserve">2.53550171852112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45302081108093</t>
   </si>
   <si>
     <t xml:space="preserve">2.46931338310242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40312600135803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37665128707886</t>
+    <t xml:space="preserve">2.40312576293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3766508102417</t>
   </si>
   <si>
     <t xml:space="preserve">2.3481388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38276028633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39497923851013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36850452423096</t>
+    <t xml:space="preserve">2.3827600479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39497947692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3685040473938</t>
   </si>
   <si>
     <t xml:space="preserve">2.36443090438843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41025352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55586671829224</t>
+    <t xml:space="preserve">2.41025376319885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55586695671082</t>
   </si>
   <si>
     <t xml:space="preserve">2.52124547958374</t>
@@ -1142,13 +1142,13 @@
     <t xml:space="preserve">2.50291681289673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41432666778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49477028846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48356914520264</t>
+    <t xml:space="preserve">2.4143271446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477005004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48356938362122</t>
   </si>
   <si>
     <t xml:space="preserve">2.45607590675354</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">2.38887000083923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40923547744751</t>
+    <t xml:space="preserve">2.40923571586609</t>
   </si>
   <si>
     <t xml:space="preserve">2.44182062149048</t>
@@ -1181,37 +1181,37 @@
     <t xml:space="preserve">2.40516233444214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36748623847961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32675528526306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30639004707336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37257814407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44589328765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3970160484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33591961860657</t>
+    <t xml:space="preserve">2.36748647689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32675504684448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30638980865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37257790565491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44589352607727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39701628684998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33591938018799</t>
   </si>
   <si>
     <t xml:space="preserve">2.35730361938477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38581538200378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43571019172668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38174176216125</t>
+    <t xml:space="preserve">2.38581562042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43571043014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38174152374268</t>
   </si>
   <si>
     <t xml:space="preserve">2.45200276374817</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">2.52430057525635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56604981422424</t>
+    <t xml:space="preserve">2.56604957580566</t>
   </si>
   <si>
     <t xml:space="preserve">2.57623243331909</t>
@@ -1232,52 +1232,52 @@
     <t xml:space="preserve">2.61187171936035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53448295593262</t>
+    <t xml:space="preserve">2.53448271751404</t>
   </si>
   <si>
     <t xml:space="preserve">2.49171566963196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35628485679626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28704237937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23714685440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26158571243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23612880706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23001885414124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15874052047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16586756706238</t>
+    <t xml:space="preserve">2.35628461837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28704261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23714709281921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2615852355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23612904548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23001861572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15874028205872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16586780548096</t>
   </si>
   <si>
     <t xml:space="preserve">2.18725156784058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16281342506409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12921047210693</t>
+    <t xml:space="preserve">2.16281318664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12921071052551</t>
   </si>
   <si>
     <t xml:space="preserve">2.14041090011597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13022828102112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1241192817688</t>
+    <t xml:space="preserve">2.13022804260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12411880493164</t>
   </si>
   <si>
     <t xml:space="preserve">2.20150756835938</t>
@@ -1286,43 +1286,43 @@
     <t xml:space="preserve">2.14550232887268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11088132858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0711681842804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98054242134094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17706942558289</t>
+    <t xml:space="preserve">2.11088109016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07116842269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98054218292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17706918716431</t>
   </si>
   <si>
     <t xml:space="preserve">2.15364861488342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17299628257751</t>
+    <t xml:space="preserve">2.17299652099609</t>
   </si>
   <si>
     <t xml:space="preserve">2.12513732910156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16994094848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09764361381531</t>
+    <t xml:space="preserve">2.16994071006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09764385223389</t>
   </si>
   <si>
     <t xml:space="preserve">2.1322648525238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10273551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09051609039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1526300907135</t>
+    <t xml:space="preserve">2.1027352809906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09051585197449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15263056755066</t>
   </si>
   <si>
     <t xml:space="preserve">2.25242114067078</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">2.3318464756012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31962728500366</t>
+    <t xml:space="preserve">2.31962752342224</t>
   </si>
   <si>
     <t xml:space="preserve">2.29111528396606</t>
@@ -1346,61 +1346,61 @@
     <t xml:space="preserve">2.36544942855835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31046271324158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16484951972961</t>
+    <t xml:space="preserve">2.31046319007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16484928131104</t>
   </si>
   <si>
     <t xml:space="preserve">2.12208199501038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11597275733948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18623399734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17401385307312</t>
+    <t xml:space="preserve">2.1159725189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18623375892639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1740140914917</t>
   </si>
   <si>
     <t xml:space="preserve">2.17605090141296</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13328313827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14448404312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20354437828064</t>
+    <t xml:space="preserve">2.13328337669373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14448428153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20354461669922</t>
   </si>
   <si>
     <t xml:space="preserve">2.14346551895142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.118008852005</t>
+    <t xml:space="preserve">2.11800861358643</t>
   </si>
   <si>
     <t xml:space="preserve">2.15975856781006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16179442405701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19947075843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29824376106262</t>
+    <t xml:space="preserve">2.16179466247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19947099685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2982439994812</t>
   </si>
   <si>
     <t xml:space="preserve">2.32166361808777</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29620718955994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25140285491943</t>
+    <t xml:space="preserve">2.29620695114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25140261650085</t>
   </si>
   <si>
     <t xml:space="preserve">2.45098423957825</t>
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve">2.44894814491272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46676802635193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37206840515137</t>
+    <t xml:space="preserve">2.46676754951477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37206864356995</t>
   </si>
   <si>
     <t xml:space="preserve">2.39141535758972</t>
@@ -1421,34 +1421,34 @@
     <t xml:space="preserve">2.37308621406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30842590332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31708121299744</t>
+    <t xml:space="preserve">2.30842614173889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31708145141602</t>
   </si>
   <si>
     <t xml:space="preserve">2.39803457260132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34610295295715</t>
+    <t xml:space="preserve">2.34610271453857</t>
   </si>
   <si>
     <t xml:space="preserve">2.31504511833191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43520140647888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43978381156921</t>
+    <t xml:space="preserve">2.4352011680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43978357315063</t>
   </si>
   <si>
     <t xml:space="preserve">2.42960047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43367338180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38530659675598</t>
+    <t xml:space="preserve">2.433673620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3853063583374</t>
   </si>
   <si>
     <t xml:space="preserve">2.47593259811401</t>
@@ -1457,28 +1457,28 @@
     <t xml:space="preserve">2.47644186019897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48102426528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4784779548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50800752639771</t>
+    <t xml:space="preserve">2.48102378845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47847771644592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50800776481628</t>
   </si>
   <si>
     <t xml:space="preserve">2.48713326454163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29773473739624</t>
+    <t xml:space="preserve">2.29773449897766</t>
   </si>
   <si>
     <t xml:space="preserve">2.39192461967468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42450976371765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34864807128906</t>
+    <t xml:space="preserve">2.42451000213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34864783287048</t>
   </si>
   <si>
     <t xml:space="preserve">2.39243388175964</t>
@@ -1508,43 +1508,43 @@
     <t xml:space="preserve">2.30282616615295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3186092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29926180839539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30129861831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3903968334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39905214309692</t>
+    <t xml:space="preserve">2.31860947608948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29926156997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30129837989807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39039707183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3990523815155</t>
   </si>
   <si>
     <t xml:space="preserve">2.40821671485901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43265604972839</t>
+    <t xml:space="preserve">2.43265628814697</t>
   </si>
   <si>
     <t xml:space="preserve">2.48458790779114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45505785942078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46167659759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48815178871155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44283819198608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4122896194458</t>
+    <t xml:space="preserve">2.45505809783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46167635917664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48815155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4428379535675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41228985786438</t>
   </si>
   <si>
     <t xml:space="preserve">2.4275643825531</t>
@@ -1553,31 +1553,31 @@
     <t xml:space="preserve">2.41585445404053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42807364463806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40974473953247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40210747718811</t>
+    <t xml:space="preserve">2.42807388305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40974450111389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40210771560669</t>
   </si>
   <si>
     <t xml:space="preserve">2.49680685997009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50597167015076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55484867095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59150624275208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62103652954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54415655136108</t>
+    <t xml:space="preserve">2.50597143173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55484914779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59150648117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62103629112244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54415678977966</t>
   </si>
   <si>
     <t xml:space="preserve">2.54466605186462</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">2.37563252449036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39753270149231</t>
+    <t xml:space="preserve">2.39753293991089</t>
   </si>
   <si>
     <t xml:space="preserve">2.43611812591553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46271109580994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43246793746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3834536075592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2442319393158</t>
+    <t xml:space="preserve">2.46271085739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43246841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38345384597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24423170089722</t>
   </si>
   <si>
     <t xml:space="preserve">2.13108205795288</t>
@@ -1622,22 +1622,22 @@
     <t xml:space="preserve">2.16393160820007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16288948059082</t>
+    <t xml:space="preserve">2.16288900375366</t>
   </si>
   <si>
     <t xml:space="preserve">2.20460319519043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14516067504883</t>
+    <t xml:space="preserve">2.14516091346741</t>
   </si>
   <si>
     <t xml:space="preserve">2.23849654197693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26508903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30158925056458</t>
+    <t xml:space="preserve">2.26508951187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.301589012146</t>
   </si>
   <si>
     <t xml:space="preserve">2.32974648475647</t>
@@ -1646,37 +1646,37 @@
     <t xml:space="preserve">2.26873922348022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25778889656067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33443903923035</t>
+    <t xml:space="preserve">2.25778913497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3344395160675</t>
   </si>
   <si>
     <t xml:space="preserve">2.39336085319519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32296848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49399662017822</t>
+    <t xml:space="preserve">2.32296824455261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49399638175964</t>
   </si>
   <si>
     <t xml:space="preserve">2.44289708137512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45645403862</t>
+    <t xml:space="preserve">2.45645427703857</t>
   </si>
   <si>
     <t xml:space="preserve">2.42151761054993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44341850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45436811447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44498229026794</t>
+    <t xml:space="preserve">2.44341826438904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45436835289001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44498252868652</t>
   </si>
   <si>
     <t xml:space="preserve">2.44758987426758</t>
@@ -1691,43 +1691,43 @@
     <t xml:space="preserve">2.4945182800293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44602513313293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40535378456116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42203950881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45541095733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41213250160217</t>
+    <t xml:space="preserve">2.44602537155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40535354614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.422039270401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.455411195755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41213274002075</t>
   </si>
   <si>
     <t xml:space="preserve">2.36728978157043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41526103019714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41265320777893</t>
+    <t xml:space="preserve">2.41526079177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41265344619751</t>
   </si>
   <si>
     <t xml:space="preserve">2.44811058044434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48252558708191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45801830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49295353889465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48148202896118</t>
+    <t xml:space="preserve">2.48252582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4580180644989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49295377731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48148250579834</t>
   </si>
   <si>
     <t xml:space="preserve">2.3928394317627</t>
@@ -1736,10 +1736,10 @@
     <t xml:space="preserve">2.38658213615417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38814640045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40900325775146</t>
+    <t xml:space="preserve">2.38814687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40900373458862</t>
   </si>
   <si>
     <t xml:space="preserve">2.26665329933167</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">2.24110341072083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2098171710968</t>
+    <t xml:space="preserve">2.20981764793396</t>
   </si>
   <si>
     <t xml:space="preserve">2.15506720542908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13473200798035</t>
+    <t xml:space="preserve">2.13473176956177</t>
   </si>
   <si>
     <t xml:space="preserve">2.13212490081787</t>
@@ -1763,46 +1763,46 @@
     <t xml:space="preserve">2.08571743965149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08623909950256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13264608383179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1316032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11491751670837</t>
+    <t xml:space="preserve">2.08623886108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13264584541321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13160347938538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11491703987122</t>
   </si>
   <si>
     <t xml:space="preserve">2.109703540802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10136079788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.067467212677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08050298690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00228881835938</t>
+    <t xml:space="preserve">2.10136103630066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06746745109558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08050322532654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00228905677795</t>
   </si>
   <si>
     <t xml:space="preserve">1.98091042041779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99029636383057</t>
+    <t xml:space="preserve">1.99029624462128</t>
   </si>
   <si>
     <t xml:space="preserve">2.06329607963562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15141749382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15558934211731</t>
+    <t xml:space="preserve">2.15141773223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15558886528015</t>
   </si>
   <si>
     <t xml:space="preserve">2.21294617652893</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">2.20199632644653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20408201217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.196781873703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24736070632935</t>
+    <t xml:space="preserve">2.20408153533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19678211212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24736094474792</t>
   </si>
   <si>
     <t xml:space="preserve">2.28125357627869</t>
@@ -1826,163 +1826,163 @@
     <t xml:space="preserve">2.25987505912781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21659636497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24214649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26978254318237</t>
+    <t xml:space="preserve">2.21659660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24214673042297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26978230476379</t>
   </si>
   <si>
     <t xml:space="preserve">2.29272508621216</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07945990562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99759590625763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96266031265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93710958957672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94910287857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91364586353302</t>
+    <t xml:space="preserve">2.07946014404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99759602546692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96266055107117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93710970878601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94910335540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91364598274231</t>
   </si>
   <si>
     <t xml:space="preserve">1.88183867931366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84429514408112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88444542884827</t>
+    <t xml:space="preserve">1.84429538249969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88444554805756</t>
   </si>
   <si>
     <t xml:space="preserve">1.84898829460144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86306715011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87610256671906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85993850231171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8625453710556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82239544391632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82917439937592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76243138313293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72436654567719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67535221576691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71393835544586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7009025812149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7759884595871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76555979251862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7509593963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76138842105865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83282434940338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76973140239716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7566956281662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78850293159485</t>
+    <t xml:space="preserve">1.8630667924881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87610244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85993838310242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86254549026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82239532470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82917451858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76243126392365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72436690330505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6753523349762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71393859386444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70090293884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77598857879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76555955410004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75095963478088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76138830184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83282423019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76973092556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75669538974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78850281238556</t>
   </si>
   <si>
     <t xml:space="preserve">1.80206000804901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81822419166565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82083141803741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76764595508575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78224527835846</t>
+    <t xml:space="preserve">1.81822407245636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82083165645599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76764571666718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78224515914917</t>
   </si>
   <si>
     <t xml:space="preserve">1.74991703033447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76608121395111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7457457780838</t>
+    <t xml:space="preserve">1.76608145236969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74574565887451</t>
   </si>
   <si>
     <t xml:space="preserve">1.80883824825287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81926715373993</t>
+    <t xml:space="preserve">1.81926703453064</t>
   </si>
   <si>
     <t xml:space="preserve">1.82031011581421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91781723499298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85055291652679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86723816394806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87662434577942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96318209171295</t>
+    <t xml:space="preserve">1.9178169965744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85055267810822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86723840236664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87662446498871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96318185329437</t>
   </si>
   <si>
     <t xml:space="preserve">1.92981016635895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96578884124756</t>
+    <t xml:space="preserve">1.96578872203827</t>
   </si>
   <si>
     <t xml:space="preserve">1.90321719646454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87297439575195</t>
+    <t xml:space="preserve">1.87297427654266</t>
   </si>
   <si>
     <t xml:space="preserve">1.84116721153259</t>
@@ -1991,31 +1991,31 @@
     <t xml:space="preserve">1.8234384059906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81613874435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78798127174377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304579734802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74470269680023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78016006946564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74626672267914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73323106765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7097669839859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75408864021301</t>
+    <t xml:space="preserve">1.81613862514496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78798115253448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304555892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74470293521881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78015983104706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74626648426056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73323094844818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70976710319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75408887863159</t>
   </si>
   <si>
     <t xml:space="preserve">1.7186313867569</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">1.70715963840485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76451683044434</t>
+    <t xml:space="preserve">1.76451659202576</t>
   </si>
   <si>
     <t xml:space="preserve">1.77546715736389</t>
@@ -2033,10 +2033,10 @@
     <t xml:space="preserve">1.73635995388031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905957698822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73427402973175</t>
+    <t xml:space="preserve">1.72905945777893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73427391052246</t>
   </si>
   <si>
     <t xml:space="preserve">1.70507419109344</t>
@@ -2045,58 +2045,58 @@
     <t xml:space="preserve">1.63937366008759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5616809129715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59609520435333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60235238075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59296679496765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60130953788757</t>
+    <t xml:space="preserve">1.56168079376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59609508514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60235261917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59296691417694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60130941867828</t>
   </si>
   <si>
     <t xml:space="preserve">1.59244513511658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56898069381714</t>
+    <t xml:space="preserve">1.56898093223572</t>
   </si>
   <si>
     <t xml:space="preserve">1.57367348670959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64250266551971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62268805503845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62685930728912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64093780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54134547710419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54603779315948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54864525794983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55125200748444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58775234222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57158803939819</t>
+    <t xml:space="preserve">1.64250242710114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62268793582916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62685918807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64093804359436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5413453578949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5460376739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54864513874054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55125188827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58775222301483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57158815860748</t>
   </si>
   <si>
     <t xml:space="preserve">1.71028876304626</t>
@@ -2108,79 +2108,79 @@
     <t xml:space="preserve">1.76295280456543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75617396831512</t>
+    <t xml:space="preserve">1.75617361068726</t>
   </si>
   <si>
     <t xml:space="preserve">1.83751726150513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8302173614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81457388401031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78537440299988</t>
+    <t xml:space="preserve">1.83021748065948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81457436084747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78537452220917</t>
   </si>
   <si>
     <t xml:space="preserve">1.80623137950897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82448148727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83647418022156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88601005077362</t>
+    <t xml:space="preserve">1.82448160648346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83647406101227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88601016998291</t>
   </si>
   <si>
     <t xml:space="preserve">1.92824554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92303204536438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91677439212799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93241751194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87558090686798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85628879070282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84481692314148</t>
+    <t xml:space="preserve">1.9230318069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91677391529083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93241763114929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87558114528656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8562890291214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84481704235077</t>
   </si>
   <si>
     <t xml:space="preserve">1.85576713085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89330983161926</t>
+    <t xml:space="preserve">1.89330995082855</t>
   </si>
   <si>
     <t xml:space="preserve">1.93137454986572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94597387313843</t>
+    <t xml:space="preserve">1.94597399234772</t>
   </si>
   <si>
     <t xml:space="preserve">1.94649577140808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92928850650787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90269553661346</t>
+    <t xml:space="preserve">1.92928862571716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90269565582275</t>
   </si>
   <si>
     <t xml:space="preserve">1.89487433433533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87871050834656</t>
+    <t xml:space="preserve">1.87871038913727</t>
   </si>
   <si>
     <t xml:space="preserve">1.90843164920807</t>
@@ -2189,25 +2189,25 @@
     <t xml:space="preserve">1.90061044692993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89852440357208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92459547519684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90999627113342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92876696586609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93085289001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94753873348236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94858157634735</t>
+    <t xml:space="preserve">1.89852428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92459559440613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90999615192413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92876708507538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93085300922394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94753861427307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94858169555664</t>
   </si>
   <si>
     <t xml:space="preserve">1.97934603691101</t>
@@ -2216,19 +2216,19 @@
     <t xml:space="preserve">2.0163676738739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06955361366272</t>
+    <t xml:space="preserve">2.06955337524414</t>
   </si>
   <si>
     <t xml:space="preserve">2.10448908805847</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16028141975403</t>
+    <t xml:space="preserve">2.16028165817261</t>
   </si>
   <si>
     <t xml:space="preserve">2.18113923072815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15976047515869</t>
+    <t xml:space="preserve">2.15976023674011</t>
   </si>
   <si>
     <t xml:space="preserve">2.14098930358887</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">2.1759250164032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19365358352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19991040229797</t>
+    <t xml:space="preserve">2.19365382194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19991016387939</t>
   </si>
   <si>
     <t xml:space="preserve">2.23380374908447</t>
@@ -2252,46 +2252,46 @@
     <t xml:space="preserve">2.19104599952698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14568209648132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13368916511536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08780336380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06486058235168</t>
+    <t xml:space="preserve">2.14568257331848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1336886882782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08780360221863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06486034393311</t>
   </si>
   <si>
     <t xml:space="preserve">2.03357481956482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05182480812073</t>
+    <t xml:space="preserve">2.05182504653931</t>
   </si>
   <si>
     <t xml:space="preserve">2.01584601402283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0612108707428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00609540939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95326054096222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174793243408</t>
+    <t xml:space="preserve">2.06121063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00609588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95326066017151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9117476940155</t>
   </si>
   <si>
     <t xml:space="preserve">1.88640928268433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90581798553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85513985157013</t>
+    <t xml:space="preserve">1.90581786632538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85513997077942</t>
   </si>
   <si>
     <t xml:space="preserve">1.85621762275696</t>
@@ -2300,25 +2300,25 @@
     <t xml:space="preserve">1.84651386737823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83357441425323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82440936565399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80985248088837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84166193008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80823576450348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78667080402374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78343534469604</t>
+    <t xml:space="preserve">1.83357453346252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82440912723541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80985260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84166181087494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80823540687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78667092323303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78343510627747</t>
   </si>
   <si>
     <t xml:space="preserve">1.8395049571991</t>
@@ -2330,49 +2330,49 @@
     <t xml:space="preserve">1.83573126792908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85783529281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85136544704437</t>
+    <t xml:space="preserve">1.85783517360687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85136556625366</t>
   </si>
   <si>
     <t xml:space="preserve">1.8653826713562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90743494033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94301795959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94086146354675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97374784946442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95218312740326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95110464096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96242570877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93169569969177</t>
+    <t xml:space="preserve">1.90743517875671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94301807880402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94086098670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97374796867371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95218300819397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9511045217514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96242594718933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93169617652893</t>
   </si>
   <si>
     <t xml:space="preserve">1.92145240306854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96080899238586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0373649597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09666895866394</t>
+    <t xml:space="preserve">1.96080923080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03736519813538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09666919708252</t>
   </si>
   <si>
     <t xml:space="preserve">2.10098195075989</t>
@@ -2381,10 +2381,10 @@
     <t xml:space="preserve">2.08211255073547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07348656654358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05623483657837</t>
+    <t xml:space="preserve">2.073486328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05623459815979</t>
   </si>
   <si>
     <t xml:space="preserve">2.06539964675903</t>
@@ -2393,31 +2393,31 @@
     <t xml:space="preserve">2.05084347724915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07995676994324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0465304851532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02065253257751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02712154388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01633977890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96512222290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94894778728485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92846143245697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90204346179962</t>
+    <t xml:space="preserve">2.07995653152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04653072357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02065229415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0271213054657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01633954048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96512174606323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94894814491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92846155166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90204358100891</t>
   </si>
   <si>
     <t xml:space="preserve">1.82764458656311</t>
@@ -2426,43 +2426,43 @@
     <t xml:space="preserve">1.81632244586945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86484432220459</t>
+    <t xml:space="preserve">1.8648442029953</t>
   </si>
   <si>
     <t xml:space="preserve">1.83627021312714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86430525779724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83842623233795</t>
+    <t xml:space="preserve">1.86430513858795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83842647075653</t>
   </si>
   <si>
     <t xml:space="preserve">1.87347030639648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72520971298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68854904174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70795786380768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62385368347168</t>
+    <t xml:space="preserve">1.72520995140076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68854928016663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70795798301697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62385380268097</t>
   </si>
   <si>
     <t xml:space="preserve">1.65943610668182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67614936828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6227753162384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65080988407135</t>
+    <t xml:space="preserve">1.67614948749542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62277519702911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65081012248993</t>
   </si>
   <si>
     <t xml:space="preserve">1.65727996826172</t>
@@ -2474,49 +2474,49 @@
     <t xml:space="preserve">1.65458381175995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72952282428741</t>
+    <t xml:space="preserve">1.7295229434967</t>
   </si>
   <si>
     <t xml:space="preserve">1.71766245365143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7516268491745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73760938644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74138343334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77049672603607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78828752040863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79367911815643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80230510234833</t>
+    <t xml:space="preserve">1.75162708759308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73760950565338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74138331413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77049648761749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78828775882721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79367887973785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80230534076691</t>
   </si>
   <si>
     <t xml:space="preserve">1.86322665214539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88425230979919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86592197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89449620246887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94247901439667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95164382457733</t>
+    <t xml:space="preserve">1.88425254821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86592209339142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89449608325958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94247877597809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95164406299591</t>
   </si>
   <si>
     <t xml:space="preserve">1.88802599906921</t>
@@ -2525,22 +2525,22 @@
     <t xml:space="preserve">1.89934813976288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98237407207489</t>
+    <t xml:space="preserve">1.9823739528656</t>
   </si>
   <si>
     <t xml:space="preserve">1.92306983470917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89395666122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87400949001312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88533067703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90959167480469</t>
+    <t xml:space="preserve">1.89395678043365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87400960922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88533079624176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9095915555954</t>
   </si>
   <si>
     <t xml:space="preserve">1.8804783821106</t>
@@ -2549,22 +2549,22 @@
     <t xml:space="preserve">1.89180064201355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87454795837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8810179233551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89233982563019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96134829521179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98291289806366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02550458908081</t>
+    <t xml:space="preserve">1.87454783916473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88101804256439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8923397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96134805679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98291301727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02550482749939</t>
   </si>
   <si>
     <t xml:space="preserve">2.05515623092651</t>
@@ -2576,46 +2576,46 @@
     <t xml:space="preserve">2.16621661186218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18993854522705</t>
+    <t xml:space="preserve">2.18993830680847</t>
   </si>
   <si>
     <t xml:space="preserve">2.21905088424683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17807745933533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17699980735779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19317269325256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19371247291565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15219950675964</t>
+    <t xml:space="preserve">2.17807698249817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17699956893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19317317008972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19371223449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15219926834106</t>
   </si>
   <si>
     <t xml:space="preserve">2.16028618812561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15651249885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22605991363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25193786621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26703381538391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29992032051086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27458143234253</t>
+    <t xml:space="preserve">2.15651226043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22606015205383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25193810462952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26703357696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29992079734802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27458095550537</t>
   </si>
   <si>
     <t xml:space="preserve">2.31232023239136</t>
@@ -2624,13 +2624,13 @@
     <t xml:space="preserve">2.3290331363678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34466814994812</t>
+    <t xml:space="preserve">2.34466791152954</t>
   </si>
   <si>
     <t xml:space="preserve">2.33658123016357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35383343696594</t>
+    <t xml:space="preserve">2.35383319854736</t>
   </si>
   <si>
     <t xml:space="preserve">2.38240718841553</t>
@@ -2639,16 +2639,16 @@
     <t xml:space="preserve">2.45141553878784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48430275917053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47028517723083</t>
+    <t xml:space="preserve">2.48430252075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47028470039368</t>
   </si>
   <si>
     <t xml:space="preserve">2.41098117828369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42445921897888</t>
+    <t xml:space="preserve">2.4244589805603</t>
   </si>
   <si>
     <t xml:space="preserve">2.41852855682373</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">2.32094621658325</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33819842338562</t>
+    <t xml:space="preserve">2.33819794654846</t>
   </si>
   <si>
     <t xml:space="preserve">2.36677217483521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37917280197144</t>
+    <t xml:space="preserve">2.37917256355286</t>
   </si>
   <si>
     <t xml:space="preserve">2.40235543251038</t>
@@ -2693,73 +2693,73 @@
     <t xml:space="preserve">2.40990281105042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44009327888489</t>
+    <t xml:space="preserve">2.44009375572205</t>
   </si>
   <si>
     <t xml:space="preserve">2.45842385292053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43470215797424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43146777153015</t>
+    <t xml:space="preserve">2.43470191955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43146800994873</t>
   </si>
   <si>
     <t xml:space="preserve">2.40127635002136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41691088676453</t>
+    <t xml:space="preserve">2.41691064834595</t>
   </si>
   <si>
     <t xml:space="preserve">2.47729349136353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47567677497864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42499876022339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4320068359375</t>
+    <t xml:space="preserve">2.47567653656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42499852180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43200659751892</t>
   </si>
   <si>
     <t xml:space="preserve">2.45518946647644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48861575126648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49077153205872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47998976707458</t>
+    <t xml:space="preserve">2.4886155128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49077177047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47998952865601</t>
   </si>
   <si>
     <t xml:space="preserve">2.48807621002197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46597218513489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45950269699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47891139984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46381545066833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49508428573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40397214889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40451145172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38941550254822</t>
+    <t xml:space="preserve">2.46597194671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45950245857239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47891092300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46381497383118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49508476257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40397191047668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40451097488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38941526412964</t>
   </si>
   <si>
     <t xml:space="preserve">2.43793749809265</t>
@@ -2774,34 +2774,34 @@
     <t xml:space="preserve">2.23738121986389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28320717811584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33442401885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35976362228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33765959739685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34682488441467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35760688781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44440650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42338085174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50371074676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2325291633606</t>
+    <t xml:space="preserve">2.28320670127869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33442449569702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35976386070251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33765935897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34682512283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3576066493988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44440674781799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42338109016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50371050834656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23252892494202</t>
   </si>
   <si>
     <t xml:space="preserve">2.22498154640198</t>
@@ -2810,7 +2810,7 @@
     <t xml:space="preserve">2.26110291481018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19532990455627</t>
+    <t xml:space="preserve">2.19533014297485</t>
   </si>
   <si>
     <t xml:space="preserve">2.06809520721436</t>
@@ -2819,28 +2819,28 @@
     <t xml:space="preserve">2.07025194168091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11607813835144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03682541847229</t>
+    <t xml:space="preserve">2.11607789993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03682565689087</t>
   </si>
   <si>
     <t xml:space="preserve">1.94032192230225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79260051250458</t>
+    <t xml:space="preserve">1.79260075092316</t>
   </si>
   <si>
     <t xml:space="preserve">1.74623537063599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68261861801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64703643321991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42329823970795</t>
+    <t xml:space="preserve">1.68261849880219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64703619480133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42329812049866</t>
   </si>
   <si>
     <t xml:space="preserve">1.35428977012634</t>
@@ -2849,43 +2849,43 @@
     <t xml:space="preserve">1.3575245141983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11653387546539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36668956279755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26209878921509</t>
+    <t xml:space="preserve">1.11653363704681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36668968200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26209890842438</t>
   </si>
   <si>
     <t xml:space="preserve">1.25778591632843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22435975074768</t>
+    <t xml:space="preserve">1.22435963153839</t>
   </si>
   <si>
     <t xml:space="preserve">1.24322938919067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38825452327728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5828800201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62223601341248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59689748287201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56562829017639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46481120586395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46427202224731</t>
+    <t xml:space="preserve">1.38825440406799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58287990093231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62223613262177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59689724445343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56562805175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46481108665466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46427190303802</t>
   </si>
   <si>
     <t xml:space="preserve">1.50955855846405</t>
@@ -2894,13 +2894,13 @@
     <t xml:space="preserve">1.46588885784149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45402836799622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44701933860779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47505402565002</t>
+    <t xml:space="preserve">1.45402824878693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44701910018921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47505414485931</t>
   </si>
   <si>
     <t xml:space="preserve">1.4691241979599</t>
@@ -2909,64 +2909,64 @@
     <t xml:space="preserve">1.39688038825989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41035866737366</t>
+    <t xml:space="preserve">1.41035854816437</t>
   </si>
   <si>
     <t xml:space="preserve">1.3472808599472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24808156490326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19416880607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20656859874725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20764696598053</t>
+    <t xml:space="preserve">1.24808144569397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19416892528534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20656871795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20764708518982</t>
   </si>
   <si>
     <t xml:space="preserve">1.15535140037537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15373361110687</t>
+    <t xml:space="preserve">1.15373373031616</t>
   </si>
   <si>
     <t xml:space="preserve">1.19255125522614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14295172691345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17529940605164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24915993213654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26910734176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21411597728729</t>
+    <t xml:space="preserve">1.14295160770416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17529952526093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24916005134583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26910710334778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21411609649658</t>
   </si>
   <si>
     <t xml:space="preserve">1.1882381439209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18608152866364</t>
+    <t xml:space="preserve">1.18608129024506</t>
   </si>
   <si>
     <t xml:space="preserve">1.17206406593323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15265595912933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13971638679504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13216865062714</t>
+    <t xml:space="preserve">1.15265607833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13971614837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13216876983643</t>
   </si>
   <si>
     <t xml:space="preserve">1.09442973136902</t>
@@ -2975,10 +2975,10 @@
     <t xml:space="preserve">1.08580362796783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08202993869781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12548661231995</t>
+    <t xml:space="preserve">1.08202981948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12548649311066</t>
   </si>
   <si>
     <t xml:space="preserve">1.06277656555176</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">1.04434812068939</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02454471588135</t>
+    <t xml:space="preserve">1.02454459667206</t>
   </si>
   <si>
     <t xml:space="preserve">1.02537035942078</t>
@@ -2999,16 +2999,16 @@
     <t xml:space="preserve">1.13538825511932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17664480209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22395288944244</t>
+    <t xml:space="preserve">1.1766449213028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22395300865173</t>
   </si>
   <si>
     <t xml:space="preserve">1.18104648590088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21020078659058</t>
+    <t xml:space="preserve">1.210200548172</t>
   </si>
   <si>
     <t xml:space="preserve">1.23220479488373</t>
@@ -3023,52 +3023,52 @@
     <t xml:space="preserve">1.39613223075867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46379292011261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44288992881775</t>
+    <t xml:space="preserve">1.4637930393219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44288980960846</t>
   </si>
   <si>
     <t xml:space="preserve">1.37027728557587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28281307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25365805625916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26521050930023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34827411174774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32131958007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28501307964325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29821598529816</t>
+    <t xml:space="preserve">1.28281319141388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25365829467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26521039009094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34827399253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3213198184967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28501296043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29821586608887</t>
   </si>
   <si>
     <t xml:space="preserve">1.24815714359283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2789626121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21405112743378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22340261936188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19534814357758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21680212020874</t>
+    <t xml:space="preserve">1.27896273136139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21405124664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22340285778046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19534802436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21680200099945</t>
   </si>
   <si>
     <t xml:space="preserve">1.19314813613892</t>
@@ -3077,10 +3077,10 @@
     <t xml:space="preserve">1.20194959640503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19644844532013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23275423049927</t>
+    <t xml:space="preserve">1.19644856452942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23275434970856</t>
   </si>
   <si>
     <t xml:space="preserve">1.21900200843811</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">1.18159580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24100625514984</t>
+    <t xml:space="preserve">1.24100613594055</t>
   </si>
   <si>
     <t xml:space="preserve">1.37082755565643</t>
@@ -3104,19 +3104,19 @@
     <t xml:space="preserve">1.37907862663269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39723169803619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3680773973465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41538524627686</t>
+    <t xml:space="preserve">1.3972315788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36807751655579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41538548469543</t>
   </si>
   <si>
     <t xml:space="preserve">1.40218257904053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35377514362335</t>
+    <t xml:space="preserve">1.35377502441406</t>
   </si>
   <si>
     <t xml:space="preserve">1.33342146873474</t>
@@ -3125,10 +3125,10 @@
     <t xml:space="preserve">1.27786231040955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28171277046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24045622348785</t>
+    <t xml:space="preserve">1.28171288967133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24045610427856</t>
   </si>
   <si>
     <t xml:space="preserve">1.22505331039429</t>
@@ -3146,10 +3146,10 @@
     <t xml:space="preserve">1.19589829444885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28721392154694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30371630191803</t>
+    <t xml:space="preserve">1.28721404075623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30371618270874</t>
   </si>
   <si>
     <t xml:space="preserve">1.30481660366058</t>
@@ -3158,28 +3158,28 @@
     <t xml:space="preserve">1.27401173114777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27731215953827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28886437416077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26796042919159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25420832633972</t>
+    <t xml:space="preserve">1.27731204032898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28886425495148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26796054840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25420844554901</t>
   </si>
   <si>
     <t xml:space="preserve">1.29216480255127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29161429405212</t>
+    <t xml:space="preserve">1.2916145324707</t>
   </si>
   <si>
     <t xml:space="preserve">1.2822630405426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30921721458435</t>
+    <t xml:space="preserve">1.30921733379364</t>
   </si>
   <si>
     <t xml:space="preserve">1.26575982570648</t>
@@ -3188,16 +3188,16 @@
     <t xml:space="preserve">1.23165476322174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22835350036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18929767608643</t>
+    <t xml:space="preserve">1.2283536195755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18929755687714</t>
   </si>
   <si>
     <t xml:space="preserve">1.20084917545319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19479846954346</t>
+    <t xml:space="preserve">1.19479858875275</t>
   </si>
   <si>
     <t xml:space="preserve">1.16234254837036</t>
@@ -3206,40 +3206,40 @@
     <t xml:space="preserve">1.17829561233521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2085508108139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20524978637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20469975471497</t>
+    <t xml:space="preserve">1.20855093002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20524990558624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20469963550568</t>
   </si>
   <si>
     <t xml:space="preserve">1.1898478269577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19864928722382</t>
+    <t xml:space="preserve">1.19864916801453</t>
   </si>
   <si>
     <t xml:space="preserve">1.18819737434387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13978886604309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10898435115814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11118412017822</t>
+    <t xml:space="preserve">1.13978898525238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10898423194885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11118423938751</t>
   </si>
   <si>
     <t xml:space="preserve">1.0781786441803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07542848587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10348296165466</t>
+    <t xml:space="preserve">1.07542836666107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10348308086395</t>
   </si>
   <si>
     <t xml:space="preserve">1.07267844676971</t>
@@ -3248,55 +3248,55 @@
     <t xml:space="preserve">1.09358143806458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07157802581787</t>
+    <t xml:space="preserve">1.07157790660858</t>
   </si>
   <si>
     <t xml:space="preserve">1.04242300987244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.965468227863312</t>
+    <t xml:space="preserve">0.965468168258667</t>
   </si>
   <si>
     <t xml:space="preserve">1.0056961774826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.963436603546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972376108169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977252304553986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952465355396271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903704285621643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907361507415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902485370635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975626826286316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962623834609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05648875236511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989036083221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96424925327301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978064835071564</t>
+    <t xml:space="preserve">0.963436543941498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972376048564911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977252066135406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95246547460556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903704226016998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907361328601837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902485251426697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975626885890961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962623953819275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0564888715744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98903614282608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964249134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978064954280853</t>
   </si>
   <si>
     <t xml:space="preserve">0.968312621116638</t>
@@ -3311,55 +3311,55 @@
     <t xml:space="preserve">0.831781804561615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826499283313751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857381343841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879323780536652</t>
+    <t xml:space="preserve">0.826499342918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857381284236908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879323840141296</t>
   </si>
   <si>
     <t xml:space="preserve">0.899640917778015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880136430263519</t>
+    <t xml:space="preserve">0.880136489868164</t>
   </si>
   <si>
     <t xml:space="preserve">0.851692497730255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978471159934998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970344305038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00691509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07233607769012</t>
+    <t xml:space="preserve">0.978471100330353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970344543457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00691521167755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07233619689941</t>
   </si>
   <si>
     <t xml:space="preserve">1.08493280410767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15116655826569</t>
+    <t xml:space="preserve">1.1511664390564</t>
   </si>
   <si>
     <t xml:space="preserve">1.15848064422607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20642912387848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23202860355377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23487293720245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23893642425537</t>
+    <t xml:space="preserve">1.20642900466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23202872276306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23487305641174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23893630504608</t>
   </si>
   <si>
     <t xml:space="preserve">1.20683538913727</t>
@@ -3368,10 +3368,10 @@
     <t xml:space="preserve">1.22796523571014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19058167934418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20764791965485</t>
+    <t xml:space="preserve">1.19058179855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20764803886414</t>
   </si>
   <si>
     <t xml:space="preserve">1.19464516639709</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">1.19667685031891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1901752948761</t>
+    <t xml:space="preserve">1.19017541408539</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830214977264</t>
@@ -3404,13 +3404,13 @@
     <t xml:space="preserve">1.18448650836945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19180059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18001675605774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1324747800827</t>
+    <t xml:space="preserve">1.19180071353912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18001687526703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13247466087341</t>
   </si>
   <si>
     <t xml:space="preserve">1.158074259758</t>
@@ -3422,28 +3422,28 @@
     <t xml:space="preserve">1.21902561187744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21049237251282</t>
+    <t xml:space="preserve">1.21049249172211</t>
   </si>
   <si>
     <t xml:space="preserve">1.18814361095428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19789576530457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26169145107269</t>
+    <t xml:space="preserve">1.19789588451385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26169157028198</t>
   </si>
   <si>
     <t xml:space="preserve">1.33970904350281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32467436790466</t>
+    <t xml:space="preserve">1.32467448711395</t>
   </si>
   <si>
     <t xml:space="preserve">1.35189950466156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35393106937408</t>
+    <t xml:space="preserve">1.35393118858337</t>
   </si>
   <si>
     <t xml:space="preserve">1.3372710943222</t>
@@ -3455,13 +3455,13 @@
     <t xml:space="preserve">1.30760812759399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33645832538605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31736040115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34011566638947</t>
+    <t xml:space="preserve">1.33645844459534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31736052036285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34011542797089</t>
   </si>
   <si>
     <t xml:space="preserve">1.3165477514267</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">1.28038311004639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24178075790405</t>
+    <t xml:space="preserve">1.24178063869476</t>
   </si>
   <si>
     <t xml:space="preserve">1.27631986141205</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">1.26656770706177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24584424495697</t>
+    <t xml:space="preserve">1.24584412574768</t>
   </si>
   <si>
     <t xml:space="preserve">1.25478363037109</t>
@@ -3491,25 +3491,25 @@
     <t xml:space="preserve">1.37993693351746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44495177268982</t>
+    <t xml:space="preserve">1.44495165348053</t>
   </si>
   <si>
     <t xml:space="preserve">1.55181956291199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51931238174438</t>
+    <t xml:space="preserve">1.5193122625351</t>
   </si>
   <si>
     <t xml:space="preserve">1.54409909248352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51606154441833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51321721076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53028345108032</t>
+    <t xml:space="preserve">1.51606142520905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51321709156036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53028357028961</t>
   </si>
   <si>
     <t xml:space="preserve">1.50793468952179</t>
@@ -3518,88 +3518,88 @@
     <t xml:space="preserve">1.48030340671539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4547039270401</t>
+    <t xml:space="preserve">1.45470380783081</t>
   </si>
   <si>
     <t xml:space="preserve">1.51240432262421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49046194553375</t>
+    <t xml:space="preserve">1.49046206474304</t>
   </si>
   <si>
     <t xml:space="preserve">1.49005568027496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51402997970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47461462020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51362335681915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49777626991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50671565532684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57010495662689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61236441135406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60545682907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59204757213593</t>
+    <t xml:space="preserve">1.51402974128723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47461473941803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51362347602844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49777603149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50671553611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57010507583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61236453056335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60545670986176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59204745292664</t>
   </si>
   <si>
     <t xml:space="preserve">1.60098707675934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58229541778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61724054813385</t>
+    <t xml:space="preserve">1.58229529857635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61724066734314</t>
   </si>
   <si>
     <t xml:space="preserve">1.66762709617615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65543675422668</t>
+    <t xml:space="preserve">1.6554366350174</t>
   </si>
   <si>
     <t xml:space="preserve">1.58960938453674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54978787899017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54816257953644</t>
+    <t xml:space="preserve">1.54978775978088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54816246032715</t>
   </si>
   <si>
     <t xml:space="preserve">1.56969857215881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55791485309601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55872750282288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54247379302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54369282722473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52500104904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54531824588776</t>
+    <t xml:space="preserve">1.55791473388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55872738361359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5424736738205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54369270801544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52500116825104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54531812667847</t>
   </si>
   <si>
     <t xml:space="preserve">1.54328656196594</t>
@@ -3611,34 +3611,34 @@
     <t xml:space="preserve">1.51077902317047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51971864700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54694354534149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52947068214417</t>
+    <t xml:space="preserve">1.51971852779388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5469434261322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52947080135345</t>
   </si>
   <si>
     <t xml:space="preserve">1.53841030597687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53719139099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58554601669312</t>
+    <t xml:space="preserve">1.53719127178192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58554589748383</t>
   </si>
   <si>
     <t xml:space="preserve">1.50021409988403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46689414978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46933209896088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47664630413055</t>
+    <t xml:space="preserve">1.46689403057098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46933221817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47664642333984</t>
   </si>
   <si>
     <t xml:space="preserve">1.52215671539307</t>
@@ -3647,7 +3647,7 @@
     <t xml:space="preserve">1.50549650192261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53922295570374</t>
+    <t xml:space="preserve">1.53922307491302</t>
   </si>
   <si>
     <t xml:space="preserve">1.52987718582153</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">1.54084837436676</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57091772556305</t>
+    <t xml:space="preserve">1.57091760635376</t>
   </si>
   <si>
     <t xml:space="preserve">1.56319713592529</t>
@@ -3668,10 +3668,10 @@
     <t xml:space="preserve">1.62374210357666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63837051391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6139897108078</t>
+    <t xml:space="preserve">1.63837039470673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61399006843567</t>
   </si>
   <si>
     <t xml:space="preserve">1.6294310092926</t>
@@ -3680,19 +3680,19 @@
     <t xml:space="preserve">1.63024365901947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63755786418915</t>
+    <t xml:space="preserve">1.63755774497986</t>
   </si>
   <si>
     <t xml:space="preserve">1.6066757440567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59164106845856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62089765071869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7249767780304</t>
+    <t xml:space="preserve">1.59164118766785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62089776992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72497689723969</t>
   </si>
   <si>
     <t xml:space="preserve">1.76312530040741</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">1.6785352230072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70009732246399</t>
+    <t xml:space="preserve">1.70009744167328</t>
   </si>
   <si>
     <t xml:space="preserve">1.6893162727356</t>
@@ -3713,19 +3713,19 @@
     <t xml:space="preserve">1.68682825565338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69512140750885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68765783309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67687654495239</t>
+    <t xml:space="preserve">1.69512152671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68765771389008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67687666416168</t>
   </si>
   <si>
     <t xml:space="preserve">1.69926822185516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68848705291748</t>
+    <t xml:space="preserve">1.68848693370819</t>
   </si>
   <si>
     <t xml:space="preserve">1.7025853395462</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">1.69014573097229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68434035778046</t>
+    <t xml:space="preserve">1.68434023857117</t>
   </si>
   <si>
     <t xml:space="preserve">1.69263350963593</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">1.6428747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63084948062897</t>
+    <t xml:space="preserve">1.63084959983826</t>
   </si>
   <si>
     <t xml:space="preserve">1.59394502639771</t>
@@ -3758,10 +3758,10 @@
     <t xml:space="preserve">1.58813977241516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56699228286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58440780639648</t>
+    <t xml:space="preserve">1.56699240207672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58440792560577</t>
   </si>
   <si>
     <t xml:space="preserve">1.57735860347748</t>
@@ -3770,10 +3770,10 @@
     <t xml:space="preserve">1.52718508243561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5147453546524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52220916748047</t>
+    <t xml:space="preserve">1.51474547386169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52220928668976</t>
   </si>
   <si>
     <t xml:space="preserve">1.53133165836334</t>
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve">1.5325756072998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49193930625916</t>
+    <t xml:space="preserve">1.49193906784058</t>
   </si>
   <si>
     <t xml:space="preserve">1.47867012023926</t>
@@ -3809,25 +3809,25 @@
     <t xml:space="preserve">1.40154373645782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3563460111618</t>
+    <t xml:space="preserve">1.35634589195251</t>
   </si>
   <si>
     <t xml:space="preserve">1.28751277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29787945747375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3144656419754</t>
+    <t xml:space="preserve">1.29787933826447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31446552276611</t>
   </si>
   <si>
     <t xml:space="preserve">1.33768653869629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33893036842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35924875736237</t>
+    <t xml:space="preserve">1.33893048763275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35924863815308</t>
   </si>
   <si>
     <t xml:space="preserve">1.34349167346954</t>
@@ -3836,25 +3836,25 @@
     <t xml:space="preserve">1.34473562240601</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34846746921539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36546838283539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36505377292633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34639418125153</t>
+    <t xml:space="preserve">1.34846758842468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36546850204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36505389213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34639430046082</t>
   </si>
   <si>
     <t xml:space="preserve">1.35510194301605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49940288066864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4960857629776</t>
+    <t xml:space="preserve">1.49940299987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49608564376831</t>
   </si>
   <si>
     <t xml:space="preserve">1.49028050899506</t>
@@ -3869,16 +3869,16 @@
     <t xml:space="preserve">1.51557469367981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.496915102005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47037696838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48032867908478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45627868175507</t>
+    <t xml:space="preserve">1.49691498279572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4703768491745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48032879829407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45627856254578</t>
   </si>
   <si>
     <t xml:space="preserve">1.45130264759064</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">1.48779249191284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51889204978943</t>
+    <t xml:space="preserve">1.51889193058014</t>
   </si>
   <si>
     <t xml:space="preserve">1.49898838996887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52262377738953</t>
+    <t xml:space="preserve">1.52262401580811</t>
   </si>
   <si>
     <t xml:space="preserve">1.50479352474213</t>
@@ -3905,7 +3905,7 @@
     <t xml:space="preserve">1.52801430225372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53755152225494</t>
+    <t xml:space="preserve">1.53755140304565</t>
   </si>
   <si>
     <t xml:space="preserve">1.53050231933594</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">1.54833269119263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50769603252411</t>
+    <t xml:space="preserve">1.5076961517334</t>
   </si>
   <si>
     <t xml:space="preserve">1.49650037288666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51101350784302</t>
+    <t xml:space="preserve">1.51101338863373</t>
   </si>
   <si>
     <t xml:space="preserve">1.50230550765991</t>
@@ -3929,67 +3929,67 @@
     <t xml:space="preserve">1.50106155872345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48323118686676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40403175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42227673530579</t>
+    <t xml:space="preserve">1.48323130607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40403163433075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4222766160965</t>
   </si>
   <si>
     <t xml:space="preserve">1.46374237537384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48406064510345</t>
+    <t xml:space="preserve">1.48406052589417</t>
   </si>
   <si>
     <t xml:space="preserve">1.52096521854401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57943201065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57155358791351</t>
+    <t xml:space="preserve">1.57943189144135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57155346870422</t>
   </si>
   <si>
     <t xml:space="preserve">1.61177539825439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60306751728058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64163064956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62794709205627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68516969680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66692471504211</t>
+    <t xml:space="preserve">1.60306739807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64163076877594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62794697284698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68516981601715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6669248342514</t>
   </si>
   <si>
     <t xml:space="preserve">1.68599903583527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71253728866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71419584751129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70756137371063</t>
+    <t xml:space="preserve">1.71253716945648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.714195728302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70756125450134</t>
   </si>
   <si>
     <t xml:space="preserve">1.70839047431946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71087849140167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72331845760345</t>
+    <t xml:space="preserve">1.71087837219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72331833839417</t>
   </si>
   <si>
     <t xml:space="preserve">1.69843888282776</t>
@@ -4004,46 +4004,46 @@
     <t xml:space="preserve">1.66029036045074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6793646812439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57113873958588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.562016248703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59021317958832</t>
+    <t xml:space="preserve">1.67936456203461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57113885879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56201648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59021306037903</t>
   </si>
   <si>
     <t xml:space="preserve">1.5877251625061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56906545162201</t>
+    <t xml:space="preserve">1.5690655708313</t>
   </si>
   <si>
     <t xml:space="preserve">1.59601831436157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59145712852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58357846736908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59518897533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58482265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59726214408875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57652938365936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53174638748169</t>
+    <t xml:space="preserve">1.59145700931549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58357858657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59518885612488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58482253551483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59726238250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57652926445007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5317462682724</t>
   </si>
   <si>
     <t xml:space="preserve">1.489865899086</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">1.48862183094025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47079169750214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40734910964966</t>
+    <t xml:space="preserve">1.47079157829285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40734899044037</t>
   </si>
   <si>
     <t xml:space="preserve">1.39615321159363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39490926265717</t>
+    <t xml:space="preserve">1.39490914344788</t>
   </si>
   <si>
     <t xml:space="preserve">1.43513095378876</t>
@@ -4076,16 +4076,16 @@
     <t xml:space="preserve">1.40817821025848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45254671573639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4649863243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43969213962555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44715619087219</t>
+    <t xml:space="preserve">1.4525465965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46498644351959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43969225883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44715595245361</t>
   </si>
   <si>
     <t xml:space="preserve">1.43637502193451</t>
@@ -4100,31 +4100,31 @@
     <t xml:space="preserve">1.47286486625671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43678951263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47410881519318</t>
+    <t xml:space="preserve">1.43678963184357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47410893440247</t>
   </si>
   <si>
     <t xml:space="preserve">1.46125435829163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48530471324921</t>
+    <t xml:space="preserve">1.48530459403992</t>
   </si>
   <si>
     <t xml:space="preserve">1.50354957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51516008377075</t>
+    <t xml:space="preserve">1.51515996456146</t>
   </si>
   <si>
     <t xml:space="preserve">1.51184272766113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56326043605804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59311580657959</t>
+    <t xml:space="preserve">1.56326031684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5931156873703</t>
   </si>
   <si>
     <t xml:space="preserve">1.58896911144257</t>
@@ -4139,13 +4139,13 @@
     <t xml:space="preserve">1.62711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62131249904633</t>
+    <t xml:space="preserve">1.62131237983704</t>
   </si>
   <si>
     <t xml:space="preserve">1.6055554151535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59062778949738</t>
+    <t xml:space="preserve">1.59062767028809</t>
   </si>
   <si>
     <t xml:space="preserve">1.56077229976654</t>
@@ -4157,31 +4157,31 @@
     <t xml:space="preserve">1.48281669616699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55040609836578</t>
+    <t xml:space="preserve">1.5504058599472</t>
   </si>
   <si>
     <t xml:space="preserve">1.5868958234787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5263557434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.537966132164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60804343223572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63955736160278</t>
+    <t xml:space="preserve">1.52635586261749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53796625137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60804331302643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63955724239349</t>
   </si>
   <si>
     <t xml:space="preserve">1.62297105789185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68268191814423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68019390106201</t>
+    <t xml:space="preserve">1.68268179893494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68019378185272</t>
   </si>
   <si>
     <t xml:space="preserve">1.70590257644653</t>
@@ -4193,16 +4193,16 @@
     <t xml:space="preserve">1.79049277305603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76893055438995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67438876628876</t>
+    <t xml:space="preserve">1.76893067359924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67438864707947</t>
   </si>
   <si>
     <t xml:space="preserve">1.62545895576477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50189101696014</t>
+    <t xml:space="preserve">1.50189089775085</t>
   </si>
   <si>
     <t xml:space="preserve">1.52925837039948</t>
@@ -4211,19 +4211,19 @@
     <t xml:space="preserve">1.37790822982788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37251770496368</t>
+    <t xml:space="preserve">1.37251758575439</t>
   </si>
   <si>
     <t xml:space="preserve">1.30078196525574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16311538219452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10299003124237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1622861623764</t>
+    <t xml:space="preserve">1.16311550140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10299015045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16228604316711</t>
   </si>
   <si>
     <t xml:space="preserve">1.27839028835297</t>
@@ -4232,37 +4232,37 @@
     <t xml:space="preserve">1.18260431289673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17596983909607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22407019138336</t>
+    <t xml:space="preserve">1.17596971988678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22406995296478</t>
   </si>
   <si>
     <t xml:space="preserve">1.24894964694977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34058904647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31031894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30202579498291</t>
+    <t xml:space="preserve">1.34058892726898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31031906604767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3020259141922</t>
   </si>
   <si>
     <t xml:space="preserve">1.31902682781219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29912316799164</t>
+    <t xml:space="preserve">1.29912328720093</t>
   </si>
   <si>
     <t xml:space="preserve">1.28626894950867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2949765920639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31156313419342</t>
+    <t xml:space="preserve">1.29497671127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31156301498413</t>
   </si>
   <si>
     <t xml:space="preserve">1.38868939876556</t>
@@ -4274,31 +4274,31 @@
     <t xml:space="preserve">1.31819748878479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33271062374115</t>
+    <t xml:space="preserve">1.33271050453186</t>
   </si>
   <si>
     <t xml:space="preserve">1.27548766136169</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27756094932556</t>
+    <t xml:space="preserve">1.27756106853485</t>
   </si>
   <si>
     <t xml:space="preserve">1.32814931869507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3260760307312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28378081321716</t>
+    <t xml:space="preserve">1.32607591152191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28378093242645</t>
   </si>
   <si>
     <t xml:space="preserve">1.28668344020844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29995262622833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3057576417923</t>
+    <t xml:space="preserve">1.29995250701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30575776100159</t>
   </si>
   <si>
     <t xml:space="preserve">1.35178470611572</t>
@@ -4307,13 +4307,13 @@
     <t xml:space="preserve">1.36090731620789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34141826629639</t>
+    <t xml:space="preserve">1.34141838550568</t>
   </si>
   <si>
     <t xml:space="preserve">1.32731997966766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3119775056839</t>
+    <t xml:space="preserve">1.31197762489319</t>
   </si>
   <si>
     <t xml:space="preserve">1.32151484489441</t>
@@ -4325,7 +4325,7 @@
     <t xml:space="preserve">1.33105194568634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32234406471252</t>
+    <t xml:space="preserve">1.32234394550323</t>
   </si>
   <si>
     <t xml:space="preserve">1.29000079631805</t>
@@ -4340,22 +4340,22 @@
     <t xml:space="preserve">1.26180398464203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40983688831329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44425356388092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44466817378998</t>
+    <t xml:space="preserve">1.40983700752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44425344467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44466805458069</t>
   </si>
   <si>
     <t xml:space="preserve">1.43139910697937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4641569852829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45710802078247</t>
+    <t xml:space="preserve">1.46415710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45710790157318</t>
   </si>
   <si>
     <t xml:space="preserve">1.46623039245605</t>
@@ -4364,43 +4364,43 @@
     <t xml:space="preserve">1.44840002059937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54587614536285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56219375133514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60599362850189</t>
+    <t xml:space="preserve">1.54587602615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56219387054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60599374771118</t>
   </si>
   <si>
     <t xml:space="preserve">1.62574636936188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6188759803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61844646930695</t>
+    <t xml:space="preserve">1.61887586116791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61844658851624</t>
   </si>
   <si>
     <t xml:space="preserve">1.6459287405014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64206397533417</t>
+    <t xml:space="preserve">1.64206409454346</t>
   </si>
   <si>
     <t xml:space="preserve">1.65623462200165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59998202323914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65838170051575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61801707744598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66525220870972</t>
+    <t xml:space="preserve">1.59998178482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65838158130646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61801695823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66525208950043</t>
   </si>
   <si>
     <t xml:space="preserve">1.67555797100067</t>
@@ -4409,7 +4409,7 @@
     <t xml:space="preserve">1.45913529396057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147089004517</t>
+    <t xml:space="preserve">1.41147077083588</t>
   </si>
   <si>
     <t xml:space="preserve">1.42134726047516</t>
@@ -4418,16 +4418,16 @@
     <t xml:space="preserve">1.477170586586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4144766330719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44110000133514</t>
+    <t xml:space="preserve">1.41447675228119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44110012054443</t>
   </si>
   <si>
     <t xml:space="preserve">1.46686470508575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47373533248901</t>
+    <t xml:space="preserve">1.47373521327972</t>
   </si>
   <si>
     <t xml:space="preserve">1.47158825397491</t>
@@ -4436,7 +4436,7 @@
     <t xml:space="preserve">1.40073561668396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44625318050385</t>
+    <t xml:space="preserve">1.44625306129456</t>
   </si>
   <si>
     <t xml:space="preserve">1.42435312271118</t>
@@ -4445,52 +4445,52 @@
     <t xml:space="preserve">1.42220604419708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40116512775421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3462005853653</t>
+    <t xml:space="preserve">1.40116500854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34620046615601</t>
   </si>
   <si>
     <t xml:space="preserve">1.30454778671265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30368888378143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23755967617035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21823620796204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28135967254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29681837558746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2379891872406</t>
+    <t xml:space="preserve">1.30368900299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23755979537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21823632717133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2813595533371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29681825637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23798906803131</t>
   </si>
   <si>
     <t xml:space="preserve">1.20750105381012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.176154255867</t>
+    <t xml:space="preserve">1.17615413665771</t>
   </si>
   <si>
     <t xml:space="preserve">1.10358381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11045432090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12505424022675</t>
+    <t xml:space="preserve">1.11045444011688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12505435943604</t>
   </si>
   <si>
     <t xml:space="preserve">1.20148932933807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16713654994965</t>
+    <t xml:space="preserve">1.16713643074036</t>
   </si>
   <si>
     <t xml:space="preserve">1.13063657283783</t>
@@ -4499,10 +4499,10 @@
     <t xml:space="preserve">1.11260151863098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14137184619904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10959565639496</t>
+    <t xml:space="preserve">1.14137196540833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10959553718567</t>
   </si>
   <si>
     <t xml:space="preserve">1.13106608390808</t>
@@ -4514,7 +4514,7 @@
     <t xml:space="preserve">1.15940725803375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17186009883881</t>
+    <t xml:space="preserve">1.1718602180481</t>
   </si>
   <si>
     <t xml:space="preserve">1.19118344783783</t>
@@ -4523,7 +4523,7 @@
     <t xml:space="preserve">1.23884797096252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23068928718567</t>
+    <t xml:space="preserve">1.23068916797638</t>
   </si>
   <si>
     <t xml:space="preserve">1.35006523132324</t>
@@ -4535,10 +4535,10 @@
     <t xml:space="preserve">1.39386510848999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42564141750336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40631794929504</t>
+    <t xml:space="preserve">1.42564129829407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40631806850433</t>
   </si>
   <si>
     <t xml:space="preserve">1.41318845748901</t>
@@ -4553,19 +4553,19 @@
     <t xml:space="preserve">1.31571233272552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33417701721191</t>
+    <t xml:space="preserve">1.3341771364212</t>
   </si>
   <si>
     <t xml:space="preserve">1.33374762535095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31356537342072</t>
+    <t xml:space="preserve">1.31356525421143</t>
   </si>
   <si>
     <t xml:space="preserve">1.27105379104614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27148306369781</t>
+    <t xml:space="preserve">1.2714831829071</t>
   </si>
   <si>
     <t xml:space="preserve">1.29295361042023</t>
@@ -4574,7 +4574,7 @@
     <t xml:space="preserve">1.29252421855927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27448892593384</t>
+    <t xml:space="preserve">1.27448904514313</t>
   </si>
   <si>
     <t xml:space="preserve">1.30540657043457</t>
@@ -4583,7 +4583,7 @@
     <t xml:space="preserve">1.26633024215698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26890659332275</t>
+    <t xml:space="preserve">1.26890671253204</t>
   </si>
   <si>
     <t xml:space="preserve">1.25087153911591</t>
@@ -4598,7 +4598,7 @@
     <t xml:space="preserve">1.39558267593384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38141202926636</t>
+    <t xml:space="preserve">1.38141214847565</t>
   </si>
   <si>
     <t xml:space="preserve">1.43337082862854</t>
@@ -4607,10 +4607,10 @@
     <t xml:space="preserve">1.43895316123962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4479706287384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45527052879333</t>
+    <t xml:space="preserve">1.44797074794769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45527064800262</t>
   </si>
   <si>
     <t xml:space="preserve">1.43036496639252</t>
@@ -4637,7 +4637,7 @@
     <t xml:space="preserve">1.33632409572601</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35779452323914</t>
+    <t xml:space="preserve">1.35779464244843</t>
   </si>
   <si>
     <t xml:space="preserve">1.38398861885071</t>
@@ -4661,19 +4661,19 @@
     <t xml:space="preserve">1.36294758319855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39687097072601</t>
+    <t xml:space="preserve">1.39687085151672</t>
   </si>
   <si>
     <t xml:space="preserve">1.42048847675323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45097661018372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46042358875275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47115898132324</t>
+    <t xml:space="preserve">1.45097649097443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46042370796204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47115886211395</t>
   </si>
   <si>
     <t xml:space="preserve">1.47588241100311</t>
@@ -4685,10 +4685,10 @@
     <t xml:space="preserve">1.53814685344696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52869987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53084695339203</t>
+    <t xml:space="preserve">1.52869975566864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53084683418274</t>
   </si>
   <si>
     <t xml:space="preserve">1.57421720027924</t>
@@ -4712,16 +4712,16 @@
     <t xml:space="preserve">1.72880494594574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76058113574982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62531721591949</t>
+    <t xml:space="preserve">1.76058125495911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62531709671021</t>
   </si>
   <si>
     <t xml:space="preserve">1.58022904396057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61329364776611</t>
+    <t xml:space="preserve">1.61329352855682</t>
   </si>
   <si>
     <t xml:space="preserve">1.59096419811249</t>
@@ -4733,7 +4733,7 @@
     <t xml:space="preserve">1.6167289018631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63991689682007</t>
+    <t xml:space="preserve">1.63991701602936</t>
   </si>
   <si>
     <t xml:space="preserve">1.64421117305756</t>
@@ -4742,7 +4742,7 @@
     <t xml:space="preserve">1.6480758190155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66654050350189</t>
+    <t xml:space="preserve">1.6665403842926</t>
   </si>
   <si>
     <t xml:space="preserve">1.68028163909912</t>
@@ -4757,7 +4757,7 @@
     <t xml:space="preserve">1.68328738212585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6935932636261</t>
+    <t xml:space="preserve">1.69359314441681</t>
   </si>
   <si>
     <t xml:space="preserve">1.67384040355682</t>
@@ -4766,13 +4766,13 @@
     <t xml:space="preserve">1.66568160057068</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65666401386261</t>
+    <t xml:space="preserve">1.6566641330719</t>
   </si>
   <si>
     <t xml:space="preserve">1.66396403312683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6686874628067</t>
+    <t xml:space="preserve">1.66868734359741</t>
   </si>
   <si>
     <t xml:space="preserve">1.67684626579285</t>
@@ -4799,7 +4799,7 @@
     <t xml:space="preserve">1.67126393318176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66997563838959</t>
+    <t xml:space="preserve">1.66997575759888</t>
   </si>
   <si>
     <t xml:space="preserve">1.66181683540344</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">1.68285799026489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70475792884827</t>
+    <t xml:space="preserve">1.70475780963898</t>
   </si>
   <si>
     <t xml:space="preserve">1.74941647052765</t>
@@ -4823,10 +4823,10 @@
     <t xml:space="preserve">1.7889221906662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79751038551331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81211042404175</t>
+    <t xml:space="preserve">1.7975105047226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81211054325104</t>
   </si>
   <si>
     <t xml:space="preserve">1.81125164031982</t>
@@ -4835,31 +4835,31 @@
     <t xml:space="preserve">1.82155752182007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8808159828186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90142774581909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87222790718079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93406307697296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93234527111053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96927440166473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98129785060883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0096390247345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0139331817627</t>
+    <t xml:space="preserve">1.88081610202789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90142786502838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87222802639008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93406295776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93234539031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96927464008331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98129796981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00963878631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01393294334412</t>
   </si>
   <si>
     <t xml:space="preserve">2.0560154914856</t>
@@ -4880,10 +4880,10 @@
     <t xml:space="preserve">2.17109751701355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18140292167664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32743096351624</t>
+    <t xml:space="preserve">2.18140316009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32743072509766</t>
   </si>
   <si>
     <t xml:space="preserve">2.2949800491333</t>
@@ -4901,10 +4901,10 @@
     <t xml:space="preserve">2.33914923667908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33734607696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41036033630371</t>
+    <t xml:space="preserve">2.33734631538391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41036009788513</t>
   </si>
   <si>
     <t xml:space="preserve">2.51672601699829</t>
@@ -4922,22 +4922,22 @@
     <t xml:space="preserve">2.37971234321594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32472658157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39143061637878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42207837104797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40044474601746</t>
+    <t xml:space="preserve">2.32472681999207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39143085479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42207860946655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40044498443604</t>
   </si>
   <si>
     <t xml:space="preserve">2.41486716270447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43469834327698</t>
+    <t xml:space="preserve">2.4346981048584</t>
   </si>
   <si>
     <t xml:space="preserve">2.48247265815735</t>
@@ -4946,7 +4946,7 @@
     <t xml:space="preserve">2.48517680168152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54827547073364</t>
+    <t xml:space="preserve">2.54827523231506</t>
   </si>
   <si>
     <t xml:space="preserve">2.53926110267639</t>
@@ -4964,7 +4964,7 @@
     <t xml:space="preserve">2.06962871551514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07413578033447</t>
+    <t xml:space="preserve">2.07413601875305</t>
   </si>
   <si>
     <t xml:space="preserve">2.01644563674927</t>
@@ -4982,16 +4982,16 @@
     <t xml:space="preserve">2.07593846321106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99210786819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01554441452026</t>
+    <t xml:space="preserve">1.99210774898529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01554417610168</t>
   </si>
   <si>
     <t xml:space="preserve">2.02185416221619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07683992385864</t>
+    <t xml:space="preserve">2.07683968544006</t>
   </si>
   <si>
     <t xml:space="preserve">2.06422019004822</t>
@@ -5000,19 +5000,19 @@
     <t xml:space="preserve">2.04889631271362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06692433357239</t>
+    <t xml:space="preserve">2.06692457199097</t>
   </si>
   <si>
     <t xml:space="preserve">2.09937500953674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09847378730774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13092446327209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12731838226318</t>
+    <t xml:space="preserve">2.09847354888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13092422485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12731862068176</t>
   </si>
   <si>
     <t xml:space="preserve">2.16878318786621</t>
@@ -5024,10 +5024,10 @@
     <t xml:space="preserve">2.26252961158752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27334666252136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36619114875793</t>
+    <t xml:space="preserve">2.27334642410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36619138717651</t>
   </si>
   <si>
     <t xml:space="preserve">2.40675473213196</t>
@@ -5039,7 +5039,7 @@
     <t xml:space="preserve">2.47435998916626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46444463729858</t>
+    <t xml:space="preserve">2.46444439888</t>
   </si>
   <si>
     <t xml:space="preserve">2.29858589172363</t>
@@ -5048,13 +5048,13 @@
     <t xml:space="preserve">2.3905291557312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2940788269043</t>
+    <t xml:space="preserve">2.29407906532288</t>
   </si>
   <si>
     <t xml:space="preserve">2.25802254676819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29678320884705</t>
+    <t xml:space="preserve">2.29678297042847</t>
   </si>
   <si>
     <t xml:space="preserve">2.25982522964478</t>
@@ -5072,10 +5072,10 @@
     <t xml:space="preserve">2.4058530330658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45993757247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44461345672607</t>
+    <t xml:space="preserve">2.45993781089783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44461369514465</t>
   </si>
   <si>
     <t xml:space="preserve">2.44371223449707</t>
@@ -5084,7 +5084,7 @@
     <t xml:space="preserve">2.42838835716248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43379664421082</t>
+    <t xml:space="preserve">2.43379688262939</t>
   </si>
   <si>
     <t xml:space="preserve">2.46398329734802</t>
@@ -5960,7 +5960,7 @@
     <t xml:space="preserve">5.12400007247925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76599979400635</t>
+    <t xml:space="preserve">4.75699996948242</t>
   </si>
 </sst>
 </file>
@@ -63164,10 +63164,10 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.5988888889</v>
+        <v>45509.6500231481</v>
       </c>
       <c r="B2188" t="n">
-        <v>12606640</v>
+        <v>18895710</v>
       </c>
       <c r="C2188" t="n">
         <v>4.79099988937378</v>
@@ -63179,7 +63179,7 @@
         <v>4.52299976348877</v>
       </c>
       <c r="F2188" t="n">
-        <v>4.76599979400635</v>
+        <v>4.75699996948242</v>
       </c>
       <c r="G2188" t="s">
         <v>1982</v>

--- a/data/BPE.MI.xlsx
+++ b/data/BPE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1985">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33120536804199</t>
+    <t xml:space="preserve">3.33120465278625</t>
   </si>
   <si>
     <t xml:space="preserve">BPE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37296772003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22311305999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14941358566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07817029953003</t>
+    <t xml:space="preserve">3.37296795845032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22311282157898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14941334724426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07817077636719</t>
   </si>
   <si>
     <t xml:space="preserve">3.08062744140625</t>
@@ -62,40 +62,40 @@
     <t xml:space="preserve">3.05606079101562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20345902442932</t>
+    <t xml:space="preserve">3.2034592628479</t>
   </si>
   <si>
     <t xml:space="preserve">3.03886485099792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77354741096497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76126456260681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55981993675232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84233403205872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81039667129517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73669767379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89637970924377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77846050262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56964635848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70230484008789</t>
+    <t xml:space="preserve">2.77354717254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76126432418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55981945991516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84233331680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81039690971375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73669791221619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8963794708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77846026420593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56964659690857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70230460166931</t>
   </si>
   <si>
     <t xml:space="preserve">2.63597559928894</t>
@@ -104,28 +104,28 @@
     <t xml:space="preserve">2.45664095878601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25323033332825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26207447052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21490716934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95057272911072</t>
+    <t xml:space="preserve">2.25323057174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2620747089386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21490693092346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95057249069214</t>
   </si>
   <si>
     <t xml:space="preserve">1.90831863880157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03999423980713</t>
+    <t xml:space="preserve">2.03999400138855</t>
   </si>
   <si>
     <t xml:space="preserve">1.84444582462311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05669975280762</t>
+    <t xml:space="preserve">2.05669927597046</t>
   </si>
   <si>
     <t xml:space="preserve">2.26502251625061</t>
@@ -137,22 +137,22 @@
     <t xml:space="preserve">2.43207478523254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41733431816101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27288389205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50331711769104</t>
+    <t xml:space="preserve">2.41733455657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27288413047791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50331735610962</t>
   </si>
   <si>
     <t xml:space="preserve">2.4084906578064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25519633293152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31120753288269</t>
+    <t xml:space="preserve">2.25519609451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31120777130127</t>
   </si>
   <si>
     <t xml:space="preserve">2.35444450378418</t>
@@ -167,25 +167,25 @@
     <t xml:space="preserve">2.46401071548462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42126488685608</t>
+    <t xml:space="preserve">2.4212646484375</t>
   </si>
   <si>
     <t xml:space="preserve">2.43109178543091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30531144142151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27190136909485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29745078086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31808662414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51068663597107</t>
+    <t xml:space="preserve">2.30531167984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27190160751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29745054244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31808638572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51068687438965</t>
   </si>
   <si>
     <t xml:space="preserve">2.54507994651794</t>
@@ -194,34 +194,34 @@
     <t xml:space="preserve">2.46155333518982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29450225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32005095481873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34068703651428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33479166030884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30039811134338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23750853538513</t>
+    <t xml:space="preserve">2.29450249671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3200511932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3406867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33479189872742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30039858818054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23750805854797</t>
   </si>
   <si>
     <t xml:space="preserve">2.14513850212097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12352013587952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05571627616882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09305834770203</t>
+    <t xml:space="preserve">2.12351989746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0557165145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09305810928345</t>
   </si>
   <si>
     <t xml:space="preserve">1.97415637969971</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">1.84739339351654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11172842979431</t>
+    <t xml:space="preserve">2.11172819137573</t>
   </si>
   <si>
     <t xml:space="preserve">2.21392464637756</t>
@@ -245,58 +245,58 @@
     <t xml:space="preserve">2.36918449401855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47629404067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48366379737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4006290435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47138071060181</t>
+    <t xml:space="preserve">2.47629380226135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48366355895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40062952041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47138023376465</t>
   </si>
   <si>
     <t xml:space="preserve">2.54999279975891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56227564811707</t>
+    <t xml:space="preserve">2.56227612495422</t>
   </si>
   <si>
     <t xml:space="preserve">2.47383737564087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55490612983704</t>
+    <t xml:space="preserve">2.55490636825562</t>
   </si>
   <si>
     <t xml:space="preserve">2.51560044288635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6138653755188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50823020935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41635155677795</t>
+    <t xml:space="preserve">2.61386561393738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50822997093201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41635131835938</t>
   </si>
   <si>
     <t xml:space="preserve">2.31022500991821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28467607498169</t>
+    <t xml:space="preserve">2.28467631340027</t>
   </si>
   <si>
     <t xml:space="preserve">2.22080302238464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16282606124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15693044662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15103459358215</t>
+    <t xml:space="preserve">2.16282653808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15693020820618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15103507041931</t>
   </si>
   <si>
     <t xml:space="preserve">2.11762428283691</t>
@@ -305,52 +305,49 @@
     <t xml:space="preserve">2.11467599868774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14710426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26600503921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1598789691925</t>
+    <t xml:space="preserve">2.14710402488708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26600527763367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15987873077393</t>
   </si>
   <si>
     <t xml:space="preserve">2.18739295005798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14416766166687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31304693222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42864894866943</t>
+    <t xml:space="preserve">2.14416790008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31304669380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42864871025085</t>
   </si>
   <si>
     <t xml:space="preserve">2.38140273094177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38743495941162</t>
+    <t xml:space="preserve">2.38743448257446</t>
   </si>
   <si>
     <t xml:space="preserve">2.41055512428284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2859058380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18739247322083</t>
+    <t xml:space="preserve">2.28590559959412</t>
   </si>
   <si>
     <t xml:space="preserve">2.25675415992737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16628265380859</t>
+    <t xml:space="preserve">2.16628241539001</t>
   </si>
   <si>
     <t xml:space="preserve">2.15622997283936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18437671661377</t>
+    <t xml:space="preserve">2.18437623977661</t>
   </si>
   <si>
     <t xml:space="preserve">2.22559189796448</t>
@@ -362,19 +359,19 @@
     <t xml:space="preserve">1.95317232608795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89788424968719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89185333251953</t>
+    <t xml:space="preserve">1.89788436889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89185357093811</t>
   </si>
   <si>
     <t xml:space="preserve">1.84259653091431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02554988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11702609062195</t>
+    <t xml:space="preserve">2.02555012702942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11702585220337</t>
   </si>
   <si>
     <t xml:space="preserve">2.17130851745605</t>
@@ -383,7 +380,7 @@
     <t xml:space="preserve">2.16226196289062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32812547683716</t>
+    <t xml:space="preserve">2.32812571525574</t>
   </si>
   <si>
     <t xml:space="preserve">1.75514137744904</t>
@@ -392,100 +389,100 @@
     <t xml:space="preserve">1.73704719543457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69583201408386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60335052013397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64758145809174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56816685199738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46261751651764</t>
+    <t xml:space="preserve">1.69583177566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6033501625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64758098125458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56816709041595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46261775493622</t>
   </si>
   <si>
     <t xml:space="preserve">1.463623046875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35907804965973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29775846004486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50785303115845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57821977138519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70688986778259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62144505977631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69080626964569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71091091632843</t>
+    <t xml:space="preserve">1.3590784072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29775857925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50785291194916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57821989059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70689022541046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62144494056702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69080650806427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71091055870056</t>
   </si>
   <si>
     <t xml:space="preserve">1.72096335887909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70487892627716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72297370433807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77826142311096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76519358158112</t>
+    <t xml:space="preserve">1.70487916469574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72297358512878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77826154232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76519310474396</t>
   </si>
   <si>
     <t xml:space="preserve">1.71794724464417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72598898410797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80540311336517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74910974502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84460735321045</t>
+    <t xml:space="preserve">1.72598886489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80540287494659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74910962581635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84460747241974</t>
   </si>
   <si>
     <t xml:space="preserve">1.74006247520447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52494204044342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58626174926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59430336952209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8023875951767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76921427249908</t>
+    <t xml:space="preserve">1.52494180202484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.586261510849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59430325031281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80238747596741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76921439170837</t>
   </si>
   <si>
     <t xml:space="preserve">1.80439758300781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79334056377411</t>
+    <t xml:space="preserve">1.79334020614624</t>
   </si>
   <si>
     <t xml:space="preserve">1.79233491420746</t>
@@ -494,46 +491,46 @@
     <t xml:space="preserve">1.76720428466797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75413596630096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68879544734955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71895241737366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61943435668945</t>
+    <t xml:space="preserve">1.75413608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68879556655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71895277500153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61943411827087</t>
   </si>
   <si>
     <t xml:space="preserve">1.63049209117889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72397899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76117217540741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70990538597107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67472207546234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72196817398071</t>
+    <t xml:space="preserve">1.72397911548615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7611722946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70990526676178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67472195625305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72196805477142</t>
   </si>
   <si>
     <t xml:space="preserve">1.73403131961823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76619875431061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79032397270203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7581570148468</t>
+    <t xml:space="preserve">1.76619863510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79032444953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75815677642822</t>
   </si>
   <si>
     <t xml:space="preserve">1.81746578216553</t>
@@ -542,16 +539,16 @@
     <t xml:space="preserve">1.82048141956329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78429293632507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75011491775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70387470722198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64657592773438</t>
+    <t xml:space="preserve">1.78429305553436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75011503696442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70387434959412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64657580852509</t>
   </si>
   <si>
     <t xml:space="preserve">1.67170643806458</t>
@@ -560,19 +557,19 @@
     <t xml:space="preserve">1.60033512115479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67572748661041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67974829673767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60435605049133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57922518253326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61440849304199</t>
+    <t xml:space="preserve">1.6757276058197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67974841594696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60435581207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57922506332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61440861225128</t>
   </si>
   <si>
     <t xml:space="preserve">1.61742413043976</t>
@@ -581,25 +578,25 @@
     <t xml:space="preserve">1.66466999053955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62647151947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70286905765533</t>
+    <t xml:space="preserve">1.62647116184235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70286893844604</t>
   </si>
   <si>
     <t xml:space="preserve">1.70789527893066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68376910686493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74408364295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84963357448578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89084792137146</t>
+    <t xml:space="preserve">1.68376934528351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74408328533173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8496333360672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89084827899933</t>
   </si>
   <si>
     <t xml:space="preserve">1.80841827392578</t>
@@ -608,28 +605,28 @@
     <t xml:space="preserve">1.90291059017181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94312047958374</t>
+    <t xml:space="preserve">1.94312000274658</t>
   </si>
   <si>
     <t xml:space="preserve">2.04263877868652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14014649391174</t>
+    <t xml:space="preserve">2.14014673233032</t>
   </si>
   <si>
     <t xml:space="preserve">2.1351203918457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18940305709839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09792685508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13210463523865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18236660957336</t>
+    <t xml:space="preserve">2.18940258026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09792709350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13210487365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18236637115479</t>
   </si>
   <si>
     <t xml:space="preserve">2.17633485794067</t>
@@ -644,43 +641,43 @@
     <t xml:space="preserve">2.01047110557556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98534059524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96322500705719</t>
+    <t xml:space="preserve">1.9853401184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96322524547577</t>
   </si>
   <si>
     <t xml:space="preserve">2.03158092498779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06977963447571</t>
+    <t xml:space="preserve">2.06977987289429</t>
   </si>
   <si>
     <t xml:space="preserve">2.09993696212769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10094261169434</t>
+    <t xml:space="preserve">2.10094237327576</t>
   </si>
   <si>
     <t xml:space="preserve">2.07882714271545</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06877446174622</t>
+    <t xml:space="preserve">2.06877422332764</t>
   </si>
   <si>
     <t xml:space="preserve">2.00846028327942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92301523685455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88381171226501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87576878070831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91396880149841</t>
+    <t xml:space="preserve">1.92301499843597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88381159305573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87576913833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91396903991699</t>
   </si>
   <si>
     <t xml:space="preserve">1.90391600131989</t>
@@ -692,76 +689,76 @@
     <t xml:space="preserve">1.88079535961151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90492153167725</t>
+    <t xml:space="preserve">1.90492165088654</t>
   </si>
   <si>
     <t xml:space="preserve">2.05771708488464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01650261878967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15321469306946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3773820400238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41155958175659</t>
+    <t xml:space="preserve">2.01650285720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15321493148804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37738180160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41155982017517</t>
   </si>
   <si>
     <t xml:space="preserve">2.37436628341675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41859698295593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46986365318298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42965412139893</t>
+    <t xml:space="preserve">2.41859722137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46986413002014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42965388298035</t>
   </si>
   <si>
     <t xml:space="preserve">2.49499464035034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51560235023499</t>
+    <t xml:space="preserve">2.51560187339783</t>
   </si>
   <si>
     <t xml:space="preserve">2.49801015853882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51308917999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56837701797485</t>
+    <t xml:space="preserve">2.5130889415741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56837677955627</t>
   </si>
   <si>
     <t xml:space="preserve">2.59350776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6010468006134</t>
+    <t xml:space="preserve">2.60104703903198</t>
   </si>
   <si>
     <t xml:space="preserve">2.54324650764465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64879560470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74931859970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70408368110657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53068065643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51811480522156</t>
+    <t xml:space="preserve">2.64879608154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74931907653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70408344268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66387391090393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53068089485168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51811456680298</t>
   </si>
   <si>
     <t xml:space="preserve">2.66890001296997</t>
@@ -773,7 +770,7 @@
     <t xml:space="preserve">2.68649196624756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69654440879822</t>
+    <t xml:space="preserve">2.6965446472168</t>
   </si>
   <si>
     <t xml:space="preserve">2.84230375289917</t>
@@ -785,7 +782,7 @@
     <t xml:space="preserve">2.81968569755554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82722449302673</t>
+    <t xml:space="preserve">2.82722473144531</t>
   </si>
   <si>
     <t xml:space="preserve">2.86240839958191</t>
@@ -794,67 +791,67 @@
     <t xml:space="preserve">2.81717276573181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68397927284241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63371682167053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69403100013733</t>
+    <t xml:space="preserve">2.68397903442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63371706008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69403076171875</t>
   </si>
   <si>
     <t xml:space="preserve">2.7065966129303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77193689346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61361217498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52314114570618</t>
+    <t xml:space="preserve">2.77193713188171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61361241340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52314066886902</t>
   </si>
   <si>
     <t xml:space="preserve">2.55329823493958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39045000076294</t>
+    <t xml:space="preserve">2.39045023918152</t>
   </si>
   <si>
     <t xml:space="preserve">2.39849185943604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48092103004456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41759157180786</t>
+    <t xml:space="preserve">2.48092126846313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41759181022644</t>
   </si>
   <si>
     <t xml:space="preserve">2.33415675163269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26177954673767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23765420913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23463869094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14919376373291</t>
+    <t xml:space="preserve">2.26178002357483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23765444755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23463892936707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14919400215149</t>
   </si>
   <si>
     <t xml:space="preserve">2.11099481582642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08083772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25172758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26077508926392</t>
+    <t xml:space="preserve">2.0808379650116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25172781944275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26077485084534</t>
   </si>
   <si>
     <t xml:space="preserve">2.36230397224426</t>
@@ -866,7 +863,7 @@
     <t xml:space="preserve">2.20146560668945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20649218559265</t>
+    <t xml:space="preserve">2.20649194717407</t>
   </si>
   <si>
     <t xml:space="preserve">2.27987408638</t>
@@ -875,7 +872,7 @@
     <t xml:space="preserve">2.35426187515259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31505751609802</t>
+    <t xml:space="preserve">2.3150577545166</t>
   </si>
   <si>
     <t xml:space="preserve">2.2557487487793</t>
@@ -884,7 +881,7 @@
     <t xml:space="preserve">2.25976991653442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37235617637634</t>
+    <t xml:space="preserve">2.37235641479492</t>
   </si>
   <si>
     <t xml:space="preserve">2.34420943260193</t>
@@ -896,10 +893,10 @@
     <t xml:space="preserve">2.42362308502197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49197912216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46383213996887</t>
+    <t xml:space="preserve">2.49197936058044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46383261680603</t>
   </si>
   <si>
     <t xml:space="preserve">2.41960191726685</t>
@@ -908,13 +905,13 @@
     <t xml:space="preserve">2.43468046188354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38944530487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35727715492249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35225081443787</t>
+    <t xml:space="preserve">2.38944554328918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35727739334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35225105285645</t>
   </si>
   <si>
     <t xml:space="preserve">2.26982164382935</t>
@@ -926,10 +923,10 @@
     <t xml:space="preserve">2.28490018844604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30198955535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479578018188</t>
+    <t xml:space="preserve">2.30198979377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479601860046</t>
   </si>
   <si>
     <t xml:space="preserve">2.21051263809204</t>
@@ -938,478 +935,481 @@
     <t xml:space="preserve">2.19241905212402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30399966239929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46282696723938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49901533126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44473338127136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52062821388245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58596873283386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62366509437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55832433700562</t>
+    <t xml:space="preserve">2.30399942398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46282720565796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49901556968689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44473314285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52062845230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58596849441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62366485595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55832457542419</t>
   </si>
   <si>
     <t xml:space="preserve">2.53821992874146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39447093009949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35627198219299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44272255897522</t>
+    <t xml:space="preserve">2.39447069168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35627126693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44272232055664</t>
   </si>
   <si>
     <t xml:space="preserve">2.402512550354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34722495079041</t>
+    <t xml:space="preserve">2.34722471237183</t>
   </si>
   <si>
     <t xml:space="preserve">2.32008385658264</t>
   </si>
   <si>
+    <t xml:space="preserve">2.35526704788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34406590461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34508442878723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37766861915588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37461423873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34712028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27584147453308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27686023712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21983695030212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26667714118958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23816561698914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19743466377258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16383147239685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16790461540222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24834799766541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24122071266174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19437956809998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24936628341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22696423530579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12615489959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13939261436462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08440589904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17808651924133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16892290115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22594594955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23918318748474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25954985618591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24732947349548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22289133071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36646771430969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44691133499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38785171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39396166801453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38683271408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41941833496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46320414543152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51513600349426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52226376533508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52022767066956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53550148010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45302128791809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46931338310242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40312600135803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37665104866028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34813904762268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38276028633118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39497947692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36850428581238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36443090438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41025376319885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55586647987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52124500274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50291681289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41432690620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477028846741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48356938362122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42349123954773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3929431438446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41636276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42654609680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36341309547424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38887000083923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40923523902893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44182062149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40516233444214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36748647689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32675528526306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30638980865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37257790565491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44589328765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3970160484314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33591961860657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35730361938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38581538200378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43571043014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38174152374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45200300216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52430081367493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56604957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57623267173767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61950898170471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61187171936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53448247909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49171566963196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35628485679626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28704237937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23714733123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2615852355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23612904548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23001885414124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15874028205872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16586804389954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18725156784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16281318664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12921047210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14041090011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13022804260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12411904335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20150756835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14550256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11088109016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0711681842804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98054218292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17706918716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.153648853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17299604415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12513756752014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16994094848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09764337539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1322648525238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10273504257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09051609039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15263032913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2524209022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33999276161194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27075004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33184671401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31962728500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29111552238464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36544919013977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31046295166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16484928131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1220817565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11597275733948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18623399734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1740140914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17605113983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13328337669373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14448404312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20354461669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14346575737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11800909042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15975832939148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16179490089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19947052001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29824376106262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32166409492493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29620695114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25140261650085</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.35526728630066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34406566619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34508419036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37766861915588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37461400032043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34712028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27584171295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.276859998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21983671188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26667714118958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23816561698914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19743466377258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16383171081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1679048538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24834799766541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24121999740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19438004493713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24936652183533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22696423530579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12615513801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13939237594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08440613746643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17808699607849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16892313957214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22594594955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23918342590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25954937934875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24732971191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22289133071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36646771430969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44691133499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38785123825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39396166801453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38683295249939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41941833496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46320414543152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51513624191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52226400375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52022767066956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53550171852112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45302081108093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46931338310242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40312576293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3766508102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3481388092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3827600479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39497947692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3685040473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36443090438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41025376319885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55586695671082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52124547958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50291681289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4143271446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49477005004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48356938362122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45607590675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42349147796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3929431438446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41636276245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42654585838318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36341309547424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38887000083923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40923571586609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44182062149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40516233444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36748647689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32675504684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30638980865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37257790565491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44589352607727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39701628684998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33591938018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35730361938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38581562042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43571043014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38174152374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45200276374817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52430057525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56604957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57623243331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61950922012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61187171936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53448271751404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49171566963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35628461837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28704261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23714709281921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2615852355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23612904548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23001861572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15874028205872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16586780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18725156784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16281318664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12921071052551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14041090011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13022804260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12411880493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20150756835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14550232887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11088109016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07116842269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98054218292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17706918716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15364861488342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17299652099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12513732910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16994071006775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09764385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1322648525238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1027352809906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09051585197449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15263056755066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25242114067078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33999252319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27075028419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3318464756012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31962752342224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29111528396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36544942855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31046319007874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16484928131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12208199501038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1159725189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18623375892639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1740140914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17605090141296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13328337669373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14448428153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20354461669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14346551895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11800861358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15975856781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16179466247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19947099685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2982439994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32166361808777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29620695114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25140261650085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45098423957825</t>
+    <t xml:space="preserve">2.45098447799683</t>
   </si>
   <si>
     <t xml:space="preserve">2.44894814491272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46676754951477</t>
+    <t xml:space="preserve">2.46676826477051</t>
   </si>
   <si>
     <t xml:space="preserve">2.37206864356995</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.34610271453857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31504511833191</t>
+    <t xml:space="preserve">2.31504487991333</t>
   </si>
   <si>
     <t xml:space="preserve">2.4352011680603</t>
@@ -1448,40 +1448,40 @@
     <t xml:space="preserve">2.433673620224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3853063583374</t>
+    <t xml:space="preserve">2.38530611991882</t>
   </si>
   <si>
     <t xml:space="preserve">2.47593259811401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47644186019897</t>
+    <t xml:space="preserve">2.4764416217804</t>
   </si>
   <si>
     <t xml:space="preserve">2.48102378845215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47847771644592</t>
+    <t xml:space="preserve">2.47847747802734</t>
   </si>
   <si>
     <t xml:space="preserve">2.50800776481628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48713326454163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29773449897766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39192461967468</t>
+    <t xml:space="preserve">2.48713302612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29773473739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3919243812561</t>
   </si>
   <si>
     <t xml:space="preserve">2.42451000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34864783287048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39243388175964</t>
+    <t xml:space="preserve">2.34864807128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39243412017822</t>
   </si>
   <si>
     <t xml:space="preserve">2.33846521377563</t>
@@ -1490,16 +1490,16 @@
     <t xml:space="preserve">2.34304738044739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37054109573364</t>
+    <t xml:space="preserve">2.37054085731506</t>
   </si>
   <si>
     <t xml:space="preserve">2.37868714332581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36239504814148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31657195091248</t>
+    <t xml:space="preserve">2.3623948097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31657242774963</t>
   </si>
   <si>
     <t xml:space="preserve">2.32319116592407</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">2.30282616615295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31860947608948</t>
+    <t xml:space="preserve">2.31860876083374</t>
   </si>
   <si>
     <t xml:space="preserve">2.29926156997681</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">2.30129837989807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39039707183838</t>
+    <t xml:space="preserve">2.3903968334198</t>
   </si>
   <si>
     <t xml:space="preserve">2.3990523815155</t>
@@ -1526,28 +1526,28 @@
     <t xml:space="preserve">2.40821671485901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43265628814697</t>
+    <t xml:space="preserve">2.43265604972839</t>
   </si>
   <si>
     <t xml:space="preserve">2.48458790779114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45505809783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46167635917664</t>
+    <t xml:space="preserve">2.45505785942078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46167659759521</t>
   </si>
   <si>
     <t xml:space="preserve">2.48815155029297</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4428379535675</t>
+    <t xml:space="preserve">2.44283819198608</t>
   </si>
   <si>
     <t xml:space="preserve">2.41228985786438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4275643825531</t>
+    <t xml:space="preserve">2.42756462097168</t>
   </si>
   <si>
     <t xml:space="preserve">2.41585445404053</t>
@@ -1556,19 +1556,19 @@
     <t xml:space="preserve">2.42807388305664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40974450111389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40210771560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49680685997009</t>
+    <t xml:space="preserve">2.40974473953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40210747718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49680709838867</t>
   </si>
   <si>
     <t xml:space="preserve">2.50597143173218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55484914779663</t>
+    <t xml:space="preserve">2.55484890937805</t>
   </si>
   <si>
     <t xml:space="preserve">2.59150648117065</t>
@@ -1577,28 +1577,28 @@
     <t xml:space="preserve">2.62103629112244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54415678977966</t>
+    <t xml:space="preserve">2.54415655136108</t>
   </si>
   <si>
     <t xml:space="preserve">2.54466605186462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37563252449036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39753293991089</t>
+    <t xml:space="preserve">2.37563228607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39753270149231</t>
   </si>
   <si>
     <t xml:space="preserve">2.43611812591553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46271085739136</t>
+    <t xml:space="preserve">2.46271109580994</t>
   </si>
   <si>
     <t xml:space="preserve">2.43246841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38345384597778</t>
+    <t xml:space="preserve">2.3834536075592</t>
   </si>
   <si>
     <t xml:space="preserve">2.24423170089722</t>
@@ -1607,64 +1607,64 @@
     <t xml:space="preserve">2.13108205795288</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13890337944031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13942456245422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30784630775452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24006032943726</t>
+    <t xml:space="preserve">2.13890314102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1394248008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3078465461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24006056785583</t>
   </si>
   <si>
     <t xml:space="preserve">2.16393160820007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16288900375366</t>
+    <t xml:space="preserve">2.16288948059082</t>
   </si>
   <si>
     <t xml:space="preserve">2.20460319519043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14516091346741</t>
+    <t xml:space="preserve">2.14516067504883</t>
   </si>
   <si>
     <t xml:space="preserve">2.23849654197693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26508951187134</t>
+    <t xml:space="preserve">2.26508927345276</t>
   </si>
   <si>
     <t xml:space="preserve">2.301589012146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32974648475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26873922348022</t>
+    <t xml:space="preserve">2.32974624633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2687394618988</t>
   </si>
   <si>
     <t xml:space="preserve">2.25778913497925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3344395160675</t>
+    <t xml:space="preserve">2.33443927764893</t>
   </si>
   <si>
     <t xml:space="preserve">2.39336085319519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32296824455261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49399638175964</t>
+    <t xml:space="preserve">2.32296848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49399662017822</t>
   </si>
   <si>
     <t xml:space="preserve">2.44289708137512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45645427703857</t>
+    <t xml:space="preserve">2.45645451545715</t>
   </si>
   <si>
     <t xml:space="preserve">2.42151761054993</t>
@@ -1673,28 +1673,28 @@
     <t xml:space="preserve">2.44341826438904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45436835289001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44498252868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44758987426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43820428848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4861752986908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4945182800293</t>
+    <t xml:space="preserve">2.45436787605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44498229026794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44759035110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43820405006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48617553710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49451804161072</t>
   </si>
   <si>
     <t xml:space="preserve">2.44602537155151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40535354614258</t>
+    <t xml:space="preserve">2.40535378456116</t>
   </si>
   <si>
     <t xml:space="preserve">2.422039270401</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">2.36728978157043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41526079177856</t>
+    <t xml:space="preserve">2.41526103019714</t>
   </si>
   <si>
     <t xml:space="preserve">2.41265344619751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44811058044434</t>
+    <t xml:space="preserve">2.44811034202576</t>
   </si>
   <si>
     <t xml:space="preserve">2.48252582550049</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">2.4580180644989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49295377731323</t>
+    <t xml:space="preserve">2.49295353889465</t>
   </si>
   <si>
     <t xml:space="preserve">2.48148250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3928394317627</t>
+    <t xml:space="preserve">2.39283967018127</t>
   </si>
   <si>
     <t xml:space="preserve">2.38658213615417</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">2.20981764793396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15506720542908</t>
+    <t xml:space="preserve">2.15506744384766</t>
   </si>
   <si>
     <t xml:space="preserve">2.13473176956177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13212490081787</t>
+    <t xml:space="preserve">2.13212513923645</t>
   </si>
   <si>
     <t xml:space="preserve">2.08571743965149</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">2.08623886108398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13264584541321</t>
+    <t xml:space="preserve">2.13264560699463</t>
   </si>
   <si>
     <t xml:space="preserve">2.13160347938538</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">2.11491703987122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.109703540802</t>
+    <t xml:space="preserve">2.10970330238342</t>
   </si>
   <si>
     <t xml:space="preserve">2.10136103630066</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">2.06746745109558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08050322532654</t>
+    <t xml:space="preserve">2.08050346374512</t>
   </si>
   <si>
     <t xml:space="preserve">2.00228905677795</t>
@@ -1799,25 +1799,25 @@
     <t xml:space="preserve">2.06329607963562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15141773223877</t>
+    <t xml:space="preserve">2.15141749382019</t>
   </si>
   <si>
     <t xml:space="preserve">2.15558886528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21294617652893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20199632644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20408153533936</t>
+    <t xml:space="preserve">2.21294593811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20199656486511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20408201217651</t>
   </si>
   <si>
     <t xml:space="preserve">2.19678211212158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24736094474792</t>
+    <t xml:space="preserve">2.24736070632935</t>
   </si>
   <si>
     <t xml:space="preserve">2.28125357627869</t>
@@ -1829,16 +1829,16 @@
     <t xml:space="preserve">2.21659660339355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24214673042297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26978230476379</t>
+    <t xml:space="preserve">2.24214625358582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26978254318237</t>
   </si>
   <si>
     <t xml:space="preserve">2.29272508621216</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07946014404297</t>
+    <t xml:space="preserve">2.07945990562439</t>
   </si>
   <si>
     <t xml:space="preserve">1.99759602546692</t>
@@ -1847,67 +1847,67 @@
     <t xml:space="preserve">1.96266055107117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93710970878601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94910335540771</t>
+    <t xml:space="preserve">1.93710994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94910311698914</t>
   </si>
   <si>
     <t xml:space="preserve">1.91364598274231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88183867931366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84429538249969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88444554805756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84898829460144</t>
+    <t xml:space="preserve">1.88183856010437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84429562091827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88444578647614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84898805618286</t>
   </si>
   <si>
     <t xml:space="preserve">1.8630667924881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87610244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85993838310242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86254549026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82239532470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82917451858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76243126392365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72436690330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6753523349762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71393859386444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70090293884277</t>
+    <t xml:space="preserve">1.87610256671906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85993874073029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86254560947418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82239556312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82917463779449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76243138313293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72436654567719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67535221576691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71393847465515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70090270042419</t>
   </si>
   <si>
     <t xml:space="preserve">1.77598857879639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76555955410004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75095963478088</t>
+    <t xml:space="preserve">1.76555991172791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7509593963623</t>
   </si>
   <si>
     <t xml:space="preserve">1.76138830184937</t>
@@ -1916,121 +1916,121 @@
     <t xml:space="preserve">1.83282423019409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76973092556</t>
+    <t xml:space="preserve">1.76973128318787</t>
   </si>
   <si>
     <t xml:space="preserve">1.75669538974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78850281238556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80206000804901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81822407245636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82083165645599</t>
+    <t xml:space="preserve">1.78850293159485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8020601272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81822419166565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8208315372467</t>
   </si>
   <si>
     <t xml:space="preserve">1.76764571666718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78224515914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76608145236969</t>
+    <t xml:space="preserve">1.78224527835846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74991714954376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76608157157898</t>
   </si>
   <si>
     <t xml:space="preserve">1.74574565887451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80883824825287</t>
+    <t xml:space="preserve">1.80883812904358</t>
   </si>
   <si>
     <t xml:space="preserve">1.81926703453064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82031011581421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9178169965744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85055267810822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86723840236664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87662446498871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96318185329437</t>
+    <t xml:space="preserve">1.82031035423279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91781723499298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85055243968964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86723864078522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87662422657013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96318209171295</t>
   </si>
   <si>
     <t xml:space="preserve">1.92981016635895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96578872203827</t>
+    <t xml:space="preserve">1.96578848361969</t>
   </si>
   <si>
     <t xml:space="preserve">1.90321719646454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87297427654266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84116721153259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8234384059906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81613862514496</t>
+    <t xml:space="preserve">1.87297415733337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8411670923233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82343828678131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81613898277283</t>
   </si>
   <si>
     <t xml:space="preserve">1.78798115253448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75304555892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74470293521881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78015983104706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74626648426056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73323094844818</t>
+    <t xml:space="preserve">1.75304543972015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74470281600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78015995025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74626672267914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73323106765747</t>
   </si>
   <si>
     <t xml:space="preserve">1.70976710319519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75408887863159</t>
+    <t xml:space="preserve">1.7540887594223</t>
   </si>
   <si>
     <t xml:space="preserve">1.7186313867569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70715963840485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76451659202576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77546715736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73635995388031</t>
+    <t xml:space="preserve">1.70715975761414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76451671123505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77546691894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7363600730896</t>
   </si>
   <si>
     <t xml:space="preserve">1.72905945777893</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">1.73427391052246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70507419109344</t>
+    <t xml:space="preserve">1.70507431030273</t>
   </si>
   <si>
     <t xml:space="preserve">1.63937366008759</t>
@@ -2048,49 +2048,49 @@
     <t xml:space="preserve">1.56168079376221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59609508514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60235261917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59296691417694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60130941867828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59244513511658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56898093223572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57367348670959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64250242710114</t>
+    <t xml:space="preserve">1.59609520435333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60235249996185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59296679496765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60130953788757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59244501590729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56898069381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57367360591888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64250266551971</t>
   </si>
   <si>
     <t xml:space="preserve">1.62268793582916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62685918807983</t>
+    <t xml:space="preserve">1.62685930728912</t>
   </si>
   <si>
     <t xml:space="preserve">1.64093804359436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5413453578949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5460376739502</t>
+    <t xml:space="preserve">1.54134547710419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54603755474091</t>
   </si>
   <si>
     <t xml:space="preserve">1.54864513874054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55125188827515</t>
+    <t xml:space="preserve">1.55125200748444</t>
   </si>
   <si>
     <t xml:space="preserve">1.58775222301483</t>
@@ -2099,67 +2099,67 @@
     <t xml:space="preserve">1.57158815860748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71028876304626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78120303153992</t>
+    <t xml:space="preserve">1.71028852462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78120315074921</t>
   </si>
   <si>
     <t xml:space="preserve">1.76295280456543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75617361068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83751726150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83021748065948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81457436084747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78537452220917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80623137950897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82448160648346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83647406101227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88601016998291</t>
+    <t xml:space="preserve">1.75617396831512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83751702308655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83021759986877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8145740032196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78537440299988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80623161792755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82448136806488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83647382259369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88600993156433</t>
   </si>
   <si>
     <t xml:space="preserve">1.92824554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9230318069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91677391529083</t>
+    <t xml:space="preserve">1.92303156852722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91677439212799</t>
   </si>
   <si>
     <t xml:space="preserve">1.93241763114929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87558114528656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8562890291214</t>
+    <t xml:space="preserve">1.87558102607727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85628879070282</t>
   </si>
   <si>
     <t xml:space="preserve">1.84481704235077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85576713085175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89330995082855</t>
+    <t xml:space="preserve">1.85576725006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89331007003784</t>
   </si>
   <si>
     <t xml:space="preserve">1.93137454986572</t>
@@ -2168,25 +2168,25 @@
     <t xml:space="preserve">1.94597399234772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94649577140808</t>
+    <t xml:space="preserve">1.9464955329895</t>
   </si>
   <si>
     <t xml:space="preserve">1.92928862571716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90269565582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89487433433533</t>
-  </si